--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,90 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Netherlands Eerste Divisie</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>MVV</t>
+  </si>
+  <si>
+    <t>Oss</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Excelsior</t>
+  </si>
+  <si>
+    <t>Telstar</t>
+  </si>
+  <si>
+    <t>['45', '48']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['46', '49', '90+3']</t>
+  </si>
+  <si>
+    <t>['70', '73']</t>
+  </si>
+  <si>
+    <t>['5', '18']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['35', '81', '86']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +354,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +866,1242 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7465395</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45513.625</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2">
+        <v>2.5</v>
+      </c>
+      <c r="R2">
+        <v>2.3</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>1.33</v>
+      </c>
+      <c r="U2">
+        <v>3.25</v>
+      </c>
+      <c r="V2">
+        <v>2.5</v>
+      </c>
+      <c r="W2">
+        <v>1.5</v>
+      </c>
+      <c r="X2">
+        <v>6.5</v>
+      </c>
+      <c r="Y2">
+        <v>1.11</v>
+      </c>
+      <c r="Z2">
+        <v>1.85</v>
+      </c>
+      <c r="AA2">
+        <v>3.5</v>
+      </c>
+      <c r="AB2">
+        <v>3.7</v>
+      </c>
+      <c r="AC2">
+        <v>1.02</v>
+      </c>
+      <c r="AD2">
+        <v>15</v>
+      </c>
+      <c r="AE2">
+        <v>1.22</v>
+      </c>
+      <c r="AF2">
+        <v>4.2</v>
+      </c>
+      <c r="AG2">
+        <v>1.7</v>
+      </c>
+      <c r="AH2">
+        <v>2.1</v>
+      </c>
+      <c r="AI2">
+        <v>1.62</v>
+      </c>
+      <c r="AJ2">
+        <v>2.2</v>
+      </c>
+      <c r="AK2">
+        <v>1.28</v>
+      </c>
+      <c r="AL2">
+        <v>1.22</v>
+      </c>
+      <c r="AM2">
+        <v>1.9</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>7</v>
+      </c>
+      <c r="AV2">
+        <v>4</v>
+      </c>
+      <c r="AW2">
+        <v>3</v>
+      </c>
+      <c r="AX2">
+        <v>4</v>
+      </c>
+      <c r="AY2">
+        <v>10</v>
+      </c>
+      <c r="AZ2">
+        <v>8</v>
+      </c>
+      <c r="BA2">
+        <v>2</v>
+      </c>
+      <c r="BB2">
+        <v>5</v>
+      </c>
+      <c r="BC2">
+        <v>7</v>
+      </c>
+      <c r="BD2">
+        <v>1.59</v>
+      </c>
+      <c r="BE2">
+        <v>6.95</v>
+      </c>
+      <c r="BF2">
+        <v>3</v>
+      </c>
+      <c r="BG2">
+        <v>1.2</v>
+      </c>
+      <c r="BH2">
+        <v>4</v>
+      </c>
+      <c r="BI2">
+        <v>1.33</v>
+      </c>
+      <c r="BJ2">
+        <v>3</v>
+      </c>
+      <c r="BK2">
+        <v>1.58</v>
+      </c>
+      <c r="BL2">
+        <v>2.33</v>
+      </c>
+      <c r="BM2">
+        <v>1.95</v>
+      </c>
+      <c r="BN2">
+        <v>1.85</v>
+      </c>
+      <c r="BO2">
+        <v>2.46</v>
+      </c>
+      <c r="BP2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7465396</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45513.625</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3">
+        <v>2.88</v>
+      </c>
+      <c r="R3">
+        <v>2.4</v>
+      </c>
+      <c r="S3">
+        <v>3.1</v>
+      </c>
+      <c r="T3">
+        <v>1.25</v>
+      </c>
+      <c r="U3">
+        <v>3.75</v>
+      </c>
+      <c r="V3">
+        <v>2.25</v>
+      </c>
+      <c r="W3">
+        <v>1.57</v>
+      </c>
+      <c r="X3">
+        <v>5.5</v>
+      </c>
+      <c r="Y3">
+        <v>1.14</v>
+      </c>
+      <c r="Z3">
+        <v>2.3</v>
+      </c>
+      <c r="AA3">
+        <v>3.7</v>
+      </c>
+      <c r="AB3">
+        <v>2.55</v>
+      </c>
+      <c r="AC3">
+        <v>1.02</v>
+      </c>
+      <c r="AD3">
+        <v>13</v>
+      </c>
+      <c r="AE3">
+        <v>1.16</v>
+      </c>
+      <c r="AF3">
+        <v>5</v>
+      </c>
+      <c r="AG3">
+        <v>1.5</v>
+      </c>
+      <c r="AH3">
+        <v>2.5</v>
+      </c>
+      <c r="AI3">
+        <v>1.44</v>
+      </c>
+      <c r="AJ3">
+        <v>2.63</v>
+      </c>
+      <c r="AK3">
+        <v>1.45</v>
+      </c>
+      <c r="AL3">
+        <v>1.22</v>
+      </c>
+      <c r="AM3">
+        <v>1.62</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>10</v>
+      </c>
+      <c r="AV3">
+        <v>8</v>
+      </c>
+      <c r="AW3">
+        <v>5</v>
+      </c>
+      <c r="AX3">
+        <v>6</v>
+      </c>
+      <c r="AY3">
+        <v>15</v>
+      </c>
+      <c r="AZ3">
+        <v>14</v>
+      </c>
+      <c r="BA3">
+        <v>8</v>
+      </c>
+      <c r="BB3">
+        <v>5</v>
+      </c>
+      <c r="BC3">
+        <v>13</v>
+      </c>
+      <c r="BD3">
+        <v>2</v>
+      </c>
+      <c r="BE3">
+        <v>6.6</v>
+      </c>
+      <c r="BF3">
+        <v>2.2</v>
+      </c>
+      <c r="BG3">
+        <v>1.18</v>
+      </c>
+      <c r="BH3">
+        <v>4.33</v>
+      </c>
+      <c r="BI3">
+        <v>1.33</v>
+      </c>
+      <c r="BJ3">
+        <v>3</v>
+      </c>
+      <c r="BK3">
+        <v>1.55</v>
+      </c>
+      <c r="BL3">
+        <v>2.37</v>
+      </c>
+      <c r="BM3">
+        <v>1.92</v>
+      </c>
+      <c r="BN3">
+        <v>1.87</v>
+      </c>
+      <c r="BO3">
+        <v>2.4</v>
+      </c>
+      <c r="BP3">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7465397</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45513.625</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4">
+        <v>2.1</v>
+      </c>
+      <c r="R4">
+        <v>2.4</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>1.3</v>
+      </c>
+      <c r="U4">
+        <v>3.4</v>
+      </c>
+      <c r="V4">
+        <v>2.38</v>
+      </c>
+      <c r="W4">
+        <v>1.53</v>
+      </c>
+      <c r="X4">
+        <v>6</v>
+      </c>
+      <c r="Y4">
+        <v>1.13</v>
+      </c>
+      <c r="Z4">
+        <v>1.57</v>
+      </c>
+      <c r="AA4">
+        <v>3.7</v>
+      </c>
+      <c r="AB4">
+        <v>5.25</v>
+      </c>
+      <c r="AC4">
+        <v>1.02</v>
+      </c>
+      <c r="AD4">
+        <v>19</v>
+      </c>
+      <c r="AE4">
+        <v>1.18</v>
+      </c>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AG4">
+        <v>1.62</v>
+      </c>
+      <c r="AH4">
+        <v>2.25</v>
+      </c>
+      <c r="AI4">
+        <v>1.67</v>
+      </c>
+      <c r="AJ4">
+        <v>2.1</v>
+      </c>
+      <c r="AK4">
+        <v>1.16</v>
+      </c>
+      <c r="AL4">
+        <v>1.17</v>
+      </c>
+      <c r="AM4">
+        <v>2.35</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>3</v>
+      </c>
+      <c r="AV4">
+        <v>2</v>
+      </c>
+      <c r="AW4">
+        <v>6</v>
+      </c>
+      <c r="AX4">
+        <v>5</v>
+      </c>
+      <c r="AY4">
+        <v>9</v>
+      </c>
+      <c r="AZ4">
+        <v>7</v>
+      </c>
+      <c r="BA4">
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <v>4</v>
+      </c>
+      <c r="BC4">
+        <v>7</v>
+      </c>
+      <c r="BD4">
+        <v>1.35</v>
+      </c>
+      <c r="BE4">
+        <v>7.6</v>
+      </c>
+      <c r="BF4">
+        <v>4.3</v>
+      </c>
+      <c r="BG4">
+        <v>1.25</v>
+      </c>
+      <c r="BH4">
+        <v>3.6</v>
+      </c>
+      <c r="BI4">
+        <v>1.42</v>
+      </c>
+      <c r="BJ4">
+        <v>2.62</v>
+      </c>
+      <c r="BK4">
+        <v>1.71</v>
+      </c>
+      <c r="BL4">
+        <v>2.1</v>
+      </c>
+      <c r="BM4">
+        <v>2.14</v>
+      </c>
+      <c r="BN4">
+        <v>1.68</v>
+      </c>
+      <c r="BO4">
+        <v>2.62</v>
+      </c>
+      <c r="BP4">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7465398</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45513.625</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>2.38</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>1.29</v>
+      </c>
+      <c r="U5">
+        <v>3.5</v>
+      </c>
+      <c r="V5">
+        <v>2.25</v>
+      </c>
+      <c r="W5">
+        <v>1.57</v>
+      </c>
+      <c r="X5">
+        <v>5.5</v>
+      </c>
+      <c r="Y5">
+        <v>1.14</v>
+      </c>
+      <c r="Z5">
+        <v>2.45</v>
+      </c>
+      <c r="AA5">
+        <v>3.6</v>
+      </c>
+      <c r="AB5">
+        <v>2.45</v>
+      </c>
+      <c r="AC5">
+        <v>1.02</v>
+      </c>
+      <c r="AD5">
+        <v>13</v>
+      </c>
+      <c r="AE5">
+        <v>1.13</v>
+      </c>
+      <c r="AF5">
+        <v>4.8</v>
+      </c>
+      <c r="AG5">
+        <v>1.57</v>
+      </c>
+      <c r="AH5">
+        <v>2.35</v>
+      </c>
+      <c r="AI5">
+        <v>1.5</v>
+      </c>
+      <c r="AJ5">
+        <v>2.5</v>
+      </c>
+      <c r="AK5">
+        <v>1.53</v>
+      </c>
+      <c r="AL5">
+        <v>1.22</v>
+      </c>
+      <c r="AM5">
+        <v>1.53</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>3</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>3</v>
+      </c>
+      <c r="AV5">
+        <v>4</v>
+      </c>
+      <c r="AW5">
+        <v>5</v>
+      </c>
+      <c r="AX5">
+        <v>7</v>
+      </c>
+      <c r="AY5">
+        <v>8</v>
+      </c>
+      <c r="AZ5">
+        <v>11</v>
+      </c>
+      <c r="BA5">
+        <v>2</v>
+      </c>
+      <c r="BB5">
+        <v>7</v>
+      </c>
+      <c r="BC5">
+        <v>9</v>
+      </c>
+      <c r="BD5">
+        <v>2.1</v>
+      </c>
+      <c r="BE5">
+        <v>6.55</v>
+      </c>
+      <c r="BF5">
+        <v>2.1</v>
+      </c>
+      <c r="BG5">
+        <v>1.25</v>
+      </c>
+      <c r="BH5">
+        <v>3.6</v>
+      </c>
+      <c r="BI5">
+        <v>1.42</v>
+      </c>
+      <c r="BJ5">
+        <v>2.62</v>
+      </c>
+      <c r="BK5">
+        <v>1.68</v>
+      </c>
+      <c r="BL5">
+        <v>2.13</v>
+      </c>
+      <c r="BM5">
+        <v>2.09</v>
+      </c>
+      <c r="BN5">
+        <v>1.71</v>
+      </c>
+      <c r="BO5">
+        <v>2.62</v>
+      </c>
+      <c r="BP5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7465399</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45513.625</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6">
+        <v>4.33</v>
+      </c>
+      <c r="R6">
+        <v>2.38</v>
+      </c>
+      <c r="S6">
+        <v>2.38</v>
+      </c>
+      <c r="T6">
+        <v>1.3</v>
+      </c>
+      <c r="U6">
+        <v>3.4</v>
+      </c>
+      <c r="V6">
+        <v>2.38</v>
+      </c>
+      <c r="W6">
+        <v>1.53</v>
+      </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <v>1.13</v>
+      </c>
+      <c r="Z6">
+        <v>3.6</v>
+      </c>
+      <c r="AA6">
+        <v>3.9</v>
+      </c>
+      <c r="AB6">
+        <v>1.8</v>
+      </c>
+      <c r="AC6">
+        <v>1.02</v>
+      </c>
+      <c r="AD6">
+        <v>13</v>
+      </c>
+      <c r="AE6">
+        <v>1.17</v>
+      </c>
+      <c r="AF6">
+        <v>4.75</v>
+      </c>
+      <c r="AG6">
+        <v>1.57</v>
+      </c>
+      <c r="AH6">
+        <v>2.35</v>
+      </c>
+      <c r="AI6">
+        <v>1.57</v>
+      </c>
+      <c r="AJ6">
+        <v>2.25</v>
+      </c>
+      <c r="AK6">
+        <v>1.95</v>
+      </c>
+      <c r="AL6">
+        <v>1.2</v>
+      </c>
+      <c r="AM6">
+        <v>1.28</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>3</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>4</v>
+      </c>
+      <c r="AV6">
+        <v>8</v>
+      </c>
+      <c r="AW6">
+        <v>4</v>
+      </c>
+      <c r="AX6">
+        <v>9</v>
+      </c>
+      <c r="AY6">
+        <v>8</v>
+      </c>
+      <c r="AZ6">
+        <v>17</v>
+      </c>
+      <c r="BA6">
+        <v>2</v>
+      </c>
+      <c r="BB6">
+        <v>10</v>
+      </c>
+      <c r="BC6">
+        <v>12</v>
+      </c>
+      <c r="BD6">
+        <v>3.34</v>
+      </c>
+      <c r="BE6">
+        <v>6.95</v>
+      </c>
+      <c r="BF6">
+        <v>1.51</v>
+      </c>
+      <c r="BG6">
+        <v>1.22</v>
+      </c>
+      <c r="BH6">
+        <v>3.65</v>
+      </c>
+      <c r="BI6">
+        <v>1.43</v>
+      </c>
+      <c r="BJ6">
+        <v>2.54</v>
+      </c>
+      <c r="BK6">
+        <v>1.76</v>
+      </c>
+      <c r="BL6">
+        <v>1.95</v>
+      </c>
+      <c r="BM6">
+        <v>2.23</v>
+      </c>
+      <c r="BN6">
+        <v>1.55</v>
+      </c>
+      <c r="BO6">
+        <v>2.98</v>
+      </c>
+      <c r="BP6">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7465400</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45513.625</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7">
+        <v>2.38</v>
+      </c>
+      <c r="R7">
+        <v>2.38</v>
+      </c>
+      <c r="S7">
+        <v>4.33</v>
+      </c>
+      <c r="T7">
+        <v>1.3</v>
+      </c>
+      <c r="U7">
+        <v>3.4</v>
+      </c>
+      <c r="V7">
+        <v>2.38</v>
+      </c>
+      <c r="W7">
+        <v>1.53</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>1.13</v>
+      </c>
+      <c r="Z7">
+        <v>1.8</v>
+      </c>
+      <c r="AA7">
+        <v>3.5</v>
+      </c>
+      <c r="AB7">
+        <v>4.1</v>
+      </c>
+      <c r="AC7">
+        <v>1.02</v>
+      </c>
+      <c r="AD7">
+        <v>17</v>
+      </c>
+      <c r="AE7">
+        <v>1.2</v>
+      </c>
+      <c r="AF7">
+        <v>4.5</v>
+      </c>
+      <c r="AG7">
+        <v>1.65</v>
+      </c>
+      <c r="AH7">
+        <v>2.2</v>
+      </c>
+      <c r="AI7">
+        <v>1.57</v>
+      </c>
+      <c r="AJ7">
+        <v>2.25</v>
+      </c>
+      <c r="AK7">
+        <v>1.3</v>
+      </c>
+      <c r="AL7">
+        <v>1.2</v>
+      </c>
+      <c r="AM7">
+        <v>1.9</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>3</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>4</v>
+      </c>
+      <c r="AW7">
+        <v>11</v>
+      </c>
+      <c r="AX7">
+        <v>7</v>
+      </c>
+      <c r="AY7">
+        <v>16</v>
+      </c>
+      <c r="AZ7">
+        <v>11</v>
+      </c>
+      <c r="BA7">
+        <v>4</v>
+      </c>
+      <c r="BB7">
+        <v>2</v>
+      </c>
+      <c r="BC7">
+        <v>6</v>
+      </c>
+      <c r="BD7">
+        <v>1.6</v>
+      </c>
+      <c r="BE7">
+        <v>6.95</v>
+      </c>
+      <c r="BF7">
+        <v>2.97</v>
+      </c>
+      <c r="BG7">
+        <v>1.2</v>
+      </c>
+      <c r="BH7">
+        <v>4</v>
+      </c>
+      <c r="BI7">
+        <v>1.3</v>
+      </c>
+      <c r="BJ7">
+        <v>3.08</v>
+      </c>
+      <c r="BK7">
+        <v>1.54</v>
+      </c>
+      <c r="BL7">
+        <v>2.25</v>
+      </c>
+      <c r="BM7">
+        <v>1.92</v>
+      </c>
+      <c r="BN7">
+        <v>1.79</v>
+      </c>
+      <c r="BO7">
+        <v>2.45</v>
+      </c>
+      <c r="BP7">
+        <v>1.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -244,6 +244,9 @@
     <t>Vitesse</t>
   </si>
   <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
     <t>Den Bosch</t>
   </si>
   <si>
@@ -262,6 +265,9 @@
     <t>Telstar</t>
   </si>
   <si>
+    <t>VVV</t>
+  </si>
+  <si>
     <t>['45', '48']</t>
   </si>
   <si>
@@ -280,6 +286,9 @@
     <t>['70', '73']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -293,6 +302,9 @@
   </si>
   <si>
     <t>['35', '81', '86']</t>
+  </si>
+  <si>
+    <t>['69']</t>
   </si>
 </sst>
 </file>
@@ -654,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +901,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -910,10 +922,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1095,7 +1107,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1116,10 +1128,10 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1301,7 +1313,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1322,10 +1334,10 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1507,7 +1519,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1528,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1713,7 +1725,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1734,10 +1746,10 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -1919,7 +1931,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1940,10 +1952,10 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2100,6 +2112,212 @@
       </c>
       <c r="BP7">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7465401</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45514.47916666666</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8">
+        <v>2.2</v>
+      </c>
+      <c r="R8">
+        <v>2.5</v>
+      </c>
+      <c r="S8">
+        <v>4.75</v>
+      </c>
+      <c r="T8">
+        <v>1.29</v>
+      </c>
+      <c r="U8">
+        <v>3.5</v>
+      </c>
+      <c r="V8">
+        <v>2.38</v>
+      </c>
+      <c r="W8">
+        <v>1.53</v>
+      </c>
+      <c r="X8">
+        <v>5.5</v>
+      </c>
+      <c r="Y8">
+        <v>1.14</v>
+      </c>
+      <c r="Z8">
+        <v>1.6</v>
+      </c>
+      <c r="AA8">
+        <v>4.1</v>
+      </c>
+      <c r="AB8">
+        <v>4.33</v>
+      </c>
+      <c r="AC8">
+        <v>1.02</v>
+      </c>
+      <c r="AD8">
+        <v>12</v>
+      </c>
+      <c r="AE8">
+        <v>1.14</v>
+      </c>
+      <c r="AF8">
+        <v>4.6</v>
+      </c>
+      <c r="AG8">
+        <v>1.57</v>
+      </c>
+      <c r="AH8">
+        <v>2.35</v>
+      </c>
+      <c r="AI8">
+        <v>1.62</v>
+      </c>
+      <c r="AJ8">
+        <v>2.2</v>
+      </c>
+      <c r="AK8">
+        <v>1.18</v>
+      </c>
+      <c r="AL8">
+        <v>1.17</v>
+      </c>
+      <c r="AM8">
+        <v>2.25</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>4</v>
+      </c>
+      <c r="AV8">
+        <v>4</v>
+      </c>
+      <c r="AW8">
+        <v>4</v>
+      </c>
+      <c r="AX8">
+        <v>3</v>
+      </c>
+      <c r="AY8">
+        <v>8</v>
+      </c>
+      <c r="AZ8">
+        <v>7</v>
+      </c>
+      <c r="BA8">
+        <v>2</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>2</v>
+      </c>
+      <c r="BD8">
+        <v>1.36</v>
+      </c>
+      <c r="BE8">
+        <v>7.7</v>
+      </c>
+      <c r="BF8">
+        <v>4.15</v>
+      </c>
+      <c r="BG8">
+        <v>1.2</v>
+      </c>
+      <c r="BH8">
+        <v>4</v>
+      </c>
+      <c r="BI8">
+        <v>1.36</v>
+      </c>
+      <c r="BJ8">
+        <v>2.9</v>
+      </c>
+      <c r="BK8">
+        <v>1.58</v>
+      </c>
+      <c r="BL8">
+        <v>2.31</v>
+      </c>
+      <c r="BM8">
+        <v>1.96</v>
+      </c>
+      <c r="BN8">
+        <v>1.83</v>
+      </c>
+      <c r="BO8">
+        <v>2.49</v>
+      </c>
+      <c r="BP8">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -247,6 +247,9 @@
     <t>ADO Den Haag</t>
   </si>
   <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
     <t>Den Bosch</t>
   </si>
   <si>
@@ -268,6 +271,9 @@
     <t>VVV</t>
   </si>
   <si>
+    <t>Volendam</t>
+  </si>
+  <si>
     <t>['45', '48']</t>
   </si>
   <si>
@@ -289,6 +295,9 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['10', '16', '90+1', '90+4']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -305,6 +314,9 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['36', '52', '60']</t>
   </si>
 </sst>
 </file>
@@ -666,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP8"/>
+  <dimension ref="A1:BP9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,7 +913,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -922,10 +934,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1107,7 +1119,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1128,10 +1140,10 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1313,7 +1325,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1334,10 +1346,10 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1519,7 +1531,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1540,10 +1552,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1725,7 +1737,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1746,10 +1758,10 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -1931,7 +1943,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1952,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2137,7 +2149,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2158,10 +2170,10 @@
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2318,6 +2330,212 @@
       </c>
       <c r="BP8">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7465402</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45515.48958333334</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>2.88</v>
+      </c>
+      <c r="R9">
+        <v>2.38</v>
+      </c>
+      <c r="S9">
+        <v>3.25</v>
+      </c>
+      <c r="T9">
+        <v>1.3</v>
+      </c>
+      <c r="U9">
+        <v>3.4</v>
+      </c>
+      <c r="V9">
+        <v>2.38</v>
+      </c>
+      <c r="W9">
+        <v>1.53</v>
+      </c>
+      <c r="X9">
+        <v>5.5</v>
+      </c>
+      <c r="Y9">
+        <v>1.14</v>
+      </c>
+      <c r="Z9">
+        <v>2.15</v>
+      </c>
+      <c r="AA9">
+        <v>3.9</v>
+      </c>
+      <c r="AB9">
+        <v>2.7</v>
+      </c>
+      <c r="AC9">
+        <v>1.01</v>
+      </c>
+      <c r="AD9">
+        <v>12</v>
+      </c>
+      <c r="AE9">
+        <v>1.17</v>
+      </c>
+      <c r="AF9">
+        <v>4.5</v>
+      </c>
+      <c r="AG9">
+        <v>1.6</v>
+      </c>
+      <c r="AH9">
+        <v>2.3</v>
+      </c>
+      <c r="AI9">
+        <v>1.53</v>
+      </c>
+      <c r="AJ9">
+        <v>2.38</v>
+      </c>
+      <c r="AK9">
+        <v>1.42</v>
+      </c>
+      <c r="AL9">
+        <v>1.22</v>
+      </c>
+      <c r="AM9">
+        <v>1.68</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>3</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>8</v>
+      </c>
+      <c r="AV9">
+        <v>7</v>
+      </c>
+      <c r="AW9">
+        <v>3</v>
+      </c>
+      <c r="AX9">
+        <v>2</v>
+      </c>
+      <c r="AY9">
+        <v>11</v>
+      </c>
+      <c r="AZ9">
+        <v>9</v>
+      </c>
+      <c r="BA9">
+        <v>4</v>
+      </c>
+      <c r="BB9">
+        <v>5</v>
+      </c>
+      <c r="BC9">
+        <v>9</v>
+      </c>
+      <c r="BD9">
+        <v>1.69</v>
+      </c>
+      <c r="BE9">
+        <v>6.65</v>
+      </c>
+      <c r="BF9">
+        <v>2.75</v>
+      </c>
+      <c r="BG9">
+        <v>1.25</v>
+      </c>
+      <c r="BH9">
+        <v>3.6</v>
+      </c>
+      <c r="BI9">
+        <v>1.34</v>
+      </c>
+      <c r="BJ9">
+        <v>3</v>
+      </c>
+      <c r="BK9">
+        <v>1.7</v>
+      </c>
+      <c r="BL9">
+        <v>2.13</v>
+      </c>
+      <c r="BM9">
+        <v>2.12</v>
+      </c>
+      <c r="BN9">
+        <v>1.7</v>
+      </c>
+      <c r="BO9">
+        <v>2.65</v>
+      </c>
+      <c r="BP9">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -250,6 +250,12 @@
     <t>De Graafschap</t>
   </si>
   <si>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>PSV II</t>
+  </si>
+  <si>
     <t>Den Bosch</t>
   </si>
   <si>
@@ -274,6 +280,12 @@
     <t>Volendam</t>
   </si>
   <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
     <t>['45', '48']</t>
   </si>
   <si>
@@ -298,6 +310,12 @@
     <t>['10', '16', '90+1', '90+4']</t>
   </si>
   <si>
+    <t>['12', '15', '29', '34', '56', '59']</t>
+  </si>
+  <si>
+    <t>['55', '90']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -317,6 +335,12 @@
   </si>
   <si>
     <t>['36', '52', '60']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['85', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -678,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,7 +937,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -934,10 +958,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1119,7 +1143,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1140,10 +1164,10 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1325,7 +1349,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1346,10 +1370,10 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1531,7 +1555,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1552,10 +1576,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1737,7 +1761,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1758,10 +1782,10 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -1943,7 +1967,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1964,10 +1988,10 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2149,7 +2173,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2170,10 +2194,10 @@
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2355,7 +2379,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2376,10 +2400,10 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2536,6 +2560,418 @@
       </c>
       <c r="BP9">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7465403</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45516.625</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10">
+        <v>3.1</v>
+      </c>
+      <c r="R10">
+        <v>2.38</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>1.29</v>
+      </c>
+      <c r="U10">
+        <v>3.5</v>
+      </c>
+      <c r="V10">
+        <v>2.38</v>
+      </c>
+      <c r="W10">
+        <v>1.53</v>
+      </c>
+      <c r="X10">
+        <v>5.5</v>
+      </c>
+      <c r="Y10">
+        <v>1.14</v>
+      </c>
+      <c r="Z10">
+        <v>2.6</v>
+      </c>
+      <c r="AA10">
+        <v>3.9</v>
+      </c>
+      <c r="AB10">
+        <v>2.38</v>
+      </c>
+      <c r="AC10">
+        <v>1.02</v>
+      </c>
+      <c r="AD10">
+        <v>12</v>
+      </c>
+      <c r="AE10">
+        <v>1.14</v>
+      </c>
+      <c r="AF10">
+        <v>4.6</v>
+      </c>
+      <c r="AG10">
+        <v>1.57</v>
+      </c>
+      <c r="AH10">
+        <v>2.35</v>
+      </c>
+      <c r="AI10">
+        <v>1.53</v>
+      </c>
+      <c r="AJ10">
+        <v>2.38</v>
+      </c>
+      <c r="AK10">
+        <v>1.48</v>
+      </c>
+      <c r="AL10">
+        <v>1.23</v>
+      </c>
+      <c r="AM10">
+        <v>1.42</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>3</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>10</v>
+      </c>
+      <c r="AV10">
+        <v>8</v>
+      </c>
+      <c r="AW10">
+        <v>7</v>
+      </c>
+      <c r="AX10">
+        <v>5</v>
+      </c>
+      <c r="AY10">
+        <v>17</v>
+      </c>
+      <c r="AZ10">
+        <v>13</v>
+      </c>
+      <c r="BA10">
+        <v>7</v>
+      </c>
+      <c r="BB10">
+        <v>10</v>
+      </c>
+      <c r="BC10">
+        <v>17</v>
+      </c>
+      <c r="BD10">
+        <v>2.32</v>
+      </c>
+      <c r="BE10">
+        <v>6.5</v>
+      </c>
+      <c r="BF10">
+        <v>1.92</v>
+      </c>
+      <c r="BG10">
+        <v>1.25</v>
+      </c>
+      <c r="BH10">
+        <v>3.6</v>
+      </c>
+      <c r="BI10">
+        <v>1.44</v>
+      </c>
+      <c r="BJ10">
+        <v>2.6</v>
+      </c>
+      <c r="BK10">
+        <v>1.75</v>
+      </c>
+      <c r="BL10">
+        <v>2.04</v>
+      </c>
+      <c r="BM10">
+        <v>2.18</v>
+      </c>
+      <c r="BN10">
+        <v>1.65</v>
+      </c>
+      <c r="BO10">
+        <v>2.7</v>
+      </c>
+      <c r="BP10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7465404</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45516.625</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11">
+        <v>2.88</v>
+      </c>
+      <c r="R11">
+        <v>2.4</v>
+      </c>
+      <c r="S11">
+        <v>3.1</v>
+      </c>
+      <c r="T11">
+        <v>1.29</v>
+      </c>
+      <c r="U11">
+        <v>3.5</v>
+      </c>
+      <c r="V11">
+        <v>2.25</v>
+      </c>
+      <c r="W11">
+        <v>1.57</v>
+      </c>
+      <c r="X11">
+        <v>5.5</v>
+      </c>
+      <c r="Y11">
+        <v>1.14</v>
+      </c>
+      <c r="Z11">
+        <v>2.3</v>
+      </c>
+      <c r="AA11">
+        <v>3.75</v>
+      </c>
+      <c r="AB11">
+        <v>2.75</v>
+      </c>
+      <c r="AC11">
+        <v>1.03</v>
+      </c>
+      <c r="AD11">
+        <v>15</v>
+      </c>
+      <c r="AE11">
+        <v>1.18</v>
+      </c>
+      <c r="AF11">
+        <v>6</v>
+      </c>
+      <c r="AG11">
+        <v>1.53</v>
+      </c>
+      <c r="AH11">
+        <v>2.4</v>
+      </c>
+      <c r="AI11">
+        <v>1.5</v>
+      </c>
+      <c r="AJ11">
+        <v>2.5</v>
+      </c>
+      <c r="AK11">
+        <v>1.4</v>
+      </c>
+      <c r="AL11">
+        <v>1.3</v>
+      </c>
+      <c r="AM11">
+        <v>1.5</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>12</v>
+      </c>
+      <c r="AV11">
+        <v>10</v>
+      </c>
+      <c r="AW11">
+        <v>6</v>
+      </c>
+      <c r="AX11">
+        <v>6</v>
+      </c>
+      <c r="AY11">
+        <v>18</v>
+      </c>
+      <c r="AZ11">
+        <v>16</v>
+      </c>
+      <c r="BA11">
+        <v>7</v>
+      </c>
+      <c r="BB11">
+        <v>7</v>
+      </c>
+      <c r="BC11">
+        <v>14</v>
+      </c>
+      <c r="BD11">
+        <v>1.82</v>
+      </c>
+      <c r="BE11">
+        <v>7.4</v>
+      </c>
+      <c r="BF11">
+        <v>2.47</v>
+      </c>
+      <c r="BG11">
+        <v>1.21</v>
+      </c>
+      <c r="BH11">
+        <v>3.9</v>
+      </c>
+      <c r="BI11">
+        <v>1.4</v>
+      </c>
+      <c r="BJ11">
+        <v>2.7</v>
+      </c>
+      <c r="BK11">
+        <v>1.67</v>
+      </c>
+      <c r="BL11">
+        <v>2.07</v>
+      </c>
+      <c r="BM11">
+        <v>2.07</v>
+      </c>
+      <c r="BN11">
+        <v>1.67</v>
+      </c>
+      <c r="BO11">
+        <v>2.6</v>
+      </c>
+      <c r="BP11">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,33 +256,33 @@
     <t>PSV II</t>
   </si>
   <si>
+    <t>VVV</t>
+  </si>
+  <si>
+    <t>Telstar</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>Excelsior</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
     <t>Den Bosch</t>
   </si>
   <si>
     <t>Dordrecht</t>
   </si>
   <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
     <t>Cambuur</t>
   </si>
   <si>
-    <t>Excelsior</t>
-  </si>
-  <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>VVV</t>
-  </si>
-  <si>
     <t>Volendam</t>
   </si>
   <si>
-    <t>Roda JC</t>
-  </si>
-  <si>
     <t>Ajax II</t>
   </si>
   <si>
@@ -316,6 +316,12 @@
     <t>['55', '90']</t>
   </si>
   <si>
+    <t>['13', '59', '66']</t>
+  </si>
+  <si>
+    <t>['16', '23', '28', '50', '81', '85']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -341,6 +347,18 @@
   </si>
   <si>
     <t>['85', '90+5']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['23', '54', '74']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['4', '51']</t>
   </si>
 </sst>
 </file>
@@ -702,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -937,7 +955,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1143,7 +1161,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1167,7 +1185,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1349,7 +1367,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1373,7 +1391,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1555,7 +1573,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1579,7 +1597,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1761,7 +1779,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1785,7 +1803,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -1967,7 +1985,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1991,7 +2009,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2173,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2197,7 +2215,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2379,7 +2397,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2403,7 +2421,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2585,7 +2603,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -2609,7 +2627,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2815,7 +2833,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -2972,6 +2990,1242 @@
       </c>
       <c r="BP11">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7465411</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45520.625</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q12">
+        <v>2.88</v>
+      </c>
+      <c r="R12">
+        <v>2.38</v>
+      </c>
+      <c r="S12">
+        <v>3.25</v>
+      </c>
+      <c r="T12">
+        <v>1.3</v>
+      </c>
+      <c r="U12">
+        <v>3.4</v>
+      </c>
+      <c r="V12">
+        <v>2.38</v>
+      </c>
+      <c r="W12">
+        <v>1.53</v>
+      </c>
+      <c r="X12">
+        <v>5.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.14</v>
+      </c>
+      <c r="Z12">
+        <v>2.25</v>
+      </c>
+      <c r="AA12">
+        <v>3.75</v>
+      </c>
+      <c r="AB12">
+        <v>2.9</v>
+      </c>
+      <c r="AC12">
+        <v>1.03</v>
+      </c>
+      <c r="AD12">
+        <v>12</v>
+      </c>
+      <c r="AE12">
+        <v>1.18</v>
+      </c>
+      <c r="AF12">
+        <v>4.33</v>
+      </c>
+      <c r="AG12">
+        <v>1.6</v>
+      </c>
+      <c r="AH12">
+        <v>2.3</v>
+      </c>
+      <c r="AI12">
+        <v>1.53</v>
+      </c>
+      <c r="AJ12">
+        <v>2.38</v>
+      </c>
+      <c r="AK12">
+        <v>1.4</v>
+      </c>
+      <c r="AL12">
+        <v>1.29</v>
+      </c>
+      <c r="AM12">
+        <v>1.65</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>7</v>
+      </c>
+      <c r="AV12">
+        <v>4</v>
+      </c>
+      <c r="AW12">
+        <v>9</v>
+      </c>
+      <c r="AX12">
+        <v>2</v>
+      </c>
+      <c r="AY12">
+        <v>16</v>
+      </c>
+      <c r="AZ12">
+        <v>6</v>
+      </c>
+      <c r="BA12">
+        <v>11</v>
+      </c>
+      <c r="BB12">
+        <v>4</v>
+      </c>
+      <c r="BC12">
+        <v>15</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7465410</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45520.625</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13">
+        <v>2.45</v>
+      </c>
+      <c r="R13">
+        <v>2.35</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>1.3</v>
+      </c>
+      <c r="U13">
+        <v>3.34</v>
+      </c>
+      <c r="V13">
+        <v>2.38</v>
+      </c>
+      <c r="W13">
+        <v>1.54</v>
+      </c>
+      <c r="X13">
+        <v>5.55</v>
+      </c>
+      <c r="Y13">
+        <v>1.12</v>
+      </c>
+      <c r="Z13">
+        <v>1.87</v>
+      </c>
+      <c r="AA13">
+        <v>3.75</v>
+      </c>
+      <c r="AB13">
+        <v>3.75</v>
+      </c>
+      <c r="AC13">
+        <v>1.02</v>
+      </c>
+      <c r="AD13">
+        <v>10.5</v>
+      </c>
+      <c r="AE13">
+        <v>1.16</v>
+      </c>
+      <c r="AF13">
+        <v>4.25</v>
+      </c>
+      <c r="AG13">
+        <v>1.63</v>
+      </c>
+      <c r="AH13">
+        <v>2.24</v>
+      </c>
+      <c r="AI13">
+        <v>1.6</v>
+      </c>
+      <c r="AJ13">
+        <v>2.3</v>
+      </c>
+      <c r="AK13">
+        <v>1.25</v>
+      </c>
+      <c r="AL13">
+        <v>1.2</v>
+      </c>
+      <c r="AM13">
+        <v>1.95</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>3</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
+        <v>5</v>
+      </c>
+      <c r="AX13">
+        <v>2</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
+        <v>6</v>
+      </c>
+      <c r="BA13">
+        <v>8</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <v>9</v>
+      </c>
+      <c r="BD13">
+        <v>1.42</v>
+      </c>
+      <c r="BE13">
+        <v>8.5</v>
+      </c>
+      <c r="BF13">
+        <v>3.74</v>
+      </c>
+      <c r="BG13">
+        <v>1.17</v>
+      </c>
+      <c r="BH13">
+        <v>4.4</v>
+      </c>
+      <c r="BI13">
+        <v>1.3</v>
+      </c>
+      <c r="BJ13">
+        <v>3.08</v>
+      </c>
+      <c r="BK13">
+        <v>1.58</v>
+      </c>
+      <c r="BL13">
+        <v>2.31</v>
+      </c>
+      <c r="BM13">
+        <v>1.97</v>
+      </c>
+      <c r="BN13">
+        <v>1.83</v>
+      </c>
+      <c r="BO13">
+        <v>2.45</v>
+      </c>
+      <c r="BP13">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7465408</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45520.625</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14">
+        <v>1.73</v>
+      </c>
+      <c r="R14">
+        <v>2.75</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>1.25</v>
+      </c>
+      <c r="U14">
+        <v>3.75</v>
+      </c>
+      <c r="V14">
+        <v>2.1</v>
+      </c>
+      <c r="W14">
+        <v>1.67</v>
+      </c>
+      <c r="X14">
+        <v>4.5</v>
+      </c>
+      <c r="Y14">
+        <v>1.18</v>
+      </c>
+      <c r="Z14">
+        <v>1.3</v>
+      </c>
+      <c r="AA14">
+        <v>5.5</v>
+      </c>
+      <c r="AB14">
+        <v>9</v>
+      </c>
+      <c r="AC14">
+        <v>1.04</v>
+      </c>
+      <c r="AD14">
+        <v>10</v>
+      </c>
+      <c r="AE14">
+        <v>1.15</v>
+      </c>
+      <c r="AF14">
+        <v>5.25</v>
+      </c>
+      <c r="AG14">
+        <v>1.44</v>
+      </c>
+      <c r="AH14">
+        <v>2.7</v>
+      </c>
+      <c r="AI14">
+        <v>1.8</v>
+      </c>
+      <c r="AJ14">
+        <v>1.91</v>
+      </c>
+      <c r="AK14">
+        <v>1.05</v>
+      </c>
+      <c r="AL14">
+        <v>1.13</v>
+      </c>
+      <c r="AM14">
+        <v>3.34</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>6</v>
+      </c>
+      <c r="AV14">
+        <v>4</v>
+      </c>
+      <c r="AW14">
+        <v>10</v>
+      </c>
+      <c r="AX14">
+        <v>4</v>
+      </c>
+      <c r="AY14">
+        <v>16</v>
+      </c>
+      <c r="AZ14">
+        <v>8</v>
+      </c>
+      <c r="BA14">
+        <v>5</v>
+      </c>
+      <c r="BB14">
+        <v>5</v>
+      </c>
+      <c r="BC14">
+        <v>10</v>
+      </c>
+      <c r="BD14">
+        <v>1.19</v>
+      </c>
+      <c r="BE14">
+        <v>9.4</v>
+      </c>
+      <c r="BF14">
+        <v>6.35</v>
+      </c>
+      <c r="BG14">
+        <v>1.18</v>
+      </c>
+      <c r="BH14">
+        <v>4.5</v>
+      </c>
+      <c r="BI14">
+        <v>1.33</v>
+      </c>
+      <c r="BJ14">
+        <v>2.91</v>
+      </c>
+      <c r="BK14">
+        <v>1.65</v>
+      </c>
+      <c r="BL14">
+        <v>2.2</v>
+      </c>
+      <c r="BM14">
+        <v>2.06</v>
+      </c>
+      <c r="BN14">
+        <v>1.74</v>
+      </c>
+      <c r="BO14">
+        <v>2.6</v>
+      </c>
+      <c r="BP14">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7465405</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45520.625</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q15">
+        <v>2.4</v>
+      </c>
+      <c r="R15">
+        <v>2.5</v>
+      </c>
+      <c r="S15">
+        <v>3.75</v>
+      </c>
+      <c r="T15">
+        <v>1.25</v>
+      </c>
+      <c r="U15">
+        <v>3.75</v>
+      </c>
+      <c r="V15">
+        <v>2.2</v>
+      </c>
+      <c r="W15">
+        <v>1.62</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>1.17</v>
+      </c>
+      <c r="Z15">
+        <v>1.91</v>
+      </c>
+      <c r="AA15">
+        <v>3.8</v>
+      </c>
+      <c r="AB15">
+        <v>3.75</v>
+      </c>
+      <c r="AC15">
+        <v>1.02</v>
+      </c>
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15">
+        <v>1.13</v>
+      </c>
+      <c r="AF15">
+        <v>5</v>
+      </c>
+      <c r="AG15">
+        <v>1.5</v>
+      </c>
+      <c r="AH15">
+        <v>2.5</v>
+      </c>
+      <c r="AI15">
+        <v>1.5</v>
+      </c>
+      <c r="AJ15">
+        <v>2.5</v>
+      </c>
+      <c r="AK15">
+        <v>1.3</v>
+      </c>
+      <c r="AL15">
+        <v>1.25</v>
+      </c>
+      <c r="AM15">
+        <v>1.88</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>5</v>
+      </c>
+      <c r="AV15">
+        <v>7</v>
+      </c>
+      <c r="AW15">
+        <v>8</v>
+      </c>
+      <c r="AX15">
+        <v>6</v>
+      </c>
+      <c r="AY15">
+        <v>13</v>
+      </c>
+      <c r="AZ15">
+        <v>13</v>
+      </c>
+      <c r="BA15">
+        <v>6</v>
+      </c>
+      <c r="BB15">
+        <v>4</v>
+      </c>
+      <c r="BC15">
+        <v>10</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7465407</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45520.625</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16">
+        <v>2.88</v>
+      </c>
+      <c r="R16">
+        <v>2.5</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>1.25</v>
+      </c>
+      <c r="U16">
+        <v>3.75</v>
+      </c>
+      <c r="V16">
+        <v>2.1</v>
+      </c>
+      <c r="W16">
+        <v>1.67</v>
+      </c>
+      <c r="X16">
+        <v>4.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.18</v>
+      </c>
+      <c r="Z16">
+        <v>2.5</v>
+      </c>
+      <c r="AA16">
+        <v>3.8</v>
+      </c>
+      <c r="AB16">
+        <v>2.55</v>
+      </c>
+      <c r="AC16">
+        <v>1.01</v>
+      </c>
+      <c r="AD16">
+        <v>25</v>
+      </c>
+      <c r="AE16">
+        <v>1.09</v>
+      </c>
+      <c r="AF16">
+        <v>5.7</v>
+      </c>
+      <c r="AG16">
+        <v>1.44</v>
+      </c>
+      <c r="AH16">
+        <v>2.7</v>
+      </c>
+      <c r="AI16">
+        <v>1.4</v>
+      </c>
+      <c r="AJ16">
+        <v>2.75</v>
+      </c>
+      <c r="AK16">
+        <v>1.59</v>
+      </c>
+      <c r="AL16">
+        <v>1.24</v>
+      </c>
+      <c r="AM16">
+        <v>1.44</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>3</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>3</v>
+      </c>
+      <c r="AV16">
+        <v>7</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>3</v>
+      </c>
+      <c r="AY16">
+        <v>4</v>
+      </c>
+      <c r="AZ16">
+        <v>10</v>
+      </c>
+      <c r="BA16">
+        <v>2</v>
+      </c>
+      <c r="BB16">
+        <v>3</v>
+      </c>
+      <c r="BC16">
+        <v>5</v>
+      </c>
+      <c r="BD16">
+        <v>1.91</v>
+      </c>
+      <c r="BE16">
+        <v>6.55</v>
+      </c>
+      <c r="BF16">
+        <v>2.33</v>
+      </c>
+      <c r="BG16">
+        <v>1.2</v>
+      </c>
+      <c r="BH16">
+        <v>4.25</v>
+      </c>
+      <c r="BI16">
+        <v>1.34</v>
+      </c>
+      <c r="BJ16">
+        <v>2.88</v>
+      </c>
+      <c r="BK16">
+        <v>1.68</v>
+      </c>
+      <c r="BL16">
+        <v>2.16</v>
+      </c>
+      <c r="BM16">
+        <v>2.09</v>
+      </c>
+      <c r="BN16">
+        <v>1.73</v>
+      </c>
+      <c r="BO16">
+        <v>2.64</v>
+      </c>
+      <c r="BP16">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7465406</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45520.63541666666</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
+      </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17">
+        <v>3.25</v>
+      </c>
+      <c r="R17">
+        <v>2.25</v>
+      </c>
+      <c r="S17">
+        <v>3.1</v>
+      </c>
+      <c r="T17">
+        <v>1.33</v>
+      </c>
+      <c r="U17">
+        <v>3.25</v>
+      </c>
+      <c r="V17">
+        <v>2.63</v>
+      </c>
+      <c r="W17">
+        <v>1.44</v>
+      </c>
+      <c r="X17">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>1.1</v>
+      </c>
+      <c r="Z17">
+        <v>2.75</v>
+      </c>
+      <c r="AA17">
+        <v>3.5</v>
+      </c>
+      <c r="AB17">
+        <v>2.5</v>
+      </c>
+      <c r="AC17">
+        <v>1.02</v>
+      </c>
+      <c r="AD17">
+        <v>10.25</v>
+      </c>
+      <c r="AE17">
+        <v>1.21</v>
+      </c>
+      <c r="AF17">
+        <v>3.74</v>
+      </c>
+      <c r="AG17">
+        <v>1.75</v>
+      </c>
+      <c r="AH17">
+        <v>2.05</v>
+      </c>
+      <c r="AI17">
+        <v>1.62</v>
+      </c>
+      <c r="AJ17">
+        <v>2.2</v>
+      </c>
+      <c r="AK17">
+        <v>1.53</v>
+      </c>
+      <c r="AL17">
+        <v>1.28</v>
+      </c>
+      <c r="AM17">
+        <v>1.44</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>3</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>12</v>
+      </c>
+      <c r="AV17">
+        <v>3</v>
+      </c>
+      <c r="AW17">
+        <v>6</v>
+      </c>
+      <c r="AX17">
+        <v>5</v>
+      </c>
+      <c r="AY17">
+        <v>18</v>
+      </c>
+      <c r="AZ17">
+        <v>8</v>
+      </c>
+      <c r="BA17">
+        <v>6</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17">
+        <v>7</v>
+      </c>
+      <c r="BD17">
+        <v>1.99</v>
+      </c>
+      <c r="BE17">
+        <v>6.45</v>
+      </c>
+      <c r="BF17">
+        <v>2.23</v>
+      </c>
+      <c r="BG17">
+        <v>1.19</v>
+      </c>
+      <c r="BH17">
+        <v>3.92</v>
+      </c>
+      <c r="BI17">
+        <v>1.38</v>
+      </c>
+      <c r="BJ17">
+        <v>2.71</v>
+      </c>
+      <c r="BK17">
+        <v>1.72</v>
+      </c>
+      <c r="BL17">
+        <v>2.1</v>
+      </c>
+      <c r="BM17">
+        <v>2.15</v>
+      </c>
+      <c r="BN17">
+        <v>1.69</v>
+      </c>
+      <c r="BO17">
+        <v>2.79</v>
+      </c>
+      <c r="BP17">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,30 +256,30 @@
     <t>PSV II</t>
   </si>
   <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>Excelsior</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Telstar</t>
+  </si>
+  <si>
     <t>VVV</t>
   </si>
   <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>Roda JC</t>
-  </si>
-  <si>
-    <t>Excelsior</t>
-  </si>
-  <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
-    <t>Den Bosch</t>
-  </si>
-  <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
     <t>Volendam</t>
   </si>
   <si>
@@ -322,6 +322,9 @@
     <t>['16', '23', '28', '50', '81', '85']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -349,16 +352,13 @@
     <t>['85', '90+5']</t>
   </si>
   <si>
-    <t>['53']</t>
-  </si>
-  <si>
-    <t>['23', '54', '74']</t>
-  </si>
-  <si>
     <t>['90+5']</t>
   </si>
   <si>
     <t>['4', '51']</t>
+  </si>
+  <si>
+    <t>['36']</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,7 +955,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1367,7 +1367,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1391,7 +1391,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1573,7 +1573,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1779,7 +1779,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -1985,7 +1985,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2421,7 +2421,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2603,7 +2603,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -2627,7 +2627,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2833,7 +2833,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -2997,7 +2997,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7465411</v>
+        <v>7465408</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3015,7 +3015,7 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3030,85 +3030,85 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="Q12">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="R12">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="S12">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="T12">
+        <v>1.25</v>
+      </c>
+      <c r="U12">
+        <v>3.75</v>
+      </c>
+      <c r="V12">
+        <v>2.1</v>
+      </c>
+      <c r="W12">
+        <v>1.67</v>
+      </c>
+      <c r="X12">
+        <v>4.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.18</v>
+      </c>
+      <c r="Z12">
         <v>1.3</v>
       </c>
-      <c r="U12">
-        <v>3.4</v>
-      </c>
-      <c r="V12">
-        <v>2.38</v>
-      </c>
-      <c r="W12">
-        <v>1.53</v>
-      </c>
-      <c r="X12">
+      <c r="AA12">
         <v>5.5</v>
       </c>
-      <c r="Y12">
-        <v>1.14</v>
-      </c>
-      <c r="Z12">
-        <v>2.25</v>
-      </c>
-      <c r="AA12">
-        <v>3.75</v>
-      </c>
       <c r="AB12">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="AC12">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE12">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AF12">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="AG12">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AH12">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AI12">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AJ12">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="AK12">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="AL12">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AM12">
-        <v>1.65</v>
+        <v>3.34</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3132,70 +3132,70 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV12">
         <v>4</v>
       </c>
       <c r="AW12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY12">
         <v>16</v>
       </c>
       <c r="AZ12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BB12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BD12">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="BE12">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="BF12">
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="BG12">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH12">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BI12">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="BK12">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BL12">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BM12">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="BN12">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="BO12">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BP12">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3203,7 +3203,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7465410</v>
+        <v>7465405</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3221,64 +3221,64 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P13" t="s">
         <v>112</v>
       </c>
       <c r="Q13">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="R13">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T13">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U13">
-        <v>3.34</v>
+        <v>3.75</v>
       </c>
       <c r="V13">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W13">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="X13">
-        <v>5.55</v>
+        <v>5</v>
       </c>
       <c r="Y13">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="Z13">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA13">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AB13">
         <v>3.75</v>
@@ -3287,34 +3287,34 @@
         <v>1.02</v>
       </c>
       <c r="AD13">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE13">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AF13">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="AG13">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AH13">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="AI13">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AJ13">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AK13">
+        <v>1.3</v>
+      </c>
+      <c r="AL13">
         <v>1.25</v>
       </c>
-      <c r="AL13">
-        <v>1.2</v>
-      </c>
       <c r="AM13">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3338,70 +3338,70 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV13">
+        <v>7</v>
+      </c>
+      <c r="AW13">
+        <v>8</v>
+      </c>
+      <c r="AX13">
+        <v>6</v>
+      </c>
+      <c r="AY13">
+        <v>13</v>
+      </c>
+      <c r="AZ13">
+        <v>13</v>
+      </c>
+      <c r="BA13">
+        <v>6</v>
+      </c>
+      <c r="BB13">
         <v>4</v>
       </c>
-      <c r="AW13">
-        <v>5</v>
-      </c>
-      <c r="AX13">
-        <v>2</v>
-      </c>
-      <c r="AY13">
-        <v>8</v>
-      </c>
-      <c r="AZ13">
-        <v>6</v>
-      </c>
-      <c r="BA13">
-        <v>8</v>
-      </c>
-      <c r="BB13">
-        <v>1</v>
-      </c>
       <c r="BC13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD13">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="BE13">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="BF13">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="BG13">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="BH13">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BI13">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="BJ13">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="BK13">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="BL13">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="BM13">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="BN13">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="BO13">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="BP13">
-        <v>1.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3409,7 +3409,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7465408</v>
+        <v>7465407</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3427,40 +3427,40 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" t="s">
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="Q14">
-        <v>1.73</v>
+        <v>2.88</v>
       </c>
       <c r="R14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="S14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T14">
         <v>1.25</v>
@@ -3481,25 +3481,25 @@
         <v>1.18</v>
       </c>
       <c r="Z14">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="AA14">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB14">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="AC14">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AE14">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="AF14">
-        <v>5.25</v>
+        <v>5.7</v>
       </c>
       <c r="AG14">
         <v>1.44</v>
@@ -3508,106 +3508,106 @@
         <v>2.7</v>
       </c>
       <c r="AI14">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AJ14">
+        <v>2.75</v>
+      </c>
+      <c r="AK14">
+        <v>1.59</v>
+      </c>
+      <c r="AL14">
+        <v>1.24</v>
+      </c>
+      <c r="AM14">
+        <v>1.44</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>3</v>
+      </c>
+      <c r="AV14">
+        <v>7</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>3</v>
+      </c>
+      <c r="AY14">
+        <v>4</v>
+      </c>
+      <c r="AZ14">
+        <v>10</v>
+      </c>
+      <c r="BA14">
+        <v>2</v>
+      </c>
+      <c r="BB14">
+        <v>3</v>
+      </c>
+      <c r="BC14">
+        <v>5</v>
+      </c>
+      <c r="BD14">
         <v>1.91</v>
       </c>
-      <c r="AK14">
-        <v>1.05</v>
-      </c>
-      <c r="AL14">
-        <v>1.13</v>
-      </c>
-      <c r="AM14">
-        <v>3.34</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>1</v>
-      </c>
-      <c r="AQ14">
-        <v>1</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>6</v>
-      </c>
-      <c r="AV14">
-        <v>4</v>
-      </c>
-      <c r="AW14">
-        <v>10</v>
-      </c>
-      <c r="AX14">
-        <v>4</v>
-      </c>
-      <c r="AY14">
-        <v>16</v>
-      </c>
-      <c r="AZ14">
-        <v>8</v>
-      </c>
-      <c r="BA14">
-        <v>5</v>
-      </c>
-      <c r="BB14">
-        <v>5</v>
-      </c>
-      <c r="BC14">
-        <v>10</v>
-      </c>
-      <c r="BD14">
-        <v>1.19</v>
-      </c>
       <c r="BE14">
-        <v>9.4</v>
+        <v>6.55</v>
       </c>
       <c r="BF14">
-        <v>6.35</v>
+        <v>2.33</v>
       </c>
       <c r="BG14">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH14">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="BI14">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BJ14">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="BK14">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="BL14">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="BM14">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="BN14">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="BO14">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="BP14">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3615,7 +3615,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7465405</v>
+        <v>7465406</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3624,7 +3624,7 @@
         <v>69</v>
       </c>
       <c r="E15" s="2">
-        <v>45520.625</v>
+        <v>45520.63541666666</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3633,100 +3633,100 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="Q15">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="R15">
+        <v>2.25</v>
+      </c>
+      <c r="S15">
+        <v>3.1</v>
+      </c>
+      <c r="T15">
+        <v>1.33</v>
+      </c>
+      <c r="U15">
+        <v>3.25</v>
+      </c>
+      <c r="V15">
+        <v>2.63</v>
+      </c>
+      <c r="W15">
+        <v>1.44</v>
+      </c>
+      <c r="X15">
+        <v>7</v>
+      </c>
+      <c r="Y15">
+        <v>1.1</v>
+      </c>
+      <c r="Z15">
+        <v>2.75</v>
+      </c>
+      <c r="AA15">
+        <v>3.5</v>
+      </c>
+      <c r="AB15">
         <v>2.5</v>
-      </c>
-      <c r="S15">
-        <v>3.75</v>
-      </c>
-      <c r="T15">
-        <v>1.25</v>
-      </c>
-      <c r="U15">
-        <v>3.75</v>
-      </c>
-      <c r="V15">
-        <v>2.2</v>
-      </c>
-      <c r="W15">
-        <v>1.62</v>
-      </c>
-      <c r="X15">
-        <v>5</v>
-      </c>
-      <c r="Y15">
-        <v>1.17</v>
-      </c>
-      <c r="Z15">
-        <v>1.91</v>
-      </c>
-      <c r="AA15">
-        <v>3.8</v>
-      </c>
-      <c r="AB15">
-        <v>3.75</v>
       </c>
       <c r="AC15">
         <v>1.02</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE15">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AF15">
-        <v>5</v>
+        <v>3.74</v>
       </c>
       <c r="AG15">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AH15">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="AI15">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AJ15">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AK15">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="AL15">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM15">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -3750,70 +3750,70 @@
         <v>0</v>
       </c>
       <c r="AU15">
+        <v>12</v>
+      </c>
+      <c r="AV15">
+        <v>3</v>
+      </c>
+      <c r="AW15">
+        <v>6</v>
+      </c>
+      <c r="AX15">
         <v>5</v>
       </c>
-      <c r="AV15">
-        <v>7</v>
-      </c>
-      <c r="AW15">
+      <c r="AY15">
+        <v>18</v>
+      </c>
+      <c r="AZ15">
         <v>8</v>
-      </c>
-      <c r="AX15">
-        <v>6</v>
-      </c>
-      <c r="AY15">
-        <v>13</v>
-      </c>
-      <c r="AZ15">
-        <v>13</v>
       </c>
       <c r="BA15">
         <v>6</v>
       </c>
       <c r="BB15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="BE15">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="BF15">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="BG15">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="BH15">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="BI15">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="BK15">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="BL15">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BM15">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BN15">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="BO15">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="BP15">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -3821,7 +3821,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7465407</v>
+        <v>7465412</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3830,7 +3830,7 @@
         <v>69</v>
       </c>
       <c r="E16" s="2">
-        <v>45520.625</v>
+        <v>45521.47916666666</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3839,7 +3839,7 @@
         <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3851,381 +3851,175 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="P16" t="s">
         <v>114</v>
       </c>
       <c r="Q16">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R16">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T16">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U16">
+        <v>3.7</v>
+      </c>
+      <c r="V16">
+        <v>2.05</v>
+      </c>
+      <c r="W16">
+        <v>1.7</v>
+      </c>
+      <c r="X16">
+        <v>4</v>
+      </c>
+      <c r="Y16">
+        <v>1.2</v>
+      </c>
+      <c r="Z16">
+        <v>2.3</v>
+      </c>
+      <c r="AA16">
         <v>3.75</v>
       </c>
-      <c r="V16">
-        <v>2.1</v>
-      </c>
-      <c r="W16">
-        <v>1.67</v>
-      </c>
-      <c r="X16">
-        <v>4.5</v>
-      </c>
-      <c r="Y16">
+      <c r="AB16">
+        <v>2.75</v>
+      </c>
+      <c r="AC16">
+        <v>1.02</v>
+      </c>
+      <c r="AD16">
+        <v>21</v>
+      </c>
+      <c r="AE16">
+        <v>1.14</v>
+      </c>
+      <c r="AF16">
+        <v>5.5</v>
+      </c>
+      <c r="AG16">
+        <v>1.42</v>
+      </c>
+      <c r="AH16">
+        <v>2.8</v>
+      </c>
+      <c r="AI16">
+        <v>1.35</v>
+      </c>
+      <c r="AJ16">
+        <v>2.85</v>
+      </c>
+      <c r="AK16">
+        <v>1.44</v>
+      </c>
+      <c r="AL16">
+        <v>1.22</v>
+      </c>
+      <c r="AM16">
+        <v>1.6</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>4</v>
+      </c>
+      <c r="AV16">
+        <v>4</v>
+      </c>
+      <c r="AW16">
+        <v>5</v>
+      </c>
+      <c r="AX16">
+        <v>5</v>
+      </c>
+      <c r="AY16">
+        <v>9</v>
+      </c>
+      <c r="AZ16">
+        <v>9</v>
+      </c>
+      <c r="BA16">
+        <v>5</v>
+      </c>
+      <c r="BB16">
+        <v>5</v>
+      </c>
+      <c r="BC16">
+        <v>10</v>
+      </c>
+      <c r="BD16">
+        <v>1.8</v>
+      </c>
+      <c r="BE16">
+        <v>6.75</v>
+      </c>
+      <c r="BF16">
+        <v>2.49</v>
+      </c>
+      <c r="BG16">
         <v>1.18</v>
       </c>
-      <c r="Z16">
-        <v>2.5</v>
-      </c>
-      <c r="AA16">
-        <v>3.8</v>
-      </c>
-      <c r="AB16">
-        <v>2.55</v>
-      </c>
-      <c r="AC16">
-        <v>1.01</v>
-      </c>
-      <c r="AD16">
-        <v>25</v>
-      </c>
-      <c r="AE16">
-        <v>1.09</v>
-      </c>
-      <c r="AF16">
-        <v>5.7</v>
-      </c>
-      <c r="AG16">
-        <v>1.44</v>
-      </c>
-      <c r="AH16">
-        <v>2.7</v>
-      </c>
-      <c r="AI16">
-        <v>1.4</v>
-      </c>
-      <c r="AJ16">
-        <v>2.75</v>
-      </c>
-      <c r="AK16">
-        <v>1.59</v>
-      </c>
-      <c r="AL16">
-        <v>1.24</v>
-      </c>
-      <c r="AM16">
-        <v>1.44</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>3</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>3</v>
-      </c>
-      <c r="AV16">
-        <v>7</v>
-      </c>
-      <c r="AW16">
-        <v>1</v>
-      </c>
-      <c r="AX16">
-        <v>3</v>
-      </c>
-      <c r="AY16">
-        <v>4</v>
-      </c>
-      <c r="AZ16">
-        <v>10</v>
-      </c>
-      <c r="BA16">
-        <v>2</v>
-      </c>
-      <c r="BB16">
-        <v>3</v>
-      </c>
-      <c r="BC16">
-        <v>5</v>
-      </c>
-      <c r="BD16">
-        <v>1.91</v>
-      </c>
-      <c r="BE16">
-        <v>6.55</v>
-      </c>
-      <c r="BF16">
-        <v>2.33</v>
-      </c>
-      <c r="BG16">
-        <v>1.2</v>
-      </c>
       <c r="BH16">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="BI16">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BJ16">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="BK16">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="BL16">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="BM16">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="BN16">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="BO16">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="BP16">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:68">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>7465406</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="2">
-        <v>45520.63541666666</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>6</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>6</v>
-      </c>
-      <c r="O17" t="s">
-        <v>101</v>
-      </c>
-      <c r="P17" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q17">
-        <v>3.25</v>
-      </c>
-      <c r="R17">
-        <v>2.25</v>
-      </c>
-      <c r="S17">
-        <v>3.1</v>
-      </c>
-      <c r="T17">
-        <v>1.33</v>
-      </c>
-      <c r="U17">
-        <v>3.25</v>
-      </c>
-      <c r="V17">
-        <v>2.63</v>
-      </c>
-      <c r="W17">
-        <v>1.44</v>
-      </c>
-      <c r="X17">
-        <v>7</v>
-      </c>
-      <c r="Y17">
-        <v>1.1</v>
-      </c>
-      <c r="Z17">
-        <v>2.75</v>
-      </c>
-      <c r="AA17">
-        <v>3.5</v>
-      </c>
-      <c r="AB17">
-        <v>2.5</v>
-      </c>
-      <c r="AC17">
-        <v>1.02</v>
-      </c>
-      <c r="AD17">
-        <v>10.25</v>
-      </c>
-      <c r="AE17">
-        <v>1.21</v>
-      </c>
-      <c r="AF17">
-        <v>3.74</v>
-      </c>
-      <c r="AG17">
-        <v>1.75</v>
-      </c>
-      <c r="AH17">
-        <v>2.05</v>
-      </c>
-      <c r="AI17">
-        <v>1.62</v>
-      </c>
-      <c r="AJ17">
-        <v>2.2</v>
-      </c>
-      <c r="AK17">
-        <v>1.53</v>
-      </c>
-      <c r="AL17">
-        <v>1.28</v>
-      </c>
-      <c r="AM17">
-        <v>1.44</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>3</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>12</v>
-      </c>
-      <c r="AV17">
-        <v>3</v>
-      </c>
-      <c r="AW17">
-        <v>6</v>
-      </c>
-      <c r="AX17">
-        <v>5</v>
-      </c>
-      <c r="AY17">
-        <v>18</v>
-      </c>
-      <c r="AZ17">
-        <v>8</v>
-      </c>
-      <c r="BA17">
-        <v>6</v>
-      </c>
-      <c r="BB17">
-        <v>1</v>
-      </c>
-      <c r="BC17">
-        <v>7</v>
-      </c>
-      <c r="BD17">
-        <v>1.99</v>
-      </c>
-      <c r="BE17">
-        <v>6.45</v>
-      </c>
-      <c r="BF17">
-        <v>2.23</v>
-      </c>
-      <c r="BG17">
-        <v>1.19</v>
-      </c>
-      <c r="BH17">
-        <v>3.92</v>
-      </c>
-      <c r="BI17">
-        <v>1.38</v>
-      </c>
-      <c r="BJ17">
-        <v>2.71</v>
-      </c>
-      <c r="BK17">
-        <v>1.72</v>
-      </c>
-      <c r="BL17">
-        <v>2.1</v>
-      </c>
-      <c r="BM17">
-        <v>2.15</v>
-      </c>
-      <c r="BN17">
-        <v>1.69</v>
-      </c>
-      <c r="BO17">
-        <v>2.79</v>
-      </c>
-      <c r="BP17">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,6 +256,12 @@
     <t>PSV II</t>
   </si>
   <si>
+    <t>VVV</t>
+  </si>
+  <si>
+    <t>Telstar</t>
+  </si>
+  <si>
     <t>Roda JC</t>
   </si>
   <si>
@@ -274,12 +280,6 @@
     <t>Cambuur</t>
   </si>
   <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>VVV</t>
-  </si>
-  <si>
     <t>Volendam</t>
   </si>
   <si>
@@ -352,6 +352,12 @@
     <t>['85', '90+5']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['23', '54', '74']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -359,6 +365,9 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -720,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1:BP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,7 +964,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1161,7 +1170,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1367,7 +1376,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1573,7 +1582,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1779,7 +1788,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1985,7 +1994,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2191,7 +2200,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2603,7 +2612,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -2997,7 +3006,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7465408</v>
+        <v>7465411</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3015,7 +3024,7 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3030,172 +3039,172 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="Q12">
-        <v>1.73</v>
+        <v>2.88</v>
       </c>
       <c r="R12">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="S12">
+        <v>3.25</v>
+      </c>
+      <c r="T12">
+        <v>1.3</v>
+      </c>
+      <c r="U12">
+        <v>3.4</v>
+      </c>
+      <c r="V12">
+        <v>2.38</v>
+      </c>
+      <c r="W12">
+        <v>1.53</v>
+      </c>
+      <c r="X12">
+        <v>5.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.14</v>
+      </c>
+      <c r="Z12">
+        <v>2.25</v>
+      </c>
+      <c r="AA12">
+        <v>3.75</v>
+      </c>
+      <c r="AB12">
+        <v>2.9</v>
+      </c>
+      <c r="AC12">
+        <v>1.03</v>
+      </c>
+      <c r="AD12">
+        <v>12</v>
+      </c>
+      <c r="AE12">
+        <v>1.18</v>
+      </c>
+      <c r="AF12">
+        <v>4.33</v>
+      </c>
+      <c r="AG12">
+        <v>1.6</v>
+      </c>
+      <c r="AH12">
+        <v>2.3</v>
+      </c>
+      <c r="AI12">
+        <v>1.53</v>
+      </c>
+      <c r="AJ12">
+        <v>2.38</v>
+      </c>
+      <c r="AK12">
+        <v>1.4</v>
+      </c>
+      <c r="AL12">
+        <v>1.29</v>
+      </c>
+      <c r="AM12">
+        <v>1.65</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
         <v>7</v>
-      </c>
-      <c r="T12">
-        <v>1.25</v>
-      </c>
-      <c r="U12">
-        <v>3.75</v>
-      </c>
-      <c r="V12">
-        <v>2.1</v>
-      </c>
-      <c r="W12">
-        <v>1.67</v>
-      </c>
-      <c r="X12">
-        <v>4.5</v>
-      </c>
-      <c r="Y12">
-        <v>1.18</v>
-      </c>
-      <c r="Z12">
-        <v>1.3</v>
-      </c>
-      <c r="AA12">
-        <v>5.5</v>
-      </c>
-      <c r="AB12">
-        <v>9</v>
-      </c>
-      <c r="AC12">
-        <v>1.04</v>
-      </c>
-      <c r="AD12">
-        <v>10</v>
-      </c>
-      <c r="AE12">
-        <v>1.15</v>
-      </c>
-      <c r="AF12">
-        <v>5.25</v>
-      </c>
-      <c r="AG12">
-        <v>1.44</v>
-      </c>
-      <c r="AH12">
-        <v>2.7</v>
-      </c>
-      <c r="AI12">
-        <v>1.8</v>
-      </c>
-      <c r="AJ12">
-        <v>1.91</v>
-      </c>
-      <c r="AK12">
-        <v>1.05</v>
-      </c>
-      <c r="AL12">
-        <v>1.13</v>
-      </c>
-      <c r="AM12">
-        <v>3.34</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>1</v>
-      </c>
-      <c r="AQ12">
-        <v>1</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>6</v>
       </c>
       <c r="AV12">
         <v>4</v>
       </c>
       <c r="AW12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY12">
         <v>16</v>
       </c>
       <c r="AZ12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BB12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD12">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="BE12">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="BF12">
-        <v>6.35</v>
+        <v>0</v>
       </c>
       <c r="BG12">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH12">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="BI12">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BJ12">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="BK12">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BL12">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="BM12">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="BN12">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="BO12">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="BP12">
-        <v>1.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3203,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7465405</v>
+        <v>7465410</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3221,64 +3230,64 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
       <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13">
+        <v>2.45</v>
+      </c>
+      <c r="R13">
+        <v>2.35</v>
+      </c>
+      <c r="S13">
         <v>4</v>
       </c>
-      <c r="O13" t="s">
-        <v>100</v>
-      </c>
-      <c r="P13" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q13">
-        <v>2.4</v>
-      </c>
-      <c r="R13">
-        <v>2.5</v>
-      </c>
-      <c r="S13">
+      <c r="T13">
+        <v>1.3</v>
+      </c>
+      <c r="U13">
+        <v>3.34</v>
+      </c>
+      <c r="V13">
+        <v>2.38</v>
+      </c>
+      <c r="W13">
+        <v>1.54</v>
+      </c>
+      <c r="X13">
+        <v>5.55</v>
+      </c>
+      <c r="Y13">
+        <v>1.12</v>
+      </c>
+      <c r="Z13">
+        <v>1.87</v>
+      </c>
+      <c r="AA13">
         <v>3.75</v>
-      </c>
-      <c r="T13">
-        <v>1.25</v>
-      </c>
-      <c r="U13">
-        <v>3.75</v>
-      </c>
-      <c r="V13">
-        <v>2.2</v>
-      </c>
-      <c r="W13">
-        <v>1.62</v>
-      </c>
-      <c r="X13">
-        <v>5</v>
-      </c>
-      <c r="Y13">
-        <v>1.17</v>
-      </c>
-      <c r="Z13">
-        <v>1.91</v>
-      </c>
-      <c r="AA13">
-        <v>3.8</v>
       </c>
       <c r="AB13">
         <v>3.75</v>
@@ -3287,121 +3296,121 @@
         <v>1.02</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE13">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AF13">
+        <v>4.25</v>
+      </c>
+      <c r="AG13">
+        <v>1.63</v>
+      </c>
+      <c r="AH13">
+        <v>2.24</v>
+      </c>
+      <c r="AI13">
+        <v>1.6</v>
+      </c>
+      <c r="AJ13">
+        <v>2.3</v>
+      </c>
+      <c r="AK13">
+        <v>1.25</v>
+      </c>
+      <c r="AL13">
+        <v>1.2</v>
+      </c>
+      <c r="AM13">
+        <v>1.95</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>3</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
         <v>5</v>
       </c>
-      <c r="AG13">
-        <v>1.5</v>
-      </c>
-      <c r="AH13">
-        <v>2.5</v>
-      </c>
-      <c r="AI13">
-        <v>1.5</v>
-      </c>
-      <c r="AJ13">
-        <v>2.5</v>
-      </c>
-      <c r="AK13">
+      <c r="AX13">
+        <v>2</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
+        <v>6</v>
+      </c>
+      <c r="BA13">
+        <v>8</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <v>9</v>
+      </c>
+      <c r="BD13">
+        <v>1.42</v>
+      </c>
+      <c r="BE13">
+        <v>8.5</v>
+      </c>
+      <c r="BF13">
+        <v>3.74</v>
+      </c>
+      <c r="BG13">
+        <v>1.17</v>
+      </c>
+      <c r="BH13">
+        <v>4.4</v>
+      </c>
+      <c r="BI13">
         <v>1.3</v>
       </c>
-      <c r="AL13">
-        <v>1.25</v>
-      </c>
-      <c r="AM13">
-        <v>1.88</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>3</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>5</v>
-      </c>
-      <c r="AV13">
-        <v>7</v>
-      </c>
-      <c r="AW13">
-        <v>8</v>
-      </c>
-      <c r="AX13">
-        <v>6</v>
-      </c>
-      <c r="AY13">
-        <v>13</v>
-      </c>
-      <c r="AZ13">
-        <v>13</v>
-      </c>
-      <c r="BA13">
-        <v>6</v>
-      </c>
-      <c r="BB13">
-        <v>4</v>
-      </c>
-      <c r="BC13">
-        <v>10</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="BK13">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="BL13">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="BM13">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="BN13">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="BO13">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="BP13">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3409,7 +3418,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7465407</v>
+        <v>7465408</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3427,40 +3436,40 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="Q14">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="R14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T14">
         <v>1.25</v>
@@ -3481,25 +3490,25 @@
         <v>1.18</v>
       </c>
       <c r="Z14">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="AA14">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="AB14">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="AC14">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE14">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="AF14">
-        <v>5.7</v>
+        <v>5.25</v>
       </c>
       <c r="AG14">
         <v>1.44</v>
@@ -3508,19 +3517,19 @@
         <v>2.7</v>
       </c>
       <c r="AI14">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AJ14">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="AK14">
-        <v>1.59</v>
+        <v>1.05</v>
       </c>
       <c r="AL14">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AM14">
-        <v>1.44</v>
+        <v>3.34</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -3529,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3544,70 +3553,70 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AX14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY14">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AZ14">
+        <v>8</v>
+      </c>
+      <c r="BA14">
+        <v>5</v>
+      </c>
+      <c r="BB14">
+        <v>5</v>
+      </c>
+      <c r="BC14">
         <v>10</v>
       </c>
-      <c r="BA14">
-        <v>2</v>
-      </c>
-      <c r="BB14">
-        <v>3</v>
-      </c>
-      <c r="BC14">
-        <v>5</v>
-      </c>
       <c r="BD14">
-        <v>1.91</v>
+        <v>1.19</v>
       </c>
       <c r="BE14">
-        <v>6.55</v>
+        <v>9.4</v>
       </c>
       <c r="BF14">
-        <v>2.33</v>
+        <v>6.35</v>
       </c>
       <c r="BG14">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH14">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="BI14">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BJ14">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="BK14">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="BL14">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="BM14">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="BN14">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="BO14">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="BP14">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3615,7 +3624,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7465406</v>
+        <v>7465405</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3624,7 +3633,7 @@
         <v>69</v>
       </c>
       <c r="E15" s="2">
-        <v>45520.63541666666</v>
+        <v>45520.625</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3633,100 +3642,100 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>6</v>
-      </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="Q15">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="R15">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S15">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="T15">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U15">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V15">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W15">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y15">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="Z15">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="AA15">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB15">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="AC15">
         <v>1.02</v>
       </c>
       <c r="AD15">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AE15">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AF15">
-        <v>3.74</v>
+        <v>5</v>
       </c>
       <c r="AG15">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AH15">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="AI15">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AJ15">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AK15">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="AL15">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM15">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -3750,70 +3759,70 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW15">
+        <v>8</v>
+      </c>
+      <c r="AX15">
         <v>6</v>
       </c>
-      <c r="AX15">
-        <v>5</v>
-      </c>
       <c r="AY15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA15">
         <v>6</v>
       </c>
       <c r="BB15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD15">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="BE15">
-        <v>6.45</v>
+        <v>0</v>
       </c>
       <c r="BF15">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="BG15">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="BH15">
-        <v>3.92</v>
+        <v>0</v>
       </c>
       <c r="BI15">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="BJ15">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="BK15">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="BL15">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BM15">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BN15">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="BO15">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="BP15">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -3821,7 +3830,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7465412</v>
+        <v>7465407</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3830,7 +3839,7 @@
         <v>69</v>
       </c>
       <c r="E16" s="2">
-        <v>45521.47916666666</v>
+        <v>45520.625</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3839,7 +3848,7 @@
         <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3851,175 +3860,999 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>2</v>
       </c>
       <c r="O16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16">
+        <v>2.88</v>
+      </c>
+      <c r="R16">
+        <v>2.5</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>1.25</v>
+      </c>
+      <c r="U16">
+        <v>3.75</v>
+      </c>
+      <c r="V16">
+        <v>2.1</v>
+      </c>
+      <c r="W16">
+        <v>1.67</v>
+      </c>
+      <c r="X16">
+        <v>4.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.18</v>
+      </c>
+      <c r="Z16">
+        <v>2.5</v>
+      </c>
+      <c r="AA16">
+        <v>3.8</v>
+      </c>
+      <c r="AB16">
+        <v>2.55</v>
+      </c>
+      <c r="AC16">
+        <v>1.01</v>
+      </c>
+      <c r="AD16">
+        <v>25</v>
+      </c>
+      <c r="AE16">
+        <v>1.09</v>
+      </c>
+      <c r="AF16">
+        <v>5.7</v>
+      </c>
+      <c r="AG16">
+        <v>1.44</v>
+      </c>
+      <c r="AH16">
+        <v>2.7</v>
+      </c>
+      <c r="AI16">
+        <v>1.4</v>
+      </c>
+      <c r="AJ16">
+        <v>2.75</v>
+      </c>
+      <c r="AK16">
+        <v>1.59</v>
+      </c>
+      <c r="AL16">
+        <v>1.24</v>
+      </c>
+      <c r="AM16">
+        <v>1.44</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>3</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>3</v>
+      </c>
+      <c r="AV16">
+        <v>7</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>3</v>
+      </c>
+      <c r="AY16">
+        <v>4</v>
+      </c>
+      <c r="AZ16">
+        <v>10</v>
+      </c>
+      <c r="BA16">
+        <v>2</v>
+      </c>
+      <c r="BB16">
+        <v>3</v>
+      </c>
+      <c r="BC16">
+        <v>5</v>
+      </c>
+      <c r="BD16">
+        <v>1.91</v>
+      </c>
+      <c r="BE16">
+        <v>6.55</v>
+      </c>
+      <c r="BF16">
+        <v>2.33</v>
+      </c>
+      <c r="BG16">
+        <v>1.2</v>
+      </c>
+      <c r="BH16">
+        <v>4.25</v>
+      </c>
+      <c r="BI16">
+        <v>1.34</v>
+      </c>
+      <c r="BJ16">
+        <v>2.88</v>
+      </c>
+      <c r="BK16">
+        <v>1.68</v>
+      </c>
+      <c r="BL16">
+        <v>2.16</v>
+      </c>
+      <c r="BM16">
+        <v>2.09</v>
+      </c>
+      <c r="BN16">
+        <v>1.73</v>
+      </c>
+      <c r="BO16">
+        <v>2.64</v>
+      </c>
+      <c r="BP16">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7465406</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45520.63541666666</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
+      </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17">
+        <v>3.25</v>
+      </c>
+      <c r="R17">
+        <v>2.25</v>
+      </c>
+      <c r="S17">
+        <v>3.1</v>
+      </c>
+      <c r="T17">
+        <v>1.33</v>
+      </c>
+      <c r="U17">
+        <v>3.25</v>
+      </c>
+      <c r="V17">
+        <v>2.63</v>
+      </c>
+      <c r="W17">
+        <v>1.44</v>
+      </c>
+      <c r="X17">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>1.1</v>
+      </c>
+      <c r="Z17">
+        <v>2.75</v>
+      </c>
+      <c r="AA17">
+        <v>3.5</v>
+      </c>
+      <c r="AB17">
+        <v>2.5</v>
+      </c>
+      <c r="AC17">
+        <v>1.02</v>
+      </c>
+      <c r="AD17">
+        <v>10.25</v>
+      </c>
+      <c r="AE17">
+        <v>1.21</v>
+      </c>
+      <c r="AF17">
+        <v>3.74</v>
+      </c>
+      <c r="AG17">
+        <v>1.75</v>
+      </c>
+      <c r="AH17">
+        <v>2.05</v>
+      </c>
+      <c r="AI17">
+        <v>1.62</v>
+      </c>
+      <c r="AJ17">
+        <v>2.2</v>
+      </c>
+      <c r="AK17">
+        <v>1.53</v>
+      </c>
+      <c r="AL17">
+        <v>1.28</v>
+      </c>
+      <c r="AM17">
+        <v>1.44</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>3</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>12</v>
+      </c>
+      <c r="AV17">
+        <v>3</v>
+      </c>
+      <c r="AW17">
+        <v>6</v>
+      </c>
+      <c r="AX17">
+        <v>5</v>
+      </c>
+      <c r="AY17">
+        <v>18</v>
+      </c>
+      <c r="AZ17">
+        <v>8</v>
+      </c>
+      <c r="BA17">
+        <v>6</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17">
+        <v>7</v>
+      </c>
+      <c r="BD17">
+        <v>1.99</v>
+      </c>
+      <c r="BE17">
+        <v>6.45</v>
+      </c>
+      <c r="BF17">
+        <v>2.23</v>
+      </c>
+      <c r="BG17">
+        <v>1.19</v>
+      </c>
+      <c r="BH17">
+        <v>3.92</v>
+      </c>
+      <c r="BI17">
+        <v>1.38</v>
+      </c>
+      <c r="BJ17">
+        <v>2.71</v>
+      </c>
+      <c r="BK17">
+        <v>1.72</v>
+      </c>
+      <c r="BL17">
+        <v>2.1</v>
+      </c>
+      <c r="BM17">
+        <v>2.15</v>
+      </c>
+      <c r="BN17">
+        <v>1.69</v>
+      </c>
+      <c r="BO17">
+        <v>2.79</v>
+      </c>
+      <c r="BP17">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7465412</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45521.47916666666</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
         <v>102</v>
       </c>
-      <c r="P16" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16">
+      <c r="P18" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18">
         <v>2.7</v>
       </c>
-      <c r="R16">
+      <c r="R18">
         <v>2.35</v>
       </c>
-      <c r="S16">
+      <c r="S18">
         <v>3.1</v>
       </c>
-      <c r="T16">
+      <c r="T18">
         <v>1.22</v>
       </c>
-      <c r="U16">
+      <c r="U18">
         <v>3.7</v>
       </c>
-      <c r="V16">
+      <c r="V18">
         <v>2.05</v>
       </c>
-      <c r="W16">
+      <c r="W18">
         <v>1.7</v>
       </c>
-      <c r="X16">
+      <c r="X18">
         <v>4</v>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <v>1.2</v>
       </c>
-      <c r="Z16">
+      <c r="Z18">
         <v>2.3</v>
       </c>
-      <c r="AA16">
+      <c r="AA18">
         <v>3.75</v>
       </c>
-      <c r="AB16">
+      <c r="AB18">
         <v>2.75</v>
       </c>
-      <c r="AC16">
+      <c r="AC18">
         <v>1.02</v>
       </c>
-      <c r="AD16">
+      <c r="AD18">
         <v>21</v>
       </c>
-      <c r="AE16">
+      <c r="AE18">
         <v>1.14</v>
       </c>
-      <c r="AF16">
+      <c r="AF18">
         <v>5.5</v>
       </c>
-      <c r="AG16">
+      <c r="AG18">
         <v>1.42</v>
       </c>
-      <c r="AH16">
+      <c r="AH18">
         <v>2.8</v>
       </c>
-      <c r="AI16">
+      <c r="AI18">
         <v>1.35</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ18">
         <v>2.85</v>
       </c>
-      <c r="AK16">
+      <c r="AK18">
         <v>1.44</v>
       </c>
-      <c r="AL16">
+      <c r="AL18">
         <v>1.22</v>
       </c>
-      <c r="AM16">
+      <c r="AM18">
         <v>1.6</v>
       </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>1</v>
-      </c>
-      <c r="AQ16">
-        <v>1</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
         <v>4</v>
       </c>
-      <c r="AV16">
+      <c r="AV18">
         <v>4</v>
       </c>
-      <c r="AW16">
+      <c r="AW18">
         <v>5</v>
       </c>
-      <c r="AX16">
+      <c r="AX18">
         <v>5</v>
       </c>
-      <c r="AY16">
+      <c r="AY18">
         <v>9</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ18">
         <v>9</v>
       </c>
-      <c r="BA16">
+      <c r="BA18">
         <v>5</v>
       </c>
-      <c r="BB16">
+      <c r="BB18">
         <v>5</v>
       </c>
-      <c r="BC16">
+      <c r="BC18">
         <v>10</v>
       </c>
-      <c r="BD16">
+      <c r="BD18">
         <v>1.8</v>
       </c>
-      <c r="BE16">
+      <c r="BE18">
         <v>6.75</v>
       </c>
-      <c r="BF16">
+      <c r="BF18">
         <v>2.49</v>
       </c>
-      <c r="BG16">
+      <c r="BG18">
         <v>1.18</v>
       </c>
-      <c r="BH16">
+      <c r="BH18">
         <v>4.3</v>
       </c>
-      <c r="BI16">
+      <c r="BI18">
         <v>1.3</v>
       </c>
-      <c r="BJ16">
+      <c r="BJ18">
         <v>3.08</v>
       </c>
-      <c r="BK16">
+      <c r="BK18">
         <v>1.54</v>
       </c>
-      <c r="BL16">
+      <c r="BL18">
         <v>2.4</v>
       </c>
-      <c r="BM16">
+      <c r="BM18">
         <v>1.92</v>
       </c>
-      <c r="BN16">
+      <c r="BN18">
         <v>1.88</v>
       </c>
-      <c r="BO16">
+      <c r="BO18">
         <v>2.38</v>
       </c>
-      <c r="BP16">
+      <c r="BP18">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7465409</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45522.30208333334</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19">
+        <v>2.13</v>
+      </c>
+      <c r="R19">
+        <v>2.56</v>
+      </c>
+      <c r="S19">
+        <v>4.93</v>
+      </c>
+      <c r="T19">
+        <v>1.28</v>
+      </c>
+      <c r="U19">
+        <v>3.48</v>
+      </c>
+      <c r="V19">
+        <v>2.34</v>
+      </c>
+      <c r="W19">
+        <v>1.59</v>
+      </c>
+      <c r="X19">
+        <v>5.25</v>
+      </c>
+      <c r="Y19">
+        <v>1.14</v>
+      </c>
+      <c r="Z19">
+        <v>1.65</v>
+      </c>
+      <c r="AA19">
+        <v>4.13</v>
+      </c>
+      <c r="AB19">
+        <v>4.67</v>
+      </c>
+      <c r="AC19">
+        <v>1.02</v>
+      </c>
+      <c r="AD19">
+        <v>12</v>
+      </c>
+      <c r="AE19">
+        <v>1.15</v>
+      </c>
+      <c r="AF19">
+        <v>4.55</v>
+      </c>
+      <c r="AG19">
+        <v>1.57</v>
+      </c>
+      <c r="AH19">
+        <v>2.38</v>
+      </c>
+      <c r="AI19">
+        <v>1.58</v>
+      </c>
+      <c r="AJ19">
+        <v>2.23</v>
+      </c>
+      <c r="AK19">
+        <v>1.18</v>
+      </c>
+      <c r="AL19">
+        <v>1.21</v>
+      </c>
+      <c r="AM19">
+        <v>2.17</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>3</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>9</v>
+      </c>
+      <c r="AV19">
+        <v>2</v>
+      </c>
+      <c r="AW19">
+        <v>7</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>16</v>
+      </c>
+      <c r="AZ19">
+        <v>2</v>
+      </c>
+      <c r="BA19">
+        <v>8</v>
+      </c>
+      <c r="BB19">
+        <v>4</v>
+      </c>
+      <c r="BC19">
+        <v>12</v>
+      </c>
+      <c r="BD19">
+        <v>1.41</v>
+      </c>
+      <c r="BE19">
+        <v>7.4</v>
+      </c>
+      <c r="BF19">
+        <v>3.82</v>
+      </c>
+      <c r="BG19">
+        <v>1.17</v>
+      </c>
+      <c r="BH19">
+        <v>4.5</v>
+      </c>
+      <c r="BI19">
+        <v>1.28</v>
+      </c>
+      <c r="BJ19">
+        <v>3.18</v>
+      </c>
+      <c r="BK19">
+        <v>1.57</v>
+      </c>
+      <c r="BL19">
+        <v>2.34</v>
+      </c>
+      <c r="BM19">
+        <v>1.94</v>
+      </c>
+      <c r="BN19">
+        <v>1.85</v>
+      </c>
+      <c r="BO19">
+        <v>2.46</v>
+      </c>
+      <c r="BP19">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7465413</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45522.48958333334</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20">
+        <v>2.4</v>
+      </c>
+      <c r="R20">
+        <v>2.6</v>
+      </c>
+      <c r="S20">
+        <v>3.75</v>
+      </c>
+      <c r="T20">
+        <v>1.22</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>2.1</v>
+      </c>
+      <c r="W20">
+        <v>1.67</v>
+      </c>
+      <c r="X20">
+        <v>4.5</v>
+      </c>
+      <c r="Y20">
+        <v>1.18</v>
+      </c>
+      <c r="Z20">
+        <v>1.91</v>
+      </c>
+      <c r="AA20">
+        <v>3.8</v>
+      </c>
+      <c r="AB20">
+        <v>3.8</v>
+      </c>
+      <c r="AC20">
+        <v>1.01</v>
+      </c>
+      <c r="AD20">
+        <v>23</v>
+      </c>
+      <c r="AE20">
+        <v>1.09</v>
+      </c>
+      <c r="AF20">
+        <v>5.75</v>
+      </c>
+      <c r="AG20">
+        <v>1.44</v>
+      </c>
+      <c r="AH20">
+        <v>2.7</v>
+      </c>
+      <c r="AI20">
+        <v>1.4</v>
+      </c>
+      <c r="AJ20">
+        <v>2.75</v>
+      </c>
+      <c r="AK20">
+        <v>1.29</v>
+      </c>
+      <c r="AL20">
+        <v>1.22</v>
+      </c>
+      <c r="AM20">
+        <v>1.84</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>3</v>
+      </c>
+      <c r="AV20">
+        <v>9</v>
+      </c>
+      <c r="AW20">
+        <v>8</v>
+      </c>
+      <c r="AX20">
+        <v>8</v>
+      </c>
+      <c r="AY20">
+        <v>11</v>
+      </c>
+      <c r="AZ20">
+        <v>17</v>
+      </c>
+      <c r="BA20">
+        <v>6</v>
+      </c>
+      <c r="BB20">
+        <v>5</v>
+      </c>
+      <c r="BC20">
+        <v>11</v>
+      </c>
+      <c r="BD20">
+        <v>1.67</v>
+      </c>
+      <c r="BE20">
+        <v>8.5</v>
+      </c>
+      <c r="BF20">
+        <v>2.45</v>
+      </c>
+      <c r="BG20">
+        <v>1.18</v>
+      </c>
+      <c r="BH20">
+        <v>4.5</v>
+      </c>
+      <c r="BI20">
+        <v>1.34</v>
+      </c>
+      <c r="BJ20">
+        <v>3.1</v>
+      </c>
+      <c r="BK20">
+        <v>1.61</v>
+      </c>
+      <c r="BL20">
+        <v>2.23</v>
+      </c>
+      <c r="BM20">
+        <v>2.02</v>
+      </c>
+      <c r="BN20">
+        <v>1.74</v>
+      </c>
+      <c r="BO20">
+        <v>2.7</v>
+      </c>
+      <c r="BP20">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -729,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4855,6 +4855,212 @@
         <v>1.44</v>
       </c>
     </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7465414</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45523.625</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q21">
+        <v>2.63</v>
+      </c>
+      <c r="R21">
+        <v>2.6</v>
+      </c>
+      <c r="S21">
+        <v>3.2</v>
+      </c>
+      <c r="T21">
+        <v>1.22</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>1.73</v>
+      </c>
+      <c r="X21">
+        <v>4.33</v>
+      </c>
+      <c r="Y21">
+        <v>1.2</v>
+      </c>
+      <c r="Z21">
+        <v>2.2</v>
+      </c>
+      <c r="AA21">
+        <v>4.1</v>
+      </c>
+      <c r="AB21">
+        <v>2.8</v>
+      </c>
+      <c r="AC21">
+        <v>1.01</v>
+      </c>
+      <c r="AD21">
+        <v>28</v>
+      </c>
+      <c r="AE21">
+        <v>1.08</v>
+      </c>
+      <c r="AF21">
+        <v>6.2</v>
+      </c>
+      <c r="AG21">
+        <v>1.4</v>
+      </c>
+      <c r="AH21">
+        <v>2.88</v>
+      </c>
+      <c r="AI21">
+        <v>1.36</v>
+      </c>
+      <c r="AJ21">
+        <v>3</v>
+      </c>
+      <c r="AK21">
+        <v>1.3</v>
+      </c>
+      <c r="AL21">
+        <v>1.25</v>
+      </c>
+      <c r="AM21">
+        <v>1.67</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>7</v>
+      </c>
+      <c r="AV21">
+        <v>3</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>6</v>
+      </c>
+      <c r="AY21">
+        <v>11</v>
+      </c>
+      <c r="AZ21">
+        <v>9</v>
+      </c>
+      <c r="BA21">
+        <v>7</v>
+      </c>
+      <c r="BB21">
+        <v>4</v>
+      </c>
+      <c r="BC21">
+        <v>11</v>
+      </c>
+      <c r="BD21">
+        <v>1.64</v>
+      </c>
+      <c r="BE21">
+        <v>6.65</v>
+      </c>
+      <c r="BF21">
+        <v>2.89</v>
+      </c>
+      <c r="BG21">
+        <v>1.26</v>
+      </c>
+      <c r="BH21">
+        <v>3.65</v>
+      </c>
+      <c r="BI21">
+        <v>1.51</v>
+      </c>
+      <c r="BJ21">
+        <v>2.5</v>
+      </c>
+      <c r="BK21">
+        <v>1.86</v>
+      </c>
+      <c r="BL21">
+        <v>1.93</v>
+      </c>
+      <c r="BM21">
+        <v>2.35</v>
+      </c>
+      <c r="BN21">
+        <v>1.57</v>
+      </c>
+      <c r="BO21">
+        <v>3.15</v>
+      </c>
+      <c r="BP21">
+        <v>1.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,18 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['44', '81']</t>
+  </si>
+  <si>
+    <t>['31', '55']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -368,6 +380,15 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['66', '68']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
 </sst>
 </file>
@@ -729,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1194,7 +1215,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1272,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>3</v>
@@ -1400,7 +1421,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1606,7 +1627,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1687,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1812,7 +1833,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2018,7 +2039,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2224,7 +2245,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2302,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2430,7 +2451,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2508,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2636,7 +2657,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2842,7 +2863,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3048,7 +3069,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3254,7 +3275,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3666,7 +3687,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -3872,7 +3893,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4156,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4284,7 +4305,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4571,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4696,7 +4717,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5059,6 +5080,1036 @@
       </c>
       <c r="BP21">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7465419</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45527.625</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q22">
+        <v>3.6</v>
+      </c>
+      <c r="R22">
+        <v>2.2</v>
+      </c>
+      <c r="S22">
+        <v>2.55</v>
+      </c>
+      <c r="T22">
+        <v>1.29</v>
+      </c>
+      <c r="U22">
+        <v>3.4</v>
+      </c>
+      <c r="V22">
+        <v>2.36</v>
+      </c>
+      <c r="W22">
+        <v>1.55</v>
+      </c>
+      <c r="X22">
+        <v>5.45</v>
+      </c>
+      <c r="Y22">
+        <v>1.13</v>
+      </c>
+      <c r="Z22">
+        <v>3.11</v>
+      </c>
+      <c r="AA22">
+        <v>3.68</v>
+      </c>
+      <c r="AB22">
+        <v>2.16</v>
+      </c>
+      <c r="AC22">
+        <v>1.04</v>
+      </c>
+      <c r="AD22">
+        <v>10</v>
+      </c>
+      <c r="AE22">
+        <v>1.2</v>
+      </c>
+      <c r="AF22">
+        <v>4.33</v>
+      </c>
+      <c r="AG22">
+        <v>1.62</v>
+      </c>
+      <c r="AH22">
+        <v>2.25</v>
+      </c>
+      <c r="AI22">
+        <v>1.5</v>
+      </c>
+      <c r="AJ22">
+        <v>2.38</v>
+      </c>
+      <c r="AK22">
+        <v>1.65</v>
+      </c>
+      <c r="AL22">
+        <v>1.25</v>
+      </c>
+      <c r="AM22">
+        <v>1.35</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>3</v>
+      </c>
+      <c r="AQ22">
+        <v>1.5</v>
+      </c>
+      <c r="AR22">
+        <v>1.14</v>
+      </c>
+      <c r="AS22">
+        <v>1.35</v>
+      </c>
+      <c r="AT22">
+        <v>2.49</v>
+      </c>
+      <c r="AU22">
+        <v>5</v>
+      </c>
+      <c r="AV22">
+        <v>5</v>
+      </c>
+      <c r="AW22">
+        <v>7</v>
+      </c>
+      <c r="AX22">
+        <v>13</v>
+      </c>
+      <c r="AY22">
+        <v>12</v>
+      </c>
+      <c r="AZ22">
+        <v>18</v>
+      </c>
+      <c r="BA22">
+        <v>10</v>
+      </c>
+      <c r="BB22">
+        <v>2</v>
+      </c>
+      <c r="BC22">
+        <v>12</v>
+      </c>
+      <c r="BD22">
+        <v>2.38</v>
+      </c>
+      <c r="BE22">
+        <v>6.7</v>
+      </c>
+      <c r="BF22">
+        <v>1.87</v>
+      </c>
+      <c r="BG22">
+        <v>1.15</v>
+      </c>
+      <c r="BH22">
+        <v>4.7</v>
+      </c>
+      <c r="BI22">
+        <v>1.27</v>
+      </c>
+      <c r="BJ22">
+        <v>3.28</v>
+      </c>
+      <c r="BK22">
+        <v>1.5</v>
+      </c>
+      <c r="BL22">
+        <v>2.35</v>
+      </c>
+      <c r="BM22">
+        <v>1.85</v>
+      </c>
+      <c r="BN22">
+        <v>1.85</v>
+      </c>
+      <c r="BO22">
+        <v>2.34</v>
+      </c>
+      <c r="BP22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7465418</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45527.625</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23">
+        <v>2.49</v>
+      </c>
+      <c r="R23">
+        <v>2.4</v>
+      </c>
+      <c r="S23">
+        <v>4.12</v>
+      </c>
+      <c r="T23">
+        <v>1.3</v>
+      </c>
+      <c r="U23">
+        <v>3.2</v>
+      </c>
+      <c r="V23">
+        <v>2.57</v>
+      </c>
+      <c r="W23">
+        <v>1.53</v>
+      </c>
+      <c r="X23">
+        <v>5.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.11</v>
+      </c>
+      <c r="Z23">
+        <v>1.96</v>
+      </c>
+      <c r="AA23">
+        <v>3.67</v>
+      </c>
+      <c r="AB23">
+        <v>3.61</v>
+      </c>
+      <c r="AC23">
+        <v>1.01</v>
+      </c>
+      <c r="AD23">
+        <v>11</v>
+      </c>
+      <c r="AE23">
+        <v>1.2</v>
+      </c>
+      <c r="AF23">
+        <v>4</v>
+      </c>
+      <c r="AG23">
+        <v>1.67</v>
+      </c>
+      <c r="AH23">
+        <v>2.1</v>
+      </c>
+      <c r="AI23">
+        <v>1.57</v>
+      </c>
+      <c r="AJ23">
+        <v>2.25</v>
+      </c>
+      <c r="AK23">
+        <v>1.29</v>
+      </c>
+      <c r="AL23">
+        <v>1.29</v>
+      </c>
+      <c r="AM23">
+        <v>1.85</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <v>0.5</v>
+      </c>
+      <c r="AQ23">
+        <v>2</v>
+      </c>
+      <c r="AR23">
+        <v>2.16</v>
+      </c>
+      <c r="AS23">
+        <v>0.53</v>
+      </c>
+      <c r="AT23">
+        <v>2.69</v>
+      </c>
+      <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="AV23">
+        <v>5</v>
+      </c>
+      <c r="AW23">
+        <v>3</v>
+      </c>
+      <c r="AX23">
+        <v>1</v>
+      </c>
+      <c r="AY23">
+        <v>8</v>
+      </c>
+      <c r="AZ23">
+        <v>6</v>
+      </c>
+      <c r="BA23">
+        <v>7</v>
+      </c>
+      <c r="BB23">
+        <v>2</v>
+      </c>
+      <c r="BC23">
+        <v>9</v>
+      </c>
+      <c r="BD23">
+        <v>1.57</v>
+      </c>
+      <c r="BE23">
+        <v>6.95</v>
+      </c>
+      <c r="BF23">
+        <v>3.18</v>
+      </c>
+      <c r="BG23">
+        <v>1.2</v>
+      </c>
+      <c r="BH23">
+        <v>4.1</v>
+      </c>
+      <c r="BI23">
+        <v>1.34</v>
+      </c>
+      <c r="BJ23">
+        <v>2.88</v>
+      </c>
+      <c r="BK23">
+        <v>1.6</v>
+      </c>
+      <c r="BL23">
+        <v>2.14</v>
+      </c>
+      <c r="BM23">
+        <v>2.02</v>
+      </c>
+      <c r="BN23">
+        <v>1.71</v>
+      </c>
+      <c r="BO23">
+        <v>2.6</v>
+      </c>
+      <c r="BP23">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7465417</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45527.625</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24">
+        <v>2.65</v>
+      </c>
+      <c r="R24">
+        <v>2.4</v>
+      </c>
+      <c r="S24">
+        <v>3.4</v>
+      </c>
+      <c r="T24">
+        <v>1.26</v>
+      </c>
+      <c r="U24">
+        <v>3.5</v>
+      </c>
+      <c r="V24">
+        <v>2.25</v>
+      </c>
+      <c r="W24">
+        <v>1.55</v>
+      </c>
+      <c r="X24">
+        <v>4.8</v>
+      </c>
+      <c r="Y24">
+        <v>1.15</v>
+      </c>
+      <c r="Z24">
+        <v>2.39</v>
+      </c>
+      <c r="AA24">
+        <v>3.62</v>
+      </c>
+      <c r="AB24">
+        <v>2.77</v>
+      </c>
+      <c r="AC24">
+        <v>1.02</v>
+      </c>
+      <c r="AD24">
+        <v>17</v>
+      </c>
+      <c r="AE24">
+        <v>1.14</v>
+      </c>
+      <c r="AF24">
+        <v>4.7</v>
+      </c>
+      <c r="AG24">
+        <v>1.6</v>
+      </c>
+      <c r="AH24">
+        <v>2.2</v>
+      </c>
+      <c r="AI24">
+        <v>1.5</v>
+      </c>
+      <c r="AJ24">
+        <v>2.55</v>
+      </c>
+      <c r="AK24">
+        <v>1.39</v>
+      </c>
+      <c r="AL24">
+        <v>1.22</v>
+      </c>
+      <c r="AM24">
+        <v>1.57</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>2</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>2.49</v>
+      </c>
+      <c r="AS24">
+        <v>1.31</v>
+      </c>
+      <c r="AT24">
+        <v>3.8</v>
+      </c>
+      <c r="AU24">
+        <v>9</v>
+      </c>
+      <c r="AV24">
+        <v>4</v>
+      </c>
+      <c r="AW24">
+        <v>9</v>
+      </c>
+      <c r="AX24">
+        <v>6</v>
+      </c>
+      <c r="AY24">
+        <v>18</v>
+      </c>
+      <c r="AZ24">
+        <v>10</v>
+      </c>
+      <c r="BA24">
+        <v>3</v>
+      </c>
+      <c r="BB24">
+        <v>7</v>
+      </c>
+      <c r="BC24">
+        <v>10</v>
+      </c>
+      <c r="BD24">
+        <v>1.58</v>
+      </c>
+      <c r="BE24">
+        <v>6.75</v>
+      </c>
+      <c r="BF24">
+        <v>3.08</v>
+      </c>
+      <c r="BG24">
+        <v>1.22</v>
+      </c>
+      <c r="BH24">
+        <v>3.65</v>
+      </c>
+      <c r="BI24">
+        <v>1.43</v>
+      </c>
+      <c r="BJ24">
+        <v>2.54</v>
+      </c>
+      <c r="BK24">
+        <v>1.76</v>
+      </c>
+      <c r="BL24">
+        <v>1.95</v>
+      </c>
+      <c r="BM24">
+        <v>2.23</v>
+      </c>
+      <c r="BN24">
+        <v>1.55</v>
+      </c>
+      <c r="BO24">
+        <v>2.98</v>
+      </c>
+      <c r="BP24">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7465416</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45527.625</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q25">
+        <v>1.78</v>
+      </c>
+      <c r="R25">
+        <v>2.75</v>
+      </c>
+      <c r="S25">
+        <v>5.75</v>
+      </c>
+      <c r="T25">
+        <v>1.2</v>
+      </c>
+      <c r="U25">
+        <v>4.2</v>
+      </c>
+      <c r="V25">
+        <v>1.95</v>
+      </c>
+      <c r="W25">
+        <v>1.75</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>1.22</v>
+      </c>
+      <c r="Z25">
+        <v>1.35</v>
+      </c>
+      <c r="AA25">
+        <v>5.34</v>
+      </c>
+      <c r="AB25">
+        <v>7.5</v>
+      </c>
+      <c r="AC25">
+        <v>1.01</v>
+      </c>
+      <c r="AD25">
+        <v>30</v>
+      </c>
+      <c r="AE25">
+        <v>1.07</v>
+      </c>
+      <c r="AF25">
+        <v>6.15</v>
+      </c>
+      <c r="AG25">
+        <v>1.33</v>
+      </c>
+      <c r="AH25">
+        <v>2.93</v>
+      </c>
+      <c r="AI25">
+        <v>1.55</v>
+      </c>
+      <c r="AJ25">
+        <v>2.25</v>
+      </c>
+      <c r="AK25">
+        <v>1.1</v>
+      </c>
+      <c r="AL25">
+        <v>1.13</v>
+      </c>
+      <c r="AM25">
+        <v>3</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>1.58</v>
+      </c>
+      <c r="AS25">
+        <v>0.9</v>
+      </c>
+      <c r="AT25">
+        <v>2.48</v>
+      </c>
+      <c r="AU25">
+        <v>6</v>
+      </c>
+      <c r="AV25">
+        <v>7</v>
+      </c>
+      <c r="AW25">
+        <v>4</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>10</v>
+      </c>
+      <c r="AZ25">
+        <v>11</v>
+      </c>
+      <c r="BA25">
+        <v>4</v>
+      </c>
+      <c r="BB25">
+        <v>3</v>
+      </c>
+      <c r="BC25">
+        <v>7</v>
+      </c>
+      <c r="BD25">
+        <v>1.19</v>
+      </c>
+      <c r="BE25">
+        <v>9.4</v>
+      </c>
+      <c r="BF25">
+        <v>6.25</v>
+      </c>
+      <c r="BG25">
+        <v>1.17</v>
+      </c>
+      <c r="BH25">
+        <v>4.4</v>
+      </c>
+      <c r="BI25">
+        <v>1.3</v>
+      </c>
+      <c r="BJ25">
+        <v>3.08</v>
+      </c>
+      <c r="BK25">
+        <v>1.53</v>
+      </c>
+      <c r="BL25">
+        <v>2.27</v>
+      </c>
+      <c r="BM25">
+        <v>1.92</v>
+      </c>
+      <c r="BN25">
+        <v>1.79</v>
+      </c>
+      <c r="BO25">
+        <v>2.45</v>
+      </c>
+      <c r="BP25">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7465415</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45527.625</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26">
+        <v>2.2</v>
+      </c>
+      <c r="R26">
+        <v>2.64</v>
+      </c>
+      <c r="S26">
+        <v>4.36</v>
+      </c>
+      <c r="T26">
+        <v>1.24</v>
+      </c>
+      <c r="U26">
+        <v>3.8</v>
+      </c>
+      <c r="V26">
+        <v>2.11</v>
+      </c>
+      <c r="W26">
+        <v>1.68</v>
+      </c>
+      <c r="X26">
+        <v>4.6</v>
+      </c>
+      <c r="Y26">
+        <v>1.18</v>
+      </c>
+      <c r="Z26">
+        <v>1.74</v>
+      </c>
+      <c r="AA26">
+        <v>4.25</v>
+      </c>
+      <c r="AB26">
+        <v>3.32</v>
+      </c>
+      <c r="AC26">
+        <v>1.01</v>
+      </c>
+      <c r="AD26">
+        <v>25</v>
+      </c>
+      <c r="AE26">
+        <v>1.1</v>
+      </c>
+      <c r="AF26">
+        <v>5.3</v>
+      </c>
+      <c r="AG26">
+        <v>1.48</v>
+      </c>
+      <c r="AH26">
+        <v>2.6</v>
+      </c>
+      <c r="AI26">
+        <v>1.45</v>
+      </c>
+      <c r="AJ26">
+        <v>2.55</v>
+      </c>
+      <c r="AK26">
+        <v>1.23</v>
+      </c>
+      <c r="AL26">
+        <v>1.22</v>
+      </c>
+      <c r="AM26">
+        <v>2.03</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>2</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>1.18</v>
+      </c>
+      <c r="AS26">
+        <v>1.34</v>
+      </c>
+      <c r="AT26">
+        <v>2.52</v>
+      </c>
+      <c r="AU26">
+        <v>9</v>
+      </c>
+      <c r="AV26">
+        <v>7</v>
+      </c>
+      <c r="AW26">
+        <v>8</v>
+      </c>
+      <c r="AX26">
+        <v>2</v>
+      </c>
+      <c r="AY26">
+        <v>17</v>
+      </c>
+      <c r="AZ26">
+        <v>9</v>
+      </c>
+      <c r="BA26">
+        <v>6</v>
+      </c>
+      <c r="BB26">
+        <v>2</v>
+      </c>
+      <c r="BC26">
+        <v>8</v>
+      </c>
+      <c r="BD26">
+        <v>1.48</v>
+      </c>
+      <c r="BE26">
+        <v>7</v>
+      </c>
+      <c r="BF26">
+        <v>3.48</v>
+      </c>
+      <c r="BG26">
+        <v>1.22</v>
+      </c>
+      <c r="BH26">
+        <v>4</v>
+      </c>
+      <c r="BI26">
+        <v>1.42</v>
+      </c>
+      <c r="BJ26">
+        <v>2.75</v>
+      </c>
+      <c r="BK26">
+        <v>1.74</v>
+      </c>
+      <c r="BL26">
+        <v>2.02</v>
+      </c>
+      <c r="BM26">
+        <v>2.23</v>
+      </c>
+      <c r="BN26">
+        <v>1.61</v>
+      </c>
+      <c r="BO26">
+        <v>3</v>
+      </c>
+      <c r="BP26">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['8', '66', '80']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -2944,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -6110,6 +6113,212 @@
       </c>
       <c r="BP26">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7465421</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45528.47916666666</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>93</v>
+      </c>
+      <c r="P27" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q27">
+        <v>2.39</v>
+      </c>
+      <c r="R27">
+        <v>2.41</v>
+      </c>
+      <c r="S27">
+        <v>3.7</v>
+      </c>
+      <c r="T27">
+        <v>1.27</v>
+      </c>
+      <c r="U27">
+        <v>3.4</v>
+      </c>
+      <c r="V27">
+        <v>2.1</v>
+      </c>
+      <c r="W27">
+        <v>1.65</v>
+      </c>
+      <c r="X27">
+        <v>4.4</v>
+      </c>
+      <c r="Y27">
+        <v>1.17</v>
+      </c>
+      <c r="Z27">
+        <v>1.95</v>
+      </c>
+      <c r="AA27">
+        <v>3.88</v>
+      </c>
+      <c r="AB27">
+        <v>3.34</v>
+      </c>
+      <c r="AC27">
+        <v>1.02</v>
+      </c>
+      <c r="AD27">
+        <v>21</v>
+      </c>
+      <c r="AE27">
+        <v>1.1</v>
+      </c>
+      <c r="AF27">
+        <v>5.7</v>
+      </c>
+      <c r="AG27">
+        <v>1.42</v>
+      </c>
+      <c r="AH27">
+        <v>2.6</v>
+      </c>
+      <c r="AI27">
+        <v>1.44</v>
+      </c>
+      <c r="AJ27">
+        <v>2.57</v>
+      </c>
+      <c r="AK27">
+        <v>1.3</v>
+      </c>
+      <c r="AL27">
+        <v>1.24</v>
+      </c>
+      <c r="AM27">
+        <v>1.8</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>1.5</v>
+      </c>
+      <c r="AQ27">
+        <v>2</v>
+      </c>
+      <c r="AR27">
+        <v>1.64</v>
+      </c>
+      <c r="AS27">
+        <v>2.12</v>
+      </c>
+      <c r="AT27">
+        <v>3.76</v>
+      </c>
+      <c r="AU27">
+        <v>5</v>
+      </c>
+      <c r="AV27">
+        <v>10</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>2</v>
+      </c>
+      <c r="AY27">
+        <v>5</v>
+      </c>
+      <c r="AZ27">
+        <v>12</v>
+      </c>
+      <c r="BA27">
+        <v>4</v>
+      </c>
+      <c r="BB27">
+        <v>11</v>
+      </c>
+      <c r="BC27">
+        <v>15</v>
+      </c>
+      <c r="BD27">
+        <v>1.71</v>
+      </c>
+      <c r="BE27">
+        <v>6.7</v>
+      </c>
+      <c r="BF27">
+        <v>2.69</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>1.31</v>
+      </c>
+      <c r="BJ27">
+        <v>3.15</v>
+      </c>
+      <c r="BK27">
+        <v>1.61</v>
+      </c>
+      <c r="BL27">
+        <v>2.24</v>
+      </c>
+      <c r="BM27">
+        <v>2.01</v>
+      </c>
+      <c r="BN27">
+        <v>1.79</v>
+      </c>
+      <c r="BO27">
+        <v>2.53</v>
+      </c>
+      <c r="BP27">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,6 +337,12 @@
     <t>['31', '55']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -382,9 +388,6 @@
     <t>['75']</t>
   </si>
   <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['66', '68']</t>
   </si>
   <si>
@@ -392,6 +395,12 @@
   </si>
   <si>
     <t>['8', '66', '80']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1218,7 +1227,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1424,7 +1433,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1630,7 +1639,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1836,7 +1845,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -1917,7 +1926,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2042,7 +2051,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2120,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
         <v>3</v>
@@ -2248,7 +2257,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2454,7 +2463,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2660,7 +2669,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2741,7 +2750,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2866,7 +2875,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3072,7 +3081,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3150,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
         <v>3</v>
@@ -3278,7 +3287,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3690,7 +3699,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -3896,7 +3905,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4308,7 +4317,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4720,7 +4729,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5544,7 +5553,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="Q24">
         <v>2.65</v>
@@ -5750,7 +5759,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -5956,7 +5965,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6162,7 +6171,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6319,6 +6328,418 @@
       </c>
       <c r="BP27">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7465420</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45529.30208333334</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q28">
+        <v>3.03</v>
+      </c>
+      <c r="R28">
+        <v>2.5</v>
+      </c>
+      <c r="S28">
+        <v>3.03</v>
+      </c>
+      <c r="T28">
+        <v>1.3</v>
+      </c>
+      <c r="U28">
+        <v>3.4</v>
+      </c>
+      <c r="V28">
+        <v>2.26</v>
+      </c>
+      <c r="W28">
+        <v>1.63</v>
+      </c>
+      <c r="X28">
+        <v>6</v>
+      </c>
+      <c r="Y28">
+        <v>1.13</v>
+      </c>
+      <c r="Z28">
+        <v>2.46</v>
+      </c>
+      <c r="AA28">
+        <v>3.8</v>
+      </c>
+      <c r="AB28">
+        <v>2.65</v>
+      </c>
+      <c r="AC28">
+        <v>1.03</v>
+      </c>
+      <c r="AD28">
+        <v>11</v>
+      </c>
+      <c r="AE28">
+        <v>1.18</v>
+      </c>
+      <c r="AF28">
+        <v>4.75</v>
+      </c>
+      <c r="AG28">
+        <v>1.62</v>
+      </c>
+      <c r="AH28">
+        <v>2.25</v>
+      </c>
+      <c r="AI28">
+        <v>1.53</v>
+      </c>
+      <c r="AJ28">
+        <v>2.38</v>
+      </c>
+      <c r="AK28">
+        <v>1.53</v>
+      </c>
+      <c r="AL28">
+        <v>1.29</v>
+      </c>
+      <c r="AM28">
+        <v>1.5</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0.5</v>
+      </c>
+      <c r="AQ28">
+        <v>0.5</v>
+      </c>
+      <c r="AR28">
+        <v>1.82</v>
+      </c>
+      <c r="AS28">
+        <v>2.23</v>
+      </c>
+      <c r="AT28">
+        <v>4.05</v>
+      </c>
+      <c r="AU28">
+        <v>4</v>
+      </c>
+      <c r="AV28">
+        <v>8</v>
+      </c>
+      <c r="AW28">
+        <v>1</v>
+      </c>
+      <c r="AX28">
+        <v>9</v>
+      </c>
+      <c r="AY28">
+        <v>5</v>
+      </c>
+      <c r="AZ28">
+        <v>17</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>12</v>
+      </c>
+      <c r="BC28">
+        <v>12</v>
+      </c>
+      <c r="BD28">
+        <v>1.95</v>
+      </c>
+      <c r="BE28">
+        <v>7.6</v>
+      </c>
+      <c r="BF28">
+        <v>2.2</v>
+      </c>
+      <c r="BG28">
+        <v>1.18</v>
+      </c>
+      <c r="BH28">
+        <v>4.2</v>
+      </c>
+      <c r="BI28">
+        <v>1.35</v>
+      </c>
+      <c r="BJ28">
+        <v>2.9</v>
+      </c>
+      <c r="BK28">
+        <v>1.63</v>
+      </c>
+      <c r="BL28">
+        <v>2.23</v>
+      </c>
+      <c r="BM28">
+        <v>2</v>
+      </c>
+      <c r="BN28">
+        <v>1.78</v>
+      </c>
+      <c r="BO28">
+        <v>2.46</v>
+      </c>
+      <c r="BP28">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7465422</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45529.48958333334</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>108</v>
+      </c>
+      <c r="P29" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q29">
+        <v>3.1</v>
+      </c>
+      <c r="R29">
+        <v>2.2</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <v>1.33</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>2.45</v>
+      </c>
+      <c r="W29">
+        <v>1.48</v>
+      </c>
+      <c r="X29">
+        <v>6</v>
+      </c>
+      <c r="Y29">
+        <v>1.12</v>
+      </c>
+      <c r="Z29">
+        <v>2.5</v>
+      </c>
+      <c r="AA29">
+        <v>3.4</v>
+      </c>
+      <c r="AB29">
+        <v>2.55</v>
+      </c>
+      <c r="AC29">
+        <v>1.05</v>
+      </c>
+      <c r="AD29">
+        <v>9.5</v>
+      </c>
+      <c r="AE29">
+        <v>1.22</v>
+      </c>
+      <c r="AF29">
+        <v>4</v>
+      </c>
+      <c r="AG29">
+        <v>1.7</v>
+      </c>
+      <c r="AH29">
+        <v>2.1</v>
+      </c>
+      <c r="AI29">
+        <v>1.55</v>
+      </c>
+      <c r="AJ29">
+        <v>2.3</v>
+      </c>
+      <c r="AK29">
+        <v>1.48</v>
+      </c>
+      <c r="AL29">
+        <v>1.28</v>
+      </c>
+      <c r="AM29">
+        <v>1.45</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0.5</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>2.13</v>
+      </c>
+      <c r="AS29">
+        <v>1.86</v>
+      </c>
+      <c r="AT29">
+        <v>3.99</v>
+      </c>
+      <c r="AU29">
+        <v>3</v>
+      </c>
+      <c r="AV29">
+        <v>4</v>
+      </c>
+      <c r="AW29">
+        <v>7</v>
+      </c>
+      <c r="AX29">
+        <v>5</v>
+      </c>
+      <c r="AY29">
+        <v>10</v>
+      </c>
+      <c r="AZ29">
+        <v>9</v>
+      </c>
+      <c r="BA29">
+        <v>8</v>
+      </c>
+      <c r="BB29">
+        <v>3</v>
+      </c>
+      <c r="BC29">
+        <v>11</v>
+      </c>
+      <c r="BD29">
+        <v>1.83</v>
+      </c>
+      <c r="BE29">
+        <v>6.55</v>
+      </c>
+      <c r="BF29">
+        <v>2.46</v>
+      </c>
+      <c r="BG29">
+        <v>1.22</v>
+      </c>
+      <c r="BH29">
+        <v>4.1</v>
+      </c>
+      <c r="BI29">
+        <v>1.37</v>
+      </c>
+      <c r="BJ29">
+        <v>2.75</v>
+      </c>
+      <c r="BK29">
+        <v>1.73</v>
+      </c>
+      <c r="BL29">
+        <v>2.07</v>
+      </c>
+      <c r="BM29">
+        <v>2.17</v>
+      </c>
+      <c r="BN29">
+        <v>1.67</v>
+      </c>
+      <c r="BO29">
+        <v>2.78</v>
+      </c>
+      <c r="BP29">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,9 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['55', '70', '85']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -401,6 +404,12 @@
   </si>
   <si>
     <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['27', '85']</t>
   </si>
 </sst>
 </file>
@@ -762,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,7 +1236,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1308,7 +1317,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1433,7 +1442,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1639,7 +1648,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1845,7 +1854,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2051,7 +2060,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2257,7 +2266,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2463,7 +2472,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2669,7 +2678,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2875,7 +2884,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -2953,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3081,7 +3090,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3287,7 +3296,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3699,7 +3708,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -3905,7 +3914,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4317,7 +4326,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4729,7 +4738,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5759,7 +5768,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -5965,7 +5974,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6171,7 +6180,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6377,7 +6386,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>3.03</v>
@@ -6583,7 +6592,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6740,6 +6749,418 @@
       </c>
       <c r="BP29">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7465423</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45530.625</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>109</v>
+      </c>
+      <c r="P30" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q30">
+        <v>2.6</v>
+      </c>
+      <c r="R30">
+        <v>2.5</v>
+      </c>
+      <c r="S30">
+        <v>3.4</v>
+      </c>
+      <c r="T30">
+        <v>1.19</v>
+      </c>
+      <c r="U30">
+        <v>4.2</v>
+      </c>
+      <c r="V30">
+        <v>2.02</v>
+      </c>
+      <c r="W30">
+        <v>1.72</v>
+      </c>
+      <c r="X30">
+        <v>4.25</v>
+      </c>
+      <c r="Y30">
+        <v>1.19</v>
+      </c>
+      <c r="Z30">
+        <v>2.1</v>
+      </c>
+      <c r="AA30">
+        <v>4</v>
+      </c>
+      <c r="AB30">
+        <v>3</v>
+      </c>
+      <c r="AC30">
+        <v>1.01</v>
+      </c>
+      <c r="AD30">
+        <v>28</v>
+      </c>
+      <c r="AE30">
+        <v>1.11</v>
+      </c>
+      <c r="AF30">
+        <v>6.5</v>
+      </c>
+      <c r="AG30">
+        <v>1.38</v>
+      </c>
+      <c r="AH30">
+        <v>3</v>
+      </c>
+      <c r="AI30">
+        <v>1.36</v>
+      </c>
+      <c r="AJ30">
+        <v>3</v>
+      </c>
+      <c r="AK30">
+        <v>1.38</v>
+      </c>
+      <c r="AL30">
+        <v>1.2</v>
+      </c>
+      <c r="AM30">
+        <v>1.75</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>3</v>
+      </c>
+      <c r="AQ30">
+        <v>1.5</v>
+      </c>
+      <c r="AR30">
+        <v>2.2</v>
+      </c>
+      <c r="AS30">
+        <v>1.83</v>
+      </c>
+      <c r="AT30">
+        <v>4.03</v>
+      </c>
+      <c r="AU30">
+        <v>9</v>
+      </c>
+      <c r="AV30">
+        <v>6</v>
+      </c>
+      <c r="AW30">
+        <v>4</v>
+      </c>
+      <c r="AX30">
+        <v>6</v>
+      </c>
+      <c r="AY30">
+        <v>13</v>
+      </c>
+      <c r="AZ30">
+        <v>12</v>
+      </c>
+      <c r="BA30">
+        <v>7</v>
+      </c>
+      <c r="BB30">
+        <v>5</v>
+      </c>
+      <c r="BC30">
+        <v>12</v>
+      </c>
+      <c r="BD30">
+        <v>1.97</v>
+      </c>
+      <c r="BE30">
+        <v>6.6</v>
+      </c>
+      <c r="BF30">
+        <v>2.24</v>
+      </c>
+      <c r="BG30">
+        <v>1.17</v>
+      </c>
+      <c r="BH30">
+        <v>4.5</v>
+      </c>
+      <c r="BI30">
+        <v>1.28</v>
+      </c>
+      <c r="BJ30">
+        <v>3.18</v>
+      </c>
+      <c r="BK30">
+        <v>1.57</v>
+      </c>
+      <c r="BL30">
+        <v>2.32</v>
+      </c>
+      <c r="BM30">
+        <v>1.94</v>
+      </c>
+      <c r="BN30">
+        <v>1.86</v>
+      </c>
+      <c r="BO30">
+        <v>2.43</v>
+      </c>
+      <c r="BP30">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7465424</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45530.625</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q31">
+        <v>2.7</v>
+      </c>
+      <c r="R31">
+        <v>2.45</v>
+      </c>
+      <c r="S31">
+        <v>3.3</v>
+      </c>
+      <c r="T31">
+        <v>1.22</v>
+      </c>
+      <c r="U31">
+        <v>3.9</v>
+      </c>
+      <c r="V31">
+        <v>2.13</v>
+      </c>
+      <c r="W31">
+        <v>1.65</v>
+      </c>
+      <c r="X31">
+        <v>4.65</v>
+      </c>
+      <c r="Y31">
+        <v>1.16</v>
+      </c>
+      <c r="Z31">
+        <v>2.17</v>
+      </c>
+      <c r="AA31">
+        <v>3.9</v>
+      </c>
+      <c r="AB31">
+        <v>2.95</v>
+      </c>
+      <c r="AC31">
+        <v>1.01</v>
+      </c>
+      <c r="AD31">
+        <v>22</v>
+      </c>
+      <c r="AE31">
+        <v>1.14</v>
+      </c>
+      <c r="AF31">
+        <v>5.5</v>
+      </c>
+      <c r="AG31">
+        <v>1.45</v>
+      </c>
+      <c r="AH31">
+        <v>2.7</v>
+      </c>
+      <c r="AI31">
+        <v>1.42</v>
+      </c>
+      <c r="AJ31">
+        <v>2.8</v>
+      </c>
+      <c r="AK31">
+        <v>1.42</v>
+      </c>
+      <c r="AL31">
+        <v>1.2</v>
+      </c>
+      <c r="AM31">
+        <v>1.72</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>0.5</v>
+      </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
+      <c r="AR31">
+        <v>2.38</v>
+      </c>
+      <c r="AS31">
+        <v>1.2</v>
+      </c>
+      <c r="AT31">
+        <v>3.58</v>
+      </c>
+      <c r="AU31">
+        <v>6</v>
+      </c>
+      <c r="AV31">
+        <v>7</v>
+      </c>
+      <c r="AW31">
+        <v>5</v>
+      </c>
+      <c r="AX31">
+        <v>11</v>
+      </c>
+      <c r="AY31">
+        <v>11</v>
+      </c>
+      <c r="AZ31">
+        <v>18</v>
+      </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
+        <v>8</v>
+      </c>
+      <c r="BC31">
+        <v>12</v>
+      </c>
+      <c r="BD31">
+        <v>1.94</v>
+      </c>
+      <c r="BE31">
+        <v>6.5</v>
+      </c>
+      <c r="BF31">
+        <v>2.29</v>
+      </c>
+      <c r="BG31">
+        <v>1.18</v>
+      </c>
+      <c r="BH31">
+        <v>4.5</v>
+      </c>
+      <c r="BI31">
+        <v>1.33</v>
+      </c>
+      <c r="BJ31">
+        <v>2.93</v>
+      </c>
+      <c r="BK31">
+        <v>1.59</v>
+      </c>
+      <c r="BL31">
+        <v>2.16</v>
+      </c>
+      <c r="BM31">
+        <v>2</v>
+      </c>
+      <c r="BN31">
+        <v>1.72</v>
+      </c>
+      <c r="BO31">
+        <v>2.57</v>
+      </c>
+      <c r="BP31">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,24 @@
     <t>['55', '70', '85']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['55', '66', '90']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['27', '71', '90+1']</t>
+  </si>
+  <si>
+    <t>['14', '17']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -410,6 +428,18 @@
   </si>
   <si>
     <t>['27', '85']</t>
+  </si>
+  <si>
+    <t>['53', '86']</t>
+  </si>
+  <si>
+    <t>['53', '72']</t>
+  </si>
+  <si>
+    <t>['22', '58', '63', '82', '88']</t>
+  </si>
+  <si>
+    <t>['6', '88']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1111,7 +1141,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1236,7 +1266,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1442,7 +1472,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1520,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1648,7 +1678,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1726,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1854,7 +1884,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -1935,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2060,7 +2090,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2138,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ7">
         <v>3</v>
@@ -2266,7 +2296,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2344,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2472,7 +2502,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2678,7 +2708,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2884,7 +2914,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3090,7 +3120,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3296,7 +3326,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3374,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3708,7 +3738,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -3914,7 +3944,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -3995,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4201,7 +4231,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4326,7 +4356,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4404,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4738,7 +4768,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5022,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5231,7 +5261,7 @@
         <v>3</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -5768,7 +5798,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -5974,7 +6004,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6052,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -6180,7 +6210,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6386,7 +6416,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>3.03</v>
@@ -6464,10 +6494,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1.82</v>
@@ -6592,7 +6622,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6798,7 +6828,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7004,7 +7034,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7161,6 +7191,1654 @@
       </c>
       <c r="BP31">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7465432</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q32">
+        <v>2.88</v>
+      </c>
+      <c r="R32">
+        <v>2.4</v>
+      </c>
+      <c r="S32">
+        <v>3.2</v>
+      </c>
+      <c r="T32">
+        <v>1.29</v>
+      </c>
+      <c r="U32">
+        <v>3.5</v>
+      </c>
+      <c r="V32">
+        <v>2.25</v>
+      </c>
+      <c r="W32">
+        <v>1.57</v>
+      </c>
+      <c r="X32">
+        <v>5.5</v>
+      </c>
+      <c r="Y32">
+        <v>1.14</v>
+      </c>
+      <c r="Z32">
+        <v>2.3</v>
+      </c>
+      <c r="AA32">
+        <v>3.75</v>
+      </c>
+      <c r="AB32">
+        <v>2.75</v>
+      </c>
+      <c r="AC32">
+        <v>1.02</v>
+      </c>
+      <c r="AD32">
+        <v>13.9</v>
+      </c>
+      <c r="AE32">
+        <v>1.15</v>
+      </c>
+      <c r="AF32">
+        <v>4.75</v>
+      </c>
+      <c r="AG32">
+        <v>1.53</v>
+      </c>
+      <c r="AH32">
+        <v>2.4</v>
+      </c>
+      <c r="AI32">
+        <v>1.44</v>
+      </c>
+      <c r="AJ32">
+        <v>2.63</v>
+      </c>
+      <c r="AK32">
+        <v>1.48</v>
+      </c>
+      <c r="AL32">
+        <v>1.25</v>
+      </c>
+      <c r="AM32">
+        <v>1.6</v>
+      </c>
+      <c r="AN32">
+        <v>0.5</v>
+      </c>
+      <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <v>0.67</v>
+      </c>
+      <c r="AQ32">
+        <v>2</v>
+      </c>
+      <c r="AR32">
+        <v>1.27</v>
+      </c>
+      <c r="AS32">
+        <v>0.88</v>
+      </c>
+      <c r="AT32">
+        <v>2.15</v>
+      </c>
+      <c r="AU32">
+        <v>4</v>
+      </c>
+      <c r="AV32">
+        <v>4</v>
+      </c>
+      <c r="AW32">
+        <v>8</v>
+      </c>
+      <c r="AX32">
+        <v>4</v>
+      </c>
+      <c r="AY32">
+        <v>12</v>
+      </c>
+      <c r="AZ32">
+        <v>8</v>
+      </c>
+      <c r="BA32">
+        <v>13</v>
+      </c>
+      <c r="BB32">
+        <v>2</v>
+      </c>
+      <c r="BC32">
+        <v>15</v>
+      </c>
+      <c r="BD32">
+        <v>1.62</v>
+      </c>
+      <c r="BE32">
+        <v>8.5</v>
+      </c>
+      <c r="BF32">
+        <v>2.6</v>
+      </c>
+      <c r="BG32">
+        <v>1.22</v>
+      </c>
+      <c r="BH32">
+        <v>4</v>
+      </c>
+      <c r="BI32">
+        <v>1.34</v>
+      </c>
+      <c r="BJ32">
+        <v>2.88</v>
+      </c>
+      <c r="BK32">
+        <v>1.61</v>
+      </c>
+      <c r="BL32">
+        <v>2.12</v>
+      </c>
+      <c r="BM32">
+        <v>2</v>
+      </c>
+      <c r="BN32">
+        <v>1.73</v>
+      </c>
+      <c r="BO32">
+        <v>2.64</v>
+      </c>
+      <c r="BP32">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7465431</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q33">
+        <v>2.3</v>
+      </c>
+      <c r="R33">
+        <v>2.3</v>
+      </c>
+      <c r="S33">
+        <v>4</v>
+      </c>
+      <c r="T33">
+        <v>1.29</v>
+      </c>
+      <c r="U33">
+        <v>3.3</v>
+      </c>
+      <c r="V33">
+        <v>2.3</v>
+      </c>
+      <c r="W33">
+        <v>1.55</v>
+      </c>
+      <c r="X33">
+        <v>5.5</v>
+      </c>
+      <c r="Y33">
+        <v>1.14</v>
+      </c>
+      <c r="Z33">
+        <v>1.89</v>
+      </c>
+      <c r="AA33">
+        <v>3.86</v>
+      </c>
+      <c r="AB33">
+        <v>3.7</v>
+      </c>
+      <c r="AC33">
+        <v>1.01</v>
+      </c>
+      <c r="AD33">
+        <v>13</v>
+      </c>
+      <c r="AE33">
+        <v>1.13</v>
+      </c>
+      <c r="AF33">
+        <v>5.2</v>
+      </c>
+      <c r="AG33">
+        <v>1.5</v>
+      </c>
+      <c r="AH33">
+        <v>2.4</v>
+      </c>
+      <c r="AI33">
+        <v>1.5</v>
+      </c>
+      <c r="AJ33">
+        <v>2.55</v>
+      </c>
+      <c r="AK33">
+        <v>1.3</v>
+      </c>
+      <c r="AL33">
+        <v>1.25</v>
+      </c>
+      <c r="AM33">
+        <v>1.88</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0.5</v>
+      </c>
+      <c r="AQ33">
+        <v>0.5</v>
+      </c>
+      <c r="AR33">
+        <v>1.26</v>
+      </c>
+      <c r="AS33">
+        <v>0.93</v>
+      </c>
+      <c r="AT33">
+        <v>2.19</v>
+      </c>
+      <c r="AU33">
+        <v>9</v>
+      </c>
+      <c r="AV33">
+        <v>3</v>
+      </c>
+      <c r="AW33">
+        <v>5</v>
+      </c>
+      <c r="AX33">
+        <v>3</v>
+      </c>
+      <c r="AY33">
+        <v>14</v>
+      </c>
+      <c r="AZ33">
+        <v>6</v>
+      </c>
+      <c r="BA33">
+        <v>11</v>
+      </c>
+      <c r="BB33">
+        <v>3</v>
+      </c>
+      <c r="BC33">
+        <v>14</v>
+      </c>
+      <c r="BD33">
+        <v>1.57</v>
+      </c>
+      <c r="BE33">
+        <v>9</v>
+      </c>
+      <c r="BF33">
+        <v>2.62</v>
+      </c>
+      <c r="BG33">
+        <v>1.2</v>
+      </c>
+      <c r="BH33">
+        <v>4.25</v>
+      </c>
+      <c r="BI33">
+        <v>1.35</v>
+      </c>
+      <c r="BJ33">
+        <v>2.84</v>
+      </c>
+      <c r="BK33">
+        <v>1.64</v>
+      </c>
+      <c r="BL33">
+        <v>2.2</v>
+      </c>
+      <c r="BM33">
+        <v>2.04</v>
+      </c>
+      <c r="BN33">
+        <v>1.75</v>
+      </c>
+      <c r="BO33">
+        <v>2.67</v>
+      </c>
+      <c r="BP33">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7465430</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q34">
+        <v>2.5</v>
+      </c>
+      <c r="R34">
+        <v>2.5</v>
+      </c>
+      <c r="S34">
+        <v>3.3</v>
+      </c>
+      <c r="T34">
+        <v>1.22</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <v>1.75</v>
+      </c>
+      <c r="X34">
+        <v>4.1</v>
+      </c>
+      <c r="Y34">
+        <v>1.2</v>
+      </c>
+      <c r="Z34">
+        <v>2.1</v>
+      </c>
+      <c r="AA34">
+        <v>3.87</v>
+      </c>
+      <c r="AB34">
+        <v>3.12</v>
+      </c>
+      <c r="AC34">
+        <v>1.01</v>
+      </c>
+      <c r="AD34">
+        <v>29</v>
+      </c>
+      <c r="AE34">
+        <v>1.07</v>
+      </c>
+      <c r="AF34">
+        <v>7</v>
+      </c>
+      <c r="AG34">
+        <v>1.33</v>
+      </c>
+      <c r="AH34">
+        <v>3</v>
+      </c>
+      <c r="AI34">
+        <v>1.33</v>
+      </c>
+      <c r="AJ34">
+        <v>3.25</v>
+      </c>
+      <c r="AK34">
+        <v>1.38</v>
+      </c>
+      <c r="AL34">
+        <v>1.22</v>
+      </c>
+      <c r="AM34">
+        <v>1.68</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <v>1.5</v>
+      </c>
+      <c r="AQ34">
+        <v>1.5</v>
+      </c>
+      <c r="AR34">
+        <v>1.12</v>
+      </c>
+      <c r="AS34">
+        <v>1.46</v>
+      </c>
+      <c r="AT34">
+        <v>2.58</v>
+      </c>
+      <c r="AU34">
+        <v>14</v>
+      </c>
+      <c r="AV34">
+        <v>9</v>
+      </c>
+      <c r="AW34">
+        <v>7</v>
+      </c>
+      <c r="AX34">
+        <v>6</v>
+      </c>
+      <c r="AY34">
+        <v>21</v>
+      </c>
+      <c r="AZ34">
+        <v>15</v>
+      </c>
+      <c r="BA34">
+        <v>7</v>
+      </c>
+      <c r="BB34">
+        <v>4</v>
+      </c>
+      <c r="BC34">
+        <v>11</v>
+      </c>
+      <c r="BD34">
+        <v>1.67</v>
+      </c>
+      <c r="BE34">
+        <v>7.7</v>
+      </c>
+      <c r="BF34">
+        <v>2.76</v>
+      </c>
+      <c r="BG34">
+        <v>1.24</v>
+      </c>
+      <c r="BH34">
+        <v>3.6</v>
+      </c>
+      <c r="BI34">
+        <v>1.44</v>
+      </c>
+      <c r="BJ34">
+        <v>2.6</v>
+      </c>
+      <c r="BK34">
+        <v>1.77</v>
+      </c>
+      <c r="BL34">
+        <v>2.03</v>
+      </c>
+      <c r="BM34">
+        <v>2.23</v>
+      </c>
+      <c r="BN34">
+        <v>1.64</v>
+      </c>
+      <c r="BO34">
+        <v>2.75</v>
+      </c>
+      <c r="BP34">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7465429</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>112</v>
+      </c>
+      <c r="P35" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q35">
+        <v>3.6</v>
+      </c>
+      <c r="R35">
+        <v>2.35</v>
+      </c>
+      <c r="S35">
+        <v>2.65</v>
+      </c>
+      <c r="T35">
+        <v>1.28</v>
+      </c>
+      <c r="U35">
+        <v>3.4</v>
+      </c>
+      <c r="V35">
+        <v>2.39</v>
+      </c>
+      <c r="W35">
+        <v>1.52</v>
+      </c>
+      <c r="X35">
+        <v>5.45</v>
+      </c>
+      <c r="Y35">
+        <v>1.12</v>
+      </c>
+      <c r="Z35">
+        <v>3.25</v>
+      </c>
+      <c r="AA35">
+        <v>3.75</v>
+      </c>
+      <c r="AB35">
+        <v>2.05</v>
+      </c>
+      <c r="AC35">
+        <v>1.02</v>
+      </c>
+      <c r="AD35">
+        <v>17</v>
+      </c>
+      <c r="AE35">
+        <v>1.2</v>
+      </c>
+      <c r="AF35">
+        <v>4.5</v>
+      </c>
+      <c r="AG35">
+        <v>1.65</v>
+      </c>
+      <c r="AH35">
+        <v>2.2</v>
+      </c>
+      <c r="AI35">
+        <v>1.57</v>
+      </c>
+      <c r="AJ35">
+        <v>2.35</v>
+      </c>
+      <c r="AK35">
+        <v>1.78</v>
+      </c>
+      <c r="AL35">
+        <v>1.22</v>
+      </c>
+      <c r="AM35">
+        <v>1.35</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>0.8</v>
+      </c>
+      <c r="AS35">
+        <v>2.48</v>
+      </c>
+      <c r="AT35">
+        <v>3.28</v>
+      </c>
+      <c r="AU35">
+        <v>5</v>
+      </c>
+      <c r="AV35">
+        <v>5</v>
+      </c>
+      <c r="AW35">
+        <v>6</v>
+      </c>
+      <c r="AX35">
+        <v>7</v>
+      </c>
+      <c r="AY35">
+        <v>11</v>
+      </c>
+      <c r="AZ35">
+        <v>12</v>
+      </c>
+      <c r="BA35">
+        <v>4</v>
+      </c>
+      <c r="BB35">
+        <v>6</v>
+      </c>
+      <c r="BC35">
+        <v>10</v>
+      </c>
+      <c r="BD35">
+        <v>2.19</v>
+      </c>
+      <c r="BE35">
+        <v>6.5</v>
+      </c>
+      <c r="BF35">
+        <v>2.02</v>
+      </c>
+      <c r="BG35">
+        <v>1.21</v>
+      </c>
+      <c r="BH35">
+        <v>3.9</v>
+      </c>
+      <c r="BI35">
+        <v>1.36</v>
+      </c>
+      <c r="BJ35">
+        <v>2.79</v>
+      </c>
+      <c r="BK35">
+        <v>1.68</v>
+      </c>
+      <c r="BL35">
+        <v>2.13</v>
+      </c>
+      <c r="BM35">
+        <v>2.09</v>
+      </c>
+      <c r="BN35">
+        <v>1.71</v>
+      </c>
+      <c r="BO35">
+        <v>2.67</v>
+      </c>
+      <c r="BP35">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7465427</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q36">
+        <v>2.9</v>
+      </c>
+      <c r="R36">
+        <v>2.2</v>
+      </c>
+      <c r="S36">
+        <v>3.3</v>
+      </c>
+      <c r="T36">
+        <v>1.33</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>2.6</v>
+      </c>
+      <c r="W36">
+        <v>1.44</v>
+      </c>
+      <c r="X36">
+        <v>5.75</v>
+      </c>
+      <c r="Y36">
+        <v>1.1</v>
+      </c>
+      <c r="Z36">
+        <v>2.38</v>
+      </c>
+      <c r="AA36">
+        <v>3.48</v>
+      </c>
+      <c r="AB36">
+        <v>2.77</v>
+      </c>
+      <c r="AC36">
+        <v>1.01</v>
+      </c>
+      <c r="AD36">
+        <v>9.9</v>
+      </c>
+      <c r="AE36">
+        <v>1.23</v>
+      </c>
+      <c r="AF36">
+        <v>3.56</v>
+      </c>
+      <c r="AG36">
+        <v>1.81</v>
+      </c>
+      <c r="AH36">
+        <v>1.97</v>
+      </c>
+      <c r="AI36">
+        <v>1.65</v>
+      </c>
+      <c r="AJ36">
+        <v>2.1</v>
+      </c>
+      <c r="AK36">
+        <v>1.42</v>
+      </c>
+      <c r="AL36">
+        <v>1.28</v>
+      </c>
+      <c r="AM36">
+        <v>1.55</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>2</v>
+      </c>
+      <c r="AQ36">
+        <v>0.5</v>
+      </c>
+      <c r="AR36">
+        <v>1.09</v>
+      </c>
+      <c r="AS36">
+        <v>1.21</v>
+      </c>
+      <c r="AT36">
+        <v>2.3</v>
+      </c>
+      <c r="AU36">
+        <v>9</v>
+      </c>
+      <c r="AV36">
+        <v>4</v>
+      </c>
+      <c r="AW36">
+        <v>4</v>
+      </c>
+      <c r="AX36">
+        <v>8</v>
+      </c>
+      <c r="AY36">
+        <v>13</v>
+      </c>
+      <c r="AZ36">
+        <v>12</v>
+      </c>
+      <c r="BA36">
+        <v>7</v>
+      </c>
+      <c r="BB36">
+        <v>3</v>
+      </c>
+      <c r="BC36">
+        <v>10</v>
+      </c>
+      <c r="BD36">
+        <v>1.87</v>
+      </c>
+      <c r="BE36">
+        <v>7.5</v>
+      </c>
+      <c r="BF36">
+        <v>2.37</v>
+      </c>
+      <c r="BG36">
+        <v>1.22</v>
+      </c>
+      <c r="BH36">
+        <v>3.8</v>
+      </c>
+      <c r="BI36">
+        <v>1.41</v>
+      </c>
+      <c r="BJ36">
+        <v>2.65</v>
+      </c>
+      <c r="BK36">
+        <v>1.72</v>
+      </c>
+      <c r="BL36">
+        <v>2.07</v>
+      </c>
+      <c r="BM36">
+        <v>2.16</v>
+      </c>
+      <c r="BN36">
+        <v>1.67</v>
+      </c>
+      <c r="BO36">
+        <v>2.65</v>
+      </c>
+      <c r="BP36">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7465426</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q37">
+        <v>2.8</v>
+      </c>
+      <c r="R37">
+        <v>2.4</v>
+      </c>
+      <c r="S37">
+        <v>2.9</v>
+      </c>
+      <c r="T37">
+        <v>1.22</v>
+      </c>
+      <c r="U37">
+        <v>3.75</v>
+      </c>
+      <c r="V37">
+        <v>2.05</v>
+      </c>
+      <c r="W37">
+        <v>1.7</v>
+      </c>
+      <c r="X37">
+        <v>4.4</v>
+      </c>
+      <c r="Y37">
+        <v>1.19</v>
+      </c>
+      <c r="Z37">
+        <v>2.43</v>
+      </c>
+      <c r="AA37">
+        <v>4.01</v>
+      </c>
+      <c r="AB37">
+        <v>2.54</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>26</v>
+      </c>
+      <c r="AE37">
+        <v>1.11</v>
+      </c>
+      <c r="AF37">
+        <v>5.5</v>
+      </c>
+      <c r="AG37">
+        <v>1.4</v>
+      </c>
+      <c r="AH37">
+        <v>2.7</v>
+      </c>
+      <c r="AI37">
+        <v>1.38</v>
+      </c>
+      <c r="AJ37">
+        <v>2.88</v>
+      </c>
+      <c r="AK37">
+        <v>1.4</v>
+      </c>
+      <c r="AL37">
+        <v>1.25</v>
+      </c>
+      <c r="AM37">
+        <v>1.57</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>1.5</v>
+      </c>
+      <c r="AP37">
+        <v>2</v>
+      </c>
+      <c r="AQ37">
+        <v>1</v>
+      </c>
+      <c r="AR37">
+        <v>1.18</v>
+      </c>
+      <c r="AS37">
+        <v>1.63</v>
+      </c>
+      <c r="AT37">
+        <v>2.81</v>
+      </c>
+      <c r="AU37">
+        <v>8</v>
+      </c>
+      <c r="AV37">
+        <v>5</v>
+      </c>
+      <c r="AW37">
+        <v>4</v>
+      </c>
+      <c r="AX37">
+        <v>5</v>
+      </c>
+      <c r="AY37">
+        <v>12</v>
+      </c>
+      <c r="AZ37">
+        <v>10</v>
+      </c>
+      <c r="BA37">
+        <v>3</v>
+      </c>
+      <c r="BB37">
+        <v>12</v>
+      </c>
+      <c r="BC37">
+        <v>15</v>
+      </c>
+      <c r="BD37">
+        <v>1.92</v>
+      </c>
+      <c r="BE37">
+        <v>7.7</v>
+      </c>
+      <c r="BF37">
+        <v>2.23</v>
+      </c>
+      <c r="BG37">
+        <v>1.14</v>
+      </c>
+      <c r="BH37">
+        <v>5</v>
+      </c>
+      <c r="BI37">
+        <v>1.23</v>
+      </c>
+      <c r="BJ37">
+        <v>3.7</v>
+      </c>
+      <c r="BK37">
+        <v>1.42</v>
+      </c>
+      <c r="BL37">
+        <v>2.65</v>
+      </c>
+      <c r="BM37">
+        <v>1.69</v>
+      </c>
+      <c r="BN37">
+        <v>2.12</v>
+      </c>
+      <c r="BO37">
+        <v>2.09</v>
+      </c>
+      <c r="BP37">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7465425</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38" t="s">
+        <v>93</v>
+      </c>
+      <c r="P38" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q38">
+        <v>2.88</v>
+      </c>
+      <c r="R38">
+        <v>2.4</v>
+      </c>
+      <c r="S38">
+        <v>3.1</v>
+      </c>
+      <c r="T38">
+        <v>1.29</v>
+      </c>
+      <c r="U38">
+        <v>3.5</v>
+      </c>
+      <c r="V38">
+        <v>2.25</v>
+      </c>
+      <c r="W38">
+        <v>1.57</v>
+      </c>
+      <c r="X38">
+        <v>5.5</v>
+      </c>
+      <c r="Y38">
+        <v>1.14</v>
+      </c>
+      <c r="Z38">
+        <v>2.38</v>
+      </c>
+      <c r="AA38">
+        <v>3.75</v>
+      </c>
+      <c r="AB38">
+        <v>2.63</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>14.3</v>
+      </c>
+      <c r="AE38">
+        <v>1.12</v>
+      </c>
+      <c r="AF38">
+        <v>4.9</v>
+      </c>
+      <c r="AG38">
+        <v>1.53</v>
+      </c>
+      <c r="AH38">
+        <v>2.4</v>
+      </c>
+      <c r="AI38">
+        <v>1.44</v>
+      </c>
+      <c r="AJ38">
+        <v>2.63</v>
+      </c>
+      <c r="AK38">
+        <v>1.44</v>
+      </c>
+      <c r="AL38">
+        <v>1.24</v>
+      </c>
+      <c r="AM38">
+        <v>1.62</v>
+      </c>
+      <c r="AN38">
+        <v>2</v>
+      </c>
+      <c r="AO38">
+        <v>0.5</v>
+      </c>
+      <c r="AP38">
+        <v>1.33</v>
+      </c>
+      <c r="AQ38">
+        <v>1.33</v>
+      </c>
+      <c r="AR38">
+        <v>1.6</v>
+      </c>
+      <c r="AS38">
+        <v>2.15</v>
+      </c>
+      <c r="AT38">
+        <v>3.75</v>
+      </c>
+      <c r="AU38">
+        <v>3</v>
+      </c>
+      <c r="AV38">
+        <v>8</v>
+      </c>
+      <c r="AW38">
+        <v>6</v>
+      </c>
+      <c r="AX38">
+        <v>2</v>
+      </c>
+      <c r="AY38">
+        <v>9</v>
+      </c>
+      <c r="AZ38">
+        <v>10</v>
+      </c>
+      <c r="BA38">
+        <v>4</v>
+      </c>
+      <c r="BB38">
+        <v>3</v>
+      </c>
+      <c r="BC38">
+        <v>7</v>
+      </c>
+      <c r="BD38">
+        <v>1.95</v>
+      </c>
+      <c r="BE38">
+        <v>8</v>
+      </c>
+      <c r="BF38">
+        <v>2.05</v>
+      </c>
+      <c r="BG38">
+        <v>1.21</v>
+      </c>
+      <c r="BH38">
+        <v>3.74</v>
+      </c>
+      <c r="BI38">
+        <v>1.4</v>
+      </c>
+      <c r="BJ38">
+        <v>2.64</v>
+      </c>
+      <c r="BK38">
+        <v>1.73</v>
+      </c>
+      <c r="BL38">
+        <v>2</v>
+      </c>
+      <c r="BM38">
+        <v>2.17</v>
+      </c>
+      <c r="BN38">
+        <v>1.67</v>
+      </c>
+      <c r="BO38">
+        <v>2.88</v>
+      </c>
+      <c r="BP38">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7465428</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>115</v>
+      </c>
+      <c r="P39" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q39">
+        <v>2.5</v>
+      </c>
+      <c r="R39">
+        <v>2.3</v>
+      </c>
+      <c r="S39">
+        <v>3.55</v>
+      </c>
+      <c r="T39">
+        <v>1.28</v>
+      </c>
+      <c r="U39">
+        <v>3.4</v>
+      </c>
+      <c r="V39">
+        <v>2.25</v>
+      </c>
+      <c r="W39">
+        <v>1.57</v>
+      </c>
+      <c r="X39">
+        <v>5</v>
+      </c>
+      <c r="Y39">
+        <v>1.15</v>
+      </c>
+      <c r="Z39">
+        <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>3.8</v>
+      </c>
+      <c r="AB39">
+        <v>3.25</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>13</v>
+      </c>
+      <c r="AE39">
+        <v>1.13</v>
+      </c>
+      <c r="AF39">
+        <v>4.75</v>
+      </c>
+      <c r="AG39">
+        <v>1.49</v>
+      </c>
+      <c r="AH39">
+        <v>2.38</v>
+      </c>
+      <c r="AI39">
+        <v>1.45</v>
+      </c>
+      <c r="AJ39">
+        <v>2.5</v>
+      </c>
+      <c r="AK39">
+        <v>1.3</v>
+      </c>
+      <c r="AL39">
+        <v>1.2</v>
+      </c>
+      <c r="AM39">
+        <v>1.77</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0.5</v>
+      </c>
+      <c r="AQ39">
+        <v>1.5</v>
+      </c>
+      <c r="AR39">
+        <v>2.22</v>
+      </c>
+      <c r="AS39">
+        <v>1.42</v>
+      </c>
+      <c r="AT39">
+        <v>3.64</v>
+      </c>
+      <c r="AU39">
+        <v>4</v>
+      </c>
+      <c r="AV39">
+        <v>9</v>
+      </c>
+      <c r="AW39">
+        <v>10</v>
+      </c>
+      <c r="AX39">
+        <v>3</v>
+      </c>
+      <c r="AY39">
+        <v>14</v>
+      </c>
+      <c r="AZ39">
+        <v>12</v>
+      </c>
+      <c r="BA39">
+        <v>9</v>
+      </c>
+      <c r="BB39">
+        <v>3</v>
+      </c>
+      <c r="BC39">
+        <v>12</v>
+      </c>
+      <c r="BD39">
+        <v>1.67</v>
+      </c>
+      <c r="BE39">
+        <v>6.85</v>
+      </c>
+      <c r="BF39">
+        <v>2.85</v>
+      </c>
+      <c r="BG39">
+        <v>1.19</v>
+      </c>
+      <c r="BH39">
+        <v>4.1</v>
+      </c>
+      <c r="BI39">
+        <v>1.33</v>
+      </c>
+      <c r="BJ39">
+        <v>2.93</v>
+      </c>
+      <c r="BK39">
+        <v>1.65</v>
+      </c>
+      <c r="BL39">
+        <v>2.22</v>
+      </c>
+      <c r="BM39">
+        <v>2.04</v>
+      </c>
+      <c r="BN39">
+        <v>1.76</v>
+      </c>
+      <c r="BO39">
+        <v>2.6</v>
+      </c>
+      <c r="BP39">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['10', '31', '37', '52']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -801,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1266,7 +1269,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1472,7 +1475,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1678,7 +1681,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1884,7 +1887,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2090,7 +2093,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2296,7 +2299,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2502,7 +2505,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2708,7 +2711,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2914,7 +2917,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3120,7 +3123,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3326,7 +3329,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3613,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3738,7 +3741,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -3944,7 +3947,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4356,7 +4359,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4768,7 +4771,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -4846,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>3</v>
@@ -5798,7 +5801,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6004,7 +6007,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6210,7 +6213,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6416,7 +6419,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>3.03</v>
@@ -6622,7 +6625,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6828,7 +6831,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7034,7 +7037,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7652,7 +7655,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -7858,7 +7861,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8476,7 +8479,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8682,7 +8685,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8839,6 +8842,212 @@
       </c>
       <c r="BP39">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7465433</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45535.47916666666</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P40" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q40">
+        <v>2.3</v>
+      </c>
+      <c r="R40">
+        <v>2.6</v>
+      </c>
+      <c r="S40">
+        <v>3.75</v>
+      </c>
+      <c r="T40">
+        <v>1.22</v>
+      </c>
+      <c r="U40">
+        <v>4</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>1.73</v>
+      </c>
+      <c r="X40">
+        <v>4.33</v>
+      </c>
+      <c r="Y40">
+        <v>1.2</v>
+      </c>
+      <c r="Z40">
+        <v>1.77</v>
+      </c>
+      <c r="AA40">
+        <v>3.59</v>
+      </c>
+      <c r="AB40">
+        <v>3.76</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>25</v>
+      </c>
+      <c r="AE40">
+        <v>1.1</v>
+      </c>
+      <c r="AF40">
+        <v>5.75</v>
+      </c>
+      <c r="AG40">
+        <v>1.4</v>
+      </c>
+      <c r="AH40">
+        <v>2.88</v>
+      </c>
+      <c r="AI40">
+        <v>1.4</v>
+      </c>
+      <c r="AJ40">
+        <v>2.75</v>
+      </c>
+      <c r="AK40">
+        <v>1.29</v>
+      </c>
+      <c r="AL40">
+        <v>1.22</v>
+      </c>
+      <c r="AM40">
+        <v>2</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>1.5</v>
+      </c>
+      <c r="AQ40">
+        <v>0.5</v>
+      </c>
+      <c r="AR40">
+        <v>1.64</v>
+      </c>
+      <c r="AS40">
+        <v>1.02</v>
+      </c>
+      <c r="AT40">
+        <v>2.66</v>
+      </c>
+      <c r="AU40">
+        <v>9</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>7</v>
+      </c>
+      <c r="AX40">
+        <v>7</v>
+      </c>
+      <c r="AY40">
+        <v>16</v>
+      </c>
+      <c r="AZ40">
+        <v>10</v>
+      </c>
+      <c r="BA40">
+        <v>10</v>
+      </c>
+      <c r="BB40">
+        <v>3</v>
+      </c>
+      <c r="BC40">
+        <v>13</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>1.2</v>
+      </c>
+      <c r="BH40">
+        <v>4.25</v>
+      </c>
+      <c r="BI40">
+        <v>1.38</v>
+      </c>
+      <c r="BJ40">
+        <v>2.9</v>
+      </c>
+      <c r="BK40">
+        <v>1.67</v>
+      </c>
+      <c r="BL40">
+        <v>2.12</v>
+      </c>
+      <c r="BM40">
+        <v>2.12</v>
+      </c>
+      <c r="BN40">
+        <v>1.67</v>
+      </c>
+      <c r="BO40">
+        <v>2.85</v>
+      </c>
+      <c r="BP40">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,9 @@
     <t>['10', '31', '37', '52']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -406,9 +409,6 @@
     <t>['4', '51']</t>
   </si>
   <si>
-    <t>['36']</t>
-  </si>
-  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>['6', '88']</t>
+  </si>
+  <si>
+    <t>['18', '68', '83', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1269,7 +1272,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1475,7 +1478,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1681,7 +1684,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1887,7 +1890,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2093,7 +2096,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2299,7 +2302,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2505,7 +2508,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2711,7 +2714,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2917,7 +2920,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3123,7 +3126,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3329,7 +3332,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3613,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -3741,7 +3744,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -3822,7 +3825,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3947,7 +3950,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4359,7 +4362,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -9048,6 +9051,212 @@
       </c>
       <c r="BP40">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7465434</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45536.48958333334</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41" t="s">
+        <v>117</v>
+      </c>
+      <c r="P41" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q41">
+        <v>2.41</v>
+      </c>
+      <c r="R41">
+        <v>2.39</v>
+      </c>
+      <c r="S41">
+        <v>3.72</v>
+      </c>
+      <c r="T41">
+        <v>1.27</v>
+      </c>
+      <c r="U41">
+        <v>3.5</v>
+      </c>
+      <c r="V41">
+        <v>2.2</v>
+      </c>
+      <c r="W41">
+        <v>1.6</v>
+      </c>
+      <c r="X41">
+        <v>4.9</v>
+      </c>
+      <c r="Y41">
+        <v>1.16</v>
+      </c>
+      <c r="Z41">
+        <v>1.95</v>
+      </c>
+      <c r="AA41">
+        <v>3.75</v>
+      </c>
+      <c r="AB41">
+        <v>3.1</v>
+      </c>
+      <c r="AC41">
+        <v>1.02</v>
+      </c>
+      <c r="AD41">
+        <v>22</v>
+      </c>
+      <c r="AE41">
+        <v>1.12</v>
+      </c>
+      <c r="AF41">
+        <v>4.95</v>
+      </c>
+      <c r="AG41">
+        <v>1.47</v>
+      </c>
+      <c r="AH41">
+        <v>2.42</v>
+      </c>
+      <c r="AI41">
+        <v>1.5</v>
+      </c>
+      <c r="AJ41">
+        <v>2.5</v>
+      </c>
+      <c r="AK41">
+        <v>1.32</v>
+      </c>
+      <c r="AL41">
+        <v>1.22</v>
+      </c>
+      <c r="AM41">
+        <v>1.78</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0.5</v>
+      </c>
+      <c r="AQ41">
+        <v>1.5</v>
+      </c>
+      <c r="AR41">
+        <v>1.77</v>
+      </c>
+      <c r="AS41">
+        <v>1.85</v>
+      </c>
+      <c r="AT41">
+        <v>3.62</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>8</v>
+      </c>
+      <c r="AW41">
+        <v>4</v>
+      </c>
+      <c r="AX41">
+        <v>7</v>
+      </c>
+      <c r="AY41">
+        <v>10</v>
+      </c>
+      <c r="AZ41">
+        <v>15</v>
+      </c>
+      <c r="BA41">
+        <v>4</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>4</v>
+      </c>
+      <c r="BD41">
+        <v>1.67</v>
+      </c>
+      <c r="BE41">
+        <v>8.5</v>
+      </c>
+      <c r="BF41">
+        <v>2.64</v>
+      </c>
+      <c r="BG41">
+        <v>1.18</v>
+      </c>
+      <c r="BH41">
+        <v>4.5</v>
+      </c>
+      <c r="BI41">
+        <v>1.33</v>
+      </c>
+      <c r="BJ41">
+        <v>2.91</v>
+      </c>
+      <c r="BK41">
+        <v>1.64</v>
+      </c>
+      <c r="BL41">
+        <v>2.22</v>
+      </c>
+      <c r="BM41">
+        <v>2.04</v>
+      </c>
+      <c r="BN41">
+        <v>1.76</v>
+      </c>
+      <c r="BO41">
+        <v>2.57</v>
+      </c>
+      <c r="BP41">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['24', '84']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -807,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,7 +1275,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1478,7 +1481,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1684,7 +1687,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1890,7 +1893,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2096,7 +2099,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2302,7 +2305,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2508,7 +2511,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2586,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2714,7 +2717,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2920,7 +2923,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3126,7 +3129,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3332,7 +3335,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3413,7 +3416,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3744,7 +3747,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -3950,7 +3953,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4774,7 +4777,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5804,7 +5807,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -5882,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6010,7 +6013,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6216,7 +6219,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6422,7 +6425,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>3.03</v>
@@ -6628,7 +6631,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6834,7 +6837,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7040,7 +7043,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7327,7 +7330,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -7658,7 +7661,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -7864,7 +7867,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8482,7 +8485,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8688,7 +8691,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9100,7 +9103,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9257,6 +9260,212 @@
       </c>
       <c r="BP41">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7465435</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45541.625</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>118</v>
+      </c>
+      <c r="P42" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q42">
+        <v>2.28</v>
+      </c>
+      <c r="R42">
+        <v>2.39</v>
+      </c>
+      <c r="S42">
+        <v>4.05</v>
+      </c>
+      <c r="T42">
+        <v>1.26</v>
+      </c>
+      <c r="U42">
+        <v>3.62</v>
+      </c>
+      <c r="V42">
+        <v>2.23</v>
+      </c>
+      <c r="W42">
+        <v>1.61</v>
+      </c>
+      <c r="X42">
+        <v>5</v>
+      </c>
+      <c r="Y42">
+        <v>1.15</v>
+      </c>
+      <c r="Z42">
+        <v>1.79</v>
+      </c>
+      <c r="AA42">
+        <v>3.98</v>
+      </c>
+      <c r="AB42">
+        <v>3.86</v>
+      </c>
+      <c r="AC42">
+        <v>1.02</v>
+      </c>
+      <c r="AD42">
+        <v>12</v>
+      </c>
+      <c r="AE42">
+        <v>1.13</v>
+      </c>
+      <c r="AF42">
+        <v>4.8</v>
+      </c>
+      <c r="AG42">
+        <v>1.49</v>
+      </c>
+      <c r="AH42">
+        <v>2.38</v>
+      </c>
+      <c r="AI42">
+        <v>1.5</v>
+      </c>
+      <c r="AJ42">
+        <v>2.41</v>
+      </c>
+      <c r="AK42">
+        <v>1.24</v>
+      </c>
+      <c r="AL42">
+        <v>1.23</v>
+      </c>
+      <c r="AM42">
+        <v>1.97</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>2</v>
+      </c>
+      <c r="AP42">
+        <v>2.33</v>
+      </c>
+      <c r="AQ42">
+        <v>1.33</v>
+      </c>
+      <c r="AR42">
+        <v>1.53</v>
+      </c>
+      <c r="AS42">
+        <v>0.89</v>
+      </c>
+      <c r="AT42">
+        <v>2.42</v>
+      </c>
+      <c r="AU42">
+        <v>3</v>
+      </c>
+      <c r="AV42">
+        <v>4</v>
+      </c>
+      <c r="AW42">
+        <v>10</v>
+      </c>
+      <c r="AX42">
+        <v>2</v>
+      </c>
+      <c r="AY42">
+        <v>13</v>
+      </c>
+      <c r="AZ42">
+        <v>6</v>
+      </c>
+      <c r="BA42">
+        <v>3</v>
+      </c>
+      <c r="BB42">
+        <v>2</v>
+      </c>
+      <c r="BC42">
+        <v>5</v>
+      </c>
+      <c r="BD42">
+        <v>1.37</v>
+      </c>
+      <c r="BE42">
+        <v>9.5</v>
+      </c>
+      <c r="BF42">
+        <v>3.7</v>
+      </c>
+      <c r="BG42">
+        <v>1.16</v>
+      </c>
+      <c r="BH42">
+        <v>4.6</v>
+      </c>
+      <c r="BI42">
+        <v>1.24</v>
+      </c>
+      <c r="BJ42">
+        <v>3.48</v>
+      </c>
+      <c r="BK42">
+        <v>1.48</v>
+      </c>
+      <c r="BL42">
+        <v>2.56</v>
+      </c>
+      <c r="BM42">
+        <v>1.8</v>
+      </c>
+      <c r="BN42">
+        <v>2</v>
+      </c>
+      <c r="BO42">
+        <v>2.24</v>
+      </c>
+      <c r="BP42">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>['24', '84']</t>
+  </si>
+  <si>
+    <t>['18', '57', '65', '73']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -810,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1275,7 +1278,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1481,7 +1484,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1687,7 +1690,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1893,7 +1896,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2099,7 +2102,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2305,7 +2308,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2511,7 +2514,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2717,7 +2720,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2923,7 +2926,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3129,7 +3132,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3335,7 +3338,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3413,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3747,7 +3750,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -3953,7 +3956,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4777,7 +4780,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5064,7 +5067,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5682,7 +5685,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>2.49</v>
@@ -5807,7 +5810,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6013,7 +6016,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6219,7 +6222,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6425,7 +6428,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>3.03</v>
@@ -6631,7 +6634,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6837,7 +6840,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7043,7 +7046,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7533,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -7661,7 +7664,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -7867,7 +7870,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8485,7 +8488,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8691,7 +8694,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9103,7 +9106,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9466,6 +9469,212 @@
       </c>
       <c r="BP42">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7465436</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45543.39583333334</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>4</v>
+      </c>
+      <c r="O43" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q43">
+        <v>2.38</v>
+      </c>
+      <c r="R43">
+        <v>2.25</v>
+      </c>
+      <c r="S43">
+        <v>4</v>
+      </c>
+      <c r="T43">
+        <v>1.33</v>
+      </c>
+      <c r="U43">
+        <v>3</v>
+      </c>
+      <c r="V43">
+        <v>2.55</v>
+      </c>
+      <c r="W43">
+        <v>1.45</v>
+      </c>
+      <c r="X43">
+        <v>6.35</v>
+      </c>
+      <c r="Y43">
+        <v>1.1</v>
+      </c>
+      <c r="Z43">
+        <v>1.83</v>
+      </c>
+      <c r="AA43">
+        <v>3.7</v>
+      </c>
+      <c r="AB43">
+        <v>3.95</v>
+      </c>
+      <c r="AC43">
+        <v>1.04</v>
+      </c>
+      <c r="AD43">
+        <v>10</v>
+      </c>
+      <c r="AE43">
+        <v>1.25</v>
+      </c>
+      <c r="AF43">
+        <v>3.95</v>
+      </c>
+      <c r="AG43">
+        <v>1.75</v>
+      </c>
+      <c r="AH43">
+        <v>2.05</v>
+      </c>
+      <c r="AI43">
+        <v>1.62</v>
+      </c>
+      <c r="AJ43">
+        <v>2.1</v>
+      </c>
+      <c r="AK43">
+        <v>1.22</v>
+      </c>
+      <c r="AL43">
+        <v>1.22</v>
+      </c>
+      <c r="AM43">
+        <v>1.93</v>
+      </c>
+      <c r="AN43">
+        <v>0.5</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>1.33</v>
+      </c>
+      <c r="AQ43">
+        <v>0.67</v>
+      </c>
+      <c r="AR43">
+        <v>1.9</v>
+      </c>
+      <c r="AS43">
+        <v>1.29</v>
+      </c>
+      <c r="AT43">
+        <v>3.19</v>
+      </c>
+      <c r="AU43">
+        <v>8</v>
+      </c>
+      <c r="AV43">
+        <v>3</v>
+      </c>
+      <c r="AW43">
+        <v>6</v>
+      </c>
+      <c r="AX43">
+        <v>7</v>
+      </c>
+      <c r="AY43">
+        <v>14</v>
+      </c>
+      <c r="AZ43">
+        <v>10</v>
+      </c>
+      <c r="BA43">
+        <v>7</v>
+      </c>
+      <c r="BB43">
+        <v>1</v>
+      </c>
+      <c r="BC43">
+        <v>8</v>
+      </c>
+      <c r="BD43">
+        <v>1.39</v>
+      </c>
+      <c r="BE43">
+        <v>7.5</v>
+      </c>
+      <c r="BF43">
+        <v>3.96</v>
+      </c>
+      <c r="BG43">
+        <v>1.18</v>
+      </c>
+      <c r="BH43">
+        <v>4.05</v>
+      </c>
+      <c r="BI43">
+        <v>1.36</v>
+      </c>
+      <c r="BJ43">
+        <v>2.78</v>
+      </c>
+      <c r="BK43">
+        <v>1.71</v>
+      </c>
+      <c r="BL43">
+        <v>2.12</v>
+      </c>
+      <c r="BM43">
+        <v>2.14</v>
+      </c>
+      <c r="BN43">
+        <v>1.69</v>
+      </c>
+      <c r="BO43">
+        <v>2.75</v>
+      </c>
+      <c r="BP43">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,21 @@
     <t>['18', '57', '65', '73']</t>
   </si>
   <si>
+    <t>['5', '70', '76']</t>
+  </si>
+  <si>
+    <t>['13', '90+3']</t>
+  </si>
+  <si>
+    <t>['68', '90+1']</t>
+  </si>
+  <si>
+    <t>['30', '42', '77']</t>
+  </si>
+  <si>
+    <t>['15', '46']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -452,6 +467,30 @@
   </si>
   <si>
     <t>['18', '68', '83', '90+2']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['40', '49']</t>
+  </si>
+  <si>
+    <t>['2', '6', '78']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['42', '62']</t>
+  </si>
+  <si>
+    <t>['12', '27', '83']</t>
+  </si>
+  <si>
+    <t>['68', '89']</t>
+  </si>
+  <si>
+    <t>['11', '61', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1150,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -1278,7 +1317,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1356,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1484,7 +1523,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1565,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1690,7 +1729,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1768,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1896,7 +1935,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -1974,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2102,7 +2141,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2183,7 +2222,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2308,7 +2347,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2514,7 +2553,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2592,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2720,7 +2759,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2798,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2926,7 +2965,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3007,7 +3046,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3132,7 +3171,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3210,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>3</v>
@@ -3338,7 +3377,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3750,7 +3789,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -3956,7 +3995,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4037,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4240,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -4449,7 +4488,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4655,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4780,7 +4819,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5270,7 +5309,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5476,10 +5515,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR23">
         <v>2.16</v>
@@ -5682,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ24">
         <v>0.67</v>
@@ -5810,7 +5849,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -5888,10 +5927,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
         <v>1.58</v>
@@ -6016,7 +6055,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6097,7 +6136,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>1.18</v>
@@ -6222,7 +6261,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6300,10 +6339,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -6428,7 +6467,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>3.03</v>
@@ -6634,7 +6673,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6712,10 +6751,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -6840,7 +6879,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -6918,10 +6957,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>2.2</v>
@@ -7046,7 +7085,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7127,7 +7166,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -7664,7 +7703,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -7742,10 +7781,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.12</v>
@@ -7870,7 +7909,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8488,7 +8527,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8694,7 +8733,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9106,7 +9145,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9390,7 +9429,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -9675,6 +9714,2066 @@
       </c>
       <c r="BP43">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7465444</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>93</v>
+      </c>
+      <c r="P44" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>2.65</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
+      <c r="T44">
+        <v>1.2</v>
+      </c>
+      <c r="U44">
+        <v>4</v>
+      </c>
+      <c r="V44">
+        <v>1.93</v>
+      </c>
+      <c r="W44">
+        <v>1.75</v>
+      </c>
+      <c r="X44">
+        <v>4</v>
+      </c>
+      <c r="Y44">
+        <v>1.2</v>
+      </c>
+      <c r="Z44">
+        <v>1.55</v>
+      </c>
+      <c r="AA44">
+        <v>4.5</v>
+      </c>
+      <c r="AB44">
+        <v>4.5</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>28</v>
+      </c>
+      <c r="AE44">
+        <v>1.08</v>
+      </c>
+      <c r="AF44">
+        <v>6.2</v>
+      </c>
+      <c r="AG44">
+        <v>1.35</v>
+      </c>
+      <c r="AH44">
+        <v>2.9</v>
+      </c>
+      <c r="AI44">
+        <v>1.42</v>
+      </c>
+      <c r="AJ44">
+        <v>2.6</v>
+      </c>
+      <c r="AK44">
+        <v>1.13</v>
+      </c>
+      <c r="AL44">
+        <v>1.18</v>
+      </c>
+      <c r="AM44">
+        <v>2.3</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>2</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>2.33</v>
+      </c>
+      <c r="AR44">
+        <v>2.05</v>
+      </c>
+      <c r="AS44">
+        <v>2</v>
+      </c>
+      <c r="AT44">
+        <v>4.05</v>
+      </c>
+      <c r="AU44">
+        <v>7</v>
+      </c>
+      <c r="AV44">
+        <v>7</v>
+      </c>
+      <c r="AW44">
+        <v>8</v>
+      </c>
+      <c r="AX44">
+        <v>3</v>
+      </c>
+      <c r="AY44">
+        <v>15</v>
+      </c>
+      <c r="AZ44">
+        <v>10</v>
+      </c>
+      <c r="BA44">
+        <v>14</v>
+      </c>
+      <c r="BB44">
+        <v>6</v>
+      </c>
+      <c r="BC44">
+        <v>20</v>
+      </c>
+      <c r="BD44">
+        <v>1.4</v>
+      </c>
+      <c r="BE44">
+        <v>9.6</v>
+      </c>
+      <c r="BF44">
+        <v>3.48</v>
+      </c>
+      <c r="BG44">
+        <v>1.13</v>
+      </c>
+      <c r="BH44">
+        <v>5</v>
+      </c>
+      <c r="BI44">
+        <v>1.25</v>
+      </c>
+      <c r="BJ44">
+        <v>3.42</v>
+      </c>
+      <c r="BK44">
+        <v>1.44</v>
+      </c>
+      <c r="BL44">
+        <v>2.5</v>
+      </c>
+      <c r="BM44">
+        <v>1.78</v>
+      </c>
+      <c r="BN44">
+        <v>1.93</v>
+      </c>
+      <c r="BO44">
+        <v>2.21</v>
+      </c>
+      <c r="BP44">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7465446</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>5</v>
+      </c>
+      <c r="O45" t="s">
+        <v>120</v>
+      </c>
+      <c r="P45" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q45">
+        <v>2.1</v>
+      </c>
+      <c r="R45">
+        <v>2.35</v>
+      </c>
+      <c r="S45">
+        <v>4.4</v>
+      </c>
+      <c r="T45">
+        <v>1.32</v>
+      </c>
+      <c r="U45">
+        <v>3.1</v>
+      </c>
+      <c r="V45">
+        <v>2.4</v>
+      </c>
+      <c r="W45">
+        <v>1.5</v>
+      </c>
+      <c r="X45">
+        <v>5.3</v>
+      </c>
+      <c r="Y45">
+        <v>1.12</v>
+      </c>
+      <c r="Z45">
+        <v>1.6</v>
+      </c>
+      <c r="AA45">
+        <v>3.9</v>
+      </c>
+      <c r="AB45">
+        <v>4.8</v>
+      </c>
+      <c r="AC45">
+        <v>1.04</v>
+      </c>
+      <c r="AD45">
+        <v>12</v>
+      </c>
+      <c r="AE45">
+        <v>1.18</v>
+      </c>
+      <c r="AF45">
+        <v>4.2</v>
+      </c>
+      <c r="AG45">
+        <v>1.62</v>
+      </c>
+      <c r="AH45">
+        <v>2.15</v>
+      </c>
+      <c r="AI45">
+        <v>1.65</v>
+      </c>
+      <c r="AJ45">
+        <v>2.1</v>
+      </c>
+      <c r="AK45">
+        <v>1.11</v>
+      </c>
+      <c r="AL45">
+        <v>1.22</v>
+      </c>
+      <c r="AM45">
+        <v>2.25</v>
+      </c>
+      <c r="AN45">
+        <v>0.5</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>1.33</v>
+      </c>
+      <c r="AQ45">
+        <v>0.67</v>
+      </c>
+      <c r="AR45">
+        <v>1.68</v>
+      </c>
+      <c r="AS45">
+        <v>1.29</v>
+      </c>
+      <c r="AT45">
+        <v>2.97</v>
+      </c>
+      <c r="AU45">
+        <v>9</v>
+      </c>
+      <c r="AV45">
+        <v>5</v>
+      </c>
+      <c r="AW45">
+        <v>2</v>
+      </c>
+      <c r="AX45">
+        <v>7</v>
+      </c>
+      <c r="AY45">
+        <v>11</v>
+      </c>
+      <c r="AZ45">
+        <v>12</v>
+      </c>
+      <c r="BA45">
+        <v>6</v>
+      </c>
+      <c r="BB45">
+        <v>6</v>
+      </c>
+      <c r="BC45">
+        <v>12</v>
+      </c>
+      <c r="BD45">
+        <v>1.55</v>
+      </c>
+      <c r="BE45">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF45">
+        <v>3.8</v>
+      </c>
+      <c r="BG45">
+        <v>1.22</v>
+      </c>
+      <c r="BH45">
+        <v>4</v>
+      </c>
+      <c r="BI45">
+        <v>1.41</v>
+      </c>
+      <c r="BJ45">
+        <v>2.75</v>
+      </c>
+      <c r="BK45">
+        <v>1.73</v>
+      </c>
+      <c r="BL45">
+        <v>2.04</v>
+      </c>
+      <c r="BM45">
+        <v>2.23</v>
+      </c>
+      <c r="BN45">
+        <v>1.61</v>
+      </c>
+      <c r="BO45">
+        <v>3</v>
+      </c>
+      <c r="BP45">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7465445</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>93</v>
+      </c>
+      <c r="P46" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q46">
+        <v>2.6</v>
+      </c>
+      <c r="R46">
+        <v>2.3</v>
+      </c>
+      <c r="S46">
+        <v>3.3</v>
+      </c>
+      <c r="T46">
+        <v>1.28</v>
+      </c>
+      <c r="U46">
+        <v>3.4</v>
+      </c>
+      <c r="V46">
+        <v>2.25</v>
+      </c>
+      <c r="W46">
+        <v>1.57</v>
+      </c>
+      <c r="X46">
+        <v>4.8</v>
+      </c>
+      <c r="Y46">
+        <v>1.15</v>
+      </c>
+      <c r="Z46">
+        <v>2.15</v>
+      </c>
+      <c r="AA46">
+        <v>3.7</v>
+      </c>
+      <c r="AB46">
+        <v>2.9</v>
+      </c>
+      <c r="AC46">
+        <v>1.01</v>
+      </c>
+      <c r="AD46">
+        <v>13</v>
+      </c>
+      <c r="AE46">
+        <v>1.11</v>
+      </c>
+      <c r="AF46">
+        <v>5.5</v>
+      </c>
+      <c r="AG46">
+        <v>1.45</v>
+      </c>
+      <c r="AH46">
+        <v>2.55</v>
+      </c>
+      <c r="AI46">
+        <v>1.45</v>
+      </c>
+      <c r="AJ46">
+        <v>2.5</v>
+      </c>
+      <c r="AK46">
+        <v>1.3</v>
+      </c>
+      <c r="AL46">
+        <v>1.27</v>
+      </c>
+      <c r="AM46">
+        <v>1.65</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>1.5</v>
+      </c>
+      <c r="AP46">
+        <v>2</v>
+      </c>
+      <c r="AQ46">
+        <v>2</v>
+      </c>
+      <c r="AR46">
+        <v>1.3</v>
+      </c>
+      <c r="AS46">
+        <v>1.71</v>
+      </c>
+      <c r="AT46">
+        <v>3.01</v>
+      </c>
+      <c r="AU46">
+        <v>6</v>
+      </c>
+      <c r="AV46">
+        <v>9</v>
+      </c>
+      <c r="AW46">
+        <v>7</v>
+      </c>
+      <c r="AX46">
+        <v>8</v>
+      </c>
+      <c r="AY46">
+        <v>13</v>
+      </c>
+      <c r="AZ46">
+        <v>17</v>
+      </c>
+      <c r="BA46">
+        <v>11</v>
+      </c>
+      <c r="BB46">
+        <v>5</v>
+      </c>
+      <c r="BC46">
+        <v>16</v>
+      </c>
+      <c r="BD46">
+        <v>1.78</v>
+      </c>
+      <c r="BE46">
+        <v>8.6</v>
+      </c>
+      <c r="BF46">
+        <v>2.34</v>
+      </c>
+      <c r="BG46">
+        <v>1.18</v>
+      </c>
+      <c r="BH46">
+        <v>4.3</v>
+      </c>
+      <c r="BI46">
+        <v>1.34</v>
+      </c>
+      <c r="BJ46">
+        <v>2.88</v>
+      </c>
+      <c r="BK46">
+        <v>1.61</v>
+      </c>
+      <c r="BL46">
+        <v>2.25</v>
+      </c>
+      <c r="BM46">
+        <v>2.05</v>
+      </c>
+      <c r="BN46">
+        <v>1.75</v>
+      </c>
+      <c r="BO46">
+        <v>2.52</v>
+      </c>
+      <c r="BP46">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7465442</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>93</v>
+      </c>
+      <c r="P47" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q47">
+        <v>2.88</v>
+      </c>
+      <c r="R47">
+        <v>2.38</v>
+      </c>
+      <c r="S47">
+        <v>3.2</v>
+      </c>
+      <c r="T47">
+        <v>1.29</v>
+      </c>
+      <c r="U47">
+        <v>3.5</v>
+      </c>
+      <c r="V47">
+        <v>2.25</v>
+      </c>
+      <c r="W47">
+        <v>1.57</v>
+      </c>
+      <c r="X47">
+        <v>5.5</v>
+      </c>
+      <c r="Y47">
+        <v>1.14</v>
+      </c>
+      <c r="Z47">
+        <v>2.3</v>
+      </c>
+      <c r="AA47">
+        <v>3.7</v>
+      </c>
+      <c r="AB47">
+        <v>2.6</v>
+      </c>
+      <c r="AC47">
+        <v>1.01</v>
+      </c>
+      <c r="AD47">
+        <v>13</v>
+      </c>
+      <c r="AE47">
+        <v>1.14</v>
+      </c>
+      <c r="AF47">
+        <v>4.6</v>
+      </c>
+      <c r="AG47">
+        <v>1.57</v>
+      </c>
+      <c r="AH47">
+        <v>2.35</v>
+      </c>
+      <c r="AI47">
+        <v>1.5</v>
+      </c>
+      <c r="AJ47">
+        <v>2.5</v>
+      </c>
+      <c r="AK47">
+        <v>1.44</v>
+      </c>
+      <c r="AL47">
+        <v>1.26</v>
+      </c>
+      <c r="AM47">
+        <v>1.56</v>
+      </c>
+      <c r="AN47">
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <v>3</v>
+      </c>
+      <c r="AP47">
+        <v>2</v>
+      </c>
+      <c r="AQ47">
+        <v>3</v>
+      </c>
+      <c r="AR47">
+        <v>2.09</v>
+      </c>
+      <c r="AS47">
+        <v>1.07</v>
+      </c>
+      <c r="AT47">
+        <v>3.16</v>
+      </c>
+      <c r="AU47">
+        <v>7</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>2</v>
+      </c>
+      <c r="AX47">
+        <v>3</v>
+      </c>
+      <c r="AY47">
+        <v>9</v>
+      </c>
+      <c r="AZ47">
+        <v>7</v>
+      </c>
+      <c r="BA47">
+        <v>4</v>
+      </c>
+      <c r="BB47">
+        <v>2</v>
+      </c>
+      <c r="BC47">
+        <v>6</v>
+      </c>
+      <c r="BD47">
+        <v>2.06</v>
+      </c>
+      <c r="BE47">
+        <v>6.35</v>
+      </c>
+      <c r="BF47">
+        <v>2.16</v>
+      </c>
+      <c r="BG47">
+        <v>1.23</v>
+      </c>
+      <c r="BH47">
+        <v>3.56</v>
+      </c>
+      <c r="BI47">
+        <v>1.5</v>
+      </c>
+      <c r="BJ47">
+        <v>2.52</v>
+      </c>
+      <c r="BK47">
+        <v>1.83</v>
+      </c>
+      <c r="BL47">
+        <v>1.94</v>
+      </c>
+      <c r="BM47">
+        <v>2.31</v>
+      </c>
+      <c r="BN47">
+        <v>1.59</v>
+      </c>
+      <c r="BO47">
+        <v>3.08</v>
+      </c>
+      <c r="BP47">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7465443</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s">
+        <v>88</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>121</v>
+      </c>
+      <c r="P48" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q48">
+        <v>2.88</v>
+      </c>
+      <c r="R48">
+        <v>2.4</v>
+      </c>
+      <c r="S48">
+        <v>3.1</v>
+      </c>
+      <c r="T48">
+        <v>1.29</v>
+      </c>
+      <c r="U48">
+        <v>3.5</v>
+      </c>
+      <c r="V48">
+        <v>2.25</v>
+      </c>
+      <c r="W48">
+        <v>1.57</v>
+      </c>
+      <c r="X48">
+        <v>5.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.14</v>
+      </c>
+      <c r="Z48">
+        <v>2.3</v>
+      </c>
+      <c r="AA48">
+        <v>3.6</v>
+      </c>
+      <c r="AB48">
+        <v>2.63</v>
+      </c>
+      <c r="AC48">
+        <v>1.02</v>
+      </c>
+      <c r="AD48">
+        <v>23</v>
+      </c>
+      <c r="AE48">
+        <v>1.12</v>
+      </c>
+      <c r="AF48">
+        <v>5</v>
+      </c>
+      <c r="AG48">
+        <v>1.53</v>
+      </c>
+      <c r="AH48">
+        <v>2.4</v>
+      </c>
+      <c r="AI48">
+        <v>1.44</v>
+      </c>
+      <c r="AJ48">
+        <v>2.63</v>
+      </c>
+      <c r="AK48">
+        <v>1.44</v>
+      </c>
+      <c r="AL48">
+        <v>1.25</v>
+      </c>
+      <c r="AM48">
+        <v>1.57</v>
+      </c>
+      <c r="AN48">
+        <v>1.5</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>1.33</v>
+      </c>
+      <c r="AQ48">
+        <v>0.33</v>
+      </c>
+      <c r="AR48">
+        <v>1.9</v>
+      </c>
+      <c r="AS48">
+        <v>1.32</v>
+      </c>
+      <c r="AT48">
+        <v>3.22</v>
+      </c>
+      <c r="AU48">
+        <v>7</v>
+      </c>
+      <c r="AV48">
+        <v>9</v>
+      </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>10</v>
+      </c>
+      <c r="AZ48">
+        <v>12</v>
+      </c>
+      <c r="BA48">
+        <v>5</v>
+      </c>
+      <c r="BB48">
+        <v>4</v>
+      </c>
+      <c r="BC48">
+        <v>9</v>
+      </c>
+      <c r="BD48">
+        <v>1.91</v>
+      </c>
+      <c r="BE48">
+        <v>8</v>
+      </c>
+      <c r="BF48">
+        <v>2.1</v>
+      </c>
+      <c r="BG48">
+        <v>1.28</v>
+      </c>
+      <c r="BH48">
+        <v>3.18</v>
+      </c>
+      <c r="BI48">
+        <v>1.6</v>
+      </c>
+      <c r="BJ48">
+        <v>2.5</v>
+      </c>
+      <c r="BK48">
+        <v>2</v>
+      </c>
+      <c r="BL48">
+        <v>1.79</v>
+      </c>
+      <c r="BM48">
+        <v>2.56</v>
+      </c>
+      <c r="BN48">
+        <v>1.48</v>
+      </c>
+      <c r="BO48">
+        <v>3.48</v>
+      </c>
+      <c r="BP48">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7465440</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>93</v>
+      </c>
+      <c r="P49" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q49">
+        <v>2.8</v>
+      </c>
+      <c r="R49">
+        <v>2.4</v>
+      </c>
+      <c r="S49">
+        <v>2.85</v>
+      </c>
+      <c r="T49">
+        <v>1.25</v>
+      </c>
+      <c r="U49">
+        <v>3.6</v>
+      </c>
+      <c r="V49">
+        <v>2.05</v>
+      </c>
+      <c r="W49">
+        <v>1.67</v>
+      </c>
+      <c r="X49">
+        <v>4.4</v>
+      </c>
+      <c r="Y49">
+        <v>1.17</v>
+      </c>
+      <c r="Z49">
+        <v>2.5</v>
+      </c>
+      <c r="AA49">
+        <v>3.6</v>
+      </c>
+      <c r="AB49">
+        <v>2.5</v>
+      </c>
+      <c r="AC49">
+        <v>1.02</v>
+      </c>
+      <c r="AD49">
+        <v>12</v>
+      </c>
+      <c r="AE49">
+        <v>1.11</v>
+      </c>
+      <c r="AF49">
+        <v>5.3</v>
+      </c>
+      <c r="AG49">
+        <v>1.45</v>
+      </c>
+      <c r="AH49">
+        <v>2.5</v>
+      </c>
+      <c r="AI49">
+        <v>1.4</v>
+      </c>
+      <c r="AJ49">
+        <v>2.7</v>
+      </c>
+      <c r="AK49">
+        <v>1.45</v>
+      </c>
+      <c r="AL49">
+        <v>1.25</v>
+      </c>
+      <c r="AM49">
+        <v>1.47</v>
+      </c>
+      <c r="AN49">
+        <v>1.5</v>
+      </c>
+      <c r="AO49">
+        <v>1.5</v>
+      </c>
+      <c r="AP49">
+        <v>1.33</v>
+      </c>
+      <c r="AQ49">
+        <v>1.33</v>
+      </c>
+      <c r="AR49">
+        <v>1.39</v>
+      </c>
+      <c r="AS49">
+        <v>1.78</v>
+      </c>
+      <c r="AT49">
+        <v>3.17</v>
+      </c>
+      <c r="AU49">
+        <v>5</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>7</v>
+      </c>
+      <c r="AX49">
+        <v>5</v>
+      </c>
+      <c r="AY49">
+        <v>12</v>
+      </c>
+      <c r="AZ49">
+        <v>10</v>
+      </c>
+      <c r="BA49">
+        <v>2</v>
+      </c>
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49">
+        <v>5</v>
+      </c>
+      <c r="BD49">
+        <v>2.1</v>
+      </c>
+      <c r="BE49">
+        <v>8</v>
+      </c>
+      <c r="BF49">
+        <v>1.91</v>
+      </c>
+      <c r="BG49">
+        <v>1.14</v>
+      </c>
+      <c r="BH49">
+        <v>4.9</v>
+      </c>
+      <c r="BI49">
+        <v>1.27</v>
+      </c>
+      <c r="BJ49">
+        <v>3.55</v>
+      </c>
+      <c r="BK49">
+        <v>1.52</v>
+      </c>
+      <c r="BL49">
+        <v>2.45</v>
+      </c>
+      <c r="BM49">
+        <v>1.87</v>
+      </c>
+      <c r="BN49">
+        <v>1.92</v>
+      </c>
+      <c r="BO49">
+        <v>2.31</v>
+      </c>
+      <c r="BP49">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7465437</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>122</v>
+      </c>
+      <c r="P50" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q50">
+        <v>2.1</v>
+      </c>
+      <c r="R50">
+        <v>2.45</v>
+      </c>
+      <c r="S50">
+        <v>4.1</v>
+      </c>
+      <c r="T50">
+        <v>1.3</v>
+      </c>
+      <c r="U50">
+        <v>3.2</v>
+      </c>
+      <c r="V50">
+        <v>2.25</v>
+      </c>
+      <c r="W50">
+        <v>1.55</v>
+      </c>
+      <c r="X50">
+        <v>5.2</v>
+      </c>
+      <c r="Y50">
+        <v>1.13</v>
+      </c>
+      <c r="Z50">
+        <v>1.6</v>
+      </c>
+      <c r="AA50">
+        <v>3.9</v>
+      </c>
+      <c r="AB50">
+        <v>4.8</v>
+      </c>
+      <c r="AC50">
+        <v>1.03</v>
+      </c>
+      <c r="AD50">
+        <v>12</v>
+      </c>
+      <c r="AE50">
+        <v>1.14</v>
+      </c>
+      <c r="AF50">
+        <v>4.7</v>
+      </c>
+      <c r="AG50">
+        <v>1.52</v>
+      </c>
+      <c r="AH50">
+        <v>2.35</v>
+      </c>
+      <c r="AI50">
+        <v>1.55</v>
+      </c>
+      <c r="AJ50">
+        <v>2.25</v>
+      </c>
+      <c r="AK50">
+        <v>1.11</v>
+      </c>
+      <c r="AL50">
+        <v>1.22</v>
+      </c>
+      <c r="AM50">
+        <v>2.25</v>
+      </c>
+      <c r="AN50">
+        <v>2.33</v>
+      </c>
+      <c r="AO50">
+        <v>2</v>
+      </c>
+      <c r="AP50">
+        <v>1.75</v>
+      </c>
+      <c r="AQ50">
+        <v>2.33</v>
+      </c>
+      <c r="AR50">
+        <v>1.58</v>
+      </c>
+      <c r="AS50">
+        <v>0.76</v>
+      </c>
+      <c r="AT50">
+        <v>2.34</v>
+      </c>
+      <c r="AU50">
+        <v>5</v>
+      </c>
+      <c r="AV50">
+        <v>8</v>
+      </c>
+      <c r="AW50">
+        <v>7</v>
+      </c>
+      <c r="AX50">
+        <v>2</v>
+      </c>
+      <c r="AY50">
+        <v>12</v>
+      </c>
+      <c r="AZ50">
+        <v>10</v>
+      </c>
+      <c r="BA50">
+        <v>4</v>
+      </c>
+      <c r="BB50">
+        <v>2</v>
+      </c>
+      <c r="BC50">
+        <v>6</v>
+      </c>
+      <c r="BD50">
+        <v>1.46</v>
+      </c>
+      <c r="BE50">
+        <v>9.1</v>
+      </c>
+      <c r="BF50">
+        <v>3.22</v>
+      </c>
+      <c r="BG50">
+        <v>1.2</v>
+      </c>
+      <c r="BH50">
+        <v>4.25</v>
+      </c>
+      <c r="BI50">
+        <v>1.36</v>
+      </c>
+      <c r="BJ50">
+        <v>2.79</v>
+      </c>
+      <c r="BK50">
+        <v>1.64</v>
+      </c>
+      <c r="BL50">
+        <v>2.07</v>
+      </c>
+      <c r="BM50">
+        <v>2.08</v>
+      </c>
+      <c r="BN50">
+        <v>1.67</v>
+      </c>
+      <c r="BO50">
+        <v>2.71</v>
+      </c>
+      <c r="BP50">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7465438</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" t="s">
+        <v>81</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>5</v>
+      </c>
+      <c r="O51" t="s">
+        <v>123</v>
+      </c>
+      <c r="P51" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q51">
+        <v>2.25</v>
+      </c>
+      <c r="R51">
+        <v>2.5</v>
+      </c>
+      <c r="S51">
+        <v>4.5</v>
+      </c>
+      <c r="T51">
+        <v>1.29</v>
+      </c>
+      <c r="U51">
+        <v>3.5</v>
+      </c>
+      <c r="V51">
+        <v>2.25</v>
+      </c>
+      <c r="W51">
+        <v>1.57</v>
+      </c>
+      <c r="X51">
+        <v>5.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.14</v>
+      </c>
+      <c r="Z51">
+        <v>1.67</v>
+      </c>
+      <c r="AA51">
+        <v>3.7</v>
+      </c>
+      <c r="AB51">
+        <v>4.5</v>
+      </c>
+      <c r="AC51">
+        <v>1.04</v>
+      </c>
+      <c r="AD51">
+        <v>10</v>
+      </c>
+      <c r="AE51">
+        <v>1.18</v>
+      </c>
+      <c r="AF51">
+        <v>4.75</v>
+      </c>
+      <c r="AG51">
+        <v>1.57</v>
+      </c>
+      <c r="AH51">
+        <v>2.35</v>
+      </c>
+      <c r="AI51">
+        <v>1.57</v>
+      </c>
+      <c r="AJ51">
+        <v>2.25</v>
+      </c>
+      <c r="AK51">
+        <v>1.18</v>
+      </c>
+      <c r="AL51">
+        <v>1.2</v>
+      </c>
+      <c r="AM51">
+        <v>2.1</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>3</v>
+      </c>
+      <c r="AP51">
+        <v>3</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>1.64</v>
+      </c>
+      <c r="AS51">
+        <v>1.57</v>
+      </c>
+      <c r="AT51">
+        <v>3.21</v>
+      </c>
+      <c r="AU51">
+        <v>6</v>
+      </c>
+      <c r="AV51">
+        <v>8</v>
+      </c>
+      <c r="AW51">
+        <v>8</v>
+      </c>
+      <c r="AX51">
+        <v>2</v>
+      </c>
+      <c r="AY51">
+        <v>14</v>
+      </c>
+      <c r="AZ51">
+        <v>10</v>
+      </c>
+      <c r="BA51">
+        <v>4</v>
+      </c>
+      <c r="BB51">
+        <v>7</v>
+      </c>
+      <c r="BC51">
+        <v>11</v>
+      </c>
+      <c r="BD51">
+        <v>1.65</v>
+      </c>
+      <c r="BE51">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF51">
+        <v>2.6</v>
+      </c>
+      <c r="BG51">
+        <v>1.19</v>
+      </c>
+      <c r="BH51">
+        <v>4.5</v>
+      </c>
+      <c r="BI51">
+        <v>1.33</v>
+      </c>
+      <c r="BJ51">
+        <v>2.93</v>
+      </c>
+      <c r="BK51">
+        <v>1.58</v>
+      </c>
+      <c r="BL51">
+        <v>2.17</v>
+      </c>
+      <c r="BM51">
+        <v>1.99</v>
+      </c>
+      <c r="BN51">
+        <v>1.73</v>
+      </c>
+      <c r="BO51">
+        <v>2.57</v>
+      </c>
+      <c r="BP51">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7465441</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>91</v>
+      </c>
+      <c r="P52" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q52">
+        <v>2.77</v>
+      </c>
+      <c r="R52">
+        <v>2.45</v>
+      </c>
+      <c r="S52">
+        <v>3.42</v>
+      </c>
+      <c r="T52">
+        <v>1.28</v>
+      </c>
+      <c r="U52">
+        <v>3.48</v>
+      </c>
+      <c r="V52">
+        <v>2.36</v>
+      </c>
+      <c r="W52">
+        <v>1.58</v>
+      </c>
+      <c r="X52">
+        <v>5.3</v>
+      </c>
+      <c r="Y52">
+        <v>1.14</v>
+      </c>
+      <c r="Z52">
+        <v>2.2</v>
+      </c>
+      <c r="AA52">
+        <v>3.25</v>
+      </c>
+      <c r="AB52">
+        <v>2.7</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>12</v>
+      </c>
+      <c r="AE52">
+        <v>1.15</v>
+      </c>
+      <c r="AF52">
+        <v>4.45</v>
+      </c>
+      <c r="AG52">
+        <v>1.59</v>
+      </c>
+      <c r="AH52">
+        <v>2.32</v>
+      </c>
+      <c r="AI52">
+        <v>1.5</v>
+      </c>
+      <c r="AJ52">
+        <v>2.41</v>
+      </c>
+      <c r="AK52">
+        <v>1.39</v>
+      </c>
+      <c r="AL52">
+        <v>1.26</v>
+      </c>
+      <c r="AM52">
+        <v>1.62</v>
+      </c>
+      <c r="AN52">
+        <v>0.5</v>
+      </c>
+      <c r="AO52">
+        <v>0.5</v>
+      </c>
+      <c r="AP52">
+        <v>0.33</v>
+      </c>
+      <c r="AQ52">
+        <v>1.33</v>
+      </c>
+      <c r="AR52">
+        <v>1.79</v>
+      </c>
+      <c r="AS52">
+        <v>1.65</v>
+      </c>
+      <c r="AT52">
+        <v>3.44</v>
+      </c>
+      <c r="AU52">
+        <v>9</v>
+      </c>
+      <c r="AV52">
+        <v>8</v>
+      </c>
+      <c r="AW52">
+        <v>4</v>
+      </c>
+      <c r="AX52">
+        <v>2</v>
+      </c>
+      <c r="AY52">
+        <v>13</v>
+      </c>
+      <c r="AZ52">
+        <v>10</v>
+      </c>
+      <c r="BA52">
+        <v>6</v>
+      </c>
+      <c r="BB52">
+        <v>4</v>
+      </c>
+      <c r="BC52">
+        <v>10</v>
+      </c>
+      <c r="BD52">
+        <v>1.8</v>
+      </c>
+      <c r="BE52">
+        <v>8</v>
+      </c>
+      <c r="BF52">
+        <v>2.25</v>
+      </c>
+      <c r="BG52">
+        <v>1.18</v>
+      </c>
+      <c r="BH52">
+        <v>4.5</v>
+      </c>
+      <c r="BI52">
+        <v>1.35</v>
+      </c>
+      <c r="BJ52">
+        <v>2.84</v>
+      </c>
+      <c r="BK52">
+        <v>1.73</v>
+      </c>
+      <c r="BL52">
+        <v>2</v>
+      </c>
+      <c r="BM52">
+        <v>2</v>
+      </c>
+      <c r="BN52">
+        <v>1.74</v>
+      </c>
+      <c r="BO52">
+        <v>2.67</v>
+      </c>
+      <c r="BP52">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7465439</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>124</v>
+      </c>
+      <c r="P53" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q53">
+        <v>3.8</v>
+      </c>
+      <c r="R53">
+        <v>2.5</v>
+      </c>
+      <c r="S53">
+        <v>2.52</v>
+      </c>
+      <c r="T53">
+        <v>1.27</v>
+      </c>
+      <c r="U53">
+        <v>3.54</v>
+      </c>
+      <c r="V53">
+        <v>2.31</v>
+      </c>
+      <c r="W53">
+        <v>1.6</v>
+      </c>
+      <c r="X53">
+        <v>5.1</v>
+      </c>
+      <c r="Y53">
+        <v>1.14</v>
+      </c>
+      <c r="Z53">
+        <v>3.46</v>
+      </c>
+      <c r="AA53">
+        <v>3.85</v>
+      </c>
+      <c r="AB53">
+        <v>1.92</v>
+      </c>
+      <c r="AC53">
+        <v>1.02</v>
+      </c>
+      <c r="AD53">
+        <v>19</v>
+      </c>
+      <c r="AE53">
+        <v>1.14</v>
+      </c>
+      <c r="AF53">
+        <v>4.65</v>
+      </c>
+      <c r="AG53">
+        <v>1.51</v>
+      </c>
+      <c r="AH53">
+        <v>2.32</v>
+      </c>
+      <c r="AI53">
+        <v>1.5</v>
+      </c>
+      <c r="AJ53">
+        <v>2.41</v>
+      </c>
+      <c r="AK53">
+        <v>1.83</v>
+      </c>
+      <c r="AL53">
+        <v>1.24</v>
+      </c>
+      <c r="AM53">
+        <v>1.28</v>
+      </c>
+      <c r="AN53">
+        <v>2</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>2.33</v>
+      </c>
+      <c r="AQ53">
+        <v>0.5</v>
+      </c>
+      <c r="AR53">
+        <v>2.41</v>
+      </c>
+      <c r="AS53">
+        <v>1.12</v>
+      </c>
+      <c r="AT53">
+        <v>3.53</v>
+      </c>
+      <c r="AU53">
+        <v>7</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>3</v>
+      </c>
+      <c r="AX53">
+        <v>5</v>
+      </c>
+      <c r="AY53">
+        <v>10</v>
+      </c>
+      <c r="AZ53">
+        <v>10</v>
+      </c>
+      <c r="BA53">
+        <v>3</v>
+      </c>
+      <c r="BB53">
+        <v>10</v>
+      </c>
+      <c r="BC53">
+        <v>13</v>
+      </c>
+      <c r="BD53">
+        <v>2.44</v>
+      </c>
+      <c r="BE53">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF53">
+        <v>1.72</v>
+      </c>
+      <c r="BG53">
+        <v>1.18</v>
+      </c>
+      <c r="BH53">
+        <v>4.5</v>
+      </c>
+      <c r="BI53">
+        <v>1.33</v>
+      </c>
+      <c r="BJ53">
+        <v>2.93</v>
+      </c>
+      <c r="BK53">
+        <v>1.59</v>
+      </c>
+      <c r="BL53">
+        <v>2.16</v>
+      </c>
+      <c r="BM53">
+        <v>2</v>
+      </c>
+      <c r="BN53">
+        <v>1.72</v>
+      </c>
+      <c r="BO53">
+        <v>2.57</v>
+      </c>
+      <c r="BP53">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -385,7 +385,7 @@
     <t>['68', '90+1']</t>
   </si>
   <si>
-    <t>['30', '42', '77']</t>
+    <t>['30', '42', '76']</t>
   </si>
   <si>
     <t>['15', '46']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="165">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,18 @@
     <t>['15', '46']</t>
   </si>
   <si>
+    <t>['6', '17', '22', '85']</t>
+  </si>
+  <si>
+    <t>['30', '51', '69']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['23', '88']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -442,9 +454,6 @@
     <t>['8', '66', '80']</t>
   </si>
   <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
     <t>['90+7']</t>
   </si>
   <si>
@@ -491,6 +500,15 @@
   </si>
   <si>
     <t>['11', '61', '90+2']</t>
+  </si>
+  <si>
+    <t>['44', '60', '90']</t>
+  </si>
+  <si>
+    <t>['12', '29', '51']</t>
+  </si>
+  <si>
+    <t>['48', '60']</t>
   </si>
 </sst>
 </file>
@@ -852,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1210,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1317,7 +1335,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1395,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -1523,7 +1541,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1601,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -1729,7 +1747,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1935,7 +1953,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2141,7 +2159,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2347,7 +2365,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2428,7 +2446,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2553,7 +2571,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2759,7 +2777,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2840,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2965,7 +2983,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3043,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ11">
         <v>2.33</v>
@@ -3171,7 +3189,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3252,7 +3270,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3377,7 +3395,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3664,7 +3682,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3789,7 +3807,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -3995,7 +4013,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4488,7 +4506,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4691,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ19">
         <v>2.33</v>
@@ -4819,7 +4837,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5515,7 +5533,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ23">
         <v>2.33</v>
@@ -5849,7 +5867,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6055,7 +6073,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6261,7 +6279,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6467,7 +6485,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="Q28">
         <v>3.03</v>
@@ -6673,7 +6691,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6754,7 +6772,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -6879,7 +6897,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7085,7 +7103,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7163,7 +7181,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7703,7 +7721,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -7909,7 +7927,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8193,10 +8211,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8527,7 +8545,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8733,7 +8751,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8814,7 +8832,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>2.22</v>
@@ -9020,7 +9038,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR40">
         <v>1.64</v>
@@ -9145,7 +9163,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9763,7 +9781,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9841,7 +9859,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ44">
         <v>2.33</v>
@@ -9969,7 +9987,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10175,7 +10193,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10381,7 +10399,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10462,7 +10480,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR47">
         <v>2.09</v>
@@ -10587,7 +10605,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10999,7 +11017,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11205,7 +11223,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11411,7 +11429,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11489,10 +11507,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -11698,7 +11716,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR53">
         <v>2.41</v>
@@ -11774,6 +11792,1242 @@
       </c>
       <c r="BP53">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7465454</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45551.625</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>93</v>
+      </c>
+      <c r="P54" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q54">
+        <v>2.59</v>
+      </c>
+      <c r="R54">
+        <v>2.5</v>
+      </c>
+      <c r="S54">
+        <v>3.63</v>
+      </c>
+      <c r="T54">
+        <v>1.27</v>
+      </c>
+      <c r="U54">
+        <v>3.4</v>
+      </c>
+      <c r="V54">
+        <v>2.27</v>
+      </c>
+      <c r="W54">
+        <v>1.6</v>
+      </c>
+      <c r="X54">
+        <v>4.8</v>
+      </c>
+      <c r="Y54">
+        <v>1.15</v>
+      </c>
+      <c r="Z54">
+        <v>2.12</v>
+      </c>
+      <c r="AA54">
+        <v>3.68</v>
+      </c>
+      <c r="AB54">
+        <v>3.19</v>
+      </c>
+      <c r="AC54">
+        <v>1.03</v>
+      </c>
+      <c r="AD54">
+        <v>9</v>
+      </c>
+      <c r="AE54">
+        <v>1.13</v>
+      </c>
+      <c r="AF54">
+        <v>4.9</v>
+      </c>
+      <c r="AG54">
+        <v>1.5</v>
+      </c>
+      <c r="AH54">
+        <v>2.4</v>
+      </c>
+      <c r="AI54">
+        <v>1.45</v>
+      </c>
+      <c r="AJ54">
+        <v>2.5</v>
+      </c>
+      <c r="AK54">
+        <v>1.28</v>
+      </c>
+      <c r="AL54">
+        <v>1.27</v>
+      </c>
+      <c r="AM54">
+        <v>1.67</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>1.33</v>
+      </c>
+      <c r="AP54">
+        <v>0.33</v>
+      </c>
+      <c r="AQ54">
+        <v>1.25</v>
+      </c>
+      <c r="AR54">
+        <v>1.99</v>
+      </c>
+      <c r="AS54">
+        <v>1.61</v>
+      </c>
+      <c r="AT54">
+        <v>3.6</v>
+      </c>
+      <c r="AU54">
+        <v>7</v>
+      </c>
+      <c r="AV54">
+        <v>7</v>
+      </c>
+      <c r="AW54">
+        <v>6</v>
+      </c>
+      <c r="AX54">
+        <v>5</v>
+      </c>
+      <c r="AY54">
+        <v>13</v>
+      </c>
+      <c r="AZ54">
+        <v>12</v>
+      </c>
+      <c r="BA54">
+        <v>7</v>
+      </c>
+      <c r="BB54">
+        <v>3</v>
+      </c>
+      <c r="BC54">
+        <v>10</v>
+      </c>
+      <c r="BD54">
+        <v>1.73</v>
+      </c>
+      <c r="BE54">
+        <v>8.9</v>
+      </c>
+      <c r="BF54">
+        <v>2.41</v>
+      </c>
+      <c r="BG54">
+        <v>1.16</v>
+      </c>
+      <c r="BH54">
+        <v>4.6</v>
+      </c>
+      <c r="BI54">
+        <v>1.27</v>
+      </c>
+      <c r="BJ54">
+        <v>3.28</v>
+      </c>
+      <c r="BK54">
+        <v>1.55</v>
+      </c>
+      <c r="BL54">
+        <v>2.4</v>
+      </c>
+      <c r="BM54">
+        <v>1.9</v>
+      </c>
+      <c r="BN54">
+        <v>1.89</v>
+      </c>
+      <c r="BO54">
+        <v>2.39</v>
+      </c>
+      <c r="BP54">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7465447</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45551.625</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>125</v>
+      </c>
+      <c r="P55" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q55">
+        <v>1.98</v>
+      </c>
+      <c r="R55">
+        <v>2.55</v>
+      </c>
+      <c r="S55">
+        <v>4.9</v>
+      </c>
+      <c r="T55">
+        <v>1.22</v>
+      </c>
+      <c r="U55">
+        <v>3.85</v>
+      </c>
+      <c r="V55">
+        <v>2.25</v>
+      </c>
+      <c r="W55">
+        <v>1.57</v>
+      </c>
+      <c r="X55">
+        <v>4.75</v>
+      </c>
+      <c r="Y55">
+        <v>1.15</v>
+      </c>
+      <c r="Z55">
+        <v>1.65</v>
+      </c>
+      <c r="AA55">
+        <v>4.17</v>
+      </c>
+      <c r="AB55">
+        <v>4.7</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>13.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.17</v>
+      </c>
+      <c r="AF55">
+        <v>5.01</v>
+      </c>
+      <c r="AG55">
+        <v>1.55</v>
+      </c>
+      <c r="AH55">
+        <v>2.25</v>
+      </c>
+      <c r="AI55">
+        <v>1.61</v>
+      </c>
+      <c r="AJ55">
+        <v>2.17</v>
+      </c>
+      <c r="AK55">
+        <v>1.14</v>
+      </c>
+      <c r="AL55">
+        <v>1.19</v>
+      </c>
+      <c r="AM55">
+        <v>2.41</v>
+      </c>
+      <c r="AN55">
+        <v>3</v>
+      </c>
+      <c r="AO55">
+        <v>0.5</v>
+      </c>
+      <c r="AP55">
+        <v>3</v>
+      </c>
+      <c r="AQ55">
+        <v>0.33</v>
+      </c>
+      <c r="AR55">
+        <v>1.7</v>
+      </c>
+      <c r="AS55">
+        <v>1.33</v>
+      </c>
+      <c r="AT55">
+        <v>3.03</v>
+      </c>
+      <c r="AU55">
+        <v>10</v>
+      </c>
+      <c r="AV55">
+        <v>4</v>
+      </c>
+      <c r="AW55">
+        <v>3</v>
+      </c>
+      <c r="AX55">
+        <v>1</v>
+      </c>
+      <c r="AY55">
+        <v>13</v>
+      </c>
+      <c r="AZ55">
+        <v>5</v>
+      </c>
+      <c r="BA55">
+        <v>5</v>
+      </c>
+      <c r="BB55">
+        <v>2</v>
+      </c>
+      <c r="BC55">
+        <v>7</v>
+      </c>
+      <c r="BD55">
+        <v>1.36</v>
+      </c>
+      <c r="BE55">
+        <v>7.4</v>
+      </c>
+      <c r="BF55">
+        <v>4.25</v>
+      </c>
+      <c r="BG55">
+        <v>1.24</v>
+      </c>
+      <c r="BH55">
+        <v>3.48</v>
+      </c>
+      <c r="BI55">
+        <v>1.5</v>
+      </c>
+      <c r="BJ55">
+        <v>2.53</v>
+      </c>
+      <c r="BK55">
+        <v>1.85</v>
+      </c>
+      <c r="BL55">
+        <v>1.95</v>
+      </c>
+      <c r="BM55">
+        <v>2.34</v>
+      </c>
+      <c r="BN55">
+        <v>1.58</v>
+      </c>
+      <c r="BO55">
+        <v>3.08</v>
+      </c>
+      <c r="BP55">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7465448</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45551.625</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>6</v>
+      </c>
+      <c r="O56" t="s">
+        <v>126</v>
+      </c>
+      <c r="P56" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q56">
+        <v>2.3</v>
+      </c>
+      <c r="R56">
+        <v>2.3</v>
+      </c>
+      <c r="S56">
+        <v>4</v>
+      </c>
+      <c r="T56">
+        <v>1.25</v>
+      </c>
+      <c r="U56">
+        <v>3.6</v>
+      </c>
+      <c r="V56">
+        <v>2.25</v>
+      </c>
+      <c r="W56">
+        <v>1.57</v>
+      </c>
+      <c r="X56">
+        <v>5.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.11</v>
+      </c>
+      <c r="Z56">
+        <v>1.9</v>
+      </c>
+      <c r="AA56">
+        <v>3.93</v>
+      </c>
+      <c r="AB56">
+        <v>3.6</v>
+      </c>
+      <c r="AC56">
+        <v>1.01</v>
+      </c>
+      <c r="AD56">
+        <v>14</v>
+      </c>
+      <c r="AE56">
+        <v>1.17</v>
+      </c>
+      <c r="AF56">
+        <v>4.78</v>
+      </c>
+      <c r="AG56">
+        <v>1.55</v>
+      </c>
+      <c r="AH56">
+        <v>2.3</v>
+      </c>
+      <c r="AI56">
+        <v>1.5</v>
+      </c>
+      <c r="AJ56">
+        <v>2.55</v>
+      </c>
+      <c r="AK56">
+        <v>1.25</v>
+      </c>
+      <c r="AL56">
+        <v>1.2</v>
+      </c>
+      <c r="AM56">
+        <v>1.9</v>
+      </c>
+      <c r="AN56">
+        <v>0.33</v>
+      </c>
+      <c r="AO56">
+        <v>3</v>
+      </c>
+      <c r="AP56">
+        <v>0.5</v>
+      </c>
+      <c r="AQ56">
+        <v>2.33</v>
+      </c>
+      <c r="AR56">
+        <v>1.88</v>
+      </c>
+      <c r="AS56">
+        <v>1.13</v>
+      </c>
+      <c r="AT56">
+        <v>3.01</v>
+      </c>
+      <c r="AU56">
+        <v>8</v>
+      </c>
+      <c r="AV56">
+        <v>11</v>
+      </c>
+      <c r="AW56">
+        <v>8</v>
+      </c>
+      <c r="AX56">
+        <v>4</v>
+      </c>
+      <c r="AY56">
+        <v>16</v>
+      </c>
+      <c r="AZ56">
+        <v>15</v>
+      </c>
+      <c r="BA56">
+        <v>11</v>
+      </c>
+      <c r="BB56">
+        <v>9</v>
+      </c>
+      <c r="BC56">
+        <v>20</v>
+      </c>
+      <c r="BD56">
+        <v>1.61</v>
+      </c>
+      <c r="BE56">
+        <v>6.8</v>
+      </c>
+      <c r="BF56">
+        <v>2.96</v>
+      </c>
+      <c r="BG56">
+        <v>1.2</v>
+      </c>
+      <c r="BH56">
+        <v>4</v>
+      </c>
+      <c r="BI56">
+        <v>1.34</v>
+      </c>
+      <c r="BJ56">
+        <v>2.88</v>
+      </c>
+      <c r="BK56">
+        <v>1.66</v>
+      </c>
+      <c r="BL56">
+        <v>2.19</v>
+      </c>
+      <c r="BM56">
+        <v>2.07</v>
+      </c>
+      <c r="BN56">
+        <v>1.75</v>
+      </c>
+      <c r="BO56">
+        <v>2.64</v>
+      </c>
+      <c r="BP56">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7465450</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45551.625</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>127</v>
+      </c>
+      <c r="P57" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q57">
+        <v>2.34</v>
+      </c>
+      <c r="R57">
+        <v>2.35</v>
+      </c>
+      <c r="S57">
+        <v>4.79</v>
+      </c>
+      <c r="T57">
+        <v>1.34</v>
+      </c>
+      <c r="U57">
+        <v>3.21</v>
+      </c>
+      <c r="V57">
+        <v>2.71</v>
+      </c>
+      <c r="W57">
+        <v>1.45</v>
+      </c>
+      <c r="X57">
+        <v>5.8</v>
+      </c>
+      <c r="Y57">
+        <v>1.1</v>
+      </c>
+      <c r="Z57">
+        <v>1.99</v>
+      </c>
+      <c r="AA57">
+        <v>3.67</v>
+      </c>
+      <c r="AB57">
+        <v>3.56</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>9.9</v>
+      </c>
+      <c r="AE57">
+        <v>1.23</v>
+      </c>
+      <c r="AF57">
+        <v>3.56</v>
+      </c>
+      <c r="AG57">
+        <v>1.87</v>
+      </c>
+      <c r="AH57">
+        <v>1.95</v>
+      </c>
+      <c r="AI57">
+        <v>1.77</v>
+      </c>
+      <c r="AJ57">
+        <v>2.03</v>
+      </c>
+      <c r="AK57">
+        <v>1.23</v>
+      </c>
+      <c r="AL57">
+        <v>1.26</v>
+      </c>
+      <c r="AM57">
+        <v>2.04</v>
+      </c>
+      <c r="AN57">
+        <v>2</v>
+      </c>
+      <c r="AO57">
+        <v>0.5</v>
+      </c>
+      <c r="AP57">
+        <v>2.33</v>
+      </c>
+      <c r="AQ57">
+        <v>0.33</v>
+      </c>
+      <c r="AR57">
+        <v>1.47</v>
+      </c>
+      <c r="AS57">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT57">
+        <v>2.41</v>
+      </c>
+      <c r="AU57">
+        <v>6</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
+        <v>2</v>
+      </c>
+      <c r="AX57">
+        <v>1</v>
+      </c>
+      <c r="AY57">
+        <v>8</v>
+      </c>
+      <c r="AZ57">
+        <v>5</v>
+      </c>
+      <c r="BA57">
+        <v>11</v>
+      </c>
+      <c r="BB57">
+        <v>7</v>
+      </c>
+      <c r="BC57">
+        <v>18</v>
+      </c>
+      <c r="BD57">
+        <v>1.55</v>
+      </c>
+      <c r="BE57">
+        <v>8.9</v>
+      </c>
+      <c r="BF57">
+        <v>2.88</v>
+      </c>
+      <c r="BG57">
+        <v>1.2</v>
+      </c>
+      <c r="BH57">
+        <v>3.86</v>
+      </c>
+      <c r="BI57">
+        <v>1.39</v>
+      </c>
+      <c r="BJ57">
+        <v>2.67</v>
+      </c>
+      <c r="BK57">
+        <v>1.75</v>
+      </c>
+      <c r="BL57">
+        <v>2.06</v>
+      </c>
+      <c r="BM57">
+        <v>2.2</v>
+      </c>
+      <c r="BN57">
+        <v>1.66</v>
+      </c>
+      <c r="BO57">
+        <v>2.84</v>
+      </c>
+      <c r="BP57">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7465452</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45551.625</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q58">
+        <v>2.88</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>3.3</v>
+      </c>
+      <c r="T58">
+        <v>1.33</v>
+      </c>
+      <c r="U58">
+        <v>3.15</v>
+      </c>
+      <c r="V58">
+        <v>2.57</v>
+      </c>
+      <c r="W58">
+        <v>1.5</v>
+      </c>
+      <c r="X58">
+        <v>6</v>
+      </c>
+      <c r="Y58">
+        <v>1.11</v>
+      </c>
+      <c r="Z58">
+        <v>2.42</v>
+      </c>
+      <c r="AA58">
+        <v>3.5</v>
+      </c>
+      <c r="AB58">
+        <v>2.81</v>
+      </c>
+      <c r="AC58">
+        <v>1.04</v>
+      </c>
+      <c r="AD58">
+        <v>11</v>
+      </c>
+      <c r="AE58">
+        <v>1.22</v>
+      </c>
+      <c r="AF58">
+        <v>4.2</v>
+      </c>
+      <c r="AG58">
+        <v>1.7</v>
+      </c>
+      <c r="AH58">
+        <v>2</v>
+      </c>
+      <c r="AI58">
+        <v>1.57</v>
+      </c>
+      <c r="AJ58">
+        <v>2.38</v>
+      </c>
+      <c r="AK58">
+        <v>1.5</v>
+      </c>
+      <c r="AL58">
+        <v>1.3</v>
+      </c>
+      <c r="AM58">
+        <v>1.51</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>1.5</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>2</v>
+      </c>
+      <c r="AR58">
+        <v>1.06</v>
+      </c>
+      <c r="AS58">
+        <v>1.59</v>
+      </c>
+      <c r="AT58">
+        <v>2.65</v>
+      </c>
+      <c r="AU58">
+        <v>8</v>
+      </c>
+      <c r="AV58">
+        <v>6</v>
+      </c>
+      <c r="AW58">
+        <v>8</v>
+      </c>
+      <c r="AX58">
+        <v>4</v>
+      </c>
+      <c r="AY58">
+        <v>16</v>
+      </c>
+      <c r="AZ58">
+        <v>10</v>
+      </c>
+      <c r="BA58">
+        <v>4</v>
+      </c>
+      <c r="BB58">
+        <v>9</v>
+      </c>
+      <c r="BC58">
+        <v>13</v>
+      </c>
+      <c r="BD58">
+        <v>2.28</v>
+      </c>
+      <c r="BE58">
+        <v>6.45</v>
+      </c>
+      <c r="BF58">
+        <v>1.95</v>
+      </c>
+      <c r="BG58">
+        <v>1.19</v>
+      </c>
+      <c r="BH58">
+        <v>3.98</v>
+      </c>
+      <c r="BI58">
+        <v>1.38</v>
+      </c>
+      <c r="BJ58">
+        <v>2.71</v>
+      </c>
+      <c r="BK58">
+        <v>1.68</v>
+      </c>
+      <c r="BL58">
+        <v>2.06</v>
+      </c>
+      <c r="BM58">
+        <v>2.1</v>
+      </c>
+      <c r="BN58">
+        <v>1.62</v>
+      </c>
+      <c r="BO58">
+        <v>2.78</v>
+      </c>
+      <c r="BP58">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7465453</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45551.625</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>128</v>
+      </c>
+      <c r="P59" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q59">
+        <v>3.63</v>
+      </c>
+      <c r="R59">
+        <v>2.66</v>
+      </c>
+      <c r="S59">
+        <v>2.44</v>
+      </c>
+      <c r="T59">
+        <v>1.22</v>
+      </c>
+      <c r="U59">
+        <v>4</v>
+      </c>
+      <c r="V59">
+        <v>2.06</v>
+      </c>
+      <c r="W59">
+        <v>1.77</v>
+      </c>
+      <c r="X59">
+        <v>4.25</v>
+      </c>
+      <c r="Y59">
+        <v>1.2</v>
+      </c>
+      <c r="Z59">
+        <v>3.3</v>
+      </c>
+      <c r="AA59">
+        <v>3.98</v>
+      </c>
+      <c r="AB59">
+        <v>2</v>
+      </c>
+      <c r="AC59">
+        <v>1.01</v>
+      </c>
+      <c r="AD59">
+        <v>27</v>
+      </c>
+      <c r="AE59">
+        <v>1.08</v>
+      </c>
+      <c r="AF59">
+        <v>5.8</v>
+      </c>
+      <c r="AG59">
+        <v>1.36</v>
+      </c>
+      <c r="AH59">
+        <v>2.79</v>
+      </c>
+      <c r="AI59">
+        <v>1.35</v>
+      </c>
+      <c r="AJ59">
+        <v>2.9</v>
+      </c>
+      <c r="AK59">
+        <v>1.8</v>
+      </c>
+      <c r="AL59">
+        <v>1.22</v>
+      </c>
+      <c r="AM59">
+        <v>1.27</v>
+      </c>
+      <c r="AN59">
+        <v>0.5</v>
+      </c>
+      <c r="AO59">
+        <v>0.5</v>
+      </c>
+      <c r="AP59">
+        <v>0.67</v>
+      </c>
+      <c r="AQ59">
+        <v>0.67</v>
+      </c>
+      <c r="AR59">
+        <v>1.91</v>
+      </c>
+      <c r="AS59">
+        <v>1.37</v>
+      </c>
+      <c r="AT59">
+        <v>3.28</v>
+      </c>
+      <c r="AU59">
+        <v>4</v>
+      </c>
+      <c r="AV59">
+        <v>4</v>
+      </c>
+      <c r="AW59">
+        <v>8</v>
+      </c>
+      <c r="AX59">
+        <v>8</v>
+      </c>
+      <c r="AY59">
+        <v>12</v>
+      </c>
+      <c r="AZ59">
+        <v>12</v>
+      </c>
+      <c r="BA59">
+        <v>1</v>
+      </c>
+      <c r="BB59">
+        <v>8</v>
+      </c>
+      <c r="BC59">
+        <v>9</v>
+      </c>
+      <c r="BD59">
+        <v>2.57</v>
+      </c>
+      <c r="BE59">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF59">
+        <v>1.66</v>
+      </c>
+      <c r="BG59">
+        <v>1.2</v>
+      </c>
+      <c r="BH59">
+        <v>4</v>
+      </c>
+      <c r="BI59">
+        <v>1.34</v>
+      </c>
+      <c r="BJ59">
+        <v>2.88</v>
+      </c>
+      <c r="BK59">
+        <v>1.66</v>
+      </c>
+      <c r="BL59">
+        <v>2.17</v>
+      </c>
+      <c r="BM59">
+        <v>2.06</v>
+      </c>
+      <c r="BN59">
+        <v>1.74</v>
+      </c>
+      <c r="BO59">
+        <v>2.64</v>
+      </c>
+      <c r="BP59">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,12 @@
     <t>['23', '88']</t>
   </si>
   <si>
+    <t>['22', '40']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -509,6 +515,9 @@
   </si>
   <si>
     <t>['48', '60']</t>
+  </si>
+  <si>
+    <t>['55', '58']</t>
   </si>
 </sst>
 </file>
@@ -870,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1335,7 +1344,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1416,7 +1425,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1541,7 +1550,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1747,7 +1756,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1953,7 +1962,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2159,7 +2168,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2365,7 +2374,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2571,7 +2580,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2777,7 +2786,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2983,7 +2992,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3189,7 +3198,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3395,7 +3404,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3807,7 +3816,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4013,7 +4022,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4300,7 +4309,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4837,7 +4846,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -4915,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>3</v>
@@ -5121,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ21">
         <v>0.67</v>
@@ -5867,7 +5876,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6073,7 +6082,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6279,7 +6288,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6691,7 +6700,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6897,7 +6906,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -6978,7 +6987,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>2.2</v>
@@ -7103,7 +7112,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7596,7 +7605,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.26</v>
@@ -7721,7 +7730,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -7927,7 +7936,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8545,7 +8554,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8751,7 +8760,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8829,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9035,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>0.33</v>
@@ -9163,7 +9172,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9781,7 +9790,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9987,7 +9996,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10193,7 +10202,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10399,7 +10408,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10605,7 +10614,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10892,7 +10901,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11017,7 +11026,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11223,7 +11232,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11429,7 +11438,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12253,7 +12262,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12665,7 +12674,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12871,7 +12880,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13028,6 +13037,418 @@
       </c>
       <c r="BP59">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7465449</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45552.625</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s">
+        <v>86</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>129</v>
+      </c>
+      <c r="P60" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q60">
+        <v>2.4</v>
+      </c>
+      <c r="R60">
+        <v>2.5</v>
+      </c>
+      <c r="S60">
+        <v>3.3</v>
+      </c>
+      <c r="T60">
+        <v>1.2</v>
+      </c>
+      <c r="U60">
+        <v>3.95</v>
+      </c>
+      <c r="V60">
+        <v>1.93</v>
+      </c>
+      <c r="W60">
+        <v>1.77</v>
+      </c>
+      <c r="X60">
+        <v>4.25</v>
+      </c>
+      <c r="Y60">
+        <v>1.19</v>
+      </c>
+      <c r="Z60">
+        <v>2.13</v>
+      </c>
+      <c r="AA60">
+        <v>3.98</v>
+      </c>
+      <c r="AB60">
+        <v>2.98</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>30</v>
+      </c>
+      <c r="AE60">
+        <v>1.11</v>
+      </c>
+      <c r="AF60">
+        <v>6.25</v>
+      </c>
+      <c r="AG60">
+        <v>1.36</v>
+      </c>
+      <c r="AH60">
+        <v>3.1</v>
+      </c>
+      <c r="AI60">
+        <v>1.33</v>
+      </c>
+      <c r="AJ60">
+        <v>3.25</v>
+      </c>
+      <c r="AK60">
+        <v>1.36</v>
+      </c>
+      <c r="AL60">
+        <v>1.22</v>
+      </c>
+      <c r="AM60">
+        <v>1.67</v>
+      </c>
+      <c r="AN60">
+        <v>1.5</v>
+      </c>
+      <c r="AO60">
+        <v>1.33</v>
+      </c>
+      <c r="AP60">
+        <v>2</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1.64</v>
+      </c>
+      <c r="AS60">
+        <v>1.64</v>
+      </c>
+      <c r="AT60">
+        <v>3.28</v>
+      </c>
+      <c r="AU60">
+        <v>8</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>5</v>
+      </c>
+      <c r="AX60">
+        <v>4</v>
+      </c>
+      <c r="AY60">
+        <v>13</v>
+      </c>
+      <c r="AZ60">
+        <v>9</v>
+      </c>
+      <c r="BA60">
+        <v>6</v>
+      </c>
+      <c r="BB60">
+        <v>8</v>
+      </c>
+      <c r="BC60">
+        <v>14</v>
+      </c>
+      <c r="BD60">
+        <v>1.81</v>
+      </c>
+      <c r="BE60">
+        <v>6.75</v>
+      </c>
+      <c r="BF60">
+        <v>2.47</v>
+      </c>
+      <c r="BG60">
+        <v>1.15</v>
+      </c>
+      <c r="BH60">
+        <v>4.7</v>
+      </c>
+      <c r="BI60">
+        <v>1.3</v>
+      </c>
+      <c r="BJ60">
+        <v>3.2</v>
+      </c>
+      <c r="BK60">
+        <v>1.52</v>
+      </c>
+      <c r="BL60">
+        <v>2.37</v>
+      </c>
+      <c r="BM60">
+        <v>1.9</v>
+      </c>
+      <c r="BN60">
+        <v>1.9</v>
+      </c>
+      <c r="BO60">
+        <v>2.3</v>
+      </c>
+      <c r="BP60">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7465451</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45552.625</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>130</v>
+      </c>
+      <c r="P61" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q61">
+        <v>2.54</v>
+      </c>
+      <c r="R61">
+        <v>2.66</v>
+      </c>
+      <c r="S61">
+        <v>3.45</v>
+      </c>
+      <c r="T61">
+        <v>1.22</v>
+      </c>
+      <c r="U61">
+        <v>3.8</v>
+      </c>
+      <c r="V61">
+        <v>2.04</v>
+      </c>
+      <c r="W61">
+        <v>1.78</v>
+      </c>
+      <c r="X61">
+        <v>4.1</v>
+      </c>
+      <c r="Y61">
+        <v>1.2</v>
+      </c>
+      <c r="Z61">
+        <v>2.11</v>
+      </c>
+      <c r="AA61">
+        <v>3.93</v>
+      </c>
+      <c r="AB61">
+        <v>3.06</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>27</v>
+      </c>
+      <c r="AE61">
+        <v>1.08</v>
+      </c>
+      <c r="AF61">
+        <v>5.9</v>
+      </c>
+      <c r="AG61">
+        <v>1.35</v>
+      </c>
+      <c r="AH61">
+        <v>2.84</v>
+      </c>
+      <c r="AI61">
+        <v>1.35</v>
+      </c>
+      <c r="AJ61">
+        <v>2.9</v>
+      </c>
+      <c r="AK61">
+        <v>1.3</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.67</v>
+      </c>
+      <c r="AN61">
+        <v>0.5</v>
+      </c>
+      <c r="AO61">
+        <v>0.5</v>
+      </c>
+      <c r="AP61">
+        <v>0.33</v>
+      </c>
+      <c r="AQ61">
+        <v>1.33</v>
+      </c>
+      <c r="AR61">
+        <v>1.96</v>
+      </c>
+      <c r="AS61">
+        <v>1.06</v>
+      </c>
+      <c r="AT61">
+        <v>3.02</v>
+      </c>
+      <c r="AU61">
+        <v>5</v>
+      </c>
+      <c r="AV61">
+        <v>10</v>
+      </c>
+      <c r="AW61">
+        <v>2</v>
+      </c>
+      <c r="AX61">
+        <v>10</v>
+      </c>
+      <c r="AY61">
+        <v>7</v>
+      </c>
+      <c r="AZ61">
+        <v>20</v>
+      </c>
+      <c r="BA61">
+        <v>4</v>
+      </c>
+      <c r="BB61">
+        <v>10</v>
+      </c>
+      <c r="BC61">
+        <v>14</v>
+      </c>
+      <c r="BD61">
+        <v>1.7</v>
+      </c>
+      <c r="BE61">
+        <v>6.7</v>
+      </c>
+      <c r="BF61">
+        <v>2.72</v>
+      </c>
+      <c r="BG61">
+        <v>1.2</v>
+      </c>
+      <c r="BH61">
+        <v>4.25</v>
+      </c>
+      <c r="BI61">
+        <v>1.36</v>
+      </c>
+      <c r="BJ61">
+        <v>2.79</v>
+      </c>
+      <c r="BK61">
+        <v>1.7</v>
+      </c>
+      <c r="BL61">
+        <v>2.13</v>
+      </c>
+      <c r="BM61">
+        <v>2.12</v>
+      </c>
+      <c r="BN61">
+        <v>1.71</v>
+      </c>
+      <c r="BO61">
+        <v>2.71</v>
+      </c>
+      <c r="BP61">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,15 @@
     <t>['45']</t>
   </si>
   <si>
+    <t>['7', '73']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['71', '85']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -518,6 +527,15 @@
   </si>
   <si>
     <t>['55', '58']</t>
+  </si>
+  <si>
+    <t>['23', '90+1']</t>
+  </si>
+  <si>
+    <t>['21', '51', '90+2']</t>
+  </si>
+  <si>
+    <t>['51', '69']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1344,7 +1362,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1550,7 +1568,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1628,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -1756,7 +1774,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1962,7 +1980,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2043,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2168,7 +2186,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2249,7 +2267,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2374,7 +2392,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2452,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>0.33</v>
@@ -2580,7 +2598,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2661,7 +2679,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2786,7 +2804,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2992,7 +3010,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3198,7 +3216,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3276,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>2.33</v>
@@ -3404,7 +3422,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3816,7 +3834,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4022,7 +4040,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4103,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4306,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4512,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
         <v>0.67</v>
@@ -4846,7 +4864,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -4927,7 +4945,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5748,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ24">
         <v>0.67</v>
@@ -5876,7 +5894,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6082,7 +6100,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6160,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.18</v>
@@ -6288,7 +6306,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6575,7 +6593,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR28">
         <v>1.82</v>
@@ -6700,7 +6718,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6778,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>1.25</v>
@@ -6906,7 +6924,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7112,7 +7130,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7193,7 +7211,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -7730,7 +7748,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -7811,7 +7829,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR34">
         <v>1.12</v>
@@ -7936,7 +7954,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8017,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="AQ35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>0.8</v>
@@ -8220,7 +8238,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
         <v>0.33</v>
@@ -8426,7 +8444,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8554,7 +8572,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8632,10 +8650,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>1.6</v>
@@ -8760,7 +8778,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9172,7 +9190,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9790,7 +9808,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9996,7 +10014,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10074,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>0.67</v>
@@ -10202,7 +10220,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10283,7 +10301,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR46">
         <v>1.3</v>
@@ -10408,7 +10426,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10614,7 +10632,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10695,7 +10713,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.9</v>
@@ -11026,7 +11044,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11232,7 +11250,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11313,7 +11331,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -11438,7 +11456,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11722,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ53">
         <v>0.67</v>
@@ -12262,7 +12280,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12546,7 +12564,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
         <v>0.33</v>
@@ -12674,7 +12692,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12880,7 +12898,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13292,7 +13310,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13449,6 +13467,1036 @@
       </c>
       <c r="BP61">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7465459</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s">
+        <v>79</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>93</v>
+      </c>
+      <c r="P62" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q62">
+        <v>2.6</v>
+      </c>
+      <c r="R62">
+        <v>2.4</v>
+      </c>
+      <c r="S62">
+        <v>3.6</v>
+      </c>
+      <c r="T62">
+        <v>1.29</v>
+      </c>
+      <c r="U62">
+        <v>3.5</v>
+      </c>
+      <c r="V62">
+        <v>2.25</v>
+      </c>
+      <c r="W62">
+        <v>1.57</v>
+      </c>
+      <c r="X62">
+        <v>5.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.14</v>
+      </c>
+      <c r="Z62">
+        <v>2</v>
+      </c>
+      <c r="AA62">
+        <v>3.4</v>
+      </c>
+      <c r="AB62">
+        <v>3.3</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>17</v>
+      </c>
+      <c r="AE62">
+        <v>1.11</v>
+      </c>
+      <c r="AF62">
+        <v>5.5</v>
+      </c>
+      <c r="AG62">
+        <v>1.53</v>
+      </c>
+      <c r="AH62">
+        <v>2.4</v>
+      </c>
+      <c r="AI62">
+        <v>1.44</v>
+      </c>
+      <c r="AJ62">
+        <v>2.63</v>
+      </c>
+      <c r="AK62">
+        <v>1.28</v>
+      </c>
+      <c r="AL62">
+        <v>1.22</v>
+      </c>
+      <c r="AM62">
+        <v>1.89</v>
+      </c>
+      <c r="AN62">
+        <v>1.33</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="AQ62">
+        <v>2.25</v>
+      </c>
+      <c r="AR62">
+        <v>1.68</v>
+      </c>
+      <c r="AS62">
+        <v>1.83</v>
+      </c>
+      <c r="AT62">
+        <v>3.51</v>
+      </c>
+      <c r="AU62">
+        <v>11</v>
+      </c>
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
+        <v>2</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+      <c r="AY62">
+        <v>13</v>
+      </c>
+      <c r="AZ62">
+        <v>8</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>6</v>
+      </c>
+      <c r="BC62">
+        <v>9</v>
+      </c>
+      <c r="BD62">
+        <v>1.49</v>
+      </c>
+      <c r="BE62">
+        <v>7.1</v>
+      </c>
+      <c r="BF62">
+        <v>3.4</v>
+      </c>
+      <c r="BG62">
+        <v>1.2</v>
+      </c>
+      <c r="BH62">
+        <v>4.1</v>
+      </c>
+      <c r="BI62">
+        <v>1.31</v>
+      </c>
+      <c r="BJ62">
+        <v>2.82</v>
+      </c>
+      <c r="BK62">
+        <v>1.65</v>
+      </c>
+      <c r="BL62">
+        <v>2.2</v>
+      </c>
+      <c r="BM62">
+        <v>2.04</v>
+      </c>
+      <c r="BN62">
+        <v>1.75</v>
+      </c>
+      <c r="BO62">
+        <v>2.56</v>
+      </c>
+      <c r="BP62">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7465458</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s">
+        <v>88</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>131</v>
+      </c>
+      <c r="P63" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q63">
+        <v>2.1</v>
+      </c>
+      <c r="R63">
+        <v>2.5</v>
+      </c>
+      <c r="S63">
+        <v>4.5</v>
+      </c>
+      <c r="T63">
+        <v>1.25</v>
+      </c>
+      <c r="U63">
+        <v>3.75</v>
+      </c>
+      <c r="V63">
+        <v>2.2</v>
+      </c>
+      <c r="W63">
+        <v>1.62</v>
+      </c>
+      <c r="X63">
+        <v>5</v>
+      </c>
+      <c r="Y63">
+        <v>1.17</v>
+      </c>
+      <c r="Z63">
+        <v>1.62</v>
+      </c>
+      <c r="AA63">
+        <v>3.75</v>
+      </c>
+      <c r="AB63">
+        <v>4.75</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>14.7</v>
+      </c>
+      <c r="AE63">
+        <v>1.12</v>
+      </c>
+      <c r="AF63">
+        <v>5.05</v>
+      </c>
+      <c r="AG63">
+        <v>1.5</v>
+      </c>
+      <c r="AH63">
+        <v>2.5</v>
+      </c>
+      <c r="AI63">
+        <v>1.53</v>
+      </c>
+      <c r="AJ63">
+        <v>2.38</v>
+      </c>
+      <c r="AK63">
+        <v>1.16</v>
+      </c>
+      <c r="AL63">
+        <v>1.19</v>
+      </c>
+      <c r="AM63">
+        <v>2.28</v>
+      </c>
+      <c r="AN63">
+        <v>2.33</v>
+      </c>
+      <c r="AO63">
+        <v>0.33</v>
+      </c>
+      <c r="AP63">
+        <v>1.75</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>1.46</v>
+      </c>
+      <c r="AS63">
+        <v>1.45</v>
+      </c>
+      <c r="AT63">
+        <v>2.91</v>
+      </c>
+      <c r="AU63">
+        <v>11</v>
+      </c>
+      <c r="AV63">
+        <v>8</v>
+      </c>
+      <c r="AW63">
+        <v>8</v>
+      </c>
+      <c r="AX63">
+        <v>6</v>
+      </c>
+      <c r="AY63">
+        <v>19</v>
+      </c>
+      <c r="AZ63">
+        <v>14</v>
+      </c>
+      <c r="BA63">
+        <v>5</v>
+      </c>
+      <c r="BB63">
+        <v>6</v>
+      </c>
+      <c r="BC63">
+        <v>11</v>
+      </c>
+      <c r="BD63">
+        <v>1.63</v>
+      </c>
+      <c r="BE63">
+        <v>6.8</v>
+      </c>
+      <c r="BF63">
+        <v>2.9</v>
+      </c>
+      <c r="BG63">
+        <v>1.22</v>
+      </c>
+      <c r="BH63">
+        <v>3.9</v>
+      </c>
+      <c r="BI63">
+        <v>1.41</v>
+      </c>
+      <c r="BJ63">
+        <v>2.7</v>
+      </c>
+      <c r="BK63">
+        <v>1.68</v>
+      </c>
+      <c r="BL63">
+        <v>2.06</v>
+      </c>
+      <c r="BM63">
+        <v>2.1</v>
+      </c>
+      <c r="BN63">
+        <v>1.66</v>
+      </c>
+      <c r="BO63">
+        <v>2.65</v>
+      </c>
+      <c r="BP63">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7465456</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>132</v>
+      </c>
+      <c r="P64" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>2.5</v>
+      </c>
+      <c r="S64">
+        <v>2.88</v>
+      </c>
+      <c r="T64">
+        <v>1.25</v>
+      </c>
+      <c r="U64">
+        <v>3.75</v>
+      </c>
+      <c r="V64">
+        <v>2.2</v>
+      </c>
+      <c r="W64">
+        <v>1.62</v>
+      </c>
+      <c r="X64">
+        <v>5</v>
+      </c>
+      <c r="Y64">
+        <v>1.17</v>
+      </c>
+      <c r="Z64">
+        <v>2.5</v>
+      </c>
+      <c r="AA64">
+        <v>3.5</v>
+      </c>
+      <c r="AB64">
+        <v>2.4</v>
+      </c>
+      <c r="AC64">
+        <v>1.01</v>
+      </c>
+      <c r="AD64">
+        <v>12</v>
+      </c>
+      <c r="AE64">
+        <v>1.13</v>
+      </c>
+      <c r="AF64">
+        <v>5</v>
+      </c>
+      <c r="AG64">
+        <v>1.4</v>
+      </c>
+      <c r="AH64">
+        <v>2.88</v>
+      </c>
+      <c r="AI64">
+        <v>1.36</v>
+      </c>
+      <c r="AJ64">
+        <v>3</v>
+      </c>
+      <c r="AK64">
+        <v>1.53</v>
+      </c>
+      <c r="AL64">
+        <v>1.25</v>
+      </c>
+      <c r="AM64">
+        <v>1.49</v>
+      </c>
+      <c r="AN64">
+        <v>2.33</v>
+      </c>
+      <c r="AO64">
+        <v>3</v>
+      </c>
+      <c r="AP64">
+        <v>2.5</v>
+      </c>
+      <c r="AQ64">
+        <v>2</v>
+      </c>
+      <c r="AR64">
+        <v>2.12</v>
+      </c>
+      <c r="AS64">
+        <v>2.04</v>
+      </c>
+      <c r="AT64">
+        <v>4.16</v>
+      </c>
+      <c r="AU64">
+        <v>5</v>
+      </c>
+      <c r="AV64">
+        <v>5</v>
+      </c>
+      <c r="AW64">
+        <v>6</v>
+      </c>
+      <c r="AX64">
+        <v>6</v>
+      </c>
+      <c r="AY64">
+        <v>11</v>
+      </c>
+      <c r="AZ64">
+        <v>11</v>
+      </c>
+      <c r="BA64">
+        <v>6</v>
+      </c>
+      <c r="BB64">
+        <v>6</v>
+      </c>
+      <c r="BC64">
+        <v>12</v>
+      </c>
+      <c r="BD64">
+        <v>2.17</v>
+      </c>
+      <c r="BE64">
+        <v>6.7</v>
+      </c>
+      <c r="BF64">
+        <v>2.02</v>
+      </c>
+      <c r="BG64">
+        <v>1.16</v>
+      </c>
+      <c r="BH64">
+        <v>4.6</v>
+      </c>
+      <c r="BI64">
+        <v>1.25</v>
+      </c>
+      <c r="BJ64">
+        <v>3.14</v>
+      </c>
+      <c r="BK64">
+        <v>1.56</v>
+      </c>
+      <c r="BL64">
+        <v>2.38</v>
+      </c>
+      <c r="BM64">
+        <v>1.91</v>
+      </c>
+      <c r="BN64">
+        <v>1.89</v>
+      </c>
+      <c r="BO64">
+        <v>2.39</v>
+      </c>
+      <c r="BP64">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7465455</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>108</v>
+      </c>
+      <c r="P65" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q65">
+        <v>2.3</v>
+      </c>
+      <c r="R65">
+        <v>2.4</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+      <c r="T65">
+        <v>1.29</v>
+      </c>
+      <c r="U65">
+        <v>3.5</v>
+      </c>
+      <c r="V65">
+        <v>2.25</v>
+      </c>
+      <c r="W65">
+        <v>1.57</v>
+      </c>
+      <c r="X65">
+        <v>5.5</v>
+      </c>
+      <c r="Y65">
+        <v>1.14</v>
+      </c>
+      <c r="Z65">
+        <v>1.75</v>
+      </c>
+      <c r="AA65">
+        <v>3.6</v>
+      </c>
+      <c r="AB65">
+        <v>4.1</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>13</v>
+      </c>
+      <c r="AE65">
+        <v>1.15</v>
+      </c>
+      <c r="AF65">
+        <v>4.75</v>
+      </c>
+      <c r="AG65">
+        <v>1.57</v>
+      </c>
+      <c r="AH65">
+        <v>2.35</v>
+      </c>
+      <c r="AI65">
+        <v>1.53</v>
+      </c>
+      <c r="AJ65">
+        <v>2.38</v>
+      </c>
+      <c r="AK65">
+        <v>1.29</v>
+      </c>
+      <c r="AL65">
+        <v>1.22</v>
+      </c>
+      <c r="AM65">
+        <v>2</v>
+      </c>
+      <c r="AN65">
+        <v>1.33</v>
+      </c>
+      <c r="AO65">
+        <v>2</v>
+      </c>
+      <c r="AP65">
+        <v>1.25</v>
+      </c>
+      <c r="AQ65">
+        <v>1.75</v>
+      </c>
+      <c r="AR65">
+        <v>1.41</v>
+      </c>
+      <c r="AS65">
+        <v>1.59</v>
+      </c>
+      <c r="AT65">
+        <v>3</v>
+      </c>
+      <c r="AU65">
+        <v>6</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>6</v>
+      </c>
+      <c r="AX65">
+        <v>7</v>
+      </c>
+      <c r="AY65">
+        <v>12</v>
+      </c>
+      <c r="AZ65">
+        <v>11</v>
+      </c>
+      <c r="BA65">
+        <v>10</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>14</v>
+      </c>
+      <c r="BD65">
+        <v>1.61</v>
+      </c>
+      <c r="BE65">
+        <v>6.85</v>
+      </c>
+      <c r="BF65">
+        <v>2.95</v>
+      </c>
+      <c r="BG65">
+        <v>1.19</v>
+      </c>
+      <c r="BH65">
+        <v>4.2</v>
+      </c>
+      <c r="BI65">
+        <v>1.29</v>
+      </c>
+      <c r="BJ65">
+        <v>2.92</v>
+      </c>
+      <c r="BK65">
+        <v>1.63</v>
+      </c>
+      <c r="BL65">
+        <v>2.24</v>
+      </c>
+      <c r="BM65">
+        <v>2.01</v>
+      </c>
+      <c r="BN65">
+        <v>1.77</v>
+      </c>
+      <c r="BO65">
+        <v>2.49</v>
+      </c>
+      <c r="BP65">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7465457</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>86</v>
+      </c>
+      <c r="H66" t="s">
+        <v>83</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66" t="s">
+        <v>133</v>
+      </c>
+      <c r="P66" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q66">
+        <v>2.6</v>
+      </c>
+      <c r="R66">
+        <v>2.5</v>
+      </c>
+      <c r="S66">
+        <v>3.4</v>
+      </c>
+      <c r="T66">
+        <v>1.22</v>
+      </c>
+      <c r="U66">
+        <v>4</v>
+      </c>
+      <c r="V66">
+        <v>2.1</v>
+      </c>
+      <c r="W66">
+        <v>1.67</v>
+      </c>
+      <c r="X66">
+        <v>4.5</v>
+      </c>
+      <c r="Y66">
+        <v>1.18</v>
+      </c>
+      <c r="Z66">
+        <v>2.05</v>
+      </c>
+      <c r="AA66">
+        <v>3.4</v>
+      </c>
+      <c r="AB66">
+        <v>3.2</v>
+      </c>
+      <c r="AC66">
+        <v>1.01</v>
+      </c>
+      <c r="AD66">
+        <v>17</v>
+      </c>
+      <c r="AE66">
+        <v>1.11</v>
+      </c>
+      <c r="AF66">
+        <v>5.5</v>
+      </c>
+      <c r="AG66">
+        <v>1.44</v>
+      </c>
+      <c r="AH66">
+        <v>2.7</v>
+      </c>
+      <c r="AI66">
+        <v>1.36</v>
+      </c>
+      <c r="AJ66">
+        <v>3</v>
+      </c>
+      <c r="AK66">
+        <v>1.38</v>
+      </c>
+      <c r="AL66">
+        <v>1.25</v>
+      </c>
+      <c r="AM66">
+        <v>1.75</v>
+      </c>
+      <c r="AN66">
+        <v>2</v>
+      </c>
+      <c r="AO66">
+        <v>1.33</v>
+      </c>
+      <c r="AP66">
+        <v>1.67</v>
+      </c>
+      <c r="AQ66">
+        <v>1.25</v>
+      </c>
+      <c r="AR66">
+        <v>1.48</v>
+      </c>
+      <c r="AS66">
+        <v>1.9</v>
+      </c>
+      <c r="AT66">
+        <v>3.38</v>
+      </c>
+      <c r="AU66">
+        <v>7</v>
+      </c>
+      <c r="AV66">
+        <v>10</v>
+      </c>
+      <c r="AW66">
+        <v>4</v>
+      </c>
+      <c r="AX66">
+        <v>11</v>
+      </c>
+      <c r="AY66">
+        <v>11</v>
+      </c>
+      <c r="AZ66">
+        <v>21</v>
+      </c>
+      <c r="BA66">
+        <v>5</v>
+      </c>
+      <c r="BB66">
+        <v>4</v>
+      </c>
+      <c r="BC66">
+        <v>9</v>
+      </c>
+      <c r="BD66">
+        <v>2.35</v>
+      </c>
+      <c r="BE66">
+        <v>6.6</v>
+      </c>
+      <c r="BF66">
+        <v>1.89</v>
+      </c>
+      <c r="BG66">
+        <v>1.17</v>
+      </c>
+      <c r="BH66">
+        <v>4.4</v>
+      </c>
+      <c r="BI66">
+        <v>1.34</v>
+      </c>
+      <c r="BJ66">
+        <v>3</v>
+      </c>
+      <c r="BK66">
+        <v>1.57</v>
+      </c>
+      <c r="BL66">
+        <v>2.25</v>
+      </c>
+      <c r="BM66">
+        <v>1.93</v>
+      </c>
+      <c r="BN66">
+        <v>1.78</v>
+      </c>
+      <c r="BO66">
+        <v>2.4</v>
+      </c>
+      <c r="BP66">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,12 @@
     <t>['71', '85']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['31', '63']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -536,6 +542,9 @@
   </si>
   <si>
     <t>['51', '69']</t>
+  </si>
+  <si>
+    <t>['20', '34']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1362,7 +1371,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1568,7 +1577,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1774,7 +1783,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1980,7 +1989,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2186,7 +2195,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2264,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
         <v>1.75</v>
@@ -2392,7 +2401,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2598,7 +2607,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2804,7 +2813,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3010,7 +3019,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3091,7 +3100,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ11">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3216,7 +3225,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3422,7 +3431,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3706,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
         <v>0.33</v>
@@ -3834,7 +3843,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4040,7 +4049,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4864,7 +4873,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5151,7 +5160,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5769,7 +5778,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR24">
         <v>2.49</v>
@@ -5894,7 +5903,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6100,7 +6109,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6306,7 +6315,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6387,7 +6396,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -6590,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ28">
         <v>1.25</v>
@@ -6718,7 +6727,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6924,7 +6933,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7130,7 +7139,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7414,7 +7423,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ32">
         <v>1.33</v>
@@ -7748,7 +7757,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -7954,7 +7963,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8572,7 +8581,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8778,7 +8787,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9190,7 +9199,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9268,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -9683,7 +9692,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>1.9</v>
@@ -9808,7 +9817,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9889,7 +9898,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ44">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>2.05</v>
@@ -10014,7 +10023,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10220,7 +10229,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10426,7 +10435,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10632,7 +10641,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11044,7 +11053,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11250,7 +11259,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11456,7 +11465,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12280,7 +12289,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12692,7 +12701,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12898,7 +12907,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13310,7 +13319,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13516,7 +13525,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13722,7 +13731,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14340,7 +14349,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14497,6 +14506,418 @@
       </c>
       <c r="BP66">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7465460</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45556.47916666666</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67" t="s">
+        <v>73</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>134</v>
+      </c>
+      <c r="P67" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q67">
+        <v>2.25</v>
+      </c>
+      <c r="R67">
+        <v>2.5</v>
+      </c>
+      <c r="S67">
+        <v>4.33</v>
+      </c>
+      <c r="T67">
+        <v>1.25</v>
+      </c>
+      <c r="U67">
+        <v>3.75</v>
+      </c>
+      <c r="V67">
+        <v>2.1</v>
+      </c>
+      <c r="W67">
+        <v>1.67</v>
+      </c>
+      <c r="X67">
+        <v>5</v>
+      </c>
+      <c r="Y67">
+        <v>1.17</v>
+      </c>
+      <c r="Z67">
+        <v>1.67</v>
+      </c>
+      <c r="AA67">
+        <v>3.7</v>
+      </c>
+      <c r="AB67">
+        <v>4.5</v>
+      </c>
+      <c r="AC67">
+        <v>1.01</v>
+      </c>
+      <c r="AD67">
+        <v>17</v>
+      </c>
+      <c r="AE67">
+        <v>1.12</v>
+      </c>
+      <c r="AF67">
+        <v>5.25</v>
+      </c>
+      <c r="AG67">
+        <v>1.48</v>
+      </c>
+      <c r="AH67">
+        <v>2.6</v>
+      </c>
+      <c r="AI67">
+        <v>1.5</v>
+      </c>
+      <c r="AJ67">
+        <v>2.5</v>
+      </c>
+      <c r="AK67">
+        <v>1.22</v>
+      </c>
+      <c r="AL67">
+        <v>1.22</v>
+      </c>
+      <c r="AM67">
+        <v>2.15</v>
+      </c>
+      <c r="AN67">
+        <v>0.5</v>
+      </c>
+      <c r="AO67">
+        <v>0.67</v>
+      </c>
+      <c r="AP67">
+        <v>1.33</v>
+      </c>
+      <c r="AQ67">
+        <v>0.5</v>
+      </c>
+      <c r="AR67">
+        <v>1.6</v>
+      </c>
+      <c r="AS67">
+        <v>1.22</v>
+      </c>
+      <c r="AT67">
+        <v>2.82</v>
+      </c>
+      <c r="AU67">
+        <v>6</v>
+      </c>
+      <c r="AV67">
+        <v>6</v>
+      </c>
+      <c r="AW67">
+        <v>8</v>
+      </c>
+      <c r="AX67">
+        <v>4</v>
+      </c>
+      <c r="AY67">
+        <v>14</v>
+      </c>
+      <c r="AZ67">
+        <v>10</v>
+      </c>
+      <c r="BA67">
+        <v>6</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
+        <v>8</v>
+      </c>
+      <c r="BD67">
+        <v>1.33</v>
+      </c>
+      <c r="BE67">
+        <v>7.9</v>
+      </c>
+      <c r="BF67">
+        <v>4.4</v>
+      </c>
+      <c r="BG67">
+        <v>1.16</v>
+      </c>
+      <c r="BH67">
+        <v>3.86</v>
+      </c>
+      <c r="BI67">
+        <v>1.4</v>
+      </c>
+      <c r="BJ67">
+        <v>2.75</v>
+      </c>
+      <c r="BK67">
+        <v>1.71</v>
+      </c>
+      <c r="BL67">
+        <v>2.11</v>
+      </c>
+      <c r="BM67">
+        <v>2.14</v>
+      </c>
+      <c r="BN67">
+        <v>1.69</v>
+      </c>
+      <c r="BO67">
+        <v>2.8</v>
+      </c>
+      <c r="BP67">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7465461</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45556.57291666666</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" t="s">
+        <v>89</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>135</v>
+      </c>
+      <c r="P68" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q68">
+        <v>2.3</v>
+      </c>
+      <c r="R68">
+        <v>2.5</v>
+      </c>
+      <c r="S68">
+        <v>4</v>
+      </c>
+      <c r="T68">
+        <v>1.25</v>
+      </c>
+      <c r="U68">
+        <v>3.75</v>
+      </c>
+      <c r="V68">
+        <v>2.1</v>
+      </c>
+      <c r="W68">
+        <v>1.67</v>
+      </c>
+      <c r="X68">
+        <v>4.5</v>
+      </c>
+      <c r="Y68">
+        <v>1.18</v>
+      </c>
+      <c r="Z68">
+        <v>1.75</v>
+      </c>
+      <c r="AA68">
+        <v>3.7</v>
+      </c>
+      <c r="AB68">
+        <v>4</v>
+      </c>
+      <c r="AC68">
+        <v>1.01</v>
+      </c>
+      <c r="AD68">
+        <v>17</v>
+      </c>
+      <c r="AE68">
+        <v>1.11</v>
+      </c>
+      <c r="AF68">
+        <v>5.5</v>
+      </c>
+      <c r="AG68">
+        <v>1.44</v>
+      </c>
+      <c r="AH68">
+        <v>2.7</v>
+      </c>
+      <c r="AI68">
+        <v>1.44</v>
+      </c>
+      <c r="AJ68">
+        <v>2.63</v>
+      </c>
+      <c r="AK68">
+        <v>1.25</v>
+      </c>
+      <c r="AL68">
+        <v>1.22</v>
+      </c>
+      <c r="AM68">
+        <v>1.95</v>
+      </c>
+      <c r="AN68">
+        <v>0.67</v>
+      </c>
+      <c r="AO68">
+        <v>2.33</v>
+      </c>
+      <c r="AP68">
+        <v>0.75</v>
+      </c>
+      <c r="AQ68">
+        <v>2</v>
+      </c>
+      <c r="AR68">
+        <v>1.33</v>
+      </c>
+      <c r="AS68">
+        <v>1.82</v>
+      </c>
+      <c r="AT68">
+        <v>3.15</v>
+      </c>
+      <c r="AU68">
+        <v>11</v>
+      </c>
+      <c r="AV68">
+        <v>4</v>
+      </c>
+      <c r="AW68">
+        <v>8</v>
+      </c>
+      <c r="AX68">
+        <v>3</v>
+      </c>
+      <c r="AY68">
+        <v>19</v>
+      </c>
+      <c r="AZ68">
+        <v>7</v>
+      </c>
+      <c r="BA68">
+        <v>16</v>
+      </c>
+      <c r="BB68">
+        <v>2</v>
+      </c>
+      <c r="BC68">
+        <v>18</v>
+      </c>
+      <c r="BD68">
+        <v>1.59</v>
+      </c>
+      <c r="BE68">
+        <v>6.85</v>
+      </c>
+      <c r="BF68">
+        <v>3.02</v>
+      </c>
+      <c r="BG68">
+        <v>1.18</v>
+      </c>
+      <c r="BH68">
+        <v>4.5</v>
+      </c>
+      <c r="BI68">
+        <v>1.35</v>
+      </c>
+      <c r="BJ68">
+        <v>3.05</v>
+      </c>
+      <c r="BK68">
+        <v>1.62</v>
+      </c>
+      <c r="BL68">
+        <v>2.25</v>
+      </c>
+      <c r="BM68">
+        <v>2.01</v>
+      </c>
+      <c r="BN68">
+        <v>1.79</v>
+      </c>
+      <c r="BO68">
+        <v>2.55</v>
+      </c>
+      <c r="BP68">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,9 @@
     <t>['31', '63']</t>
   </si>
   <si>
+    <t>['70', '72']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -545,6 +548,12 @@
   </si>
   <si>
     <t>['20', '34']</t>
+  </si>
+  <si>
+    <t>['41', '48', '57', '72']</t>
+  </si>
+  <si>
+    <t>['41', '82']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1371,7 +1380,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1577,7 +1586,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1783,7 +1792,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1989,7 +1998,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2067,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1.25</v>
@@ -2195,7 +2204,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2401,7 +2410,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2607,7 +2616,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2813,7 +2822,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2891,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>1.25</v>
@@ -3019,7 +3028,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3225,7 +3234,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3431,7 +3440,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3512,7 +3521,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3843,7 +3852,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -3924,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4049,7 +4058,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4873,7 +4882,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5363,7 +5372,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5903,7 +5912,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6109,7 +6118,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6315,7 +6324,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6727,7 +6736,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6933,7 +6942,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7011,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7139,7 +7148,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7426,7 +7435,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -7757,7 +7766,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -7963,7 +7972,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8581,7 +8590,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8787,7 +8796,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9199,7 +9208,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9280,7 +9289,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9486,7 +9495,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -9817,7 +9826,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10023,7 +10032,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10229,7 +10238,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10307,7 +10316,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>2.25</v>
@@ -10435,7 +10444,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10513,7 +10522,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
         <v>2.33</v>
@@ -10641,7 +10650,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11053,7 +11062,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11259,7 +11268,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11465,7 +11474,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12289,7 +12298,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12701,7 +12710,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12907,7 +12916,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13319,7 +13328,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13525,7 +13534,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13731,7 +13740,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14349,7 +14358,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14761,7 +14770,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -14918,6 +14927,418 @@
       </c>
       <c r="BP68">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7465462</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s">
+        <v>70</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69" t="s">
+        <v>93</v>
+      </c>
+      <c r="P69" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q69">
+        <v>2.88</v>
+      </c>
+      <c r="R69">
+        <v>2.4</v>
+      </c>
+      <c r="S69">
+        <v>3.1</v>
+      </c>
+      <c r="T69">
+        <v>1.29</v>
+      </c>
+      <c r="U69">
+        <v>3.5</v>
+      </c>
+      <c r="V69">
+        <v>2.25</v>
+      </c>
+      <c r="W69">
+        <v>1.57</v>
+      </c>
+      <c r="X69">
+        <v>5.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.14</v>
+      </c>
+      <c r="Z69">
+        <v>2.38</v>
+      </c>
+      <c r="AA69">
+        <v>3.6</v>
+      </c>
+      <c r="AB69">
+        <v>2.55</v>
+      </c>
+      <c r="AC69">
+        <v>1.04</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.12</v>
+      </c>
+      <c r="AF69">
+        <v>4.4</v>
+      </c>
+      <c r="AG69">
+        <v>1.57</v>
+      </c>
+      <c r="AH69">
+        <v>2.35</v>
+      </c>
+      <c r="AI69">
+        <v>1.44</v>
+      </c>
+      <c r="AJ69">
+        <v>2.63</v>
+      </c>
+      <c r="AK69">
+        <v>1.47</v>
+      </c>
+      <c r="AL69">
+        <v>1.26</v>
+      </c>
+      <c r="AM69">
+        <v>1.53</v>
+      </c>
+      <c r="AN69">
+        <v>2</v>
+      </c>
+      <c r="AO69">
+        <v>1.33</v>
+      </c>
+      <c r="AP69">
+        <v>1.5</v>
+      </c>
+      <c r="AQ69">
+        <v>1.75</v>
+      </c>
+      <c r="AR69">
+        <v>1.43</v>
+      </c>
+      <c r="AS69">
+        <v>0.92</v>
+      </c>
+      <c r="AT69">
+        <v>2.35</v>
+      </c>
+      <c r="AU69">
+        <v>2</v>
+      </c>
+      <c r="AV69">
+        <v>3</v>
+      </c>
+      <c r="AW69">
+        <v>3</v>
+      </c>
+      <c r="AX69">
+        <v>6</v>
+      </c>
+      <c r="AY69">
+        <v>5</v>
+      </c>
+      <c r="AZ69">
+        <v>9</v>
+      </c>
+      <c r="BA69">
+        <v>5</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
+        <v>7</v>
+      </c>
+      <c r="BD69">
+        <v>1.69</v>
+      </c>
+      <c r="BE69">
+        <v>6.75</v>
+      </c>
+      <c r="BF69">
+        <v>2.73</v>
+      </c>
+      <c r="BG69">
+        <v>1.15</v>
+      </c>
+      <c r="BH69">
+        <v>4.7</v>
+      </c>
+      <c r="BI69">
+        <v>1.25</v>
+      </c>
+      <c r="BJ69">
+        <v>3.14</v>
+      </c>
+      <c r="BK69">
+        <v>1.55</v>
+      </c>
+      <c r="BL69">
+        <v>2.4</v>
+      </c>
+      <c r="BM69">
+        <v>1.9</v>
+      </c>
+      <c r="BN69">
+        <v>1.9</v>
+      </c>
+      <c r="BO69">
+        <v>2.38</v>
+      </c>
+      <c r="BP69">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7465463</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45558.625</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>136</v>
+      </c>
+      <c r="P70" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q70">
+        <v>2.88</v>
+      </c>
+      <c r="R70">
+        <v>2.5</v>
+      </c>
+      <c r="S70">
+        <v>2.88</v>
+      </c>
+      <c r="T70">
+        <v>1.22</v>
+      </c>
+      <c r="U70">
+        <v>4</v>
+      </c>
+      <c r="V70">
+        <v>2.1</v>
+      </c>
+      <c r="W70">
+        <v>1.67</v>
+      </c>
+      <c r="X70">
+        <v>4.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.18</v>
+      </c>
+      <c r="Z70">
+        <v>2.45</v>
+      </c>
+      <c r="AA70">
+        <v>3.6</v>
+      </c>
+      <c r="AB70">
+        <v>2.45</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>17</v>
+      </c>
+      <c r="AE70">
+        <v>1.08</v>
+      </c>
+      <c r="AF70">
+        <v>6.5</v>
+      </c>
+      <c r="AG70">
+        <v>1.4</v>
+      </c>
+      <c r="AH70">
+        <v>2.88</v>
+      </c>
+      <c r="AI70">
+        <v>1.36</v>
+      </c>
+      <c r="AJ70">
+        <v>3</v>
+      </c>
+      <c r="AK70">
+        <v>1.55</v>
+      </c>
+      <c r="AL70">
+        <v>1.23</v>
+      </c>
+      <c r="AM70">
+        <v>1.49</v>
+      </c>
+      <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>1.5</v>
+      </c>
+      <c r="AP70">
+        <v>1.75</v>
+      </c>
+      <c r="AQ70">
+        <v>1.33</v>
+      </c>
+      <c r="AR70">
+        <v>1.9</v>
+      </c>
+      <c r="AS70">
+        <v>1.85</v>
+      </c>
+      <c r="AT70">
+        <v>3.75</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>5</v>
+      </c>
+      <c r="AW70">
+        <v>6</v>
+      </c>
+      <c r="AX70">
+        <v>5</v>
+      </c>
+      <c r="AY70">
+        <v>13</v>
+      </c>
+      <c r="AZ70">
+        <v>10</v>
+      </c>
+      <c r="BA70">
+        <v>12</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>16</v>
+      </c>
+      <c r="BD70">
+        <v>2.05</v>
+      </c>
+      <c r="BE70">
+        <v>8.5</v>
+      </c>
+      <c r="BF70">
+        <v>2</v>
+      </c>
+      <c r="BG70">
+        <v>1.21</v>
+      </c>
+      <c r="BH70">
+        <v>3.9</v>
+      </c>
+      <c r="BI70">
+        <v>1.33</v>
+      </c>
+      <c r="BJ70">
+        <v>2.73</v>
+      </c>
+      <c r="BK70">
+        <v>1.62</v>
+      </c>
+      <c r="BL70">
+        <v>2.06</v>
+      </c>
+      <c r="BM70">
+        <v>2.07</v>
+      </c>
+      <c r="BN70">
+        <v>1.67</v>
+      </c>
+      <c r="BO70">
+        <v>2.66</v>
+      </c>
+      <c r="BP70">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>['41', '82']</t>
+  </si>
+  <si>
+    <t>['30', '53', '72', '82']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1873,7 +1876,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -5375,7 +5378,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -8465,7 +8468,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>1.18</v>
@@ -15339,6 +15342,212 @@
       </c>
       <c r="BP70">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7465464</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45558.625</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71" t="s">
+        <v>87</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>93</v>
+      </c>
+      <c r="P71" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q71">
+        <v>3.75</v>
+      </c>
+      <c r="R71">
+        <v>2.38</v>
+      </c>
+      <c r="S71">
+        <v>2.6</v>
+      </c>
+      <c r="T71">
+        <v>1.3</v>
+      </c>
+      <c r="U71">
+        <v>3.4</v>
+      </c>
+      <c r="V71">
+        <v>2.38</v>
+      </c>
+      <c r="W71">
+        <v>1.53</v>
+      </c>
+      <c r="X71">
+        <v>6</v>
+      </c>
+      <c r="Y71">
+        <v>1.13</v>
+      </c>
+      <c r="Z71">
+        <v>3.4</v>
+      </c>
+      <c r="AA71">
+        <v>3.5</v>
+      </c>
+      <c r="AB71">
+        <v>1.91</v>
+      </c>
+      <c r="AC71">
+        <v>1.03</v>
+      </c>
+      <c r="AD71">
+        <v>9</v>
+      </c>
+      <c r="AE71">
+        <v>1.15</v>
+      </c>
+      <c r="AF71">
+        <v>4.6</v>
+      </c>
+      <c r="AG71">
+        <v>1.62</v>
+      </c>
+      <c r="AH71">
+        <v>2.25</v>
+      </c>
+      <c r="AI71">
+        <v>1.57</v>
+      </c>
+      <c r="AJ71">
+        <v>2.25</v>
+      </c>
+      <c r="AK71">
+        <v>1.8</v>
+      </c>
+      <c r="AL71">
+        <v>1.27</v>
+      </c>
+      <c r="AM71">
+        <v>1.22</v>
+      </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <v>1.5</v>
+      </c>
+      <c r="AR71">
+        <v>1.34</v>
+      </c>
+      <c r="AS71">
+        <v>1.65</v>
+      </c>
+      <c r="AT71">
+        <v>2.99</v>
+      </c>
+      <c r="AU71">
+        <v>5</v>
+      </c>
+      <c r="AV71">
+        <v>10</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>6</v>
+      </c>
+      <c r="AY71">
+        <v>10</v>
+      </c>
+      <c r="AZ71">
+        <v>16</v>
+      </c>
+      <c r="BA71">
+        <v>4</v>
+      </c>
+      <c r="BB71">
+        <v>6</v>
+      </c>
+      <c r="BC71">
+        <v>10</v>
+      </c>
+      <c r="BD71">
+        <v>2.67</v>
+      </c>
+      <c r="BE71">
+        <v>9.1</v>
+      </c>
+      <c r="BF71">
+        <v>1.61</v>
+      </c>
+      <c r="BG71">
+        <v>1.14</v>
+      </c>
+      <c r="BH71">
+        <v>5</v>
+      </c>
+      <c r="BI71">
+        <v>1.22</v>
+      </c>
+      <c r="BJ71">
+        <v>3.34</v>
+      </c>
+      <c r="BK71">
+        <v>1.44</v>
+      </c>
+      <c r="BL71">
+        <v>2.43</v>
+      </c>
+      <c r="BM71">
+        <v>1.79</v>
+      </c>
+      <c r="BN71">
+        <v>1.92</v>
+      </c>
+      <c r="BO71">
+        <v>2.21</v>
+      </c>
+      <c r="BP71">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,18 @@
     <t>['70', '72']</t>
   </si>
   <si>
+    <t>['78', '89']</t>
+  </si>
+  <si>
+    <t>['85', '87']</t>
+  </si>
+  <si>
+    <t>['19', '65', '76', '90+4']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -557,6 +569,18 @@
   </si>
   <si>
     <t>['30', '53', '72', '82']</t>
+  </si>
+  <si>
+    <t>['33', '39', '58', '90+6']</t>
+  </si>
+  <si>
+    <t>['14', '82']</t>
+  </si>
+  <si>
+    <t>['6', '11']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1383,7 +1407,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1589,7 +1613,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1670,7 +1694,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1795,7 +1819,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1873,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2001,7 +2025,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2207,7 +2231,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2413,7 +2437,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2491,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2619,7 +2643,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2825,7 +2849,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2906,7 +2930,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3031,7 +3055,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3237,7 +3261,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3443,7 +3467,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3730,7 +3754,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3855,7 +3879,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4061,7 +4085,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4348,7 +4372,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4885,7 +4909,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -4963,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>2</v>
@@ -5915,7 +5939,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -5996,7 +6020,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>1.58</v>
@@ -6121,7 +6145,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6199,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6327,7 +6351,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6405,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>2</v>
@@ -6739,7 +6763,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6820,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -6945,7 +6969,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7151,7 +7175,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7644,7 +7668,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.26</v>
@@ -7769,7 +7793,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -7847,7 +7871,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
         <v>2.25</v>
@@ -7975,7 +7999,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8262,7 +8286,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8593,7 +8617,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8671,7 +8695,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
         <v>1.25</v>
@@ -8799,7 +8823,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9083,10 +9107,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>1.64</v>
@@ -9211,7 +9235,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9829,7 +9853,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10035,7 +10059,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10116,7 +10140,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>1.68</v>
@@ -10241,7 +10265,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10447,7 +10471,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10653,7 +10677,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10731,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10937,7 +10961,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11065,7 +11089,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11271,7 +11295,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11477,7 +11501,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11558,7 +11582,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -11970,7 +11994,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ54">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR54">
         <v>1.99</v>
@@ -12176,7 +12200,7 @@
         <v>3</v>
       </c>
       <c r="AQ55">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.7</v>
@@ -12301,7 +12325,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12588,7 +12612,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR57">
         <v>1.47</v>
@@ -12713,7 +12737,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12919,7 +12943,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13203,7 +13227,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13331,7 +13355,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13412,7 +13436,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ61">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.96</v>
@@ -13537,7 +13561,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13743,7 +13767,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14233,7 +14257,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ65">
         <v>1.75</v>
@@ -14361,7 +14385,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14773,7 +14797,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -14979,7 +15003,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15185,7 +15209,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15391,7 +15415,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15548,6 +15572,1036 @@
       </c>
       <c r="BP71">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7465468</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" t="s">
+        <v>80</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>6</v>
+      </c>
+      <c r="O72" t="s">
+        <v>137</v>
+      </c>
+      <c r="P72" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q72">
+        <v>2.2</v>
+      </c>
+      <c r="R72">
+        <v>2.4</v>
+      </c>
+      <c r="S72">
+        <v>4.2</v>
+      </c>
+      <c r="T72">
+        <v>1.28</v>
+      </c>
+      <c r="U72">
+        <v>3.4</v>
+      </c>
+      <c r="V72">
+        <v>2.25</v>
+      </c>
+      <c r="W72">
+        <v>1.58</v>
+      </c>
+      <c r="X72">
+        <v>5.25</v>
+      </c>
+      <c r="Y72">
+        <v>1.15</v>
+      </c>
+      <c r="Z72">
+        <v>1.77</v>
+      </c>
+      <c r="AA72">
+        <v>3.94</v>
+      </c>
+      <c r="AB72">
+        <v>4.15</v>
+      </c>
+      <c r="AC72">
+        <v>1.02</v>
+      </c>
+      <c r="AD72">
+        <v>12</v>
+      </c>
+      <c r="AE72">
+        <v>1.15</v>
+      </c>
+      <c r="AF72">
+        <v>4.75</v>
+      </c>
+      <c r="AG72">
+        <v>1.5</v>
+      </c>
+      <c r="AH72">
+        <v>2.4</v>
+      </c>
+      <c r="AI72">
+        <v>1.55</v>
+      </c>
+      <c r="AJ72">
+        <v>2.3</v>
+      </c>
+      <c r="AK72">
+        <v>1.22</v>
+      </c>
+      <c r="AL72">
+        <v>1.25</v>
+      </c>
+      <c r="AM72">
+        <v>2.05</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <v>0.33</v>
+      </c>
+      <c r="AP72">
+        <v>1.5</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>1.66</v>
+      </c>
+      <c r="AS72">
+        <v>1.14</v>
+      </c>
+      <c r="AT72">
+        <v>2.8</v>
+      </c>
+      <c r="AU72">
+        <v>6</v>
+      </c>
+      <c r="AV72">
+        <v>7</v>
+      </c>
+      <c r="AW72">
+        <v>11</v>
+      </c>
+      <c r="AX72">
+        <v>5</v>
+      </c>
+      <c r="AY72">
+        <v>17</v>
+      </c>
+      <c r="AZ72">
+        <v>12</v>
+      </c>
+      <c r="BA72">
+        <v>5</v>
+      </c>
+      <c r="BB72">
+        <v>6</v>
+      </c>
+      <c r="BC72">
+        <v>11</v>
+      </c>
+      <c r="BD72">
+        <v>1.62</v>
+      </c>
+      <c r="BE72">
+        <v>8.1</v>
+      </c>
+      <c r="BF72">
+        <v>2.86</v>
+      </c>
+      <c r="BG72">
+        <v>1.26</v>
+      </c>
+      <c r="BH72">
+        <v>3.4</v>
+      </c>
+      <c r="BI72">
+        <v>1.47</v>
+      </c>
+      <c r="BJ72">
+        <v>2.42</v>
+      </c>
+      <c r="BK72">
+        <v>1.8</v>
+      </c>
+      <c r="BL72">
+        <v>1.9</v>
+      </c>
+      <c r="BM72">
+        <v>2.22</v>
+      </c>
+      <c r="BN72">
+        <v>1.56</v>
+      </c>
+      <c r="BO72">
+        <v>2.85</v>
+      </c>
+      <c r="BP72">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7465469</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73" t="s">
+        <v>138</v>
+      </c>
+      <c r="P73" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q73">
+        <v>2.3</v>
+      </c>
+      <c r="R73">
+        <v>2.3</v>
+      </c>
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73">
+        <v>1.28</v>
+      </c>
+      <c r="U73">
+        <v>3.4</v>
+      </c>
+      <c r="V73">
+        <v>2.2</v>
+      </c>
+      <c r="W73">
+        <v>1.6</v>
+      </c>
+      <c r="X73">
+        <v>5</v>
+      </c>
+      <c r="Y73">
+        <v>1.15</v>
+      </c>
+      <c r="Z73">
+        <v>1.83</v>
+      </c>
+      <c r="AA73">
+        <v>4.01</v>
+      </c>
+      <c r="AB73">
+        <v>3.8</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>13</v>
+      </c>
+      <c r="AE73">
+        <v>1.18</v>
+      </c>
+      <c r="AF73">
+        <v>4.75</v>
+      </c>
+      <c r="AG73">
+        <v>1.55</v>
+      </c>
+      <c r="AH73">
+        <v>2.4</v>
+      </c>
+      <c r="AI73">
+        <v>1.48</v>
+      </c>
+      <c r="AJ73">
+        <v>2.4</v>
+      </c>
+      <c r="AK73">
+        <v>1.25</v>
+      </c>
+      <c r="AL73">
+        <v>1.2</v>
+      </c>
+      <c r="AM73">
+        <v>1.95</v>
+      </c>
+      <c r="AN73">
+        <v>1.33</v>
+      </c>
+      <c r="AO73">
+        <v>0.33</v>
+      </c>
+      <c r="AP73">
+        <v>1.25</v>
+      </c>
+      <c r="AQ73">
+        <v>0.5</v>
+      </c>
+      <c r="AR73">
+        <v>1.77</v>
+      </c>
+      <c r="AS73">
+        <v>0.93</v>
+      </c>
+      <c r="AT73">
+        <v>2.7</v>
+      </c>
+      <c r="AU73">
+        <v>5</v>
+      </c>
+      <c r="AV73">
+        <v>8</v>
+      </c>
+      <c r="AW73">
+        <v>7</v>
+      </c>
+      <c r="AX73">
+        <v>1</v>
+      </c>
+      <c r="AY73">
+        <v>12</v>
+      </c>
+      <c r="AZ73">
+        <v>9</v>
+      </c>
+      <c r="BA73">
+        <v>8</v>
+      </c>
+      <c r="BB73">
+        <v>5</v>
+      </c>
+      <c r="BC73">
+        <v>13</v>
+      </c>
+      <c r="BD73">
+        <v>1.6</v>
+      </c>
+      <c r="BE73">
+        <v>6.8</v>
+      </c>
+      <c r="BF73">
+        <v>3</v>
+      </c>
+      <c r="BG73">
+        <v>1.18</v>
+      </c>
+      <c r="BH73">
+        <v>3.74</v>
+      </c>
+      <c r="BI73">
+        <v>1.38</v>
+      </c>
+      <c r="BJ73">
+        <v>2.62</v>
+      </c>
+      <c r="BK73">
+        <v>1.73</v>
+      </c>
+      <c r="BL73">
+        <v>2.07</v>
+      </c>
+      <c r="BM73">
+        <v>2.17</v>
+      </c>
+      <c r="BN73">
+        <v>1.67</v>
+      </c>
+      <c r="BO73">
+        <v>2.73</v>
+      </c>
+      <c r="BP73">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7465466</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>83</v>
+      </c>
+      <c r="H74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>6</v>
+      </c>
+      <c r="O74" t="s">
+        <v>139</v>
+      </c>
+      <c r="P74" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q74">
+        <v>1.83</v>
+      </c>
+      <c r="R74">
+        <v>2.6</v>
+      </c>
+      <c r="S74">
+        <v>5.5</v>
+      </c>
+      <c r="T74">
+        <v>1.19</v>
+      </c>
+      <c r="U74">
+        <v>4.2</v>
+      </c>
+      <c r="V74">
+        <v>2.07</v>
+      </c>
+      <c r="W74">
+        <v>1.67</v>
+      </c>
+      <c r="X74">
+        <v>4.3</v>
+      </c>
+      <c r="Y74">
+        <v>1.2</v>
+      </c>
+      <c r="Z74">
+        <v>1.4</v>
+      </c>
+      <c r="AA74">
+        <v>4.5</v>
+      </c>
+      <c r="AB74">
+        <v>6.5</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>17</v>
+      </c>
+      <c r="AE74">
+        <v>1.08</v>
+      </c>
+      <c r="AF74">
+        <v>6.5</v>
+      </c>
+      <c r="AG74">
+        <v>1.4</v>
+      </c>
+      <c r="AH74">
+        <v>2.88</v>
+      </c>
+      <c r="AI74">
+        <v>1.53</v>
+      </c>
+      <c r="AJ74">
+        <v>2.45</v>
+      </c>
+      <c r="AK74">
+        <v>1.1</v>
+      </c>
+      <c r="AL74">
+        <v>1.14</v>
+      </c>
+      <c r="AM74">
+        <v>2.8</v>
+      </c>
+      <c r="AN74">
+        <v>3</v>
+      </c>
+      <c r="AO74">
+        <v>1.33</v>
+      </c>
+      <c r="AP74">
+        <v>3</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>1.75</v>
+      </c>
+      <c r="AS74">
+        <v>1.55</v>
+      </c>
+      <c r="AT74">
+        <v>3.3</v>
+      </c>
+      <c r="AU74">
+        <v>8</v>
+      </c>
+      <c r="AV74">
+        <v>5</v>
+      </c>
+      <c r="AW74">
+        <v>8</v>
+      </c>
+      <c r="AX74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>16</v>
+      </c>
+      <c r="AZ74">
+        <v>5</v>
+      </c>
+      <c r="BA74">
+        <v>5</v>
+      </c>
+      <c r="BB74">
+        <v>1</v>
+      </c>
+      <c r="BC74">
+        <v>6</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>1.2</v>
+      </c>
+      <c r="BH74">
+        <v>4.25</v>
+      </c>
+      <c r="BI74">
+        <v>1.38</v>
+      </c>
+      <c r="BJ74">
+        <v>2.9</v>
+      </c>
+      <c r="BK74">
+        <v>1.67</v>
+      </c>
+      <c r="BL74">
+        <v>2.12</v>
+      </c>
+      <c r="BM74">
+        <v>2.05</v>
+      </c>
+      <c r="BN74">
+        <v>1.7</v>
+      </c>
+      <c r="BO74">
+        <v>2.85</v>
+      </c>
+      <c r="BP74">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7465465</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>140</v>
+      </c>
+      <c r="P75" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q75">
+        <v>1.82</v>
+      </c>
+      <c r="R75">
+        <v>2.6</v>
+      </c>
+      <c r="S75">
+        <v>5.75</v>
+      </c>
+      <c r="T75">
+        <v>1.24</v>
+      </c>
+      <c r="U75">
+        <v>3.75</v>
+      </c>
+      <c r="V75">
+        <v>2.1</v>
+      </c>
+      <c r="W75">
+        <v>1.65</v>
+      </c>
+      <c r="X75">
+        <v>4.6</v>
+      </c>
+      <c r="Y75">
+        <v>1.17</v>
+      </c>
+      <c r="Z75">
+        <v>1.4</v>
+      </c>
+      <c r="AA75">
+        <v>4.33</v>
+      </c>
+      <c r="AB75">
+        <v>7</v>
+      </c>
+      <c r="AC75">
+        <v>1.01</v>
+      </c>
+      <c r="AD75">
+        <v>23</v>
+      </c>
+      <c r="AE75">
+        <v>1.13</v>
+      </c>
+      <c r="AF75">
+        <v>5.25</v>
+      </c>
+      <c r="AG75">
+        <v>1.44</v>
+      </c>
+      <c r="AH75">
+        <v>2.7</v>
+      </c>
+      <c r="AI75">
+        <v>1.54</v>
+      </c>
+      <c r="AJ75">
+        <v>2.3</v>
+      </c>
+      <c r="AK75">
+        <v>1.1</v>
+      </c>
+      <c r="AL75">
+        <v>1.15</v>
+      </c>
+      <c r="AM75">
+        <v>2.75</v>
+      </c>
+      <c r="AN75">
+        <v>1.25</v>
+      </c>
+      <c r="AO75">
+        <v>0.67</v>
+      </c>
+      <c r="AP75">
+        <v>1.2</v>
+      </c>
+      <c r="AQ75">
+        <v>0.75</v>
+      </c>
+      <c r="AR75">
+        <v>1.48</v>
+      </c>
+      <c r="AS75">
+        <v>1.35</v>
+      </c>
+      <c r="AT75">
+        <v>2.83</v>
+      </c>
+      <c r="AU75">
+        <v>9</v>
+      </c>
+      <c r="AV75">
+        <v>3</v>
+      </c>
+      <c r="AW75">
+        <v>7</v>
+      </c>
+      <c r="AX75">
+        <v>2</v>
+      </c>
+      <c r="AY75">
+        <v>16</v>
+      </c>
+      <c r="AZ75">
+        <v>5</v>
+      </c>
+      <c r="BA75">
+        <v>9</v>
+      </c>
+      <c r="BB75">
+        <v>2</v>
+      </c>
+      <c r="BC75">
+        <v>11</v>
+      </c>
+      <c r="BD75">
+        <v>1.25</v>
+      </c>
+      <c r="BE75">
+        <v>10.7</v>
+      </c>
+      <c r="BF75">
+        <v>4.93</v>
+      </c>
+      <c r="BG75">
+        <v>1.22</v>
+      </c>
+      <c r="BH75">
+        <v>3.7</v>
+      </c>
+      <c r="BI75">
+        <v>1.32</v>
+      </c>
+      <c r="BJ75">
+        <v>2.78</v>
+      </c>
+      <c r="BK75">
+        <v>1.67</v>
+      </c>
+      <c r="BL75">
+        <v>2.19</v>
+      </c>
+      <c r="BM75">
+        <v>2.08</v>
+      </c>
+      <c r="BN75">
+        <v>1.73</v>
+      </c>
+      <c r="BO75">
+        <v>2.59</v>
+      </c>
+      <c r="BP75">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7465467</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>70</v>
+      </c>
+      <c r="H76" t="s">
+        <v>82</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>93</v>
+      </c>
+      <c r="P76" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q76">
+        <v>2.95</v>
+      </c>
+      <c r="R76">
+        <v>2.25</v>
+      </c>
+      <c r="S76">
+        <v>3</v>
+      </c>
+      <c r="T76">
+        <v>1.3</v>
+      </c>
+      <c r="U76">
+        <v>3.25</v>
+      </c>
+      <c r="V76">
+        <v>2.3</v>
+      </c>
+      <c r="W76">
+        <v>1.55</v>
+      </c>
+      <c r="X76">
+        <v>5.4</v>
+      </c>
+      <c r="Y76">
+        <v>1.13</v>
+      </c>
+      <c r="Z76">
+        <v>2.5</v>
+      </c>
+      <c r="AA76">
+        <v>3.6</v>
+      </c>
+      <c r="AB76">
+        <v>2.64</v>
+      </c>
+      <c r="AC76">
+        <v>1.04</v>
+      </c>
+      <c r="AD76">
+        <v>10</v>
+      </c>
+      <c r="AE76">
+        <v>1.2</v>
+      </c>
+      <c r="AF76">
+        <v>4.33</v>
+      </c>
+      <c r="AG76">
+        <v>1.6</v>
+      </c>
+      <c r="AH76">
+        <v>2.3</v>
+      </c>
+      <c r="AI76">
+        <v>1.48</v>
+      </c>
+      <c r="AJ76">
+        <v>2.4</v>
+      </c>
+      <c r="AK76">
+        <v>1.48</v>
+      </c>
+      <c r="AL76">
+        <v>1.22</v>
+      </c>
+      <c r="AM76">
+        <v>1.5</v>
+      </c>
+      <c r="AN76">
+        <v>1.33</v>
+      </c>
+      <c r="AO76">
+        <v>1.25</v>
+      </c>
+      <c r="AP76">
+        <v>1.25</v>
+      </c>
+      <c r="AQ76">
+        <v>1.2</v>
+      </c>
+      <c r="AR76">
+        <v>1.42</v>
+      </c>
+      <c r="AS76">
+        <v>1.59</v>
+      </c>
+      <c r="AT76">
+        <v>3.01</v>
+      </c>
+      <c r="AU76">
+        <v>4</v>
+      </c>
+      <c r="AV76">
+        <v>5</v>
+      </c>
+      <c r="AW76">
+        <v>3</v>
+      </c>
+      <c r="AX76">
+        <v>3</v>
+      </c>
+      <c r="AY76">
+        <v>7</v>
+      </c>
+      <c r="AZ76">
+        <v>8</v>
+      </c>
+      <c r="BA76">
+        <v>2</v>
+      </c>
+      <c r="BB76">
+        <v>4</v>
+      </c>
+      <c r="BC76">
+        <v>6</v>
+      </c>
+      <c r="BD76">
+        <v>2.37</v>
+      </c>
+      <c r="BE76">
+        <v>7.5</v>
+      </c>
+      <c r="BF76">
+        <v>1.87</v>
+      </c>
+      <c r="BG76">
+        <v>1.18</v>
+      </c>
+      <c r="BH76">
+        <v>4</v>
+      </c>
+      <c r="BI76">
+        <v>1.36</v>
+      </c>
+      <c r="BJ76">
+        <v>2.8</v>
+      </c>
+      <c r="BK76">
+        <v>1.64</v>
+      </c>
+      <c r="BL76">
+        <v>2.22</v>
+      </c>
+      <c r="BM76">
+        <v>2.03</v>
+      </c>
+      <c r="BN76">
+        <v>1.78</v>
+      </c>
+      <c r="BO76">
+        <v>2.44</v>
+      </c>
+      <c r="BP76">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14908,10 +14908,10 @@
         <v>7</v>
       </c>
       <c r="BA68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC68">
         <v>18</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,12 @@
     <t>['11']</t>
   </si>
   <si>
+    <t>['36', '67', '75']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -581,6 +587,12 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['24', '33', '45']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,7 +1294,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1407,7 +1419,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1613,7 +1625,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1819,7 +1831,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2025,7 +2037,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2231,7 +2243,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2437,7 +2449,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2643,7 +2655,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2721,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2849,7 +2861,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3055,7 +3067,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3261,7 +3273,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3342,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3467,7 +3479,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3545,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
         <v>1.75</v>
@@ -3879,7 +3891,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4085,7 +4097,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4781,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ19">
         <v>2.33</v>
@@ -4909,7 +4921,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -4990,7 +5002,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5939,7 +5951,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6017,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6145,7 +6157,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6351,7 +6363,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6763,7 +6775,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6969,7 +6981,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7175,7 +7187,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7665,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7793,7 +7805,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -7999,7 +8011,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8080,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR35">
         <v>0.8</v>
@@ -8617,7 +8629,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8823,7 +8835,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8904,7 +8916,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>2.22</v>
@@ -9235,7 +9247,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9519,7 +9531,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>1.75</v>
@@ -9725,7 +9737,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
         <v>0.5</v>
@@ -9853,7 +9865,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9931,7 +9943,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -10059,7 +10071,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10265,7 +10277,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10471,7 +10483,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10552,7 +10564,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR47">
         <v>2.09</v>
@@ -10677,7 +10689,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11089,7 +11101,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11167,7 +11179,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>2.33</v>
@@ -11295,7 +11307,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11501,7 +11513,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11991,7 +12003,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ54">
         <v>1.2</v>
@@ -12325,7 +12337,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12406,7 +12418,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ56">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR56">
         <v>1.88</v>
@@ -12737,7 +12749,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12818,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR58">
         <v>1.06</v>
@@ -12943,7 +12955,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13355,7 +13367,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13561,7 +13573,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13767,7 +13779,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14054,7 +14066,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR64">
         <v>2.12</v>
@@ -14385,7 +14397,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14797,7 +14809,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15003,7 +15015,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15209,7 +15221,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15415,7 +15427,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15621,7 +15633,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15827,7 +15839,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16033,7 +16045,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16239,7 +16251,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16602,6 +16614,624 @@
       </c>
       <c r="BP76">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7465474</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45563.47916666666</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>81</v>
+      </c>
+      <c r="H77" t="s">
+        <v>85</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>93</v>
+      </c>
+      <c r="P77" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q77">
+        <v>2.45</v>
+      </c>
+      <c r="R77">
+        <v>2.2</v>
+      </c>
+      <c r="S77">
+        <v>3.95</v>
+      </c>
+      <c r="T77">
+        <v>1.33</v>
+      </c>
+      <c r="U77">
+        <v>3</v>
+      </c>
+      <c r="V77">
+        <v>2.55</v>
+      </c>
+      <c r="W77">
+        <v>1.45</v>
+      </c>
+      <c r="X77">
+        <v>6.2</v>
+      </c>
+      <c r="Y77">
+        <v>1.1</v>
+      </c>
+      <c r="Z77">
+        <v>1.92</v>
+      </c>
+      <c r="AA77">
+        <v>3.66</v>
+      </c>
+      <c r="AB77">
+        <v>3.8</v>
+      </c>
+      <c r="AC77">
+        <v>1.05</v>
+      </c>
+      <c r="AD77">
+        <v>9.5</v>
+      </c>
+      <c r="AE77">
+        <v>1.22</v>
+      </c>
+      <c r="AF77">
+        <v>4</v>
+      </c>
+      <c r="AG77">
+        <v>1.7</v>
+      </c>
+      <c r="AH77">
+        <v>2.05</v>
+      </c>
+      <c r="AI77">
+        <v>1.62</v>
+      </c>
+      <c r="AJ77">
+        <v>2.1</v>
+      </c>
+      <c r="AK77">
+        <v>1.25</v>
+      </c>
+      <c r="AL77">
+        <v>1.22</v>
+      </c>
+      <c r="AM77">
+        <v>1.85</v>
+      </c>
+      <c r="AN77">
+        <v>1.33</v>
+      </c>
+      <c r="AO77">
+        <v>2</v>
+      </c>
+      <c r="AP77">
+        <v>1.25</v>
+      </c>
+      <c r="AQ77">
+        <v>1.75</v>
+      </c>
+      <c r="AR77">
+        <v>1.86</v>
+      </c>
+      <c r="AS77">
+        <v>1.52</v>
+      </c>
+      <c r="AT77">
+        <v>3.38</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>2</v>
+      </c>
+      <c r="AW77">
+        <v>7</v>
+      </c>
+      <c r="AX77">
+        <v>7</v>
+      </c>
+      <c r="AY77">
+        <v>12</v>
+      </c>
+      <c r="AZ77">
+        <v>9</v>
+      </c>
+      <c r="BA77">
+        <v>9</v>
+      </c>
+      <c r="BB77">
+        <v>6</v>
+      </c>
+      <c r="BC77">
+        <v>15</v>
+      </c>
+      <c r="BD77">
+        <v>1.41</v>
+      </c>
+      <c r="BE77">
+        <v>9.5</v>
+      </c>
+      <c r="BF77">
+        <v>3.22</v>
+      </c>
+      <c r="BG77">
+        <v>1.14</v>
+      </c>
+      <c r="BH77">
+        <v>5.67</v>
+      </c>
+      <c r="BI77">
+        <v>1.3</v>
+      </c>
+      <c r="BJ77">
+        <v>3.35</v>
+      </c>
+      <c r="BK77">
+        <v>1.55</v>
+      </c>
+      <c r="BL77">
+        <v>2.37</v>
+      </c>
+      <c r="BM77">
+        <v>1.92</v>
+      </c>
+      <c r="BN77">
+        <v>1.88</v>
+      </c>
+      <c r="BO77">
+        <v>2.41</v>
+      </c>
+      <c r="BP77">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7465470</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45564.39583333334</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>141</v>
+      </c>
+      <c r="P78" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q78">
+        <v>2.3</v>
+      </c>
+      <c r="R78">
+        <v>2.38</v>
+      </c>
+      <c r="S78">
+        <v>3.75</v>
+      </c>
+      <c r="T78">
+        <v>1.22</v>
+      </c>
+      <c r="U78">
+        <v>3.85</v>
+      </c>
+      <c r="V78">
+        <v>2.2</v>
+      </c>
+      <c r="W78">
+        <v>1.6</v>
+      </c>
+      <c r="X78">
+        <v>5</v>
+      </c>
+      <c r="Y78">
+        <v>1.17</v>
+      </c>
+      <c r="Z78">
+        <v>1.85</v>
+      </c>
+      <c r="AA78">
+        <v>3.8</v>
+      </c>
+      <c r="AB78">
+        <v>3.4</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>13</v>
+      </c>
+      <c r="AE78">
+        <v>1.11</v>
+      </c>
+      <c r="AF78">
+        <v>5.5</v>
+      </c>
+      <c r="AG78">
+        <v>1.5</v>
+      </c>
+      <c r="AH78">
+        <v>2.5</v>
+      </c>
+      <c r="AI78">
+        <v>1.44</v>
+      </c>
+      <c r="AJ78">
+        <v>2.7</v>
+      </c>
+      <c r="AK78">
+        <v>1.17</v>
+      </c>
+      <c r="AL78">
+        <v>1.21</v>
+      </c>
+      <c r="AM78">
+        <v>2.1</v>
+      </c>
+      <c r="AN78">
+        <v>1.75</v>
+      </c>
+      <c r="AO78">
+        <v>2.33</v>
+      </c>
+      <c r="AP78">
+        <v>2</v>
+      </c>
+      <c r="AQ78">
+        <v>1.75</v>
+      </c>
+      <c r="AR78">
+        <v>1.65</v>
+      </c>
+      <c r="AS78">
+        <v>1.45</v>
+      </c>
+      <c r="AT78">
+        <v>3.1</v>
+      </c>
+      <c r="AU78">
+        <v>12</v>
+      </c>
+      <c r="AV78">
+        <v>4</v>
+      </c>
+      <c r="AW78">
+        <v>3</v>
+      </c>
+      <c r="AX78">
+        <v>3</v>
+      </c>
+      <c r="AY78">
+        <v>15</v>
+      </c>
+      <c r="AZ78">
+        <v>7</v>
+      </c>
+      <c r="BA78">
+        <v>6</v>
+      </c>
+      <c r="BB78">
+        <v>2</v>
+      </c>
+      <c r="BC78">
+        <v>8</v>
+      </c>
+      <c r="BD78">
+        <v>1.69</v>
+      </c>
+      <c r="BE78">
+        <v>7.2</v>
+      </c>
+      <c r="BF78">
+        <v>2.67</v>
+      </c>
+      <c r="BG78">
+        <v>1.21</v>
+      </c>
+      <c r="BH78">
+        <v>3.8</v>
+      </c>
+      <c r="BI78">
+        <v>1.35</v>
+      </c>
+      <c r="BJ78">
+        <v>2.74</v>
+      </c>
+      <c r="BK78">
+        <v>1.67</v>
+      </c>
+      <c r="BL78">
+        <v>2.07</v>
+      </c>
+      <c r="BM78">
+        <v>2.06</v>
+      </c>
+      <c r="BN78">
+        <v>1.62</v>
+      </c>
+      <c r="BO78">
+        <v>2.55</v>
+      </c>
+      <c r="BP78">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7465471</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45564.48958333334</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s">
+        <v>71</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>4</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>142</v>
+      </c>
+      <c r="P79" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q79">
+        <v>2.5</v>
+      </c>
+      <c r="R79">
+        <v>2.25</v>
+      </c>
+      <c r="S79">
+        <v>3.75</v>
+      </c>
+      <c r="T79">
+        <v>1.27</v>
+      </c>
+      <c r="U79">
+        <v>3.4</v>
+      </c>
+      <c r="V79">
+        <v>2.48</v>
+      </c>
+      <c r="W79">
+        <v>1.47</v>
+      </c>
+      <c r="X79">
+        <v>6</v>
+      </c>
+      <c r="Y79">
+        <v>1.13</v>
+      </c>
+      <c r="Z79">
+        <v>2.05</v>
+      </c>
+      <c r="AA79">
+        <v>3.7</v>
+      </c>
+      <c r="AB79">
+        <v>2.9</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>11</v>
+      </c>
+      <c r="AE79">
+        <v>1.14</v>
+      </c>
+      <c r="AF79">
+        <v>4.8</v>
+      </c>
+      <c r="AG79">
+        <v>1.62</v>
+      </c>
+      <c r="AH79">
+        <v>2.25</v>
+      </c>
+      <c r="AI79">
+        <v>1.5</v>
+      </c>
+      <c r="AJ79">
+        <v>2.55</v>
+      </c>
+      <c r="AK79">
+        <v>1.41</v>
+      </c>
+      <c r="AL79">
+        <v>1.26</v>
+      </c>
+      <c r="AM79">
+        <v>1.55</v>
+      </c>
+      <c r="AN79">
+        <v>0.33</v>
+      </c>
+      <c r="AO79">
+        <v>2</v>
+      </c>
+      <c r="AP79">
+        <v>0.25</v>
+      </c>
+      <c r="AQ79">
+        <v>2.25</v>
+      </c>
+      <c r="AR79">
+        <v>1.92</v>
+      </c>
+      <c r="AS79">
+        <v>1.89</v>
+      </c>
+      <c r="AT79">
+        <v>3.81</v>
+      </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79">
+        <v>4</v>
+      </c>
+      <c r="AX79">
+        <v>4</v>
+      </c>
+      <c r="AY79">
+        <v>9</v>
+      </c>
+      <c r="AZ79">
+        <v>9</v>
+      </c>
+      <c r="BA79">
+        <v>5</v>
+      </c>
+      <c r="BB79">
+        <v>5</v>
+      </c>
+      <c r="BC79">
+        <v>10</v>
+      </c>
+      <c r="BD79">
+        <v>1.57</v>
+      </c>
+      <c r="BE79">
+        <v>9</v>
+      </c>
+      <c r="BF79">
+        <v>2.62</v>
+      </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>1.22</v>
+      </c>
+      <c r="BJ79">
+        <v>4</v>
+      </c>
+      <c r="BK79">
+        <v>1.36</v>
+      </c>
+      <c r="BL79">
+        <v>2.9</v>
+      </c>
+      <c r="BM79">
+        <v>1.68</v>
+      </c>
+      <c r="BN79">
+        <v>2.17</v>
+      </c>
+      <c r="BO79">
+        <v>2.07</v>
+      </c>
+      <c r="BP79">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,60 +382,60 @@
     <t>['13', '90+3']</t>
   </si>
   <si>
+    <t>['15', '46']</t>
+  </si>
+  <si>
+    <t>['30', '42', '76']</t>
+  </si>
+  <si>
     <t>['68', '90+1']</t>
   </si>
   <si>
-    <t>['30', '42', '76']</t>
-  </si>
-  <si>
-    <t>['15', '46']</t>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['23', '88']</t>
+  </si>
+  <si>
+    <t>['30', '51', '69']</t>
   </si>
   <si>
     <t>['6', '17', '22', '85']</t>
   </si>
   <si>
-    <t>['30', '51', '69']</t>
-  </si>
-  <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
-    <t>['23', '88']</t>
+    <t>['45']</t>
   </si>
   <si>
     <t>['22', '40']</t>
   </si>
   <si>
-    <t>['45']</t>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['71', '85']</t>
   </si>
   <si>
     <t>['7', '73']</t>
   </si>
   <si>
-    <t>['18']</t>
-  </si>
-  <si>
-    <t>['71', '85']</t>
+    <t>['31', '62']</t>
   </si>
   <si>
     <t>['90']</t>
   </si>
   <si>
-    <t>['31', '63']</t>
-  </si>
-  <si>
     <t>['70', '72']</t>
   </si>
   <si>
+    <t>['19', '65', '76', '90+4']</t>
+  </si>
+  <si>
     <t>['78', '89']</t>
   </si>
   <si>
     <t>['85', '87']</t>
   </si>
   <si>
-    <t>['19', '65', '76', '90+4']</t>
-  </si>
-  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -445,6 +445,9 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -535,36 +538,36 @@
     <t>['42', '62']</t>
   </si>
   <si>
+    <t>['11', '61', '90+2']</t>
+  </si>
+  <si>
+    <t>['68', '89']</t>
+  </si>
+  <si>
     <t>['12', '27', '83']</t>
   </si>
   <si>
-    <t>['68', '89']</t>
-  </si>
-  <si>
-    <t>['11', '61', '90+2']</t>
+    <t>['12', '29', '51']</t>
+  </si>
+  <si>
+    <t>['48', '60']</t>
   </si>
   <si>
     <t>['44', '60', '90']</t>
   </si>
   <si>
-    <t>['12', '29', '51']</t>
-  </si>
-  <si>
-    <t>['48', '60']</t>
-  </si>
-  <si>
     <t>['55', '58']</t>
   </si>
   <si>
+    <t>['51', '69']</t>
+  </si>
+  <si>
+    <t>['21', '51', '90+2']</t>
+  </si>
+  <si>
     <t>['23', '90+1']</t>
   </si>
   <si>
-    <t>['21', '51', '90+2']</t>
-  </si>
-  <si>
-    <t>['51', '69']</t>
-  </si>
-  <si>
     <t>['20', '34']</t>
   </si>
   <si>
@@ -577,15 +580,15 @@
     <t>['30', '53', '72', '82']</t>
   </si>
   <si>
+    <t>['6', '11']</t>
+  </si>
+  <si>
     <t>['33', '39', '58', '90+6']</t>
   </si>
   <si>
     <t>['14', '82']</t>
   </si>
   <si>
-    <t>['6', '11']</t>
-  </si>
-  <si>
     <t>['30']</t>
   </si>
   <si>
@@ -593,6 +596,9 @@
   </si>
   <si>
     <t>['24', '33', '45']</t>
+  </si>
+  <si>
+    <t>['3', '10', '15']</t>
   </si>
 </sst>
 </file>
@@ -954,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1419,7 +1425,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1500,7 +1506,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1625,7 +1631,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1831,7 +1837,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2037,7 +2043,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2243,7 +2249,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2449,7 +2455,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2655,7 +2661,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2861,7 +2867,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3067,7 +3073,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3145,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3273,7 +3279,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3479,7 +3485,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3891,7 +3897,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4097,7 +4103,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4796,7 +4802,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ19">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4921,7 +4927,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5205,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5620,7 +5626,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ23">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR23">
         <v>2.16</v>
@@ -5951,7 +5957,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6157,7 +6163,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6363,7 +6369,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6569,7 +6575,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>3.03</v>
@@ -6775,7 +6781,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6981,7 +6987,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7062,7 +7068,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
         <v>2.2</v>
@@ -7187,7 +7193,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7265,7 +7271,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -7805,7 +7811,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8011,7 +8017,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8629,7 +8635,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8835,7 +8841,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8913,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -9247,7 +9253,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9865,7 +9871,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10071,7 +10077,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10277,7 +10283,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10483,7 +10489,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10689,7 +10695,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10976,7 +10982,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11059,7 +11065,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7465437</v>
+        <v>7465441</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11074,190 +11080,190 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>3</v>
       </c>
       <c r="N50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O50" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q50">
-        <v>2.1</v>
+        <v>2.77</v>
       </c>
       <c r="R50">
         <v>2.45</v>
       </c>
       <c r="S50">
-        <v>4.1</v>
+        <v>3.42</v>
       </c>
       <c r="T50">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="U50">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="V50">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="W50">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="X50">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y50">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z50">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AA50">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="AB50">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="AC50">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD50">
         <v>12</v>
       </c>
       <c r="AE50">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AF50">
-        <v>4.7</v>
+        <v>4.45</v>
       </c>
       <c r="AG50">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AH50">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AI50">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AJ50">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="AK50">
-        <v>1.11</v>
+        <v>1.39</v>
       </c>
       <c r="AL50">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AM50">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="AN50">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO50">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AQ50">
-        <v>2.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AS50">
-        <v>0.76</v>
+        <v>1.65</v>
       </c>
       <c r="AT50">
-        <v>2.34</v>
+        <v>3.44</v>
       </c>
       <c r="AU50">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV50">
         <v>8</v>
       </c>
       <c r="AW50">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX50">
         <v>2</v>
       </c>
       <c r="AY50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ50">
         <v>10</v>
       </c>
       <c r="BA50">
+        <v>6</v>
+      </c>
+      <c r="BB50">
         <v>4</v>
       </c>
-      <c r="BB50">
-        <v>2</v>
-      </c>
       <c r="BC50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD50">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="BE50">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="BF50">
-        <v>3.22</v>
+        <v>2.25</v>
       </c>
       <c r="BG50">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH50">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="BI50">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="BJ50">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="BK50">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="BL50">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="BM50">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="BN50">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="BO50">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="BP50">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11265,7 +11271,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7465438</v>
+        <v>7465439</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11280,163 +11286,163 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="Q51">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="R51">
         <v>2.5</v>
       </c>
       <c r="S51">
-        <v>4.5</v>
+        <v>2.52</v>
       </c>
       <c r="T51">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="U51">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="V51">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="W51">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X51">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="Y51">
         <v>1.14</v>
       </c>
       <c r="Z51">
-        <v>1.67</v>
+        <v>3.46</v>
       </c>
       <c r="AA51">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="AB51">
-        <v>4.5</v>
+        <v>1.92</v>
       </c>
       <c r="AC51">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD51">
+        <v>19</v>
+      </c>
+      <c r="AE51">
+        <v>1.14</v>
+      </c>
+      <c r="AF51">
+        <v>4.65</v>
+      </c>
+      <c r="AG51">
+        <v>1.51</v>
+      </c>
+      <c r="AH51">
+        <v>2.32</v>
+      </c>
+      <c r="AI51">
+        <v>1.5</v>
+      </c>
+      <c r="AJ51">
+        <v>2.41</v>
+      </c>
+      <c r="AK51">
+        <v>1.83</v>
+      </c>
+      <c r="AL51">
+        <v>1.24</v>
+      </c>
+      <c r="AM51">
+        <v>1.28</v>
+      </c>
+      <c r="AN51">
+        <v>2</v>
+      </c>
+      <c r="AO51">
+        <v>1</v>
+      </c>
+      <c r="AP51">
+        <v>2.5</v>
+      </c>
+      <c r="AQ51">
+        <v>0.67</v>
+      </c>
+      <c r="AR51">
+        <v>2.41</v>
+      </c>
+      <c r="AS51">
+        <v>1.12</v>
+      </c>
+      <c r="AT51">
+        <v>3.53</v>
+      </c>
+      <c r="AU51">
+        <v>7</v>
+      </c>
+      <c r="AV51">
+        <v>5</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>5</v>
+      </c>
+      <c r="AY51">
         <v>10</v>
-      </c>
-      <c r="AE51">
-        <v>1.18</v>
-      </c>
-      <c r="AF51">
-        <v>4.75</v>
-      </c>
-      <c r="AG51">
-        <v>1.57</v>
-      </c>
-      <c r="AH51">
-        <v>2.35</v>
-      </c>
-      <c r="AI51">
-        <v>1.57</v>
-      </c>
-      <c r="AJ51">
-        <v>2.25</v>
-      </c>
-      <c r="AK51">
-        <v>1.18</v>
-      </c>
-      <c r="AL51">
-        <v>1.2</v>
-      </c>
-      <c r="AM51">
-        <v>2.1</v>
-      </c>
-      <c r="AN51">
-        <v>3</v>
-      </c>
-      <c r="AO51">
-        <v>3</v>
-      </c>
-      <c r="AP51">
-        <v>3</v>
-      </c>
-      <c r="AQ51">
-        <v>1.75</v>
-      </c>
-      <c r="AR51">
-        <v>1.64</v>
-      </c>
-      <c r="AS51">
-        <v>1.57</v>
-      </c>
-      <c r="AT51">
-        <v>3.21</v>
-      </c>
-      <c r="AU51">
-        <v>6</v>
-      </c>
-      <c r="AV51">
-        <v>8</v>
-      </c>
-      <c r="AW51">
-        <v>8</v>
-      </c>
-      <c r="AX51">
-        <v>2</v>
-      </c>
-      <c r="AY51">
-        <v>14</v>
       </c>
       <c r="AZ51">
         <v>10</v>
       </c>
       <c r="BA51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB51">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BC51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD51">
-        <v>1.65</v>
+        <v>2.44</v>
       </c>
       <c r="BE51">
         <v>8.699999999999999</v>
       </c>
       <c r="BF51">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="BG51">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BH51">
         <v>4.5</v>
@@ -11448,16 +11454,16 @@
         <v>2.93</v>
       </c>
       <c r="BK51">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="BL51">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="BM51">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="BN51">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="BO51">
         <v>2.57</v>
@@ -11471,7 +11477,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7465441</v>
+        <v>7465438</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11486,190 +11492,190 @@
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O52" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="P52" t="s">
         <v>175</v>
       </c>
       <c r="Q52">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="R52">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S52">
-        <v>3.42</v>
+        <v>4.5</v>
       </c>
       <c r="T52">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U52">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="V52">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="W52">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X52">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y52">
         <v>1.14</v>
       </c>
       <c r="Z52">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AA52">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="AB52">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="AC52">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE52">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AF52">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="AG52">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AH52">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AI52">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AJ52">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="AK52">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="AL52">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AM52">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="AN52">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO52">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AP52">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AQ52">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AR52">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AS52">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT52">
-        <v>3.44</v>
+        <v>3.21</v>
       </c>
       <c r="AU52">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV52">
         <v>8</v>
       </c>
       <c r="AW52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX52">
         <v>2</v>
       </c>
       <c r="AY52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ52">
         <v>10</v>
       </c>
       <c r="BA52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC52">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD52">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BE52">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF52">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="BG52">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH52">
         <v>4.5</v>
       </c>
       <c r="BI52">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="BJ52">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="BK52">
+        <v>1.58</v>
+      </c>
+      <c r="BL52">
+        <v>2.17</v>
+      </c>
+      <c r="BM52">
+        <v>1.99</v>
+      </c>
+      <c r="BN52">
         <v>1.73</v>
       </c>
-      <c r="BL52">
-        <v>2</v>
-      </c>
-      <c r="BM52">
-        <v>2</v>
-      </c>
-      <c r="BN52">
-        <v>1.74</v>
-      </c>
       <c r="BO52">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="BP52">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -11677,7 +11683,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7465439</v>
+        <v>7465437</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11692,190 +11698,190 @@
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53">
         <v>2</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O53" t="s">
         <v>124</v>
       </c>
       <c r="P53" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="Q53">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="R53">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S53">
-        <v>2.52</v>
+        <v>4.1</v>
       </c>
       <c r="T53">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U53">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="V53">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="W53">
+        <v>1.55</v>
+      </c>
+      <c r="X53">
+        <v>5.2</v>
+      </c>
+      <c r="Y53">
+        <v>1.13</v>
+      </c>
+      <c r="Z53">
         <v>1.6</v>
       </c>
-      <c r="X53">
-        <v>5.1</v>
-      </c>
-      <c r="Y53">
-        <v>1.14</v>
-      </c>
-      <c r="Z53">
-        <v>3.46</v>
-      </c>
       <c r="AA53">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AB53">
-        <v>1.92</v>
+        <v>4.8</v>
       </c>
       <c r="AC53">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD53">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE53">
         <v>1.14</v>
       </c>
       <c r="AF53">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AG53">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AH53">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AI53">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AJ53">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="AK53">
-        <v>1.83</v>
+        <v>1.11</v>
       </c>
       <c r="AL53">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AM53">
-        <v>1.28</v>
+        <v>2.25</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP53">
+        <v>2</v>
+      </c>
+      <c r="AQ53">
         <v>2.5</v>
       </c>
-      <c r="AQ53">
-        <v>0.67</v>
-      </c>
       <c r="AR53">
-        <v>2.41</v>
+        <v>1.58</v>
       </c>
       <c r="AS53">
-        <v>1.12</v>
+        <v>0.76</v>
       </c>
       <c r="AT53">
-        <v>3.53</v>
+        <v>2.34</v>
       </c>
       <c r="AU53">
+        <v>5</v>
+      </c>
+      <c r="AV53">
+        <v>8</v>
+      </c>
+      <c r="AW53">
         <v>7</v>
       </c>
-      <c r="AV53">
-        <v>5</v>
-      </c>
-      <c r="AW53">
-        <v>3</v>
-      </c>
       <c r="AX53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY53">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ53">
         <v>10</v>
       </c>
       <c r="BA53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB53">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BC53">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD53">
-        <v>2.44</v>
+        <v>1.46</v>
       </c>
       <c r="BE53">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="BF53">
-        <v>1.72</v>
+        <v>3.22</v>
       </c>
       <c r="BG53">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH53">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="BI53">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="BJ53">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="BK53">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="BL53">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="BM53">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="BN53">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="BO53">
-        <v>2.57</v>
+        <v>2.71</v>
       </c>
       <c r="BP53">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -12089,7 +12095,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7465447</v>
+        <v>7465452</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12104,190 +12110,190 @@
         <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
         <v>3</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
+      <c r="N55">
         <v>3</v>
       </c>
-      <c r="L55">
+      <c r="O55" t="s">
+        <v>93</v>
+      </c>
+      <c r="P55" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q55">
+        <v>2.88</v>
+      </c>
+      <c r="R55">
+        <v>2.2</v>
+      </c>
+      <c r="S55">
+        <v>3.3</v>
+      </c>
+      <c r="T55">
+        <v>1.33</v>
+      </c>
+      <c r="U55">
+        <v>3.15</v>
+      </c>
+      <c r="V55">
+        <v>2.57</v>
+      </c>
+      <c r="W55">
+        <v>1.5</v>
+      </c>
+      <c r="X55">
+        <v>6</v>
+      </c>
+      <c r="Y55">
+        <v>1.11</v>
+      </c>
+      <c r="Z55">
+        <v>2.42</v>
+      </c>
+      <c r="AA55">
+        <v>3.5</v>
+      </c>
+      <c r="AB55">
+        <v>2.81</v>
+      </c>
+      <c r="AC55">
+        <v>1.04</v>
+      </c>
+      <c r="AD55">
+        <v>11</v>
+      </c>
+      <c r="AE55">
+        <v>1.22</v>
+      </c>
+      <c r="AF55">
+        <v>4.2</v>
+      </c>
+      <c r="AG55">
+        <v>1.7</v>
+      </c>
+      <c r="AH55">
+        <v>2</v>
+      </c>
+      <c r="AI55">
+        <v>1.57</v>
+      </c>
+      <c r="AJ55">
+        <v>2.38</v>
+      </c>
+      <c r="AK55">
+        <v>1.5</v>
+      </c>
+      <c r="AL55">
+        <v>1.3</v>
+      </c>
+      <c r="AM55">
+        <v>1.51</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>1.5</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>1.75</v>
+      </c>
+      <c r="AR55">
+        <v>1.06</v>
+      </c>
+      <c r="AS55">
+        <v>1.59</v>
+      </c>
+      <c r="AT55">
+        <v>2.65</v>
+      </c>
+      <c r="AU55">
+        <v>8</v>
+      </c>
+      <c r="AV55">
+        <v>6</v>
+      </c>
+      <c r="AW55">
+        <v>8</v>
+      </c>
+      <c r="AX55">
         <v>4</v>
       </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
+      <c r="AY55">
+        <v>16</v>
+      </c>
+      <c r="AZ55">
+        <v>10</v>
+      </c>
+      <c r="BA55">
         <v>4</v>
       </c>
-      <c r="O55" t="s">
-        <v>125</v>
-      </c>
-      <c r="P55" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q55">
-        <v>1.98</v>
-      </c>
-      <c r="R55">
-        <v>2.55</v>
-      </c>
-      <c r="S55">
-        <v>4.9</v>
-      </c>
-      <c r="T55">
-        <v>1.22</v>
-      </c>
-      <c r="U55">
-        <v>3.85</v>
-      </c>
-      <c r="V55">
-        <v>2.25</v>
-      </c>
-      <c r="W55">
-        <v>1.57</v>
-      </c>
-      <c r="X55">
-        <v>4.75</v>
-      </c>
-      <c r="Y55">
-        <v>1.15</v>
-      </c>
-      <c r="Z55">
-        <v>1.65</v>
-      </c>
-      <c r="AA55">
-        <v>4.17</v>
-      </c>
-      <c r="AB55">
-        <v>4.7</v>
-      </c>
-      <c r="AC55">
-        <v>1.01</v>
-      </c>
-      <c r="AD55">
-        <v>13.5</v>
-      </c>
-      <c r="AE55">
-        <v>1.17</v>
-      </c>
-      <c r="AF55">
-        <v>5.01</v>
-      </c>
-      <c r="AG55">
-        <v>1.55</v>
-      </c>
-      <c r="AH55">
-        <v>2.25</v>
-      </c>
-      <c r="AI55">
-        <v>1.61</v>
-      </c>
-      <c r="AJ55">
-        <v>2.17</v>
-      </c>
-      <c r="AK55">
-        <v>1.14</v>
-      </c>
-      <c r="AL55">
+      <c r="BB55">
+        <v>9</v>
+      </c>
+      <c r="BC55">
+        <v>13</v>
+      </c>
+      <c r="BD55">
+        <v>2.28</v>
+      </c>
+      <c r="BE55">
+        <v>6.45</v>
+      </c>
+      <c r="BF55">
+        <v>1.95</v>
+      </c>
+      <c r="BG55">
         <v>1.19</v>
       </c>
-      <c r="AM55">
-        <v>2.41</v>
-      </c>
-      <c r="AN55">
-        <v>3</v>
-      </c>
-      <c r="AO55">
-        <v>0.5</v>
-      </c>
-      <c r="AP55">
-        <v>3</v>
-      </c>
-      <c r="AQ55">
-        <v>1</v>
-      </c>
-      <c r="AR55">
-        <v>1.7</v>
-      </c>
-      <c r="AS55">
-        <v>1.33</v>
-      </c>
-      <c r="AT55">
-        <v>3.03</v>
-      </c>
-      <c r="AU55">
-        <v>10</v>
-      </c>
-      <c r="AV55">
-        <v>4</v>
-      </c>
-      <c r="AW55">
-        <v>3</v>
-      </c>
-      <c r="AX55">
-        <v>1</v>
-      </c>
-      <c r="AY55">
-        <v>13</v>
-      </c>
-      <c r="AZ55">
-        <v>5</v>
-      </c>
-      <c r="BA55">
-        <v>5</v>
-      </c>
-      <c r="BB55">
-        <v>2</v>
-      </c>
-      <c r="BC55">
-        <v>7</v>
-      </c>
-      <c r="BD55">
+      <c r="BH55">
+        <v>3.98</v>
+      </c>
+      <c r="BI55">
+        <v>1.38</v>
+      </c>
+      <c r="BJ55">
+        <v>2.71</v>
+      </c>
+      <c r="BK55">
+        <v>1.68</v>
+      </c>
+      <c r="BL55">
+        <v>2.06</v>
+      </c>
+      <c r="BM55">
+        <v>2.1</v>
+      </c>
+      <c r="BN55">
+        <v>1.62</v>
+      </c>
+      <c r="BO55">
+        <v>2.78</v>
+      </c>
+      <c r="BP55">
         <v>1.36</v>
-      </c>
-      <c r="BE55">
-        <v>7.4</v>
-      </c>
-      <c r="BF55">
-        <v>4.25</v>
-      </c>
-      <c r="BG55">
-        <v>1.24</v>
-      </c>
-      <c r="BH55">
-        <v>3.48</v>
-      </c>
-      <c r="BI55">
-        <v>1.5</v>
-      </c>
-      <c r="BJ55">
-        <v>2.53</v>
-      </c>
-      <c r="BK55">
-        <v>1.85</v>
-      </c>
-      <c r="BL55">
-        <v>1.95</v>
-      </c>
-      <c r="BM55">
-        <v>2.34</v>
-      </c>
-      <c r="BN55">
-        <v>1.58</v>
-      </c>
-      <c r="BO55">
-        <v>3.08</v>
-      </c>
-      <c r="BP55">
-        <v>1.3</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12295,7 +12301,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7465448</v>
+        <v>7465450</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12310,190 +12316,190 @@
         <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="Q56">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R56">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S56">
-        <v>4</v>
+        <v>4.79</v>
       </c>
       <c r="T56">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="U56">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="V56">
-        <v>2.25</v>
+        <v>2.71</v>
       </c>
       <c r="W56">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="X56">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y56">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z56">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="AA56">
-        <v>3.93</v>
+        <v>3.67</v>
       </c>
       <c r="AB56">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
       <c r="AC56">
         <v>1.01</v>
       </c>
       <c r="AD56">
-        <v>14</v>
+        <v>9.9</v>
       </c>
       <c r="AE56">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AF56">
-        <v>4.78</v>
+        <v>3.56</v>
       </c>
       <c r="AG56">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="AH56">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="AI56">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="AJ56">
-        <v>2.55</v>
+        <v>2.03</v>
       </c>
       <c r="AK56">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AL56">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AM56">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="AN56">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AO56">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AP56">
+        <v>1.75</v>
+      </c>
+      <c r="AQ56">
         <v>0.5</v>
       </c>
-      <c r="AQ56">
-        <v>1.75</v>
-      </c>
       <c r="AR56">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
       <c r="AS56">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT56">
-        <v>3.01</v>
+        <v>2.41</v>
       </c>
       <c r="AU56">
+        <v>6</v>
+      </c>
+      <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>2</v>
+      </c>
+      <c r="AX56">
+        <v>1</v>
+      </c>
+      <c r="AY56">
         <v>8</v>
       </c>
-      <c r="AV56">
-        <v>11</v>
-      </c>
-      <c r="AW56">
-        <v>8</v>
-      </c>
-      <c r="AX56">
-        <v>4</v>
-      </c>
-      <c r="AY56">
-        <v>16</v>
-      </c>
       <c r="AZ56">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BA56">
         <v>11</v>
       </c>
       <c r="BB56">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC56">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD56">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="BE56">
-        <v>6.8</v>
+        <v>8.9</v>
       </c>
       <c r="BF56">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="BG56">
         <v>1.2</v>
       </c>
       <c r="BH56">
-        <v>4</v>
+        <v>3.86</v>
       </c>
       <c r="BI56">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="BJ56">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="BK56">
+        <v>1.75</v>
+      </c>
+      <c r="BL56">
+        <v>2.06</v>
+      </c>
+      <c r="BM56">
+        <v>2.2</v>
+      </c>
+      <c r="BN56">
         <v>1.66</v>
       </c>
-      <c r="BL56">
-        <v>2.19</v>
-      </c>
-      <c r="BM56">
-        <v>2.07</v>
-      </c>
-      <c r="BN56">
-        <v>1.75</v>
-      </c>
       <c r="BO56">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="BP56">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12501,7 +12507,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7465450</v>
+        <v>7465453</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12516,190 +12522,190 @@
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="Q57">
-        <v>2.34</v>
+        <v>3.63</v>
       </c>
       <c r="R57">
-        <v>2.35</v>
+        <v>2.66</v>
       </c>
       <c r="S57">
-        <v>4.79</v>
+        <v>2.44</v>
       </c>
       <c r="T57">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="U57">
-        <v>3.21</v>
+        <v>4</v>
       </c>
       <c r="V57">
-        <v>2.71</v>
+        <v>2.06</v>
       </c>
       <c r="W57">
-        <v>1.45</v>
+        <v>1.77</v>
       </c>
       <c r="X57">
-        <v>5.8</v>
+        <v>4.25</v>
       </c>
       <c r="Y57">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Z57">
-        <v>1.99</v>
+        <v>3.3</v>
       </c>
       <c r="AA57">
-        <v>3.67</v>
+        <v>3.98</v>
       </c>
       <c r="AB57">
-        <v>3.56</v>
+        <v>2</v>
       </c>
       <c r="AC57">
         <v>1.01</v>
       </c>
       <c r="AD57">
-        <v>9.9</v>
+        <v>27</v>
       </c>
       <c r="AE57">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="AF57">
-        <v>3.56</v>
+        <v>5.8</v>
       </c>
       <c r="AG57">
-        <v>1.87</v>
+        <v>1.36</v>
       </c>
       <c r="AH57">
-        <v>1.95</v>
+        <v>2.79</v>
       </c>
       <c r="AI57">
-        <v>1.77</v>
+        <v>1.35</v>
       </c>
       <c r="AJ57">
-        <v>2.03</v>
+        <v>2.9</v>
       </c>
       <c r="AK57">
-        <v>1.23</v>
+        <v>1.8</v>
       </c>
       <c r="AL57">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AM57">
-        <v>2.04</v>
+        <v>1.27</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AO57">
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR57">
-        <v>1.47</v>
+        <v>1.91</v>
       </c>
       <c r="AS57">
-        <v>0.9399999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="AT57">
-        <v>2.41</v>
+        <v>3.28</v>
       </c>
       <c r="AU57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV57">
         <v>4</v>
       </c>
       <c r="AW57">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX57">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY57">
+        <v>12</v>
+      </c>
+      <c r="AZ57">
+        <v>12</v>
+      </c>
+      <c r="BA57">
+        <v>1</v>
+      </c>
+      <c r="BB57">
         <v>8</v>
       </c>
-      <c r="AZ57">
-        <v>5</v>
-      </c>
-      <c r="BA57">
-        <v>11</v>
-      </c>
-      <c r="BB57">
-        <v>7</v>
-      </c>
       <c r="BC57">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BD57">
-        <v>1.55</v>
+        <v>2.57</v>
       </c>
       <c r="BE57">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF57">
-        <v>2.88</v>
+        <v>1.66</v>
       </c>
       <c r="BG57">
         <v>1.2</v>
       </c>
       <c r="BH57">
-        <v>3.86</v>
+        <v>4</v>
       </c>
       <c r="BI57">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="BJ57">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="BK57">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="BL57">
+        <v>2.17</v>
+      </c>
+      <c r="BM57">
         <v>2.06</v>
       </c>
-      <c r="BM57">
-        <v>2.2</v>
-      </c>
       <c r="BN57">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="BO57">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="BP57">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12707,7 +12713,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7465452</v>
+        <v>7465448</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12722,130 +12728,130 @@
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>2</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M58">
         <v>3</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O58" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q58">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="R58">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S58">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="T58">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U58">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="V58">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="W58">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X58">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y58">
         <v>1.11</v>
       </c>
       <c r="Z58">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="AA58">
-        <v>3.5</v>
+        <v>3.93</v>
       </c>
       <c r="AB58">
-        <v>2.81</v>
+        <v>3.6</v>
       </c>
       <c r="AC58">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD58">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE58">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AF58">
-        <v>4.2</v>
+        <v>4.78</v>
       </c>
       <c r="AG58">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AH58">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AI58">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AJ58">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="AK58">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AL58">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AM58">
-        <v>1.51</v>
+        <v>1.9</v>
       </c>
       <c r="AN58">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO58">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP58">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ58">
         <v>1.75</v>
       </c>
       <c r="AR58">
-        <v>1.06</v>
+        <v>1.88</v>
       </c>
       <c r="AS58">
-        <v>1.59</v>
+        <v>1.13</v>
       </c>
       <c r="AT58">
-        <v>2.65</v>
+        <v>3.01</v>
       </c>
       <c r="AU58">
         <v>8</v>
       </c>
       <c r="AV58">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AW58">
         <v>8</v>
@@ -12857,55 +12863,55 @@
         <v>16</v>
       </c>
       <c r="AZ58">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA58">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BB58">
         <v>9</v>
       </c>
       <c r="BC58">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BD58">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="BE58">
-        <v>6.45</v>
+        <v>6.8</v>
       </c>
       <c r="BF58">
-        <v>1.95</v>
+        <v>2.96</v>
       </c>
       <c r="BG58">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="BH58">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="BI58">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BJ58">
-        <v>2.71</v>
+        <v>2.88</v>
       </c>
       <c r="BK58">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="BL58">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="BM58">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="BN58">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="BO58">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="BP58">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12913,7 +12919,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7465453</v>
+        <v>7465447</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12928,25 +12934,25 @@
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <v>4</v>
@@ -12955,163 +12961,163 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="Q59">
-        <v>3.63</v>
+        <v>1.98</v>
       </c>
       <c r="R59">
-        <v>2.66</v>
+        <v>2.55</v>
       </c>
       <c r="S59">
-        <v>2.44</v>
+        <v>4.9</v>
       </c>
       <c r="T59">
         <v>1.22</v>
       </c>
       <c r="U59">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="V59">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="W59">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="X59">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="Y59">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="Z59">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="AA59">
-        <v>3.98</v>
+        <v>4.17</v>
       </c>
       <c r="AB59">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="AC59">
         <v>1.01</v>
       </c>
       <c r="AD59">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="AE59">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AF59">
-        <v>5.8</v>
+        <v>5.01</v>
       </c>
       <c r="AG59">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="AH59">
-        <v>2.79</v>
+        <v>2.25</v>
       </c>
       <c r="AI59">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="AJ59">
-        <v>2.9</v>
+        <v>2.17</v>
       </c>
       <c r="AK59">
-        <v>1.8</v>
+        <v>1.14</v>
       </c>
       <c r="AL59">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AM59">
-        <v>1.27</v>
+        <v>2.41</v>
       </c>
       <c r="AN59">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO59">
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="AQ59">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR59">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AS59">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AT59">
-        <v>3.28</v>
+        <v>3.03</v>
       </c>
       <c r="AU59">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV59">
         <v>4</v>
       </c>
       <c r="AW59">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX59">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AY59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ59">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BA59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB59">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC59">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD59">
-        <v>2.57</v>
+        <v>1.36</v>
       </c>
       <c r="BE59">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="BF59">
-        <v>1.66</v>
+        <v>4.25</v>
       </c>
       <c r="BG59">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="BH59">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="BI59">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BJ59">
-        <v>2.88</v>
+        <v>2.53</v>
       </c>
       <c r="BK59">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="BL59">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="BM59">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="BN59">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="BO59">
-        <v>2.64</v>
+        <v>3.08</v>
       </c>
       <c r="BP59">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13119,7 +13125,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7465449</v>
+        <v>7465451</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13134,190 +13140,190 @@
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O60" t="s">
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="Q60">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="R60">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="S60">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T60">
+        <v>1.22</v>
+      </c>
+      <c r="U60">
+        <v>3.8</v>
+      </c>
+      <c r="V60">
+        <v>2.04</v>
+      </c>
+      <c r="W60">
+        <v>1.78</v>
+      </c>
+      <c r="X60">
+        <v>4.1</v>
+      </c>
+      <c r="Y60">
         <v>1.2</v>
       </c>
-      <c r="U60">
-        <v>3.95</v>
-      </c>
-      <c r="V60">
-        <v>1.93</v>
-      </c>
-      <c r="W60">
-        <v>1.77</v>
-      </c>
-      <c r="X60">
-        <v>4.25</v>
-      </c>
-      <c r="Y60">
-        <v>1.19</v>
-      </c>
       <c r="Z60">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="AA60">
-        <v>3.98</v>
+        <v>3.93</v>
       </c>
       <c r="AB60">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="AC60">
         <v>1.01</v>
       </c>
       <c r="AD60">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE60">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AF60">
-        <v>6.25</v>
+        <v>5.9</v>
       </c>
       <c r="AG60">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AH60">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="AI60">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AJ60">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="AK60">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AL60">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM60">
         <v>1.67</v>
       </c>
       <c r="AN60">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AO60">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AQ60">
         <v>1</v>
       </c>
       <c r="AR60">
-        <v>1.64</v>
+        <v>1.96</v>
       </c>
       <c r="AS60">
-        <v>1.64</v>
+        <v>1.06</v>
       </c>
       <c r="AT60">
-        <v>3.28</v>
+        <v>3.02</v>
       </c>
       <c r="AU60">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV60">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AW60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX60">
+        <v>10</v>
+      </c>
+      <c r="AY60">
+        <v>7</v>
+      </c>
+      <c r="AZ60">
+        <v>20</v>
+      </c>
+      <c r="BA60">
         <v>4</v>
       </c>
-      <c r="AY60">
-        <v>13</v>
-      </c>
-      <c r="AZ60">
-        <v>9</v>
-      </c>
-      <c r="BA60">
-        <v>6</v>
-      </c>
       <c r="BB60">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC60">
         <v>14</v>
       </c>
       <c r="BD60">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="BE60">
-        <v>6.75</v>
+        <v>6.7</v>
       </c>
       <c r="BF60">
-        <v>2.47</v>
+        <v>2.72</v>
       </c>
       <c r="BG60">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="BH60">
-        <v>4.7</v>
+        <v>4.25</v>
       </c>
       <c r="BI60">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="BJ60">
-        <v>3.2</v>
+        <v>2.79</v>
       </c>
       <c r="BK60">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="BL60">
-        <v>2.37</v>
+        <v>2.13</v>
       </c>
       <c r="BM60">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="BN60">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="BO60">
-        <v>2.3</v>
+        <v>2.71</v>
       </c>
       <c r="BP60">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13325,7 +13331,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7465451</v>
+        <v>7465449</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13340,190 +13346,190 @@
         <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O61" t="s">
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="Q61">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="R61">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="S61">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T61">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U61">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="V61">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="W61">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X61">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="Y61">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="Z61">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="AA61">
-        <v>3.93</v>
+        <v>3.98</v>
       </c>
       <c r="AB61">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="AC61">
         <v>1.01</v>
       </c>
       <c r="AD61">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE61">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AF61">
-        <v>5.9</v>
+        <v>6.25</v>
       </c>
       <c r="AG61">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AH61">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="AI61">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AJ61">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="AK61">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AL61">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM61">
         <v>1.67</v>
       </c>
       <c r="AN61">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO61">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR61">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="AS61">
-        <v>1.06</v>
+        <v>1.64</v>
       </c>
       <c r="AT61">
-        <v>3.02</v>
+        <v>3.28</v>
       </c>
       <c r="AU61">
+        <v>8</v>
+      </c>
+      <c r="AV61">
         <v>5</v>
       </c>
-      <c r="AV61">
-        <v>10</v>
-      </c>
       <c r="AW61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX61">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY61">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ61">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="BA61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC61">
         <v>14</v>
       </c>
       <c r="BD61">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="BE61">
-        <v>6.7</v>
+        <v>6.75</v>
       </c>
       <c r="BF61">
-        <v>2.72</v>
+        <v>2.47</v>
       </c>
       <c r="BG61">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="BH61">
-        <v>4.25</v>
+        <v>4.7</v>
       </c>
       <c r="BI61">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="BJ61">
-        <v>2.79</v>
+        <v>3.2</v>
       </c>
       <c r="BK61">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="BL61">
-        <v>2.13</v>
+        <v>2.37</v>
       </c>
       <c r="BM61">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="BN61">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="BO61">
-        <v>2.71</v>
+        <v>2.3</v>
       </c>
       <c r="BP61">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13531,7 +13537,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7465459</v>
+        <v>7465455</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13546,43 +13552,43 @@
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N62">
         <v>2</v>
       </c>
       <c r="O62" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q62">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="R62">
         <v>2.4</v>
       </c>
       <c r="S62">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T62">
         <v>1.29</v>
@@ -13603,46 +13609,46 @@
         <v>1.14</v>
       </c>
       <c r="Z62">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AA62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB62">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="AC62">
         <v>1.01</v>
       </c>
       <c r="AD62">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE62">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AF62">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AG62">
+        <v>1.57</v>
+      </c>
+      <c r="AH62">
+        <v>2.35</v>
+      </c>
+      <c r="AI62">
         <v>1.53</v>
       </c>
-      <c r="AH62">
-        <v>2.4</v>
-      </c>
-      <c r="AI62">
-        <v>1.44</v>
-      </c>
       <c r="AJ62">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AK62">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AL62">
         <v>1.22</v>
       </c>
       <c r="AM62">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AN62">
         <v>1.33</v>
@@ -13651,85 +13657,85 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ62">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR62">
-        <v>1.68</v>
+        <v>1.41</v>
       </c>
       <c r="AS62">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="AT62">
-        <v>3.51</v>
+        <v>3</v>
       </c>
       <c r="AU62">
+        <v>6</v>
+      </c>
+      <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
+        <v>6</v>
+      </c>
+      <c r="AX62">
+        <v>7</v>
+      </c>
+      <c r="AY62">
+        <v>12</v>
+      </c>
+      <c r="AZ62">
         <v>11</v>
       </c>
-      <c r="AV62">
-        <v>6</v>
-      </c>
-      <c r="AW62">
-        <v>2</v>
-      </c>
-      <c r="AX62">
-        <v>2</v>
-      </c>
-      <c r="AY62">
-        <v>13</v>
-      </c>
-      <c r="AZ62">
-        <v>8</v>
-      </c>
       <c r="BA62">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BB62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC62">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD62">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="BE62">
-        <v>7.1</v>
+        <v>6.85</v>
       </c>
       <c r="BF62">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="BG62">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BH62">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BI62">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BJ62">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="BK62">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="BL62">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="BM62">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="BN62">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="BO62">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="BP62">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13737,7 +13743,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7465458</v>
+        <v>7465456</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13752,43 +13758,43 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O63" t="s">
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="Q63">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="R63">
         <v>2.5</v>
       </c>
       <c r="S63">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="T63">
         <v>1.25</v>
@@ -13809,133 +13815,133 @@
         <v>1.17</v>
       </c>
       <c r="Z63">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="AA63">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AB63">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="AC63">
         <v>1.01</v>
       </c>
       <c r="AD63">
-        <v>14.7</v>
+        <v>12</v>
       </c>
       <c r="AE63">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AF63">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="AG63">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AH63">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="AI63">
+        <v>1.36</v>
+      </c>
+      <c r="AJ63">
+        <v>3</v>
+      </c>
+      <c r="AK63">
         <v>1.53</v>
       </c>
-      <c r="AJ63">
-        <v>2.38</v>
-      </c>
-      <c r="AK63">
-        <v>1.16</v>
-      </c>
       <c r="AL63">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AM63">
-        <v>2.28</v>
+        <v>1.49</v>
       </c>
       <c r="AN63">
         <v>2.33</v>
       </c>
       <c r="AO63">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AR63">
-        <v>1.46</v>
+        <v>2.12</v>
       </c>
       <c r="AS63">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="AT63">
-        <v>2.91</v>
+        <v>4.16</v>
       </c>
       <c r="AU63">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AV63">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX63">
         <v>6</v>
       </c>
       <c r="AY63">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AZ63">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB63">
         <v>6</v>
       </c>
       <c r="BC63">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD63">
-        <v>1.63</v>
+        <v>2.17</v>
       </c>
       <c r="BE63">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="BF63">
-        <v>2.9</v>
+        <v>2.02</v>
       </c>
       <c r="BG63">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="BH63">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="BI63">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="BJ63">
-        <v>2.7</v>
+        <v>3.14</v>
       </c>
       <c r="BK63">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="BL63">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="BM63">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="BN63">
-        <v>1.66</v>
+        <v>1.89</v>
       </c>
       <c r="BO63">
-        <v>2.65</v>
+        <v>2.39</v>
       </c>
       <c r="BP63">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13943,7 +13949,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7465456</v>
+        <v>7465457</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13958,88 +13964,88 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O64" t="s">
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="Q64">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="R64">
         <v>2.5</v>
       </c>
       <c r="S64">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="T64">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U64">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V64">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W64">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X64">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Y64">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Z64">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="AA64">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB64">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AC64">
         <v>1.01</v>
       </c>
       <c r="AD64">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE64">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AF64">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AG64">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AH64">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="AI64">
         <v>1.36</v>
@@ -14048,100 +14054,100 @@
         <v>3</v>
       </c>
       <c r="AK64">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AL64">
         <v>1.25</v>
       </c>
       <c r="AM64">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="AN64">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO64">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
-        <v>2.12</v>
+        <v>1.48</v>
       </c>
       <c r="AS64">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="AT64">
-        <v>4.16</v>
+        <v>3.38</v>
       </c>
       <c r="AU64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AW64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX64">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY64">
         <v>11</v>
       </c>
       <c r="AZ64">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="BA64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC64">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD64">
-        <v>2.17</v>
+        <v>2.35</v>
       </c>
       <c r="BE64">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="BF64">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="BG64">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="BH64">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="BI64">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="BJ64">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="BK64">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="BL64">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="BM64">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="BN64">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="BO64">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="BP64">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14149,7 +14155,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7465455</v>
+        <v>7465458</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14164,10 +14170,10 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -14179,73 +14185,73 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O65" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="Q65">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R65">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S65">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T65">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U65">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V65">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W65">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X65">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y65">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z65">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AA65">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AB65">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="AC65">
         <v>1.01</v>
       </c>
       <c r="AD65">
-        <v>13</v>
+        <v>14.7</v>
       </c>
       <c r="AE65">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AF65">
-        <v>4.75</v>
+        <v>5.05</v>
       </c>
       <c r="AG65">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AH65">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="AI65">
         <v>1.53</v>
@@ -14254,97 +14260,97 @@
         <v>2.38</v>
       </c>
       <c r="AK65">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AL65">
+        <v>1.19</v>
+      </c>
+      <c r="AM65">
+        <v>2.28</v>
+      </c>
+      <c r="AN65">
+        <v>2.33</v>
+      </c>
+      <c r="AO65">
+        <v>0.33</v>
+      </c>
+      <c r="AP65">
+        <v>1.75</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1.46</v>
+      </c>
+      <c r="AS65">
+        <v>1.45</v>
+      </c>
+      <c r="AT65">
+        <v>2.91</v>
+      </c>
+      <c r="AU65">
+        <v>11</v>
+      </c>
+      <c r="AV65">
+        <v>8</v>
+      </c>
+      <c r="AW65">
+        <v>8</v>
+      </c>
+      <c r="AX65">
+        <v>6</v>
+      </c>
+      <c r="AY65">
+        <v>19</v>
+      </c>
+      <c r="AZ65">
+        <v>14</v>
+      </c>
+      <c r="BA65">
+        <v>5</v>
+      </c>
+      <c r="BB65">
+        <v>6</v>
+      </c>
+      <c r="BC65">
+        <v>11</v>
+      </c>
+      <c r="BD65">
+        <v>1.63</v>
+      </c>
+      <c r="BE65">
+        <v>6.8</v>
+      </c>
+      <c r="BF65">
+        <v>2.9</v>
+      </c>
+      <c r="BG65">
         <v>1.22</v>
       </c>
-      <c r="AM65">
-        <v>2</v>
-      </c>
-      <c r="AN65">
-        <v>1.33</v>
-      </c>
-      <c r="AO65">
-        <v>2</v>
-      </c>
-      <c r="AP65">
-        <v>1.2</v>
-      </c>
-      <c r="AQ65">
-        <v>1.75</v>
-      </c>
-      <c r="AR65">
+      <c r="BH65">
+        <v>3.9</v>
+      </c>
+      <c r="BI65">
         <v>1.41</v>
       </c>
-      <c r="AS65">
-        <v>1.59</v>
-      </c>
-      <c r="AT65">
-        <v>3</v>
-      </c>
-      <c r="AU65">
-        <v>6</v>
-      </c>
-      <c r="AV65">
-        <v>4</v>
-      </c>
-      <c r="AW65">
-        <v>6</v>
-      </c>
-      <c r="AX65">
-        <v>7</v>
-      </c>
-      <c r="AY65">
-        <v>12</v>
-      </c>
-      <c r="AZ65">
-        <v>11</v>
-      </c>
-      <c r="BA65">
-        <v>10</v>
-      </c>
-      <c r="BB65">
-        <v>4</v>
-      </c>
-      <c r="BC65">
-        <v>14</v>
-      </c>
-      <c r="BD65">
-        <v>1.61</v>
-      </c>
-      <c r="BE65">
-        <v>6.85</v>
-      </c>
-      <c r="BF65">
-        <v>2.95</v>
-      </c>
-      <c r="BG65">
-        <v>1.19</v>
-      </c>
-      <c r="BH65">
-        <v>4.2</v>
-      </c>
-      <c r="BI65">
-        <v>1.29</v>
-      </c>
       <c r="BJ65">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="BK65">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="BL65">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="BM65">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="BN65">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="BO65">
-        <v>2.49</v>
+        <v>2.65</v>
       </c>
       <c r="BP65">
         <v>1.42</v>
@@ -14355,7 +14361,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7465457</v>
+        <v>7465459</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14370,70 +14376,70 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>2</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O66" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
       </c>
       <c r="R66">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S66">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T66">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U66">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V66">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W66">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X66">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y66">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Z66">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA66">
         <v>3.4</v>
       </c>
       <c r="AB66">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AC66">
         <v>1.01</v>
@@ -14448,112 +14454,112 @@
         <v>5.5</v>
       </c>
       <c r="AG66">
+        <v>1.53</v>
+      </c>
+      <c r="AH66">
+        <v>2.4</v>
+      </c>
+      <c r="AI66">
         <v>1.44</v>
       </c>
-      <c r="AH66">
-        <v>2.7</v>
-      </c>
-      <c r="AI66">
-        <v>1.36</v>
-      </c>
       <c r="AJ66">
+        <v>2.63</v>
+      </c>
+      <c r="AK66">
+        <v>1.28</v>
+      </c>
+      <c r="AL66">
+        <v>1.22</v>
+      </c>
+      <c r="AM66">
+        <v>1.89</v>
+      </c>
+      <c r="AN66">
+        <v>1.33</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AP66">
+        <v>1</v>
+      </c>
+      <c r="AQ66">
+        <v>2.25</v>
+      </c>
+      <c r="AR66">
+        <v>1.68</v>
+      </c>
+      <c r="AS66">
+        <v>1.83</v>
+      </c>
+      <c r="AT66">
+        <v>3.51</v>
+      </c>
+      <c r="AU66">
+        <v>11</v>
+      </c>
+      <c r="AV66">
+        <v>6</v>
+      </c>
+      <c r="AW66">
+        <v>2</v>
+      </c>
+      <c r="AX66">
+        <v>2</v>
+      </c>
+      <c r="AY66">
+        <v>13</v>
+      </c>
+      <c r="AZ66">
+        <v>8</v>
+      </c>
+      <c r="BA66">
         <v>3</v>
       </c>
-      <c r="AK66">
-        <v>1.38</v>
-      </c>
-      <c r="AL66">
-        <v>1.25</v>
-      </c>
-      <c r="AM66">
-        <v>1.75</v>
-      </c>
-      <c r="AN66">
-        <v>2</v>
-      </c>
-      <c r="AO66">
-        <v>1.33</v>
-      </c>
-      <c r="AP66">
-        <v>1.67</v>
-      </c>
-      <c r="AQ66">
-        <v>1.25</v>
-      </c>
-      <c r="AR66">
-        <v>1.48</v>
-      </c>
-      <c r="AS66">
-        <v>1.9</v>
-      </c>
-      <c r="AT66">
-        <v>3.38</v>
-      </c>
-      <c r="AU66">
-        <v>7</v>
-      </c>
-      <c r="AV66">
-        <v>10</v>
-      </c>
-      <c r="AW66">
-        <v>4</v>
-      </c>
-      <c r="AX66">
-        <v>11</v>
-      </c>
-      <c r="AY66">
-        <v>11</v>
-      </c>
-      <c r="AZ66">
-        <v>21</v>
-      </c>
-      <c r="BA66">
-        <v>5</v>
-      </c>
       <c r="BB66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC66">
         <v>9</v>
       </c>
       <c r="BD66">
-        <v>2.35</v>
+        <v>1.49</v>
       </c>
       <c r="BE66">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="BF66">
-        <v>1.89</v>
+        <v>3.4</v>
       </c>
       <c r="BG66">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BH66">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BI66">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="BJ66">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="BK66">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="BL66">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="BM66">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="BN66">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="BO66">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="BP66">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14561,7 +14567,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7465460</v>
+        <v>7465461</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14570,49 +14576,49 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45556.47916666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F67">
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H67" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O67" t="s">
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="Q67">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R67">
         <v>2.5</v>
       </c>
       <c r="S67">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T67">
         <v>1.25</v>
@@ -14627,19 +14633,19 @@
         <v>1.67</v>
       </c>
       <c r="X67">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Y67">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Z67">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AA67">
         <v>3.7</v>
       </c>
       <c r="AB67">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AC67">
         <v>1.01</v>
@@ -14648,118 +14654,118 @@
         <v>17</v>
       </c>
       <c r="AE67">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AF67">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="AG67">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AH67">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AI67">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AJ67">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AK67">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AL67">
         <v>1.22</v>
       </c>
       <c r="AM67">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="AN67">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO67">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP67">
+        <v>0.75</v>
+      </c>
+      <c r="AQ67">
+        <v>2</v>
+      </c>
+      <c r="AR67">
         <v>1.33</v>
       </c>
-      <c r="AQ67">
-        <v>0.5</v>
-      </c>
-      <c r="AR67">
-        <v>1.6</v>
-      </c>
       <c r="AS67">
-        <v>1.22</v>
+        <v>1.82</v>
       </c>
       <c r="AT67">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="AU67">
+        <v>9</v>
+      </c>
+      <c r="AV67">
+        <v>2</v>
+      </c>
+      <c r="AW67">
         <v>6</v>
       </c>
-      <c r="AV67">
-        <v>6</v>
-      </c>
-      <c r="AW67">
-        <v>8</v>
-      </c>
       <c r="AX67">
+        <v>2</v>
+      </c>
+      <c r="AY67">
+        <v>15</v>
+      </c>
+      <c r="AZ67">
         <v>4</v>
       </c>
-      <c r="AY67">
-        <v>14</v>
-      </c>
-      <c r="AZ67">
-        <v>10</v>
-      </c>
       <c r="BA67">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BB67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC67">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BD67">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="BE67">
-        <v>7.9</v>
+        <v>6.85</v>
       </c>
       <c r="BF67">
-        <v>4.4</v>
+        <v>3.02</v>
       </c>
       <c r="BG67">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BH67">
-        <v>3.86</v>
+        <v>4.5</v>
       </c>
       <c r="BI67">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="BJ67">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="BK67">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="BL67">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="BM67">
-        <v>2.14</v>
+        <v>2.01</v>
       </c>
       <c r="BN67">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="BO67">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="BP67">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14767,7 +14773,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7465461</v>
+        <v>7465460</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14776,49 +14782,49 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45556.57291666666</v>
+        <v>45556.47916666666</v>
       </c>
       <c r="F68">
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O68" t="s">
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="Q68">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R68">
         <v>2.5</v>
       </c>
       <c r="S68">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T68">
         <v>1.25</v>
@@ -14833,19 +14839,19 @@
         <v>1.67</v>
       </c>
       <c r="X68">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Y68">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Z68">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AA68">
         <v>3.7</v>
       </c>
       <c r="AB68">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AC68">
         <v>1.01</v>
@@ -14854,118 +14860,118 @@
         <v>17</v>
       </c>
       <c r="AE68">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AF68">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="AG68">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AH68">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AI68">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AJ68">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AK68">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AL68">
         <v>1.22</v>
       </c>
       <c r="AM68">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="AN68">
+        <v>0.5</v>
+      </c>
+      <c r="AO68">
         <v>0.67</v>
       </c>
-      <c r="AO68">
-        <v>2.33</v>
-      </c>
       <c r="AP68">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AS68">
-        <v>1.82</v>
+        <v>1.22</v>
       </c>
       <c r="AT68">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="AU68">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AV68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW68">
         <v>8</v>
       </c>
       <c r="AX68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY68">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ68">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA68">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BB68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC68">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="BD68">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="BE68">
-        <v>6.85</v>
+        <v>7.9</v>
       </c>
       <c r="BF68">
-        <v>3.02</v>
+        <v>4.4</v>
       </c>
       <c r="BG68">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH68">
-        <v>4.5</v>
+        <v>3.86</v>
       </c>
       <c r="BI68">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="BJ68">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="BK68">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="BL68">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="BM68">
-        <v>2.01</v>
+        <v>2.14</v>
       </c>
       <c r="BN68">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="BO68">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BP68">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -15015,7 +15021,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15188,7 +15194,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="2">
-        <v>45558.625</v>
+        <v>45557.875</v>
       </c>
       <c r="F70">
         <v>7</v>
@@ -15221,7 +15227,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15314,22 +15320,22 @@
         <v>3.75</v>
       </c>
       <c r="AU70">
+        <v>5</v>
+      </c>
+      <c r="AV70">
+        <v>3</v>
+      </c>
+      <c r="AW70">
         <v>7</v>
-      </c>
-      <c r="AV70">
-        <v>5</v>
-      </c>
-      <c r="AW70">
-        <v>6</v>
       </c>
       <c r="AX70">
         <v>5</v>
       </c>
       <c r="AY70">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ70">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA70">
         <v>12</v>
@@ -15394,7 +15400,7 @@
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>45558.625</v>
+        <v>45557.875</v>
       </c>
       <c r="F71">
         <v>7</v>
@@ -15427,7 +15433,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15520,31 +15526,31 @@
         <v>2.99</v>
       </c>
       <c r="AU71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV71">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW71">
         <v>5</v>
       </c>
       <c r="AX71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY71">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ71">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA71">
         <v>4</v>
       </c>
       <c r="BB71">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC71">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD71">
         <v>2.67</v>
@@ -15591,7 +15597,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7465468</v>
+        <v>7465466</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15600,31 +15606,31 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45562.625</v>
+        <v>45561.875</v>
       </c>
       <c r="F72">
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>2</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N72">
         <v>6</v>
@@ -15633,163 +15639,163 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q72">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="R72">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S72">
+        <v>5.5</v>
+      </c>
+      <c r="T72">
+        <v>1.19</v>
+      </c>
+      <c r="U72">
         <v>4.2</v>
       </c>
-      <c r="T72">
-        <v>1.28</v>
-      </c>
-      <c r="U72">
-        <v>3.4</v>
-      </c>
       <c r="V72">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="W72">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="X72">
-        <v>5.25</v>
+        <v>4.3</v>
       </c>
       <c r="Y72">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="Z72">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="AA72">
-        <v>3.94</v>
+        <v>4.5</v>
       </c>
       <c r="AB72">
-        <v>4.15</v>
+        <v>6.5</v>
       </c>
       <c r="AC72">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD72">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE72">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AF72">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AG72">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AH72">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="AI72">
+        <v>1.53</v>
+      </c>
+      <c r="AJ72">
+        <v>2.45</v>
+      </c>
+      <c r="AK72">
+        <v>1.1</v>
+      </c>
+      <c r="AL72">
+        <v>1.14</v>
+      </c>
+      <c r="AM72">
+        <v>2.8</v>
+      </c>
+      <c r="AN72">
+        <v>3</v>
+      </c>
+      <c r="AO72">
+        <v>1.33</v>
+      </c>
+      <c r="AP72">
+        <v>3</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>1.75</v>
+      </c>
+      <c r="AS72">
         <v>1.55</v>
       </c>
-      <c r="AJ72">
-        <v>2.3</v>
-      </c>
-      <c r="AK72">
-        <v>1.22</v>
-      </c>
-      <c r="AL72">
-        <v>1.25</v>
-      </c>
-      <c r="AM72">
-        <v>2.05</v>
-      </c>
-      <c r="AN72">
-        <v>2</v>
-      </c>
-      <c r="AO72">
-        <v>0.33</v>
-      </c>
-      <c r="AP72">
-        <v>1.5</v>
-      </c>
-      <c r="AQ72">
-        <v>1</v>
-      </c>
-      <c r="AR72">
-        <v>1.66</v>
-      </c>
-      <c r="AS72">
-        <v>1.14</v>
-      </c>
       <c r="AT72">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AU72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW72">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AX72">
+        <v>0</v>
+      </c>
+      <c r="AY72">
+        <v>9</v>
+      </c>
+      <c r="AZ72">
         <v>5</v>
-      </c>
-      <c r="AY72">
-        <v>17</v>
-      </c>
-      <c r="AZ72">
-        <v>12</v>
       </c>
       <c r="BA72">
         <v>5</v>
       </c>
       <c r="BB72">
+        <v>1</v>
+      </c>
+      <c r="BC72">
         <v>6</v>
       </c>
-      <c r="BC72">
-        <v>11</v>
-      </c>
       <c r="BD72">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BE72">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="BF72">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="BG72">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="BH72">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="BI72">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BJ72">
-        <v>2.42</v>
+        <v>2.9</v>
       </c>
       <c r="BK72">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="BL72">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="BM72">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="BN72">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="BO72">
         <v>2.85</v>
       </c>
       <c r="BP72">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -15797,7 +15803,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7465469</v>
+        <v>7465467</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15812,88 +15818,88 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H73" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="P73" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="Q73">
+        <v>2.95</v>
+      </c>
+      <c r="R73">
+        <v>2.25</v>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73">
+        <v>1.3</v>
+      </c>
+      <c r="U73">
+        <v>3.25</v>
+      </c>
+      <c r="V73">
         <v>2.3</v>
       </c>
-      <c r="R73">
+      <c r="W73">
+        <v>1.55</v>
+      </c>
+      <c r="X73">
+        <v>5.4</v>
+      </c>
+      <c r="Y73">
+        <v>1.13</v>
+      </c>
+      <c r="Z73">
+        <v>2.5</v>
+      </c>
+      <c r="AA73">
+        <v>3.6</v>
+      </c>
+      <c r="AB73">
+        <v>2.64</v>
+      </c>
+      <c r="AC73">
+        <v>1.04</v>
+      </c>
+      <c r="AD73">
+        <v>10</v>
+      </c>
+      <c r="AE73">
+        <v>1.2</v>
+      </c>
+      <c r="AF73">
+        <v>4.33</v>
+      </c>
+      <c r="AG73">
+        <v>1.6</v>
+      </c>
+      <c r="AH73">
         <v>2.3</v>
-      </c>
-      <c r="S73">
-        <v>4</v>
-      </c>
-      <c r="T73">
-        <v>1.28</v>
-      </c>
-      <c r="U73">
-        <v>3.4</v>
-      </c>
-      <c r="V73">
-        <v>2.2</v>
-      </c>
-      <c r="W73">
-        <v>1.6</v>
-      </c>
-      <c r="X73">
-        <v>5</v>
-      </c>
-      <c r="Y73">
-        <v>1.15</v>
-      </c>
-      <c r="Z73">
-        <v>1.83</v>
-      </c>
-      <c r="AA73">
-        <v>4.01</v>
-      </c>
-      <c r="AB73">
-        <v>3.8</v>
-      </c>
-      <c r="AC73">
-        <v>1.01</v>
-      </c>
-      <c r="AD73">
-        <v>13</v>
-      </c>
-      <c r="AE73">
-        <v>1.18</v>
-      </c>
-      <c r="AF73">
-        <v>4.75</v>
-      </c>
-      <c r="AG73">
-        <v>1.55</v>
-      </c>
-      <c r="AH73">
-        <v>2.4</v>
       </c>
       <c r="AI73">
         <v>1.48</v>
@@ -15902,100 +15908,100 @@
         <v>2.4</v>
       </c>
       <c r="AK73">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="AL73">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM73">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AN73">
         <v>1.33</v>
       </c>
       <c r="AO73">
-        <v>0.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP73">
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR73">
-        <v>1.77</v>
+        <v>1.42</v>
       </c>
       <c r="AS73">
-        <v>0.93</v>
+        <v>1.59</v>
       </c>
       <c r="AT73">
-        <v>2.7</v>
+        <v>3.01</v>
       </c>
       <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
         <v>5</v>
       </c>
-      <c r="AV73">
+      <c r="AW73">
+        <v>3</v>
+      </c>
+      <c r="AX73">
+        <v>3</v>
+      </c>
+      <c r="AY73">
+        <v>7</v>
+      </c>
+      <c r="AZ73">
         <v>8</v>
       </c>
-      <c r="AW73">
-        <v>7</v>
-      </c>
-      <c r="AX73">
-        <v>1</v>
-      </c>
-      <c r="AY73">
-        <v>12</v>
-      </c>
-      <c r="AZ73">
-        <v>9</v>
-      </c>
       <c r="BA73">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BB73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC73">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD73">
-        <v>1.6</v>
+        <v>2.37</v>
       </c>
       <c r="BE73">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="BF73">
-        <v>3</v>
+        <v>1.87</v>
       </c>
       <c r="BG73">
         <v>1.18</v>
       </c>
       <c r="BH73">
-        <v>3.74</v>
+        <v>4</v>
       </c>
       <c r="BI73">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="BJ73">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="BK73">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="BL73">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="BM73">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="BN73">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="BO73">
-        <v>2.73</v>
+        <v>2.44</v>
       </c>
       <c r="BP73">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -16003,7 +16009,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7465466</v>
+        <v>7465468</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16018,190 +16024,190 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>2</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
         <v>4</v>
-      </c>
-      <c r="M74">
-        <v>2</v>
       </c>
       <c r="N74">
         <v>6</v>
       </c>
       <c r="O74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P74" t="s">
         <v>189</v>
       </c>
       <c r="Q74">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="R74">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S74">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="T74">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="U74">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="V74">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="W74">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="X74">
-        <v>4.3</v>
+        <v>5.25</v>
       </c>
       <c r="Y74">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="Z74">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="AA74">
-        <v>4.5</v>
+        <v>3.94</v>
       </c>
       <c r="AB74">
-        <v>6.5</v>
+        <v>4.15</v>
       </c>
       <c r="AC74">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD74">
+        <v>12</v>
+      </c>
+      <c r="AE74">
+        <v>1.15</v>
+      </c>
+      <c r="AF74">
+        <v>4.75</v>
+      </c>
+      <c r="AG74">
+        <v>1.5</v>
+      </c>
+      <c r="AH74">
+        <v>2.4</v>
+      </c>
+      <c r="AI74">
+        <v>1.55</v>
+      </c>
+      <c r="AJ74">
+        <v>2.3</v>
+      </c>
+      <c r="AK74">
+        <v>1.22</v>
+      </c>
+      <c r="AL74">
+        <v>1.25</v>
+      </c>
+      <c r="AM74">
+        <v>2.05</v>
+      </c>
+      <c r="AN74">
+        <v>2</v>
+      </c>
+      <c r="AO74">
+        <v>0.33</v>
+      </c>
+      <c r="AP74">
+        <v>1.5</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>1.66</v>
+      </c>
+      <c r="AS74">
+        <v>1.14</v>
+      </c>
+      <c r="AT74">
+        <v>2.8</v>
+      </c>
+      <c r="AU74">
+        <v>6</v>
+      </c>
+      <c r="AV74">
+        <v>7</v>
+      </c>
+      <c r="AW74">
+        <v>11</v>
+      </c>
+      <c r="AX74">
+        <v>5</v>
+      </c>
+      <c r="AY74">
         <v>17</v>
       </c>
-      <c r="AE74">
-        <v>1.08</v>
-      </c>
-      <c r="AF74">
-        <v>6.5</v>
-      </c>
-      <c r="AG74">
-        <v>1.4</v>
-      </c>
-      <c r="AH74">
-        <v>2.88</v>
-      </c>
-      <c r="AI74">
-        <v>1.53</v>
-      </c>
-      <c r="AJ74">
-        <v>2.45</v>
-      </c>
-      <c r="AK74">
-        <v>1.1</v>
-      </c>
-      <c r="AL74">
-        <v>1.14</v>
-      </c>
-      <c r="AM74">
-        <v>2.8</v>
-      </c>
-      <c r="AN74">
-        <v>3</v>
-      </c>
-      <c r="AO74">
-        <v>1.33</v>
-      </c>
-      <c r="AP74">
-        <v>3</v>
-      </c>
-      <c r="AQ74">
-        <v>1</v>
-      </c>
-      <c r="AR74">
-        <v>1.75</v>
-      </c>
-      <c r="AS74">
-        <v>1.55</v>
-      </c>
-      <c r="AT74">
-        <v>3.3</v>
-      </c>
-      <c r="AU74">
-        <v>8</v>
-      </c>
-      <c r="AV74">
-        <v>5</v>
-      </c>
-      <c r="AW74">
-        <v>8</v>
-      </c>
-      <c r="AX74">
-        <v>0</v>
-      </c>
-      <c r="AY74">
-        <v>16</v>
-      </c>
       <c r="AZ74">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BA74">
         <v>5</v>
       </c>
       <c r="BB74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC74">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD74">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BE74">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="BF74">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="BG74">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="BH74">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="BI74">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="BJ74">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="BK74">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BL74">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="BM74">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="BN74">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="BO74">
         <v>2.85</v>
       </c>
       <c r="BP74">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16209,7 +16215,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7465465</v>
+        <v>7465469</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16224,190 +16230,190 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H75" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P75" t="s">
         <v>190</v>
       </c>
       <c r="Q75">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="R75">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="S75">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="T75">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="U75">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V75">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W75">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="X75">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="Y75">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="Z75">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AA75">
-        <v>4.33</v>
+        <v>4.01</v>
       </c>
       <c r="AB75">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="AC75">
         <v>1.01</v>
       </c>
       <c r="AD75">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE75">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AF75">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="AG75">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AH75">
+        <v>2.4</v>
+      </c>
+      <c r="AI75">
+        <v>1.48</v>
+      </c>
+      <c r="AJ75">
+        <v>2.4</v>
+      </c>
+      <c r="AK75">
+        <v>1.25</v>
+      </c>
+      <c r="AL75">
+        <v>1.2</v>
+      </c>
+      <c r="AM75">
+        <v>1.95</v>
+      </c>
+      <c r="AN75">
+        <v>1.33</v>
+      </c>
+      <c r="AO75">
+        <v>0.33</v>
+      </c>
+      <c r="AP75">
+        <v>1.25</v>
+      </c>
+      <c r="AQ75">
+        <v>0.5</v>
+      </c>
+      <c r="AR75">
+        <v>1.77</v>
+      </c>
+      <c r="AS75">
+        <v>0.93</v>
+      </c>
+      <c r="AT75">
         <v>2.7</v>
       </c>
-      <c r="AI75">
-        <v>1.54</v>
-      </c>
-      <c r="AJ75">
-        <v>2.3</v>
-      </c>
-      <c r="AK75">
-        <v>1.1</v>
-      </c>
-      <c r="AL75">
-        <v>1.15</v>
-      </c>
-      <c r="AM75">
-        <v>2.75</v>
-      </c>
-      <c r="AN75">
-        <v>1.25</v>
-      </c>
-      <c r="AO75">
-        <v>0.67</v>
-      </c>
-      <c r="AP75">
-        <v>1.2</v>
-      </c>
-      <c r="AQ75">
-        <v>0.75</v>
-      </c>
-      <c r="AR75">
-        <v>1.48</v>
-      </c>
-      <c r="AS75">
-        <v>1.35</v>
-      </c>
-      <c r="AT75">
-        <v>2.83</v>
-      </c>
       <c r="AU75">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV75">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW75">
         <v>7</v>
       </c>
       <c r="AX75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY75">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ75">
+        <v>9</v>
+      </c>
+      <c r="BA75">
+        <v>8</v>
+      </c>
+      <c r="BB75">
         <v>5</v>
       </c>
-      <c r="BA75">
-        <v>9</v>
-      </c>
-      <c r="BB75">
-        <v>2</v>
-      </c>
       <c r="BC75">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD75">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="BE75">
-        <v>10.7</v>
+        <v>6.8</v>
       </c>
       <c r="BF75">
-        <v>4.93</v>
+        <v>3</v>
       </c>
       <c r="BG75">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH75">
-        <v>3.7</v>
+        <v>3.74</v>
       </c>
       <c r="BI75">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="BJ75">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="BK75">
+        <v>1.73</v>
+      </c>
+      <c r="BL75">
+        <v>2.07</v>
+      </c>
+      <c r="BM75">
+        <v>2.17</v>
+      </c>
+      <c r="BN75">
         <v>1.67</v>
       </c>
-      <c r="BL75">
-        <v>2.19</v>
-      </c>
-      <c r="BM75">
-        <v>2.08</v>
-      </c>
-      <c r="BN75">
-        <v>1.73</v>
-      </c>
       <c r="BO75">
-        <v>2.59</v>
+        <v>2.73</v>
       </c>
       <c r="BP75">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16415,7 +16421,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7465467</v>
+        <v>7465465</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16430,190 +16436,190 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O76" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="Q76">
-        <v>2.95</v>
+        <v>1.82</v>
       </c>
       <c r="R76">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="S76">
+        <v>5.75</v>
+      </c>
+      <c r="T76">
+        <v>1.24</v>
+      </c>
+      <c r="U76">
+        <v>3.75</v>
+      </c>
+      <c r="V76">
+        <v>2.1</v>
+      </c>
+      <c r="W76">
+        <v>1.65</v>
+      </c>
+      <c r="X76">
+        <v>4.6</v>
+      </c>
+      <c r="Y76">
+        <v>1.17</v>
+      </c>
+      <c r="Z76">
+        <v>1.4</v>
+      </c>
+      <c r="AA76">
+        <v>4.33</v>
+      </c>
+      <c r="AB76">
+        <v>7</v>
+      </c>
+      <c r="AC76">
+        <v>1.01</v>
+      </c>
+      <c r="AD76">
+        <v>23</v>
+      </c>
+      <c r="AE76">
+        <v>1.13</v>
+      </c>
+      <c r="AF76">
+        <v>5.25</v>
+      </c>
+      <c r="AG76">
+        <v>1.44</v>
+      </c>
+      <c r="AH76">
+        <v>2.7</v>
+      </c>
+      <c r="AI76">
+        <v>1.54</v>
+      </c>
+      <c r="AJ76">
+        <v>2.3</v>
+      </c>
+      <c r="AK76">
+        <v>1.1</v>
+      </c>
+      <c r="AL76">
+        <v>1.15</v>
+      </c>
+      <c r="AM76">
+        <v>2.75</v>
+      </c>
+      <c r="AN76">
+        <v>1.25</v>
+      </c>
+      <c r="AO76">
+        <v>0.67</v>
+      </c>
+      <c r="AP76">
+        <v>1.2</v>
+      </c>
+      <c r="AQ76">
+        <v>0.75</v>
+      </c>
+      <c r="AR76">
+        <v>1.48</v>
+      </c>
+      <c r="AS76">
+        <v>1.35</v>
+      </c>
+      <c r="AT76">
+        <v>2.83</v>
+      </c>
+      <c r="AU76">
+        <v>9</v>
+      </c>
+      <c r="AV76">
         <v>3</v>
       </c>
-      <c r="T76">
-        <v>1.3</v>
-      </c>
-      <c r="U76">
-        <v>3.25</v>
-      </c>
-      <c r="V76">
-        <v>2.3</v>
-      </c>
-      <c r="W76">
-        <v>1.55</v>
-      </c>
-      <c r="X76">
-        <v>5.4</v>
-      </c>
-      <c r="Y76">
-        <v>1.13</v>
-      </c>
-      <c r="Z76">
-        <v>2.5</v>
-      </c>
-      <c r="AA76">
-        <v>3.6</v>
-      </c>
-      <c r="AB76">
-        <v>2.64</v>
-      </c>
-      <c r="AC76">
-        <v>1.04</v>
-      </c>
-      <c r="AD76">
-        <v>10</v>
-      </c>
-      <c r="AE76">
-        <v>1.2</v>
-      </c>
-      <c r="AF76">
-        <v>4.33</v>
-      </c>
-      <c r="AG76">
-        <v>1.6</v>
-      </c>
-      <c r="AH76">
-        <v>2.3</v>
-      </c>
-      <c r="AI76">
-        <v>1.48</v>
-      </c>
-      <c r="AJ76">
-        <v>2.4</v>
-      </c>
-      <c r="AK76">
-        <v>1.48</v>
-      </c>
-      <c r="AL76">
+      <c r="AW76">
+        <v>7</v>
+      </c>
+      <c r="AX76">
+        <v>2</v>
+      </c>
+      <c r="AY76">
+        <v>16</v>
+      </c>
+      <c r="AZ76">
+        <v>5</v>
+      </c>
+      <c r="BA76">
+        <v>9</v>
+      </c>
+      <c r="BB76">
+        <v>2</v>
+      </c>
+      <c r="BC76">
+        <v>11</v>
+      </c>
+      <c r="BD76">
+        <v>1.25</v>
+      </c>
+      <c r="BE76">
+        <v>10.7</v>
+      </c>
+      <c r="BF76">
+        <v>4.93</v>
+      </c>
+      <c r="BG76">
         <v>1.22</v>
       </c>
-      <c r="AM76">
-        <v>1.5</v>
-      </c>
-      <c r="AN76">
-        <v>1.33</v>
-      </c>
-      <c r="AO76">
-        <v>1.25</v>
-      </c>
-      <c r="AP76">
-        <v>1.25</v>
-      </c>
-      <c r="AQ76">
-        <v>1.2</v>
-      </c>
-      <c r="AR76">
-        <v>1.42</v>
-      </c>
-      <c r="AS76">
-        <v>1.59</v>
-      </c>
-      <c r="AT76">
-        <v>3.01</v>
-      </c>
-      <c r="AU76">
-        <v>4</v>
-      </c>
-      <c r="AV76">
-        <v>5</v>
-      </c>
-      <c r="AW76">
-        <v>3</v>
-      </c>
-      <c r="AX76">
-        <v>3</v>
-      </c>
-      <c r="AY76">
-        <v>7</v>
-      </c>
-      <c r="AZ76">
-        <v>8</v>
-      </c>
-      <c r="BA76">
-        <v>2</v>
-      </c>
-      <c r="BB76">
-        <v>4</v>
-      </c>
-      <c r="BC76">
-        <v>6</v>
-      </c>
-      <c r="BD76">
-        <v>2.37</v>
-      </c>
-      <c r="BE76">
-        <v>7.5</v>
-      </c>
-      <c r="BF76">
-        <v>1.87</v>
-      </c>
-      <c r="BG76">
-        <v>1.18</v>
-      </c>
       <c r="BH76">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="BI76">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BJ76">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="BK76">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="BL76">
-        <v>2.22</v>
+        <v>2.19</v>
       </c>
       <c r="BM76">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="BN76">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="BO76">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
       <c r="BP76">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16869,7 +16875,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17075,7 +17081,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17232,6 +17238,418 @@
       </c>
       <c r="BP79">
         <v>1.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7465472</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45565.625</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>89</v>
+      </c>
+      <c r="H80" t="s">
+        <v>86</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>93</v>
+      </c>
+      <c r="P80" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q80">
+        <v>2.75</v>
+      </c>
+      <c r="R80">
+        <v>2.5</v>
+      </c>
+      <c r="S80">
+        <v>3.1</v>
+      </c>
+      <c r="T80">
+        <v>1.22</v>
+      </c>
+      <c r="U80">
+        <v>4</v>
+      </c>
+      <c r="V80">
+        <v>2.1</v>
+      </c>
+      <c r="W80">
+        <v>1.67</v>
+      </c>
+      <c r="X80">
+        <v>4.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.18</v>
+      </c>
+      <c r="Z80">
+        <v>2.3</v>
+      </c>
+      <c r="AA80">
+        <v>3.8</v>
+      </c>
+      <c r="AB80">
+        <v>2.75</v>
+      </c>
+      <c r="AC80">
+        <v>1.01</v>
+      </c>
+      <c r="AD80">
+        <v>24</v>
+      </c>
+      <c r="AE80">
+        <v>1.12</v>
+      </c>
+      <c r="AF80">
+        <v>6</v>
+      </c>
+      <c r="AG80">
+        <v>1.44</v>
+      </c>
+      <c r="AH80">
+        <v>2.7</v>
+      </c>
+      <c r="AI80">
+        <v>1.4</v>
+      </c>
+      <c r="AJ80">
+        <v>2.75</v>
+      </c>
+      <c r="AK80">
+        <v>1.47</v>
+      </c>
+      <c r="AL80">
+        <v>1.2</v>
+      </c>
+      <c r="AM80">
+        <v>1.6</v>
+      </c>
+      <c r="AN80">
+        <v>0.33</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80">
+        <v>0.25</v>
+      </c>
+      <c r="AQ80">
+        <v>1.4</v>
+      </c>
+      <c r="AR80">
+        <v>1.68</v>
+      </c>
+      <c r="AS80">
+        <v>1.54</v>
+      </c>
+      <c r="AT80">
+        <v>3.22</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80">
+        <v>2</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>7</v>
+      </c>
+      <c r="AZ80">
+        <v>9</v>
+      </c>
+      <c r="BA80">
+        <v>2</v>
+      </c>
+      <c r="BB80">
+        <v>6</v>
+      </c>
+      <c r="BC80">
+        <v>8</v>
+      </c>
+      <c r="BD80">
+        <v>1.9</v>
+      </c>
+      <c r="BE80">
+        <v>6.75</v>
+      </c>
+      <c r="BF80">
+        <v>2.32</v>
+      </c>
+      <c r="BG80">
+        <v>1.13</v>
+      </c>
+      <c r="BH80">
+        <v>4.8</v>
+      </c>
+      <c r="BI80">
+        <v>1.22</v>
+      </c>
+      <c r="BJ80">
+        <v>4</v>
+      </c>
+      <c r="BK80">
+        <v>1.34</v>
+      </c>
+      <c r="BL80">
+        <v>3</v>
+      </c>
+      <c r="BM80">
+        <v>1.7</v>
+      </c>
+      <c r="BN80">
+        <v>2.11</v>
+      </c>
+      <c r="BO80">
+        <v>2.1</v>
+      </c>
+      <c r="BP80">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7465473</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45565.625</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>72</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>143</v>
+      </c>
+      <c r="P81" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q81">
+        <v>2.88</v>
+      </c>
+      <c r="R81">
+        <v>2.4</v>
+      </c>
+      <c r="S81">
+        <v>3.2</v>
+      </c>
+      <c r="T81">
+        <v>1.29</v>
+      </c>
+      <c r="U81">
+        <v>3.5</v>
+      </c>
+      <c r="V81">
+        <v>2.25</v>
+      </c>
+      <c r="W81">
+        <v>1.57</v>
+      </c>
+      <c r="X81">
+        <v>5.5</v>
+      </c>
+      <c r="Y81">
+        <v>1.14</v>
+      </c>
+      <c r="Z81">
+        <v>2.3</v>
+      </c>
+      <c r="AA81">
+        <v>3.75</v>
+      </c>
+      <c r="AB81">
+        <v>2.75</v>
+      </c>
+      <c r="AC81">
+        <v>1.01</v>
+      </c>
+      <c r="AD81">
+        <v>15</v>
+      </c>
+      <c r="AE81">
+        <v>1.17</v>
+      </c>
+      <c r="AF81">
+        <v>5</v>
+      </c>
+      <c r="AG81">
+        <v>1.53</v>
+      </c>
+      <c r="AH81">
+        <v>2.4</v>
+      </c>
+      <c r="AI81">
+        <v>1.5</v>
+      </c>
+      <c r="AJ81">
+        <v>2.5</v>
+      </c>
+      <c r="AK81">
+        <v>1.45</v>
+      </c>
+      <c r="AL81">
+        <v>1.22</v>
+      </c>
+      <c r="AM81">
+        <v>1.6</v>
+      </c>
+      <c r="AN81">
+        <v>0.67</v>
+      </c>
+      <c r="AO81">
+        <v>2.33</v>
+      </c>
+      <c r="AP81">
+        <v>0.5</v>
+      </c>
+      <c r="AQ81">
+        <v>2.5</v>
+      </c>
+      <c r="AR81">
+        <v>1.73</v>
+      </c>
+      <c r="AS81">
+        <v>1.01</v>
+      </c>
+      <c r="AT81">
+        <v>2.74</v>
+      </c>
+      <c r="AU81">
+        <v>5</v>
+      </c>
+      <c r="AV81">
+        <v>13</v>
+      </c>
+      <c r="AW81">
+        <v>1</v>
+      </c>
+      <c r="AX81">
+        <v>3</v>
+      </c>
+      <c r="AY81">
+        <v>6</v>
+      </c>
+      <c r="AZ81">
+        <v>16</v>
+      </c>
+      <c r="BA81">
+        <v>5</v>
+      </c>
+      <c r="BB81">
+        <v>7</v>
+      </c>
+      <c r="BC81">
+        <v>12</v>
+      </c>
+      <c r="BD81">
+        <v>1.93</v>
+      </c>
+      <c r="BE81">
+        <v>6.55</v>
+      </c>
+      <c r="BF81">
+        <v>2.3</v>
+      </c>
+      <c r="BG81">
+        <v>1.19</v>
+      </c>
+      <c r="BH81">
+        <v>4.5</v>
+      </c>
+      <c r="BI81">
+        <v>1.31</v>
+      </c>
+      <c r="BJ81">
+        <v>2.82</v>
+      </c>
+      <c r="BK81">
+        <v>1.67</v>
+      </c>
+      <c r="BL81">
+        <v>2.18</v>
+      </c>
+      <c r="BM81">
+        <v>2.07</v>
+      </c>
+      <c r="BN81">
+        <v>1.74</v>
+      </c>
+      <c r="BO81">
+        <v>2.56</v>
+      </c>
+      <c r="BP81">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -382,13 +382,19 @@
     <t>['13', '90+3']</t>
   </si>
   <si>
+    <t>['68', '90+1']</t>
+  </si>
+  <si>
+    <t>['30', '42', '76']</t>
+  </si>
+  <si>
     <t>['15', '46']</t>
   </si>
   <si>
-    <t>['30', '42', '76']</t>
-  </si>
-  <si>
-    <t>['68', '90+1']</t>
+    <t>['6', '17', '22', '85']</t>
+  </si>
+  <si>
+    <t>['30', '51', '69']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -397,16 +403,13 @@
     <t>['23', '88']</t>
   </si>
   <si>
-    <t>['30', '51', '69']</t>
-  </si>
-  <si>
-    <t>['6', '17', '22', '85']</t>
+    <t>['22', '40']</t>
   </si>
   <si>
     <t>['45']</t>
   </si>
   <si>
-    <t>['22', '40']</t>
+    <t>['7', '73']</t>
   </si>
   <si>
     <t>['18']</t>
@@ -415,9 +418,6 @@
     <t>['71', '85']</t>
   </si>
   <si>
-    <t>['7', '73']</t>
-  </si>
-  <si>
     <t>['31', '62']</t>
   </si>
   <si>
@@ -427,15 +427,15 @@
     <t>['70', '72']</t>
   </si>
   <si>
+    <t>['78', '89']</t>
+  </si>
+  <si>
+    <t>['85', '87']</t>
+  </si>
+  <si>
     <t>['19', '65', '76', '90+4']</t>
   </si>
   <si>
-    <t>['78', '89']</t>
-  </si>
-  <si>
-    <t>['85', '87']</t>
-  </si>
-  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -538,13 +538,16 @@
     <t>['42', '62']</t>
   </si>
   <si>
+    <t>['12', '27', '83']</t>
+  </si>
+  <si>
+    <t>['68', '89']</t>
+  </si>
+  <si>
     <t>['11', '61', '90+2']</t>
   </si>
   <si>
-    <t>['68', '89']</t>
-  </si>
-  <si>
-    <t>['12', '27', '83']</t>
+    <t>['44', '60', '90']</t>
   </si>
   <si>
     <t>['12', '29', '51']</t>
@@ -553,21 +556,18 @@
     <t>['48', '60']</t>
   </si>
   <si>
-    <t>['44', '60', '90']</t>
-  </si>
-  <si>
     <t>['55', '58']</t>
   </si>
   <si>
+    <t>['23', '90+1']</t>
+  </si>
+  <si>
+    <t>['21', '51', '90+2']</t>
+  </si>
+  <si>
     <t>['51', '69']</t>
   </si>
   <si>
-    <t>['21', '51', '90+2']</t>
-  </si>
-  <si>
-    <t>['23', '90+1']</t>
-  </si>
-  <si>
     <t>['20', '34']</t>
   </si>
   <si>
@@ -580,13 +580,13 @@
     <t>['30', '53', '72', '82']</t>
   </si>
   <si>
+    <t>['33', '39', '58', '90+6']</t>
+  </si>
+  <si>
+    <t>['14', '82']</t>
+  </si>
+  <si>
     <t>['6', '11']</t>
-  </si>
-  <si>
-    <t>['33', '39', '58', '90+6']</t>
-  </si>
-  <si>
-    <t>['14', '82']</t>
   </si>
   <si>
     <t>['30']</t>
@@ -6575,7 +6575,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q28">
         <v>3.03</v>
@@ -11065,7 +11065,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7465441</v>
+        <v>7465437</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11080,190 +11080,190 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50">
         <v>3</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O50" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="P50" t="s">
         <v>174</v>
       </c>
       <c r="Q50">
-        <v>2.77</v>
+        <v>2.1</v>
       </c>
       <c r="R50">
         <v>2.45</v>
       </c>
       <c r="S50">
-        <v>3.42</v>
+        <v>4.1</v>
       </c>
       <c r="T50">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="U50">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="V50">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="W50">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="X50">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y50">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z50">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AA50">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="AB50">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="AC50">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD50">
         <v>12</v>
       </c>
       <c r="AE50">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AF50">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="AG50">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="AH50">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AI50">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AJ50">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="AK50">
-        <v>1.39</v>
+        <v>1.11</v>
       </c>
       <c r="AL50">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AM50">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="AN50">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO50">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="AR50">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AS50">
-        <v>1.65</v>
+        <v>0.76</v>
       </c>
       <c r="AT50">
-        <v>3.44</v>
+        <v>2.34</v>
       </c>
       <c r="AU50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV50">
         <v>8</v>
       </c>
       <c r="AW50">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX50">
         <v>2</v>
       </c>
       <c r="AY50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ50">
         <v>10</v>
       </c>
       <c r="BA50">
+        <v>4</v>
+      </c>
+      <c r="BB50">
+        <v>2</v>
+      </c>
+      <c r="BC50">
         <v>6</v>
       </c>
-      <c r="BB50">
-        <v>4</v>
-      </c>
-      <c r="BC50">
-        <v>10</v>
-      </c>
       <c r="BD50">
-        <v>1.8</v>
+        <v>1.46</v>
       </c>
       <c r="BE50">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="BF50">
-        <v>2.25</v>
+        <v>3.22</v>
       </c>
       <c r="BG50">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH50">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="BI50">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BJ50">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="BK50">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="BL50">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BM50">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="BN50">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="BO50">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="BP50">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11271,7 +11271,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7465439</v>
+        <v>7465438</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11286,163 +11286,163 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="Q51">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="R51">
         <v>2.5</v>
       </c>
       <c r="S51">
-        <v>2.52</v>
+        <v>4.5</v>
       </c>
       <c r="T51">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="U51">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="V51">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="W51">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X51">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="Y51">
         <v>1.14</v>
       </c>
       <c r="Z51">
-        <v>3.46</v>
+        <v>1.67</v>
       </c>
       <c r="AA51">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="AB51">
-        <v>1.92</v>
+        <v>4.5</v>
       </c>
       <c r="AC51">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD51">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE51">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AF51">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AG51">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AH51">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AI51">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AJ51">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="AK51">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="AL51">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AM51">
-        <v>1.28</v>
+        <v>2.1</v>
       </c>
       <c r="AN51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
-        <v>2.41</v>
+        <v>1.64</v>
       </c>
       <c r="AS51">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="AT51">
-        <v>3.53</v>
+        <v>3.21</v>
       </c>
       <c r="AU51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW51">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY51">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ51">
         <v>10</v>
       </c>
       <c r="BA51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB51">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC51">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD51">
-        <v>2.44</v>
+        <v>1.65</v>
       </c>
       <c r="BE51">
         <v>8.699999999999999</v>
       </c>
       <c r="BF51">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="BG51">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH51">
         <v>4.5</v>
@@ -11454,16 +11454,16 @@
         <v>2.93</v>
       </c>
       <c r="BK51">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="BL51">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="BM51">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="BN51">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="BO51">
         <v>2.57</v>
@@ -11477,7 +11477,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7465438</v>
+        <v>7465441</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11492,190 +11492,190 @@
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
         <v>3</v>
       </c>
-      <c r="M52">
-        <v>2</v>
-      </c>
       <c r="N52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O52" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q52">
-        <v>2.25</v>
+        <v>2.77</v>
       </c>
       <c r="R52">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S52">
-        <v>4.5</v>
+        <v>3.42</v>
       </c>
       <c r="T52">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U52">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="V52">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="W52">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X52">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Y52">
         <v>1.14</v>
       </c>
       <c r="Z52">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AA52">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="AB52">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="AC52">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE52">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AF52">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="AG52">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="AH52">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AI52">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AJ52">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="AK52">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AL52">
+        <v>1.26</v>
+      </c>
+      <c r="AM52">
+        <v>1.62</v>
+      </c>
+      <c r="AN52">
+        <v>0.5</v>
+      </c>
+      <c r="AO52">
+        <v>0.5</v>
+      </c>
+      <c r="AP52">
+        <v>0.5</v>
+      </c>
+      <c r="AQ52">
         <v>1.2</v>
       </c>
-      <c r="AM52">
-        <v>2.1</v>
-      </c>
-      <c r="AN52">
-        <v>3</v>
-      </c>
-      <c r="AO52">
-        <v>3</v>
-      </c>
-      <c r="AP52">
-        <v>3</v>
-      </c>
-      <c r="AQ52">
-        <v>1.75</v>
-      </c>
       <c r="AR52">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="AS52">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AT52">
-        <v>3.21</v>
+        <v>3.44</v>
       </c>
       <c r="AU52">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV52">
         <v>8</v>
       </c>
       <c r="AW52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX52">
         <v>2</v>
       </c>
       <c r="AY52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ52">
         <v>10</v>
       </c>
       <c r="BA52">
+        <v>6</v>
+      </c>
+      <c r="BB52">
         <v>4</v>
       </c>
-      <c r="BB52">
-        <v>7</v>
-      </c>
       <c r="BC52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD52">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BE52">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="BF52">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="BG52">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BH52">
         <v>4.5</v>
       </c>
       <c r="BI52">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="BJ52">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="BK52">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="BL52">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="BM52">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="BN52">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="BO52">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="BP52">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -11683,7 +11683,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7465437</v>
+        <v>7465439</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11698,190 +11698,190 @@
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L53">
         <v>2</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O53" t="s">
         <v>124</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="Q53">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="R53">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S53">
-        <v>4.1</v>
+        <v>2.52</v>
       </c>
       <c r="T53">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U53">
-        <v>3.2</v>
+        <v>3.54</v>
       </c>
       <c r="V53">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="W53">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="X53">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y53">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z53">
-        <v>1.6</v>
+        <v>3.46</v>
       </c>
       <c r="AA53">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AB53">
-        <v>4.8</v>
+        <v>1.92</v>
       </c>
       <c r="AC53">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD53">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE53">
         <v>1.14</v>
       </c>
       <c r="AF53">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AG53">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AH53">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AI53">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AJ53">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="AK53">
-        <v>1.11</v>
+        <v>1.83</v>
       </c>
       <c r="AL53">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AM53">
-        <v>2.25</v>
+        <v>1.28</v>
       </c>
       <c r="AN53">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ53">
-        <v>2.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR53">
-        <v>1.58</v>
+        <v>2.41</v>
       </c>
       <c r="AS53">
-        <v>0.76</v>
+        <v>1.12</v>
       </c>
       <c r="AT53">
-        <v>2.34</v>
+        <v>3.53</v>
       </c>
       <c r="AU53">
+        <v>7</v>
+      </c>
+      <c r="AV53">
         <v>5</v>
       </c>
-      <c r="AV53">
-        <v>8</v>
-      </c>
       <c r="AW53">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ53">
         <v>10</v>
       </c>
       <c r="BA53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB53">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BC53">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD53">
-        <v>1.46</v>
+        <v>2.44</v>
       </c>
       <c r="BE53">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF53">
-        <v>3.22</v>
+        <v>1.72</v>
       </c>
       <c r="BG53">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH53">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="BI53">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="BJ53">
-        <v>2.79</v>
+        <v>2.93</v>
       </c>
       <c r="BK53">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="BL53">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="BM53">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="BN53">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="BO53">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="BP53">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -12095,7 +12095,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7465452</v>
+        <v>7465447</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12110,190 +12110,190 @@
         <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>125</v>
+      </c>
+      <c r="P55" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q55">
+        <v>1.98</v>
+      </c>
+      <c r="R55">
+        <v>2.55</v>
+      </c>
+      <c r="S55">
+        <v>4.9</v>
+      </c>
+      <c r="T55">
+        <v>1.22</v>
+      </c>
+      <c r="U55">
+        <v>3.85</v>
+      </c>
+      <c r="V55">
+        <v>2.25</v>
+      </c>
+      <c r="W55">
+        <v>1.57</v>
+      </c>
+      <c r="X55">
+        <v>4.75</v>
+      </c>
+      <c r="Y55">
+        <v>1.15</v>
+      </c>
+      <c r="Z55">
+        <v>1.65</v>
+      </c>
+      <c r="AA55">
+        <v>4.17</v>
+      </c>
+      <c r="AB55">
+        <v>4.7</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>13.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.17</v>
+      </c>
+      <c r="AF55">
+        <v>5.01</v>
+      </c>
+      <c r="AG55">
+        <v>1.55</v>
+      </c>
+      <c r="AH55">
+        <v>2.25</v>
+      </c>
+      <c r="AI55">
+        <v>1.61</v>
+      </c>
+      <c r="AJ55">
+        <v>2.17</v>
+      </c>
+      <c r="AK55">
+        <v>1.14</v>
+      </c>
+      <c r="AL55">
+        <v>1.19</v>
+      </c>
+      <c r="AM55">
+        <v>2.41</v>
+      </c>
+      <c r="AN55">
         <v>3</v>
       </c>
-      <c r="N55">
+      <c r="AO55">
+        <v>0.5</v>
+      </c>
+      <c r="AP55">
         <v>3</v>
       </c>
-      <c r="O55" t="s">
-        <v>93</v>
-      </c>
-      <c r="P55" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q55">
-        <v>2.88</v>
-      </c>
-      <c r="R55">
-        <v>2.2</v>
-      </c>
-      <c r="S55">
-        <v>3.3</v>
-      </c>
-      <c r="T55">
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>1.7</v>
+      </c>
+      <c r="AS55">
         <v>1.33</v>
       </c>
-      <c r="U55">
-        <v>3.15</v>
-      </c>
-      <c r="V55">
-        <v>2.57</v>
-      </c>
-      <c r="W55">
+      <c r="AT55">
+        <v>3.03</v>
+      </c>
+      <c r="AU55">
+        <v>10</v>
+      </c>
+      <c r="AV55">
+        <v>4</v>
+      </c>
+      <c r="AW55">
+        <v>3</v>
+      </c>
+      <c r="AX55">
+        <v>1</v>
+      </c>
+      <c r="AY55">
+        <v>13</v>
+      </c>
+      <c r="AZ55">
+        <v>5</v>
+      </c>
+      <c r="BA55">
+        <v>5</v>
+      </c>
+      <c r="BB55">
+        <v>2</v>
+      </c>
+      <c r="BC55">
+        <v>7</v>
+      </c>
+      <c r="BD55">
+        <v>1.36</v>
+      </c>
+      <c r="BE55">
+        <v>7.4</v>
+      </c>
+      <c r="BF55">
+        <v>4.25</v>
+      </c>
+      <c r="BG55">
+        <v>1.24</v>
+      </c>
+      <c r="BH55">
+        <v>3.48</v>
+      </c>
+      <c r="BI55">
         <v>1.5</v>
       </c>
-      <c r="X55">
-        <v>6</v>
-      </c>
-      <c r="Y55">
-        <v>1.11</v>
-      </c>
-      <c r="Z55">
-        <v>2.42</v>
-      </c>
-      <c r="AA55">
-        <v>3.5</v>
-      </c>
-      <c r="AB55">
-        <v>2.81</v>
-      </c>
-      <c r="AC55">
-        <v>1.04</v>
-      </c>
-      <c r="AD55">
-        <v>11</v>
-      </c>
-      <c r="AE55">
-        <v>1.22</v>
-      </c>
-      <c r="AF55">
-        <v>4.2</v>
-      </c>
-      <c r="AG55">
-        <v>1.7</v>
-      </c>
-      <c r="AH55">
-        <v>2</v>
-      </c>
-      <c r="AI55">
-        <v>1.57</v>
-      </c>
-      <c r="AJ55">
-        <v>2.38</v>
-      </c>
-      <c r="AK55">
-        <v>1.5</v>
-      </c>
-      <c r="AL55">
+      <c r="BJ55">
+        <v>2.53</v>
+      </c>
+      <c r="BK55">
+        <v>1.85</v>
+      </c>
+      <c r="BL55">
+        <v>1.95</v>
+      </c>
+      <c r="BM55">
+        <v>2.34</v>
+      </c>
+      <c r="BN55">
+        <v>1.58</v>
+      </c>
+      <c r="BO55">
+        <v>3.08</v>
+      </c>
+      <c r="BP55">
         <v>1.3</v>
-      </c>
-      <c r="AM55">
-        <v>1.51</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <v>1.5</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <v>1.75</v>
-      </c>
-      <c r="AR55">
-        <v>1.06</v>
-      </c>
-      <c r="AS55">
-        <v>1.59</v>
-      </c>
-      <c r="AT55">
-        <v>2.65</v>
-      </c>
-      <c r="AU55">
-        <v>8</v>
-      </c>
-      <c r="AV55">
-        <v>6</v>
-      </c>
-      <c r="AW55">
-        <v>8</v>
-      </c>
-      <c r="AX55">
-        <v>4</v>
-      </c>
-      <c r="AY55">
-        <v>16</v>
-      </c>
-      <c r="AZ55">
-        <v>10</v>
-      </c>
-      <c r="BA55">
-        <v>4</v>
-      </c>
-      <c r="BB55">
-        <v>9</v>
-      </c>
-      <c r="BC55">
-        <v>13</v>
-      </c>
-      <c r="BD55">
-        <v>2.28</v>
-      </c>
-      <c r="BE55">
-        <v>6.45</v>
-      </c>
-      <c r="BF55">
-        <v>1.95</v>
-      </c>
-      <c r="BG55">
-        <v>1.19</v>
-      </c>
-      <c r="BH55">
-        <v>3.98</v>
-      </c>
-      <c r="BI55">
-        <v>1.38</v>
-      </c>
-      <c r="BJ55">
-        <v>2.71</v>
-      </c>
-      <c r="BK55">
-        <v>1.68</v>
-      </c>
-      <c r="BL55">
-        <v>2.06</v>
-      </c>
-      <c r="BM55">
-        <v>2.1</v>
-      </c>
-      <c r="BN55">
-        <v>1.62</v>
-      </c>
-      <c r="BO55">
-        <v>2.78</v>
-      </c>
-      <c r="BP55">
-        <v>1.36</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12301,7 +12301,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7465450</v>
+        <v>7465448</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12316,190 +12316,190 @@
         <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="Q56">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R56">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S56">
-        <v>4.79</v>
+        <v>4</v>
       </c>
       <c r="T56">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="U56">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="V56">
-        <v>2.71</v>
+        <v>2.25</v>
       </c>
       <c r="W56">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="X56">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="Y56">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z56">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="AA56">
-        <v>3.67</v>
+        <v>3.93</v>
       </c>
       <c r="AB56">
-        <v>3.56</v>
+        <v>3.6</v>
       </c>
       <c r="AC56">
         <v>1.01</v>
       </c>
       <c r="AD56">
-        <v>9.9</v>
+        <v>14</v>
       </c>
       <c r="AE56">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AF56">
-        <v>3.56</v>
+        <v>4.78</v>
       </c>
       <c r="AG56">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AH56">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="AI56">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="AJ56">
-        <v>2.03</v>
+        <v>2.55</v>
       </c>
       <c r="AK56">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AL56">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AM56">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="AN56">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AO56">
+        <v>3</v>
+      </c>
+      <c r="AP56">
         <v>0.5</v>
       </c>
-      <c r="AP56">
+      <c r="AQ56">
         <v>1.75</v>
       </c>
-      <c r="AQ56">
-        <v>0.5</v>
-      </c>
       <c r="AR56">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="AS56">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AT56">
-        <v>2.41</v>
+        <v>3.01</v>
       </c>
       <c r="AU56">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV56">
+        <v>11</v>
+      </c>
+      <c r="AW56">
+        <v>8</v>
+      </c>
+      <c r="AX56">
         <v>4</v>
       </c>
-      <c r="AW56">
-        <v>2</v>
-      </c>
-      <c r="AX56">
-        <v>1</v>
-      </c>
       <c r="AY56">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ56">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BA56">
         <v>11</v>
       </c>
       <c r="BB56">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC56">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD56">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="BE56">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="BF56">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="BG56">
         <v>1.2</v>
       </c>
       <c r="BH56">
-        <v>3.86</v>
+        <v>4</v>
       </c>
       <c r="BI56">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="BJ56">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="BK56">
+        <v>1.66</v>
+      </c>
+      <c r="BL56">
+        <v>2.19</v>
+      </c>
+      <c r="BM56">
+        <v>2.07</v>
+      </c>
+      <c r="BN56">
         <v>1.75</v>
       </c>
-      <c r="BL56">
-        <v>2.06</v>
-      </c>
-      <c r="BM56">
-        <v>2.2</v>
-      </c>
-      <c r="BN56">
-        <v>1.66</v>
-      </c>
       <c r="BO56">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="BP56">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12507,7 +12507,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7465453</v>
+        <v>7465450</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12522,190 +12522,190 @@
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="Q57">
-        <v>3.63</v>
+        <v>2.34</v>
       </c>
       <c r="R57">
-        <v>2.66</v>
+        <v>2.35</v>
       </c>
       <c r="S57">
-        <v>2.44</v>
+        <v>4.79</v>
       </c>
       <c r="T57">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="U57">
-        <v>4</v>
+        <v>3.21</v>
       </c>
       <c r="V57">
-        <v>2.06</v>
+        <v>2.71</v>
       </c>
       <c r="W57">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
       <c r="X57">
-        <v>4.25</v>
+        <v>5.8</v>
       </c>
       <c r="Y57">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="Z57">
-        <v>3.3</v>
+        <v>1.99</v>
       </c>
       <c r="AA57">
-        <v>3.98</v>
+        <v>3.67</v>
       </c>
       <c r="AB57">
-        <v>2</v>
+        <v>3.56</v>
       </c>
       <c r="AC57">
         <v>1.01</v>
       </c>
       <c r="AD57">
-        <v>27</v>
+        <v>9.9</v>
       </c>
       <c r="AE57">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AF57">
-        <v>5.8</v>
+        <v>3.56</v>
       </c>
       <c r="AG57">
-        <v>1.36</v>
+        <v>1.87</v>
       </c>
       <c r="AH57">
-        <v>2.79</v>
+        <v>1.95</v>
       </c>
       <c r="AI57">
-        <v>1.35</v>
+        <v>1.77</v>
       </c>
       <c r="AJ57">
-        <v>2.9</v>
+        <v>2.03</v>
       </c>
       <c r="AK57">
-        <v>1.8</v>
+        <v>1.23</v>
       </c>
       <c r="AL57">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AM57">
-        <v>1.27</v>
+        <v>2.04</v>
       </c>
       <c r="AN57">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AO57">
         <v>0.5</v>
       </c>
       <c r="AP57">
+        <v>1.75</v>
+      </c>
+      <c r="AQ57">
         <v>0.5</v>
       </c>
-      <c r="AQ57">
-        <v>0.67</v>
-      </c>
       <c r="AR57">
-        <v>1.91</v>
+        <v>1.47</v>
       </c>
       <c r="AS57">
-        <v>1.37</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT57">
-        <v>3.28</v>
+        <v>2.41</v>
       </c>
       <c r="AU57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV57">
         <v>4</v>
       </c>
       <c r="AW57">
+        <v>2</v>
+      </c>
+      <c r="AX57">
+        <v>1</v>
+      </c>
+      <c r="AY57">
         <v>8</v>
       </c>
-      <c r="AX57">
-        <v>8</v>
-      </c>
-      <c r="AY57">
-        <v>12</v>
-      </c>
       <c r="AZ57">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BA57">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BB57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC57">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BD57">
-        <v>2.57</v>
+        <v>1.55</v>
       </c>
       <c r="BE57">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="BF57">
-        <v>1.66</v>
+        <v>2.88</v>
       </c>
       <c r="BG57">
         <v>1.2</v>
       </c>
       <c r="BH57">
-        <v>4</v>
+        <v>3.86</v>
       </c>
       <c r="BI57">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="BJ57">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="BK57">
+        <v>1.75</v>
+      </c>
+      <c r="BL57">
+        <v>2.06</v>
+      </c>
+      <c r="BM57">
+        <v>2.2</v>
+      </c>
+      <c r="BN57">
         <v>1.66</v>
       </c>
-      <c r="BL57">
-        <v>2.17</v>
-      </c>
-      <c r="BM57">
-        <v>2.06</v>
-      </c>
-      <c r="BN57">
-        <v>1.74</v>
-      </c>
       <c r="BO57">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="BP57">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12713,7 +12713,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7465448</v>
+        <v>7465452</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12728,130 +12728,130 @@
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58">
         <v>2</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>3</v>
       </c>
       <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q58">
+        <v>2.88</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>3.3</v>
+      </c>
+      <c r="T58">
+        <v>1.33</v>
+      </c>
+      <c r="U58">
+        <v>3.15</v>
+      </c>
+      <c r="V58">
+        <v>2.57</v>
+      </c>
+      <c r="W58">
+        <v>1.5</v>
+      </c>
+      <c r="X58">
         <v>6</v>
-      </c>
-      <c r="O58" t="s">
-        <v>127</v>
-      </c>
-      <c r="P58" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q58">
-        <v>2.3</v>
-      </c>
-      <c r="R58">
-        <v>2.3</v>
-      </c>
-      <c r="S58">
-        <v>4</v>
-      </c>
-      <c r="T58">
-        <v>1.25</v>
-      </c>
-      <c r="U58">
-        <v>3.6</v>
-      </c>
-      <c r="V58">
-        <v>2.25</v>
-      </c>
-      <c r="W58">
-        <v>1.57</v>
-      </c>
-      <c r="X58">
-        <v>5.5</v>
       </c>
       <c r="Y58">
         <v>1.11</v>
       </c>
       <c r="Z58">
-        <v>1.9</v>
+        <v>2.42</v>
       </c>
       <c r="AA58">
-        <v>3.93</v>
+        <v>3.5</v>
       </c>
       <c r="AB58">
-        <v>3.6</v>
+        <v>2.81</v>
       </c>
       <c r="AC58">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD58">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE58">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AF58">
-        <v>4.78</v>
+        <v>4.2</v>
       </c>
       <c r="AG58">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AH58">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AI58">
+        <v>1.57</v>
+      </c>
+      <c r="AJ58">
+        <v>2.38</v>
+      </c>
+      <c r="AK58">
         <v>1.5</v>
       </c>
-      <c r="AJ58">
-        <v>2.55</v>
-      </c>
-      <c r="AK58">
-        <v>1.25</v>
-      </c>
       <c r="AL58">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AM58">
-        <v>1.9</v>
+        <v>1.51</v>
       </c>
       <c r="AN58">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO58">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AQ58">
         <v>1.75</v>
       </c>
       <c r="AR58">
-        <v>1.88</v>
+        <v>1.06</v>
       </c>
       <c r="AS58">
-        <v>1.13</v>
+        <v>1.59</v>
       </c>
       <c r="AT58">
-        <v>3.01</v>
+        <v>2.65</v>
       </c>
       <c r="AU58">
         <v>8</v>
       </c>
       <c r="AV58">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AW58">
         <v>8</v>
@@ -12863,55 +12863,55 @@
         <v>16</v>
       </c>
       <c r="AZ58">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA58">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BB58">
         <v>9</v>
       </c>
       <c r="BC58">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="BD58">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="BE58">
-        <v>6.8</v>
+        <v>6.45</v>
       </c>
       <c r="BF58">
-        <v>2.96</v>
+        <v>1.95</v>
       </c>
       <c r="BG58">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BH58">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="BI58">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="BJ58">
-        <v>2.88</v>
+        <v>2.71</v>
       </c>
       <c r="BK58">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="BL58">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="BM58">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="BN58">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="BO58">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="BP58">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12919,7 +12919,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7465447</v>
+        <v>7465453</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12934,25 +12934,25 @@
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N59">
         <v>4</v>
@@ -12961,163 +12961,163 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="Q59">
-        <v>1.98</v>
+        <v>3.63</v>
       </c>
       <c r="R59">
-        <v>2.55</v>
+        <v>2.66</v>
       </c>
       <c r="S59">
-        <v>4.9</v>
+        <v>2.44</v>
       </c>
       <c r="T59">
         <v>1.22</v>
       </c>
       <c r="U59">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="V59">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="W59">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="X59">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="Y59">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="Z59">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="AA59">
-        <v>4.17</v>
+        <v>3.98</v>
       </c>
       <c r="AB59">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="AC59">
         <v>1.01</v>
       </c>
       <c r="AD59">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="AE59">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AF59">
-        <v>5.01</v>
+        <v>5.8</v>
       </c>
       <c r="AG59">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AH59">
-        <v>2.25</v>
+        <v>2.79</v>
       </c>
       <c r="AI59">
-        <v>1.61</v>
+        <v>1.35</v>
       </c>
       <c r="AJ59">
-        <v>2.17</v>
+        <v>2.9</v>
       </c>
       <c r="AK59">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="AL59">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AM59">
-        <v>2.41</v>
+        <v>1.27</v>
       </c>
       <c r="AN59">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO59">
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR59">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AS59">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AT59">
-        <v>3.03</v>
+        <v>3.28</v>
       </c>
       <c r="AU59">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV59">
         <v>4</v>
       </c>
       <c r="AW59">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX59">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY59">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ59">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BA59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB59">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC59">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD59">
-        <v>1.36</v>
+        <v>2.57</v>
       </c>
       <c r="BE59">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF59">
-        <v>4.25</v>
+        <v>1.66</v>
       </c>
       <c r="BG59">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="BH59">
-        <v>3.48</v>
+        <v>4</v>
       </c>
       <c r="BI59">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="BJ59">
-        <v>2.53</v>
+        <v>2.88</v>
       </c>
       <c r="BK59">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="BL59">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="BM59">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="BN59">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="BO59">
-        <v>3.08</v>
+        <v>2.64</v>
       </c>
       <c r="BP59">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13125,7 +13125,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7465451</v>
+        <v>7465449</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13140,190 +13140,190 @@
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O60" t="s">
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="Q60">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="R60">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="S60">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T60">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U60">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="V60">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="W60">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X60">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="Y60">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="Z60">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="AA60">
-        <v>3.93</v>
+        <v>3.98</v>
       </c>
       <c r="AB60">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="AC60">
         <v>1.01</v>
       </c>
       <c r="AD60">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE60">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AF60">
-        <v>5.9</v>
+        <v>6.25</v>
       </c>
       <c r="AG60">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AH60">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="AI60">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AJ60">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="AK60">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AL60">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM60">
         <v>1.67</v>
       </c>
       <c r="AN60">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="AS60">
-        <v>1.06</v>
+        <v>1.64</v>
       </c>
       <c r="AT60">
-        <v>3.02</v>
+        <v>3.28</v>
       </c>
       <c r="AU60">
+        <v>8</v>
+      </c>
+      <c r="AV60">
         <v>5</v>
       </c>
-      <c r="AV60">
-        <v>10</v>
-      </c>
       <c r="AW60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX60">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY60">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ60">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="BA60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB60">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC60">
         <v>14</v>
       </c>
       <c r="BD60">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="BE60">
-        <v>6.7</v>
+        <v>6.75</v>
       </c>
       <c r="BF60">
-        <v>2.72</v>
+        <v>2.47</v>
       </c>
       <c r="BG60">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="BH60">
-        <v>4.25</v>
+        <v>4.7</v>
       </c>
       <c r="BI60">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="BJ60">
-        <v>2.79</v>
+        <v>3.2</v>
       </c>
       <c r="BK60">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="BL60">
-        <v>2.13</v>
+        <v>2.37</v>
       </c>
       <c r="BM60">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="BN60">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="BO60">
-        <v>2.71</v>
+        <v>2.3</v>
       </c>
       <c r="BP60">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13331,7 +13331,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7465449</v>
+        <v>7465451</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13346,190 +13346,190 @@
         <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O61" t="s">
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="Q61">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="R61">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="S61">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T61">
+        <v>1.22</v>
+      </c>
+      <c r="U61">
+        <v>3.8</v>
+      </c>
+      <c r="V61">
+        <v>2.04</v>
+      </c>
+      <c r="W61">
+        <v>1.78</v>
+      </c>
+      <c r="X61">
+        <v>4.1</v>
+      </c>
+      <c r="Y61">
         <v>1.2</v>
       </c>
-      <c r="U61">
-        <v>3.95</v>
-      </c>
-      <c r="V61">
-        <v>1.93</v>
-      </c>
-      <c r="W61">
-        <v>1.77</v>
-      </c>
-      <c r="X61">
-        <v>4.25</v>
-      </c>
-      <c r="Y61">
-        <v>1.19</v>
-      </c>
       <c r="Z61">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="AA61">
-        <v>3.98</v>
+        <v>3.93</v>
       </c>
       <c r="AB61">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="AC61">
         <v>1.01</v>
       </c>
       <c r="AD61">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE61">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AF61">
-        <v>6.25</v>
+        <v>5.9</v>
       </c>
       <c r="AG61">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AH61">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="AI61">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AJ61">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="AK61">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AL61">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM61">
         <v>1.67</v>
       </c>
       <c r="AN61">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AO61">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AQ61">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR61">
-        <v>1.64</v>
+        <v>1.96</v>
       </c>
       <c r="AS61">
-        <v>1.64</v>
+        <v>1.06</v>
       </c>
       <c r="AT61">
-        <v>3.28</v>
+        <v>3.02</v>
       </c>
       <c r="AU61">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV61">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AW61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX61">
+        <v>10</v>
+      </c>
+      <c r="AY61">
+        <v>7</v>
+      </c>
+      <c r="AZ61">
+        <v>20</v>
+      </c>
+      <c r="BA61">
         <v>4</v>
       </c>
-      <c r="AY61">
-        <v>13</v>
-      </c>
-      <c r="AZ61">
-        <v>9</v>
-      </c>
-      <c r="BA61">
-        <v>6</v>
-      </c>
       <c r="BB61">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC61">
         <v>14</v>
       </c>
       <c r="BD61">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="BE61">
-        <v>6.75</v>
+        <v>6.7</v>
       </c>
       <c r="BF61">
-        <v>2.47</v>
+        <v>2.72</v>
       </c>
       <c r="BG61">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="BH61">
-        <v>4.7</v>
+        <v>4.25</v>
       </c>
       <c r="BI61">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="BJ61">
-        <v>3.2</v>
+        <v>2.79</v>
       </c>
       <c r="BK61">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="BL61">
-        <v>2.37</v>
+        <v>2.13</v>
       </c>
       <c r="BM61">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="BN61">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="BO61">
-        <v>2.3</v>
+        <v>2.71</v>
       </c>
       <c r="BP61">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13537,7 +13537,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7465455</v>
+        <v>7465459</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13552,43 +13552,43 @@
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62">
         <v>2</v>
       </c>
       <c r="O62" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="Q62">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="R62">
         <v>2.4</v>
       </c>
       <c r="S62">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T62">
         <v>1.29</v>
@@ -13609,46 +13609,46 @@
         <v>1.14</v>
       </c>
       <c r="Z62">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AA62">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB62">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="AC62">
         <v>1.01</v>
       </c>
       <c r="AD62">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE62">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AF62">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AG62">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AH62">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AI62">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AJ62">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AK62">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AL62">
         <v>1.22</v>
       </c>
       <c r="AM62">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AN62">
         <v>1.33</v>
@@ -13657,85 +13657,85 @@
         <v>2</v>
       </c>
       <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="AQ62">
+        <v>2.25</v>
+      </c>
+      <c r="AR62">
+        <v>1.68</v>
+      </c>
+      <c r="AS62">
+        <v>1.83</v>
+      </c>
+      <c r="AT62">
+        <v>3.51</v>
+      </c>
+      <c r="AU62">
+        <v>11</v>
+      </c>
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
+        <v>2</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+      <c r="AY62">
+        <v>13</v>
+      </c>
+      <c r="AZ62">
+        <v>8</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>6</v>
+      </c>
+      <c r="BC62">
+        <v>9</v>
+      </c>
+      <c r="BD62">
+        <v>1.49</v>
+      </c>
+      <c r="BE62">
+        <v>7.1</v>
+      </c>
+      <c r="BF62">
+        <v>3.4</v>
+      </c>
+      <c r="BG62">
         <v>1.2</v>
       </c>
-      <c r="AQ62">
+      <c r="BH62">
+        <v>4.1</v>
+      </c>
+      <c r="BI62">
+        <v>1.31</v>
+      </c>
+      <c r="BJ62">
+        <v>2.82</v>
+      </c>
+      <c r="BK62">
+        <v>1.65</v>
+      </c>
+      <c r="BL62">
+        <v>2.2</v>
+      </c>
+      <c r="BM62">
+        <v>2.04</v>
+      </c>
+      <c r="BN62">
         <v>1.75</v>
       </c>
-      <c r="AR62">
-        <v>1.41</v>
-      </c>
-      <c r="AS62">
-        <v>1.59</v>
-      </c>
-      <c r="AT62">
-        <v>3</v>
-      </c>
-      <c r="AU62">
-        <v>6</v>
-      </c>
-      <c r="AV62">
-        <v>4</v>
-      </c>
-      <c r="AW62">
-        <v>6</v>
-      </c>
-      <c r="AX62">
-        <v>7</v>
-      </c>
-      <c r="AY62">
-        <v>12</v>
-      </c>
-      <c r="AZ62">
-        <v>11</v>
-      </c>
-      <c r="BA62">
-        <v>10</v>
-      </c>
-      <c r="BB62">
-        <v>4</v>
-      </c>
-      <c r="BC62">
-        <v>14</v>
-      </c>
-      <c r="BD62">
-        <v>1.61</v>
-      </c>
-      <c r="BE62">
-        <v>6.85</v>
-      </c>
-      <c r="BF62">
-        <v>2.95</v>
-      </c>
-      <c r="BG62">
-        <v>1.19</v>
-      </c>
-      <c r="BH62">
-        <v>4.2</v>
-      </c>
-      <c r="BI62">
-        <v>1.29</v>
-      </c>
-      <c r="BJ62">
-        <v>2.92</v>
-      </c>
-      <c r="BK62">
-        <v>1.63</v>
-      </c>
-      <c r="BL62">
-        <v>2.24</v>
-      </c>
-      <c r="BM62">
-        <v>2.01</v>
-      </c>
-      <c r="BN62">
-        <v>1.77</v>
-      </c>
       <c r="BO62">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="BP62">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13743,7 +13743,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7465456</v>
+        <v>7465458</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13758,43 +13758,43 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O63" t="s">
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R63">
         <v>2.5</v>
       </c>
       <c r="S63">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="T63">
         <v>1.25</v>
@@ -13815,133 +13815,133 @@
         <v>1.17</v>
       </c>
       <c r="Z63">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="AA63">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AB63">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="AC63">
         <v>1.01</v>
       </c>
       <c r="AD63">
-        <v>12</v>
+        <v>14.7</v>
       </c>
       <c r="AE63">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AF63">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="AG63">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AH63">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="AI63">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AJ63">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AK63">
-        <v>1.53</v>
+        <v>1.16</v>
       </c>
       <c r="AL63">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AM63">
-        <v>1.49</v>
+        <v>2.28</v>
       </c>
       <c r="AN63">
         <v>2.33</v>
       </c>
       <c r="AO63">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AR63">
-        <v>2.12</v>
+        <v>1.46</v>
       </c>
       <c r="AS63">
-        <v>2.04</v>
+        <v>1.45</v>
       </c>
       <c r="AT63">
-        <v>4.16</v>
+        <v>2.91</v>
       </c>
       <c r="AU63">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV63">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX63">
         <v>6</v>
       </c>
       <c r="AY63">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ63">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB63">
         <v>6</v>
       </c>
       <c r="BC63">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD63">
-        <v>2.17</v>
+        <v>1.63</v>
       </c>
       <c r="BE63">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="BF63">
-        <v>2.02</v>
+        <v>2.9</v>
       </c>
       <c r="BG63">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="BH63">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="BI63">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="BJ63">
-        <v>3.14</v>
+        <v>2.7</v>
       </c>
       <c r="BK63">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="BL63">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="BM63">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="BN63">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="BO63">
-        <v>2.39</v>
+        <v>2.65</v>
       </c>
       <c r="BP63">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13949,7 +13949,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7465457</v>
+        <v>7465456</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13964,88 +13964,88 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O64" t="s">
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="Q64">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="R64">
         <v>2.5</v>
       </c>
       <c r="S64">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="T64">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U64">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V64">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W64">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X64">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Y64">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Z64">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="AA64">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB64">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AC64">
         <v>1.01</v>
       </c>
       <c r="AD64">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE64">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AF64">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AG64">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AH64">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="AI64">
         <v>1.36</v>
@@ -14054,100 +14054,100 @@
         <v>3</v>
       </c>
       <c r="AK64">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AL64">
         <v>1.25</v>
       </c>
       <c r="AM64">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO64">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="AR64">
-        <v>1.48</v>
+        <v>2.12</v>
       </c>
       <c r="AS64">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="AT64">
-        <v>3.38</v>
+        <v>4.16</v>
       </c>
       <c r="AU64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV64">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AW64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX64">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AY64">
         <v>11</v>
       </c>
       <c r="AZ64">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="BA64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC64">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD64">
-        <v>2.35</v>
+        <v>2.17</v>
       </c>
       <c r="BE64">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="BF64">
+        <v>2.02</v>
+      </c>
+      <c r="BG64">
+        <v>1.16</v>
+      </c>
+      <c r="BH64">
+        <v>4.6</v>
+      </c>
+      <c r="BI64">
+        <v>1.25</v>
+      </c>
+      <c r="BJ64">
+        <v>3.14</v>
+      </c>
+      <c r="BK64">
+        <v>1.56</v>
+      </c>
+      <c r="BL64">
+        <v>2.38</v>
+      </c>
+      <c r="BM64">
+        <v>1.91</v>
+      </c>
+      <c r="BN64">
         <v>1.89</v>
       </c>
-      <c r="BG64">
-        <v>1.17</v>
-      </c>
-      <c r="BH64">
-        <v>4.4</v>
-      </c>
-      <c r="BI64">
-        <v>1.34</v>
-      </c>
-      <c r="BJ64">
-        <v>3</v>
-      </c>
-      <c r="BK64">
-        <v>1.57</v>
-      </c>
-      <c r="BL64">
-        <v>2.25</v>
-      </c>
-      <c r="BM64">
-        <v>1.93</v>
-      </c>
-      <c r="BN64">
-        <v>1.78</v>
-      </c>
       <c r="BO64">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="BP64">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14155,7 +14155,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7465458</v>
+        <v>7465455</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14170,10 +14170,10 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -14185,73 +14185,73 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O65" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="P65" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="Q65">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R65">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S65">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T65">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U65">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V65">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W65">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X65">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y65">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Z65">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AA65">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AB65">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="AC65">
         <v>1.01</v>
       </c>
       <c r="AD65">
-        <v>14.7</v>
+        <v>13</v>
       </c>
       <c r="AE65">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AF65">
-        <v>5.05</v>
+        <v>4.75</v>
       </c>
       <c r="AG65">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AH65">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AI65">
         <v>1.53</v>
@@ -14260,97 +14260,97 @@
         <v>2.38</v>
       </c>
       <c r="AK65">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AL65">
+        <v>1.22</v>
+      </c>
+      <c r="AM65">
+        <v>2</v>
+      </c>
+      <c r="AN65">
+        <v>1.33</v>
+      </c>
+      <c r="AO65">
+        <v>2</v>
+      </c>
+      <c r="AP65">
+        <v>1.2</v>
+      </c>
+      <c r="AQ65">
+        <v>1.75</v>
+      </c>
+      <c r="AR65">
+        <v>1.41</v>
+      </c>
+      <c r="AS65">
+        <v>1.59</v>
+      </c>
+      <c r="AT65">
+        <v>3</v>
+      </c>
+      <c r="AU65">
+        <v>6</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>6</v>
+      </c>
+      <c r="AX65">
+        <v>7</v>
+      </c>
+      <c r="AY65">
+        <v>12</v>
+      </c>
+      <c r="AZ65">
+        <v>11</v>
+      </c>
+      <c r="BA65">
+        <v>10</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>14</v>
+      </c>
+      <c r="BD65">
+        <v>1.61</v>
+      </c>
+      <c r="BE65">
+        <v>6.85</v>
+      </c>
+      <c r="BF65">
+        <v>2.95</v>
+      </c>
+      <c r="BG65">
         <v>1.19</v>
       </c>
-      <c r="AM65">
-        <v>2.28</v>
-      </c>
-      <c r="AN65">
-        <v>2.33</v>
-      </c>
-      <c r="AO65">
-        <v>0.33</v>
-      </c>
-      <c r="AP65">
-        <v>1.75</v>
-      </c>
-      <c r="AQ65">
-        <v>1</v>
-      </c>
-      <c r="AR65">
-        <v>1.46</v>
-      </c>
-      <c r="AS65">
-        <v>1.45</v>
-      </c>
-      <c r="AT65">
-        <v>2.91</v>
-      </c>
-      <c r="AU65">
-        <v>11</v>
-      </c>
-      <c r="AV65">
-        <v>8</v>
-      </c>
-      <c r="AW65">
-        <v>8</v>
-      </c>
-      <c r="AX65">
-        <v>6</v>
-      </c>
-      <c r="AY65">
-        <v>19</v>
-      </c>
-      <c r="AZ65">
-        <v>14</v>
-      </c>
-      <c r="BA65">
-        <v>5</v>
-      </c>
-      <c r="BB65">
-        <v>6</v>
-      </c>
-      <c r="BC65">
-        <v>11</v>
-      </c>
-      <c r="BD65">
+      <c r="BH65">
+        <v>4.2</v>
+      </c>
+      <c r="BI65">
+        <v>1.29</v>
+      </c>
+      <c r="BJ65">
+        <v>2.92</v>
+      </c>
+      <c r="BK65">
         <v>1.63</v>
       </c>
-      <c r="BE65">
-        <v>6.8</v>
-      </c>
-      <c r="BF65">
-        <v>2.9</v>
-      </c>
-      <c r="BG65">
-        <v>1.22</v>
-      </c>
-      <c r="BH65">
-        <v>3.9</v>
-      </c>
-      <c r="BI65">
-        <v>1.41</v>
-      </c>
-      <c r="BJ65">
-        <v>2.7</v>
-      </c>
-      <c r="BK65">
-        <v>1.68</v>
-      </c>
       <c r="BL65">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="BM65">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="BN65">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="BO65">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="BP65">
         <v>1.42</v>
@@ -14361,7 +14361,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7465459</v>
+        <v>7465457</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14376,31 +14376,31 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M66">
         <v>2</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O66" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="P66" t="s">
         <v>183</v>
@@ -14409,37 +14409,37 @@
         <v>2.6</v>
       </c>
       <c r="R66">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S66">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T66">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U66">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V66">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W66">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X66">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y66">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z66">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA66">
         <v>3.4</v>
       </c>
       <c r="AB66">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AC66">
         <v>1.01</v>
@@ -14454,112 +14454,112 @@
         <v>5.5</v>
       </c>
       <c r="AG66">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AH66">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AI66">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AJ66">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AK66">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AL66">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM66">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AN66">
+        <v>2</v>
+      </c>
+      <c r="AO66">
         <v>1.33</v>
       </c>
-      <c r="AO66">
-        <v>2</v>
-      </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="AR66">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="AS66">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AT66">
-        <v>3.51</v>
+        <v>3.38</v>
       </c>
       <c r="AU66">
+        <v>7</v>
+      </c>
+      <c r="AV66">
+        <v>10</v>
+      </c>
+      <c r="AW66">
+        <v>4</v>
+      </c>
+      <c r="AX66">
         <v>11</v>
       </c>
-      <c r="AV66">
-        <v>6</v>
-      </c>
-      <c r="AW66">
-        <v>2</v>
-      </c>
-      <c r="AX66">
-        <v>2</v>
-      </c>
       <c r="AY66">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ66">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="BA66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC66">
         <v>9</v>
       </c>
       <c r="BD66">
-        <v>1.49</v>
+        <v>2.35</v>
       </c>
       <c r="BE66">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="BF66">
-        <v>3.4</v>
+        <v>1.89</v>
       </c>
       <c r="BG66">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BH66">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BI66">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="BJ66">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="BK66">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="BL66">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="BM66">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="BN66">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="BO66">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="BP66">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -15597,7 +15597,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7465466</v>
+        <v>7465468</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15612,25 +15612,25 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>2</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
         <v>4</v>
-      </c>
-      <c r="M72">
-        <v>2</v>
       </c>
       <c r="N72">
         <v>6</v>
@@ -15642,160 +15642,160 @@
         <v>188</v>
       </c>
       <c r="Q72">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="R72">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S72">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="T72">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="U72">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="V72">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="W72">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="X72">
-        <v>4.3</v>
+        <v>5.25</v>
       </c>
       <c r="Y72">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="Z72">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="AA72">
-        <v>4.5</v>
+        <v>3.94</v>
       </c>
       <c r="AB72">
-        <v>6.5</v>
+        <v>4.15</v>
       </c>
       <c r="AC72">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD72">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE72">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AF72">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AG72">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AH72">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="AI72">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AJ72">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="AK72">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AL72">
+        <v>1.25</v>
+      </c>
+      <c r="AM72">
+        <v>2.05</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <v>0.33</v>
+      </c>
+      <c r="AP72">
+        <v>1.5</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>1.66</v>
+      </c>
+      <c r="AS72">
         <v>1.14</v>
       </c>
-      <c r="AM72">
+      <c r="AT72">
         <v>2.8</v>
       </c>
-      <c r="AN72">
-        <v>3</v>
-      </c>
-      <c r="AO72">
-        <v>1.33</v>
-      </c>
-      <c r="AP72">
-        <v>3</v>
-      </c>
-      <c r="AQ72">
-        <v>1</v>
-      </c>
-      <c r="AR72">
-        <v>1.75</v>
-      </c>
-      <c r="AS72">
-        <v>1.55</v>
-      </c>
-      <c r="AT72">
-        <v>3.3</v>
-      </c>
       <c r="AU72">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV72">
+        <v>4</v>
+      </c>
+      <c r="AW72">
+        <v>7</v>
+      </c>
+      <c r="AX72">
         <v>5</v>
       </c>
-      <c r="AW72">
-        <v>1</v>
-      </c>
-      <c r="AX72">
-        <v>0</v>
-      </c>
       <c r="AY72">
+        <v>11</v>
+      </c>
+      <c r="AZ72">
         <v>9</v>
-      </c>
-      <c r="AZ72">
-        <v>5</v>
       </c>
       <c r="BA72">
         <v>5</v>
       </c>
       <c r="BB72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC72">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD72">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BE72">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="BF72">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="BG72">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="BH72">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="BI72">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="BJ72">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="BK72">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BL72">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="BM72">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="BN72">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="BO72">
         <v>2.85</v>
       </c>
       <c r="BP72">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -15803,7 +15803,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7465467</v>
+        <v>7465469</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15812,94 +15812,94 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45562.625</v>
+        <v>45561.875</v>
       </c>
       <c r="F73">
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H73" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O73" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="Q73">
-        <v>2.95</v>
+        <v>2.3</v>
       </c>
       <c r="R73">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T73">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="U73">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V73">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="W73">
+        <v>1.6</v>
+      </c>
+      <c r="X73">
+        <v>5</v>
+      </c>
+      <c r="Y73">
+        <v>1.15</v>
+      </c>
+      <c r="Z73">
+        <v>1.83</v>
+      </c>
+      <c r="AA73">
+        <v>4.01</v>
+      </c>
+      <c r="AB73">
+        <v>3.8</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>13</v>
+      </c>
+      <c r="AE73">
+        <v>1.18</v>
+      </c>
+      <c r="AF73">
+        <v>4.75</v>
+      </c>
+      <c r="AG73">
         <v>1.55</v>
       </c>
-      <c r="X73">
-        <v>5.4</v>
-      </c>
-      <c r="Y73">
-        <v>1.13</v>
-      </c>
-      <c r="Z73">
-        <v>2.5</v>
-      </c>
-      <c r="AA73">
-        <v>3.6</v>
-      </c>
-      <c r="AB73">
-        <v>2.64</v>
-      </c>
-      <c r="AC73">
-        <v>1.04</v>
-      </c>
-      <c r="AD73">
-        <v>10</v>
-      </c>
-      <c r="AE73">
-        <v>1.2</v>
-      </c>
-      <c r="AF73">
-        <v>4.33</v>
-      </c>
-      <c r="AG73">
-        <v>1.6</v>
-      </c>
       <c r="AH73">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AI73">
         <v>1.48</v>
@@ -15908,100 +15908,100 @@
         <v>2.4</v>
       </c>
       <c r="AK73">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="AL73">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM73">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AN73">
         <v>1.33</v>
       </c>
       <c r="AO73">
-        <v>1.25</v>
+        <v>0.33</v>
       </c>
       <c r="AP73">
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
-        <v>1.42</v>
+        <v>1.77</v>
       </c>
       <c r="AS73">
-        <v>1.59</v>
+        <v>0.93</v>
       </c>
       <c r="AT73">
-        <v>3.01</v>
+        <v>2.7</v>
       </c>
       <c r="AU73">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV73">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW73">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY73">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AZ73">
         <v>8</v>
       </c>
       <c r="BA73">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC73">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD73">
-        <v>2.37</v>
+        <v>1.6</v>
       </c>
       <c r="BE73">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="BF73">
-        <v>1.87</v>
+        <v>3</v>
       </c>
       <c r="BG73">
         <v>1.18</v>
       </c>
       <c r="BH73">
-        <v>4</v>
+        <v>3.74</v>
       </c>
       <c r="BI73">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="BJ73">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="BK73">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="BL73">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="BM73">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="BN73">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="BO73">
-        <v>2.44</v>
+        <v>2.73</v>
       </c>
       <c r="BP73">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -16009,7 +16009,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7465468</v>
+        <v>7465466</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16018,196 +16018,196 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45562.625</v>
+        <v>45561.875</v>
       </c>
       <c r="F74">
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
         <v>2</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N74">
         <v>6</v>
       </c>
       <c r="O74" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q74">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="R74">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S74">
+        <v>5.5</v>
+      </c>
+      <c r="T74">
+        <v>1.19</v>
+      </c>
+      <c r="U74">
         <v>4.2</v>
       </c>
-      <c r="T74">
-        <v>1.28</v>
-      </c>
-      <c r="U74">
-        <v>3.4</v>
-      </c>
       <c r="V74">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="W74">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="X74">
-        <v>5.25</v>
+        <v>4.3</v>
       </c>
       <c r="Y74">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="Z74">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="AA74">
-        <v>3.94</v>
+        <v>4.5</v>
       </c>
       <c r="AB74">
-        <v>4.15</v>
+        <v>6.5</v>
       </c>
       <c r="AC74">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD74">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE74">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AF74">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AG74">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AH74">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="AI74">
+        <v>1.53</v>
+      </c>
+      <c r="AJ74">
+        <v>2.45</v>
+      </c>
+      <c r="AK74">
+        <v>1.1</v>
+      </c>
+      <c r="AL74">
+        <v>1.14</v>
+      </c>
+      <c r="AM74">
+        <v>2.8</v>
+      </c>
+      <c r="AN74">
+        <v>3</v>
+      </c>
+      <c r="AO74">
+        <v>1.33</v>
+      </c>
+      <c r="AP74">
+        <v>3</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>1.75</v>
+      </c>
+      <c r="AS74">
         <v>1.55</v>
       </c>
-      <c r="AJ74">
-        <v>2.3</v>
-      </c>
-      <c r="AK74">
-        <v>1.22</v>
-      </c>
-      <c r="AL74">
-        <v>1.25</v>
-      </c>
-      <c r="AM74">
-        <v>2.05</v>
-      </c>
-      <c r="AN74">
-        <v>2</v>
-      </c>
-      <c r="AO74">
-        <v>0.33</v>
-      </c>
-      <c r="AP74">
-        <v>1.5</v>
-      </c>
-      <c r="AQ74">
-        <v>1</v>
-      </c>
-      <c r="AR74">
-        <v>1.66</v>
-      </c>
-      <c r="AS74">
-        <v>1.14</v>
-      </c>
       <c r="AT74">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AU74">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW74">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AX74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>9</v>
+      </c>
+      <c r="AZ74">
         <v>5</v>
-      </c>
-      <c r="AY74">
-        <v>17</v>
-      </c>
-      <c r="AZ74">
-        <v>12</v>
       </c>
       <c r="BA74">
         <v>5</v>
       </c>
       <c r="BB74">
+        <v>1</v>
+      </c>
+      <c r="BC74">
         <v>6</v>
       </c>
-      <c r="BC74">
-        <v>11</v>
-      </c>
       <c r="BD74">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BE74">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="BF74">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="BG74">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="BH74">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="BI74">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BJ74">
-        <v>2.42</v>
+        <v>2.9</v>
       </c>
       <c r="BK74">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="BL74">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="BM74">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="BN74">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="BO74">
         <v>2.85</v>
       </c>
       <c r="BP74">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16215,7 +16215,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7465469</v>
+        <v>7465465</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16224,196 +16224,196 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45562.625</v>
+        <v>45561.875</v>
       </c>
       <c r="F75">
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q75">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="R75">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="S75">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="T75">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="U75">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V75">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W75">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="X75">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="Y75">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="Z75">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="AA75">
-        <v>4.01</v>
+        <v>4.33</v>
       </c>
       <c r="AB75">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="AC75">
         <v>1.01</v>
       </c>
       <c r="AD75">
+        <v>23</v>
+      </c>
+      <c r="AE75">
+        <v>1.13</v>
+      </c>
+      <c r="AF75">
+        <v>5.25</v>
+      </c>
+      <c r="AG75">
+        <v>1.44</v>
+      </c>
+      <c r="AH75">
+        <v>2.7</v>
+      </c>
+      <c r="AI75">
+        <v>1.54</v>
+      </c>
+      <c r="AJ75">
+        <v>2.3</v>
+      </c>
+      <c r="AK75">
+        <v>1.1</v>
+      </c>
+      <c r="AL75">
+        <v>1.15</v>
+      </c>
+      <c r="AM75">
+        <v>2.75</v>
+      </c>
+      <c r="AN75">
+        <v>1.25</v>
+      </c>
+      <c r="AO75">
+        <v>0.67</v>
+      </c>
+      <c r="AP75">
+        <v>1.2</v>
+      </c>
+      <c r="AQ75">
+        <v>0.75</v>
+      </c>
+      <c r="AR75">
+        <v>1.48</v>
+      </c>
+      <c r="AS75">
+        <v>1.35</v>
+      </c>
+      <c r="AT75">
+        <v>2.83</v>
+      </c>
+      <c r="AU75">
+        <v>7</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75">
+        <v>6</v>
+      </c>
+      <c r="AX75">
+        <v>1</v>
+      </c>
+      <c r="AY75">
         <v>13</v>
       </c>
-      <c r="AE75">
-        <v>1.18</v>
-      </c>
-      <c r="AF75">
-        <v>4.75</v>
-      </c>
-      <c r="AG75">
-        <v>1.55</v>
-      </c>
-      <c r="AH75">
-        <v>2.4</v>
-      </c>
-      <c r="AI75">
-        <v>1.48</v>
-      </c>
-      <c r="AJ75">
-        <v>2.4</v>
-      </c>
-      <c r="AK75">
-        <v>1.25</v>
-      </c>
-      <c r="AL75">
-        <v>1.2</v>
-      </c>
-      <c r="AM75">
-        <v>1.95</v>
-      </c>
-      <c r="AN75">
-        <v>1.33</v>
-      </c>
-      <c r="AO75">
-        <v>0.33</v>
-      </c>
-      <c r="AP75">
-        <v>1.25</v>
-      </c>
-      <c r="AQ75">
-        <v>0.5</v>
-      </c>
-      <c r="AR75">
-        <v>1.77</v>
-      </c>
-      <c r="AS75">
-        <v>0.93</v>
-      </c>
-      <c r="AT75">
-        <v>2.7</v>
-      </c>
-      <c r="AU75">
-        <v>5</v>
-      </c>
-      <c r="AV75">
-        <v>8</v>
-      </c>
-      <c r="AW75">
-        <v>7</v>
-      </c>
-      <c r="AX75">
-        <v>1</v>
-      </c>
-      <c r="AY75">
-        <v>12</v>
-      </c>
       <c r="AZ75">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BA75">
         <v>8</v>
       </c>
       <c r="BB75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC75">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD75">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="BE75">
-        <v>6.8</v>
+        <v>10.7</v>
       </c>
       <c r="BF75">
-        <v>3</v>
+        <v>4.93</v>
       </c>
       <c r="BG75">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BH75">
-        <v>3.74</v>
+        <v>3.7</v>
       </c>
       <c r="BI75">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="BJ75">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="BK75">
+        <v>1.67</v>
+      </c>
+      <c r="BL75">
+        <v>2.19</v>
+      </c>
+      <c r="BM75">
+        <v>2.08</v>
+      </c>
+      <c r="BN75">
         <v>1.73</v>
       </c>
-      <c r="BL75">
-        <v>2.07</v>
-      </c>
-      <c r="BM75">
-        <v>2.17</v>
-      </c>
-      <c r="BN75">
-        <v>1.67</v>
-      </c>
       <c r="BO75">
-        <v>2.73</v>
+        <v>2.59</v>
       </c>
       <c r="BP75">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16421,7 +16421,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7465465</v>
+        <v>7465467</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16430,196 +16430,196 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45562.625</v>
+        <v>45561.875</v>
       </c>
       <c r="F76">
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="Q76">
-        <v>1.82</v>
+        <v>2.95</v>
       </c>
       <c r="R76">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="S76">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="T76">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="U76">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V76">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="W76">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="X76">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y76">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Z76">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="AA76">
+        <v>3.6</v>
+      </c>
+      <c r="AB76">
+        <v>2.64</v>
+      </c>
+      <c r="AC76">
+        <v>1.04</v>
+      </c>
+      <c r="AD76">
+        <v>10</v>
+      </c>
+      <c r="AE76">
+        <v>1.2</v>
+      </c>
+      <c r="AF76">
         <v>4.33</v>
       </c>
-      <c r="AB76">
+      <c r="AG76">
+        <v>1.6</v>
+      </c>
+      <c r="AH76">
+        <v>2.3</v>
+      </c>
+      <c r="AI76">
+        <v>1.48</v>
+      </c>
+      <c r="AJ76">
+        <v>2.4</v>
+      </c>
+      <c r="AK76">
+        <v>1.48</v>
+      </c>
+      <c r="AL76">
+        <v>1.22</v>
+      </c>
+      <c r="AM76">
+        <v>1.5</v>
+      </c>
+      <c r="AN76">
+        <v>1.33</v>
+      </c>
+      <c r="AO76">
+        <v>1.25</v>
+      </c>
+      <c r="AP76">
+        <v>1.25</v>
+      </c>
+      <c r="AQ76">
+        <v>1.2</v>
+      </c>
+      <c r="AR76">
+        <v>1.42</v>
+      </c>
+      <c r="AS76">
+        <v>1.59</v>
+      </c>
+      <c r="AT76">
+        <v>3.01</v>
+      </c>
+      <c r="AU76">
+        <v>4</v>
+      </c>
+      <c r="AV76">
         <v>7</v>
       </c>
-      <c r="AC76">
-        <v>1.01</v>
-      </c>
-      <c r="AD76">
-        <v>23</v>
-      </c>
-      <c r="AE76">
-        <v>1.13</v>
-      </c>
-      <c r="AF76">
-        <v>5.25</v>
-      </c>
-      <c r="AG76">
-        <v>1.44</v>
-      </c>
-      <c r="AH76">
-        <v>2.7</v>
-      </c>
-      <c r="AI76">
-        <v>1.54</v>
-      </c>
-      <c r="AJ76">
-        <v>2.3</v>
-      </c>
-      <c r="AK76">
-        <v>1.1</v>
-      </c>
-      <c r="AL76">
-        <v>1.15</v>
-      </c>
-      <c r="AM76">
-        <v>2.75</v>
-      </c>
-      <c r="AN76">
-        <v>1.25</v>
-      </c>
-      <c r="AO76">
-        <v>0.67</v>
-      </c>
-      <c r="AP76">
-        <v>1.2</v>
-      </c>
-      <c r="AQ76">
-        <v>0.75</v>
-      </c>
-      <c r="AR76">
-        <v>1.48</v>
-      </c>
-      <c r="AS76">
-        <v>1.35</v>
-      </c>
-      <c r="AT76">
-        <v>2.83</v>
-      </c>
-      <c r="AU76">
+      <c r="AW76">
+        <v>2</v>
+      </c>
+      <c r="AX76">
+        <v>2</v>
+      </c>
+      <c r="AY76">
+        <v>6</v>
+      </c>
+      <c r="AZ76">
         <v>9</v>
       </c>
-      <c r="AV76">
-        <v>3</v>
-      </c>
-      <c r="AW76">
-        <v>7</v>
-      </c>
-      <c r="AX76">
-        <v>2</v>
-      </c>
-      <c r="AY76">
-        <v>16</v>
-      </c>
-      <c r="AZ76">
-        <v>5</v>
-      </c>
       <c r="BA76">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BB76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC76">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD76">
-        <v>1.25</v>
+        <v>2.37</v>
       </c>
       <c r="BE76">
-        <v>10.7</v>
+        <v>7.5</v>
       </c>
       <c r="BF76">
-        <v>4.93</v>
+        <v>1.87</v>
       </c>
       <c r="BG76">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH76">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="BI76">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="BJ76">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="BK76">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="BL76">
-        <v>2.19</v>
+        <v>2.22</v>
       </c>
       <c r="BM76">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="BN76">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="BO76">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="BP76">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16636,7 +16636,7 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45563.47916666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F77">
         <v>8</v>
@@ -16762,22 +16762,22 @@
         <v>3.38</v>
       </c>
       <c r="AU77">
+        <v>9</v>
+      </c>
+      <c r="AV77">
+        <v>0</v>
+      </c>
+      <c r="AW77">
         <v>5</v>
       </c>
-      <c r="AV77">
-        <v>2</v>
-      </c>
-      <c r="AW77">
-        <v>7</v>
-      </c>
       <c r="AX77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY77">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA77">
         <v>9</v>
@@ -16842,7 +16842,7 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45564.39583333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F78">
         <v>8</v>
@@ -16968,10 +16968,10 @@
         <v>3.1</v>
       </c>
       <c r="AU78">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AV78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW78">
         <v>3</v>
@@ -16980,10 +16980,10 @@
         <v>3</v>
       </c>
       <c r="AY78">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA78">
         <v>6</v>
@@ -17048,7 +17048,7 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45564.48958333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F79">
         <v>8</v>
@@ -17177,7 +17177,7 @@
         <v>5</v>
       </c>
       <c r="AV79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW79">
         <v>4</v>
@@ -17189,7 +17189,7 @@
         <v>9</v>
       </c>
       <c r="AZ79">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA79">
         <v>5</v>
@@ -17254,7 +17254,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45565.625</v>
+        <v>45564.875</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -17380,10 +17380,10 @@
         <v>3.22</v>
       </c>
       <c r="AU80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW80">
         <v>2</v>
@@ -17392,10 +17392,10 @@
         <v>4</v>
       </c>
       <c r="AY80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA80">
         <v>2</v>
@@ -17460,7 +17460,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45565.625</v>
+        <v>45564.875</v>
       </c>
       <c r="F81">
         <v>8</v>
@@ -17586,10 +17586,10 @@
         <v>2.74</v>
       </c>
       <c r="AU81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV81">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AW81">
         <v>1</v>
@@ -17598,10 +17598,10 @@
         <v>3</v>
       </c>
       <c r="AY81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ81">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA81">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -418,10 +418,10 @@
     <t>['71', '85']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['31', '62']</t>
-  </si>
-  <si>
-    <t>['90']</t>
   </si>
   <si>
     <t>['70', '72']</t>
@@ -1324,10 +1324,10 @@
         <v>4</v>
       </c>
       <c r="AY2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA2">
         <v>2</v>
@@ -1530,10 +1530,10 @@
         <v>6</v>
       </c>
       <c r="AY3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA3">
         <v>8</v>
@@ -1736,10 +1736,10 @@
         <v>5</v>
       </c>
       <c r="AY4">
+        <v>12</v>
+      </c>
+      <c r="AZ4">
         <v>9</v>
-      </c>
-      <c r="AZ4">
-        <v>7</v>
       </c>
       <c r="BA4">
         <v>3</v>
@@ -1942,10 +1942,10 @@
         <v>7</v>
       </c>
       <c r="AY5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA5">
         <v>2</v>
@@ -2148,10 +2148,10 @@
         <v>9</v>
       </c>
       <c r="AY6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ6">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="BA6">
         <v>2</v>
@@ -2354,10 +2354,10 @@
         <v>7</v>
       </c>
       <c r="AY7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA7">
         <v>4</v>
@@ -2560,7 +2560,7 @@
         <v>3</v>
       </c>
       <c r="AY8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ8">
         <v>7</v>
@@ -2766,10 +2766,10 @@
         <v>2</v>
       </c>
       <c r="AY9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA9">
         <v>4</v>
@@ -2972,10 +2972,10 @@
         <v>5</v>
       </c>
       <c r="AY10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA10">
         <v>7</v>
@@ -3178,10 +3178,10 @@
         <v>6</v>
       </c>
       <c r="AY11">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ11">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA11">
         <v>7</v>
@@ -3384,10 +3384,10 @@
         <v>2</v>
       </c>
       <c r="AY12">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA12">
         <v>11</v>
@@ -3590,10 +3590,10 @@
         <v>2</v>
       </c>
       <c r="AY13">
+        <v>11</v>
+      </c>
+      <c r="AZ13">
         <v>8</v>
-      </c>
-      <c r="AZ13">
-        <v>6</v>
       </c>
       <c r="BA13">
         <v>8</v>
@@ -3796,10 +3796,10 @@
         <v>4</v>
       </c>
       <c r="AY14">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA14">
         <v>5</v>
@@ -4002,10 +4002,10 @@
         <v>6</v>
       </c>
       <c r="AY15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA15">
         <v>6</v>
@@ -4208,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="AY16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA16">
         <v>2</v>
@@ -4414,10 +4414,10 @@
         <v>5</v>
       </c>
       <c r="AY17">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA17">
         <v>6</v>
@@ -4620,10 +4620,10 @@
         <v>5</v>
       </c>
       <c r="AY18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA18">
         <v>5</v>
@@ -4826,10 +4826,10 @@
         <v>0</v>
       </c>
       <c r="AY19">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BA19">
         <v>8</v>
@@ -5032,7 +5032,7 @@
         <v>8</v>
       </c>
       <c r="AY20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ20">
         <v>17</v>
@@ -5238,10 +5238,10 @@
         <v>6</v>
       </c>
       <c r="AY21">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ21">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA21">
         <v>7</v>
@@ -5444,10 +5444,10 @@
         <v>13</v>
       </c>
       <c r="AY22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ22">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BA22">
         <v>10</v>
@@ -5650,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="AY23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ23">
         <v>6</v>
@@ -5856,10 +5856,10 @@
         <v>6</v>
       </c>
       <c r="AY24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA24">
         <v>3</v>
@@ -6062,10 +6062,10 @@
         <v>4</v>
       </c>
       <c r="AY25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ25">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA25">
         <v>4</v>
@@ -6268,10 +6268,10 @@
         <v>2</v>
       </c>
       <c r="AY26">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AZ26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA26">
         <v>6</v>
@@ -6474,10 +6474,10 @@
         <v>2</v>
       </c>
       <c r="AY27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AZ27">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA27">
         <v>4</v>
@@ -6680,10 +6680,10 @@
         <v>9</v>
       </c>
       <c r="AY28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA28">
         <v>0</v>
@@ -6886,10 +6886,10 @@
         <v>5</v>
       </c>
       <c r="AY29">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ29">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA29">
         <v>8</v>
@@ -7092,10 +7092,10 @@
         <v>6</v>
       </c>
       <c r="AY30">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA30">
         <v>7</v>
@@ -7298,10 +7298,10 @@
         <v>11</v>
       </c>
       <c r="AY31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ31">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA31">
         <v>4</v>
@@ -7504,7 +7504,7 @@
         <v>4</v>
       </c>
       <c r="AY32">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ32">
         <v>8</v>
@@ -7710,10 +7710,10 @@
         <v>3</v>
       </c>
       <c r="AY33">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA33">
         <v>11</v>
@@ -7916,10 +7916,10 @@
         <v>6</v>
       </c>
       <c r="AY34">
+        <v>26</v>
+      </c>
+      <c r="AZ34">
         <v>21</v>
-      </c>
-      <c r="AZ34">
-        <v>15</v>
       </c>
       <c r="BA34">
         <v>7</v>
@@ -8122,10 +8122,10 @@
         <v>7</v>
       </c>
       <c r="AY35">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ35">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA35">
         <v>4</v>
@@ -8328,10 +8328,10 @@
         <v>8</v>
       </c>
       <c r="AY36">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ36">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA36">
         <v>7</v>
@@ -8534,10 +8534,10 @@
         <v>5</v>
       </c>
       <c r="AY37">
+        <v>19</v>
+      </c>
+      <c r="AZ37">
         <v>12</v>
-      </c>
-      <c r="AZ37">
-        <v>10</v>
       </c>
       <c r="BA37">
         <v>3</v>
@@ -8946,10 +8946,10 @@
         <v>3</v>
       </c>
       <c r="AY39">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AZ39">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA39">
         <v>9</v>
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="AY40">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ40">
         <v>10</v>
@@ -9358,10 +9358,10 @@
         <v>7</v>
       </c>
       <c r="AY41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA41">
         <v>4</v>
@@ -9564,10 +9564,10 @@
         <v>2</v>
       </c>
       <c r="AY42">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA42">
         <v>3</v>
@@ -9770,10 +9770,10 @@
         <v>7</v>
       </c>
       <c r="AY43">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA43">
         <v>7</v>
@@ -9976,10 +9976,10 @@
         <v>3</v>
       </c>
       <c r="AY44">
+        <v>23</v>
+      </c>
+      <c r="AZ44">
         <v>15</v>
-      </c>
-      <c r="AZ44">
-        <v>10</v>
       </c>
       <c r="BA44">
         <v>14</v>
@@ -10182,10 +10182,10 @@
         <v>7</v>
       </c>
       <c r="AY45">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA45">
         <v>6</v>
@@ -10388,10 +10388,10 @@
         <v>8</v>
       </c>
       <c r="AY46">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ46">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA46">
         <v>11</v>
@@ -10594,7 +10594,7 @@
         <v>3</v>
       </c>
       <c r="AY47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ47">
         <v>7</v>
@@ -10800,10 +10800,10 @@
         <v>3</v>
       </c>
       <c r="AY48">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA48">
         <v>5</v>
@@ -11006,10 +11006,10 @@
         <v>5</v>
       </c>
       <c r="AY49">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ49">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA49">
         <v>2</v>
@@ -11212,10 +11212,10 @@
         <v>2</v>
       </c>
       <c r="AY50">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA50">
         <v>4</v>
@@ -11418,10 +11418,10 @@
         <v>2</v>
       </c>
       <c r="AY51">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ51">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA51">
         <v>4</v>
@@ -11624,10 +11624,10 @@
         <v>2</v>
       </c>
       <c r="AY52">
+        <v>15</v>
+      </c>
+      <c r="AZ52">
         <v>13</v>
-      </c>
-      <c r="AZ52">
-        <v>10</v>
       </c>
       <c r="BA52">
         <v>6</v>
@@ -11830,10 +11830,10 @@
         <v>5</v>
       </c>
       <c r="AY53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ53">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA53">
         <v>3</v>
@@ -12036,10 +12036,10 @@
         <v>5</v>
       </c>
       <c r="AY54">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ54">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA54">
         <v>7</v>
@@ -12242,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="AY55">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ55">
         <v>5</v>
@@ -12448,10 +12448,10 @@
         <v>4</v>
       </c>
       <c r="AY56">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ56">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA56">
         <v>11</v>
@@ -12654,10 +12654,10 @@
         <v>1</v>
       </c>
       <c r="AY57">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ57">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA57">
         <v>11</v>
@@ -12860,10 +12860,10 @@
         <v>4</v>
       </c>
       <c r="AY58">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ58">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA58">
         <v>4</v>
@@ -13066,10 +13066,10 @@
         <v>8</v>
       </c>
       <c r="AY59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ59">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA59">
         <v>1</v>
@@ -13272,10 +13272,10 @@
         <v>4</v>
       </c>
       <c r="AY60">
+        <v>19</v>
+      </c>
+      <c r="AZ60">
         <v>13</v>
-      </c>
-      <c r="AZ60">
-        <v>9</v>
       </c>
       <c r="BA60">
         <v>6</v>
@@ -13478,10 +13478,10 @@
         <v>10</v>
       </c>
       <c r="AY61">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ61">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BA61">
         <v>4</v>
@@ -13684,7 +13684,7 @@
         <v>2</v>
       </c>
       <c r="AY62">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ62">
         <v>8</v>
@@ -13890,10 +13890,10 @@
         <v>6</v>
       </c>
       <c r="AY63">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ63">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA63">
         <v>5</v>
@@ -14096,10 +14096,10 @@
         <v>6</v>
       </c>
       <c r="AY64">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ64">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA64">
         <v>6</v>
@@ -14302,7 +14302,7 @@
         <v>7</v>
       </c>
       <c r="AY65">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ65">
         <v>11</v>
@@ -14508,10 +14508,10 @@
         <v>11</v>
       </c>
       <c r="AY66">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ66">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="BA66">
         <v>5</v>
@@ -14567,7 +14567,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7465461</v>
+        <v>7465460</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14576,49 +14576,49 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45555.875</v>
+        <v>45556.47916666666</v>
       </c>
       <c r="F67">
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O67" t="s">
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="Q67">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R67">
         <v>2.5</v>
       </c>
       <c r="S67">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T67">
         <v>1.25</v>
@@ -14633,19 +14633,19 @@
         <v>1.67</v>
       </c>
       <c r="X67">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Y67">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Z67">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AA67">
         <v>3.7</v>
       </c>
       <c r="AB67">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AC67">
         <v>1.01</v>
@@ -14654,118 +14654,118 @@
         <v>17</v>
       </c>
       <c r="AE67">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AF67">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="AG67">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AH67">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AI67">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AJ67">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AK67">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AL67">
         <v>1.22</v>
       </c>
       <c r="AM67">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="AN67">
+        <v>0.5</v>
+      </c>
+      <c r="AO67">
         <v>0.67</v>
       </c>
-      <c r="AO67">
-        <v>2.33</v>
-      </c>
       <c r="AP67">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AR67">
+        <v>1.6</v>
+      </c>
+      <c r="AS67">
+        <v>1.22</v>
+      </c>
+      <c r="AT67">
+        <v>2.82</v>
+      </c>
+      <c r="AU67">
+        <v>6</v>
+      </c>
+      <c r="AV67">
+        <v>6</v>
+      </c>
+      <c r="AW67">
+        <v>8</v>
+      </c>
+      <c r="AX67">
+        <v>4</v>
+      </c>
+      <c r="AY67">
+        <v>19</v>
+      </c>
+      <c r="AZ67">
+        <v>12</v>
+      </c>
+      <c r="BA67">
+        <v>6</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
+        <v>8</v>
+      </c>
+      <c r="BD67">
         <v>1.33</v>
       </c>
-      <c r="AS67">
-        <v>1.82</v>
-      </c>
-      <c r="AT67">
-        <v>3.15</v>
-      </c>
-      <c r="AU67">
-        <v>9</v>
-      </c>
-      <c r="AV67">
-        <v>2</v>
-      </c>
-      <c r="AW67">
-        <v>6</v>
-      </c>
-      <c r="AX67">
-        <v>2</v>
-      </c>
-      <c r="AY67">
-        <v>15</v>
-      </c>
-      <c r="AZ67">
-        <v>4</v>
-      </c>
-      <c r="BA67">
-        <v>15</v>
-      </c>
-      <c r="BB67">
-        <v>3</v>
-      </c>
-      <c r="BC67">
-        <v>18</v>
-      </c>
-      <c r="BD67">
-        <v>1.59</v>
-      </c>
       <c r="BE67">
-        <v>6.85</v>
+        <v>7.9</v>
       </c>
       <c r="BF67">
-        <v>3.02</v>
+        <v>4.4</v>
       </c>
       <c r="BG67">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH67">
-        <v>4.5</v>
+        <v>3.86</v>
       </c>
       <c r="BI67">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="BJ67">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="BK67">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="BL67">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="BM67">
-        <v>2.01</v>
+        <v>2.14</v>
       </c>
       <c r="BN67">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="BO67">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BP67">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14773,7 +14773,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7465460</v>
+        <v>7465461</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14782,49 +14782,49 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45556.47916666666</v>
+        <v>45556.57291666666</v>
       </c>
       <c r="F68">
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H68" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O68" t="s">
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="Q68">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R68">
         <v>2.5</v>
       </c>
       <c r="S68">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T68">
         <v>1.25</v>
@@ -14839,19 +14839,19 @@
         <v>1.67</v>
       </c>
       <c r="X68">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Y68">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Z68">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AA68">
         <v>3.7</v>
       </c>
       <c r="AB68">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AC68">
         <v>1.01</v>
@@ -14860,118 +14860,118 @@
         <v>17</v>
       </c>
       <c r="AE68">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AF68">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="AG68">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AH68">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AI68">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AJ68">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AK68">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AL68">
         <v>1.22</v>
       </c>
       <c r="AM68">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="AN68">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO68">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP68">
+        <v>0.75</v>
+      </c>
+      <c r="AQ68">
+        <v>2</v>
+      </c>
+      <c r="AR68">
         <v>1.33</v>
       </c>
-      <c r="AQ68">
-        <v>0.5</v>
-      </c>
-      <c r="AR68">
-        <v>1.6</v>
-      </c>
       <c r="AS68">
-        <v>1.22</v>
+        <v>1.82</v>
       </c>
       <c r="AT68">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="AU68">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AV68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW68">
         <v>8</v>
       </c>
       <c r="AX68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY68">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AZ68">
         <v>10</v>
       </c>
       <c r="BA68">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BB68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC68">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BD68">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="BE68">
-        <v>7.9</v>
+        <v>6.85</v>
       </c>
       <c r="BF68">
-        <v>4.4</v>
+        <v>3.02</v>
       </c>
       <c r="BG68">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BH68">
-        <v>3.86</v>
+        <v>4.5</v>
       </c>
       <c r="BI68">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="BJ68">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="BK68">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="BL68">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="BM68">
-        <v>2.14</v>
+        <v>2.01</v>
       </c>
       <c r="BN68">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="BO68">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="BP68">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -14988,7 +14988,7 @@
         <v>69</v>
       </c>
       <c r="E69" s="2">
-        <v>45556.875</v>
+        <v>45557.48958333334</v>
       </c>
       <c r="F69">
         <v>7</v>
@@ -15117,19 +15117,19 @@
         <v>2</v>
       </c>
       <c r="AV69">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW69">
         <v>3</v>
       </c>
       <c r="AX69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY69">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ69">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BA69">
         <v>5</v>
@@ -15194,7 +15194,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="2">
-        <v>45557.875</v>
+        <v>45558.625</v>
       </c>
       <c r="F70">
         <v>7</v>
@@ -15320,22 +15320,22 @@
         <v>3.75</v>
       </c>
       <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
         <v>5</v>
       </c>
-      <c r="AV70">
-        <v>3</v>
-      </c>
       <c r="AW70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX70">
         <v>5</v>
       </c>
       <c r="AY70">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AZ70">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA70">
         <v>12</v>
@@ -15400,7 +15400,7 @@
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>45557.875</v>
+        <v>45558.625</v>
       </c>
       <c r="F71">
         <v>7</v>
@@ -15526,22 +15526,22 @@
         <v>2.99</v>
       </c>
       <c r="AU71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV71">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AW71">
         <v>5</v>
       </c>
       <c r="AX71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ71">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="BA71">
         <v>4</v>
@@ -15606,7 +15606,7 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45561.875</v>
+        <v>45562.625</v>
       </c>
       <c r="F72">
         <v>8</v>
@@ -15732,22 +15732,22 @@
         <v>2.8</v>
       </c>
       <c r="AU72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW72">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AX72">
         <v>5</v>
       </c>
       <c r="AY72">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AZ72">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA72">
         <v>5</v>
@@ -15812,7 +15812,7 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45561.875</v>
+        <v>45562.625</v>
       </c>
       <c r="F73">
         <v>8</v>
@@ -15938,13 +15938,13 @@
         <v>2.7</v>
       </c>
       <c r="AU73">
+        <v>5</v>
+      </c>
+      <c r="AV73">
+        <v>8</v>
+      </c>
+      <c r="AW73">
         <v>7</v>
-      </c>
-      <c r="AV73">
-        <v>7</v>
-      </c>
-      <c r="AW73">
-        <v>8</v>
       </c>
       <c r="AX73">
         <v>1</v>
@@ -15953,7 +15953,7 @@
         <v>15</v>
       </c>
       <c r="AZ73">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA73">
         <v>8</v>
@@ -16018,7 +16018,7 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45561.875</v>
+        <v>45562.625</v>
       </c>
       <c r="F74">
         <v>8</v>
@@ -16150,16 +16150,16 @@
         <v>5</v>
       </c>
       <c r="AW74">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX74">
         <v>0</v>
       </c>
       <c r="AY74">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AZ74">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA74">
         <v>5</v>
@@ -16224,7 +16224,7 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45561.875</v>
+        <v>45562.625</v>
       </c>
       <c r="F75">
         <v>8</v>
@@ -16350,31 +16350,31 @@
         <v>2.83</v>
       </c>
       <c r="AU75">
+        <v>9</v>
+      </c>
+      <c r="AV75">
+        <v>3</v>
+      </c>
+      <c r="AW75">
         <v>7</v>
       </c>
-      <c r="AV75">
-        <v>2</v>
-      </c>
-      <c r="AW75">
-        <v>6</v>
-      </c>
       <c r="AX75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY75">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AZ75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB75">
         <v>2</v>
       </c>
       <c r="BC75">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD75">
         <v>1.25</v>
@@ -16430,7 +16430,7 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45561.875</v>
+        <v>45562.625</v>
       </c>
       <c r="F76">
         <v>8</v>
@@ -16559,19 +16559,19 @@
         <v>4</v>
       </c>
       <c r="AV76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY76">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ76">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA76">
         <v>2</v>
@@ -16636,7 +16636,7 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45562.875</v>
+        <v>45563.47916666666</v>
       </c>
       <c r="F77">
         <v>8</v>
@@ -16762,22 +16762,22 @@
         <v>3.38</v>
       </c>
       <c r="AU77">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW77">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY77">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ77">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA77">
         <v>9</v>
@@ -16842,7 +16842,7 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45563.875</v>
+        <v>45564.39583333334</v>
       </c>
       <c r="F78">
         <v>8</v>
@@ -16968,10 +16968,10 @@
         <v>3.1</v>
       </c>
       <c r="AU78">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AV78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW78">
         <v>3</v>
@@ -16980,10 +16980,10 @@
         <v>3</v>
       </c>
       <c r="AY78">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ78">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA78">
         <v>6</v>
@@ -17048,7 +17048,7 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45563.875</v>
+        <v>45564.48958333334</v>
       </c>
       <c r="F79">
         <v>8</v>
@@ -17177,7 +17177,7 @@
         <v>5</v>
       </c>
       <c r="AV79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW79">
         <v>4</v>
@@ -17186,10 +17186,10 @@
         <v>4</v>
       </c>
       <c r="AY79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ79">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA79">
         <v>5</v>
@@ -17254,7 +17254,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45564.875</v>
+        <v>45565.625</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -17380,10 +17380,10 @@
         <v>3.22</v>
       </c>
       <c r="AU80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW80">
         <v>2</v>
@@ -17392,10 +17392,10 @@
         <v>4</v>
       </c>
       <c r="AY80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ80">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA80">
         <v>2</v>
@@ -17460,7 +17460,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45564.875</v>
+        <v>45565.625</v>
       </c>
       <c r="F81">
         <v>8</v>
@@ -17586,10 +17586,10 @@
         <v>2.74</v>
       </c>
       <c r="AU81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV81">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AW81">
         <v>1</v>
@@ -17598,10 +17598,10 @@
         <v>3</v>
       </c>
       <c r="AY81">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ81">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BA81">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,30 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['32', '45+3', '71']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['68', '80']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['45+2', '82']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -481,9 +505,6 @@
     <t>['23', '54', '74']</t>
   </si>
   <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
     <t>['4', '51']</t>
   </si>
   <si>
@@ -502,9 +523,6 @@
     <t>['90+7']</t>
   </si>
   <si>
-    <t>['57']</t>
-  </si>
-  <si>
     <t>['27', '85']</t>
   </si>
   <si>
@@ -599,6 +617,21 @@
   </si>
   <si>
     <t>['3', '10', '15']</t>
+  </si>
+  <si>
+    <t>['40', '45+1']</t>
+  </si>
+  <si>
+    <t>['5', '15', '24', '74', '90+3']</t>
+  </si>
+  <si>
+    <t>['19', '57', '64']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['35', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1425,7 +1458,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1503,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ3">
         <v>1.4</v>
@@ -1631,7 +1664,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1709,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ4">
         <v>0.75</v>
@@ -1837,7 +1870,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1918,7 +1951,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2043,7 +2076,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2121,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2249,7 +2282,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2327,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2455,7 +2488,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2661,7 +2694,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2742,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2867,7 +2900,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2945,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ10">
         <v>1.2</v>
@@ -3073,7 +3106,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3154,7 +3187,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3279,7 +3312,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3357,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ12">
         <v>1.75</v>
@@ -3485,7 +3518,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3566,7 +3599,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3769,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -3897,7 +3930,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -3978,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4103,7 +4136,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4181,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ16">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4387,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4593,10 +4626,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4927,7 +4960,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5214,7 +5247,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5417,10 +5450,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -5623,7 +5656,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ23">
         <v>2.5</v>
@@ -5829,10 +5862,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR24">
         <v>2.49</v>
@@ -5957,7 +5990,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6163,7 +6196,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6244,7 +6277,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
         <v>1.18</v>
@@ -6369,7 +6402,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6450,7 +6483,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -6653,10 +6686,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.82</v>
@@ -6781,7 +6814,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6859,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ29">
         <v>1.2</v>
@@ -6987,7 +7020,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7065,7 +7098,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ30">
         <v>1.4</v>
@@ -7193,7 +7226,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7274,7 +7307,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -7477,10 +7510,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -7811,7 +7844,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -7892,7 +7925,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ34">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR34">
         <v>1.12</v>
@@ -8017,7 +8050,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8095,7 +8128,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ35">
         <v>2.25</v>
@@ -8301,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8507,10 +8540,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR37">
         <v>1.18</v>
@@ -8635,7 +8668,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8716,7 +8749,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.6</v>
@@ -8841,7 +8874,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9253,7 +9286,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9331,10 +9364,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9540,7 +9573,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -9746,7 +9779,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR43">
         <v>1.9</v>
@@ -9871,7 +9904,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9952,7 +9985,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR44">
         <v>2.05</v>
@@ -10077,7 +10110,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10155,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ45">
         <v>0.75</v>
@@ -10283,7 +10316,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10361,10 +10394,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR46">
         <v>1.3</v>
@@ -10489,7 +10522,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10567,7 +10600,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
         <v>1.75</v>
@@ -10695,7 +10728,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10776,7 +10809,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR48">
         <v>1.9</v>
@@ -11107,7 +11140,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11313,7 +11346,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11394,7 +11427,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -11519,7 +11552,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11597,7 +11630,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ52">
         <v>1.2</v>
@@ -11803,10 +11836,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>2.41</v>
@@ -12343,7 +12376,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12421,7 +12454,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ56">
         <v>1.75</v>
@@ -12627,7 +12660,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ57">
         <v>0.5</v>
@@ -12755,7 +12788,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12833,7 +12866,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ58">
         <v>1.75</v>
@@ -12961,7 +12994,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13042,7 +13075,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ59">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>1.91</v>
@@ -13373,7 +13406,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13579,7 +13612,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13657,10 +13690,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ62">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR62">
         <v>1.68</v>
@@ -13785,7 +13818,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -13863,10 +13896,10 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14069,7 +14102,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ64">
         <v>2.25</v>
@@ -14278,7 +14311,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ65">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14403,7 +14436,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14481,10 +14514,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.48</v>
@@ -14687,10 +14720,10 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR67">
         <v>1.6</v>
@@ -14815,7 +14848,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -14893,10 +14926,10 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15021,7 +15054,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15099,10 +15132,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ69">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15227,7 +15260,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15305,10 +15338,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.9</v>
@@ -15433,7 +15466,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15511,10 +15544,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR71">
         <v>1.34</v>
@@ -15639,7 +15672,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15845,7 +15878,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16051,7 +16084,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16257,7 +16290,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16875,7 +16908,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17081,7 +17114,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17493,7 +17526,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17650,6 +17683,2066 @@
       </c>
       <c r="BP81">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7465484</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s">
+        <v>87</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>93</v>
+      </c>
+      <c r="P82" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q82">
+        <v>3</v>
+      </c>
+      <c r="R82">
+        <v>2.3</v>
+      </c>
+      <c r="S82">
+        <v>2.88</v>
+      </c>
+      <c r="T82">
+        <v>1.28</v>
+      </c>
+      <c r="U82">
+        <v>3.44</v>
+      </c>
+      <c r="V82">
+        <v>2.34</v>
+      </c>
+      <c r="W82">
+        <v>1.56</v>
+      </c>
+      <c r="X82">
+        <v>5.35</v>
+      </c>
+      <c r="Y82">
+        <v>1.13</v>
+      </c>
+      <c r="Z82">
+        <v>2.55</v>
+      </c>
+      <c r="AA82">
+        <v>3.55</v>
+      </c>
+      <c r="AB82">
+        <v>2.55</v>
+      </c>
+      <c r="AC82">
+        <v>1.01</v>
+      </c>
+      <c r="AD82">
+        <v>13</v>
+      </c>
+      <c r="AE82">
+        <v>1.13</v>
+      </c>
+      <c r="AF82">
+        <v>5.2</v>
+      </c>
+      <c r="AG82">
+        <v>1.57</v>
+      </c>
+      <c r="AH82">
+        <v>2.25</v>
+      </c>
+      <c r="AI82">
+        <v>1.45</v>
+      </c>
+      <c r="AJ82">
+        <v>2.5</v>
+      </c>
+      <c r="AK82">
+        <v>1.47</v>
+      </c>
+      <c r="AL82">
+        <v>1.26</v>
+      </c>
+      <c r="AM82">
+        <v>1.46</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>1.5</v>
+      </c>
+      <c r="AP82">
+        <v>0.8</v>
+      </c>
+      <c r="AQ82">
+        <v>1.8</v>
+      </c>
+      <c r="AR82">
+        <v>1.76</v>
+      </c>
+      <c r="AS82">
+        <v>1.96</v>
+      </c>
+      <c r="AT82">
+        <v>3.72</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>8</v>
+      </c>
+      <c r="AW82">
+        <v>4</v>
+      </c>
+      <c r="AX82">
+        <v>15</v>
+      </c>
+      <c r="AY82">
+        <v>11</v>
+      </c>
+      <c r="AZ82">
+        <v>25</v>
+      </c>
+      <c r="BA82">
+        <v>4</v>
+      </c>
+      <c r="BB82">
+        <v>9</v>
+      </c>
+      <c r="BC82">
+        <v>13</v>
+      </c>
+      <c r="BD82">
+        <v>2.58</v>
+      </c>
+      <c r="BE82">
+        <v>6.8</v>
+      </c>
+      <c r="BF82">
+        <v>1.75</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>1.22</v>
+      </c>
+      <c r="BJ82">
+        <v>3.35</v>
+      </c>
+      <c r="BK82">
+        <v>1.5</v>
+      </c>
+      <c r="BL82">
+        <v>2.49</v>
+      </c>
+      <c r="BM82">
+        <v>1.83</v>
+      </c>
+      <c r="BN82">
+        <v>1.97</v>
+      </c>
+      <c r="BO82">
+        <v>2.27</v>
+      </c>
+      <c r="BP82">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7465483</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s">
+        <v>88</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>144</v>
+      </c>
+      <c r="P83" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q83">
+        <v>2.7</v>
+      </c>
+      <c r="R83">
+        <v>2.3</v>
+      </c>
+      <c r="S83">
+        <v>3.2</v>
+      </c>
+      <c r="T83">
+        <v>1.25</v>
+      </c>
+      <c r="U83">
+        <v>3.5</v>
+      </c>
+      <c r="V83">
+        <v>2.2</v>
+      </c>
+      <c r="W83">
+        <v>1.6</v>
+      </c>
+      <c r="X83">
+        <v>4.85</v>
+      </c>
+      <c r="Y83">
+        <v>1.16</v>
+      </c>
+      <c r="Z83">
+        <v>2.2</v>
+      </c>
+      <c r="AA83">
+        <v>3.75</v>
+      </c>
+      <c r="AB83">
+        <v>2.85</v>
+      </c>
+      <c r="AC83">
+        <v>1.01</v>
+      </c>
+      <c r="AD83">
+        <v>13</v>
+      </c>
+      <c r="AE83">
+        <v>1.17</v>
+      </c>
+      <c r="AF83">
+        <v>5</v>
+      </c>
+      <c r="AG83">
+        <v>1.5</v>
+      </c>
+      <c r="AH83">
+        <v>2.55</v>
+      </c>
+      <c r="AI83">
+        <v>1.44</v>
+      </c>
+      <c r="AJ83">
+        <v>2.7</v>
+      </c>
+      <c r="AK83">
+        <v>1.4</v>
+      </c>
+      <c r="AL83">
+        <v>1.2</v>
+      </c>
+      <c r="AM83">
+        <v>1.62</v>
+      </c>
+      <c r="AN83">
+        <v>0.75</v>
+      </c>
+      <c r="AO83">
+        <v>1</v>
+      </c>
+      <c r="AP83">
+        <v>0.6</v>
+      </c>
+      <c r="AQ83">
+        <v>1.4</v>
+      </c>
+      <c r="AR83">
+        <v>1.68</v>
+      </c>
+      <c r="AS83">
+        <v>1.53</v>
+      </c>
+      <c r="AT83">
+        <v>3.21</v>
+      </c>
+      <c r="AU83">
+        <v>3</v>
+      </c>
+      <c r="AV83">
+        <v>7</v>
+      </c>
+      <c r="AW83">
+        <v>5</v>
+      </c>
+      <c r="AX83">
+        <v>4</v>
+      </c>
+      <c r="AY83">
+        <v>10</v>
+      </c>
+      <c r="AZ83">
+        <v>14</v>
+      </c>
+      <c r="BA83">
+        <v>7</v>
+      </c>
+      <c r="BB83">
+        <v>5</v>
+      </c>
+      <c r="BC83">
+        <v>12</v>
+      </c>
+      <c r="BD83">
+        <v>1.62</v>
+      </c>
+      <c r="BE83">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF83">
+        <v>2.78</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>1.26</v>
+      </c>
+      <c r="BJ83">
+        <v>3.4</v>
+      </c>
+      <c r="BK83">
+        <v>1.45</v>
+      </c>
+      <c r="BL83">
+        <v>2.47</v>
+      </c>
+      <c r="BM83">
+        <v>1.75</v>
+      </c>
+      <c r="BN83">
+        <v>1.96</v>
+      </c>
+      <c r="BO83">
+        <v>2.13</v>
+      </c>
+      <c r="BP83">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7465482</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s">
+        <v>76</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>5</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+      <c r="O84" t="s">
+        <v>145</v>
+      </c>
+      <c r="P84" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q84">
+        <v>4.1</v>
+      </c>
+      <c r="R84">
+        <v>2.3</v>
+      </c>
+      <c r="S84">
+        <v>2.3</v>
+      </c>
+      <c r="T84">
+        <v>1.28</v>
+      </c>
+      <c r="U84">
+        <v>3.44</v>
+      </c>
+      <c r="V84">
+        <v>2.34</v>
+      </c>
+      <c r="W84">
+        <v>1.56</v>
+      </c>
+      <c r="X84">
+        <v>5.4</v>
+      </c>
+      <c r="Y84">
+        <v>1.13</v>
+      </c>
+      <c r="Z84">
+        <v>3.85</v>
+      </c>
+      <c r="AA84">
+        <v>3.77</v>
+      </c>
+      <c r="AB84">
+        <v>1.77</v>
+      </c>
+      <c r="AC84">
+        <v>1.02</v>
+      </c>
+      <c r="AD84">
+        <v>17</v>
+      </c>
+      <c r="AE84">
+        <v>1.18</v>
+      </c>
+      <c r="AF84">
+        <v>4.75</v>
+      </c>
+      <c r="AG84">
+        <v>1.6</v>
+      </c>
+      <c r="AH84">
+        <v>2.3</v>
+      </c>
+      <c r="AI84">
+        <v>1.58</v>
+      </c>
+      <c r="AJ84">
+        <v>2.25</v>
+      </c>
+      <c r="AK84">
+        <v>1.95</v>
+      </c>
+      <c r="AL84">
+        <v>1.2</v>
+      </c>
+      <c r="AM84">
+        <v>1.23</v>
+      </c>
+      <c r="AN84">
+        <v>1.5</v>
+      </c>
+      <c r="AO84">
+        <v>0.67</v>
+      </c>
+      <c r="AP84">
+        <v>1.2</v>
+      </c>
+      <c r="AQ84">
+        <v>1.25</v>
+      </c>
+      <c r="AR84">
+        <v>1.34</v>
+      </c>
+      <c r="AS84">
+        <v>1.49</v>
+      </c>
+      <c r="AT84">
+        <v>2.83</v>
+      </c>
+      <c r="AU84">
+        <v>2</v>
+      </c>
+      <c r="AV84">
+        <v>12</v>
+      </c>
+      <c r="AW84">
+        <v>3</v>
+      </c>
+      <c r="AX84">
+        <v>10</v>
+      </c>
+      <c r="AY84">
+        <v>7</v>
+      </c>
+      <c r="AZ84">
+        <v>28</v>
+      </c>
+      <c r="BA84">
+        <v>4</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>9</v>
+      </c>
+      <c r="BD84">
+        <v>2.99</v>
+      </c>
+      <c r="BE84">
+        <v>6.85</v>
+      </c>
+      <c r="BF84">
+        <v>1.6</v>
+      </c>
+      <c r="BG84">
+        <v>1.18</v>
+      </c>
+      <c r="BH84">
+        <v>4.6</v>
+      </c>
+      <c r="BI84">
+        <v>1.3</v>
+      </c>
+      <c r="BJ84">
+        <v>2.88</v>
+      </c>
+      <c r="BK84">
+        <v>1.63</v>
+      </c>
+      <c r="BL84">
+        <v>2.22</v>
+      </c>
+      <c r="BM84">
+        <v>2.01</v>
+      </c>
+      <c r="BN84">
+        <v>1.78</v>
+      </c>
+      <c r="BO84">
+        <v>2.52</v>
+      </c>
+      <c r="BP84">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7465481</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H85" t="s">
+        <v>83</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>146</v>
+      </c>
+      <c r="P85" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q85">
+        <v>3.2</v>
+      </c>
+      <c r="R85">
+        <v>2.4</v>
+      </c>
+      <c r="S85">
+        <v>2.85</v>
+      </c>
+      <c r="T85">
+        <v>1.25</v>
+      </c>
+      <c r="U85">
+        <v>3.55</v>
+      </c>
+      <c r="V85">
+        <v>2.1</v>
+      </c>
+      <c r="W85">
+        <v>1.65</v>
+      </c>
+      <c r="X85">
+        <v>4.9</v>
+      </c>
+      <c r="Y85">
+        <v>1.15</v>
+      </c>
+      <c r="Z85">
+        <v>2.75</v>
+      </c>
+      <c r="AA85">
+        <v>3.7</v>
+      </c>
+      <c r="AB85">
+        <v>2.3</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>17</v>
+      </c>
+      <c r="AE85">
+        <v>1.15</v>
+      </c>
+      <c r="AF85">
+        <v>5.25</v>
+      </c>
+      <c r="AG85">
+        <v>1.48</v>
+      </c>
+      <c r="AH85">
+        <v>2.6</v>
+      </c>
+      <c r="AI85">
+        <v>1.38</v>
+      </c>
+      <c r="AJ85">
+        <v>2.7</v>
+      </c>
+      <c r="AK85">
+        <v>1.6</v>
+      </c>
+      <c r="AL85">
+        <v>1.22</v>
+      </c>
+      <c r="AM85">
+        <v>1.47</v>
+      </c>
+      <c r="AN85">
+        <v>1.33</v>
+      </c>
+      <c r="AO85">
+        <v>1.25</v>
+      </c>
+      <c r="AP85">
+        <v>1.75</v>
+      </c>
+      <c r="AQ85">
+        <v>1</v>
+      </c>
+      <c r="AR85">
+        <v>1.66</v>
+      </c>
+      <c r="AS85">
+        <v>2.17</v>
+      </c>
+      <c r="AT85">
+        <v>3.83</v>
+      </c>
+      <c r="AU85">
+        <v>8</v>
+      </c>
+      <c r="AV85">
+        <v>3</v>
+      </c>
+      <c r="AW85">
+        <v>10</v>
+      </c>
+      <c r="AX85">
+        <v>2</v>
+      </c>
+      <c r="AY85">
+        <v>21</v>
+      </c>
+      <c r="AZ85">
+        <v>10</v>
+      </c>
+      <c r="BA85">
+        <v>8</v>
+      </c>
+      <c r="BB85">
+        <v>3</v>
+      </c>
+      <c r="BC85">
+        <v>11</v>
+      </c>
+      <c r="BD85">
+        <v>2.18</v>
+      </c>
+      <c r="BE85">
+        <v>7.9</v>
+      </c>
+      <c r="BF85">
+        <v>1.95</v>
+      </c>
+      <c r="BG85">
+        <v>1.3</v>
+      </c>
+      <c r="BH85">
+        <v>3.1</v>
+      </c>
+      <c r="BI85">
+        <v>1.52</v>
+      </c>
+      <c r="BJ85">
+        <v>2.3</v>
+      </c>
+      <c r="BK85">
+        <v>1.9</v>
+      </c>
+      <c r="BL85">
+        <v>1.81</v>
+      </c>
+      <c r="BM85">
+        <v>2.34</v>
+      </c>
+      <c r="BN85">
+        <v>1.5</v>
+      </c>
+      <c r="BO85">
+        <v>3</v>
+      </c>
+      <c r="BP85">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7465480</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>84</v>
+      </c>
+      <c r="H86" t="s">
+        <v>81</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>147</v>
+      </c>
+      <c r="P86" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q86">
+        <v>3.79</v>
+      </c>
+      <c r="R86">
+        <v>2.41</v>
+      </c>
+      <c r="S86">
+        <v>2.62</v>
+      </c>
+      <c r="T86">
+        <v>1.33</v>
+      </c>
+      <c r="U86">
+        <v>3.1</v>
+      </c>
+      <c r="V86">
+        <v>2.47</v>
+      </c>
+      <c r="W86">
+        <v>1.53</v>
+      </c>
+      <c r="X86">
+        <v>5.7</v>
+      </c>
+      <c r="Y86">
+        <v>1.12</v>
+      </c>
+      <c r="Z86">
+        <v>3.2</v>
+      </c>
+      <c r="AA86">
+        <v>3.6</v>
+      </c>
+      <c r="AB86">
+        <v>2.1</v>
+      </c>
+      <c r="AC86">
+        <v>1.04</v>
+      </c>
+      <c r="AD86">
+        <v>10</v>
+      </c>
+      <c r="AE86">
+        <v>1.22</v>
+      </c>
+      <c r="AF86">
+        <v>4.2</v>
+      </c>
+      <c r="AG86">
+        <v>1.67</v>
+      </c>
+      <c r="AH86">
+        <v>2.15</v>
+      </c>
+      <c r="AI86">
+        <v>1.53</v>
+      </c>
+      <c r="AJ86">
+        <v>2.3</v>
+      </c>
+      <c r="AK86">
+        <v>1.7</v>
+      </c>
+      <c r="AL86">
+        <v>1.22</v>
+      </c>
+      <c r="AM86">
+        <v>1.33</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>1.75</v>
+      </c>
+      <c r="AP86">
+        <v>0.2</v>
+      </c>
+      <c r="AQ86">
+        <v>1.6</v>
+      </c>
+      <c r="AR86">
+        <v>1.36</v>
+      </c>
+      <c r="AS86">
+        <v>1.52</v>
+      </c>
+      <c r="AT86">
+        <v>2.88</v>
+      </c>
+      <c r="AU86">
+        <v>4</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>4</v>
+      </c>
+      <c r="AX86">
+        <v>7</v>
+      </c>
+      <c r="AY86">
+        <v>15</v>
+      </c>
+      <c r="AZ86">
+        <v>14</v>
+      </c>
+      <c r="BA86">
+        <v>4</v>
+      </c>
+      <c r="BB86">
+        <v>3</v>
+      </c>
+      <c r="BC86">
+        <v>7</v>
+      </c>
+      <c r="BD86">
+        <v>3.4</v>
+      </c>
+      <c r="BE86">
+        <v>7.1</v>
+      </c>
+      <c r="BF86">
+        <v>1.49</v>
+      </c>
+      <c r="BG86">
+        <v>1.18</v>
+      </c>
+      <c r="BH86">
+        <v>4.1</v>
+      </c>
+      <c r="BI86">
+        <v>1.3</v>
+      </c>
+      <c r="BJ86">
+        <v>2.88</v>
+      </c>
+      <c r="BK86">
+        <v>1.67</v>
+      </c>
+      <c r="BL86">
+        <v>2.16</v>
+      </c>
+      <c r="BM86">
+        <v>2.06</v>
+      </c>
+      <c r="BN86">
+        <v>1.74</v>
+      </c>
+      <c r="BO86">
+        <v>2.52</v>
+      </c>
+      <c r="BP86">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7465479</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s">
+        <v>70</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87" t="s">
+        <v>148</v>
+      </c>
+      <c r="P87" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q87">
+        <v>2.5</v>
+      </c>
+      <c r="R87">
+        <v>2.3</v>
+      </c>
+      <c r="S87">
+        <v>3.6</v>
+      </c>
+      <c r="T87">
+        <v>1.25</v>
+      </c>
+      <c r="U87">
+        <v>3.65</v>
+      </c>
+      <c r="V87">
+        <v>2.24</v>
+      </c>
+      <c r="W87">
+        <v>1.59</v>
+      </c>
+      <c r="X87">
+        <v>4.95</v>
+      </c>
+      <c r="Y87">
+        <v>1.14</v>
+      </c>
+      <c r="Z87">
+        <v>2</v>
+      </c>
+      <c r="AA87">
+        <v>3.75</v>
+      </c>
+      <c r="AB87">
+        <v>3.4</v>
+      </c>
+      <c r="AC87">
+        <v>1.01</v>
+      </c>
+      <c r="AD87">
+        <v>13</v>
+      </c>
+      <c r="AE87">
+        <v>1.13</v>
+      </c>
+      <c r="AF87">
+        <v>5.2</v>
+      </c>
+      <c r="AG87">
+        <v>1.5</v>
+      </c>
+      <c r="AH87">
+        <v>2.4</v>
+      </c>
+      <c r="AI87">
+        <v>1.47</v>
+      </c>
+      <c r="AJ87">
+        <v>2.55</v>
+      </c>
+      <c r="AK87">
+        <v>1.33</v>
+      </c>
+      <c r="AL87">
+        <v>1.2</v>
+      </c>
+      <c r="AM87">
+        <v>1.83</v>
+      </c>
+      <c r="AN87">
+        <v>1.75</v>
+      </c>
+      <c r="AO87">
+        <v>1.75</v>
+      </c>
+      <c r="AP87">
+        <v>1.4</v>
+      </c>
+      <c r="AQ87">
+        <v>2</v>
+      </c>
+      <c r="AR87">
+        <v>1.95</v>
+      </c>
+      <c r="AS87">
+        <v>1.2</v>
+      </c>
+      <c r="AT87">
+        <v>3.15</v>
+      </c>
+      <c r="AU87">
+        <v>7</v>
+      </c>
+      <c r="AV87">
+        <v>7</v>
+      </c>
+      <c r="AW87">
+        <v>3</v>
+      </c>
+      <c r="AX87">
+        <v>3</v>
+      </c>
+      <c r="AY87">
+        <v>15</v>
+      </c>
+      <c r="AZ87">
+        <v>15</v>
+      </c>
+      <c r="BA87">
+        <v>8</v>
+      </c>
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
+        <v>12</v>
+      </c>
+      <c r="BD87">
+        <v>1.46</v>
+      </c>
+      <c r="BE87">
+        <v>7.3</v>
+      </c>
+      <c r="BF87">
+        <v>3.54</v>
+      </c>
+      <c r="BG87">
+        <v>1.19</v>
+      </c>
+      <c r="BH87">
+        <v>3.9</v>
+      </c>
+      <c r="BI87">
+        <v>1.32</v>
+      </c>
+      <c r="BJ87">
+        <v>2.78</v>
+      </c>
+      <c r="BK87">
+        <v>1.67</v>
+      </c>
+      <c r="BL87">
+        <v>2.19</v>
+      </c>
+      <c r="BM87">
+        <v>2.07</v>
+      </c>
+      <c r="BN87">
+        <v>1.74</v>
+      </c>
+      <c r="BO87">
+        <v>2.59</v>
+      </c>
+      <c r="BP87">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7465477</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>71</v>
+      </c>
+      <c r="H88" t="s">
+        <v>73</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>149</v>
+      </c>
+      <c r="P88" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q88">
+        <v>2.1</v>
+      </c>
+      <c r="R88">
+        <v>2.45</v>
+      </c>
+      <c r="S88">
+        <v>4.2</v>
+      </c>
+      <c r="T88">
+        <v>1.24</v>
+      </c>
+      <c r="U88">
+        <v>3.8</v>
+      </c>
+      <c r="V88">
+        <v>2.13</v>
+      </c>
+      <c r="W88">
+        <v>1.67</v>
+      </c>
+      <c r="X88">
+        <v>4.65</v>
+      </c>
+      <c r="Y88">
+        <v>1.17</v>
+      </c>
+      <c r="Z88">
+        <v>1.65</v>
+      </c>
+      <c r="AA88">
+        <v>4.2</v>
+      </c>
+      <c r="AB88">
+        <v>4.5</v>
+      </c>
+      <c r="AC88">
+        <v>1.01</v>
+      </c>
+      <c r="AD88">
+        <v>17</v>
+      </c>
+      <c r="AE88">
+        <v>1.11</v>
+      </c>
+      <c r="AF88">
+        <v>5.5</v>
+      </c>
+      <c r="AG88">
+        <v>1.45</v>
+      </c>
+      <c r="AH88">
+        <v>2.55</v>
+      </c>
+      <c r="AI88">
+        <v>1.49</v>
+      </c>
+      <c r="AJ88">
+        <v>2.54</v>
+      </c>
+      <c r="AK88">
+        <v>1.2</v>
+      </c>
+      <c r="AL88">
+        <v>1.17</v>
+      </c>
+      <c r="AM88">
+        <v>2.15</v>
+      </c>
+      <c r="AN88">
+        <v>0.5</v>
+      </c>
+      <c r="AO88">
+        <v>0.5</v>
+      </c>
+      <c r="AP88">
+        <v>0.6</v>
+      </c>
+      <c r="AQ88">
+        <v>0.6</v>
+      </c>
+      <c r="AR88">
+        <v>1.89</v>
+      </c>
+      <c r="AS88">
+        <v>1.24</v>
+      </c>
+      <c r="AT88">
+        <v>3.13</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>6</v>
+      </c>
+      <c r="AW88">
+        <v>7</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>12</v>
+      </c>
+      <c r="AZ88">
+        <v>12</v>
+      </c>
+      <c r="BA88">
+        <v>3</v>
+      </c>
+      <c r="BB88">
+        <v>7</v>
+      </c>
+      <c r="BC88">
+        <v>10</v>
+      </c>
+      <c r="BD88">
+        <v>1.36</v>
+      </c>
+      <c r="BE88">
+        <v>7.7</v>
+      </c>
+      <c r="BF88">
+        <v>4.15</v>
+      </c>
+      <c r="BG88">
+        <v>1.17</v>
+      </c>
+      <c r="BH88">
+        <v>4.8</v>
+      </c>
+      <c r="BI88">
+        <v>1.28</v>
+      </c>
+      <c r="BJ88">
+        <v>2.97</v>
+      </c>
+      <c r="BK88">
+        <v>1.59</v>
+      </c>
+      <c r="BL88">
+        <v>2.31</v>
+      </c>
+      <c r="BM88">
+        <v>1.97</v>
+      </c>
+      <c r="BN88">
+        <v>1.83</v>
+      </c>
+      <c r="BO88">
+        <v>2.51</v>
+      </c>
+      <c r="BP88">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7465476</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s">
+        <v>79</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>150</v>
+      </c>
+      <c r="P89" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q89">
+        <v>2.4</v>
+      </c>
+      <c r="R89">
+        <v>2.63</v>
+      </c>
+      <c r="S89">
+        <v>3.4</v>
+      </c>
+      <c r="T89">
+        <v>1.2</v>
+      </c>
+      <c r="U89">
+        <v>4.33</v>
+      </c>
+      <c r="V89">
+        <v>1.91</v>
+      </c>
+      <c r="W89">
+        <v>1.8</v>
+      </c>
+      <c r="X89">
+        <v>4</v>
+      </c>
+      <c r="Y89">
+        <v>1.22</v>
+      </c>
+      <c r="Z89">
+        <v>1.91</v>
+      </c>
+      <c r="AA89">
+        <v>4.2</v>
+      </c>
+      <c r="AB89">
+        <v>3</v>
+      </c>
+      <c r="AC89">
+        <v>1.01</v>
+      </c>
+      <c r="AD89">
+        <v>17</v>
+      </c>
+      <c r="AE89">
+        <v>1.06</v>
+      </c>
+      <c r="AF89">
+        <v>7.5</v>
+      </c>
+      <c r="AG89">
+        <v>1.33</v>
+      </c>
+      <c r="AH89">
+        <v>3.4</v>
+      </c>
+      <c r="AI89">
+        <v>1.36</v>
+      </c>
+      <c r="AJ89">
+        <v>3</v>
+      </c>
+      <c r="AK89">
+        <v>1.34</v>
+      </c>
+      <c r="AL89">
+        <v>1.22</v>
+      </c>
+      <c r="AM89">
+        <v>1.78</v>
+      </c>
+      <c r="AN89">
+        <v>1.67</v>
+      </c>
+      <c r="AO89">
+        <v>2.25</v>
+      </c>
+      <c r="AP89">
+        <v>2</v>
+      </c>
+      <c r="AQ89">
+        <v>1.8</v>
+      </c>
+      <c r="AR89">
+        <v>1.66</v>
+      </c>
+      <c r="AS89">
+        <v>1.69</v>
+      </c>
+      <c r="AT89">
+        <v>3.35</v>
+      </c>
+      <c r="AU89">
+        <v>11</v>
+      </c>
+      <c r="AV89">
+        <v>2</v>
+      </c>
+      <c r="AW89">
+        <v>8</v>
+      </c>
+      <c r="AX89">
+        <v>4</v>
+      </c>
+      <c r="AY89">
+        <v>27</v>
+      </c>
+      <c r="AZ89">
+        <v>7</v>
+      </c>
+      <c r="BA89">
+        <v>10</v>
+      </c>
+      <c r="BB89">
+        <v>0</v>
+      </c>
+      <c r="BC89">
+        <v>10</v>
+      </c>
+      <c r="BD89">
+        <v>1.49</v>
+      </c>
+      <c r="BE89">
+        <v>7.4</v>
+      </c>
+      <c r="BF89">
+        <v>3.46</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>1.22</v>
+      </c>
+      <c r="BJ89">
+        <v>3.35</v>
+      </c>
+      <c r="BK89">
+        <v>1.48</v>
+      </c>
+      <c r="BL89">
+        <v>2.57</v>
+      </c>
+      <c r="BM89">
+        <v>1.8</v>
+      </c>
+      <c r="BN89">
+        <v>2</v>
+      </c>
+      <c r="BO89">
+        <v>2.23</v>
+      </c>
+      <c r="BP89">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7465475</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>85</v>
+      </c>
+      <c r="H90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>95</v>
+      </c>
+      <c r="P90" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q90">
+        <v>3.04</v>
+      </c>
+      <c r="R90">
+        <v>2.34</v>
+      </c>
+      <c r="S90">
+        <v>2.88</v>
+      </c>
+      <c r="T90">
+        <v>1.28</v>
+      </c>
+      <c r="U90">
+        <v>3.3</v>
+      </c>
+      <c r="V90">
+        <v>2.25</v>
+      </c>
+      <c r="W90">
+        <v>1.57</v>
+      </c>
+      <c r="X90">
+        <v>5.1</v>
+      </c>
+      <c r="Y90">
+        <v>1.15</v>
+      </c>
+      <c r="Z90">
+        <v>2.55</v>
+      </c>
+      <c r="AA90">
+        <v>3.55</v>
+      </c>
+      <c r="AB90">
+        <v>2.5</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>13</v>
+      </c>
+      <c r="AE90">
+        <v>1.18</v>
+      </c>
+      <c r="AF90">
+        <v>4.75</v>
+      </c>
+      <c r="AG90">
+        <v>1.55</v>
+      </c>
+      <c r="AH90">
+        <v>2.4</v>
+      </c>
+      <c r="AI90">
+        <v>1.44</v>
+      </c>
+      <c r="AJ90">
+        <v>2.55</v>
+      </c>
+      <c r="AK90">
+        <v>1.5</v>
+      </c>
+      <c r="AL90">
+        <v>1.22</v>
+      </c>
+      <c r="AM90">
+        <v>1.48</v>
+      </c>
+      <c r="AN90">
+        <v>2.5</v>
+      </c>
+      <c r="AO90">
+        <v>1.33</v>
+      </c>
+      <c r="AP90">
+        <v>2.2</v>
+      </c>
+      <c r="AQ90">
+        <v>1.25</v>
+      </c>
+      <c r="AR90">
+        <v>1.95</v>
+      </c>
+      <c r="AS90">
+        <v>1.66</v>
+      </c>
+      <c r="AT90">
+        <v>3.61</v>
+      </c>
+      <c r="AU90">
+        <v>3</v>
+      </c>
+      <c r="AV90">
+        <v>8</v>
+      </c>
+      <c r="AW90">
+        <v>2</v>
+      </c>
+      <c r="AX90">
+        <v>9</v>
+      </c>
+      <c r="AY90">
+        <v>7</v>
+      </c>
+      <c r="AZ90">
+        <v>19</v>
+      </c>
+      <c r="BA90">
+        <v>9</v>
+      </c>
+      <c r="BB90">
+        <v>5</v>
+      </c>
+      <c r="BC90">
+        <v>14</v>
+      </c>
+      <c r="BD90">
+        <v>2.17</v>
+      </c>
+      <c r="BE90">
+        <v>6.55</v>
+      </c>
+      <c r="BF90">
+        <v>2.03</v>
+      </c>
+      <c r="BG90">
+        <v>1.19</v>
+      </c>
+      <c r="BH90">
+        <v>4</v>
+      </c>
+      <c r="BI90">
+        <v>1.32</v>
+      </c>
+      <c r="BJ90">
+        <v>2.78</v>
+      </c>
+      <c r="BK90">
+        <v>1.67</v>
+      </c>
+      <c r="BL90">
+        <v>2.19</v>
+      </c>
+      <c r="BM90">
+        <v>2.06</v>
+      </c>
+      <c r="BN90">
+        <v>1.75</v>
+      </c>
+      <c r="BO90">
+        <v>2.59</v>
+      </c>
+      <c r="BP90">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7465478</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" t="s">
+        <v>89</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>151</v>
+      </c>
+      <c r="P91" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q91">
+        <v>2.38</v>
+      </c>
+      <c r="R91">
+        <v>2.4</v>
+      </c>
+      <c r="S91">
+        <v>4</v>
+      </c>
+      <c r="T91">
+        <v>1.29</v>
+      </c>
+      <c r="U91">
+        <v>3.5</v>
+      </c>
+      <c r="V91">
+        <v>2.25</v>
+      </c>
+      <c r="W91">
+        <v>1.57</v>
+      </c>
+      <c r="X91">
+        <v>5.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.14</v>
+      </c>
+      <c r="Z91">
+        <v>1.8</v>
+      </c>
+      <c r="AA91">
+        <v>4</v>
+      </c>
+      <c r="AB91">
+        <v>3.5</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>13</v>
+      </c>
+      <c r="AE91">
+        <v>1.15</v>
+      </c>
+      <c r="AF91">
+        <v>5.25</v>
+      </c>
+      <c r="AG91">
+        <v>1.53</v>
+      </c>
+      <c r="AH91">
+        <v>2.4</v>
+      </c>
+      <c r="AI91">
+        <v>1.53</v>
+      </c>
+      <c r="AJ91">
+        <v>2.38</v>
+      </c>
+      <c r="AK91">
+        <v>1.25</v>
+      </c>
+      <c r="AL91">
+        <v>1.18</v>
+      </c>
+      <c r="AM91">
+        <v>1.93</v>
+      </c>
+      <c r="AN91">
+        <v>1.75</v>
+      </c>
+      <c r="AO91">
+        <v>2</v>
+      </c>
+      <c r="AP91">
+        <v>1.6</v>
+      </c>
+      <c r="AQ91">
+        <v>1.8</v>
+      </c>
+      <c r="AR91">
+        <v>1.69</v>
+      </c>
+      <c r="AS91">
+        <v>1.63</v>
+      </c>
+      <c r="AT91">
+        <v>3.32</v>
+      </c>
+      <c r="AU91">
+        <v>12</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>8</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
+        <v>24</v>
+      </c>
+      <c r="AZ91">
+        <v>7</v>
+      </c>
+      <c r="BA91">
+        <v>10</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>14</v>
+      </c>
+      <c r="BD91">
+        <v>1.49</v>
+      </c>
+      <c r="BE91">
+        <v>7.2</v>
+      </c>
+      <c r="BF91">
+        <v>3.38</v>
+      </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>1.27</v>
+      </c>
+      <c r="BJ91">
+        <v>3.04</v>
+      </c>
+      <c r="BK91">
+        <v>1.56</v>
+      </c>
+      <c r="BL91">
+        <v>2.34</v>
+      </c>
+      <c r="BM91">
+        <v>1.94</v>
+      </c>
+      <c r="BN91">
+        <v>1.85</v>
+      </c>
+      <c r="BO91">
+        <v>2.43</v>
+      </c>
+      <c r="BP91">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -17699,7 +17699,7 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F82">
         <v>9</v>
@@ -17828,19 +17828,19 @@
         <v>5</v>
       </c>
       <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>3</v>
+      </c>
+      <c r="AX82">
+        <v>10</v>
+      </c>
+      <c r="AY82">
         <v>8</v>
       </c>
-      <c r="AW82">
-        <v>4</v>
-      </c>
-      <c r="AX82">
+      <c r="AZ82">
         <v>15</v>
-      </c>
-      <c r="AY82">
-        <v>11</v>
-      </c>
-      <c r="AZ82">
-        <v>25</v>
       </c>
       <c r="BA82">
         <v>4</v>
@@ -17905,7 +17905,7 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F83">
         <v>9</v>
@@ -18031,22 +18031,22 @@
         <v>3.21</v>
       </c>
       <c r="AU83">
+        <v>5</v>
+      </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
+      <c r="AW83">
         <v>3</v>
-      </c>
-      <c r="AV83">
-        <v>7</v>
-      </c>
-      <c r="AW83">
-        <v>5</v>
       </c>
       <c r="AX83">
         <v>4</v>
       </c>
       <c r="AY83">
+        <v>8</v>
+      </c>
+      <c r="AZ83">
         <v>10</v>
-      </c>
-      <c r="AZ83">
-        <v>14</v>
       </c>
       <c r="BA83">
         <v>7</v>
@@ -18111,7 +18111,7 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -18237,22 +18237,22 @@
         <v>2.83</v>
       </c>
       <c r="AU84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV84">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AW84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX84">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY84">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ84">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="BA84">
         <v>4</v>
@@ -18317,7 +18317,7 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F85">
         <v>9</v>
@@ -18443,7 +18443,7 @@
         <v>3.83</v>
       </c>
       <c r="AU85">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV85">
         <v>3</v>
@@ -18455,10 +18455,10 @@
         <v>2</v>
       </c>
       <c r="AY85">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AZ85">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA85">
         <v>8</v>
@@ -18523,7 +18523,7 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F86">
         <v>9</v>
@@ -18649,31 +18649,31 @@
         <v>2.88</v>
       </c>
       <c r="AU86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV86">
         <v>4</v>
       </c>
       <c r="AW86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY86">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AZ86">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB86">
         <v>3</v>
       </c>
       <c r="BC86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD86">
         <v>3.4</v>
@@ -18729,7 +18729,7 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F87">
         <v>9</v>
@@ -18855,22 +18855,22 @@
         <v>3.15</v>
       </c>
       <c r="AU87">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV87">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW87">
         <v>3</v>
       </c>
       <c r="AX87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY87">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AZ87">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BA87">
         <v>8</v>
@@ -18935,7 +18935,7 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F88">
         <v>9</v>
@@ -19061,22 +19061,22 @@
         <v>3.13</v>
       </c>
       <c r="AU88">
+        <v>4</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
         <v>5</v>
       </c>
-      <c r="AV88">
-        <v>6</v>
-      </c>
-      <c r="AW88">
+      <c r="AX88">
+        <v>3</v>
+      </c>
+      <c r="AY88">
+        <v>9</v>
+      </c>
+      <c r="AZ88">
         <v>7</v>
-      </c>
-      <c r="AX88">
-        <v>4</v>
-      </c>
-      <c r="AY88">
-        <v>12</v>
-      </c>
-      <c r="AZ88">
-        <v>12</v>
       </c>
       <c r="BA88">
         <v>3</v>
@@ -19141,7 +19141,7 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F89">
         <v>9</v>
@@ -19267,22 +19267,22 @@
         <v>3.35</v>
       </c>
       <c r="AU89">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV89">
         <v>2</v>
       </c>
       <c r="AW89">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX89">
         <v>4</v>
       </c>
       <c r="AY89">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AZ89">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA89">
         <v>10</v>
@@ -19347,7 +19347,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F90">
         <v>9</v>
@@ -19473,22 +19473,22 @@
         <v>3.61</v>
       </c>
       <c r="AU90">
+        <v>0</v>
+      </c>
+      <c r="AV90">
+        <v>7</v>
+      </c>
+      <c r="AW90">
         <v>3</v>
       </c>
-      <c r="AV90">
-        <v>8</v>
-      </c>
-      <c r="AW90">
-        <v>2</v>
-      </c>
       <c r="AX90">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY90">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AZ90">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BA90">
         <v>9</v>
@@ -19553,7 +19553,7 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F91">
         <v>9</v>
@@ -19682,19 +19682,19 @@
         <v>12</v>
       </c>
       <c r="AV91">
+        <v>4</v>
+      </c>
+      <c r="AW91">
         <v>5</v>
       </c>
-      <c r="AW91">
-        <v>8</v>
-      </c>
       <c r="AX91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY91">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA91">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -17699,7 +17699,7 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F82">
         <v>9</v>
@@ -17828,19 +17828,19 @@
         <v>5</v>
       </c>
       <c r="AV82">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX82">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AY82">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ82">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="BA82">
         <v>4</v>
@@ -17905,7 +17905,7 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F83">
         <v>9</v>
@@ -18031,22 +18031,22 @@
         <v>3.21</v>
       </c>
       <c r="AU83">
+        <v>3</v>
+      </c>
+      <c r="AV83">
+        <v>7</v>
+      </c>
+      <c r="AW83">
         <v>5</v>
-      </c>
-      <c r="AV83">
-        <v>6</v>
-      </c>
-      <c r="AW83">
-        <v>3</v>
       </c>
       <c r="AX83">
         <v>4</v>
       </c>
       <c r="AY83">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ83">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA83">
         <v>7</v>
@@ -18111,10 +18111,10 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G84" t="s">
         <v>74</v>
@@ -18237,22 +18237,22 @@
         <v>2.83</v>
       </c>
       <c r="AU84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV84">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AW84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX84">
+        <v>10</v>
+      </c>
+      <c r="AY84">
         <v>7</v>
       </c>
-      <c r="AY84">
-        <v>5</v>
-      </c>
       <c r="AZ84">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="BA84">
         <v>4</v>
@@ -18317,7 +18317,7 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F85">
         <v>9</v>
@@ -18443,7 +18443,7 @@
         <v>3.83</v>
       </c>
       <c r="AU85">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV85">
         <v>3</v>
@@ -18455,10 +18455,10 @@
         <v>2</v>
       </c>
       <c r="AY85">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA85">
         <v>8</v>
@@ -18523,7 +18523,7 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F86">
         <v>9</v>
@@ -18649,31 +18649,31 @@
         <v>2.88</v>
       </c>
       <c r="AU86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV86">
         <v>4</v>
       </c>
       <c r="AW86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY86">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ86">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB86">
         <v>3</v>
       </c>
       <c r="BC86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD86">
         <v>3.4</v>
@@ -18729,7 +18729,7 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F87">
         <v>9</v>
@@ -18855,22 +18855,22 @@
         <v>3.15</v>
       </c>
       <c r="AU87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW87">
         <v>3</v>
       </c>
       <c r="AX87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY87">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AZ87">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BA87">
         <v>8</v>
@@ -18935,7 +18935,7 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F88">
         <v>9</v>
@@ -19061,22 +19061,22 @@
         <v>3.13</v>
       </c>
       <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>6</v>
+      </c>
+      <c r="AW88">
+        <v>7</v>
+      </c>
+      <c r="AX88">
         <v>4</v>
       </c>
-      <c r="AV88">
-        <v>4</v>
-      </c>
-      <c r="AW88">
-        <v>5</v>
-      </c>
-      <c r="AX88">
-        <v>3</v>
-      </c>
       <c r="AY88">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ88">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA88">
         <v>3</v>
@@ -19141,7 +19141,7 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F89">
         <v>9</v>
@@ -19267,22 +19267,22 @@
         <v>3.35</v>
       </c>
       <c r="AU89">
+        <v>11</v>
+      </c>
+      <c r="AV89">
+        <v>2</v>
+      </c>
+      <c r="AW89">
         <v>8</v>
-      </c>
-      <c r="AV89">
-        <v>2</v>
-      </c>
-      <c r="AW89">
-        <v>4</v>
       </c>
       <c r="AX89">
         <v>4</v>
       </c>
       <c r="AY89">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AZ89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA89">
         <v>10</v>
@@ -19347,7 +19347,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F90">
         <v>9</v>
@@ -19473,22 +19473,22 @@
         <v>3.61</v>
       </c>
       <c r="AU90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV90">
+        <v>8</v>
+      </c>
+      <c r="AW90">
+        <v>2</v>
+      </c>
+      <c r="AX90">
+        <v>9</v>
+      </c>
+      <c r="AY90">
         <v>7</v>
       </c>
-      <c r="AW90">
-        <v>3</v>
-      </c>
-      <c r="AX90">
-        <v>5</v>
-      </c>
-      <c r="AY90">
-        <v>3</v>
-      </c>
       <c r="AZ90">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA90">
         <v>9</v>
@@ -19553,7 +19553,7 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F91">
         <v>9</v>
@@ -19682,19 +19682,19 @@
         <v>12</v>
       </c>
       <c r="AV91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW91">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY91">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA91">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,9 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['6', '75']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -632,6 +635,9 @@
   </si>
   <si>
     <t>['35', '90+5']</t>
+  </si>
+  <si>
+    <t>['31', '34']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1458,7 +1464,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1664,7 +1670,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1870,7 +1876,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2076,7 +2082,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2282,7 +2288,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2488,7 +2494,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2694,7 +2700,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2900,7 +2906,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3106,7 +3112,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3312,7 +3318,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3518,7 +3524,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3596,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -4011,7 +4017,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4136,7 +4142,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4960,7 +4966,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5990,7 +5996,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6196,7 +6202,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6402,7 +6408,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6814,7 +6820,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7226,7 +7232,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7716,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7844,7 +7850,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8050,7 +8056,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8668,7 +8674,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8874,7 +8880,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9286,7 +9292,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9367,7 +9373,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ41">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9776,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
         <v>0.6</v>
@@ -9904,7 +9910,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10110,7 +10116,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10316,7 +10322,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10522,7 +10528,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10728,7 +10734,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11140,7 +11146,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11346,7 +11352,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11552,7 +11558,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12376,7 +12382,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12788,7 +12794,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12994,7 +13000,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13406,7 +13412,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13612,7 +13618,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13818,7 +13824,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14436,7 +14442,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14848,7 +14854,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15054,7 +15060,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15260,7 +15266,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15341,7 +15347,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR70">
         <v>1.9</v>
@@ -15466,7 +15472,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15672,7 +15678,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15878,7 +15884,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16084,7 +16090,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16290,7 +16296,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16780,7 +16786,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ77">
         <v>1.75</v>
@@ -16908,7 +16914,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17114,7 +17120,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17526,7 +17532,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17938,7 +17944,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18144,7 +18150,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18762,7 +18768,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -18968,7 +18974,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19380,7 +19386,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19461,7 +19467,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR90">
         <v>1.95</v>
@@ -19586,7 +19592,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19743,6 +19749,212 @@
       </c>
       <c r="BP91">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7465485</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45577.625</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>81</v>
+      </c>
+      <c r="H92" t="s">
+        <v>77</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>4</v>
+      </c>
+      <c r="O92" t="s">
+        <v>152</v>
+      </c>
+      <c r="P92" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q92">
+        <v>2.75</v>
+      </c>
+      <c r="R92">
+        <v>2.4</v>
+      </c>
+      <c r="S92">
+        <v>3.4</v>
+      </c>
+      <c r="T92">
+        <v>1.29</v>
+      </c>
+      <c r="U92">
+        <v>3.5</v>
+      </c>
+      <c r="V92">
+        <v>2.25</v>
+      </c>
+      <c r="W92">
+        <v>1.57</v>
+      </c>
+      <c r="X92">
+        <v>5.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.14</v>
+      </c>
+      <c r="Z92">
+        <v>2.1</v>
+      </c>
+      <c r="AA92">
+        <v>3.6</v>
+      </c>
+      <c r="AB92">
+        <v>2.88</v>
+      </c>
+      <c r="AC92">
+        <v>1.02</v>
+      </c>
+      <c r="AD92">
+        <v>17</v>
+      </c>
+      <c r="AE92">
+        <v>1.17</v>
+      </c>
+      <c r="AF92">
+        <v>5</v>
+      </c>
+      <c r="AG92">
+        <v>1.55</v>
+      </c>
+      <c r="AH92">
+        <v>2.3</v>
+      </c>
+      <c r="AI92">
+        <v>1.5</v>
+      </c>
+      <c r="AJ92">
+        <v>2.5</v>
+      </c>
+      <c r="AK92">
+        <v>1.44</v>
+      </c>
+      <c r="AL92">
+        <v>1.22</v>
+      </c>
+      <c r="AM92">
+        <v>1.62</v>
+      </c>
+      <c r="AN92">
+        <v>1.25</v>
+      </c>
+      <c r="AO92">
+        <v>1.25</v>
+      </c>
+      <c r="AP92">
+        <v>1.2</v>
+      </c>
+      <c r="AQ92">
+        <v>1.2</v>
+      </c>
+      <c r="AR92">
+        <v>1.75</v>
+      </c>
+      <c r="AS92">
+        <v>1.79</v>
+      </c>
+      <c r="AT92">
+        <v>3.54</v>
+      </c>
+      <c r="AU92">
+        <v>5</v>
+      </c>
+      <c r="AV92">
+        <v>10</v>
+      </c>
+      <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>2</v>
+      </c>
+      <c r="AY92">
+        <v>15</v>
+      </c>
+      <c r="AZ92">
+        <v>15</v>
+      </c>
+      <c r="BA92">
+        <v>1</v>
+      </c>
+      <c r="BB92">
+        <v>6</v>
+      </c>
+      <c r="BC92">
+        <v>7</v>
+      </c>
+      <c r="BD92">
+        <v>1.52</v>
+      </c>
+      <c r="BE92">
+        <v>7.6</v>
+      </c>
+      <c r="BF92">
+        <v>2.95</v>
+      </c>
+      <c r="BG92">
+        <v>1.17</v>
+      </c>
+      <c r="BH92">
+        <v>4.7</v>
+      </c>
+      <c r="BI92">
+        <v>1.3</v>
+      </c>
+      <c r="BJ92">
+        <v>3.15</v>
+      </c>
+      <c r="BK92">
+        <v>1.55</v>
+      </c>
+      <c r="BL92">
+        <v>2.28</v>
+      </c>
+      <c r="BM92">
+        <v>1.92</v>
+      </c>
+      <c r="BN92">
+        <v>1.75</v>
+      </c>
+      <c r="BO92">
+        <v>2.52</v>
+      </c>
+      <c r="BP92">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>['6', '75']</t>
+  </si>
+  <si>
+    <t>['2', '88']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -999,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1464,7 +1467,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1670,7 +1673,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1876,7 +1879,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1954,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ5">
         <v>1.8</v>
@@ -2082,7 +2085,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2288,7 +2291,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2494,7 +2497,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2575,7 +2578,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2700,7 +2703,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2906,7 +2909,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3112,7 +3115,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3318,7 +3321,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3524,7 +3527,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4142,7 +4145,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4966,7 +4969,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5996,7 +5999,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6202,7 +6205,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6408,7 +6411,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6820,7 +6823,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7232,7 +7235,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7850,7 +7853,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -7928,7 +7931,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ34">
         <v>1.8</v>
@@ -8056,7 +8059,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8343,7 +8346,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8674,7 +8677,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8880,7 +8883,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9292,7 +9295,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9910,7 +9913,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10116,7 +10119,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10322,7 +10325,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10528,7 +10531,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10734,7 +10737,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10812,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48">
         <v>1.4</v>
@@ -11146,7 +11149,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11352,7 +11355,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11558,7 +11561,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12257,7 +12260,7 @@
         <v>3</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>1.7</v>
@@ -12382,7 +12385,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12794,7 +12797,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13000,7 +13003,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13412,7 +13415,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13618,7 +13621,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13824,7 +13827,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14442,7 +14445,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14854,7 +14857,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15060,7 +15063,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15266,7 +15269,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15472,7 +15475,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15678,7 +15681,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15759,7 +15762,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -15884,7 +15887,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -15962,7 +15965,7 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -16090,7 +16093,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16296,7 +16299,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16914,7 +16917,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17120,7 +17123,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17532,7 +17535,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17944,7 +17947,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18150,7 +18153,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18768,7 +18771,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -18974,7 +18977,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19386,7 +19389,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19592,7 +19595,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19798,7 +19801,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -19955,6 +19958,212 @@
       </c>
       <c r="BP92">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7465487</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45578.39583333334</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>73</v>
+      </c>
+      <c r="H93" t="s">
+        <v>80</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>153</v>
+      </c>
+      <c r="P93" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q93">
+        <v>2.63</v>
+      </c>
+      <c r="R93">
+        <v>2.4</v>
+      </c>
+      <c r="S93">
+        <v>3.5</v>
+      </c>
+      <c r="T93">
+        <v>1.29</v>
+      </c>
+      <c r="U93">
+        <v>3.5</v>
+      </c>
+      <c r="V93">
+        <v>2.25</v>
+      </c>
+      <c r="W93">
+        <v>1.57</v>
+      </c>
+      <c r="X93">
+        <v>5.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.14</v>
+      </c>
+      <c r="Z93">
+        <v>2.05</v>
+      </c>
+      <c r="AA93">
+        <v>3.6</v>
+      </c>
+      <c r="AB93">
+        <v>3</v>
+      </c>
+      <c r="AC93">
+        <v>1.02</v>
+      </c>
+      <c r="AD93">
+        <v>17</v>
+      </c>
+      <c r="AE93">
+        <v>1.18</v>
+      </c>
+      <c r="AF93">
+        <v>4.75</v>
+      </c>
+      <c r="AG93">
+        <v>1.55</v>
+      </c>
+      <c r="AH93">
+        <v>2.3</v>
+      </c>
+      <c r="AI93">
+        <v>1.5</v>
+      </c>
+      <c r="AJ93">
+        <v>2.5</v>
+      </c>
+      <c r="AK93">
+        <v>1.36</v>
+      </c>
+      <c r="AL93">
+        <v>1.22</v>
+      </c>
+      <c r="AM93">
+        <v>1.75</v>
+      </c>
+      <c r="AN93">
+        <v>1.25</v>
+      </c>
+      <c r="AO93">
+        <v>1</v>
+      </c>
+      <c r="AP93">
+        <v>1.6</v>
+      </c>
+      <c r="AQ93">
+        <v>0.8</v>
+      </c>
+      <c r="AR93">
+        <v>1.74</v>
+      </c>
+      <c r="AS93">
+        <v>1.27</v>
+      </c>
+      <c r="AT93">
+        <v>3.01</v>
+      </c>
+      <c r="AU93">
+        <v>9</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>2</v>
+      </c>
+      <c r="AX93">
+        <v>12</v>
+      </c>
+      <c r="AY93">
+        <v>13</v>
+      </c>
+      <c r="AZ93">
+        <v>26</v>
+      </c>
+      <c r="BA93">
+        <v>6</v>
+      </c>
+      <c r="BB93">
+        <v>8</v>
+      </c>
+      <c r="BC93">
+        <v>14</v>
+      </c>
+      <c r="BD93">
+        <v>1.62</v>
+      </c>
+      <c r="BE93">
+        <v>7.3</v>
+      </c>
+      <c r="BF93">
+        <v>2.72</v>
+      </c>
+      <c r="BG93">
+        <v>1.19</v>
+      </c>
+      <c r="BH93">
+        <v>4.1</v>
+      </c>
+      <c r="BI93">
+        <v>1.38</v>
+      </c>
+      <c r="BJ93">
+        <v>2.78</v>
+      </c>
+      <c r="BK93">
+        <v>1.68</v>
+      </c>
+      <c r="BL93">
+        <v>2.02</v>
+      </c>
+      <c r="BM93">
+        <v>2.15</v>
+      </c>
+      <c r="BN93">
+        <v>1.6</v>
+      </c>
+      <c r="BO93">
+        <v>2.9</v>
+      </c>
+      <c r="BP93">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -391,16 +391,16 @@
     <t>['68', '90+1']</t>
   </si>
   <si>
-    <t>['6', '17', '22', '85']</t>
+    <t>['23', '88']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
   <si>
     <t>['30', '51', '69']</t>
   </si>
   <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
-    <t>['23', '88']</t>
+    <t>['6', '17', '22', '85']</t>
   </si>
   <si>
     <t>['45']</t>
@@ -427,16 +427,16 @@
     <t>['70', '72']</t>
   </si>
   <si>
-    <t>['11']</t>
-  </si>
-  <si>
-    <t>['19', '65', '76', '90+4']</t>
+    <t>['85', '87']</t>
   </si>
   <si>
     <t>['78', '89']</t>
   </si>
   <si>
-    <t>['85', '87']</t>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['19', '65', '76', '90+4']</t>
   </si>
   <si>
     <t>['36', '67', '75']</t>
@@ -448,13 +448,13 @@
     <t>['58']</t>
   </si>
   <si>
-    <t>['32', '45+3', '71']</t>
-  </si>
-  <si>
     <t>['60']</t>
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['32', '45+3', '71']</t>
   </si>
   <si>
     <t>['90+5']</t>
@@ -478,19 +478,19 @@
     <t>['2', '88']</t>
   </si>
   <si>
-    <t>['35', '87', '90+2']</t>
+    <t>['44', '59']</t>
+  </si>
+  <si>
+    <t>['7', '21', '71']</t>
   </si>
   <si>
     <t>['59', '78', '83', '90+1']</t>
   </si>
   <si>
-    <t>['15', '46', '73']</t>
+    <t>['35', '87', '90+2']</t>
   </si>
   <si>
-    <t>['7', '21', '71']</t>
-  </si>
-  <si>
-    <t>['44', '59']</t>
+    <t>['15', '46', '73']</t>
   </si>
   <si>
     <t>['53']</t>
@@ -583,22 +583,22 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['11', '61', '90+2']</t>
+  </si>
+  <si>
     <t>['68', '89']</t>
   </si>
   <si>
     <t>['12', '27', '83']</t>
   </si>
   <si>
-    <t>['11', '61', '90+2']</t>
+    <t>['48', '60']</t>
   </si>
   <si>
     <t>['12', '29', '51']</t>
   </si>
   <si>
     <t>['44', '60', '90']</t>
-  </si>
-  <si>
-    <t>['48', '60']</t>
   </si>
   <si>
     <t>['55', '58']</t>
@@ -619,22 +619,22 @@
     <t>['41', '48', '57', '72']</t>
   </si>
   <si>
+    <t>['41', '82']</t>
+  </si>
+  <si>
     <t>['30', '53', '72', '82']</t>
   </si>
   <si>
-    <t>['41', '82']</t>
+    <t>['14', '82']</t>
+  </si>
+  <si>
+    <t>['33', '39', '58', '90+6']</t>
   </si>
   <si>
     <t>['30']</t>
   </si>
   <si>
     <t>['6', '11']</t>
-  </si>
-  <si>
-    <t>['33', '39', '58', '90+6']</t>
-  </si>
-  <si>
-    <t>['14', '82']</t>
   </si>
   <si>
     <t>['63']</t>
@@ -664,16 +664,16 @@
     <t>['31', '34']</t>
   </si>
   <si>
-    <t>['9', '42']</t>
+    <t>['7', '57', '72']</t>
+  </si>
+  <si>
+    <t>['15', '59', '76']</t>
   </si>
   <si>
     <t>['45+4']</t>
   </si>
   <si>
-    <t>['15', '59', '76']</t>
-  </si>
-  <si>
-    <t>['7', '57', '72']</t>
+    <t>['9', '42']</t>
   </si>
   <si>
     <t>['24', '90+2']</t>
@@ -6659,7 +6659,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>3.03</v>
@@ -7071,7 +7071,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -10943,7 +10943,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7465440</v>
+        <v>7465441</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10958,190 +10958,190 @@
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P49" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="Q49">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="R49">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="S49">
-        <v>2.85</v>
+        <v>3.42</v>
       </c>
       <c r="T49">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="U49">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="V49">
-        <v>2.05</v>
+        <v>2.36</v>
       </c>
       <c r="W49">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="X49">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y49">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Z49">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AA49">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AB49">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AC49">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD49">
         <v>12</v>
       </c>
       <c r="AE49">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AF49">
-        <v>5.3</v>
+        <v>4.45</v>
       </c>
       <c r="AG49">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AH49">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="AI49">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AJ49">
-        <v>2.7</v>
+        <v>2.41</v>
       </c>
       <c r="AK49">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AL49">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AM49">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AN49">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AO49">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR49">
-        <v>1.39</v>
+        <v>1.79</v>
       </c>
       <c r="AS49">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="AT49">
-        <v>3.17</v>
+        <v>3.44</v>
       </c>
       <c r="AU49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW49">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY49">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD49">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="BE49">
         <v>8</v>
       </c>
       <c r="BF49">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="BG49">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="BH49">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="BI49">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="BJ49">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="BK49">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="BL49">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="BM49">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="BN49">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="BO49">
-        <v>2.31</v>
+        <v>2.67</v>
       </c>
       <c r="BP49">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -11149,7 +11149,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7465439</v>
+        <v>7465440</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11164,190 +11164,190 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="P50" t="s">
         <v>93</v>
       </c>
       <c r="Q50">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="R50">
+        <v>2.4</v>
+      </c>
+      <c r="S50">
+        <v>2.85</v>
+      </c>
+      <c r="T50">
+        <v>1.25</v>
+      </c>
+      <c r="U50">
+        <v>3.6</v>
+      </c>
+      <c r="V50">
+        <v>2.05</v>
+      </c>
+      <c r="W50">
+        <v>1.67</v>
+      </c>
+      <c r="X50">
+        <v>4.4</v>
+      </c>
+      <c r="Y50">
+        <v>1.17</v>
+      </c>
+      <c r="Z50">
         <v>2.5</v>
       </c>
-      <c r="S50">
-        <v>2.52</v>
-      </c>
-      <c r="T50">
-        <v>1.27</v>
-      </c>
-      <c r="U50">
-        <v>3.54</v>
-      </c>
-      <c r="V50">
-        <v>2.31</v>
-      </c>
-      <c r="W50">
-        <v>1.6</v>
-      </c>
-      <c r="X50">
-        <v>5.1</v>
-      </c>
-      <c r="Y50">
-        <v>1.14</v>
-      </c>
-      <c r="Z50">
-        <v>3.46</v>
-      </c>
       <c r="AA50">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="AB50">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="AC50">
         <v>1.02</v>
       </c>
       <c r="AD50">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE50">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AF50">
-        <v>4.65</v>
+        <v>5.3</v>
       </c>
       <c r="AG50">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AH50">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="AI50">
+        <v>1.4</v>
+      </c>
+      <c r="AJ50">
+        <v>2.7</v>
+      </c>
+      <c r="AK50">
+        <v>1.45</v>
+      </c>
+      <c r="AL50">
+        <v>1.25</v>
+      </c>
+      <c r="AM50">
+        <v>1.47</v>
+      </c>
+      <c r="AN50">
         <v>1.5</v>
       </c>
-      <c r="AJ50">
-        <v>2.41</v>
-      </c>
-      <c r="AK50">
-        <v>1.83</v>
-      </c>
-      <c r="AL50">
-        <v>1.24</v>
-      </c>
-      <c r="AM50">
-        <v>1.28</v>
-      </c>
-      <c r="AN50">
-        <v>2</v>
-      </c>
       <c r="AO50">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AR50">
-        <v>2.41</v>
+        <v>1.39</v>
       </c>
       <c r="AS50">
-        <v>1.12</v>
+        <v>1.78</v>
       </c>
       <c r="AT50">
-        <v>3.53</v>
+        <v>3.17</v>
       </c>
       <c r="AU50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV50">
         <v>5</v>
       </c>
       <c r="AW50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX50">
         <v>5</v>
       </c>
       <c r="AY50">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ50">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA50">
+        <v>2</v>
+      </c>
+      <c r="BB50">
         <v>3</v>
       </c>
-      <c r="BB50">
-        <v>10</v>
-      </c>
       <c r="BC50">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BD50">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="BE50">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="BF50">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="BG50">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="BH50">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="BI50">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="BJ50">
-        <v>2.93</v>
+        <v>3.55</v>
       </c>
       <c r="BK50">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="BL50">
-        <v>2.16</v>
+        <v>2.45</v>
       </c>
       <c r="BM50">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="BN50">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="BO50">
-        <v>2.57</v>
+        <v>2.31</v>
       </c>
       <c r="BP50">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11355,7 +11355,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7465438</v>
+        <v>7465439</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11370,163 +11370,163 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="Q51">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="R51">
         <v>2.5</v>
       </c>
       <c r="S51">
-        <v>4.5</v>
+        <v>2.52</v>
       </c>
       <c r="T51">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="U51">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="V51">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="W51">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X51">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="Y51">
         <v>1.14</v>
       </c>
       <c r="Z51">
-        <v>1.67</v>
+        <v>3.46</v>
       </c>
       <c r="AA51">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="AB51">
-        <v>4.5</v>
+        <v>1.92</v>
       </c>
       <c r="AC51">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD51">
+        <v>19</v>
+      </c>
+      <c r="AE51">
+        <v>1.14</v>
+      </c>
+      <c r="AF51">
+        <v>4.65</v>
+      </c>
+      <c r="AG51">
+        <v>1.51</v>
+      </c>
+      <c r="AH51">
+        <v>2.32</v>
+      </c>
+      <c r="AI51">
+        <v>1.5</v>
+      </c>
+      <c r="AJ51">
+        <v>2.41</v>
+      </c>
+      <c r="AK51">
+        <v>1.83</v>
+      </c>
+      <c r="AL51">
+        <v>1.24</v>
+      </c>
+      <c r="AM51">
+        <v>1.28</v>
+      </c>
+      <c r="AN51">
+        <v>2</v>
+      </c>
+      <c r="AO51">
+        <v>1</v>
+      </c>
+      <c r="AP51">
+        <v>2.33</v>
+      </c>
+      <c r="AQ51">
+        <v>1.25</v>
+      </c>
+      <c r="AR51">
+        <v>2.41</v>
+      </c>
+      <c r="AS51">
+        <v>1.12</v>
+      </c>
+      <c r="AT51">
+        <v>3.53</v>
+      </c>
+      <c r="AU51">
+        <v>7</v>
+      </c>
+      <c r="AV51">
+        <v>5</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>5</v>
+      </c>
+      <c r="AY51">
+        <v>11</v>
+      </c>
+      <c r="AZ51">
+        <v>17</v>
+      </c>
+      <c r="BA51">
+        <v>3</v>
+      </c>
+      <c r="BB51">
         <v>10</v>
       </c>
-      <c r="AE51">
-        <v>1.18</v>
-      </c>
-      <c r="AF51">
-        <v>4.75</v>
-      </c>
-      <c r="AG51">
-        <v>1.57</v>
-      </c>
-      <c r="AH51">
-        <v>2.35</v>
-      </c>
-      <c r="AI51">
-        <v>1.57</v>
-      </c>
-      <c r="AJ51">
-        <v>2.25</v>
-      </c>
-      <c r="AK51">
-        <v>1.18</v>
-      </c>
-      <c r="AL51">
-        <v>1.2</v>
-      </c>
-      <c r="AM51">
-        <v>2.1</v>
-      </c>
-      <c r="AN51">
-        <v>3</v>
-      </c>
-      <c r="AO51">
-        <v>3</v>
-      </c>
-      <c r="AP51">
-        <v>3</v>
-      </c>
-      <c r="AQ51">
-        <v>1.5</v>
-      </c>
-      <c r="AR51">
-        <v>1.64</v>
-      </c>
-      <c r="AS51">
-        <v>1.57</v>
-      </c>
-      <c r="AT51">
-        <v>3.21</v>
-      </c>
-      <c r="AU51">
-        <v>6</v>
-      </c>
-      <c r="AV51">
-        <v>8</v>
-      </c>
-      <c r="AW51">
-        <v>8</v>
-      </c>
-      <c r="AX51">
-        <v>2</v>
-      </c>
-      <c r="AY51">
-        <v>18</v>
-      </c>
-      <c r="AZ51">
+      <c r="BC51">
         <v>13</v>
       </c>
-      <c r="BA51">
-        <v>4</v>
-      </c>
-      <c r="BB51">
-        <v>7</v>
-      </c>
-      <c r="BC51">
-        <v>11</v>
-      </c>
       <c r="BD51">
-        <v>1.65</v>
+        <v>2.44</v>
       </c>
       <c r="BE51">
         <v>8.699999999999999</v>
       </c>
       <c r="BF51">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="BG51">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BH51">
         <v>4.5</v>
@@ -11538,16 +11538,16 @@
         <v>2.93</v>
       </c>
       <c r="BK51">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="BL51">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="BM51">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="BN51">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="BO51">
         <v>2.57</v>
@@ -11561,7 +11561,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7465437</v>
+        <v>7465438</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11576,190 +11576,190 @@
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>2</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N52">
         <v>5</v>
       </c>
       <c r="O52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P52" t="s">
         <v>190</v>
       </c>
       <c r="Q52">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R52">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S52">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T52">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U52">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="V52">
         <v>2.25</v>
       </c>
       <c r="W52">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X52">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Y52">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z52">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AA52">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AB52">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AC52">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE52">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AF52">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AG52">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AH52">
         <v>2.35</v>
       </c>
       <c r="AI52">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AJ52">
         <v>2.25</v>
       </c>
       <c r="AK52">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AL52">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM52">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AN52">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP52">
-        <v>2.17</v>
+        <v>3</v>
       </c>
       <c r="AQ52">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AS52">
-        <v>0.76</v>
+        <v>1.57</v>
       </c>
       <c r="AT52">
-        <v>2.34</v>
+        <v>3.21</v>
       </c>
       <c r="AU52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV52">
         <v>8</v>
       </c>
       <c r="AW52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX52">
         <v>2</v>
       </c>
       <c r="AY52">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ52">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA52">
         <v>4</v>
       </c>
       <c r="BB52">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC52">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD52">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="BE52">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF52">
-        <v>3.22</v>
+        <v>2.6</v>
       </c>
       <c r="BG52">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BH52">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="BI52">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="BJ52">
-        <v>2.79</v>
+        <v>2.93</v>
       </c>
       <c r="BK52">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="BL52">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="BM52">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="BN52">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="BO52">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="BP52">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -11767,7 +11767,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7465441</v>
+        <v>7465437</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11782,190 +11782,190 @@
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53">
         <v>3</v>
       </c>
       <c r="N53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O53" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="P53" t="s">
         <v>191</v>
       </c>
       <c r="Q53">
-        <v>2.77</v>
+        <v>2.1</v>
       </c>
       <c r="R53">
         <v>2.45</v>
       </c>
       <c r="S53">
-        <v>3.42</v>
+        <v>4.1</v>
       </c>
       <c r="T53">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="U53">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="V53">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="W53">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="X53">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y53">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z53">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AA53">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="AB53">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="AC53">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD53">
         <v>12</v>
       </c>
       <c r="AE53">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AF53">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="AG53">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="AH53">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AI53">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AJ53">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="AK53">
-        <v>1.39</v>
+        <v>1.11</v>
       </c>
       <c r="AL53">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AM53">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="AN53">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO53">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="AR53">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AS53">
-        <v>1.65</v>
+        <v>0.76</v>
       </c>
       <c r="AT53">
-        <v>3.44</v>
+        <v>2.34</v>
       </c>
       <c r="AU53">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV53">
         <v>8</v>
       </c>
       <c r="AW53">
+        <v>7</v>
+      </c>
+      <c r="AX53">
+        <v>2</v>
+      </c>
+      <c r="AY53">
+        <v>14</v>
+      </c>
+      <c r="AZ53">
+        <v>11</v>
+      </c>
+      <c r="BA53">
         <v>4</v>
       </c>
-      <c r="AX53">
-        <v>2</v>
-      </c>
-      <c r="AY53">
-        <v>15</v>
-      </c>
-      <c r="AZ53">
-        <v>13</v>
-      </c>
-      <c r="BA53">
+      <c r="BB53">
+        <v>2</v>
+      </c>
+      <c r="BC53">
         <v>6</v>
       </c>
-      <c r="BB53">
-        <v>4</v>
-      </c>
-      <c r="BC53">
-        <v>10</v>
-      </c>
       <c r="BD53">
-        <v>1.8</v>
+        <v>1.46</v>
       </c>
       <c r="BE53">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="BF53">
-        <v>2.25</v>
+        <v>3.22</v>
       </c>
       <c r="BG53">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH53">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="BI53">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BJ53">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="BK53">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="BL53">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BM53">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="BN53">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="BO53">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="BP53">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -11973,7 +11973,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7465452</v>
+        <v>7465453</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -11988,190 +11988,190 @@
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O54" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="P54" t="s">
         <v>192</v>
       </c>
       <c r="Q54">
-        <v>2.88</v>
+        <v>3.63</v>
       </c>
       <c r="R54">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="S54">
+        <v>2.44</v>
+      </c>
+      <c r="T54">
+        <v>1.22</v>
+      </c>
+      <c r="U54">
+        <v>4</v>
+      </c>
+      <c r="V54">
+        <v>2.06</v>
+      </c>
+      <c r="W54">
+        <v>1.77</v>
+      </c>
+      <c r="X54">
+        <v>4.25</v>
+      </c>
+      <c r="Y54">
+        <v>1.2</v>
+      </c>
+      <c r="Z54">
         <v>3.3</v>
       </c>
-      <c r="T54">
-        <v>1.33</v>
-      </c>
-      <c r="U54">
-        <v>3.15</v>
-      </c>
-      <c r="V54">
-        <v>2.57</v>
-      </c>
-      <c r="W54">
-        <v>1.5</v>
-      </c>
-      <c r="X54">
-        <v>6</v>
-      </c>
-      <c r="Y54">
-        <v>1.11</v>
-      </c>
-      <c r="Z54">
-        <v>2.42</v>
-      </c>
       <c r="AA54">
-        <v>3.5</v>
+        <v>3.98</v>
       </c>
       <c r="AB54">
-        <v>2.81</v>
+        <v>2</v>
       </c>
       <c r="AC54">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD54">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AE54">
+        <v>1.08</v>
+      </c>
+      <c r="AF54">
+        <v>5.8</v>
+      </c>
+      <c r="AG54">
+        <v>1.36</v>
+      </c>
+      <c r="AH54">
+        <v>2.79</v>
+      </c>
+      <c r="AI54">
+        <v>1.35</v>
+      </c>
+      <c r="AJ54">
+        <v>2.9</v>
+      </c>
+      <c r="AK54">
+        <v>1.8</v>
+      </c>
+      <c r="AL54">
         <v>1.22</v>
       </c>
-      <c r="AF54">
-        <v>4.2</v>
-      </c>
-      <c r="AG54">
-        <v>1.7</v>
-      </c>
-      <c r="AH54">
-        <v>2</v>
-      </c>
-      <c r="AI54">
-        <v>1.57</v>
-      </c>
-      <c r="AJ54">
-        <v>2.38</v>
-      </c>
-      <c r="AK54">
-        <v>1.5</v>
-      </c>
-      <c r="AL54">
-        <v>1.3</v>
-      </c>
       <c r="AM54">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO54">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
-        <v>1.06</v>
+        <v>1.91</v>
       </c>
       <c r="AS54">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="AT54">
-        <v>2.65</v>
+        <v>3.28</v>
       </c>
       <c r="AU54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW54">
         <v>8</v>
       </c>
       <c r="AX54">
+        <v>8</v>
+      </c>
+      <c r="AY54">
+        <v>13</v>
+      </c>
+      <c r="AZ54">
+        <v>16</v>
+      </c>
+      <c r="BA54">
+        <v>1</v>
+      </c>
+      <c r="BB54">
+        <v>8</v>
+      </c>
+      <c r="BC54">
+        <v>9</v>
+      </c>
+      <c r="BD54">
+        <v>2.57</v>
+      </c>
+      <c r="BE54">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF54">
+        <v>1.66</v>
+      </c>
+      <c r="BG54">
+        <v>1.2</v>
+      </c>
+      <c r="BH54">
         <v>4</v>
       </c>
-      <c r="AY54">
-        <v>23</v>
-      </c>
-      <c r="AZ54">
-        <v>13</v>
-      </c>
-      <c r="BA54">
-        <v>4</v>
-      </c>
-      <c r="BB54">
-        <v>9</v>
-      </c>
-      <c r="BC54">
-        <v>13</v>
-      </c>
-      <c r="BD54">
-        <v>2.28</v>
-      </c>
-      <c r="BE54">
-        <v>6.45</v>
-      </c>
-      <c r="BF54">
-        <v>1.95</v>
-      </c>
-      <c r="BG54">
-        <v>1.19</v>
-      </c>
-      <c r="BH54">
-        <v>3.98</v>
-      </c>
       <c r="BI54">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BJ54">
-        <v>2.71</v>
+        <v>2.88</v>
       </c>
       <c r="BK54">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="BL54">
+        <v>2.17</v>
+      </c>
+      <c r="BM54">
         <v>2.06</v>
       </c>
-      <c r="BM54">
-        <v>2.1</v>
-      </c>
       <c r="BN54">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="BO54">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="BP54">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -12179,7 +12179,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7465447</v>
+        <v>7465452</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12194,190 +12194,190 @@
         <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
         <v>3</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
+      <c r="N55">
         <v>3</v>
       </c>
-      <c r="L55">
+      <c r="O55" t="s">
+        <v>93</v>
+      </c>
+      <c r="P55" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q55">
+        <v>2.88</v>
+      </c>
+      <c r="R55">
+        <v>2.2</v>
+      </c>
+      <c r="S55">
+        <v>3.3</v>
+      </c>
+      <c r="T55">
+        <v>1.33</v>
+      </c>
+      <c r="U55">
+        <v>3.15</v>
+      </c>
+      <c r="V55">
+        <v>2.57</v>
+      </c>
+      <c r="W55">
+        <v>1.5</v>
+      </c>
+      <c r="X55">
+        <v>6</v>
+      </c>
+      <c r="Y55">
+        <v>1.11</v>
+      </c>
+      <c r="Z55">
+        <v>2.42</v>
+      </c>
+      <c r="AA55">
+        <v>3.5</v>
+      </c>
+      <c r="AB55">
+        <v>2.81</v>
+      </c>
+      <c r="AC55">
+        <v>1.04</v>
+      </c>
+      <c r="AD55">
+        <v>11</v>
+      </c>
+      <c r="AE55">
+        <v>1.22</v>
+      </c>
+      <c r="AF55">
+        <v>4.2</v>
+      </c>
+      <c r="AG55">
+        <v>1.7</v>
+      </c>
+      <c r="AH55">
+        <v>2</v>
+      </c>
+      <c r="AI55">
+        <v>1.57</v>
+      </c>
+      <c r="AJ55">
+        <v>2.38</v>
+      </c>
+      <c r="AK55">
+        <v>1.5</v>
+      </c>
+      <c r="AL55">
+        <v>1.3</v>
+      </c>
+      <c r="AM55">
+        <v>1.51</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>1.5</v>
+      </c>
+      <c r="AP55">
+        <v>0.2</v>
+      </c>
+      <c r="AQ55">
+        <v>1.75</v>
+      </c>
+      <c r="AR55">
+        <v>1.06</v>
+      </c>
+      <c r="AS55">
+        <v>1.59</v>
+      </c>
+      <c r="AT55">
+        <v>2.65</v>
+      </c>
+      <c r="AU55">
+        <v>8</v>
+      </c>
+      <c r="AV55">
+        <v>6</v>
+      </c>
+      <c r="AW55">
+        <v>8</v>
+      </c>
+      <c r="AX55">
         <v>4</v>
       </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
+      <c r="AY55">
+        <v>23</v>
+      </c>
+      <c r="AZ55">
+        <v>13</v>
+      </c>
+      <c r="BA55">
         <v>4</v>
       </c>
-      <c r="O55" t="s">
-        <v>125</v>
-      </c>
-      <c r="P55" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q55">
-        <v>1.98</v>
-      </c>
-      <c r="R55">
-        <v>2.55</v>
-      </c>
-      <c r="S55">
-        <v>4.9</v>
-      </c>
-      <c r="T55">
-        <v>1.22</v>
-      </c>
-      <c r="U55">
-        <v>3.85</v>
-      </c>
-      <c r="V55">
-        <v>2.25</v>
-      </c>
-      <c r="W55">
-        <v>1.57</v>
-      </c>
-      <c r="X55">
-        <v>4.75</v>
-      </c>
-      <c r="Y55">
-        <v>1.15</v>
-      </c>
-      <c r="Z55">
-        <v>1.65</v>
-      </c>
-      <c r="AA55">
-        <v>4.17</v>
-      </c>
-      <c r="AB55">
-        <v>4.7</v>
-      </c>
-      <c r="AC55">
-        <v>1.01</v>
-      </c>
-      <c r="AD55">
-        <v>13.5</v>
-      </c>
-      <c r="AE55">
-        <v>1.17</v>
-      </c>
-      <c r="AF55">
-        <v>5.01</v>
-      </c>
-      <c r="AG55">
-        <v>1.55</v>
-      </c>
-      <c r="AH55">
-        <v>2.25</v>
-      </c>
-      <c r="AI55">
-        <v>1.61</v>
-      </c>
-      <c r="AJ55">
-        <v>2.17</v>
-      </c>
-      <c r="AK55">
-        <v>1.14</v>
-      </c>
-      <c r="AL55">
+      <c r="BB55">
+        <v>9</v>
+      </c>
+      <c r="BC55">
+        <v>13</v>
+      </c>
+      <c r="BD55">
+        <v>2.28</v>
+      </c>
+      <c r="BE55">
+        <v>6.45</v>
+      </c>
+      <c r="BF55">
+        <v>1.95</v>
+      </c>
+      <c r="BG55">
         <v>1.19</v>
       </c>
-      <c r="AM55">
-        <v>2.41</v>
-      </c>
-      <c r="AN55">
-        <v>3</v>
-      </c>
-      <c r="AO55">
-        <v>0.5</v>
-      </c>
-      <c r="AP55">
-        <v>3</v>
-      </c>
-      <c r="AQ55">
-        <v>0.8</v>
-      </c>
-      <c r="AR55">
-        <v>1.7</v>
-      </c>
-      <c r="AS55">
-        <v>1.33</v>
-      </c>
-      <c r="AT55">
-        <v>3.03</v>
-      </c>
-      <c r="AU55">
-        <v>10</v>
-      </c>
-      <c r="AV55">
-        <v>4</v>
-      </c>
-      <c r="AW55">
-        <v>3</v>
-      </c>
-      <c r="AX55">
-        <v>1</v>
-      </c>
-      <c r="AY55">
-        <v>18</v>
-      </c>
-      <c r="AZ55">
-        <v>5</v>
-      </c>
-      <c r="BA55">
-        <v>5</v>
-      </c>
-      <c r="BB55">
-        <v>2</v>
-      </c>
-      <c r="BC55">
-        <v>7</v>
-      </c>
-      <c r="BD55">
+      <c r="BH55">
+        <v>3.98</v>
+      </c>
+      <c r="BI55">
+        <v>1.38</v>
+      </c>
+      <c r="BJ55">
+        <v>2.71</v>
+      </c>
+      <c r="BK55">
+        <v>1.68</v>
+      </c>
+      <c r="BL55">
+        <v>2.06</v>
+      </c>
+      <c r="BM55">
+        <v>2.1</v>
+      </c>
+      <c r="BN55">
+        <v>1.62</v>
+      </c>
+      <c r="BO55">
+        <v>2.78</v>
+      </c>
+      <c r="BP55">
         <v>1.36</v>
-      </c>
-      <c r="BE55">
-        <v>7.4</v>
-      </c>
-      <c r="BF55">
-        <v>4.25</v>
-      </c>
-      <c r="BG55">
-        <v>1.24</v>
-      </c>
-      <c r="BH55">
-        <v>3.48</v>
-      </c>
-      <c r="BI55">
-        <v>1.5</v>
-      </c>
-      <c r="BJ55">
-        <v>2.53</v>
-      </c>
-      <c r="BK55">
-        <v>1.85</v>
-      </c>
-      <c r="BL55">
-        <v>1.95</v>
-      </c>
-      <c r="BM55">
-        <v>2.34</v>
-      </c>
-      <c r="BN55">
-        <v>1.58</v>
-      </c>
-      <c r="BO55">
-        <v>3.08</v>
-      </c>
-      <c r="BP55">
-        <v>1.3</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12385,7 +12385,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7465448</v>
+        <v>7465450</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12400,190 +12400,190 @@
         <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O56" t="s">
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="Q56">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R56">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S56">
-        <v>4</v>
+        <v>4.79</v>
       </c>
       <c r="T56">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="U56">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="V56">
-        <v>2.25</v>
+        <v>2.71</v>
       </c>
       <c r="W56">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="X56">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y56">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z56">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="AA56">
-        <v>3.93</v>
+        <v>3.67</v>
       </c>
       <c r="AB56">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
       <c r="AC56">
         <v>1.01</v>
       </c>
       <c r="AD56">
-        <v>14</v>
+        <v>9.9</v>
       </c>
       <c r="AE56">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AF56">
-        <v>4.78</v>
+        <v>3.56</v>
       </c>
       <c r="AG56">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="AH56">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="AI56">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="AJ56">
-        <v>2.55</v>
+        <v>2.03</v>
       </c>
       <c r="AK56">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AL56">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AM56">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="AN56">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AO56">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR56">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
       <c r="AS56">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT56">
-        <v>3.01</v>
+        <v>2.41</v>
       </c>
       <c r="AU56">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>2</v>
+      </c>
+      <c r="AX56">
+        <v>1</v>
+      </c>
+      <c r="AY56">
         <v>11</v>
       </c>
-      <c r="AW56">
-        <v>8</v>
-      </c>
-      <c r="AX56">
-        <v>4</v>
-      </c>
-      <c r="AY56">
-        <v>20</v>
-      </c>
       <c r="AZ56">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="BA56">
         <v>11</v>
       </c>
       <c r="BB56">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC56">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD56">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="BE56">
-        <v>6.8</v>
+        <v>8.9</v>
       </c>
       <c r="BF56">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="BG56">
         <v>1.2</v>
       </c>
       <c r="BH56">
-        <v>4</v>
+        <v>3.86</v>
       </c>
       <c r="BI56">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="BJ56">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="BK56">
+        <v>1.75</v>
+      </c>
+      <c r="BL56">
+        <v>2.06</v>
+      </c>
+      <c r="BM56">
+        <v>2.2</v>
+      </c>
+      <c r="BN56">
         <v>1.66</v>
       </c>
-      <c r="BL56">
-        <v>2.19</v>
-      </c>
-      <c r="BM56">
-        <v>2.07</v>
-      </c>
-      <c r="BN56">
-        <v>1.75</v>
-      </c>
       <c r="BO56">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="BP56">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12797,7 +12797,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7465450</v>
+        <v>7465448</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12812,190 +12812,190 @@
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O58" t="s">
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="Q58">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R58">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S58">
-        <v>4.79</v>
+        <v>4</v>
       </c>
       <c r="T58">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="U58">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="V58">
-        <v>2.71</v>
+        <v>2.25</v>
       </c>
       <c r="W58">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="X58">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="Y58">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z58">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="AA58">
-        <v>3.67</v>
+        <v>3.93</v>
       </c>
       <c r="AB58">
-        <v>3.56</v>
+        <v>3.6</v>
       </c>
       <c r="AC58">
         <v>1.01</v>
       </c>
       <c r="AD58">
-        <v>9.9</v>
+        <v>14</v>
       </c>
       <c r="AE58">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AF58">
-        <v>3.56</v>
+        <v>4.78</v>
       </c>
       <c r="AG58">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AH58">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="AI58">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="AJ58">
-        <v>2.03</v>
+        <v>2.55</v>
       </c>
       <c r="AK58">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AL58">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AM58">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="AN58">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AO58">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR58">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="AS58">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AT58">
-        <v>2.41</v>
+        <v>3.01</v>
       </c>
       <c r="AU58">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV58">
+        <v>11</v>
+      </c>
+      <c r="AW58">
+        <v>8</v>
+      </c>
+      <c r="AX58">
         <v>4</v>
       </c>
-      <c r="AW58">
-        <v>2</v>
-      </c>
-      <c r="AX58">
-        <v>1</v>
-      </c>
       <c r="AY58">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ58">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="BA58">
         <v>11</v>
       </c>
       <c r="BB58">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC58">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD58">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="BE58">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="BF58">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="BG58">
         <v>1.2</v>
       </c>
       <c r="BH58">
-        <v>3.86</v>
+        <v>4</v>
       </c>
       <c r="BI58">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="BJ58">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="BK58">
+        <v>1.66</v>
+      </c>
+      <c r="BL58">
+        <v>2.19</v>
+      </c>
+      <c r="BM58">
+        <v>2.07</v>
+      </c>
+      <c r="BN58">
         <v>1.75</v>
       </c>
-      <c r="BL58">
-        <v>2.06</v>
-      </c>
-      <c r="BM58">
-        <v>2.2</v>
-      </c>
-      <c r="BN58">
-        <v>1.66</v>
-      </c>
       <c r="BO58">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="BP58">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -13003,7 +13003,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7465453</v>
+        <v>7465447</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -13018,25 +13018,25 @@
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <v>4</v>
@@ -13045,163 +13045,163 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="Q59">
-        <v>3.63</v>
+        <v>1.98</v>
       </c>
       <c r="R59">
-        <v>2.66</v>
+        <v>2.55</v>
       </c>
       <c r="S59">
-        <v>2.44</v>
+        <v>4.9</v>
       </c>
       <c r="T59">
         <v>1.22</v>
       </c>
       <c r="U59">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="V59">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="W59">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="X59">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="Y59">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="Z59">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="AA59">
-        <v>3.98</v>
+        <v>4.17</v>
       </c>
       <c r="AB59">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="AC59">
         <v>1.01</v>
       </c>
       <c r="AD59">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="AE59">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AF59">
-        <v>5.8</v>
+        <v>5.01</v>
       </c>
       <c r="AG59">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="AH59">
-        <v>2.79</v>
+        <v>2.25</v>
       </c>
       <c r="AI59">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="AJ59">
-        <v>2.9</v>
+        <v>2.17</v>
       </c>
       <c r="AK59">
-        <v>1.8</v>
+        <v>1.14</v>
       </c>
       <c r="AL59">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AM59">
-        <v>1.27</v>
+        <v>2.41</v>
       </c>
       <c r="AN59">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO59">
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR59">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AS59">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AT59">
-        <v>3.28</v>
+        <v>3.03</v>
       </c>
       <c r="AU59">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV59">
         <v>4</v>
       </c>
       <c r="AW59">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX59">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AY59">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ59">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BA59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB59">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC59">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD59">
-        <v>2.57</v>
+        <v>1.36</v>
       </c>
       <c r="BE59">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="BF59">
-        <v>1.66</v>
+        <v>4.25</v>
       </c>
       <c r="BG59">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="BH59">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="BI59">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BJ59">
-        <v>2.88</v>
+        <v>2.53</v>
       </c>
       <c r="BK59">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="BL59">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="BM59">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="BN59">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="BO59">
-        <v>2.64</v>
+        <v>3.08</v>
       </c>
       <c r="BP59">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -15269,7 +15269,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7465464</v>
+        <v>7465463</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15284,10 +15284,10 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -15299,175 +15299,175 @@
         <v>1</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N70">
         <v>4</v>
       </c>
       <c r="O70" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="P70" t="s">
         <v>201</v>
       </c>
       <c r="Q70">
+        <v>2.88</v>
+      </c>
+      <c r="R70">
+        <v>2.5</v>
+      </c>
+      <c r="S70">
+        <v>2.88</v>
+      </c>
+      <c r="T70">
+        <v>1.22</v>
+      </c>
+      <c r="U70">
+        <v>4</v>
+      </c>
+      <c r="V70">
+        <v>2.1</v>
+      </c>
+      <c r="W70">
+        <v>1.67</v>
+      </c>
+      <c r="X70">
+        <v>4.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.18</v>
+      </c>
+      <c r="Z70">
+        <v>2.45</v>
+      </c>
+      <c r="AA70">
+        <v>3.6</v>
+      </c>
+      <c r="AB70">
+        <v>2.45</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>17</v>
+      </c>
+      <c r="AE70">
+        <v>1.08</v>
+      </c>
+      <c r="AF70">
+        <v>6.5</v>
+      </c>
+      <c r="AG70">
+        <v>1.4</v>
+      </c>
+      <c r="AH70">
+        <v>2.88</v>
+      </c>
+      <c r="AI70">
+        <v>1.36</v>
+      </c>
+      <c r="AJ70">
+        <v>3</v>
+      </c>
+      <c r="AK70">
+        <v>1.55</v>
+      </c>
+      <c r="AL70">
+        <v>1.23</v>
+      </c>
+      <c r="AM70">
+        <v>1.49</v>
+      </c>
+      <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>1.5</v>
+      </c>
+      <c r="AP70">
+        <v>1.17</v>
+      </c>
+      <c r="AQ70">
+        <v>1.2</v>
+      </c>
+      <c r="AR70">
+        <v>1.9</v>
+      </c>
+      <c r="AS70">
+        <v>1.85</v>
+      </c>
+      <c r="AT70">
         <v>3.75</v>
       </c>
-      <c r="R70">
-        <v>2.38</v>
-      </c>
-      <c r="S70">
-        <v>2.6</v>
-      </c>
-      <c r="T70">
-        <v>1.3</v>
-      </c>
-      <c r="U70">
-        <v>3.4</v>
-      </c>
-      <c r="V70">
-        <v>2.38</v>
-      </c>
-      <c r="W70">
-        <v>1.53</v>
-      </c>
-      <c r="X70">
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>5</v>
+      </c>
+      <c r="AW70">
         <v>6</v>
       </c>
-      <c r="Y70">
-        <v>1.13</v>
-      </c>
-      <c r="Z70">
-        <v>3.4</v>
-      </c>
-      <c r="AA70">
-        <v>3.5</v>
-      </c>
-      <c r="AB70">
-        <v>1.91</v>
-      </c>
-      <c r="AC70">
-        <v>1.03</v>
-      </c>
-      <c r="AD70">
-        <v>9</v>
-      </c>
-      <c r="AE70">
-        <v>1.15</v>
-      </c>
-      <c r="AF70">
-        <v>4.6</v>
-      </c>
-      <c r="AG70">
+      <c r="AX70">
+        <v>5</v>
+      </c>
+      <c r="AY70">
+        <v>20</v>
+      </c>
+      <c r="AZ70">
+        <v>11</v>
+      </c>
+      <c r="BA70">
+        <v>12</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>16</v>
+      </c>
+      <c r="BD70">
+        <v>2.05</v>
+      </c>
+      <c r="BE70">
+        <v>8.5</v>
+      </c>
+      <c r="BF70">
+        <v>2</v>
+      </c>
+      <c r="BG70">
+        <v>1.21</v>
+      </c>
+      <c r="BH70">
+        <v>3.9</v>
+      </c>
+      <c r="BI70">
+        <v>1.33</v>
+      </c>
+      <c r="BJ70">
+        <v>2.73</v>
+      </c>
+      <c r="BK70">
         <v>1.62</v>
       </c>
-      <c r="AH70">
-        <v>2.25</v>
-      </c>
-      <c r="AI70">
-        <v>1.57</v>
-      </c>
-      <c r="AJ70">
-        <v>2.25</v>
-      </c>
-      <c r="AK70">
-        <v>1.8</v>
-      </c>
-      <c r="AL70">
-        <v>1.27</v>
-      </c>
-      <c r="AM70">
-        <v>1.22</v>
-      </c>
-      <c r="AN70">
-        <v>0</v>
-      </c>
-      <c r="AO70">
-        <v>1</v>
-      </c>
-      <c r="AP70">
-        <v>0.2</v>
-      </c>
-      <c r="AQ70">
-        <v>1.8</v>
-      </c>
-      <c r="AR70">
-        <v>1.34</v>
-      </c>
-      <c r="AS70">
-        <v>1.65</v>
-      </c>
-      <c r="AT70">
-        <v>2.99</v>
-      </c>
-      <c r="AU70">
-        <v>5</v>
-      </c>
-      <c r="AV70">
-        <v>10</v>
-      </c>
-      <c r="AW70">
-        <v>5</v>
-      </c>
-      <c r="AX70">
-        <v>6</v>
-      </c>
-      <c r="AY70">
-        <v>12</v>
-      </c>
-      <c r="AZ70">
-        <v>24</v>
-      </c>
-      <c r="BA70">
-        <v>4</v>
-      </c>
-      <c r="BB70">
-        <v>7</v>
-      </c>
-      <c r="BC70">
-        <v>11</v>
-      </c>
-      <c r="BD70">
-        <v>2.67</v>
-      </c>
-      <c r="BE70">
-        <v>9.1</v>
-      </c>
-      <c r="BF70">
-        <v>1.61</v>
-      </c>
-      <c r="BG70">
-        <v>1.14</v>
-      </c>
-      <c r="BH70">
-        <v>5</v>
-      </c>
-      <c r="BI70">
-        <v>1.22</v>
-      </c>
-      <c r="BJ70">
-        <v>3.34</v>
-      </c>
-      <c r="BK70">
-        <v>1.44</v>
-      </c>
       <c r="BL70">
-        <v>2.43</v>
+        <v>2.06</v>
       </c>
       <c r="BM70">
-        <v>1.79</v>
+        <v>2.07</v>
       </c>
       <c r="BN70">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="BO70">
-        <v>2.21</v>
+        <v>2.66</v>
       </c>
       <c r="BP70">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15475,7 +15475,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7465463</v>
+        <v>7465464</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15490,10 +15490,10 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -15505,175 +15505,175 @@
         <v>1</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N71">
         <v>4</v>
       </c>
       <c r="O71" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="P71" t="s">
         <v>202</v>
       </c>
       <c r="Q71">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="R71">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S71">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="T71">
+        <v>1.3</v>
+      </c>
+      <c r="U71">
+        <v>3.4</v>
+      </c>
+      <c r="V71">
+        <v>2.38</v>
+      </c>
+      <c r="W71">
+        <v>1.53</v>
+      </c>
+      <c r="X71">
+        <v>6</v>
+      </c>
+      <c r="Y71">
+        <v>1.13</v>
+      </c>
+      <c r="Z71">
+        <v>3.4</v>
+      </c>
+      <c r="AA71">
+        <v>3.5</v>
+      </c>
+      <c r="AB71">
+        <v>1.91</v>
+      </c>
+      <c r="AC71">
+        <v>1.03</v>
+      </c>
+      <c r="AD71">
+        <v>9</v>
+      </c>
+      <c r="AE71">
+        <v>1.15</v>
+      </c>
+      <c r="AF71">
+        <v>4.6</v>
+      </c>
+      <c r="AG71">
+        <v>1.62</v>
+      </c>
+      <c r="AH71">
+        <v>2.25</v>
+      </c>
+      <c r="AI71">
+        <v>1.57</v>
+      </c>
+      <c r="AJ71">
+        <v>2.25</v>
+      </c>
+      <c r="AK71">
+        <v>1.8</v>
+      </c>
+      <c r="AL71">
+        <v>1.27</v>
+      </c>
+      <c r="AM71">
         <v>1.22</v>
       </c>
-      <c r="U71">
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>0.2</v>
+      </c>
+      <c r="AQ71">
+        <v>1.8</v>
+      </c>
+      <c r="AR71">
+        <v>1.34</v>
+      </c>
+      <c r="AS71">
+        <v>1.65</v>
+      </c>
+      <c r="AT71">
+        <v>2.99</v>
+      </c>
+      <c r="AU71">
+        <v>5</v>
+      </c>
+      <c r="AV71">
+        <v>10</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>6</v>
+      </c>
+      <c r="AY71">
+        <v>12</v>
+      </c>
+      <c r="AZ71">
+        <v>24</v>
+      </c>
+      <c r="BA71">
         <v>4</v>
       </c>
-      <c r="V71">
-        <v>2.1</v>
-      </c>
-      <c r="W71">
-        <v>1.67</v>
-      </c>
-      <c r="X71">
-        <v>4.5</v>
-      </c>
-      <c r="Y71">
-        <v>1.18</v>
-      </c>
-      <c r="Z71">
-        <v>2.45</v>
-      </c>
-      <c r="AA71">
-        <v>3.6</v>
-      </c>
-      <c r="AB71">
-        <v>2.45</v>
-      </c>
-      <c r="AC71">
-        <v>1.01</v>
-      </c>
-      <c r="AD71">
-        <v>17</v>
-      </c>
-      <c r="AE71">
-        <v>1.08</v>
-      </c>
-      <c r="AF71">
-        <v>6.5</v>
-      </c>
-      <c r="AG71">
-        <v>1.4</v>
-      </c>
-      <c r="AH71">
-        <v>2.88</v>
-      </c>
-      <c r="AI71">
-        <v>1.36</v>
-      </c>
-      <c r="AJ71">
-        <v>3</v>
-      </c>
-      <c r="AK71">
-        <v>1.55</v>
-      </c>
-      <c r="AL71">
-        <v>1.23</v>
-      </c>
-      <c r="AM71">
-        <v>1.49</v>
-      </c>
-      <c r="AN71">
-        <v>2</v>
-      </c>
-      <c r="AO71">
-        <v>1.5</v>
-      </c>
-      <c r="AP71">
-        <v>1.17</v>
-      </c>
-      <c r="AQ71">
-        <v>1.2</v>
-      </c>
-      <c r="AR71">
-        <v>1.9</v>
-      </c>
-      <c r="AS71">
-        <v>1.85</v>
-      </c>
-      <c r="AT71">
-        <v>3.75</v>
-      </c>
-      <c r="AU71">
+      <c r="BB71">
         <v>7</v>
       </c>
-      <c r="AV71">
+      <c r="BC71">
+        <v>11</v>
+      </c>
+      <c r="BD71">
+        <v>2.67</v>
+      </c>
+      <c r="BE71">
+        <v>9.1</v>
+      </c>
+      <c r="BF71">
+        <v>1.61</v>
+      </c>
+      <c r="BG71">
+        <v>1.14</v>
+      </c>
+      <c r="BH71">
         <v>5</v>
       </c>
-      <c r="AW71">
-        <v>6</v>
-      </c>
-      <c r="AX71">
-        <v>5</v>
-      </c>
-      <c r="AY71">
-        <v>20</v>
-      </c>
-      <c r="AZ71">
-        <v>11</v>
-      </c>
-      <c r="BA71">
-        <v>12</v>
-      </c>
-      <c r="BB71">
-        <v>4</v>
-      </c>
-      <c r="BC71">
-        <v>16</v>
-      </c>
-      <c r="BD71">
-        <v>2.05</v>
-      </c>
-      <c r="BE71">
-        <v>8.5</v>
-      </c>
-      <c r="BF71">
-        <v>2</v>
-      </c>
-      <c r="BG71">
-        <v>1.21</v>
-      </c>
-      <c r="BH71">
-        <v>3.9</v>
-      </c>
       <c r="BI71">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="BJ71">
-        <v>2.73</v>
+        <v>3.34</v>
       </c>
       <c r="BK71">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="BL71">
-        <v>2.06</v>
+        <v>2.43</v>
       </c>
       <c r="BM71">
-        <v>2.07</v>
+        <v>1.79</v>
       </c>
       <c r="BN71">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="BO71">
-        <v>2.66</v>
+        <v>2.21</v>
       </c>
       <c r="BP71">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15681,7 +15681,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7465465</v>
+        <v>7465469</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15696,28 +15696,28 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O72" t="s">
         <v>137</v>
@@ -15726,160 +15726,160 @@
         <v>203</v>
       </c>
       <c r="Q72">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="R72">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="S72">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="T72">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="U72">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V72">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W72">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="X72">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="Y72">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="Z72">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AA72">
-        <v>4.33</v>
+        <v>4.01</v>
       </c>
       <c r="AB72">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="AC72">
         <v>1.01</v>
       </c>
       <c r="AD72">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE72">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AF72">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="AG72">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AH72">
+        <v>2.4</v>
+      </c>
+      <c r="AI72">
+        <v>1.48</v>
+      </c>
+      <c r="AJ72">
+        <v>2.4</v>
+      </c>
+      <c r="AK72">
+        <v>1.25</v>
+      </c>
+      <c r="AL72">
+        <v>1.2</v>
+      </c>
+      <c r="AM72">
+        <v>1.95</v>
+      </c>
+      <c r="AN72">
+        <v>1.33</v>
+      </c>
+      <c r="AO72">
+        <v>0.33</v>
+      </c>
+      <c r="AP72">
+        <v>1.6</v>
+      </c>
+      <c r="AQ72">
+        <v>0.5</v>
+      </c>
+      <c r="AR72">
+        <v>1.77</v>
+      </c>
+      <c r="AS72">
+        <v>0.93</v>
+      </c>
+      <c r="AT72">
         <v>2.7</v>
       </c>
-      <c r="AI72">
-        <v>1.54</v>
-      </c>
-      <c r="AJ72">
-        <v>2.3</v>
-      </c>
-      <c r="AK72">
-        <v>1.1</v>
-      </c>
-      <c r="AL72">
-        <v>1.15</v>
-      </c>
-      <c r="AM72">
-        <v>2.75</v>
-      </c>
-      <c r="AN72">
-        <v>1.25</v>
-      </c>
-      <c r="AO72">
-        <v>0.67</v>
-      </c>
-      <c r="AP72">
-        <v>1.5</v>
-      </c>
-      <c r="AQ72">
-        <v>0.8</v>
-      </c>
-      <c r="AR72">
-        <v>1.48</v>
-      </c>
-      <c r="AS72">
-        <v>1.35</v>
-      </c>
-      <c r="AT72">
-        <v>2.83</v>
-      </c>
       <c r="AU72">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV72">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW72">
         <v>7</v>
       </c>
       <c r="AX72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY72">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AZ72">
+        <v>10</v>
+      </c>
+      <c r="BA72">
+        <v>8</v>
+      </c>
+      <c r="BB72">
         <v>5</v>
       </c>
-      <c r="BA72">
-        <v>9</v>
-      </c>
-      <c r="BB72">
-        <v>2</v>
-      </c>
       <c r="BC72">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD72">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="BE72">
-        <v>10.7</v>
+        <v>6.8</v>
       </c>
       <c r="BF72">
-        <v>4.93</v>
+        <v>3</v>
       </c>
       <c r="BG72">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH72">
-        <v>3.7</v>
+        <v>3.74</v>
       </c>
       <c r="BI72">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="BJ72">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="BK72">
+        <v>1.73</v>
+      </c>
+      <c r="BL72">
+        <v>2.07</v>
+      </c>
+      <c r="BM72">
+        <v>2.17</v>
+      </c>
+      <c r="BN72">
         <v>1.67</v>
       </c>
-      <c r="BL72">
-        <v>2.19</v>
-      </c>
-      <c r="BM72">
-        <v>2.08</v>
-      </c>
-      <c r="BN72">
-        <v>1.73</v>
-      </c>
       <c r="BO72">
-        <v>2.59</v>
+        <v>2.73</v>
       </c>
       <c r="BP72">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -15887,7 +15887,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7465466</v>
+        <v>7465468</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15902,25 +15902,25 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>2</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
         <v>4</v>
-      </c>
-      <c r="M73">
-        <v>2</v>
       </c>
       <c r="N73">
         <v>6</v>
@@ -15932,160 +15932,160 @@
         <v>204</v>
       </c>
       <c r="Q73">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="R73">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S73">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="T73">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="U73">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="V73">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="W73">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="X73">
-        <v>4.3</v>
+        <v>5.25</v>
       </c>
       <c r="Y73">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="Z73">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="AA73">
-        <v>4.5</v>
+        <v>3.94</v>
       </c>
       <c r="AB73">
-        <v>6.5</v>
+        <v>4.15</v>
       </c>
       <c r="AC73">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD73">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE73">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AF73">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AG73">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AH73">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="AI73">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AJ73">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="AK73">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AL73">
+        <v>1.25</v>
+      </c>
+      <c r="AM73">
+        <v>2.05</v>
+      </c>
+      <c r="AN73">
+        <v>2</v>
+      </c>
+      <c r="AO73">
+        <v>0.33</v>
+      </c>
+      <c r="AP73">
+        <v>1.5</v>
+      </c>
+      <c r="AQ73">
+        <v>0.8</v>
+      </c>
+      <c r="AR73">
+        <v>1.66</v>
+      </c>
+      <c r="AS73">
         <v>1.14</v>
       </c>
-      <c r="AM73">
+      <c r="AT73">
         <v>2.8</v>
       </c>
-      <c r="AN73">
-        <v>3</v>
-      </c>
-      <c r="AO73">
-        <v>1.33</v>
-      </c>
-      <c r="AP73">
-        <v>3</v>
-      </c>
-      <c r="AQ73">
-        <v>1</v>
-      </c>
-      <c r="AR73">
-        <v>1.75</v>
-      </c>
-      <c r="AS73">
-        <v>1.55</v>
-      </c>
-      <c r="AT73">
-        <v>3.3</v>
-      </c>
       <c r="AU73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV73">
+        <v>7</v>
+      </c>
+      <c r="AW73">
+        <v>11</v>
+      </c>
+      <c r="AX73">
         <v>5</v>
       </c>
-      <c r="AW73">
-        <v>8</v>
-      </c>
-      <c r="AX73">
-        <v>0</v>
-      </c>
       <c r="AY73">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ73">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA73">
         <v>5</v>
       </c>
       <c r="BB73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC73">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD73">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BE73">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="BF73">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="BG73">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="BH73">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="BI73">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="BJ73">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="BK73">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BL73">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="BM73">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="BN73">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="BO73">
         <v>2.85</v>
       </c>
       <c r="BP73">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -16093,7 +16093,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7465467</v>
+        <v>7465465</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16108,190 +16108,190 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H74" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O74" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="Q74">
-        <v>2.95</v>
+        <v>1.82</v>
       </c>
       <c r="R74">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="S74">
+        <v>5.75</v>
+      </c>
+      <c r="T74">
+        <v>1.24</v>
+      </c>
+      <c r="U74">
+        <v>3.75</v>
+      </c>
+      <c r="V74">
+        <v>2.1</v>
+      </c>
+      <c r="W74">
+        <v>1.65</v>
+      </c>
+      <c r="X74">
+        <v>4.6</v>
+      </c>
+      <c r="Y74">
+        <v>1.17</v>
+      </c>
+      <c r="Z74">
+        <v>1.4</v>
+      </c>
+      <c r="AA74">
+        <v>4.33</v>
+      </c>
+      <c r="AB74">
+        <v>7</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>23</v>
+      </c>
+      <c r="AE74">
+        <v>1.13</v>
+      </c>
+      <c r="AF74">
+        <v>5.25</v>
+      </c>
+      <c r="AG74">
+        <v>1.44</v>
+      </c>
+      <c r="AH74">
+        <v>2.7</v>
+      </c>
+      <c r="AI74">
+        <v>1.54</v>
+      </c>
+      <c r="AJ74">
+        <v>2.3</v>
+      </c>
+      <c r="AK74">
+        <v>1.1</v>
+      </c>
+      <c r="AL74">
+        <v>1.15</v>
+      </c>
+      <c r="AM74">
+        <v>2.75</v>
+      </c>
+      <c r="AN74">
+        <v>1.25</v>
+      </c>
+      <c r="AO74">
+        <v>0.67</v>
+      </c>
+      <c r="AP74">
+        <v>1.5</v>
+      </c>
+      <c r="AQ74">
+        <v>0.8</v>
+      </c>
+      <c r="AR74">
+        <v>1.48</v>
+      </c>
+      <c r="AS74">
+        <v>1.35</v>
+      </c>
+      <c r="AT74">
+        <v>2.83</v>
+      </c>
+      <c r="AU74">
+        <v>9</v>
+      </c>
+      <c r="AV74">
         <v>3</v>
       </c>
-      <c r="T74">
-        <v>1.3</v>
-      </c>
-      <c r="U74">
-        <v>3.25</v>
-      </c>
-      <c r="V74">
-        <v>2.3</v>
-      </c>
-      <c r="W74">
-        <v>1.55</v>
-      </c>
-      <c r="X74">
-        <v>5.4</v>
-      </c>
-      <c r="Y74">
-        <v>1.13</v>
-      </c>
-      <c r="Z74">
-        <v>2.5</v>
-      </c>
-      <c r="AA74">
-        <v>3.6</v>
-      </c>
-      <c r="AB74">
-        <v>2.64</v>
-      </c>
-      <c r="AC74">
-        <v>1.04</v>
-      </c>
-      <c r="AD74">
-        <v>10</v>
-      </c>
-      <c r="AE74">
-        <v>1.2</v>
-      </c>
-      <c r="AF74">
-        <v>4.33</v>
-      </c>
-      <c r="AG74">
-        <v>1.6</v>
-      </c>
-      <c r="AH74">
-        <v>2.3</v>
-      </c>
-      <c r="AI74">
-        <v>1.48</v>
-      </c>
-      <c r="AJ74">
-        <v>2.4</v>
-      </c>
-      <c r="AK74">
-        <v>1.48</v>
-      </c>
-      <c r="AL74">
+      <c r="AW74">
+        <v>7</v>
+      </c>
+      <c r="AX74">
+        <v>2</v>
+      </c>
+      <c r="AY74">
+        <v>23</v>
+      </c>
+      <c r="AZ74">
+        <v>5</v>
+      </c>
+      <c r="BA74">
+        <v>9</v>
+      </c>
+      <c r="BB74">
+        <v>2</v>
+      </c>
+      <c r="BC74">
+        <v>11</v>
+      </c>
+      <c r="BD74">
+        <v>1.25</v>
+      </c>
+      <c r="BE74">
+        <v>10.7</v>
+      </c>
+      <c r="BF74">
+        <v>4.93</v>
+      </c>
+      <c r="BG74">
         <v>1.22</v>
       </c>
-      <c r="AM74">
-        <v>1.5</v>
-      </c>
-      <c r="AN74">
-        <v>1.33</v>
-      </c>
-      <c r="AO74">
-        <v>1.25</v>
-      </c>
-      <c r="AP74">
-        <v>1</v>
-      </c>
-      <c r="AQ74">
-        <v>1</v>
-      </c>
-      <c r="AR74">
-        <v>1.42</v>
-      </c>
-      <c r="AS74">
-        <v>1.59</v>
-      </c>
-      <c r="AT74">
-        <v>3.01</v>
-      </c>
-      <c r="AU74">
-        <v>4</v>
-      </c>
-      <c r="AV74">
-        <v>5</v>
-      </c>
-      <c r="AW74">
-        <v>3</v>
-      </c>
-      <c r="AX74">
-        <v>3</v>
-      </c>
-      <c r="AY74">
-        <v>10</v>
-      </c>
-      <c r="AZ74">
-        <v>10</v>
-      </c>
-      <c r="BA74">
-        <v>2</v>
-      </c>
-      <c r="BB74">
-        <v>4</v>
-      </c>
-      <c r="BC74">
-        <v>6</v>
-      </c>
-      <c r="BD74">
-        <v>2.37</v>
-      </c>
-      <c r="BE74">
-        <v>7.5</v>
-      </c>
-      <c r="BF74">
-        <v>1.87</v>
-      </c>
-      <c r="BG74">
-        <v>1.18</v>
-      </c>
       <c r="BH74">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="BI74">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BJ74">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="BK74">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="BL74">
-        <v>2.22</v>
+        <v>2.19</v>
       </c>
       <c r="BM74">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="BN74">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="BO74">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
       <c r="BP74">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16299,7 +16299,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7465468</v>
+        <v>7465466</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16314,190 +16314,190 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>2</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N75">
         <v>6</v>
       </c>
       <c r="O75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q75">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="R75">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S75">
+        <v>5.5</v>
+      </c>
+      <c r="T75">
+        <v>1.19</v>
+      </c>
+      <c r="U75">
         <v>4.2</v>
       </c>
-      <c r="T75">
-        <v>1.28</v>
-      </c>
-      <c r="U75">
-        <v>3.4</v>
-      </c>
       <c r="V75">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="W75">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="X75">
-        <v>5.25</v>
+        <v>4.3</v>
       </c>
       <c r="Y75">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="Z75">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="AA75">
-        <v>3.94</v>
+        <v>4.5</v>
       </c>
       <c r="AB75">
-        <v>4.15</v>
+        <v>6.5</v>
       </c>
       <c r="AC75">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD75">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE75">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AF75">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AG75">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AH75">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="AI75">
+        <v>1.53</v>
+      </c>
+      <c r="AJ75">
+        <v>2.45</v>
+      </c>
+      <c r="AK75">
+        <v>1.1</v>
+      </c>
+      <c r="AL75">
+        <v>1.14</v>
+      </c>
+      <c r="AM75">
+        <v>2.8</v>
+      </c>
+      <c r="AN75">
+        <v>3</v>
+      </c>
+      <c r="AO75">
+        <v>1.33</v>
+      </c>
+      <c r="AP75">
+        <v>3</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>1.75</v>
+      </c>
+      <c r="AS75">
         <v>1.55</v>
       </c>
-      <c r="AJ75">
-        <v>2.3</v>
-      </c>
-      <c r="AK75">
-        <v>1.22</v>
-      </c>
-      <c r="AL75">
-        <v>1.25</v>
-      </c>
-      <c r="AM75">
-        <v>2.05</v>
-      </c>
-      <c r="AN75">
-        <v>2</v>
-      </c>
-      <c r="AO75">
-        <v>0.33</v>
-      </c>
-      <c r="AP75">
-        <v>1.5</v>
-      </c>
-      <c r="AQ75">
-        <v>0.8</v>
-      </c>
-      <c r="AR75">
-        <v>1.66</v>
-      </c>
-      <c r="AS75">
-        <v>1.14</v>
-      </c>
       <c r="AT75">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AU75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV75">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW75">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY75">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ75">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA75">
         <v>5</v>
       </c>
       <c r="BB75">
+        <v>1</v>
+      </c>
+      <c r="BC75">
         <v>6</v>
       </c>
-      <c r="BC75">
-        <v>11</v>
-      </c>
       <c r="BD75">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BE75">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="BF75">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="BG75">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="BH75">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="BI75">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BJ75">
-        <v>2.42</v>
+        <v>2.9</v>
       </c>
       <c r="BK75">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="BL75">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="BM75">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="BN75">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="BO75">
         <v>2.85</v>
       </c>
       <c r="BP75">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16505,7 +16505,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7465469</v>
+        <v>7465467</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16520,88 +16520,88 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H76" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="Q76">
+        <v>2.95</v>
+      </c>
+      <c r="R76">
+        <v>2.25</v>
+      </c>
+      <c r="S76">
+        <v>3</v>
+      </c>
+      <c r="T76">
+        <v>1.3</v>
+      </c>
+      <c r="U76">
+        <v>3.25</v>
+      </c>
+      <c r="V76">
         <v>2.3</v>
       </c>
-      <c r="R76">
+      <c r="W76">
+        <v>1.55</v>
+      </c>
+      <c r="X76">
+        <v>5.4</v>
+      </c>
+      <c r="Y76">
+        <v>1.13</v>
+      </c>
+      <c r="Z76">
+        <v>2.5</v>
+      </c>
+      <c r="AA76">
+        <v>3.6</v>
+      </c>
+      <c r="AB76">
+        <v>2.64</v>
+      </c>
+      <c r="AC76">
+        <v>1.04</v>
+      </c>
+      <c r="AD76">
+        <v>10</v>
+      </c>
+      <c r="AE76">
+        <v>1.2</v>
+      </c>
+      <c r="AF76">
+        <v>4.33</v>
+      </c>
+      <c r="AG76">
+        <v>1.6</v>
+      </c>
+      <c r="AH76">
         <v>2.3</v>
-      </c>
-      <c r="S76">
-        <v>4</v>
-      </c>
-      <c r="T76">
-        <v>1.28</v>
-      </c>
-      <c r="U76">
-        <v>3.4</v>
-      </c>
-      <c r="V76">
-        <v>2.2</v>
-      </c>
-      <c r="W76">
-        <v>1.6</v>
-      </c>
-      <c r="X76">
-        <v>5</v>
-      </c>
-      <c r="Y76">
-        <v>1.15</v>
-      </c>
-      <c r="Z76">
-        <v>1.83</v>
-      </c>
-      <c r="AA76">
-        <v>4.01</v>
-      </c>
-      <c r="AB76">
-        <v>3.8</v>
-      </c>
-      <c r="AC76">
-        <v>1.01</v>
-      </c>
-      <c r="AD76">
-        <v>13</v>
-      </c>
-      <c r="AE76">
-        <v>1.18</v>
-      </c>
-      <c r="AF76">
-        <v>4.75</v>
-      </c>
-      <c r="AG76">
-        <v>1.55</v>
-      </c>
-      <c r="AH76">
-        <v>2.4</v>
       </c>
       <c r="AI76">
         <v>1.48</v>
@@ -16610,100 +16610,100 @@
         <v>2.4</v>
       </c>
       <c r="AK76">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="AL76">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM76">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AN76">
         <v>1.33</v>
       </c>
       <c r="AO76">
-        <v>0.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR76">
-        <v>1.77</v>
+        <v>1.42</v>
       </c>
       <c r="AS76">
-        <v>0.93</v>
+        <v>1.59</v>
       </c>
       <c r="AT76">
-        <v>2.7</v>
+        <v>3.01</v>
       </c>
       <c r="AU76">
+        <v>4</v>
+      </c>
+      <c r="AV76">
         <v>5</v>
       </c>
-      <c r="AV76">
-        <v>8</v>
-      </c>
       <c r="AW76">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY76">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ76">
         <v>10</v>
       </c>
       <c r="BA76">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BB76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC76">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD76">
-        <v>1.6</v>
+        <v>2.37</v>
       </c>
       <c r="BE76">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="BF76">
-        <v>3</v>
+        <v>1.87</v>
       </c>
       <c r="BG76">
         <v>1.18</v>
       </c>
       <c r="BH76">
-        <v>3.74</v>
+        <v>4</v>
       </c>
       <c r="BI76">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="BJ76">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="BK76">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="BL76">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="BM76">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="BN76">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="BO76">
-        <v>2.73</v>
+        <v>2.44</v>
       </c>
       <c r="BP76">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -17741,7 +17741,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7465481</v>
+        <v>7465484</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17756,190 +17756,190 @@
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>93</v>
+      </c>
+      <c r="P82" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q82">
         <v>3</v>
       </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>3</v>
-      </c>
-      <c r="O82" t="s">
-        <v>144</v>
-      </c>
-      <c r="P82" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q82">
-        <v>3.2</v>
-      </c>
       <c r="R82">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S82">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="T82">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="U82">
+        <v>3.44</v>
+      </c>
+      <c r="V82">
+        <v>2.34</v>
+      </c>
+      <c r="W82">
+        <v>1.56</v>
+      </c>
+      <c r="X82">
+        <v>5.35</v>
+      </c>
+      <c r="Y82">
+        <v>1.13</v>
+      </c>
+      <c r="Z82">
+        <v>2.55</v>
+      </c>
+      <c r="AA82">
         <v>3.55</v>
       </c>
-      <c r="V82">
-        <v>2.1</v>
-      </c>
-      <c r="W82">
-        <v>1.65</v>
-      </c>
-      <c r="X82">
-        <v>4.9</v>
-      </c>
-      <c r="Y82">
-        <v>1.15</v>
-      </c>
-      <c r="Z82">
-        <v>2.75</v>
-      </c>
-      <c r="AA82">
-        <v>3.7</v>
-      </c>
       <c r="AB82">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AC82">
         <v>1.01</v>
       </c>
       <c r="AD82">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE82">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AF82">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="AG82">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AH82">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AI82">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AJ82">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AK82">
+        <v>1.47</v>
+      </c>
+      <c r="AL82">
+        <v>1.26</v>
+      </c>
+      <c r="AM82">
+        <v>1.46</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>1.5</v>
+      </c>
+      <c r="AP82">
+        <v>0.67</v>
+      </c>
+      <c r="AQ82">
+        <v>1.8</v>
+      </c>
+      <c r="AR82">
+        <v>1.76</v>
+      </c>
+      <c r="AS82">
+        <v>1.96</v>
+      </c>
+      <c r="AT82">
+        <v>3.72</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>8</v>
+      </c>
+      <c r="AW82">
+        <v>4</v>
+      </c>
+      <c r="AX82">
+        <v>15</v>
+      </c>
+      <c r="AY82">
+        <v>11</v>
+      </c>
+      <c r="AZ82">
+        <v>25</v>
+      </c>
+      <c r="BA82">
+        <v>4</v>
+      </c>
+      <c r="BB82">
+        <v>9</v>
+      </c>
+      <c r="BC82">
+        <v>13</v>
+      </c>
+      <c r="BD82">
+        <v>2.58</v>
+      </c>
+      <c r="BE82">
+        <v>6.8</v>
+      </c>
+      <c r="BF82">
+        <v>1.75</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>1.22</v>
+      </c>
+      <c r="BJ82">
+        <v>3.35</v>
+      </c>
+      <c r="BK82">
+        <v>1.5</v>
+      </c>
+      <c r="BL82">
+        <v>2.49</v>
+      </c>
+      <c r="BM82">
+        <v>1.83</v>
+      </c>
+      <c r="BN82">
+        <v>1.97</v>
+      </c>
+      <c r="BO82">
+        <v>2.27</v>
+      </c>
+      <c r="BP82">
         <v>1.6</v>
-      </c>
-      <c r="AL82">
-        <v>1.22</v>
-      </c>
-      <c r="AM82">
-        <v>1.47</v>
-      </c>
-      <c r="AN82">
-        <v>1.33</v>
-      </c>
-      <c r="AO82">
-        <v>1.25</v>
-      </c>
-      <c r="AP82">
-        <v>1.75</v>
-      </c>
-      <c r="AQ82">
-        <v>1</v>
-      </c>
-      <c r="AR82">
-        <v>1.66</v>
-      </c>
-      <c r="AS82">
-        <v>2.17</v>
-      </c>
-      <c r="AT82">
-        <v>3.83</v>
-      </c>
-      <c r="AU82">
-        <v>8</v>
-      </c>
-      <c r="AV82">
-        <v>3</v>
-      </c>
-      <c r="AW82">
-        <v>10</v>
-      </c>
-      <c r="AX82">
-        <v>2</v>
-      </c>
-      <c r="AY82">
-        <v>21</v>
-      </c>
-      <c r="AZ82">
-        <v>10</v>
-      </c>
-      <c r="BA82">
-        <v>8</v>
-      </c>
-      <c r="BB82">
-        <v>3</v>
-      </c>
-      <c r="BC82">
-        <v>11</v>
-      </c>
-      <c r="BD82">
-        <v>2.18</v>
-      </c>
-      <c r="BE82">
-        <v>7.9</v>
-      </c>
-      <c r="BF82">
-        <v>1.95</v>
-      </c>
-      <c r="BG82">
-        <v>1.3</v>
-      </c>
-      <c r="BH82">
-        <v>3.1</v>
-      </c>
-      <c r="BI82">
-        <v>1.52</v>
-      </c>
-      <c r="BJ82">
-        <v>2.3</v>
-      </c>
-      <c r="BK82">
-        <v>1.9</v>
-      </c>
-      <c r="BL82">
-        <v>1.81</v>
-      </c>
-      <c r="BM82">
-        <v>2.34</v>
-      </c>
-      <c r="BN82">
-        <v>1.5</v>
-      </c>
-      <c r="BO82">
-        <v>3</v>
-      </c>
-      <c r="BP82">
-        <v>1.31</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17986,7 +17986,7 @@
         <v>3</v>
       </c>
       <c r="O83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P83" t="s">
         <v>210</v>
@@ -18192,7 +18192,7 @@
         <v>6</v>
       </c>
       <c r="O84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P84" t="s">
         <v>211</v>
@@ -18359,7 +18359,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7465480</v>
+        <v>7465481</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18374,190 +18374,190 @@
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H85" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="Q85">
-        <v>3.79</v>
+        <v>3.2</v>
       </c>
       <c r="R85">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="S85">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="T85">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U85">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="V85">
-        <v>2.47</v>
+        <v>2.1</v>
       </c>
       <c r="W85">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="X85">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="Y85">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="Z85">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="AA85">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB85">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AC85">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD85">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE85">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AF85">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="AG85">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AH85">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="AI85">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AJ85">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AK85">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AL85">
         <v>1.22</v>
       </c>
       <c r="AM85">
+        <v>1.47</v>
+      </c>
+      <c r="AN85">
         <v>1.33</v>
       </c>
-      <c r="AN85">
-        <v>0</v>
-      </c>
       <c r="AO85">
+        <v>1.25</v>
+      </c>
+      <c r="AP85">
         <v>1.75</v>
       </c>
-      <c r="AP85">
-        <v>0.2</v>
-      </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR85">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="AS85">
-        <v>1.52</v>
+        <v>2.17</v>
       </c>
       <c r="AT85">
-        <v>2.88</v>
+        <v>3.83</v>
       </c>
       <c r="AU85">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW85">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX85">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY85">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ85">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA85">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB85">
         <v>3</v>
       </c>
       <c r="BC85">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD85">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
       <c r="BE85">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="BF85">
-        <v>1.49</v>
+        <v>1.95</v>
       </c>
       <c r="BG85">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="BH85">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="BI85">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="BJ85">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="BK85">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="BL85">
-        <v>2.16</v>
+        <v>1.81</v>
       </c>
       <c r="BM85">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="BN85">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="BO85">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="BP85">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18565,7 +18565,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7465484</v>
+        <v>7465480</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18580,10 +18580,10 @@
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -18595,175 +18595,175 @@
         <v>1</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <v>1</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O86" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="Q86">
-        <v>3</v>
+        <v>3.79</v>
       </c>
       <c r="R86">
+        <v>2.41</v>
+      </c>
+      <c r="S86">
+        <v>2.62</v>
+      </c>
+      <c r="T86">
+        <v>1.33</v>
+      </c>
+      <c r="U86">
+        <v>3.1</v>
+      </c>
+      <c r="V86">
+        <v>2.47</v>
+      </c>
+      <c r="W86">
+        <v>1.53</v>
+      </c>
+      <c r="X86">
+        <v>5.7</v>
+      </c>
+      <c r="Y86">
+        <v>1.12</v>
+      </c>
+      <c r="Z86">
+        <v>3.2</v>
+      </c>
+      <c r="AA86">
+        <v>3.6</v>
+      </c>
+      <c r="AB86">
+        <v>2.1</v>
+      </c>
+      <c r="AC86">
+        <v>1.04</v>
+      </c>
+      <c r="AD86">
+        <v>10</v>
+      </c>
+      <c r="AE86">
+        <v>1.22</v>
+      </c>
+      <c r="AF86">
+        <v>4.2</v>
+      </c>
+      <c r="AG86">
+        <v>1.67</v>
+      </c>
+      <c r="AH86">
+        <v>2.15</v>
+      </c>
+      <c r="AI86">
+        <v>1.53</v>
+      </c>
+      <c r="AJ86">
         <v>2.3</v>
       </c>
-      <c r="S86">
+      <c r="AK86">
+        <v>1.7</v>
+      </c>
+      <c r="AL86">
+        <v>1.22</v>
+      </c>
+      <c r="AM86">
+        <v>1.33</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>1.75</v>
+      </c>
+      <c r="AP86">
+        <v>0.2</v>
+      </c>
+      <c r="AQ86">
+        <v>1.5</v>
+      </c>
+      <c r="AR86">
+        <v>1.36</v>
+      </c>
+      <c r="AS86">
+        <v>1.52</v>
+      </c>
+      <c r="AT86">
         <v>2.88</v>
       </c>
-      <c r="T86">
-        <v>1.28</v>
-      </c>
-      <c r="U86">
-        <v>3.44</v>
-      </c>
-      <c r="V86">
-        <v>2.34</v>
-      </c>
-      <c r="W86">
-        <v>1.56</v>
-      </c>
-      <c r="X86">
-        <v>5.35</v>
-      </c>
-      <c r="Y86">
-        <v>1.13</v>
-      </c>
-      <c r="Z86">
-        <v>2.55</v>
-      </c>
-      <c r="AA86">
-        <v>3.55</v>
-      </c>
-      <c r="AB86">
-        <v>2.55</v>
-      </c>
-      <c r="AC86">
-        <v>1.01</v>
-      </c>
-      <c r="AD86">
-        <v>13</v>
-      </c>
-      <c r="AE86">
-        <v>1.13</v>
-      </c>
-      <c r="AF86">
-        <v>5.2</v>
-      </c>
-      <c r="AG86">
-        <v>1.57</v>
-      </c>
-      <c r="AH86">
-        <v>2.25</v>
-      </c>
-      <c r="AI86">
-        <v>1.45</v>
-      </c>
-      <c r="AJ86">
-        <v>2.5</v>
-      </c>
-      <c r="AK86">
-        <v>1.47</v>
-      </c>
-      <c r="AL86">
-        <v>1.26</v>
-      </c>
-      <c r="AM86">
-        <v>1.46</v>
-      </c>
-      <c r="AN86">
-        <v>1</v>
-      </c>
-      <c r="AO86">
-        <v>1.5</v>
-      </c>
-      <c r="AP86">
-        <v>0.67</v>
-      </c>
-      <c r="AQ86">
-        <v>1.8</v>
-      </c>
-      <c r="AR86">
-        <v>1.76</v>
-      </c>
-      <c r="AS86">
-        <v>1.96</v>
-      </c>
-      <c r="AT86">
-        <v>3.72</v>
-      </c>
       <c r="AU86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV86">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW86">
         <v>4</v>
       </c>
       <c r="AX86">
+        <v>7</v>
+      </c>
+      <c r="AY86">
         <v>15</v>
       </c>
-      <c r="AY86">
-        <v>11</v>
-      </c>
       <c r="AZ86">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="BA86">
         <v>4</v>
       </c>
       <c r="BB86">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BC86">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD86">
-        <v>2.58</v>
+        <v>3.4</v>
       </c>
       <c r="BE86">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="BF86">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="BG86">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH86">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BI86">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="BJ86">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="BK86">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="BL86">
-        <v>2.49</v>
+        <v>2.16</v>
       </c>
       <c r="BM86">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="BN86">
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
       <c r="BO86">
-        <v>2.27</v>
+        <v>2.52</v>
       </c>
       <c r="BP86">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -20213,7 +20213,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7465490</v>
+        <v>7465495</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20228,25 +20228,25 @@
         <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
         <v>3</v>
-      </c>
-      <c r="L94">
-        <v>3</v>
-      </c>
-      <c r="M94">
-        <v>2</v>
       </c>
       <c r="N94">
         <v>5</v>
@@ -20258,40 +20258,40 @@
         <v>216</v>
       </c>
       <c r="Q94">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="R94">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="S94">
+        <v>3.1</v>
+      </c>
+      <c r="T94">
+        <v>1.29</v>
+      </c>
+      <c r="U94">
+        <v>3.5</v>
+      </c>
+      <c r="V94">
+        <v>2.38</v>
+      </c>
+      <c r="W94">
+        <v>1.53</v>
+      </c>
+      <c r="X94">
         <v>5.5</v>
       </c>
-      <c r="T94">
-        <v>1.22</v>
-      </c>
-      <c r="U94">
-        <v>4</v>
-      </c>
-      <c r="V94">
-        <v>2</v>
-      </c>
-      <c r="W94">
-        <v>1.73</v>
-      </c>
-      <c r="X94">
-        <v>4.33</v>
-      </c>
       <c r="Y94">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="Z94">
-        <v>1.48</v>
+        <v>2.5</v>
       </c>
       <c r="AA94">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB94">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -20306,73 +20306,73 @@
         <v>0</v>
       </c>
       <c r="AG94">
+        <v>1.57</v>
+      </c>
+      <c r="AH94">
+        <v>2.35</v>
+      </c>
+      <c r="AI94">
+        <v>1.5</v>
+      </c>
+      <c r="AJ94">
+        <v>2.5</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
         <v>1.4</v>
       </c>
-      <c r="AH94">
-        <v>2.88</v>
-      </c>
-      <c r="AI94">
-        <v>1.53</v>
-      </c>
-      <c r="AJ94">
-        <v>2.38</v>
-      </c>
-      <c r="AK94">
-        <v>0</v>
-      </c>
-      <c r="AL94">
-        <v>0</v>
-      </c>
-      <c r="AM94">
-        <v>0</v>
-      </c>
-      <c r="AN94">
-        <v>3</v>
-      </c>
       <c r="AO94">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="AP94">
-        <v>3</v>
+        <v>1.17</v>
       </c>
       <c r="AQ94">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR94">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AS94">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>3.13</v>
+        <v>3.25</v>
       </c>
       <c r="AU94">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AW94">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX94">
         <v>3</v>
       </c>
       <c r="AY94">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ94">
+        <v>17</v>
+      </c>
+      <c r="BA94">
+        <v>5</v>
+      </c>
+      <c r="BB94">
         <v>7</v>
       </c>
-      <c r="BA94">
-        <v>11</v>
-      </c>
-      <c r="BB94">
-        <v>2</v>
-      </c>
       <c r="BC94">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD94">
         <v>0</v>
@@ -20396,7 +20396,7 @@
         <v>0</v>
       </c>
       <c r="BK94">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BL94">
         <v>0</v>
@@ -20419,7 +20419,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7465491</v>
+        <v>7465494</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20434,151 +20434,151 @@
         <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H95" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" t="s">
+        <v>93</v>
+      </c>
+      <c r="P95" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q95">
+        <v>2.4</v>
+      </c>
+      <c r="R95">
+        <v>2.4</v>
+      </c>
+      <c r="S95">
         <v>4</v>
       </c>
-      <c r="M95">
-        <v>2</v>
-      </c>
-      <c r="N95">
-        <v>6</v>
-      </c>
-      <c r="O95" t="s">
-        <v>155</v>
-      </c>
-      <c r="P95" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q95">
-        <v>2.75</v>
-      </c>
-      <c r="R95">
-        <v>2.3</v>
-      </c>
-      <c r="S95">
-        <v>3.6</v>
-      </c>
       <c r="T95">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V95">
+        <v>2.25</v>
+      </c>
+      <c r="W95">
+        <v>1.57</v>
+      </c>
+      <c r="X95">
+        <v>5.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.14</v>
+      </c>
+      <c r="Z95">
+        <v>1.85</v>
+      </c>
+      <c r="AA95">
+        <v>3.75</v>
+      </c>
+      <c r="AB95">
+        <v>3.75</v>
+      </c>
+      <c r="AC95">
+        <v>2.9</v>
+      </c>
+      <c r="AD95">
+        <v>1.42</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>1.53</v>
+      </c>
+      <c r="AH95">
+        <v>2.4</v>
+      </c>
+      <c r="AI95">
+        <v>1.5</v>
+      </c>
+      <c r="AJ95">
         <v>2.5</v>
       </c>
-      <c r="W95">
-        <v>1.5</v>
-      </c>
-      <c r="X95">
-        <v>6.5</v>
-      </c>
-      <c r="Y95">
-        <v>1.11</v>
-      </c>
-      <c r="Z95">
-        <v>2.1</v>
-      </c>
-      <c r="AA95">
-        <v>3.5</v>
-      </c>
-      <c r="AB95">
-        <v>3.25</v>
-      </c>
-      <c r="AC95">
-        <v>1.02</v>
-      </c>
-      <c r="AD95">
-        <v>15</v>
-      </c>
-      <c r="AE95">
-        <v>1.22</v>
-      </c>
-      <c r="AF95">
-        <v>4.2</v>
-      </c>
-      <c r="AG95">
-        <v>1.7</v>
-      </c>
-      <c r="AH95">
-        <v>2.1</v>
-      </c>
-      <c r="AI95">
-        <v>1.57</v>
-      </c>
-      <c r="AJ95">
-        <v>2.25</v>
-      </c>
       <c r="AK95">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AL95">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AM95">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AN95">
-        <v>2.2</v>
+        <v>0.25</v>
       </c>
       <c r="AO95">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AP95">
-        <v>2.33</v>
+        <v>0.4</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AR95">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="AS95">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AT95">
-        <v>3.12</v>
+        <v>2.77</v>
       </c>
       <c r="AU95">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW95">
+        <v>3</v>
+      </c>
+      <c r="AX95">
+        <v>2</v>
+      </c>
+      <c r="AY95">
+        <v>10</v>
+      </c>
+      <c r="AZ95">
+        <v>11</v>
+      </c>
+      <c r="BA95">
         <v>5</v>
       </c>
-      <c r="AX95">
-        <v>5</v>
-      </c>
-      <c r="AY95">
-        <v>22</v>
-      </c>
-      <c r="AZ95">
-        <v>13</v>
-      </c>
-      <c r="BA95">
-        <v>7</v>
-      </c>
       <c r="BB95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD95">
         <v>0</v>
@@ -20602,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="BK95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL95">
         <v>0</v>
@@ -20625,7 +20625,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7465488</v>
+        <v>7465492</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20634,157 +20634,157 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45583.625</v>
+        <v>45582.875</v>
       </c>
       <c r="F96">
         <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H96" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96">
         <v>1</v>
       </c>
       <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
         <v>3</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
       </c>
       <c r="N96">
         <v>3</v>
       </c>
       <c r="O96" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="Q96">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="R96">
+        <v>2.25</v>
+      </c>
+      <c r="S96">
+        <v>3.1</v>
+      </c>
+      <c r="T96">
+        <v>1.33</v>
+      </c>
+      <c r="U96">
+        <v>3.25</v>
+      </c>
+      <c r="V96">
+        <v>2.63</v>
+      </c>
+      <c r="W96">
+        <v>1.44</v>
+      </c>
+      <c r="X96">
+        <v>6.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.11</v>
+      </c>
+      <c r="Z96">
+        <v>2.6</v>
+      </c>
+      <c r="AA96">
+        <v>3.6</v>
+      </c>
+      <c r="AB96">
+        <v>2.5</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>1.73</v>
+      </c>
+      <c r="AH96">
+        <v>2.08</v>
+      </c>
+      <c r="AI96">
+        <v>1.62</v>
+      </c>
+      <c r="AJ96">
+        <v>2.2</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>1.25</v>
+      </c>
+      <c r="AO96">
+        <v>2.25</v>
+      </c>
+      <c r="AP96">
+        <v>1</v>
+      </c>
+      <c r="AQ96">
         <v>2.4</v>
       </c>
-      <c r="S96">
-        <v>4.33</v>
-      </c>
-      <c r="T96">
-        <v>1.29</v>
-      </c>
-      <c r="U96">
-        <v>3.5</v>
-      </c>
-      <c r="V96">
-        <v>2.25</v>
-      </c>
-      <c r="W96">
-        <v>1.57</v>
-      </c>
-      <c r="X96">
-        <v>5.5</v>
-      </c>
-      <c r="Y96">
-        <v>1.14</v>
-      </c>
-      <c r="Z96">
-        <v>1.8</v>
-      </c>
-      <c r="AA96">
-        <v>3.9</v>
-      </c>
-      <c r="AB96">
+      <c r="AR96">
+        <v>1.31</v>
+      </c>
+      <c r="AS96">
+        <v>1.72</v>
+      </c>
+      <c r="AT96">
+        <v>3.03</v>
+      </c>
+      <c r="AU96">
         <v>4</v>
       </c>
-      <c r="AC96">
-        <v>0</v>
-      </c>
-      <c r="AD96">
-        <v>0</v>
-      </c>
-      <c r="AE96">
-        <v>0</v>
-      </c>
-      <c r="AF96">
-        <v>0</v>
-      </c>
-      <c r="AG96">
-        <v>1.57</v>
-      </c>
-      <c r="AH96">
-        <v>2.35</v>
-      </c>
-      <c r="AI96">
-        <v>1.53</v>
-      </c>
-      <c r="AJ96">
-        <v>2.38</v>
-      </c>
-      <c r="AK96">
-        <v>0</v>
-      </c>
-      <c r="AL96">
-        <v>0</v>
-      </c>
-      <c r="AM96">
-        <v>0</v>
-      </c>
-      <c r="AN96">
-        <v>1.2</v>
-      </c>
-      <c r="AO96">
-        <v>1.2</v>
-      </c>
-      <c r="AP96">
-        <v>1.5</v>
-      </c>
-      <c r="AQ96">
-        <v>1</v>
-      </c>
-      <c r="AR96">
-        <v>1.74</v>
-      </c>
-      <c r="AS96">
-        <v>1.52</v>
-      </c>
-      <c r="AT96">
-        <v>3.26</v>
-      </c>
-      <c r="AU96">
+      <c r="AV96">
+        <v>6</v>
+      </c>
+      <c r="AW96">
+        <v>3</v>
+      </c>
+      <c r="AX96">
+        <v>5</v>
+      </c>
+      <c r="AY96">
         <v>8</v>
       </c>
-      <c r="AV96">
-        <v>2</v>
-      </c>
-      <c r="AW96">
-        <v>5</v>
-      </c>
-      <c r="AX96">
-        <v>1</v>
-      </c>
-      <c r="AY96">
+      <c r="AZ96">
         <v>17</v>
       </c>
-      <c r="AZ96">
-        <v>3</v>
-      </c>
       <c r="BA96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB96">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BC96">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD96">
         <v>0</v>
@@ -20808,7 +20808,7 @@
         <v>0</v>
       </c>
       <c r="BK96">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="BL96">
         <v>0</v>
@@ -20840,7 +20840,7 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45583.625</v>
+        <v>45582.875</v>
       </c>
       <c r="F97">
         <v>11</v>
@@ -20870,10 +20870,10 @@
         <v>4</v>
       </c>
       <c r="O97" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q97">
         <v>2.05</v>
@@ -21037,7 +21037,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7465492</v>
+        <v>7465491</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21049,13 +21049,13 @@
         <v>45583.625</v>
       </c>
       <c r="F98">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H98" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -21067,28 +21067,28 @@
         <v>1</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O98" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="Q98">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R98">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S98">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="T98">
         <v>1.33</v>
@@ -21097,10 +21097,10 @@
         <v>3.25</v>
       </c>
       <c r="V98">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W98">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X98">
         <v>6.5</v>
@@ -21109,95 +21109,95 @@
         <v>1.11</v>
       </c>
       <c r="Z98">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AA98">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB98">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AC98">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AD98">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE98">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF98">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AG98">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AH98">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="AI98">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AJ98">
+        <v>2.25</v>
+      </c>
+      <c r="AK98">
+        <v>1.33</v>
+      </c>
+      <c r="AL98">
+        <v>1.22</v>
+      </c>
+      <c r="AM98">
+        <v>1.78</v>
+      </c>
+      <c r="AN98">
         <v>2.2</v>
       </c>
-      <c r="AK98">
-        <v>0</v>
-      </c>
-      <c r="AL98">
-        <v>0</v>
-      </c>
-      <c r="AM98">
-        <v>0</v>
-      </c>
-      <c r="AN98">
-        <v>1.25</v>
-      </c>
       <c r="AO98">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AQ98">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="AR98">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="AS98">
-        <v>1.72</v>
+        <v>1.34</v>
       </c>
       <c r="AT98">
-        <v>3.03</v>
+        <v>3.12</v>
       </c>
       <c r="AU98">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV98">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX98">
         <v>5</v>
       </c>
       <c r="AY98">
+        <v>22</v>
+      </c>
+      <c r="AZ98">
+        <v>13</v>
+      </c>
+      <c r="BA98">
+        <v>7</v>
+      </c>
+      <c r="BB98">
+        <v>1</v>
+      </c>
+      <c r="BC98">
         <v>8</v>
       </c>
-      <c r="AZ98">
-        <v>17</v>
-      </c>
-      <c r="BA98">
-        <v>2</v>
-      </c>
-      <c r="BB98">
-        <v>10</v>
-      </c>
-      <c r="BC98">
-        <v>12</v>
-      </c>
       <c r="BD98">
         <v>0</v>
       </c>
@@ -21220,7 +21220,7 @@
         <v>0</v>
       </c>
       <c r="BK98">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="BL98">
         <v>0</v>
@@ -21243,7 +21243,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7465494</v>
+        <v>7465490</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21258,76 +21258,76 @@
         <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H99" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O99" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="Q99">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="R99">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="S99">
+        <v>5.5</v>
+      </c>
+      <c r="T99">
+        <v>1.22</v>
+      </c>
+      <c r="U99">
         <v>4</v>
       </c>
-      <c r="T99">
-        <v>1.29</v>
-      </c>
-      <c r="U99">
-        <v>3.5</v>
-      </c>
       <c r="V99">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="X99">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y99">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="Z99">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="AA99">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="AB99">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="AC99">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AD99">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AE99">
         <v>0</v>
@@ -21336,16 +21336,16 @@
         <v>0</v>
       </c>
       <c r="AG99">
+        <v>1.4</v>
+      </c>
+      <c r="AH99">
+        <v>2.88</v>
+      </c>
+      <c r="AI99">
         <v>1.53</v>
       </c>
-      <c r="AH99">
-        <v>2.4</v>
-      </c>
-      <c r="AI99">
-        <v>1.5</v>
-      </c>
       <c r="AJ99">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AK99">
         <v>0</v>
@@ -21357,52 +21357,52 @@
         <v>0</v>
       </c>
       <c r="AN99">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="AO99">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP99">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="AQ99">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AR99">
-        <v>1.49</v>
+        <v>1.83</v>
       </c>
       <c r="AS99">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AT99">
-        <v>2.77</v>
+        <v>3.13</v>
       </c>
       <c r="AU99">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW99">
         <v>3</v>
       </c>
       <c r="AX99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY99">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ99">
+        <v>7</v>
+      </c>
+      <c r="BA99">
         <v>11</v>
       </c>
-      <c r="BA99">
-        <v>5</v>
-      </c>
       <c r="BB99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC99">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD99">
         <v>0</v>
@@ -21426,7 +21426,7 @@
         <v>0</v>
       </c>
       <c r="BK99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL99">
         <v>0</v>
@@ -21449,7 +21449,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7465495</v>
+        <v>7465488</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21464,43 +21464,43 @@
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H100" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
         <v>3</v>
-      </c>
-      <c r="N100">
-        <v>5</v>
       </c>
       <c r="O100" t="s">
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="Q100">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R100">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S100">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="T100">
         <v>1.29</v>
@@ -21509,10 +21509,10 @@
         <v>3.5</v>
       </c>
       <c r="V100">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W100">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X100">
         <v>5.5</v>
@@ -21521,13 +21521,13 @@
         <v>1.14</v>
       </c>
       <c r="Z100">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AA100">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AB100">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -21548,67 +21548,67 @@
         <v>2.35</v>
       </c>
       <c r="AI100">
+        <v>1.53</v>
+      </c>
+      <c r="AJ100">
+        <v>2.38</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>1.2</v>
+      </c>
+      <c r="AO100">
+        <v>1.2</v>
+      </c>
+      <c r="AP100">
         <v>1.5</v>
       </c>
-      <c r="AJ100">
-        <v>2.5</v>
-      </c>
-      <c r="AK100">
-        <v>0</v>
-      </c>
-      <c r="AL100">
-        <v>0</v>
-      </c>
-      <c r="AM100">
-        <v>0</v>
-      </c>
-      <c r="AN100">
-        <v>1.4</v>
-      </c>
-      <c r="AO100">
-        <v>2.5</v>
-      </c>
-      <c r="AP100">
-        <v>1.17</v>
-      </c>
       <c r="AQ100">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="AR100">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="AS100">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="AT100">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="AU100">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV100">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY100">
         <v>17</v>
       </c>
       <c r="AZ100">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BA100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB100">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BC100">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD100">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,16 +490,25 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['59', '78', '83', '90+1']</t>
+  </si>
+  <si>
+    <t>['35', '87', '90+2']</t>
+  </si>
+  <si>
     <t>['7', '21', '71']</t>
   </si>
   <si>
     <t>['15', '46', '73']</t>
   </si>
   <si>
-    <t>['59', '78', '83', '90+1']</t>
+    <t>['80']</t>
   </si>
   <si>
-    <t>['35', '87', '90+2']</t>
+    <t>['45', '71']</t>
+  </si>
+  <si>
+    <t>['11', '52']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -679,10 +688,16 @@
     <t>['15', '59', '76']</t>
   </si>
   <si>
+    <t>['9', '42']</t>
+  </si>
+  <si>
     <t>['45+4']</t>
   </si>
   <si>
-    <t>['9', '42']</t>
+    <t>['9', '13', '23']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1509,7 +1524,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1715,7 +1730,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1793,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ4">
         <v>0.8</v>
@@ -1921,7 +1936,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2127,7 +2142,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2208,7 +2223,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2333,7 +2348,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2539,7 +2554,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2745,7 +2760,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2951,7 +2966,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3032,7 +3047,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3157,7 +3172,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3235,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ11">
         <v>1.8</v>
@@ -3569,7 +3584,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3650,7 +3665,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4187,7 +4202,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4680,7 +4695,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4883,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ19">
         <v>2.6</v>
@@ -5011,7 +5026,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5295,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -6041,7 +6056,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6247,7 +6262,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6453,7 +6468,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6740,7 +6755,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1.82</v>
@@ -6865,7 +6880,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6946,7 +6961,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7277,7 +7292,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7355,7 +7370,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7564,7 +7579,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -7895,7 +7910,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8101,7 +8116,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8385,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ36">
         <v>0.8</v>
@@ -8719,7 +8734,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8800,7 +8815,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>1.6</v>
@@ -8925,7 +8940,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9003,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -9337,7 +9352,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9624,7 +9639,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -9955,7 +9970,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10033,7 +10048,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ44">
         <v>1.8</v>
@@ -10161,7 +10176,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10367,7 +10382,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10573,7 +10588,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10779,7 +10794,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11191,7 +11206,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11397,7 +11412,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11603,7 +11618,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11684,7 +11699,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -11890,7 +11905,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR53">
         <v>2.41</v>
@@ -12093,10 +12108,10 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR54">
         <v>1.99</v>
@@ -12427,7 +12442,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12711,7 +12726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ57">
         <v>0.5</v>
@@ -12839,7 +12854,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13045,7 +13060,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13123,10 +13138,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR59">
         <v>1.91</v>
@@ -13457,7 +13472,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13535,7 +13550,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13663,7 +13678,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13869,7 +13884,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -13947,7 +13962,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ63">
         <v>1.67</v>
@@ -14487,7 +14502,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14568,7 +14583,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR66">
         <v>1.48</v>
@@ -14899,7 +14914,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15105,7 +15120,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15186,7 +15201,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15311,7 +15326,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15517,7 +15532,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15723,7 +15738,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15929,7 +15944,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16135,7 +16150,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16341,7 +16356,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16628,7 +16643,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -16959,7 +16974,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17165,7 +17180,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17243,7 +17258,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ79">
         <v>2.4</v>
@@ -17449,7 +17464,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ80">
         <v>1.67</v>
@@ -17577,7 +17592,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17655,7 +17670,7 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ81">
         <v>2.6</v>
@@ -17989,7 +18004,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18195,7 +18210,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18276,7 +18291,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ84">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR84">
         <v>1.34</v>
@@ -18482,7 +18497,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR85">
         <v>1.66</v>
@@ -18813,7 +18828,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -18894,7 +18909,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ87">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR87">
         <v>1.95</v>
@@ -19019,7 +19034,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19431,7 +19446,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19715,7 +19730,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ91">
         <v>1.8</v>
@@ -19843,7 +19858,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20222,10 +20237,10 @@
         <v>69</v>
       </c>
       <c r="E94" s="2">
-        <v>45582.875</v>
+        <v>45583.625</v>
       </c>
       <c r="F94">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
         <v>78</v>
@@ -20255,7 +20270,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20348,10 +20363,10 @@
         <v>3.25</v>
       </c>
       <c r="AU94">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV94">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW94">
         <v>7</v>
@@ -20360,10 +20375,10 @@
         <v>3</v>
       </c>
       <c r="AY94">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ94">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="BA94">
         <v>5</v>
@@ -20428,10 +20443,10 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45582.875</v>
+        <v>45583.625</v>
       </c>
       <c r="F95">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G95" t="s">
         <v>80</v>
@@ -20461,7 +20476,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20554,22 +20569,22 @@
         <v>3.08</v>
       </c>
       <c r="AU95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV95">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW95">
         <v>0</v>
       </c>
       <c r="AX95">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY95">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AZ95">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA95">
         <v>4</v>
@@ -20634,7 +20649,7 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45582.875</v>
+        <v>45583.625</v>
       </c>
       <c r="F96">
         <v>11</v>
@@ -20667,7 +20682,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20760,7 +20775,7 @@
         <v>2.76</v>
       </c>
       <c r="AU96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV96">
         <v>5</v>
@@ -20772,10 +20787,10 @@
         <v>3</v>
       </c>
       <c r="AY96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ96">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA96">
         <v>2</v>
@@ -20840,7 +20855,7 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45582.875</v>
+        <v>45583.625</v>
       </c>
       <c r="F97">
         <v>11</v>
@@ -20873,7 +20888,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20951,7 +20966,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ97">
         <v>1.67</v>
@@ -20966,31 +20981,31 @@
         <v>3.35</v>
       </c>
       <c r="AU97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV97">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX97">
+        <v>3</v>
+      </c>
+      <c r="AY97">
+        <v>7</v>
+      </c>
+      <c r="AZ97">
+        <v>7</v>
+      </c>
+      <c r="BA97">
+        <v>3</v>
+      </c>
+      <c r="BB97">
         <v>4</v>
       </c>
-      <c r="AY97">
-        <v>13</v>
-      </c>
-      <c r="AZ97">
-        <v>13</v>
-      </c>
-      <c r="BA97">
-        <v>6</v>
-      </c>
-      <c r="BB97">
-        <v>5</v>
-      </c>
       <c r="BC97">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD97">
         <v>0</v>
@@ -21046,7 +21061,7 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45582.875</v>
+        <v>45583.625</v>
       </c>
       <c r="F98">
         <v>11</v>
@@ -21157,7 +21172,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ98">
         <v>0.8</v>
@@ -21175,19 +21190,19 @@
         <v>5</v>
       </c>
       <c r="AV98">
+        <v>5</v>
+      </c>
+      <c r="AW98">
         <v>4</v>
       </c>
-      <c r="AW98">
-        <v>3</v>
-      </c>
       <c r="AX98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ98">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA98">
         <v>5</v>
@@ -21252,7 +21267,7 @@
         <v>69</v>
       </c>
       <c r="E99" s="2">
-        <v>45582.875</v>
+        <v>45583.625</v>
       </c>
       <c r="F99">
         <v>11</v>
@@ -21285,7 +21300,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21378,22 +21393,22 @@
         <v>3.03</v>
       </c>
       <c r="AU99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV99">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX99">
         <v>5</v>
       </c>
       <c r="AY99">
+        <v>7</v>
+      </c>
+      <c r="AZ99">
         <v>8</v>
-      </c>
-      <c r="AZ99">
-        <v>17</v>
       </c>
       <c r="BA99">
         <v>2</v>
@@ -21449,7 +21464,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7465489</v>
+        <v>7465491</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21458,157 +21473,157 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45582.875</v>
+        <v>45583.625</v>
       </c>
       <c r="F100">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H100" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>1</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O100" t="s">
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="Q100">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="R100">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="S100">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="T100">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="U100">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="V100">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="W100">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="X100">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Y100">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="Z100">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="AA100">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="AB100">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="AC100">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AD100">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE100">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF100">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AG100">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="AH100">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="AI100">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AJ100">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AK100">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AL100">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM100">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AN100">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO100">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="AQ100">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR100">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AS100">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="AT100">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="AU100">
         <v>8</v>
       </c>
       <c r="AV100">
+        <v>7</v>
+      </c>
+      <c r="AW100">
         <v>5</v>
       </c>
-      <c r="AW100">
-        <v>6</v>
-      </c>
       <c r="AX100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY100">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ100">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA100">
         <v>7</v>
       </c>
       <c r="BB100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC100">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD100">
         <v>0</v>
@@ -21632,7 +21647,7 @@
         <v>0</v>
       </c>
       <c r="BK100">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="BL100">
         <v>0</v>
@@ -21655,7 +21670,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7465488</v>
+        <v>7465490</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21664,76 +21679,76 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45582.875</v>
+        <v>45583.625</v>
       </c>
       <c r="F101">
         <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H101" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L101">
         <v>3</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O101" t="s">
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="Q101">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="R101">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="S101">
+        <v>5.5</v>
+      </c>
+      <c r="T101">
+        <v>1.22</v>
+      </c>
+      <c r="U101">
+        <v>4</v>
+      </c>
+      <c r="V101">
+        <v>2</v>
+      </c>
+      <c r="W101">
+        <v>1.73</v>
+      </c>
+      <c r="X101">
         <v>4.33</v>
       </c>
-      <c r="T101">
-        <v>1.29</v>
-      </c>
-      <c r="U101">
-        <v>3.5</v>
-      </c>
-      <c r="V101">
-        <v>2.25</v>
-      </c>
-      <c r="W101">
-        <v>1.57</v>
-      </c>
-      <c r="X101">
-        <v>5.5</v>
-      </c>
       <c r="Y101">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="Z101">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="AA101">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AB101">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -21748,10 +21763,10 @@
         <v>0</v>
       </c>
       <c r="AG101">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AH101">
-        <v>2.35</v>
+        <v>2.88</v>
       </c>
       <c r="AI101">
         <v>1.53</v>
@@ -21769,52 +21784,52 @@
         <v>0</v>
       </c>
       <c r="AN101">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="AO101">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP101">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="AS101">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="AT101">
-        <v>3.26</v>
+        <v>3.13</v>
       </c>
       <c r="AU101">
         <v>8</v>
       </c>
       <c r="AV101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY101">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ101">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA101">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BB101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC101">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD101">
         <v>0</v>
@@ -21838,7 +21853,7 @@
         <v>0</v>
       </c>
       <c r="BK101">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BL101">
         <v>0</v>
@@ -21861,7 +21876,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7465491</v>
+        <v>7465489</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21873,154 +21888,154 @@
         <v>45583.625</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H102" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102">
         <v>1</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
         <v>4</v>
-      </c>
-      <c r="M102">
-        <v>2</v>
-      </c>
-      <c r="N102">
-        <v>6</v>
       </c>
       <c r="O102" t="s">
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="Q102">
+        <v>2.05</v>
+      </c>
+      <c r="R102">
         <v>2.75</v>
       </c>
-      <c r="R102">
-        <v>2.3</v>
-      </c>
       <c r="S102">
+        <v>4.33</v>
+      </c>
+      <c r="T102">
+        <v>1.18</v>
+      </c>
+      <c r="U102">
+        <v>4.5</v>
+      </c>
+      <c r="V102">
+        <v>1.83</v>
+      </c>
+      <c r="W102">
+        <v>1.83</v>
+      </c>
+      <c r="X102">
+        <v>3.75</v>
+      </c>
+      <c r="Y102">
+        <v>1.25</v>
+      </c>
+      <c r="Z102">
+        <v>1.62</v>
+      </c>
+      <c r="AA102">
+        <v>4.75</v>
+      </c>
+      <c r="AB102">
+        <v>4.33</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>1.29</v>
+      </c>
+      <c r="AH102">
         <v>3.6</v>
       </c>
-      <c r="T102">
-        <v>1.33</v>
-      </c>
-      <c r="U102">
-        <v>3.25</v>
-      </c>
-      <c r="V102">
-        <v>2.5</v>
-      </c>
-      <c r="W102">
+      <c r="AI102">
+        <v>1.36</v>
+      </c>
+      <c r="AJ102">
+        <v>3</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>2</v>
+      </c>
+      <c r="AO102">
+        <v>1.8</v>
+      </c>
+      <c r="AP102">
+        <v>2.17</v>
+      </c>
+      <c r="AQ102">
         <v>1.5</v>
       </c>
-      <c r="X102">
-        <v>6.5</v>
-      </c>
-      <c r="Y102">
-        <v>1.11</v>
-      </c>
-      <c r="Z102">
-        <v>2.1</v>
-      </c>
-      <c r="AA102">
-        <v>3.5</v>
-      </c>
-      <c r="AB102">
-        <v>3.25</v>
-      </c>
-      <c r="AC102">
-        <v>1.02</v>
-      </c>
-      <c r="AD102">
-        <v>15</v>
-      </c>
-      <c r="AE102">
-        <v>1.22</v>
-      </c>
-      <c r="AF102">
-        <v>4.2</v>
-      </c>
-      <c r="AG102">
-        <v>1.7</v>
-      </c>
-      <c r="AH102">
-        <v>2.1</v>
-      </c>
-      <c r="AI102">
-        <v>1.57</v>
-      </c>
-      <c r="AJ102">
-        <v>2.25</v>
-      </c>
-      <c r="AK102">
-        <v>1.33</v>
-      </c>
-      <c r="AL102">
-        <v>1.22</v>
-      </c>
-      <c r="AM102">
-        <v>1.78</v>
-      </c>
-      <c r="AN102">
-        <v>2.2</v>
-      </c>
-      <c r="AO102">
+      <c r="AR102">
         <v>1.75</v>
       </c>
-      <c r="AP102">
-        <v>2.33</v>
-      </c>
-      <c r="AQ102">
-        <v>1.4</v>
-      </c>
-      <c r="AR102">
-        <v>1.78</v>
-      </c>
       <c r="AS102">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="AT102">
-        <v>3.12</v>
+        <v>3.34</v>
       </c>
       <c r="AU102">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV102">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW102">
         <v>5</v>
       </c>
       <c r="AX102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY102">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AZ102">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BA102">
         <v>7</v>
       </c>
       <c r="BB102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC102">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD102">
         <v>0</v>
@@ -22044,7 +22059,7 @@
         <v>0</v>
       </c>
       <c r="BK102">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BL102">
         <v>0</v>
@@ -22067,7 +22082,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7465490</v>
+        <v>7465488</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22082,71 +22097,71 @@
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H103" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L103">
         <v>3</v>
       </c>
       <c r="M103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O103" t="s">
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="Q103">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="R103">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="S103">
+        <v>4.33</v>
+      </c>
+      <c r="T103">
+        <v>1.29</v>
+      </c>
+      <c r="U103">
+        <v>3.5</v>
+      </c>
+      <c r="V103">
+        <v>2.25</v>
+      </c>
+      <c r="W103">
+        <v>1.57</v>
+      </c>
+      <c r="X103">
         <v>5.5</v>
       </c>
-      <c r="T103">
-        <v>1.22</v>
-      </c>
-      <c r="U103">
+      <c r="Y103">
+        <v>1.14</v>
+      </c>
+      <c r="Z103">
+        <v>1.8</v>
+      </c>
+      <c r="AA103">
+        <v>3.9</v>
+      </c>
+      <c r="AB103">
         <v>4</v>
       </c>
-      <c r="V103">
-        <v>2</v>
-      </c>
-      <c r="W103">
-        <v>1.73</v>
-      </c>
-      <c r="X103">
-        <v>4.33</v>
-      </c>
-      <c r="Y103">
-        <v>1.2</v>
-      </c>
-      <c r="Z103">
-        <v>1.48</v>
-      </c>
-      <c r="AA103">
-        <v>4.2</v>
-      </c>
-      <c r="AB103">
-        <v>6.5</v>
-      </c>
       <c r="AC103">
         <v>0</v>
       </c>
@@ -22160,10 +22175,10 @@
         <v>0</v>
       </c>
       <c r="AG103">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AH103">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="AI103">
         <v>1.53</v>
@@ -22181,91 +22196,915 @@
         <v>0</v>
       </c>
       <c r="AN103">
+        <v>1.2</v>
+      </c>
+      <c r="AO103">
+        <v>1.2</v>
+      </c>
+      <c r="AP103">
+        <v>1.5</v>
+      </c>
+      <c r="AQ103">
+        <v>0.86</v>
+      </c>
+      <c r="AR103">
+        <v>1.74</v>
+      </c>
+      <c r="AS103">
+        <v>1.52</v>
+      </c>
+      <c r="AT103">
+        <v>3.26</v>
+      </c>
+      <c r="AU103">
+        <v>6</v>
+      </c>
+      <c r="AV103">
+        <v>2</v>
+      </c>
+      <c r="AW103">
+        <v>5</v>
+      </c>
+      <c r="AX103">
+        <v>1</v>
+      </c>
+      <c r="AY103">
+        <v>11</v>
+      </c>
+      <c r="AZ103">
         <v>3</v>
       </c>
-      <c r="AO103">
-        <v>0.6</v>
-      </c>
-      <c r="AP103">
+      <c r="BA103">
+        <v>7</v>
+      </c>
+      <c r="BB103">
+        <v>1</v>
+      </c>
+      <c r="BC103">
+        <v>8</v>
+      </c>
+      <c r="BD103">
+        <v>0</v>
+      </c>
+      <c r="BE103">
+        <v>0</v>
+      </c>
+      <c r="BF103">
+        <v>0</v>
+      </c>
+      <c r="BG103">
+        <v>0</v>
+      </c>
+      <c r="BH103">
+        <v>0</v>
+      </c>
+      <c r="BI103">
+        <v>0</v>
+      </c>
+      <c r="BJ103">
+        <v>0</v>
+      </c>
+      <c r="BK103">
+        <v>2.1</v>
+      </c>
+      <c r="BL103">
+        <v>0</v>
+      </c>
+      <c r="BM103">
+        <v>0</v>
+      </c>
+      <c r="BN103">
+        <v>0</v>
+      </c>
+      <c r="BO103">
+        <v>0</v>
+      </c>
+      <c r="BP103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7465507</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45586.625</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>79</v>
+      </c>
+      <c r="H104" t="s">
+        <v>83</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>3</v>
       </c>
-      <c r="AQ103">
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104" t="s">
+        <v>162</v>
+      </c>
+      <c r="P104" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q104">
+        <v>3.75</v>
+      </c>
+      <c r="R104">
+        <v>2.63</v>
+      </c>
+      <c r="S104">
+        <v>2.25</v>
+      </c>
+      <c r="T104">
+        <v>1.2</v>
+      </c>
+      <c r="U104">
+        <v>4.33</v>
+      </c>
+      <c r="V104">
+        <v>2</v>
+      </c>
+      <c r="W104">
+        <v>1.73</v>
+      </c>
+      <c r="X104">
+        <v>4</v>
+      </c>
+      <c r="Y104">
+        <v>1.22</v>
+      </c>
+      <c r="Z104">
+        <v>3.83</v>
+      </c>
+      <c r="AA104">
+        <v>4.26</v>
+      </c>
+      <c r="AB104">
+        <v>1.78</v>
+      </c>
+      <c r="AC104">
+        <v>1.01</v>
+      </c>
+      <c r="AD104">
+        <v>18</v>
+      </c>
+      <c r="AE104">
+        <v>1.1</v>
+      </c>
+      <c r="AF104">
+        <v>7.19</v>
+      </c>
+      <c r="AG104">
+        <v>1.36</v>
+      </c>
+      <c r="AH104">
+        <v>3.1</v>
+      </c>
+      <c r="AI104">
+        <v>1.4</v>
+      </c>
+      <c r="AJ104">
+        <v>2.75</v>
+      </c>
+      <c r="AK104">
+        <v>2.1</v>
+      </c>
+      <c r="AL104">
+        <v>1.17</v>
+      </c>
+      <c r="AM104">
+        <v>1.25</v>
+      </c>
+      <c r="AN104">
         <v>0.5</v>
       </c>
-      <c r="AR103">
+      <c r="AO104">
+        <v>1</v>
+      </c>
+      <c r="AP104">
+        <v>0.4</v>
+      </c>
+      <c r="AQ104">
+        <v>1.33</v>
+      </c>
+      <c r="AR104">
+        <v>1.57</v>
+      </c>
+      <c r="AS104">
+        <v>1.92</v>
+      </c>
+      <c r="AT104">
+        <v>3.49</v>
+      </c>
+      <c r="AU104">
+        <v>7</v>
+      </c>
+      <c r="AV104">
+        <v>6</v>
+      </c>
+      <c r="AW104">
+        <v>5</v>
+      </c>
+      <c r="AX104">
+        <v>7</v>
+      </c>
+      <c r="AY104">
+        <v>12</v>
+      </c>
+      <c r="AZ104">
+        <v>20</v>
+      </c>
+      <c r="BA104">
+        <v>5</v>
+      </c>
+      <c r="BB104">
+        <v>6</v>
+      </c>
+      <c r="BC104">
+        <v>11</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>0</v>
+      </c>
+      <c r="BG104">
+        <v>0</v>
+      </c>
+      <c r="BH104">
+        <v>0</v>
+      </c>
+      <c r="BI104">
+        <v>0</v>
+      </c>
+      <c r="BJ104">
+        <v>0</v>
+      </c>
+      <c r="BK104">
+        <v>0</v>
+      </c>
+      <c r="BL104">
+        <v>0</v>
+      </c>
+      <c r="BM104">
+        <v>0</v>
+      </c>
+      <c r="BN104">
+        <v>0</v>
+      </c>
+      <c r="BO104">
+        <v>0</v>
+      </c>
+      <c r="BP104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7465504</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45586.625</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>89</v>
+      </c>
+      <c r="H105" t="s">
+        <v>76</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" t="s">
+        <v>93</v>
+      </c>
+      <c r="P105" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q105">
+        <v>4</v>
+      </c>
+      <c r="R105">
+        <v>2.6</v>
+      </c>
+      <c r="S105">
+        <v>2.3</v>
+      </c>
+      <c r="T105">
+        <v>1.22</v>
+      </c>
+      <c r="U105">
+        <v>4</v>
+      </c>
+      <c r="V105">
+        <v>2.1</v>
+      </c>
+      <c r="W105">
+        <v>1.67</v>
+      </c>
+      <c r="X105">
+        <v>4.5</v>
+      </c>
+      <c r="Y105">
+        <v>1.18</v>
+      </c>
+      <c r="Z105">
+        <v>3.82</v>
+      </c>
+      <c r="AA105">
+        <v>4.18</v>
+      </c>
+      <c r="AB105">
+        <v>1.79</v>
+      </c>
+      <c r="AC105">
+        <v>1.02</v>
+      </c>
+      <c r="AD105">
+        <v>16.5</v>
+      </c>
+      <c r="AE105">
+        <v>1.12</v>
+      </c>
+      <c r="AF105">
+        <v>6</v>
+      </c>
+      <c r="AG105">
+        <v>1.4</v>
+      </c>
+      <c r="AH105">
+        <v>2.88</v>
+      </c>
+      <c r="AI105">
+        <v>1.44</v>
+      </c>
+      <c r="AJ105">
+        <v>2.63</v>
+      </c>
+      <c r="AK105">
+        <v>2</v>
+      </c>
+      <c r="AL105">
+        <v>1.18</v>
+      </c>
+      <c r="AM105">
+        <v>1.28</v>
+      </c>
+      <c r="AN105">
+        <v>0.4</v>
+      </c>
+      <c r="AO105">
+        <v>1.25</v>
+      </c>
+      <c r="AP105">
+        <v>0.5</v>
+      </c>
+      <c r="AQ105">
+        <v>1.2</v>
+      </c>
+      <c r="AR105">
+        <v>1.49</v>
+      </c>
+      <c r="AS105">
+        <v>1.77</v>
+      </c>
+      <c r="AT105">
+        <v>3.26</v>
+      </c>
+      <c r="AU105">
+        <v>4</v>
+      </c>
+      <c r="AV105">
+        <v>4</v>
+      </c>
+      <c r="AW105">
+        <v>6</v>
+      </c>
+      <c r="AX105">
+        <v>1</v>
+      </c>
+      <c r="AY105">
+        <v>19</v>
+      </c>
+      <c r="AZ105">
+        <v>5</v>
+      </c>
+      <c r="BA105">
+        <v>7</v>
+      </c>
+      <c r="BB105">
+        <v>1</v>
+      </c>
+      <c r="BC105">
+        <v>8</v>
+      </c>
+      <c r="BD105">
+        <v>2.82</v>
+      </c>
+      <c r="BE105">
+        <v>9.1</v>
+      </c>
+      <c r="BF105">
+        <v>1.56</v>
+      </c>
+      <c r="BG105">
+        <v>0</v>
+      </c>
+      <c r="BH105">
+        <v>0</v>
+      </c>
+      <c r="BI105">
+        <v>1.27</v>
+      </c>
+      <c r="BJ105">
+        <v>3.04</v>
+      </c>
+      <c r="BK105">
+        <v>1.52</v>
+      </c>
+      <c r="BL105">
+        <v>2.24</v>
+      </c>
+      <c r="BM105">
+        <v>1.9</v>
+      </c>
+      <c r="BN105">
+        <v>1.8</v>
+      </c>
+      <c r="BO105">
+        <v>2.41</v>
+      </c>
+      <c r="BP105">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7465503</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45586.625</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>72</v>
+      </c>
+      <c r="H106" t="s">
+        <v>82</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>163</v>
+      </c>
+      <c r="P106" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q106">
+        <v>2.88</v>
+      </c>
+      <c r="R106">
+        <v>2.3</v>
+      </c>
+      <c r="S106">
+        <v>3.4</v>
+      </c>
+      <c r="T106">
+        <v>1.3</v>
+      </c>
+      <c r="U106">
+        <v>3.4</v>
+      </c>
+      <c r="V106">
+        <v>2.5</v>
+      </c>
+      <c r="W106">
+        <v>1.5</v>
+      </c>
+      <c r="X106">
+        <v>6</v>
+      </c>
+      <c r="Y106">
+        <v>1.13</v>
+      </c>
+      <c r="Z106">
+        <v>2.34</v>
+      </c>
+      <c r="AA106">
+        <v>3.53</v>
+      </c>
+      <c r="AB106">
+        <v>2.9</v>
+      </c>
+      <c r="AC106">
+        <v>1.03</v>
+      </c>
+      <c r="AD106">
+        <v>15</v>
+      </c>
+      <c r="AE106">
+        <v>1.2</v>
+      </c>
+      <c r="AF106">
+        <v>4.33</v>
+      </c>
+      <c r="AG106">
+        <v>1.65</v>
+      </c>
+      <c r="AH106">
+        <v>2.15</v>
+      </c>
+      <c r="AI106">
+        <v>1.53</v>
+      </c>
+      <c r="AJ106">
+        <v>2.38</v>
+      </c>
+      <c r="AK106">
+        <v>1.4</v>
+      </c>
+      <c r="AL106">
+        <v>1.25</v>
+      </c>
+      <c r="AM106">
+        <v>1.65</v>
+      </c>
+      <c r="AN106">
+        <v>1.6</v>
+      </c>
+      <c r="AO106">
+        <v>1</v>
+      </c>
+      <c r="AP106">
         <v>1.83</v>
       </c>
-      <c r="AS103">
-        <v>1.3</v>
-      </c>
-      <c r="AT103">
-        <v>3.13</v>
-      </c>
-      <c r="AU103">
-        <v>8</v>
-      </c>
-      <c r="AV103">
+      <c r="AQ106">
+        <v>0.86</v>
+      </c>
+      <c r="AR106">
+        <v>1.87</v>
+      </c>
+      <c r="AS106">
+        <v>1.52</v>
+      </c>
+      <c r="AT106">
+        <v>3.39</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>6</v>
+      </c>
+      <c r="AW106">
+        <v>1</v>
+      </c>
+      <c r="AX106">
+        <v>10</v>
+      </c>
+      <c r="AY106">
+        <v>5</v>
+      </c>
+      <c r="AZ106">
+        <v>20</v>
+      </c>
+      <c r="BA106">
+        <v>0</v>
+      </c>
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>4</v>
+      </c>
+      <c r="BD106">
+        <v>1.88</v>
+      </c>
+      <c r="BE106">
+        <v>6.55</v>
+      </c>
+      <c r="BF106">
+        <v>2.38</v>
+      </c>
+      <c r="BG106">
+        <v>1.17</v>
+      </c>
+      <c r="BH106">
+        <v>4.3</v>
+      </c>
+      <c r="BI106">
+        <v>1.32</v>
+      </c>
+      <c r="BJ106">
+        <v>2.78</v>
+      </c>
+      <c r="BK106">
+        <v>1.6</v>
+      </c>
+      <c r="BL106">
+        <v>2.08</v>
+      </c>
+      <c r="BM106">
+        <v>2.04</v>
+      </c>
+      <c r="BN106">
+        <v>1.69</v>
+      </c>
+      <c r="BO106">
+        <v>2.62</v>
+      </c>
+      <c r="BP106">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7465508</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45586.625</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>87</v>
+      </c>
+      <c r="H107" t="s">
+        <v>70</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>164</v>
+      </c>
+      <c r="P107" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q107">
+        <v>2.3</v>
+      </c>
+      <c r="R107">
+        <v>2.4</v>
+      </c>
+      <c r="S107">
+        <v>4.33</v>
+      </c>
+      <c r="T107">
+        <v>1.29</v>
+      </c>
+      <c r="U107">
+        <v>3.5</v>
+      </c>
+      <c r="V107">
+        <v>2.25</v>
+      </c>
+      <c r="W107">
+        <v>1.57</v>
+      </c>
+      <c r="X107">
+        <v>5.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.14</v>
+      </c>
+      <c r="Z107">
+        <v>1.74</v>
+      </c>
+      <c r="AA107">
+        <v>4</v>
+      </c>
+      <c r="AB107">
+        <v>4.29</v>
+      </c>
+      <c r="AC107">
+        <v>1.03</v>
+      </c>
+      <c r="AD107">
+        <v>11</v>
+      </c>
+      <c r="AE107">
+        <v>1.18</v>
+      </c>
+      <c r="AF107">
+        <v>5</v>
+      </c>
+      <c r="AG107">
+        <v>1.55</v>
+      </c>
+      <c r="AH107">
+        <v>2.3</v>
+      </c>
+      <c r="AI107">
+        <v>1.57</v>
+      </c>
+      <c r="AJ107">
+        <v>2.25</v>
+      </c>
+      <c r="AK107">
+        <v>1.22</v>
+      </c>
+      <c r="AL107">
+        <v>1.2</v>
+      </c>
+      <c r="AM107">
+        <v>2.1</v>
+      </c>
+      <c r="AN107">
+        <v>0.2</v>
+      </c>
+      <c r="AO107">
+        <v>2</v>
+      </c>
+      <c r="AP107">
+        <v>0.67</v>
+      </c>
+      <c r="AQ107">
+        <v>1.67</v>
+      </c>
+      <c r="AR107">
+        <v>1.77</v>
+      </c>
+      <c r="AS107">
+        <v>1.24</v>
+      </c>
+      <c r="AT107">
+        <v>3.01</v>
+      </c>
+      <c r="AU107">
+        <v>6</v>
+      </c>
+      <c r="AV107">
         <v>3</v>
       </c>
-      <c r="AW103">
+      <c r="AW107">
+        <v>5</v>
+      </c>
+      <c r="AX107">
+        <v>4</v>
+      </c>
+      <c r="AY107">
+        <v>18</v>
+      </c>
+      <c r="AZ107">
+        <v>11</v>
+      </c>
+      <c r="BA107">
+        <v>6</v>
+      </c>
+      <c r="BB107">
         <v>3</v>
       </c>
-      <c r="AX103">
-        <v>3</v>
-      </c>
-      <c r="AY103">
-        <v>16</v>
-      </c>
-      <c r="AZ103">
-        <v>7</v>
-      </c>
-      <c r="BA103">
-        <v>11</v>
-      </c>
-      <c r="BB103">
-        <v>2</v>
-      </c>
-      <c r="BC103">
-        <v>13</v>
-      </c>
-      <c r="BD103">
-        <v>0</v>
-      </c>
-      <c r="BE103">
-        <v>0</v>
-      </c>
-      <c r="BF103">
-        <v>0</v>
-      </c>
-      <c r="BG103">
-        <v>0</v>
-      </c>
-      <c r="BH103">
-        <v>0</v>
-      </c>
-      <c r="BI103">
-        <v>0</v>
-      </c>
-      <c r="BJ103">
-        <v>0</v>
-      </c>
-      <c r="BK103">
-        <v>0</v>
-      </c>
-      <c r="BL103">
-        <v>0</v>
-      </c>
-      <c r="BM103">
-        <v>0</v>
-      </c>
-      <c r="BN103">
-        <v>0</v>
-      </c>
-      <c r="BO103">
-        <v>0</v>
-      </c>
-      <c r="BP103">
-        <v>0</v>
+      <c r="BC107">
+        <v>9</v>
+      </c>
+      <c r="BD107">
+        <v>1.35</v>
+      </c>
+      <c r="BE107">
+        <v>10.25</v>
+      </c>
+      <c r="BF107">
+        <v>3.74</v>
+      </c>
+      <c r="BG107">
+        <v>0</v>
+      </c>
+      <c r="BH107">
+        <v>0</v>
+      </c>
+      <c r="BI107">
+        <v>1.19</v>
+      </c>
+      <c r="BJ107">
+        <v>3.58</v>
+      </c>
+      <c r="BK107">
+        <v>1.39</v>
+      </c>
+      <c r="BL107">
+        <v>2.59</v>
+      </c>
+      <c r="BM107">
+        <v>1.71</v>
+      </c>
+      <c r="BN107">
+        <v>2.02</v>
+      </c>
+      <c r="BO107">
+        <v>2.08</v>
+      </c>
+      <c r="BP107">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,15 @@
     <t>['11', '52']</t>
   </si>
   <si>
+    <t>['23', '85']</t>
+  </si>
+  <si>
+    <t>['67', '90+8']</t>
+  </si>
+  <si>
+    <t>['7', '59', '84']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -698,6 +707,15 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['48', '88']</t>
+  </si>
+  <si>
+    <t>['5', '35']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1524,7 +1542,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1602,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>1.67</v>
@@ -1730,7 +1748,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1936,7 +1954,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2142,7 +2160,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2348,7 +2366,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2554,7 +2572,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2760,7 +2778,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2966,7 +2984,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3172,7 +3190,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3459,7 +3477,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ12">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3584,7 +3602,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3871,7 +3889,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4202,7 +4220,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4280,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4489,7 +4507,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4692,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18">
         <v>1.2</v>
@@ -5026,7 +5044,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5104,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ20">
         <v>2.4</v>
@@ -5722,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>2.6</v>
@@ -6056,7 +6074,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6262,7 +6280,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6468,7 +6486,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6880,7 +6898,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7292,7 +7310,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7785,7 +7803,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR33">
         <v>1.26</v>
@@ -7910,7 +7928,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8116,7 +8134,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8194,7 +8212,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ35">
         <v>2.4</v>
@@ -8606,7 +8624,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37">
         <v>1.8</v>
@@ -8734,7 +8752,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8940,7 +8958,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9021,7 +9039,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR39">
         <v>2.22</v>
@@ -9224,10 +9242,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR40">
         <v>1.64</v>
@@ -9352,7 +9370,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9970,7 +9988,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10176,7 +10194,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10382,7 +10400,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10588,7 +10606,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10669,7 +10687,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ47">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>2.09</v>
@@ -10794,7 +10812,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11206,7 +11224,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11412,7 +11430,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11618,7 +11636,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11696,7 +11714,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>0.86</v>
@@ -12442,7 +12460,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12520,10 +12538,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.88</v>
@@ -12729,7 +12747,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR57">
         <v>1.47</v>
@@ -12854,7 +12872,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12932,10 +12950,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ58">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR58">
         <v>1.06</v>
@@ -13060,7 +13078,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13344,7 +13362,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
@@ -13472,7 +13490,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13553,7 +13571,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR61">
         <v>1.96</v>
@@ -13678,7 +13696,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13884,7 +13902,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14502,7 +14520,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14580,7 +14598,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ66">
         <v>1.33</v>
@@ -14914,7 +14932,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15120,7 +15138,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15326,7 +15344,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15532,7 +15550,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15610,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ71">
         <v>1.8</v>
@@ -15738,7 +15756,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15816,7 +15834,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ72">
         <v>0.8</v>
@@ -15944,7 +15962,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16025,7 +16043,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR73">
         <v>1.77</v>
@@ -16150,7 +16168,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16231,7 +16249,7 @@
         <v>3</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR74">
         <v>1.75</v>
@@ -16356,7 +16374,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16849,7 +16867,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ77">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR77">
         <v>1.86</v>
@@ -16974,7 +16992,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17055,7 +17073,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ78">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17180,7 +17198,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17592,7 +17610,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18004,7 +18022,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18210,7 +18228,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18700,7 +18718,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ86">
         <v>1.5</v>
@@ -18828,7 +18846,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19034,7 +19052,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19112,7 +19130,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>0.5</v>
@@ -19318,7 +19336,7 @@
         <v>2.25</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ89">
         <v>1.5</v>
@@ -19446,7 +19464,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19858,7 +19876,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20270,7 +20288,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20476,7 +20494,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20682,7 +20700,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20888,7 +20906,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21300,7 +21318,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21587,7 +21605,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ100">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -21712,7 +21730,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21918,7 +21936,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22297,7 +22315,7 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45586.625</v>
+        <v>45585.875</v>
       </c>
       <c r="F104">
         <v>10</v>
@@ -22330,7 +22348,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22503,7 +22521,7 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45586.625</v>
+        <v>45585.875</v>
       </c>
       <c r="F105">
         <v>10</v>
@@ -22709,7 +22727,7 @@
         <v>69</v>
       </c>
       <c r="E106" s="2">
-        <v>45586.625</v>
+        <v>45585.875</v>
       </c>
       <c r="F106">
         <v>10</v>
@@ -22742,7 +22760,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22915,7 +22933,7 @@
         <v>69</v>
       </c>
       <c r="E107" s="2">
-        <v>45586.625</v>
+        <v>45585.875</v>
       </c>
       <c r="F107">
         <v>10</v>
@@ -23105,6 +23123,830 @@
       </c>
       <c r="BP107">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7465501</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45587.625</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>71</v>
+      </c>
+      <c r="H108" t="s">
+        <v>74</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>165</v>
+      </c>
+      <c r="P108" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q108">
+        <v>2.05</v>
+      </c>
+      <c r="R108">
+        <v>2.5</v>
+      </c>
+      <c r="S108">
+        <v>5.5</v>
+      </c>
+      <c r="T108">
+        <v>1.29</v>
+      </c>
+      <c r="U108">
+        <v>3.5</v>
+      </c>
+      <c r="V108">
+        <v>2.38</v>
+      </c>
+      <c r="W108">
+        <v>1.53</v>
+      </c>
+      <c r="X108">
+        <v>5.5</v>
+      </c>
+      <c r="Y108">
+        <v>1.14</v>
+      </c>
+      <c r="Z108">
+        <v>1.53</v>
+      </c>
+      <c r="AA108">
+        <v>4.2</v>
+      </c>
+      <c r="AB108">
+        <v>5.5</v>
+      </c>
+      <c r="AC108">
+        <v>1.02</v>
+      </c>
+      <c r="AD108">
+        <v>17</v>
+      </c>
+      <c r="AE108">
+        <v>1.2</v>
+      </c>
+      <c r="AF108">
+        <v>4.5</v>
+      </c>
+      <c r="AG108">
+        <v>1.62</v>
+      </c>
+      <c r="AH108">
+        <v>2.25</v>
+      </c>
+      <c r="AI108">
+        <v>1.73</v>
+      </c>
+      <c r="AJ108">
+        <v>2</v>
+      </c>
+      <c r="AK108">
+        <v>1.14</v>
+      </c>
+      <c r="AL108">
+        <v>1.17</v>
+      </c>
+      <c r="AM108">
+        <v>2.5</v>
+      </c>
+      <c r="AN108">
+        <v>0.6</v>
+      </c>
+      <c r="AO108">
+        <v>0.5</v>
+      </c>
+      <c r="AP108">
+        <v>1</v>
+      </c>
+      <c r="AQ108">
+        <v>0.4</v>
+      </c>
+      <c r="AR108">
+        <v>1.82</v>
+      </c>
+      <c r="AS108">
+        <v>1.06</v>
+      </c>
+      <c r="AT108">
+        <v>2.88</v>
+      </c>
+      <c r="AU108">
+        <v>7</v>
+      </c>
+      <c r="AV108">
+        <v>2</v>
+      </c>
+      <c r="AW108">
+        <v>5</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>16</v>
+      </c>
+      <c r="AZ108">
+        <v>2</v>
+      </c>
+      <c r="BA108">
+        <v>8</v>
+      </c>
+      <c r="BB108">
+        <v>0</v>
+      </c>
+      <c r="BC108">
+        <v>8</v>
+      </c>
+      <c r="BD108">
+        <v>1.36</v>
+      </c>
+      <c r="BE108">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF108">
+        <v>3.72</v>
+      </c>
+      <c r="BG108">
+        <v>1.14</v>
+      </c>
+      <c r="BH108">
+        <v>4.7</v>
+      </c>
+      <c r="BI108">
+        <v>1.23</v>
+      </c>
+      <c r="BJ108">
+        <v>3.28</v>
+      </c>
+      <c r="BK108">
+        <v>1.44</v>
+      </c>
+      <c r="BL108">
+        <v>2.43</v>
+      </c>
+      <c r="BM108">
+        <v>1.79</v>
+      </c>
+      <c r="BN108">
+        <v>1.92</v>
+      </c>
+      <c r="BO108">
+        <v>2.21</v>
+      </c>
+      <c r="BP108">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7465506</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45587.625</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>84</v>
+      </c>
+      <c r="H109" t="s">
+        <v>78</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>93</v>
+      </c>
+      <c r="P109" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q109">
+        <v>3.1</v>
+      </c>
+      <c r="R109">
+        <v>2.38</v>
+      </c>
+      <c r="S109">
+        <v>3</v>
+      </c>
+      <c r="T109">
+        <v>1.29</v>
+      </c>
+      <c r="U109">
+        <v>3.5</v>
+      </c>
+      <c r="V109">
+        <v>2.25</v>
+      </c>
+      <c r="W109">
+        <v>1.57</v>
+      </c>
+      <c r="X109">
+        <v>5.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.14</v>
+      </c>
+      <c r="Z109">
+        <v>2.6</v>
+      </c>
+      <c r="AA109">
+        <v>3.5</v>
+      </c>
+      <c r="AB109">
+        <v>2.45</v>
+      </c>
+      <c r="AC109">
+        <v>1.04</v>
+      </c>
+      <c r="AD109">
+        <v>10</v>
+      </c>
+      <c r="AE109">
+        <v>1.18</v>
+      </c>
+      <c r="AF109">
+        <v>5</v>
+      </c>
+      <c r="AG109">
+        <v>1.57</v>
+      </c>
+      <c r="AH109">
+        <v>2.35</v>
+      </c>
+      <c r="AI109">
+        <v>1.5</v>
+      </c>
+      <c r="AJ109">
+        <v>2.5</v>
+      </c>
+      <c r="AK109">
+        <v>1.53</v>
+      </c>
+      <c r="AL109">
+        <v>1.22</v>
+      </c>
+      <c r="AM109">
+        <v>1.5</v>
+      </c>
+      <c r="AN109">
+        <v>0.2</v>
+      </c>
+      <c r="AO109">
+        <v>1</v>
+      </c>
+      <c r="AP109">
+        <v>0.17</v>
+      </c>
+      <c r="AQ109">
+        <v>1.4</v>
+      </c>
+      <c r="AR109">
+        <v>1.34</v>
+      </c>
+      <c r="AS109">
+        <v>1.4</v>
+      </c>
+      <c r="AT109">
+        <v>2.74</v>
+      </c>
+      <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>3</v>
+      </c>
+      <c r="AW109">
+        <v>4</v>
+      </c>
+      <c r="AX109">
+        <v>6</v>
+      </c>
+      <c r="AY109">
+        <v>12</v>
+      </c>
+      <c r="AZ109">
+        <v>11</v>
+      </c>
+      <c r="BA109">
+        <v>4</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>7</v>
+      </c>
+      <c r="BD109">
+        <v>2.18</v>
+      </c>
+      <c r="BE109">
+        <v>6.4</v>
+      </c>
+      <c r="BF109">
+        <v>2.04</v>
+      </c>
+      <c r="BG109">
+        <v>1.18</v>
+      </c>
+      <c r="BH109">
+        <v>3.74</v>
+      </c>
+      <c r="BI109">
+        <v>1.38</v>
+      </c>
+      <c r="BJ109">
+        <v>2.62</v>
+      </c>
+      <c r="BK109">
+        <v>1.7</v>
+      </c>
+      <c r="BL109">
+        <v>2.03</v>
+      </c>
+      <c r="BM109">
+        <v>2.1</v>
+      </c>
+      <c r="BN109">
+        <v>1.59</v>
+      </c>
+      <c r="BO109">
+        <v>2.73</v>
+      </c>
+      <c r="BP109">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7465500</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45587.625</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>86</v>
+      </c>
+      <c r="H110" t="s">
+        <v>75</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110" t="s">
+        <v>166</v>
+      </c>
+      <c r="P110" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q110">
+        <v>2.63</v>
+      </c>
+      <c r="R110">
+        <v>2.5</v>
+      </c>
+      <c r="S110">
+        <v>3.25</v>
+      </c>
+      <c r="T110">
+        <v>1.25</v>
+      </c>
+      <c r="U110">
+        <v>3.75</v>
+      </c>
+      <c r="V110">
+        <v>2.2</v>
+      </c>
+      <c r="W110">
+        <v>1.62</v>
+      </c>
+      <c r="X110">
+        <v>5</v>
+      </c>
+      <c r="Y110">
+        <v>1.17</v>
+      </c>
+      <c r="Z110">
+        <v>2.15</v>
+      </c>
+      <c r="AA110">
+        <v>3.6</v>
+      </c>
+      <c r="AB110">
+        <v>3</v>
+      </c>
+      <c r="AC110">
+        <v>1.01</v>
+      </c>
+      <c r="AD110">
+        <v>17</v>
+      </c>
+      <c r="AE110">
+        <v>1.15</v>
+      </c>
+      <c r="AF110">
+        <v>5.5</v>
+      </c>
+      <c r="AG110">
+        <v>1.48</v>
+      </c>
+      <c r="AH110">
+        <v>2.6</v>
+      </c>
+      <c r="AI110">
+        <v>1.44</v>
+      </c>
+      <c r="AJ110">
+        <v>2.63</v>
+      </c>
+      <c r="AK110">
+        <v>1.38</v>
+      </c>
+      <c r="AL110">
+        <v>1.22</v>
+      </c>
+      <c r="AM110">
+        <v>1.72</v>
+      </c>
+      <c r="AN110">
+        <v>2</v>
+      </c>
+      <c r="AO110">
+        <v>1.4</v>
+      </c>
+      <c r="AP110">
+        <v>1.8</v>
+      </c>
+      <c r="AQ110">
+        <v>1.33</v>
+      </c>
+      <c r="AR110">
+        <v>2.02</v>
+      </c>
+      <c r="AS110">
+        <v>1.38</v>
+      </c>
+      <c r="AT110">
+        <v>3.4</v>
+      </c>
+      <c r="AU110">
+        <v>9</v>
+      </c>
+      <c r="AV110">
+        <v>7</v>
+      </c>
+      <c r="AW110">
+        <v>9</v>
+      </c>
+      <c r="AX110">
+        <v>7</v>
+      </c>
+      <c r="AY110">
+        <v>23</v>
+      </c>
+      <c r="AZ110">
+        <v>18</v>
+      </c>
+      <c r="BA110">
+        <v>6</v>
+      </c>
+      <c r="BB110">
+        <v>5</v>
+      </c>
+      <c r="BC110">
+        <v>11</v>
+      </c>
+      <c r="BD110">
+        <v>1.55</v>
+      </c>
+      <c r="BE110">
+        <v>6.4</v>
+      </c>
+      <c r="BF110">
+        <v>3.05</v>
+      </c>
+      <c r="BG110">
+        <v>0</v>
+      </c>
+      <c r="BH110">
+        <v>0</v>
+      </c>
+      <c r="BI110">
+        <v>1.23</v>
+      </c>
+      <c r="BJ110">
+        <v>3.6</v>
+      </c>
+      <c r="BK110">
+        <v>1.44</v>
+      </c>
+      <c r="BL110">
+        <v>2.55</v>
+      </c>
+      <c r="BM110">
+        <v>1.75</v>
+      </c>
+      <c r="BN110">
+        <v>1.92</v>
+      </c>
+      <c r="BO110">
+        <v>2.25</v>
+      </c>
+      <c r="BP110">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7465502</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45587.625</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>88</v>
+      </c>
+      <c r="H111" t="s">
+        <v>85</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
+      </c>
+      <c r="K111">
+        <v>3</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111" t="s">
+        <v>167</v>
+      </c>
+      <c r="P111" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q111">
+        <v>2.4</v>
+      </c>
+      <c r="R111">
+        <v>2.5</v>
+      </c>
+      <c r="S111">
+        <v>4</v>
+      </c>
+      <c r="T111">
+        <v>1.29</v>
+      </c>
+      <c r="U111">
+        <v>3.5</v>
+      </c>
+      <c r="V111">
+        <v>2.25</v>
+      </c>
+      <c r="W111">
+        <v>1.57</v>
+      </c>
+      <c r="X111">
+        <v>5.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.14</v>
+      </c>
+      <c r="Z111">
+        <v>1.85</v>
+      </c>
+      <c r="AA111">
+        <v>3.9</v>
+      </c>
+      <c r="AB111">
+        <v>3.6</v>
+      </c>
+      <c r="AC111">
+        <v>1.01</v>
+      </c>
+      <c r="AD111">
+        <v>13</v>
+      </c>
+      <c r="AE111">
+        <v>1.16</v>
+      </c>
+      <c r="AF111">
+        <v>5</v>
+      </c>
+      <c r="AG111">
+        <v>1.53</v>
+      </c>
+      <c r="AH111">
+        <v>2.4</v>
+      </c>
+      <c r="AI111">
+        <v>1.5</v>
+      </c>
+      <c r="AJ111">
+        <v>2.5</v>
+      </c>
+      <c r="AK111">
+        <v>1.28</v>
+      </c>
+      <c r="AL111">
+        <v>1.2</v>
+      </c>
+      <c r="AM111">
+        <v>1.95</v>
+      </c>
+      <c r="AN111">
+        <v>1.5</v>
+      </c>
+      <c r="AO111">
+        <v>1.75</v>
+      </c>
+      <c r="AP111">
+        <v>1.8</v>
+      </c>
+      <c r="AQ111">
+        <v>1.4</v>
+      </c>
+      <c r="AR111">
+        <v>1.8</v>
+      </c>
+      <c r="AS111">
+        <v>1.39</v>
+      </c>
+      <c r="AT111">
+        <v>3.19</v>
+      </c>
+      <c r="AU111">
+        <v>7</v>
+      </c>
+      <c r="AV111">
+        <v>4</v>
+      </c>
+      <c r="AW111">
+        <v>9</v>
+      </c>
+      <c r="AX111">
+        <v>2</v>
+      </c>
+      <c r="AY111">
+        <v>17</v>
+      </c>
+      <c r="AZ111">
+        <v>11</v>
+      </c>
+      <c r="BA111">
+        <v>5</v>
+      </c>
+      <c r="BB111">
+        <v>3</v>
+      </c>
+      <c r="BC111">
+        <v>8</v>
+      </c>
+      <c r="BD111">
+        <v>1.45</v>
+      </c>
+      <c r="BE111">
+        <v>7.9</v>
+      </c>
+      <c r="BF111">
+        <v>3.2</v>
+      </c>
+      <c r="BG111">
+        <v>1.17</v>
+      </c>
+      <c r="BH111">
+        <v>4.2</v>
+      </c>
+      <c r="BI111">
+        <v>1.22</v>
+      </c>
+      <c r="BJ111">
+        <v>3.75</v>
+      </c>
+      <c r="BK111">
+        <v>1.42</v>
+      </c>
+      <c r="BL111">
+        <v>2.62</v>
+      </c>
+      <c r="BM111">
+        <v>1.72</v>
+      </c>
+      <c r="BN111">
+        <v>1.98</v>
+      </c>
+      <c r="BO111">
+        <v>2.2</v>
+      </c>
+      <c r="BP111">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -22315,10 +22315,10 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45585.875</v>
+        <v>45586.625</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G104" t="s">
         <v>79</v>
@@ -22521,7 +22521,7 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45585.875</v>
+        <v>45586.625</v>
       </c>
       <c r="F105">
         <v>10</v>
@@ -22727,7 +22727,7 @@
         <v>69</v>
       </c>
       <c r="E106" s="2">
-        <v>45585.875</v>
+        <v>45586.625</v>
       </c>
       <c r="F106">
         <v>10</v>
@@ -22933,7 +22933,7 @@
         <v>69</v>
       </c>
       <c r="E107" s="2">
-        <v>45585.875</v>
+        <v>45586.625</v>
       </c>
       <c r="F107">
         <v>10</v>
@@ -23139,7 +23139,7 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45587.625</v>
+        <v>45586.875</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -23345,7 +23345,7 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45587.625</v>
+        <v>45586.875</v>
       </c>
       <c r="F109">
         <v>10</v>
@@ -23551,7 +23551,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45587.625</v>
+        <v>45586.875</v>
       </c>
       <c r="F110">
         <v>10</v>
@@ -23757,7 +23757,7 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45587.625</v>
+        <v>45586.875</v>
       </c>
       <c r="F111">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -23139,10 +23139,10 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45586.875</v>
+        <v>45587.625</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G108" t="s">
         <v>71</v>
@@ -23345,7 +23345,7 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45586.875</v>
+        <v>45587.625</v>
       </c>
       <c r="F109">
         <v>10</v>
@@ -23551,7 +23551,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45586.875</v>
+        <v>45587.625</v>
       </c>
       <c r="F110">
         <v>10</v>
@@ -23757,7 +23757,7 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45586.875</v>
+        <v>45587.625</v>
       </c>
       <c r="F111">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,24 @@
     <t>['7', '59', '84']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['37', '46', '58']</t>
+  </si>
+  <si>
+    <t>['3', '12', '26', '53']</t>
+  </si>
+  <si>
+    <t>['14', '49']</t>
+  </si>
+  <si>
+    <t>['61', '83']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -716,6 +734,21 @@
   </si>
   <si>
     <t>['5', '35']</t>
+  </si>
+  <si>
+    <t>['12', '73']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['7', '43', '76']</t>
+  </si>
+  <si>
+    <t>['41', '63']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1542,7 +1575,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1748,7 +1781,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1829,7 +1862,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ4">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1954,7 +1987,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2160,7 +2193,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2238,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2366,7 +2399,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2444,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2572,7 +2605,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2650,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ8">
         <v>0.8</v>
@@ -2778,7 +2811,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2984,7 +3017,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3190,7 +3223,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3271,7 +3304,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3474,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3602,7 +3635,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3683,7 +3716,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3886,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.4</v>
@@ -4095,7 +4128,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4220,7 +4253,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4301,7 +4334,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4507,7 +4540,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4710,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1.2</v>
@@ -5044,7 +5077,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5122,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>2.4</v>
@@ -5534,7 +5567,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ22">
         <v>1.8</v>
@@ -6074,7 +6107,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6155,7 +6188,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ25">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
         <v>1.58</v>
@@ -6280,7 +6313,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6358,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26">
         <v>1.67</v>
@@ -6486,7 +6519,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6567,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -6770,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ28">
         <v>1.33</v>
@@ -6898,7 +6931,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6976,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ29">
         <v>0.86</v>
@@ -7310,7 +7343,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7594,10 +7627,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -7803,7 +7836,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ33">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR33">
         <v>1.26</v>
@@ -7928,7 +7961,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8009,7 +8042,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR34">
         <v>1.12</v>
@@ -8134,7 +8167,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8624,7 +8657,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>1.8</v>
@@ -8752,7 +8785,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8830,7 +8863,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38">
         <v>1.33</v>
@@ -8958,7 +8991,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9039,7 +9072,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
         <v>2.22</v>
@@ -9242,7 +9275,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>0.4</v>
@@ -9370,7 +9403,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9448,10 +9481,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9657,7 +9690,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ42">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -9988,7 +10021,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10069,7 +10102,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ44">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>2.05</v>
@@ -10194,7 +10227,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10272,10 +10305,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
+        <v>0.57</v>
+      </c>
+      <c r="AQ45">
         <v>0.67</v>
-      </c>
-      <c r="AQ45">
-        <v>0.8</v>
       </c>
       <c r="AR45">
         <v>1.68</v>
@@ -10400,7 +10433,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10478,10 +10511,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR46">
         <v>1.3</v>
@@ -10606,7 +10639,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10812,7 +10845,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11224,7 +11257,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11430,7 +11463,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11636,7 +11669,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12460,7 +12493,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12872,7 +12905,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12953,7 +12986,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR58">
         <v>1.06</v>
@@ -13078,7 +13111,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13362,7 +13395,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
@@ -13490,7 +13523,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13571,7 +13604,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ61">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR61">
         <v>1.96</v>
@@ -13696,7 +13729,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13774,10 +13807,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR62">
         <v>1.68</v>
@@ -13902,7 +13935,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14392,7 +14425,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65">
         <v>1.5</v>
@@ -14520,7 +14553,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14598,7 +14631,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1.33</v>
@@ -14804,7 +14837,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>0.5</v>
@@ -14932,7 +14965,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15010,10 +15043,10 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ68">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15138,7 +15171,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15216,10 +15249,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ69">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15344,7 +15377,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15425,7 +15458,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ70">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.9</v>
@@ -15550,7 +15583,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15756,7 +15789,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15834,7 +15867,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>0.8</v>
@@ -15962,7 +15995,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16168,7 +16201,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16249,7 +16282,7 @@
         <v>3</v>
       </c>
       <c r="AQ74">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR74">
         <v>1.75</v>
@@ -16374,7 +16407,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16452,10 +16485,10 @@
         <v>0.67</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR75">
         <v>1.48</v>
@@ -16867,7 +16900,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ77">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR77">
         <v>1.86</v>
@@ -16992,7 +17025,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17198,7 +17231,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17610,7 +17643,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17894,7 +17927,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ82">
         <v>1.8</v>
@@ -18022,7 +18055,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18100,7 +18133,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ83">
         <v>1.67</v>
@@ -18228,7 +18261,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18306,7 +18339,7 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ84">
         <v>1.2</v>
@@ -18512,7 +18545,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>1.33</v>
@@ -18846,7 +18879,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -18927,7 +18960,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ87">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR87">
         <v>1.95</v>
@@ -19052,7 +19085,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19336,10 +19369,10 @@
         <v>2.25</v>
       </c>
       <c r="AP89">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR89">
         <v>1.66</v>
@@ -19464,7 +19497,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19545,7 +19578,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ90">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR90">
         <v>1.95</v>
@@ -19751,7 +19784,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ91">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.69</v>
@@ -19876,7 +19909,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -19957,7 +19990,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ92">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
         <v>1.75</v>
@@ -20288,7 +20321,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20494,7 +20527,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20572,7 +20605,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20700,7 +20733,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20778,7 +20811,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ96">
         <v>1.5</v>
@@ -20906,7 +20939,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21193,7 +21226,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ98">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR98">
         <v>1.49</v>
@@ -21318,7 +21351,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21730,7 +21763,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21936,7 +21969,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22017,7 +22050,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR102">
         <v>1.75</v>
@@ -22220,7 +22253,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ103">
         <v>0.86</v>
@@ -22348,7 +22381,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22760,7 +22793,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23047,7 +23080,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ107">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR107">
         <v>1.77</v>
@@ -23378,7 +23411,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23459,7 +23492,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ109">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR109">
         <v>1.34</v>
@@ -23584,7 +23617,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23662,7 +23695,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
         <v>1.33</v>
@@ -23790,7 +23823,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -23868,10 +23901,10 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR111">
         <v>1.8</v>
@@ -23947,6 +23980,1448 @@
       </c>
       <c r="BP111">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7465509</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s">
+        <v>77</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>168</v>
+      </c>
+      <c r="P112" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q112">
+        <v>2.5</v>
+      </c>
+      <c r="R112">
+        <v>2.5</v>
+      </c>
+      <c r="S112">
+        <v>3.6</v>
+      </c>
+      <c r="T112">
+        <v>1.25</v>
+      </c>
+      <c r="U112">
+        <v>3.75</v>
+      </c>
+      <c r="V112">
+        <v>2.1</v>
+      </c>
+      <c r="W112">
+        <v>1.67</v>
+      </c>
+      <c r="X112">
+        <v>4.5</v>
+      </c>
+      <c r="Y112">
+        <v>1.18</v>
+      </c>
+      <c r="Z112">
+        <v>1.83</v>
+      </c>
+      <c r="AA112">
+        <v>4.09</v>
+      </c>
+      <c r="AB112">
+        <v>3.72</v>
+      </c>
+      <c r="AC112">
+        <v>1.01</v>
+      </c>
+      <c r="AD112">
+        <v>17</v>
+      </c>
+      <c r="AE112">
+        <v>1.14</v>
+      </c>
+      <c r="AF112">
+        <v>5.5</v>
+      </c>
+      <c r="AG112">
+        <v>1.44</v>
+      </c>
+      <c r="AH112">
+        <v>2.7</v>
+      </c>
+      <c r="AI112">
+        <v>1.4</v>
+      </c>
+      <c r="AJ112">
+        <v>2.75</v>
+      </c>
+      <c r="AK112">
+        <v>1.28</v>
+      </c>
+      <c r="AL112">
+        <v>1.2</v>
+      </c>
+      <c r="AM112">
+        <v>1.95</v>
+      </c>
+      <c r="AN112">
+        <v>1.5</v>
+      </c>
+      <c r="AO112">
+        <v>1.2</v>
+      </c>
+      <c r="AP112">
+        <v>1.29</v>
+      </c>
+      <c r="AQ112">
+        <v>1.5</v>
+      </c>
+      <c r="AR112">
+        <v>1.74</v>
+      </c>
+      <c r="AS112">
+        <v>1.9</v>
+      </c>
+      <c r="AT112">
+        <v>3.64</v>
+      </c>
+      <c r="AU112">
+        <v>7</v>
+      </c>
+      <c r="AV112">
+        <v>5</v>
+      </c>
+      <c r="AW112">
+        <v>6</v>
+      </c>
+      <c r="AX112">
+        <v>7</v>
+      </c>
+      <c r="AY112">
+        <v>20</v>
+      </c>
+      <c r="AZ112">
+        <v>16</v>
+      </c>
+      <c r="BA112">
+        <v>5</v>
+      </c>
+      <c r="BB112">
+        <v>10</v>
+      </c>
+      <c r="BC112">
+        <v>15</v>
+      </c>
+      <c r="BD112">
+        <v>1.5</v>
+      </c>
+      <c r="BE112">
+        <v>6.4</v>
+      </c>
+      <c r="BF112">
+        <v>3.2</v>
+      </c>
+      <c r="BG112">
+        <v>0</v>
+      </c>
+      <c r="BH112">
+        <v>0</v>
+      </c>
+      <c r="BI112">
+        <v>1.33</v>
+      </c>
+      <c r="BJ112">
+        <v>3</v>
+      </c>
+      <c r="BK112">
+        <v>1.6</v>
+      </c>
+      <c r="BL112">
+        <v>2.15</v>
+      </c>
+      <c r="BM112">
+        <v>2.05</v>
+      </c>
+      <c r="BN112">
+        <v>1.65</v>
+      </c>
+      <c r="BO112">
+        <v>2.75</v>
+      </c>
+      <c r="BP112">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7465510</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>86</v>
+      </c>
+      <c r="H113" t="s">
+        <v>84</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>169</v>
+      </c>
+      <c r="P113" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q113">
+        <v>2.1</v>
+      </c>
+      <c r="R113">
+        <v>2.6</v>
+      </c>
+      <c r="S113">
+        <v>4.5</v>
+      </c>
+      <c r="T113">
+        <v>1.22</v>
+      </c>
+      <c r="U113">
+        <v>4</v>
+      </c>
+      <c r="V113">
+        <v>2.1</v>
+      </c>
+      <c r="W113">
+        <v>1.67</v>
+      </c>
+      <c r="X113">
+        <v>4.5</v>
+      </c>
+      <c r="Y113">
+        <v>1.18</v>
+      </c>
+      <c r="Z113">
+        <v>1.65</v>
+      </c>
+      <c r="AA113">
+        <v>4.27</v>
+      </c>
+      <c r="AB113">
+        <v>4.38</v>
+      </c>
+      <c r="AC113">
+        <v>1.01</v>
+      </c>
+      <c r="AD113">
+        <v>17</v>
+      </c>
+      <c r="AE113">
+        <v>1.12</v>
+      </c>
+      <c r="AF113">
+        <v>6</v>
+      </c>
+      <c r="AG113">
+        <v>1.44</v>
+      </c>
+      <c r="AH113">
+        <v>2.7</v>
+      </c>
+      <c r="AI113">
+        <v>1.5</v>
+      </c>
+      <c r="AJ113">
+        <v>2.5</v>
+      </c>
+      <c r="AK113">
+        <v>1.18</v>
+      </c>
+      <c r="AL113">
+        <v>1.17</v>
+      </c>
+      <c r="AM113">
+        <v>2.3</v>
+      </c>
+      <c r="AN113">
+        <v>1.8</v>
+      </c>
+      <c r="AO113">
+        <v>0.8</v>
+      </c>
+      <c r="AP113">
+        <v>2</v>
+      </c>
+      <c r="AQ113">
+        <v>0.67</v>
+      </c>
+      <c r="AR113">
+        <v>2.08</v>
+      </c>
+      <c r="AS113">
+        <v>1.28</v>
+      </c>
+      <c r="AT113">
+        <v>3.36</v>
+      </c>
+      <c r="AU113">
+        <v>7</v>
+      </c>
+      <c r="AV113">
+        <v>8</v>
+      </c>
+      <c r="AW113">
+        <v>6</v>
+      </c>
+      <c r="AX113">
+        <v>1</v>
+      </c>
+      <c r="AY113">
+        <v>20</v>
+      </c>
+      <c r="AZ113">
+        <v>13</v>
+      </c>
+      <c r="BA113">
+        <v>6</v>
+      </c>
+      <c r="BB113">
+        <v>7</v>
+      </c>
+      <c r="BC113">
+        <v>13</v>
+      </c>
+      <c r="BD113">
+        <v>1.23</v>
+      </c>
+      <c r="BE113">
+        <v>7.9</v>
+      </c>
+      <c r="BF113">
+        <v>5.3</v>
+      </c>
+      <c r="BG113">
+        <v>0</v>
+      </c>
+      <c r="BH113">
+        <v>0</v>
+      </c>
+      <c r="BI113">
+        <v>1.26</v>
+      </c>
+      <c r="BJ113">
+        <v>3.45</v>
+      </c>
+      <c r="BK113">
+        <v>1.49</v>
+      </c>
+      <c r="BL113">
+        <v>2.42</v>
+      </c>
+      <c r="BM113">
+        <v>1.85</v>
+      </c>
+      <c r="BN113">
+        <v>1.82</v>
+      </c>
+      <c r="BO113">
+        <v>2.45</v>
+      </c>
+      <c r="BP113">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7465513</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>88</v>
+      </c>
+      <c r="H114" t="s">
+        <v>70</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>4</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>5</v>
+      </c>
+      <c r="O114" t="s">
+        <v>170</v>
+      </c>
+      <c r="P114" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q114">
+        <v>2.25</v>
+      </c>
+      <c r="R114">
+        <v>2.5</v>
+      </c>
+      <c r="S114">
+        <v>4.33</v>
+      </c>
+      <c r="T114">
+        <v>1.25</v>
+      </c>
+      <c r="U114">
+        <v>3.75</v>
+      </c>
+      <c r="V114">
+        <v>2.2</v>
+      </c>
+      <c r="W114">
+        <v>1.62</v>
+      </c>
+      <c r="X114">
+        <v>5</v>
+      </c>
+      <c r="Y114">
+        <v>1.17</v>
+      </c>
+      <c r="Z114">
+        <v>1.71</v>
+      </c>
+      <c r="AA114">
+        <v>4.1</v>
+      </c>
+      <c r="AB114">
+        <v>4.19</v>
+      </c>
+      <c r="AC114">
+        <v>1.01</v>
+      </c>
+      <c r="AD114">
+        <v>15</v>
+      </c>
+      <c r="AE114">
+        <v>1.16</v>
+      </c>
+      <c r="AF114">
+        <v>5</v>
+      </c>
+      <c r="AG114">
+        <v>1.53</v>
+      </c>
+      <c r="AH114">
+        <v>2.4</v>
+      </c>
+      <c r="AI114">
+        <v>1.53</v>
+      </c>
+      <c r="AJ114">
+        <v>2.38</v>
+      </c>
+      <c r="AK114">
+        <v>1.22</v>
+      </c>
+      <c r="AL114">
+        <v>1.18</v>
+      </c>
+      <c r="AM114">
+        <v>2.1</v>
+      </c>
+      <c r="AN114">
+        <v>1.8</v>
+      </c>
+      <c r="AO114">
+        <v>1.67</v>
+      </c>
+      <c r="AP114">
+        <v>2</v>
+      </c>
+      <c r="AQ114">
+        <v>1.43</v>
+      </c>
+      <c r="AR114">
+        <v>1.84</v>
+      </c>
+      <c r="AS114">
+        <v>1.21</v>
+      </c>
+      <c r="AT114">
+        <v>3.05</v>
+      </c>
+      <c r="AU114">
+        <v>9</v>
+      </c>
+      <c r="AV114">
+        <v>3</v>
+      </c>
+      <c r="AW114">
+        <v>4</v>
+      </c>
+      <c r="AX114">
+        <v>1</v>
+      </c>
+      <c r="AY114">
+        <v>15</v>
+      </c>
+      <c r="AZ114">
+        <v>7</v>
+      </c>
+      <c r="BA114">
+        <v>7</v>
+      </c>
+      <c r="BB114">
+        <v>2</v>
+      </c>
+      <c r="BC114">
+        <v>9</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>0</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>0</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BL114">
+        <v>0</v>
+      </c>
+      <c r="BM114">
+        <v>0</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7465514</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>82</v>
+      </c>
+      <c r="H115" t="s">
+        <v>89</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>171</v>
+      </c>
+      <c r="P115" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q115">
+        <v>1.95</v>
+      </c>
+      <c r="R115">
+        <v>2.63</v>
+      </c>
+      <c r="S115">
+        <v>5</v>
+      </c>
+      <c r="T115">
+        <v>1.22</v>
+      </c>
+      <c r="U115">
+        <v>4</v>
+      </c>
+      <c r="V115">
+        <v>2</v>
+      </c>
+      <c r="W115">
+        <v>1.73</v>
+      </c>
+      <c r="X115">
+        <v>4.33</v>
+      </c>
+      <c r="Y115">
+        <v>1.2</v>
+      </c>
+      <c r="Z115">
+        <v>1.52</v>
+      </c>
+      <c r="AA115">
+        <v>4.8</v>
+      </c>
+      <c r="AB115">
+        <v>5.1</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>1.12</v>
+      </c>
+      <c r="AF115">
+        <v>6</v>
+      </c>
+      <c r="AG115">
+        <v>1.4</v>
+      </c>
+      <c r="AH115">
+        <v>2.88</v>
+      </c>
+      <c r="AI115">
+        <v>1.53</v>
+      </c>
+      <c r="AJ115">
+        <v>2.38</v>
+      </c>
+      <c r="AK115">
+        <v>1.12</v>
+      </c>
+      <c r="AL115">
+        <v>1.14</v>
+      </c>
+      <c r="AM115">
+        <v>2.7</v>
+      </c>
+      <c r="AN115">
+        <v>1.75</v>
+      </c>
+      <c r="AO115">
+        <v>1.8</v>
+      </c>
+      <c r="AP115">
+        <v>2</v>
+      </c>
+      <c r="AQ115">
+        <v>1.5</v>
+      </c>
+      <c r="AR115">
+        <v>1.76</v>
+      </c>
+      <c r="AS115">
+        <v>1.49</v>
+      </c>
+      <c r="AT115">
+        <v>3.25</v>
+      </c>
+      <c r="AU115">
+        <v>7</v>
+      </c>
+      <c r="AV115">
+        <v>5</v>
+      </c>
+      <c r="AW115">
+        <v>5</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>16</v>
+      </c>
+      <c r="AZ115">
+        <v>6</v>
+      </c>
+      <c r="BA115">
+        <v>8</v>
+      </c>
+      <c r="BB115">
+        <v>3</v>
+      </c>
+      <c r="BC115">
+        <v>11</v>
+      </c>
+      <c r="BD115">
+        <v>1.29</v>
+      </c>
+      <c r="BE115">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF115">
+        <v>4.8</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>0</v>
+      </c>
+      <c r="BI115">
+        <v>1.26</v>
+      </c>
+      <c r="BJ115">
+        <v>3.08</v>
+      </c>
+      <c r="BK115">
+        <v>1.5</v>
+      </c>
+      <c r="BL115">
+        <v>2.28</v>
+      </c>
+      <c r="BM115">
+        <v>1.88</v>
+      </c>
+      <c r="BN115">
+        <v>1.82</v>
+      </c>
+      <c r="BO115">
+        <v>2.35</v>
+      </c>
+      <c r="BP115">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7465515</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>74</v>
+      </c>
+      <c r="H116" t="s">
+        <v>78</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>172</v>
+      </c>
+      <c r="P116" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q116">
+        <v>3.2</v>
+      </c>
+      <c r="R116">
+        <v>2.4</v>
+      </c>
+      <c r="S116">
+        <v>2.88</v>
+      </c>
+      <c r="T116">
+        <v>1.25</v>
+      </c>
+      <c r="U116">
+        <v>3.75</v>
+      </c>
+      <c r="V116">
+        <v>2.25</v>
+      </c>
+      <c r="W116">
+        <v>1.57</v>
+      </c>
+      <c r="X116">
+        <v>5.5</v>
+      </c>
+      <c r="Y116">
+        <v>1.14</v>
+      </c>
+      <c r="Z116">
+        <v>2.62</v>
+      </c>
+      <c r="AA116">
+        <v>3.68</v>
+      </c>
+      <c r="AB116">
+        <v>2.43</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>15</v>
+      </c>
+      <c r="AE116">
+        <v>1.16</v>
+      </c>
+      <c r="AF116">
+        <v>5</v>
+      </c>
+      <c r="AG116">
+        <v>1.53</v>
+      </c>
+      <c r="AH116">
+        <v>2.4</v>
+      </c>
+      <c r="AI116">
+        <v>1.44</v>
+      </c>
+      <c r="AJ116">
+        <v>2.63</v>
+      </c>
+      <c r="AK116">
+        <v>1.6</v>
+      </c>
+      <c r="AL116">
+        <v>1.22</v>
+      </c>
+      <c r="AM116">
+        <v>1.47</v>
+      </c>
+      <c r="AN116">
+        <v>1.17</v>
+      </c>
+      <c r="AO116">
+        <v>1.4</v>
+      </c>
+      <c r="AP116">
+        <v>1.43</v>
+      </c>
+      <c r="AQ116">
+        <v>1.17</v>
+      </c>
+      <c r="AR116">
+        <v>1.22</v>
+      </c>
+      <c r="AS116">
+        <v>1.37</v>
+      </c>
+      <c r="AT116">
+        <v>2.59</v>
+      </c>
+      <c r="AU116">
+        <v>4</v>
+      </c>
+      <c r="AV116">
+        <v>3</v>
+      </c>
+      <c r="AW116">
+        <v>5</v>
+      </c>
+      <c r="AX116">
+        <v>5</v>
+      </c>
+      <c r="AY116">
+        <v>10</v>
+      </c>
+      <c r="AZ116">
+        <v>9</v>
+      </c>
+      <c r="BA116">
+        <v>8</v>
+      </c>
+      <c r="BB116">
+        <v>4</v>
+      </c>
+      <c r="BC116">
+        <v>12</v>
+      </c>
+      <c r="BD116">
+        <v>2.38</v>
+      </c>
+      <c r="BE116">
+        <v>6</v>
+      </c>
+      <c r="BF116">
+        <v>1.85</v>
+      </c>
+      <c r="BG116">
+        <v>0</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>1.29</v>
+      </c>
+      <c r="BJ116">
+        <v>3.25</v>
+      </c>
+      <c r="BK116">
+        <v>1.52</v>
+      </c>
+      <c r="BL116">
+        <v>2.3</v>
+      </c>
+      <c r="BM116">
+        <v>1.95</v>
+      </c>
+      <c r="BN116">
+        <v>1.75</v>
+      </c>
+      <c r="BO116">
+        <v>2.58</v>
+      </c>
+      <c r="BP116">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7465516</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>75</v>
+      </c>
+      <c r="H117" t="s">
+        <v>79</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>130</v>
+      </c>
+      <c r="P117" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q117">
+        <v>2.3</v>
+      </c>
+      <c r="R117">
+        <v>2.6</v>
+      </c>
+      <c r="S117">
+        <v>4</v>
+      </c>
+      <c r="T117">
+        <v>1.22</v>
+      </c>
+      <c r="U117">
+        <v>4</v>
+      </c>
+      <c r="V117">
+        <v>2</v>
+      </c>
+      <c r="W117">
+        <v>1.73</v>
+      </c>
+      <c r="X117">
+        <v>4.33</v>
+      </c>
+      <c r="Y117">
+        <v>1.2</v>
+      </c>
+      <c r="Z117">
+        <v>1.75</v>
+      </c>
+      <c r="AA117">
+        <v>3.9</v>
+      </c>
+      <c r="AB117">
+        <v>3.75</v>
+      </c>
+      <c r="AC117">
+        <v>1.01</v>
+      </c>
+      <c r="AD117">
+        <v>17</v>
+      </c>
+      <c r="AE117">
+        <v>1.12</v>
+      </c>
+      <c r="AF117">
+        <v>6</v>
+      </c>
+      <c r="AG117">
+        <v>1.4</v>
+      </c>
+      <c r="AH117">
+        <v>2.88</v>
+      </c>
+      <c r="AI117">
+        <v>1.4</v>
+      </c>
+      <c r="AJ117">
+        <v>2.75</v>
+      </c>
+      <c r="AK117">
+        <v>1.25</v>
+      </c>
+      <c r="AL117">
+        <v>1.18</v>
+      </c>
+      <c r="AM117">
+        <v>2.05</v>
+      </c>
+      <c r="AN117">
+        <v>0.6</v>
+      </c>
+      <c r="AO117">
+        <v>1.5</v>
+      </c>
+      <c r="AP117">
+        <v>0.5</v>
+      </c>
+      <c r="AQ117">
+        <v>1.71</v>
+      </c>
+      <c r="AR117">
+        <v>1.62</v>
+      </c>
+      <c r="AS117">
+        <v>1.59</v>
+      </c>
+      <c r="AT117">
+        <v>3.21</v>
+      </c>
+      <c r="AU117">
+        <v>6</v>
+      </c>
+      <c r="AV117">
+        <v>4</v>
+      </c>
+      <c r="AW117">
+        <v>3</v>
+      </c>
+      <c r="AX117">
+        <v>3</v>
+      </c>
+      <c r="AY117">
+        <v>17</v>
+      </c>
+      <c r="AZ117">
+        <v>8</v>
+      </c>
+      <c r="BA117">
+        <v>10</v>
+      </c>
+      <c r="BB117">
+        <v>2</v>
+      </c>
+      <c r="BC117">
+        <v>12</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>0</v>
+      </c>
+      <c r="BH117">
+        <v>0</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>0</v>
+      </c>
+      <c r="BK117">
+        <v>0</v>
+      </c>
+      <c r="BL117">
+        <v>0</v>
+      </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>0</v>
+      </c>
+      <c r="BP117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7465518</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>80</v>
+      </c>
+      <c r="H118" t="s">
+        <v>85</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>173</v>
+      </c>
+      <c r="P118" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q118">
+        <v>3.2</v>
+      </c>
+      <c r="R118">
+        <v>2.25</v>
+      </c>
+      <c r="S118">
+        <v>3.1</v>
+      </c>
+      <c r="T118">
+        <v>1.33</v>
+      </c>
+      <c r="U118">
+        <v>3.25</v>
+      </c>
+      <c r="V118">
+        <v>2.63</v>
+      </c>
+      <c r="W118">
+        <v>1.44</v>
+      </c>
+      <c r="X118">
+        <v>6.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.11</v>
+      </c>
+      <c r="Z118">
+        <v>2.63</v>
+      </c>
+      <c r="AA118">
+        <v>3.55</v>
+      </c>
+      <c r="AB118">
+        <v>2.49</v>
+      </c>
+      <c r="AC118">
+        <v>1.03</v>
+      </c>
+      <c r="AD118">
+        <v>13</v>
+      </c>
+      <c r="AE118">
+        <v>1.22</v>
+      </c>
+      <c r="AF118">
+        <v>4</v>
+      </c>
+      <c r="AG118">
+        <v>1.7</v>
+      </c>
+      <c r="AH118">
+        <v>2</v>
+      </c>
+      <c r="AI118">
+        <v>1.62</v>
+      </c>
+      <c r="AJ118">
+        <v>2.2</v>
+      </c>
+      <c r="AK118">
+        <v>1.55</v>
+      </c>
+      <c r="AL118">
+        <v>1.25</v>
+      </c>
+      <c r="AM118">
+        <v>1.47</v>
+      </c>
+      <c r="AN118">
+        <v>0.67</v>
+      </c>
+      <c r="AO118">
+        <v>1.4</v>
+      </c>
+      <c r="AP118">
+        <v>0.57</v>
+      </c>
+      <c r="AQ118">
+        <v>1.67</v>
+      </c>
+      <c r="AR118">
+        <v>1.66</v>
+      </c>
+      <c r="AS118">
+        <v>1.29</v>
+      </c>
+      <c r="AT118">
+        <v>2.95</v>
+      </c>
+      <c r="AU118">
+        <v>9</v>
+      </c>
+      <c r="AV118">
+        <v>3</v>
+      </c>
+      <c r="AW118">
+        <v>7</v>
+      </c>
+      <c r="AX118">
+        <v>3</v>
+      </c>
+      <c r="AY118">
+        <v>25</v>
+      </c>
+      <c r="AZ118">
+        <v>9</v>
+      </c>
+      <c r="BA118">
+        <v>11</v>
+      </c>
+      <c r="BB118">
+        <v>5</v>
+      </c>
+      <c r="BC118">
+        <v>16</v>
+      </c>
+      <c r="BD118">
+        <v>1.8</v>
+      </c>
+      <c r="BE118">
+        <v>7.2</v>
+      </c>
+      <c r="BF118">
+        <v>2.3</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>1.29</v>
+      </c>
+      <c r="BJ118">
+        <v>3.25</v>
+      </c>
+      <c r="BK118">
+        <v>1.52</v>
+      </c>
+      <c r="BL118">
+        <v>2.32</v>
+      </c>
+      <c r="BM118">
+        <v>1.9</v>
+      </c>
+      <c r="BN118">
+        <v>1.78</v>
+      </c>
+      <c r="BO118">
+        <v>2.48</v>
+      </c>
+      <c r="BP118">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -750,6 +750,9 @@
   <si>
     <t>['41', '63']</t>
   </si>
+  <si>
+    <t>['35']</t>
+  </si>
 </sst>
 </file>
 
@@ -1110,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2068,7 +2071,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -4125,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -5570,7 +5573,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ22">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -8660,7 +8663,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.18</v>
@@ -11541,7 +11544,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -12365,7 +12368,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55">
         <v>0.8</v>
@@ -15664,7 +15667,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ71">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR71">
         <v>1.34</v>
@@ -16279,7 +16282,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ74">
         <v>1.17</v>
@@ -17930,7 +17933,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR82">
         <v>1.76</v>
@@ -21841,7 +21844,7 @@
         <v>0.6</v>
       </c>
       <c r="AP101">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ101">
         <v>0.5</v>
@@ -25422,6 +25425,212 @@
       </c>
       <c r="BP118">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7465519</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45591.47916666666</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>83</v>
+      </c>
+      <c r="H119" t="s">
+        <v>87</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>93</v>
+      </c>
+      <c r="P119" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q119">
+        <v>2.3</v>
+      </c>
+      <c r="R119">
+        <v>2.5</v>
+      </c>
+      <c r="S119">
+        <v>4.2</v>
+      </c>
+      <c r="T119">
+        <v>1.24</v>
+      </c>
+      <c r="U119">
+        <v>3.7</v>
+      </c>
+      <c r="V119">
+        <v>2.22</v>
+      </c>
+      <c r="W119">
+        <v>1.6</v>
+      </c>
+      <c r="X119">
+        <v>4.7</v>
+      </c>
+      <c r="Y119">
+        <v>1.16</v>
+      </c>
+      <c r="Z119">
+        <v>1.76</v>
+      </c>
+      <c r="AA119">
+        <v>4.18</v>
+      </c>
+      <c r="AB119">
+        <v>3.98</v>
+      </c>
+      <c r="AC119">
+        <v>1.01</v>
+      </c>
+      <c r="AD119">
+        <v>13</v>
+      </c>
+      <c r="AE119">
+        <v>1.16</v>
+      </c>
+      <c r="AF119">
+        <v>5</v>
+      </c>
+      <c r="AG119">
+        <v>1.52</v>
+      </c>
+      <c r="AH119">
+        <v>2.55</v>
+      </c>
+      <c r="AI119">
+        <v>1.52</v>
+      </c>
+      <c r="AJ119">
+        <v>2.5</v>
+      </c>
+      <c r="AK119">
+        <v>1.25</v>
+      </c>
+      <c r="AL119">
+        <v>1.18</v>
+      </c>
+      <c r="AM119">
+        <v>2.05</v>
+      </c>
+      <c r="AN119">
+        <v>3</v>
+      </c>
+      <c r="AO119">
+        <v>1.8</v>
+      </c>
+      <c r="AP119">
+        <v>2.5</v>
+      </c>
+      <c r="AQ119">
+        <v>2</v>
+      </c>
+      <c r="AR119">
+        <v>1.83</v>
+      </c>
+      <c r="AS119">
+        <v>2.09</v>
+      </c>
+      <c r="AT119">
+        <v>3.92</v>
+      </c>
+      <c r="AU119">
+        <v>3</v>
+      </c>
+      <c r="AV119">
+        <v>4</v>
+      </c>
+      <c r="AW119">
+        <v>8</v>
+      </c>
+      <c r="AX119">
+        <v>3</v>
+      </c>
+      <c r="AY119">
+        <v>17</v>
+      </c>
+      <c r="AZ119">
+        <v>9</v>
+      </c>
+      <c r="BA119">
+        <v>2</v>
+      </c>
+      <c r="BB119">
+        <v>7</v>
+      </c>
+      <c r="BC119">
+        <v>9</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>0</v>
+      </c>
+      <c r="BJ119">
+        <v>0</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>0</v>
+      </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -23999,7 +23999,7 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F112">
         <v>12</v>
@@ -24205,7 +24205,7 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F113">
         <v>12</v>
@@ -24411,7 +24411,7 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -24617,7 +24617,7 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F115">
         <v>12</v>
@@ -24823,7 +24823,7 @@
         <v>69</v>
       </c>
       <c r="E116" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F116">
         <v>12</v>
@@ -25029,7 +25029,7 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F117">
         <v>12</v>
@@ -25235,7 +25235,7 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F118">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -753,6 +753,9 @@
   <si>
     <t>['35']</t>
   </si>
+  <si>
+    <t>['25', '78']</t>
+  </si>
 </sst>
 </file>
 
@@ -1113,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1656,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ3">
         <v>1.67</v>
@@ -2068,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2483,7 +2486,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -4955,7 +4958,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ19">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5776,10 +5779,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ23">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR23">
         <v>2.16</v>
@@ -7427,7 +7430,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -8042,7 +8045,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
         <v>1.71</v>
@@ -10926,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>1.67</v>
@@ -11341,7 +11344,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ50">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR50">
         <v>1.58</v>
@@ -11547,7 +11550,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -11750,7 +11753,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52">
         <v>0.86</v>
@@ -12574,7 +12577,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56">
         <v>1.33</v>
@@ -14431,7 +14434,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -16076,7 +16079,7 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73">
         <v>0.4</v>
@@ -17727,7 +17730,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ81">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR81">
         <v>1.73</v>
@@ -18757,7 +18760,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR86">
         <v>1.36</v>
@@ -19166,7 +19169,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ88">
         <v>0.5</v>
@@ -20196,7 +20199,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93">
         <v>0.8</v>
@@ -20405,7 +20408,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ94">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR94">
         <v>1.92</v>
@@ -20817,7 +20820,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR96">
         <v>1.22</v>
@@ -23286,7 +23289,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ108">
         <v>0.4</v>
@@ -23999,10 +24002,10 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F112">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G112" t="s">
         <v>76</v>
@@ -24128,19 +24131,19 @@
         <v>7</v>
       </c>
       <c r="AV112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW112">
         <v>6</v>
       </c>
       <c r="AX112">
+        <v>4</v>
+      </c>
+      <c r="AY112">
+        <v>13</v>
+      </c>
+      <c r="AZ112">
         <v>7</v>
-      </c>
-      <c r="AY112">
-        <v>20</v>
-      </c>
-      <c r="AZ112">
-        <v>16</v>
       </c>
       <c r="BA112">
         <v>5</v>
@@ -24205,10 +24208,10 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F113">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G113" t="s">
         <v>86</v>
@@ -24331,22 +24334,22 @@
         <v>3.36</v>
       </c>
       <c r="AU113">
+        <v>6</v>
+      </c>
+      <c r="AV113">
         <v>7</v>
       </c>
-      <c r="AV113">
+      <c r="AW113">
+        <v>3</v>
+      </c>
+      <c r="AX113">
+        <v>1</v>
+      </c>
+      <c r="AY113">
+        <v>9</v>
+      </c>
+      <c r="AZ113">
         <v>8</v>
-      </c>
-      <c r="AW113">
-        <v>6</v>
-      </c>
-      <c r="AX113">
-        <v>1</v>
-      </c>
-      <c r="AY113">
-        <v>20</v>
-      </c>
-      <c r="AZ113">
-        <v>13</v>
       </c>
       <c r="BA113">
         <v>6</v>
@@ -24411,7 +24414,7 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -24537,22 +24540,22 @@
         <v>3.05</v>
       </c>
       <c r="AU114">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW114">
+        <v>5</v>
+      </c>
+      <c r="AX114">
+        <v>2</v>
+      </c>
+      <c r="AY114">
+        <v>10</v>
+      </c>
+      <c r="AZ114">
         <v>4</v>
-      </c>
-      <c r="AX114">
-        <v>1</v>
-      </c>
-      <c r="AY114">
-        <v>15</v>
-      </c>
-      <c r="AZ114">
-        <v>7</v>
       </c>
       <c r="BA114">
         <v>7</v>
@@ -24617,7 +24620,7 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F115">
         <v>12</v>
@@ -24743,22 +24746,22 @@
         <v>3.25</v>
       </c>
       <c r="AU115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX115">
         <v>0</v>
       </c>
       <c r="AY115">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ115">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA115">
         <v>8</v>
@@ -24823,10 +24826,10 @@
         <v>69</v>
       </c>
       <c r="E116" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F116">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
         <v>74</v>
@@ -24949,22 +24952,22 @@
         <v>2.59</v>
       </c>
       <c r="AU116">
+        <v>2</v>
+      </c>
+      <c r="AV116">
+        <v>2</v>
+      </c>
+      <c r="AW116">
+        <v>6</v>
+      </c>
+      <c r="AX116">
         <v>4</v>
       </c>
-      <c r="AV116">
-        <v>3</v>
-      </c>
-      <c r="AW116">
-        <v>5</v>
-      </c>
-      <c r="AX116">
-        <v>5</v>
-      </c>
       <c r="AY116">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ116">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA116">
         <v>8</v>
@@ -25029,7 +25032,7 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F117">
         <v>12</v>
@@ -25155,22 +25158,22 @@
         <v>3.21</v>
       </c>
       <c r="AU117">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY117">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AZ117">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BA117">
         <v>10</v>
@@ -25235,7 +25238,7 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -25361,10 +25364,10 @@
         <v>2.95</v>
       </c>
       <c r="AU118">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW118">
         <v>7</v>
@@ -25373,10 +25376,10 @@
         <v>3</v>
       </c>
       <c r="AY118">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AZ118">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA118">
         <v>11</v>
@@ -25444,7 +25447,7 @@
         <v>45591.47916666666</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G119" t="s">
         <v>83</v>
@@ -25631,6 +25634,418 @@
       </c>
       <c r="BP119">
         <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7465512</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45591.875</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>71</v>
+      </c>
+      <c r="H120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>93</v>
+      </c>
+      <c r="P120" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q120">
+        <v>2.63</v>
+      </c>
+      <c r="R120">
+        <v>2.3</v>
+      </c>
+      <c r="S120">
+        <v>3.75</v>
+      </c>
+      <c r="T120">
+        <v>1.33</v>
+      </c>
+      <c r="U120">
+        <v>3.25</v>
+      </c>
+      <c r="V120">
+        <v>2.5</v>
+      </c>
+      <c r="W120">
+        <v>1.5</v>
+      </c>
+      <c r="X120">
+        <v>6.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.11</v>
+      </c>
+      <c r="Z120">
+        <v>2.05</v>
+      </c>
+      <c r="AA120">
+        <v>3.5</v>
+      </c>
+      <c r="AB120">
+        <v>3.2</v>
+      </c>
+      <c r="AC120">
+        <v>1.02</v>
+      </c>
+      <c r="AD120">
+        <v>15</v>
+      </c>
+      <c r="AE120">
+        <v>1.22</v>
+      </c>
+      <c r="AF120">
+        <v>4.2</v>
+      </c>
+      <c r="AG120">
+        <v>1.7</v>
+      </c>
+      <c r="AH120">
+        <v>2.1</v>
+      </c>
+      <c r="AI120">
+        <v>1.62</v>
+      </c>
+      <c r="AJ120">
+        <v>2.2</v>
+      </c>
+      <c r="AK120">
+        <v>1.29</v>
+      </c>
+      <c r="AL120">
+        <v>1.29</v>
+      </c>
+      <c r="AM120">
+        <v>1.88</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
+        <v>1.5</v>
+      </c>
+      <c r="AP120">
+        <v>0.86</v>
+      </c>
+      <c r="AQ120">
+        <v>1.71</v>
+      </c>
+      <c r="AR120">
+        <v>1.79</v>
+      </c>
+      <c r="AS120">
+        <v>1.54</v>
+      </c>
+      <c r="AT120">
+        <v>3.33</v>
+      </c>
+      <c r="AU120">
+        <v>3</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>7</v>
+      </c>
+      <c r="AX120">
+        <v>6</v>
+      </c>
+      <c r="AY120">
+        <v>13</v>
+      </c>
+      <c r="AZ120">
+        <v>13</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
+        <v>5</v>
+      </c>
+      <c r="BC120">
+        <v>8</v>
+      </c>
+      <c r="BD120">
+        <v>1.78</v>
+      </c>
+      <c r="BE120">
+        <v>6.1</v>
+      </c>
+      <c r="BF120">
+        <v>2.45</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>1.23</v>
+      </c>
+      <c r="BJ120">
+        <v>3.7</v>
+      </c>
+      <c r="BK120">
+        <v>1.5</v>
+      </c>
+      <c r="BL120">
+        <v>2.5</v>
+      </c>
+      <c r="BM120">
+        <v>1.83</v>
+      </c>
+      <c r="BN120">
+        <v>1.97</v>
+      </c>
+      <c r="BO120">
+        <v>2.27</v>
+      </c>
+      <c r="BP120">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7465520</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45592.53125</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H121" t="s">
+        <v>72</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>168</v>
+      </c>
+      <c r="P121" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q121">
+        <v>3.1</v>
+      </c>
+      <c r="R121">
+        <v>2.38</v>
+      </c>
+      <c r="S121">
+        <v>3</v>
+      </c>
+      <c r="T121">
+        <v>1.3</v>
+      </c>
+      <c r="U121">
+        <v>3.4</v>
+      </c>
+      <c r="V121">
+        <v>2.38</v>
+      </c>
+      <c r="W121">
+        <v>1.53</v>
+      </c>
+      <c r="X121">
+        <v>6</v>
+      </c>
+      <c r="Y121">
+        <v>1.13</v>
+      </c>
+      <c r="Z121">
+        <v>2.55</v>
+      </c>
+      <c r="AA121">
+        <v>3.75</v>
+      </c>
+      <c r="AB121">
+        <v>2.38</v>
+      </c>
+      <c r="AC121">
+        <v>1.02</v>
+      </c>
+      <c r="AD121">
+        <v>15</v>
+      </c>
+      <c r="AE121">
+        <v>1.2</v>
+      </c>
+      <c r="AF121">
+        <v>4.5</v>
+      </c>
+      <c r="AG121">
+        <v>1.6</v>
+      </c>
+      <c r="AH121">
+        <v>2.3</v>
+      </c>
+      <c r="AI121">
+        <v>1.53</v>
+      </c>
+      <c r="AJ121">
+        <v>2.38</v>
+      </c>
+      <c r="AK121">
+        <v>1.54</v>
+      </c>
+      <c r="AL121">
+        <v>1.3</v>
+      </c>
+      <c r="AM121">
+        <v>1.48</v>
+      </c>
+      <c r="AN121">
+        <v>1.6</v>
+      </c>
+      <c r="AO121">
+        <v>2.6</v>
+      </c>
+      <c r="AP121">
+        <v>1.33</v>
+      </c>
+      <c r="AQ121">
+        <v>2.67</v>
+      </c>
+      <c r="AR121">
+        <v>1.74</v>
+      </c>
+      <c r="AS121">
+        <v>1.33</v>
+      </c>
+      <c r="AT121">
+        <v>3.07</v>
+      </c>
+      <c r="AU121">
+        <v>9</v>
+      </c>
+      <c r="AV121">
+        <v>8</v>
+      </c>
+      <c r="AW121">
+        <v>3</v>
+      </c>
+      <c r="AX121">
+        <v>7</v>
+      </c>
+      <c r="AY121">
+        <v>15</v>
+      </c>
+      <c r="AZ121">
+        <v>19</v>
+      </c>
+      <c r="BA121">
+        <v>8</v>
+      </c>
+      <c r="BB121">
+        <v>8</v>
+      </c>
+      <c r="BC121">
+        <v>16</v>
+      </c>
+      <c r="BD121">
+        <v>1.95</v>
+      </c>
+      <c r="BE121">
+        <v>6.8</v>
+      </c>
+      <c r="BF121">
+        <v>2.12</v>
+      </c>
+      <c r="BG121">
+        <v>1.22</v>
+      </c>
+      <c r="BH121">
+        <v>3.75</v>
+      </c>
+      <c r="BI121">
+        <v>1.53</v>
+      </c>
+      <c r="BJ121">
+        <v>2.42</v>
+      </c>
+      <c r="BK121">
+        <v>1.89</v>
+      </c>
+      <c r="BL121">
+        <v>1.9</v>
+      </c>
+      <c r="BM121">
+        <v>2.33</v>
+      </c>
+      <c r="BN121">
+        <v>1.57</v>
+      </c>
+      <c r="BO121">
+        <v>3.35</v>
+      </c>
+      <c r="BP121">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -25641,7 +25641,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7465512</v>
+        <v>7465520</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25656,70 +25656,70 @@
         <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H120" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>1</v>
       </c>
       <c r="K120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O120" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q120">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="R120">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S120">
+        <v>3</v>
+      </c>
+      <c r="T120">
+        <v>1.3</v>
+      </c>
+      <c r="U120">
+        <v>3.4</v>
+      </c>
+      <c r="V120">
+        <v>2.38</v>
+      </c>
+      <c r="W120">
+        <v>1.53</v>
+      </c>
+      <c r="X120">
+        <v>6</v>
+      </c>
+      <c r="Y120">
+        <v>1.13</v>
+      </c>
+      <c r="Z120">
+        <v>2.55</v>
+      </c>
+      <c r="AA120">
         <v>3.75</v>
       </c>
-      <c r="T120">
-        <v>1.33</v>
-      </c>
-      <c r="U120">
-        <v>3.25</v>
-      </c>
-      <c r="V120">
-        <v>2.5</v>
-      </c>
-      <c r="W120">
-        <v>1.5</v>
-      </c>
-      <c r="X120">
-        <v>6.5</v>
-      </c>
-      <c r="Y120">
-        <v>1.11</v>
-      </c>
-      <c r="Z120">
-        <v>2.05</v>
-      </c>
-      <c r="AA120">
-        <v>3.5</v>
-      </c>
       <c r="AB120">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="AC120">
         <v>1.02</v>
@@ -25728,118 +25728,118 @@
         <v>15</v>
       </c>
       <c r="AE120">
+        <v>1.2</v>
+      </c>
+      <c r="AF120">
+        <v>4.5</v>
+      </c>
+      <c r="AG120">
+        <v>1.6</v>
+      </c>
+      <c r="AH120">
+        <v>2.3</v>
+      </c>
+      <c r="AI120">
+        <v>1.53</v>
+      </c>
+      <c r="AJ120">
+        <v>2.38</v>
+      </c>
+      <c r="AK120">
+        <v>1.54</v>
+      </c>
+      <c r="AL120">
+        <v>1.3</v>
+      </c>
+      <c r="AM120">
+        <v>1.48</v>
+      </c>
+      <c r="AN120">
+        <v>1.6</v>
+      </c>
+      <c r="AO120">
+        <v>2.6</v>
+      </c>
+      <c r="AP120">
+        <v>1.33</v>
+      </c>
+      <c r="AQ120">
+        <v>2.67</v>
+      </c>
+      <c r="AR120">
+        <v>1.74</v>
+      </c>
+      <c r="AS120">
+        <v>1.33</v>
+      </c>
+      <c r="AT120">
+        <v>3.07</v>
+      </c>
+      <c r="AU120">
+        <v>9</v>
+      </c>
+      <c r="AV120">
+        <v>8</v>
+      </c>
+      <c r="AW120">
+        <v>3</v>
+      </c>
+      <c r="AX120">
+        <v>7</v>
+      </c>
+      <c r="AY120">
+        <v>15</v>
+      </c>
+      <c r="AZ120">
+        <v>19</v>
+      </c>
+      <c r="BA120">
+        <v>8</v>
+      </c>
+      <c r="BB120">
+        <v>8</v>
+      </c>
+      <c r="BC120">
+        <v>16</v>
+      </c>
+      <c r="BD120">
+        <v>1.95</v>
+      </c>
+      <c r="BE120">
+        <v>6.8</v>
+      </c>
+      <c r="BF120">
+        <v>2.12</v>
+      </c>
+      <c r="BG120">
         <v>1.22</v>
       </c>
-      <c r="AF120">
-        <v>4.2</v>
-      </c>
-      <c r="AG120">
-        <v>1.7</v>
-      </c>
-      <c r="AH120">
-        <v>2.1</v>
-      </c>
-      <c r="AI120">
-        <v>1.62</v>
-      </c>
-      <c r="AJ120">
-        <v>2.2</v>
-      </c>
-      <c r="AK120">
-        <v>1.29</v>
-      </c>
-      <c r="AL120">
-        <v>1.29</v>
-      </c>
-      <c r="AM120">
-        <v>1.88</v>
-      </c>
-      <c r="AN120">
-        <v>1</v>
-      </c>
-      <c r="AO120">
-        <v>1.5</v>
-      </c>
-      <c r="AP120">
-        <v>0.86</v>
-      </c>
-      <c r="AQ120">
-        <v>1.71</v>
-      </c>
-      <c r="AR120">
-        <v>1.79</v>
-      </c>
-      <c r="AS120">
-        <v>1.54</v>
-      </c>
-      <c r="AT120">
-        <v>3.33</v>
-      </c>
-      <c r="AU120">
-        <v>3</v>
-      </c>
-      <c r="AV120">
-        <v>4</v>
-      </c>
-      <c r="AW120">
-        <v>7</v>
-      </c>
-      <c r="AX120">
-        <v>6</v>
-      </c>
-      <c r="AY120">
-        <v>13</v>
-      </c>
-      <c r="AZ120">
-        <v>13</v>
-      </c>
-      <c r="BA120">
-        <v>3</v>
-      </c>
-      <c r="BB120">
-        <v>5</v>
-      </c>
-      <c r="BC120">
-        <v>8</v>
-      </c>
-      <c r="BD120">
-        <v>1.78</v>
-      </c>
-      <c r="BE120">
-        <v>6.1</v>
-      </c>
-      <c r="BF120">
-        <v>2.45</v>
-      </c>
-      <c r="BG120">
-        <v>0</v>
-      </c>
       <c r="BH120">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BI120">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="BJ120">
-        <v>3.7</v>
+        <v>2.42</v>
       </c>
       <c r="BK120">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="BL120">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="BM120">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="BN120">
-        <v>1.97</v>
+        <v>1.57</v>
       </c>
       <c r="BO120">
-        <v>2.27</v>
+        <v>3.35</v>
       </c>
       <c r="BP120">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="121" spans="1:68">
@@ -25847,7 +25847,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7465520</v>
+        <v>7465512</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25856,76 +25856,76 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45592.53125</v>
+        <v>45591.875</v>
       </c>
       <c r="F121">
         <v>12</v>
       </c>
       <c r="G121" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H121" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121">
         <v>1</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O121" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q121">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="R121">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S121">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T121">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U121">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V121">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W121">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X121">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y121">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z121">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="AA121">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AB121">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="AC121">
         <v>1.02</v>
@@ -25934,118 +25934,118 @@
         <v>15</v>
       </c>
       <c r="AE121">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF121">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AG121">
+        <v>1.7</v>
+      </c>
+      <c r="AH121">
+        <v>2.1</v>
+      </c>
+      <c r="AI121">
+        <v>1.62</v>
+      </c>
+      <c r="AJ121">
+        <v>2.2</v>
+      </c>
+      <c r="AK121">
+        <v>1.29</v>
+      </c>
+      <c r="AL121">
+        <v>1.29</v>
+      </c>
+      <c r="AM121">
+        <v>1.88</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
+        <v>1.5</v>
+      </c>
+      <c r="AP121">
+        <v>0.86</v>
+      </c>
+      <c r="AQ121">
+        <v>1.71</v>
+      </c>
+      <c r="AR121">
+        <v>1.79</v>
+      </c>
+      <c r="AS121">
+        <v>1.54</v>
+      </c>
+      <c r="AT121">
+        <v>3.33</v>
+      </c>
+      <c r="AU121">
+        <v>3</v>
+      </c>
+      <c r="AV121">
+        <v>4</v>
+      </c>
+      <c r="AW121">
+        <v>7</v>
+      </c>
+      <c r="AX121">
+        <v>6</v>
+      </c>
+      <c r="AY121">
+        <v>13</v>
+      </c>
+      <c r="AZ121">
+        <v>13</v>
+      </c>
+      <c r="BA121">
+        <v>3</v>
+      </c>
+      <c r="BB121">
+        <v>5</v>
+      </c>
+      <c r="BC121">
+        <v>8</v>
+      </c>
+      <c r="BD121">
+        <v>1.78</v>
+      </c>
+      <c r="BE121">
+        <v>6.1</v>
+      </c>
+      <c r="BF121">
+        <v>2.45</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
+      <c r="BH121">
+        <v>0</v>
+      </c>
+      <c r="BI121">
+        <v>1.23</v>
+      </c>
+      <c r="BJ121">
+        <v>3.7</v>
+      </c>
+      <c r="BK121">
+        <v>1.5</v>
+      </c>
+      <c r="BL121">
+        <v>2.5</v>
+      </c>
+      <c r="BM121">
+        <v>1.83</v>
+      </c>
+      <c r="BN121">
+        <v>1.97</v>
+      </c>
+      <c r="BO121">
+        <v>2.27</v>
+      </c>
+      <c r="BP121">
         <v>1.6</v>
-      </c>
-      <c r="AH121">
-        <v>2.3</v>
-      </c>
-      <c r="AI121">
-        <v>1.53</v>
-      </c>
-      <c r="AJ121">
-        <v>2.38</v>
-      </c>
-      <c r="AK121">
-        <v>1.54</v>
-      </c>
-      <c r="AL121">
-        <v>1.3</v>
-      </c>
-      <c r="AM121">
-        <v>1.48</v>
-      </c>
-      <c r="AN121">
-        <v>1.6</v>
-      </c>
-      <c r="AO121">
-        <v>2.6</v>
-      </c>
-      <c r="AP121">
-        <v>1.33</v>
-      </c>
-      <c r="AQ121">
-        <v>2.67</v>
-      </c>
-      <c r="AR121">
-        <v>1.74</v>
-      </c>
-      <c r="AS121">
-        <v>1.33</v>
-      </c>
-      <c r="AT121">
-        <v>3.07</v>
-      </c>
-      <c r="AU121">
-        <v>9</v>
-      </c>
-      <c r="AV121">
-        <v>8</v>
-      </c>
-      <c r="AW121">
-        <v>3</v>
-      </c>
-      <c r="AX121">
-        <v>7</v>
-      </c>
-      <c r="AY121">
-        <v>15</v>
-      </c>
-      <c r="AZ121">
-        <v>19</v>
-      </c>
-      <c r="BA121">
-        <v>8</v>
-      </c>
-      <c r="BB121">
-        <v>8</v>
-      </c>
-      <c r="BC121">
-        <v>16</v>
-      </c>
-      <c r="BD121">
-        <v>1.95</v>
-      </c>
-      <c r="BE121">
-        <v>6.8</v>
-      </c>
-      <c r="BF121">
-        <v>2.12</v>
-      </c>
-      <c r="BG121">
-        <v>1.22</v>
-      </c>
-      <c r="BH121">
-        <v>3.75</v>
-      </c>
-      <c r="BI121">
-        <v>1.53</v>
-      </c>
-      <c r="BJ121">
-        <v>2.42</v>
-      </c>
-      <c r="BK121">
-        <v>1.89</v>
-      </c>
-      <c r="BL121">
-        <v>1.9</v>
-      </c>
-      <c r="BM121">
-        <v>2.33</v>
-      </c>
-      <c r="BN121">
-        <v>1.57</v>
-      </c>
-      <c r="BO121">
-        <v>3.35</v>
-      </c>
-      <c r="BP121">
-        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -24131,19 +24131,19 @@
         <v>7</v>
       </c>
       <c r="AV112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW112">
         <v>6</v>
       </c>
       <c r="AX112">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY112">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ112">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BA112">
         <v>5</v>
@@ -24334,22 +24334,22 @@
         <v>3.36</v>
       </c>
       <c r="AU113">
+        <v>7</v>
+      </c>
+      <c r="AV113">
+        <v>8</v>
+      </c>
+      <c r="AW113">
         <v>6</v>
       </c>
-      <c r="AV113">
-        <v>7</v>
-      </c>
-      <c r="AW113">
-        <v>3</v>
-      </c>
       <c r="AX113">
         <v>1</v>
       </c>
       <c r="AY113">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AZ113">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA113">
         <v>6</v>
@@ -24540,22 +24540,22 @@
         <v>3.05</v>
       </c>
       <c r="AU114">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY114">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ114">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA114">
         <v>7</v>
@@ -24746,22 +24746,22 @@
         <v>3.25</v>
       </c>
       <c r="AU115">
+        <v>7</v>
+      </c>
+      <c r="AV115">
+        <v>5</v>
+      </c>
+      <c r="AW115">
+        <v>5</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>16</v>
+      </c>
+      <c r="AZ115">
         <v>6</v>
-      </c>
-      <c r="AV115">
-        <v>4</v>
-      </c>
-      <c r="AW115">
-        <v>4</v>
-      </c>
-      <c r="AX115">
-        <v>0</v>
-      </c>
-      <c r="AY115">
-        <v>10</v>
-      </c>
-      <c r="AZ115">
-        <v>4</v>
       </c>
       <c r="BA115">
         <v>8</v>
@@ -24952,22 +24952,22 @@
         <v>2.59</v>
       </c>
       <c r="AU116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY116">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ116">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA116">
         <v>8</v>
@@ -25158,22 +25158,22 @@
         <v>3.21</v>
       </c>
       <c r="AU117">
+        <v>6</v>
+      </c>
+      <c r="AV117">
         <v>4</v>
       </c>
-      <c r="AV117">
-        <v>0</v>
-      </c>
       <c r="AW117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY117">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AZ117">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BA117">
         <v>10</v>
@@ -25364,10 +25364,10 @@
         <v>2.95</v>
       </c>
       <c r="AU118">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW118">
         <v>7</v>
@@ -25376,10 +25376,10 @@
         <v>3</v>
       </c>
       <c r="AY118">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AZ118">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA118">
         <v>11</v>
@@ -25641,7 +25641,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7465520</v>
+        <v>7465512</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25650,76 +25650,76 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45591.875</v>
+        <v>45592.34375</v>
       </c>
       <c r="F120">
         <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H120" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120">
         <v>1</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O120" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q120">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="R120">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S120">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T120">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U120">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V120">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W120">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X120">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y120">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z120">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="AA120">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AB120">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="AC120">
         <v>1.02</v>
@@ -25728,118 +25728,118 @@
         <v>15</v>
       </c>
       <c r="AE120">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF120">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AG120">
+        <v>1.7</v>
+      </c>
+      <c r="AH120">
+        <v>2.1</v>
+      </c>
+      <c r="AI120">
+        <v>1.62</v>
+      </c>
+      <c r="AJ120">
+        <v>2.2</v>
+      </c>
+      <c r="AK120">
+        <v>1.29</v>
+      </c>
+      <c r="AL120">
+        <v>1.29</v>
+      </c>
+      <c r="AM120">
+        <v>1.88</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
+        <v>1.5</v>
+      </c>
+      <c r="AP120">
+        <v>0.86</v>
+      </c>
+      <c r="AQ120">
+        <v>1.71</v>
+      </c>
+      <c r="AR120">
+        <v>1.79</v>
+      </c>
+      <c r="AS120">
+        <v>1.54</v>
+      </c>
+      <c r="AT120">
+        <v>3.33</v>
+      </c>
+      <c r="AU120">
+        <v>3</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>7</v>
+      </c>
+      <c r="AX120">
+        <v>6</v>
+      </c>
+      <c r="AY120">
+        <v>13</v>
+      </c>
+      <c r="AZ120">
+        <v>13</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
+        <v>5</v>
+      </c>
+      <c r="BC120">
+        <v>8</v>
+      </c>
+      <c r="BD120">
+        <v>1.78</v>
+      </c>
+      <c r="BE120">
+        <v>6.1</v>
+      </c>
+      <c r="BF120">
+        <v>2.45</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>1.23</v>
+      </c>
+      <c r="BJ120">
+        <v>3.7</v>
+      </c>
+      <c r="BK120">
+        <v>1.5</v>
+      </c>
+      <c r="BL120">
+        <v>2.5</v>
+      </c>
+      <c r="BM120">
+        <v>1.83</v>
+      </c>
+      <c r="BN120">
+        <v>1.97</v>
+      </c>
+      <c r="BO120">
+        <v>2.27</v>
+      </c>
+      <c r="BP120">
         <v>1.6</v>
-      </c>
-      <c r="AH120">
-        <v>2.3</v>
-      </c>
-      <c r="AI120">
-        <v>1.53</v>
-      </c>
-      <c r="AJ120">
-        <v>2.38</v>
-      </c>
-      <c r="AK120">
-        <v>1.54</v>
-      </c>
-      <c r="AL120">
-        <v>1.3</v>
-      </c>
-      <c r="AM120">
-        <v>1.48</v>
-      </c>
-      <c r="AN120">
-        <v>1.6</v>
-      </c>
-      <c r="AO120">
-        <v>2.6</v>
-      </c>
-      <c r="AP120">
-        <v>1.33</v>
-      </c>
-      <c r="AQ120">
-        <v>2.67</v>
-      </c>
-      <c r="AR120">
-        <v>1.74</v>
-      </c>
-      <c r="AS120">
-        <v>1.33</v>
-      </c>
-      <c r="AT120">
-        <v>3.07</v>
-      </c>
-      <c r="AU120">
-        <v>9</v>
-      </c>
-      <c r="AV120">
-        <v>8</v>
-      </c>
-      <c r="AW120">
-        <v>3</v>
-      </c>
-      <c r="AX120">
-        <v>7</v>
-      </c>
-      <c r="AY120">
-        <v>15</v>
-      </c>
-      <c r="AZ120">
-        <v>19</v>
-      </c>
-      <c r="BA120">
-        <v>8</v>
-      </c>
-      <c r="BB120">
-        <v>8</v>
-      </c>
-      <c r="BC120">
-        <v>16</v>
-      </c>
-      <c r="BD120">
-        <v>1.95</v>
-      </c>
-      <c r="BE120">
-        <v>6.8</v>
-      </c>
-      <c r="BF120">
-        <v>2.12</v>
-      </c>
-      <c r="BG120">
-        <v>1.22</v>
-      </c>
-      <c r="BH120">
-        <v>3.75</v>
-      </c>
-      <c r="BI120">
-        <v>1.53</v>
-      </c>
-      <c r="BJ120">
-        <v>2.42</v>
-      </c>
-      <c r="BK120">
-        <v>1.89</v>
-      </c>
-      <c r="BL120">
-        <v>1.9</v>
-      </c>
-      <c r="BM120">
-        <v>2.33</v>
-      </c>
-      <c r="BN120">
-        <v>1.57</v>
-      </c>
-      <c r="BO120">
-        <v>3.35</v>
-      </c>
-      <c r="BP120">
-        <v>1.27</v>
       </c>
     </row>
     <row r="121" spans="1:68">
@@ -25847,7 +25847,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7465512</v>
+        <v>7465520</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25856,76 +25856,76 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45591.875</v>
+        <v>45592.53125</v>
       </c>
       <c r="F121">
         <v>12</v>
       </c>
       <c r="G121" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H121" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121">
         <v>1</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O121" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q121">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="R121">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S121">
+        <v>3</v>
+      </c>
+      <c r="T121">
+        <v>1.3</v>
+      </c>
+      <c r="U121">
+        <v>3.4</v>
+      </c>
+      <c r="V121">
+        <v>2.38</v>
+      </c>
+      <c r="W121">
+        <v>1.53</v>
+      </c>
+      <c r="X121">
+        <v>6</v>
+      </c>
+      <c r="Y121">
+        <v>1.13</v>
+      </c>
+      <c r="Z121">
+        <v>2.55</v>
+      </c>
+      <c r="AA121">
         <v>3.75</v>
       </c>
-      <c r="T121">
-        <v>1.33</v>
-      </c>
-      <c r="U121">
-        <v>3.25</v>
-      </c>
-      <c r="V121">
-        <v>2.5</v>
-      </c>
-      <c r="W121">
-        <v>1.5</v>
-      </c>
-      <c r="X121">
-        <v>6.5</v>
-      </c>
-      <c r="Y121">
-        <v>1.11</v>
-      </c>
-      <c r="Z121">
-        <v>2.05</v>
-      </c>
-      <c r="AA121">
-        <v>3.5</v>
-      </c>
       <c r="AB121">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="AC121">
         <v>1.02</v>
@@ -25934,118 +25934,118 @@
         <v>15</v>
       </c>
       <c r="AE121">
+        <v>1.2</v>
+      </c>
+      <c r="AF121">
+        <v>4.5</v>
+      </c>
+      <c r="AG121">
+        <v>1.6</v>
+      </c>
+      <c r="AH121">
+        <v>2.3</v>
+      </c>
+      <c r="AI121">
+        <v>1.53</v>
+      </c>
+      <c r="AJ121">
+        <v>2.38</v>
+      </c>
+      <c r="AK121">
+        <v>1.54</v>
+      </c>
+      <c r="AL121">
+        <v>1.3</v>
+      </c>
+      <c r="AM121">
+        <v>1.48</v>
+      </c>
+      <c r="AN121">
+        <v>1.6</v>
+      </c>
+      <c r="AO121">
+        <v>2.6</v>
+      </c>
+      <c r="AP121">
+        <v>1.33</v>
+      </c>
+      <c r="AQ121">
+        <v>2.67</v>
+      </c>
+      <c r="AR121">
+        <v>1.74</v>
+      </c>
+      <c r="AS121">
+        <v>1.33</v>
+      </c>
+      <c r="AT121">
+        <v>3.07</v>
+      </c>
+      <c r="AU121">
+        <v>9</v>
+      </c>
+      <c r="AV121">
+        <v>8</v>
+      </c>
+      <c r="AW121">
+        <v>3</v>
+      </c>
+      <c r="AX121">
+        <v>7</v>
+      </c>
+      <c r="AY121">
+        <v>15</v>
+      </c>
+      <c r="AZ121">
+        <v>19</v>
+      </c>
+      <c r="BA121">
+        <v>8</v>
+      </c>
+      <c r="BB121">
+        <v>8</v>
+      </c>
+      <c r="BC121">
+        <v>16</v>
+      </c>
+      <c r="BD121">
+        <v>1.95</v>
+      </c>
+      <c r="BE121">
+        <v>6.8</v>
+      </c>
+      <c r="BF121">
+        <v>2.12</v>
+      </c>
+      <c r="BG121">
         <v>1.22</v>
       </c>
-      <c r="AF121">
-        <v>4.2</v>
-      </c>
-      <c r="AG121">
-        <v>1.7</v>
-      </c>
-      <c r="AH121">
-        <v>2.1</v>
-      </c>
-      <c r="AI121">
-        <v>1.62</v>
-      </c>
-      <c r="AJ121">
-        <v>2.2</v>
-      </c>
-      <c r="AK121">
-        <v>1.29</v>
-      </c>
-      <c r="AL121">
-        <v>1.29</v>
-      </c>
-      <c r="AM121">
-        <v>1.88</v>
-      </c>
-      <c r="AN121">
-        <v>1</v>
-      </c>
-      <c r="AO121">
-        <v>1.5</v>
-      </c>
-      <c r="AP121">
-        <v>0.86</v>
-      </c>
-      <c r="AQ121">
-        <v>1.71</v>
-      </c>
-      <c r="AR121">
-        <v>1.79</v>
-      </c>
-      <c r="AS121">
-        <v>1.54</v>
-      </c>
-      <c r="AT121">
-        <v>3.33</v>
-      </c>
-      <c r="AU121">
-        <v>3</v>
-      </c>
-      <c r="AV121">
-        <v>4</v>
-      </c>
-      <c r="AW121">
-        <v>7</v>
-      </c>
-      <c r="AX121">
-        <v>6</v>
-      </c>
-      <c r="AY121">
-        <v>13</v>
-      </c>
-      <c r="AZ121">
-        <v>13</v>
-      </c>
-      <c r="BA121">
-        <v>3</v>
-      </c>
-      <c r="BB121">
-        <v>5</v>
-      </c>
-      <c r="BC121">
-        <v>8</v>
-      </c>
-      <c r="BD121">
-        <v>1.78</v>
-      </c>
-      <c r="BE121">
-        <v>6.1</v>
-      </c>
-      <c r="BF121">
-        <v>2.45</v>
-      </c>
-      <c r="BG121">
-        <v>0</v>
-      </c>
       <c r="BH121">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BI121">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="BJ121">
-        <v>3.7</v>
+        <v>2.42</v>
       </c>
       <c r="BK121">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="BL121">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="BM121">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="BN121">
-        <v>1.97</v>
+        <v>1.57</v>
       </c>
       <c r="BO121">
-        <v>2.27</v>
+        <v>3.35</v>
       </c>
       <c r="BP121">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,12 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['45+2', '55']</t>
+  </si>
+  <si>
+    <t>['8', '33', '84', '90+3']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -755,6 +761,15 @@
   </si>
   <si>
     <t>['25', '78']</t>
+  </si>
+  <si>
+    <t>['36', '73', '79']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['18', '32', '34', '67']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1581,7 +1596,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1662,7 +1677,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ3">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1787,7 +1802,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1993,7 +2008,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2074,7 +2089,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2199,7 +2214,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2405,7 +2420,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2611,7 +2626,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2692,7 +2707,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2817,7 +2832,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2895,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -3023,7 +3038,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3101,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>0.86</v>
@@ -3229,7 +3244,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3641,7 +3656,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4259,7 +4274,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4752,7 +4767,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5083,7 +5098,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5367,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5576,7 +5591,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -6113,7 +6128,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6191,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ25">
         <v>0.67</v>
@@ -6319,7 +6334,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6525,7 +6540,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6603,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ27">
         <v>1.5</v>
@@ -6937,7 +6952,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7221,10 +7236,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR30">
         <v>2.2</v>
@@ -7349,7 +7364,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7967,7 +7982,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8173,7 +8188,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8460,7 +8475,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ36">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8666,7 +8681,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR37">
         <v>1.18</v>
@@ -8791,7 +8806,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8997,7 +9012,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9075,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ39">
         <v>1.67</v>
@@ -9409,7 +9424,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9693,7 +9708,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ42">
         <v>1.43</v>
@@ -10027,7 +10042,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10233,7 +10248,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10439,7 +10454,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10645,7 +10660,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10723,7 +10738,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -10851,7 +10866,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11135,10 +11150,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11263,7 +11278,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11341,7 +11356,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ50">
         <v>2.67</v>
@@ -11469,7 +11484,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11675,7 +11690,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11962,7 +11977,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ53">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>2.41</v>
@@ -12374,7 +12389,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR55">
         <v>1.7</v>
@@ -12499,7 +12514,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12911,7 +12926,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13117,7 +13132,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13198,7 +13213,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ59">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.91</v>
@@ -13404,7 +13419,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR60">
         <v>1.64</v>
@@ -13529,7 +13544,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13607,7 +13622,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ61">
         <v>1.17</v>
@@ -13735,7 +13750,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13941,7 +13956,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14559,7 +14574,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14971,7 +14986,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15177,7 +15192,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15383,7 +15398,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15461,7 +15476,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -15589,7 +15604,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15670,7 +15685,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR71">
         <v>1.34</v>
@@ -15795,7 +15810,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15876,7 +15891,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16001,7 +16016,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16207,7 +16222,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16413,7 +16428,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16697,7 +16712,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ76">
         <v>0.86</v>
@@ -17031,7 +17046,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17109,7 +17124,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ78">
         <v>1.33</v>
@@ -17237,7 +17252,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17521,10 +17536,10 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ80">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR80">
         <v>1.68</v>
@@ -17649,7 +17664,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17936,7 +17951,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR82">
         <v>1.76</v>
@@ -18061,7 +18076,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18267,7 +18282,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18348,7 +18363,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ84">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR84">
         <v>1.34</v>
@@ -18885,7 +18900,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -18963,7 +18978,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
         <v>1.43</v>
@@ -19091,7 +19106,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19503,7 +19518,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19915,7 +19930,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20202,7 +20217,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ93">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR93">
         <v>1.74</v>
@@ -20327,7 +20342,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20405,7 +20420,7 @@
         <v>2.5</v>
       </c>
       <c r="AP94">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>2.67</v>
@@ -20533,7 +20548,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20614,7 +20629,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR95">
         <v>1.66</v>
@@ -20739,7 +20754,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20945,7 +20960,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21229,7 +21244,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ98">
         <v>0.67</v>
@@ -21357,7 +21372,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21435,7 +21450,7 @@
         <v>2.25</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ99">
         <v>2.4</v>
@@ -21769,7 +21784,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21975,7 +21990,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22053,7 +22068,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ102">
         <v>1.71</v>
@@ -22387,7 +22402,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22671,10 +22686,10 @@
         <v>1.25</v>
       </c>
       <c r="AP105">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ105">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
         <v>1.49</v>
@@ -22799,7 +22814,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23417,7 +23432,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23623,7 +23638,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23829,7 +23844,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24035,7 +24050,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24447,7 +24462,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24653,7 +24668,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24859,7 +24874,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25065,7 +25080,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25271,7 +25286,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25477,7 +25492,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25558,7 +25573,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ119">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR119">
         <v>1.83</v>
@@ -25683,7 +25698,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25889,7 +25904,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26046,6 +26061,830 @@
       </c>
       <c r="BP121">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7465525</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45597.66666666666</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>78</v>
+      </c>
+      <c r="H122" t="s">
+        <v>87</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>5</v>
+      </c>
+      <c r="O122" t="s">
+        <v>174</v>
+      </c>
+      <c r="P122" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q122">
+        <v>3.5</v>
+      </c>
+      <c r="R122">
+        <v>2.45</v>
+      </c>
+      <c r="S122">
+        <v>2.6</v>
+      </c>
+      <c r="T122">
+        <v>1.22</v>
+      </c>
+      <c r="U122">
+        <v>3.9</v>
+      </c>
+      <c r="V122">
+        <v>2.09</v>
+      </c>
+      <c r="W122">
+        <v>1.67</v>
+      </c>
+      <c r="X122">
+        <v>4.45</v>
+      </c>
+      <c r="Y122">
+        <v>1.17</v>
+      </c>
+      <c r="Z122">
+        <v>3.2</v>
+      </c>
+      <c r="AA122">
+        <v>3.75</v>
+      </c>
+      <c r="AB122">
+        <v>2.05</v>
+      </c>
+      <c r="AC122">
+        <v>1.01</v>
+      </c>
+      <c r="AD122">
+        <v>17</v>
+      </c>
+      <c r="AE122">
+        <v>1.14</v>
+      </c>
+      <c r="AF122">
+        <v>5.5</v>
+      </c>
+      <c r="AG122">
+        <v>1.45</v>
+      </c>
+      <c r="AH122">
+        <v>2.75</v>
+      </c>
+      <c r="AI122">
+        <v>1.42</v>
+      </c>
+      <c r="AJ122">
+        <v>2.8</v>
+      </c>
+      <c r="AK122">
+        <v>1.78</v>
+      </c>
+      <c r="AL122">
+        <v>1.2</v>
+      </c>
+      <c r="AM122">
+        <v>1.36</v>
+      </c>
+      <c r="AN122">
+        <v>1.17</v>
+      </c>
+      <c r="AO122">
+        <v>2</v>
+      </c>
+      <c r="AP122">
+        <v>1</v>
+      </c>
+      <c r="AQ122">
+        <v>2.14</v>
+      </c>
+      <c r="AR122">
+        <v>1.92</v>
+      </c>
+      <c r="AS122">
+        <v>2</v>
+      </c>
+      <c r="AT122">
+        <v>3.92</v>
+      </c>
+      <c r="AU122">
+        <v>7</v>
+      </c>
+      <c r="AV122">
+        <v>6</v>
+      </c>
+      <c r="AW122">
+        <v>4</v>
+      </c>
+      <c r="AX122">
+        <v>6</v>
+      </c>
+      <c r="AY122">
+        <v>12</v>
+      </c>
+      <c r="AZ122">
+        <v>16</v>
+      </c>
+      <c r="BA122">
+        <v>3</v>
+      </c>
+      <c r="BB122">
+        <v>4</v>
+      </c>
+      <c r="BC122">
+        <v>7</v>
+      </c>
+      <c r="BD122">
+        <v>2.1</v>
+      </c>
+      <c r="BE122">
+        <v>7.2</v>
+      </c>
+      <c r="BF122">
+        <v>1.95</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>1.23</v>
+      </c>
+      <c r="BJ122">
+        <v>3.6</v>
+      </c>
+      <c r="BK122">
+        <v>1.44</v>
+      </c>
+      <c r="BL122">
+        <v>2.55</v>
+      </c>
+      <c r="BM122">
+        <v>1.75</v>
+      </c>
+      <c r="BN122">
+        <v>1.92</v>
+      </c>
+      <c r="BO122">
+        <v>2.25</v>
+      </c>
+      <c r="BP122">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7465524</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45597.66666666666</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>89</v>
+      </c>
+      <c r="H123" t="s">
+        <v>80</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>93</v>
+      </c>
+      <c r="P123" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q123">
+        <v>2.69</v>
+      </c>
+      <c r="R123">
+        <v>2.52</v>
+      </c>
+      <c r="S123">
+        <v>3.43</v>
+      </c>
+      <c r="T123">
+        <v>1.25</v>
+      </c>
+      <c r="U123">
+        <v>3.65</v>
+      </c>
+      <c r="V123">
+        <v>2.24</v>
+      </c>
+      <c r="W123">
+        <v>1.64</v>
+      </c>
+      <c r="X123">
+        <v>4.9</v>
+      </c>
+      <c r="Y123">
+        <v>1.15</v>
+      </c>
+      <c r="Z123">
+        <v>2.2</v>
+      </c>
+      <c r="AA123">
+        <v>3.75</v>
+      </c>
+      <c r="AB123">
+        <v>2.95</v>
+      </c>
+      <c r="AC123">
+        <v>1.01</v>
+      </c>
+      <c r="AD123">
+        <v>13</v>
+      </c>
+      <c r="AE123">
+        <v>1.16</v>
+      </c>
+      <c r="AF123">
+        <v>5</v>
+      </c>
+      <c r="AG123">
+        <v>1.52</v>
+      </c>
+      <c r="AH123">
+        <v>2.5</v>
+      </c>
+      <c r="AI123">
+        <v>1.47</v>
+      </c>
+      <c r="AJ123">
+        <v>2.65</v>
+      </c>
+      <c r="AK123">
+        <v>1.42</v>
+      </c>
+      <c r="AL123">
+        <v>1.22</v>
+      </c>
+      <c r="AM123">
+        <v>1.66</v>
+      </c>
+      <c r="AN123">
+        <v>0.5</v>
+      </c>
+      <c r="AO123">
+        <v>0.8</v>
+      </c>
+      <c r="AP123">
+        <v>0.43</v>
+      </c>
+      <c r="AQ123">
+        <v>1.17</v>
+      </c>
+      <c r="AR123">
+        <v>1.47</v>
+      </c>
+      <c r="AS123">
+        <v>1.4</v>
+      </c>
+      <c r="AT123">
+        <v>2.87</v>
+      </c>
+      <c r="AU123">
+        <v>8</v>
+      </c>
+      <c r="AV123">
+        <v>4</v>
+      </c>
+      <c r="AW123">
+        <v>7</v>
+      </c>
+      <c r="AX123">
+        <v>4</v>
+      </c>
+      <c r="AY123">
+        <v>22</v>
+      </c>
+      <c r="AZ123">
+        <v>11</v>
+      </c>
+      <c r="BA123">
+        <v>5</v>
+      </c>
+      <c r="BB123">
+        <v>5</v>
+      </c>
+      <c r="BC123">
+        <v>10</v>
+      </c>
+      <c r="BD123">
+        <v>1.78</v>
+      </c>
+      <c r="BE123">
+        <v>6</v>
+      </c>
+      <c r="BF123">
+        <v>2.5</v>
+      </c>
+      <c r="BG123">
+        <v>1.17</v>
+      </c>
+      <c r="BH123">
+        <v>4.4</v>
+      </c>
+      <c r="BI123">
+        <v>1.36</v>
+      </c>
+      <c r="BJ123">
+        <v>2.88</v>
+      </c>
+      <c r="BK123">
+        <v>1.65</v>
+      </c>
+      <c r="BL123">
+        <v>2.08</v>
+      </c>
+      <c r="BM123">
+        <v>2.12</v>
+      </c>
+      <c r="BN123">
+        <v>1.62</v>
+      </c>
+      <c r="BO123">
+        <v>2.92</v>
+      </c>
+      <c r="BP123">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7465521</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45597.66666666666</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>77</v>
+      </c>
+      <c r="H124" t="s">
+        <v>86</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124" t="s">
+        <v>175</v>
+      </c>
+      <c r="P124" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q124">
+        <v>2.26</v>
+      </c>
+      <c r="R124">
+        <v>2.77</v>
+      </c>
+      <c r="S124">
+        <v>3.89</v>
+      </c>
+      <c r="T124">
+        <v>1.18</v>
+      </c>
+      <c r="U124">
+        <v>4.4</v>
+      </c>
+      <c r="V124">
+        <v>1.94</v>
+      </c>
+      <c r="W124">
+        <v>1.86</v>
+      </c>
+      <c r="X124">
+        <v>3.95</v>
+      </c>
+      <c r="Y124">
+        <v>1.21</v>
+      </c>
+      <c r="Z124">
+        <v>1.87</v>
+      </c>
+      <c r="AA124">
+        <v>4.2</v>
+      </c>
+      <c r="AB124">
+        <v>3.5</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <v>1.09</v>
+      </c>
+      <c r="AF124">
+        <v>7</v>
+      </c>
+      <c r="AG124">
+        <v>1.33</v>
+      </c>
+      <c r="AH124">
+        <v>3.25</v>
+      </c>
+      <c r="AI124">
+        <v>1.35</v>
+      </c>
+      <c r="AJ124">
+        <v>3.1</v>
+      </c>
+      <c r="AK124">
+        <v>1.3</v>
+      </c>
+      <c r="AL124">
+        <v>1.18</v>
+      </c>
+      <c r="AM124">
+        <v>1.95</v>
+      </c>
+      <c r="AN124">
+        <v>2.17</v>
+      </c>
+      <c r="AO124">
+        <v>1.67</v>
+      </c>
+      <c r="AP124">
+        <v>2.29</v>
+      </c>
+      <c r="AQ124">
+        <v>1.43</v>
+      </c>
+      <c r="AR124">
+        <v>1.75</v>
+      </c>
+      <c r="AS124">
+        <v>1.42</v>
+      </c>
+      <c r="AT124">
+        <v>3.17</v>
+      </c>
+      <c r="AU124">
+        <v>9</v>
+      </c>
+      <c r="AV124">
+        <v>4</v>
+      </c>
+      <c r="AW124">
+        <v>6</v>
+      </c>
+      <c r="AX124">
+        <v>5</v>
+      </c>
+      <c r="AY124">
+        <v>20</v>
+      </c>
+      <c r="AZ124">
+        <v>10</v>
+      </c>
+      <c r="BA124">
+        <v>6</v>
+      </c>
+      <c r="BB124">
+        <v>4</v>
+      </c>
+      <c r="BC124">
+        <v>10</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>0</v>
+      </c>
+      <c r="BG124">
+        <v>0</v>
+      </c>
+      <c r="BH124">
+        <v>0</v>
+      </c>
+      <c r="BI124">
+        <v>0</v>
+      </c>
+      <c r="BJ124">
+        <v>0</v>
+      </c>
+      <c r="BK124">
+        <v>0</v>
+      </c>
+      <c r="BL124">
+        <v>0</v>
+      </c>
+      <c r="BM124">
+        <v>0</v>
+      </c>
+      <c r="BN124">
+        <v>0</v>
+      </c>
+      <c r="BO124">
+        <v>0</v>
+      </c>
+      <c r="BP124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7465522</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45597.66666666666</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" t="s">
+        <v>76</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>3</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>4</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P125" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q125">
+        <v>4.37</v>
+      </c>
+      <c r="R125">
+        <v>2.5</v>
+      </c>
+      <c r="S125">
+        <v>2.31</v>
+      </c>
+      <c r="T125">
+        <v>1.26</v>
+      </c>
+      <c r="U125">
+        <v>3.5</v>
+      </c>
+      <c r="V125">
+        <v>2.34</v>
+      </c>
+      <c r="W125">
+        <v>1.56</v>
+      </c>
+      <c r="X125">
+        <v>4.95</v>
+      </c>
+      <c r="Y125">
+        <v>1.14</v>
+      </c>
+      <c r="Z125">
+        <v>4</v>
+      </c>
+      <c r="AA125">
+        <v>4</v>
+      </c>
+      <c r="AB125">
+        <v>1.8</v>
+      </c>
+      <c r="AC125">
+        <v>1.02</v>
+      </c>
+      <c r="AD125">
+        <v>17</v>
+      </c>
+      <c r="AE125">
+        <v>1.18</v>
+      </c>
+      <c r="AF125">
+        <v>4.75</v>
+      </c>
+      <c r="AG125">
+        <v>1.57</v>
+      </c>
+      <c r="AH125">
+        <v>2.35</v>
+      </c>
+      <c r="AI125">
+        <v>1.55</v>
+      </c>
+      <c r="AJ125">
+        <v>2.4</v>
+      </c>
+      <c r="AK125">
+        <v>2</v>
+      </c>
+      <c r="AL125">
+        <v>1.2</v>
+      </c>
+      <c r="AM125">
+        <v>1.25</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
+        <v>1.2</v>
+      </c>
+      <c r="AP125">
+        <v>0.83</v>
+      </c>
+      <c r="AQ125">
+        <v>1.5</v>
+      </c>
+      <c r="AR125">
+        <v>1.31</v>
+      </c>
+      <c r="AS125">
+        <v>1.6</v>
+      </c>
+      <c r="AT125">
+        <v>2.91</v>
+      </c>
+      <c r="AU125">
+        <v>5</v>
+      </c>
+      <c r="AV125">
+        <v>7</v>
+      </c>
+      <c r="AW125">
+        <v>4</v>
+      </c>
+      <c r="AX125">
+        <v>4</v>
+      </c>
+      <c r="AY125">
+        <v>10</v>
+      </c>
+      <c r="AZ125">
+        <v>13</v>
+      </c>
+      <c r="BA125">
+        <v>2</v>
+      </c>
+      <c r="BB125">
+        <v>6</v>
+      </c>
+      <c r="BC125">
+        <v>8</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>0</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>0</v>
+      </c>
+      <c r="BI125">
+        <v>0</v>
+      </c>
+      <c r="BJ125">
+        <v>0</v>
+      </c>
+      <c r="BK125">
+        <v>0</v>
+      </c>
+      <c r="BL125">
+        <v>0</v>
+      </c>
+      <c r="BM125">
+        <v>0</v>
+      </c>
+      <c r="BN125">
+        <v>0</v>
+      </c>
+      <c r="BO125">
+        <v>0</v>
+      </c>
+      <c r="BP125">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,15 @@
     <t>['8', '33', '84', '90+3']</t>
   </si>
   <si>
+    <t>['38', '54']</t>
+  </si>
+  <si>
+    <t>['28', '30', '76', '90+6']</t>
+  </si>
+  <si>
+    <t>['59', '90+2']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -770,6 +779,15 @@
   </si>
   <si>
     <t>['18', '32', '34', '67']</t>
+  </si>
+  <si>
+    <t>['32', '64']</t>
+  </si>
+  <si>
+    <t>['47', '63', '71']</t>
+  </si>
+  <si>
+    <t>['41', '44', '48']</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1596,7 +1614,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1802,7 +1820,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1880,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -2008,7 +2026,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2214,7 +2232,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2295,7 +2313,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2420,7 +2438,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2498,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ7">
         <v>1.71</v>
@@ -2626,7 +2644,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2832,7 +2850,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2913,7 +2931,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3038,7 +3056,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3119,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3244,7 +3262,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3322,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3656,7 +3674,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3734,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -3943,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4274,7 +4292,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4352,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ16">
         <v>1.71</v>
@@ -4558,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ17">
         <v>1.17</v>
@@ -5098,7 +5116,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5179,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5385,7 +5403,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6000,10 +6018,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR24">
         <v>2.49</v>
@@ -6128,7 +6146,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6334,7 +6352,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6415,7 +6433,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ26">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR26">
         <v>1.18</v>
@@ -6540,7 +6558,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6824,10 +6842,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR28">
         <v>1.82</v>
@@ -6952,7 +6970,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7033,7 +7051,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ29">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7364,7 +7382,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7442,7 +7460,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ31">
         <v>1.71</v>
@@ -7648,7 +7666,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ32">
         <v>1.43</v>
@@ -7854,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33">
         <v>1.17</v>
@@ -7982,7 +8000,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8188,7 +8206,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8266,10 +8284,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ35">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR35">
         <v>0.8</v>
@@ -8472,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ36">
         <v>1.17</v>
@@ -8806,7 +8824,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8887,7 +8905,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR38">
         <v>1.6</v>
@@ -9012,7 +9030,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9299,7 +9317,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>1.64</v>
@@ -9424,7 +9442,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9914,10 +9932,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR43">
         <v>1.9</v>
@@ -10042,7 +10060,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10248,7 +10266,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10454,7 +10472,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10660,7 +10678,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10866,7 +10884,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10947,7 +10965,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR48">
         <v>1.9</v>
@@ -11278,7 +11296,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11484,7 +11502,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11690,7 +11708,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11771,7 +11789,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ52">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -11974,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ53">
         <v>1.5</v>
@@ -12183,7 +12201,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ54">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR54">
         <v>1.99</v>
@@ -12514,7 +12532,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12798,10 +12816,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ57">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR57">
         <v>1.47</v>
@@ -12926,7 +12944,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13004,7 +13022,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ58">
         <v>1.67</v>
@@ -13132,7 +13150,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13210,7 +13228,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ59">
         <v>1.5</v>
@@ -13544,7 +13562,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13750,7 +13768,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13956,7 +13974,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14034,10 +14052,10 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14240,10 +14258,10 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ64">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR64">
         <v>2.12</v>
@@ -14574,7 +14592,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14655,7 +14673,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR66">
         <v>1.48</v>
@@ -14861,7 +14879,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR67">
         <v>1.6</v>
@@ -14986,7 +15004,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15064,7 +15082,7 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ68">
         <v>1.5</v>
@@ -15192,7 +15210,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15398,7 +15416,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15604,7 +15622,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15682,7 +15700,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ71">
         <v>2.14</v>
@@ -15810,7 +15828,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16016,7 +16034,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16097,7 +16115,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.77</v>
@@ -16222,7 +16240,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16428,7 +16446,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16715,7 +16733,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ76">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -16918,7 +16936,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ77">
         <v>1.67</v>
@@ -17046,7 +17064,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17252,7 +17270,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17333,7 +17351,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ79">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -17664,7 +17682,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17742,7 +17760,7 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ81">
         <v>2.67</v>
@@ -18076,7 +18094,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18154,10 +18172,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ83">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18282,7 +18300,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18569,7 +18587,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR85">
         <v>1.66</v>
@@ -18772,7 +18790,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ86">
         <v>1.71</v>
@@ -18900,7 +18918,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19106,7 +19124,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19187,7 +19205,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ88">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR88">
         <v>1.89</v>
@@ -19518,7 +19536,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19596,7 +19614,7 @@
         <v>1.33</v>
       </c>
       <c r="AP90">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ90">
         <v>1.5</v>
@@ -19802,7 +19820,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ91">
         <v>1.5</v>
@@ -19930,7 +19948,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20008,7 +20026,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ92">
         <v>1.5</v>
@@ -20342,7 +20360,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20548,7 +20566,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20754,7 +20772,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20960,7 +20978,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21041,7 +21059,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ97">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR97">
         <v>1.77</v>
@@ -21372,7 +21390,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21453,7 +21471,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ99">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR99">
         <v>1.31</v>
@@ -21656,7 +21674,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ100">
         <v>1.33</v>
@@ -21784,7 +21802,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21865,7 +21883,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR101">
         <v>1.83</v>
@@ -21990,7 +22008,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22277,7 +22295,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ103">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -22402,7 +22420,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22480,10 +22498,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ104">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -22814,7 +22832,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22892,10 +22910,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ106">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR106">
         <v>1.87</v>
@@ -23307,7 +23325,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ108">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR108">
         <v>1.82</v>
@@ -23432,7 +23450,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23510,7 +23528,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ109">
         <v>1.17</v>
@@ -23638,7 +23656,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23844,7 +23862,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24050,7 +24068,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24462,7 +24480,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24668,7 +24686,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24874,7 +24892,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25080,7 +25098,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25158,7 +25176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ117">
         <v>1.71</v>
@@ -25286,7 +25304,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25492,7 +25510,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25698,7 +25716,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25904,7 +25922,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26080,7 +26098,7 @@
         <v>45597.66666666666</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
         <v>78</v>
@@ -26110,7 +26128,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26286,7 +26304,7 @@
         <v>45597.66666666666</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
         <v>89</v>
@@ -26316,7 +26334,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26522,7 +26540,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26698,7 +26716,7 @@
         <v>45597.66666666666</v>
       </c>
       <c r="F125">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G125" t="s">
         <v>70</v>
@@ -26728,7 +26746,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -26885,6 +26903,1242 @@
       </c>
       <c r="BP125">
         <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7465527</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45598.52083333334</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>75</v>
+      </c>
+      <c r="H126" t="s">
+        <v>74</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126" t="s">
+        <v>93</v>
+      </c>
+      <c r="P126" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q126">
+        <v>2</v>
+      </c>
+      <c r="R126">
+        <v>2.45</v>
+      </c>
+      <c r="S126">
+        <v>4.75</v>
+      </c>
+      <c r="T126">
+        <v>1.25</v>
+      </c>
+      <c r="U126">
+        <v>3.45</v>
+      </c>
+      <c r="V126">
+        <v>2.25</v>
+      </c>
+      <c r="W126">
+        <v>1.57</v>
+      </c>
+      <c r="X126">
+        <v>5</v>
+      </c>
+      <c r="Y126">
+        <v>1.15</v>
+      </c>
+      <c r="Z126">
+        <v>1.55</v>
+      </c>
+      <c r="AA126">
+        <v>4.33</v>
+      </c>
+      <c r="AB126">
+        <v>5.25</v>
+      </c>
+      <c r="AC126">
+        <v>1.01</v>
+      </c>
+      <c r="AD126">
+        <v>13</v>
+      </c>
+      <c r="AE126">
+        <v>1.17</v>
+      </c>
+      <c r="AF126">
+        <v>5</v>
+      </c>
+      <c r="AG126">
+        <v>1.53</v>
+      </c>
+      <c r="AH126">
+        <v>2.45</v>
+      </c>
+      <c r="AI126">
+        <v>1.57</v>
+      </c>
+      <c r="AJ126">
+        <v>2.2</v>
+      </c>
+      <c r="AK126">
+        <v>1.15</v>
+      </c>
+      <c r="AL126">
+        <v>1.17</v>
+      </c>
+      <c r="AM126">
+        <v>2.35</v>
+      </c>
+      <c r="AN126">
+        <v>0.5</v>
+      </c>
+      <c r="AO126">
+        <v>0.4</v>
+      </c>
+      <c r="AP126">
+        <v>0.57</v>
+      </c>
+      <c r="AQ126">
+        <v>0.5</v>
+      </c>
+      <c r="AR126">
+        <v>1.62</v>
+      </c>
+      <c r="AS126">
+        <v>0.96</v>
+      </c>
+      <c r="AT126">
+        <v>2.58</v>
+      </c>
+      <c r="AU126">
+        <v>4</v>
+      </c>
+      <c r="AV126">
+        <v>6</v>
+      </c>
+      <c r="AW126">
+        <v>6</v>
+      </c>
+      <c r="AX126">
+        <v>4</v>
+      </c>
+      <c r="AY126">
+        <v>14</v>
+      </c>
+      <c r="AZ126">
+        <v>13</v>
+      </c>
+      <c r="BA126">
+        <v>3</v>
+      </c>
+      <c r="BB126">
+        <v>7</v>
+      </c>
+      <c r="BC126">
+        <v>10</v>
+      </c>
+      <c r="BD126">
+        <v>1.3</v>
+      </c>
+      <c r="BE126">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF126">
+        <v>4.05</v>
+      </c>
+      <c r="BG126">
+        <v>0</v>
+      </c>
+      <c r="BH126">
+        <v>0</v>
+      </c>
+      <c r="BI126">
+        <v>1.22</v>
+      </c>
+      <c r="BJ126">
+        <v>3.8</v>
+      </c>
+      <c r="BK126">
+        <v>1.44</v>
+      </c>
+      <c r="BL126">
+        <v>2.55</v>
+      </c>
+      <c r="BM126">
+        <v>1.75</v>
+      </c>
+      <c r="BN126">
+        <v>1.92</v>
+      </c>
+      <c r="BO126">
+        <v>2.25</v>
+      </c>
+      <c r="BP126">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7465528</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45598.52083333334</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>85</v>
+      </c>
+      <c r="H127" t="s">
+        <v>82</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>145</v>
+      </c>
+      <c r="P127" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q127">
+        <v>2.85</v>
+      </c>
+      <c r="R127">
+        <v>2.3</v>
+      </c>
+      <c r="S127">
+        <v>3.4</v>
+      </c>
+      <c r="T127">
+        <v>1.29</v>
+      </c>
+      <c r="U127">
+        <v>3.3</v>
+      </c>
+      <c r="V127">
+        <v>2.45</v>
+      </c>
+      <c r="W127">
+        <v>1.49</v>
+      </c>
+      <c r="X127">
+        <v>5.9</v>
+      </c>
+      <c r="Y127">
+        <v>1.1</v>
+      </c>
+      <c r="Z127">
+        <v>2.3</v>
+      </c>
+      <c r="AA127">
+        <v>3.6</v>
+      </c>
+      <c r="AB127">
+        <v>2.9</v>
+      </c>
+      <c r="AC127">
+        <v>1.02</v>
+      </c>
+      <c r="AD127">
+        <v>15</v>
+      </c>
+      <c r="AE127">
+        <v>1.22</v>
+      </c>
+      <c r="AF127">
+        <v>4.2</v>
+      </c>
+      <c r="AG127">
+        <v>1.7</v>
+      </c>
+      <c r="AH127">
+        <v>2.15</v>
+      </c>
+      <c r="AI127">
+        <v>1.57</v>
+      </c>
+      <c r="AJ127">
+        <v>2.3</v>
+      </c>
+      <c r="AK127">
+        <v>1.42</v>
+      </c>
+      <c r="AL127">
+        <v>1.22</v>
+      </c>
+      <c r="AM127">
+        <v>1.65</v>
+      </c>
+      <c r="AN127">
+        <v>2.33</v>
+      </c>
+      <c r="AO127">
+        <v>0.86</v>
+      </c>
+      <c r="AP127">
+        <v>2.14</v>
+      </c>
+      <c r="AQ127">
+        <v>0.88</v>
+      </c>
+      <c r="AR127">
+        <v>1.8</v>
+      </c>
+      <c r="AS127">
+        <v>1.68</v>
+      </c>
+      <c r="AT127">
+        <v>3.48</v>
+      </c>
+      <c r="AU127">
+        <v>8</v>
+      </c>
+      <c r="AV127">
+        <v>5</v>
+      </c>
+      <c r="AW127">
+        <v>3</v>
+      </c>
+      <c r="AX127">
+        <v>6</v>
+      </c>
+      <c r="AY127">
+        <v>15</v>
+      </c>
+      <c r="AZ127">
+        <v>16</v>
+      </c>
+      <c r="BA127">
+        <v>9</v>
+      </c>
+      <c r="BB127">
+        <v>3</v>
+      </c>
+      <c r="BC127">
+        <v>12</v>
+      </c>
+      <c r="BD127">
+        <v>1.9</v>
+      </c>
+      <c r="BE127">
+        <v>6</v>
+      </c>
+      <c r="BF127">
+        <v>2.3</v>
+      </c>
+      <c r="BG127">
+        <v>1.18</v>
+      </c>
+      <c r="BH127">
+        <v>4.6</v>
+      </c>
+      <c r="BI127">
+        <v>1.32</v>
+      </c>
+      <c r="BJ127">
+        <v>3</v>
+      </c>
+      <c r="BK127">
+        <v>1.58</v>
+      </c>
+      <c r="BL127">
+        <v>2.2</v>
+      </c>
+      <c r="BM127">
+        <v>2</v>
+      </c>
+      <c r="BN127">
+        <v>1.7</v>
+      </c>
+      <c r="BO127">
+        <v>2.65</v>
+      </c>
+      <c r="BP127">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7465526</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45599.4375</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>81</v>
+      </c>
+      <c r="H128" t="s">
+        <v>88</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128" t="s">
+        <v>176</v>
+      </c>
+      <c r="P128" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q128">
+        <v>3</v>
+      </c>
+      <c r="R128">
+        <v>2.4</v>
+      </c>
+      <c r="S128">
+        <v>3.1</v>
+      </c>
+      <c r="T128">
+        <v>1.29</v>
+      </c>
+      <c r="U128">
+        <v>3.5</v>
+      </c>
+      <c r="V128">
+        <v>2.25</v>
+      </c>
+      <c r="W128">
+        <v>1.57</v>
+      </c>
+      <c r="X128">
+        <v>5.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.14</v>
+      </c>
+      <c r="Z128">
+        <v>2.28</v>
+      </c>
+      <c r="AA128">
+        <v>3.68</v>
+      </c>
+      <c r="AB128">
+        <v>2.64</v>
+      </c>
+      <c r="AC128">
+        <v>1.01</v>
+      </c>
+      <c r="AD128">
+        <v>15</v>
+      </c>
+      <c r="AE128">
+        <v>1.16</v>
+      </c>
+      <c r="AF128">
+        <v>5</v>
+      </c>
+      <c r="AG128">
+        <v>1.53</v>
+      </c>
+      <c r="AH128">
+        <v>2.4</v>
+      </c>
+      <c r="AI128">
+        <v>1.5</v>
+      </c>
+      <c r="AJ128">
+        <v>2.5</v>
+      </c>
+      <c r="AK128">
+        <v>1.47</v>
+      </c>
+      <c r="AL128">
+        <v>1.22</v>
+      </c>
+      <c r="AM128">
+        <v>1.57</v>
+      </c>
+      <c r="AN128">
+        <v>1.2</v>
+      </c>
+      <c r="AO128">
+        <v>1.67</v>
+      </c>
+      <c r="AP128">
+        <v>1.17</v>
+      </c>
+      <c r="AQ128">
+        <v>1.57</v>
+      </c>
+      <c r="AR128">
+        <v>1.75</v>
+      </c>
+      <c r="AS128">
+        <v>1.58</v>
+      </c>
+      <c r="AT128">
+        <v>3.33</v>
+      </c>
+      <c r="AU128">
+        <v>7</v>
+      </c>
+      <c r="AV128">
+        <v>7</v>
+      </c>
+      <c r="AW128">
+        <v>4</v>
+      </c>
+      <c r="AX128">
+        <v>6</v>
+      </c>
+      <c r="AY128">
+        <v>15</v>
+      </c>
+      <c r="AZ128">
+        <v>17</v>
+      </c>
+      <c r="BA128">
+        <v>3</v>
+      </c>
+      <c r="BB128">
+        <v>7</v>
+      </c>
+      <c r="BC128">
+        <v>10</v>
+      </c>
+      <c r="BD128">
+        <v>1.58</v>
+      </c>
+      <c r="BE128">
+        <v>7.5</v>
+      </c>
+      <c r="BF128">
+        <v>2.72</v>
+      </c>
+      <c r="BG128">
+        <v>0</v>
+      </c>
+      <c r="BH128">
+        <v>0</v>
+      </c>
+      <c r="BI128">
+        <v>1.26</v>
+      </c>
+      <c r="BJ128">
+        <v>3.45</v>
+      </c>
+      <c r="BK128">
+        <v>1.48</v>
+      </c>
+      <c r="BL128">
+        <v>2.45</v>
+      </c>
+      <c r="BM128">
+        <v>1.82</v>
+      </c>
+      <c r="BN128">
+        <v>1.85</v>
+      </c>
+      <c r="BO128">
+        <v>2.35</v>
+      </c>
+      <c r="BP128">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7465530</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45599.53125</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>72</v>
+      </c>
+      <c r="H129" t="s">
+        <v>83</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>93</v>
+      </c>
+      <c r="P129" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q129">
+        <v>3</v>
+      </c>
+      <c r="R129">
+        <v>2.3</v>
+      </c>
+      <c r="S129">
+        <v>3.1</v>
+      </c>
+      <c r="T129">
+        <v>1.3</v>
+      </c>
+      <c r="U129">
+        <v>3.4</v>
+      </c>
+      <c r="V129">
+        <v>2.5</v>
+      </c>
+      <c r="W129">
+        <v>1.5</v>
+      </c>
+      <c r="X129">
+        <v>6</v>
+      </c>
+      <c r="Y129">
+        <v>1.13</v>
+      </c>
+      <c r="Z129">
+        <v>2.53</v>
+      </c>
+      <c r="AA129">
+        <v>3.35</v>
+      </c>
+      <c r="AB129">
+        <v>2.52</v>
+      </c>
+      <c r="AC129">
+        <v>1.02</v>
+      </c>
+      <c r="AD129">
+        <v>17</v>
+      </c>
+      <c r="AE129">
+        <v>1.18</v>
+      </c>
+      <c r="AF129">
+        <v>4.75</v>
+      </c>
+      <c r="AG129">
+        <v>1.62</v>
+      </c>
+      <c r="AH129">
+        <v>2.15</v>
+      </c>
+      <c r="AI129">
+        <v>1.53</v>
+      </c>
+      <c r="AJ129">
+        <v>2.38</v>
+      </c>
+      <c r="AK129">
+        <v>1.53</v>
+      </c>
+      <c r="AL129">
+        <v>1.22</v>
+      </c>
+      <c r="AM129">
+        <v>1.52</v>
+      </c>
+      <c r="AN129">
+        <v>1.83</v>
+      </c>
+      <c r="AO129">
+        <v>1.33</v>
+      </c>
+      <c r="AP129">
+        <v>1.57</v>
+      </c>
+      <c r="AQ129">
+        <v>1.57</v>
+      </c>
+      <c r="AR129">
+        <v>1.74</v>
+      </c>
+      <c r="AS129">
+        <v>1.86</v>
+      </c>
+      <c r="AT129">
+        <v>3.6</v>
+      </c>
+      <c r="AU129">
+        <v>3</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>4</v>
+      </c>
+      <c r="AX129">
+        <v>8</v>
+      </c>
+      <c r="AY129">
+        <v>8</v>
+      </c>
+      <c r="AZ129">
+        <v>17</v>
+      </c>
+      <c r="BA129">
+        <v>2</v>
+      </c>
+      <c r="BB129">
+        <v>9</v>
+      </c>
+      <c r="BC129">
+        <v>11</v>
+      </c>
+      <c r="BD129">
+        <v>2.3</v>
+      </c>
+      <c r="BE129">
+        <v>7</v>
+      </c>
+      <c r="BF129">
+        <v>1.8</v>
+      </c>
+      <c r="BG129">
+        <v>1.17</v>
+      </c>
+      <c r="BH129">
+        <v>4.3</v>
+      </c>
+      <c r="BI129">
+        <v>1.35</v>
+      </c>
+      <c r="BJ129">
+        <v>2.9</v>
+      </c>
+      <c r="BK129">
+        <v>1.62</v>
+      </c>
+      <c r="BL129">
+        <v>2.12</v>
+      </c>
+      <c r="BM129">
+        <v>2.08</v>
+      </c>
+      <c r="BN129">
+        <v>1.65</v>
+      </c>
+      <c r="BO129">
+        <v>2.75</v>
+      </c>
+      <c r="BP129">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7465531</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45600.66666666666</v>
+      </c>
+      <c r="F130">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>84</v>
+      </c>
+      <c r="H130" t="s">
+        <v>73</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+      <c r="N130">
+        <v>7</v>
+      </c>
+      <c r="O130" t="s">
+        <v>177</v>
+      </c>
+      <c r="P130" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q130">
+        <v>3</v>
+      </c>
+      <c r="R130">
+        <v>2.3</v>
+      </c>
+      <c r="S130">
+        <v>3.2</v>
+      </c>
+      <c r="T130">
+        <v>1.3</v>
+      </c>
+      <c r="U130">
+        <v>3.4</v>
+      </c>
+      <c r="V130">
+        <v>2.5</v>
+      </c>
+      <c r="W130">
+        <v>1.5</v>
+      </c>
+      <c r="X130">
+        <v>6</v>
+      </c>
+      <c r="Y130">
+        <v>1.13</v>
+      </c>
+      <c r="Z130">
+        <v>2.45</v>
+      </c>
+      <c r="AA130">
+        <v>3.4</v>
+      </c>
+      <c r="AB130">
+        <v>2.63</v>
+      </c>
+      <c r="AC130">
+        <v>1.02</v>
+      </c>
+      <c r="AD130">
+        <v>15</v>
+      </c>
+      <c r="AE130">
+        <v>1.22</v>
+      </c>
+      <c r="AF130">
+        <v>4.2</v>
+      </c>
+      <c r="AG130">
+        <v>1.65</v>
+      </c>
+      <c r="AH130">
+        <v>2.2</v>
+      </c>
+      <c r="AI130">
+        <v>1.53</v>
+      </c>
+      <c r="AJ130">
+        <v>2.38</v>
+      </c>
+      <c r="AK130">
+        <v>1.5</v>
+      </c>
+      <c r="AL130">
+        <v>1.25</v>
+      </c>
+      <c r="AM130">
+        <v>1.55</v>
+      </c>
+      <c r="AN130">
+        <v>0.17</v>
+      </c>
+      <c r="AO130">
+        <v>0.5</v>
+      </c>
+      <c r="AP130">
+        <v>0.57</v>
+      </c>
+      <c r="AQ130">
+        <v>0.43</v>
+      </c>
+      <c r="AR130">
+        <v>1.33</v>
+      </c>
+      <c r="AS130">
+        <v>1.24</v>
+      </c>
+      <c r="AT130">
+        <v>2.57</v>
+      </c>
+      <c r="AU130">
+        <v>11</v>
+      </c>
+      <c r="AV130">
+        <v>5</v>
+      </c>
+      <c r="AW130">
+        <v>8</v>
+      </c>
+      <c r="AX130">
+        <v>2</v>
+      </c>
+      <c r="AY130">
+        <v>24</v>
+      </c>
+      <c r="AZ130">
+        <v>7</v>
+      </c>
+      <c r="BA130">
+        <v>12</v>
+      </c>
+      <c r="BB130">
+        <v>4</v>
+      </c>
+      <c r="BC130">
+        <v>16</v>
+      </c>
+      <c r="BD130">
+        <v>1.85</v>
+      </c>
+      <c r="BE130">
+        <v>7</v>
+      </c>
+      <c r="BF130">
+        <v>2.25</v>
+      </c>
+      <c r="BG130">
+        <v>1.19</v>
+      </c>
+      <c r="BH130">
+        <v>4.05</v>
+      </c>
+      <c r="BI130">
+        <v>1.39</v>
+      </c>
+      <c r="BJ130">
+        <v>2.75</v>
+      </c>
+      <c r="BK130">
+        <v>1.68</v>
+      </c>
+      <c r="BL130">
+        <v>2.02</v>
+      </c>
+      <c r="BM130">
+        <v>2.18</v>
+      </c>
+      <c r="BN130">
+        <v>1.6</v>
+      </c>
+      <c r="BO130">
+        <v>2.92</v>
+      </c>
+      <c r="BP130">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7465532</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45600.67708333334</v>
+      </c>
+      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>79</v>
+      </c>
+      <c r="H131" t="s">
+        <v>71</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+      <c r="N131">
+        <v>5</v>
+      </c>
+      <c r="O131" t="s">
+        <v>178</v>
+      </c>
+      <c r="P131" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q131">
+        <v>3.75</v>
+      </c>
+      <c r="R131">
+        <v>2.5</v>
+      </c>
+      <c r="S131">
+        <v>2.4</v>
+      </c>
+      <c r="T131">
+        <v>1.25</v>
+      </c>
+      <c r="U131">
+        <v>3.75</v>
+      </c>
+      <c r="V131">
+        <v>2.1</v>
+      </c>
+      <c r="W131">
+        <v>1.67</v>
+      </c>
+      <c r="X131">
+        <v>4.5</v>
+      </c>
+      <c r="Y131">
+        <v>1.18</v>
+      </c>
+      <c r="Z131">
+        <v>3.5</v>
+      </c>
+      <c r="AA131">
+        <v>3.9</v>
+      </c>
+      <c r="AB131">
+        <v>1.9</v>
+      </c>
+      <c r="AC131">
+        <v>1.01</v>
+      </c>
+      <c r="AD131">
+        <v>17</v>
+      </c>
+      <c r="AE131">
+        <v>1.14</v>
+      </c>
+      <c r="AF131">
+        <v>5.5</v>
+      </c>
+      <c r="AG131">
+        <v>1.48</v>
+      </c>
+      <c r="AH131">
+        <v>2.6</v>
+      </c>
+      <c r="AI131">
+        <v>1.44</v>
+      </c>
+      <c r="AJ131">
+        <v>2.63</v>
+      </c>
+      <c r="AK131">
+        <v>1.9</v>
+      </c>
+      <c r="AL131">
+        <v>1.2</v>
+      </c>
+      <c r="AM131">
+        <v>1.3</v>
+      </c>
+      <c r="AN131">
+        <v>0.4</v>
+      </c>
+      <c r="AO131">
+        <v>2.4</v>
+      </c>
+      <c r="AP131">
+        <v>0.33</v>
+      </c>
+      <c r="AQ131">
+        <v>2.5</v>
+      </c>
+      <c r="AR131">
+        <v>1.6</v>
+      </c>
+      <c r="AS131">
+        <v>1.72</v>
+      </c>
+      <c r="AT131">
+        <v>3.32</v>
+      </c>
+      <c r="AU131">
+        <v>7</v>
+      </c>
+      <c r="AV131">
+        <v>10</v>
+      </c>
+      <c r="AW131">
+        <v>5</v>
+      </c>
+      <c r="AX131">
+        <v>8</v>
+      </c>
+      <c r="AY131">
+        <v>13</v>
+      </c>
+      <c r="AZ131">
+        <v>22</v>
+      </c>
+      <c r="BA131">
+        <v>1</v>
+      </c>
+      <c r="BB131">
+        <v>9</v>
+      </c>
+      <c r="BC131">
+        <v>10</v>
+      </c>
+      <c r="BD131">
+        <v>2.48</v>
+      </c>
+      <c r="BE131">
+        <v>6.1</v>
+      </c>
+      <c r="BF131">
+        <v>1.78</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>1.26</v>
+      </c>
+      <c r="BJ131">
+        <v>3.45</v>
+      </c>
+      <c r="BK131">
+        <v>1.48</v>
+      </c>
+      <c r="BL131">
+        <v>2.45</v>
+      </c>
+      <c r="BM131">
+        <v>1.82</v>
+      </c>
+      <c r="BN131">
+        <v>1.85</v>
+      </c>
+      <c r="BO131">
+        <v>2.35</v>
+      </c>
+      <c r="BP131">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -27746,7 +27746,7 @@
         <v>45600.66666666666</v>
       </c>
       <c r="F130">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G130" t="s">
         <v>84</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,21 @@
     <t>['59', '90+2']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['31', '48', '54', '90+4']</t>
+  </si>
+  <si>
+    <t>['39', '45+1']</t>
+  </si>
+  <si>
+    <t>['35', '89']</t>
+  </si>
+  <si>
+    <t>['72', '85']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -788,6 +803,12 @@
   </si>
   <si>
     <t>['41', '44', '48']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['12', '19']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1510,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1614,7 +1635,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1692,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ3">
         <v>1.43</v>
@@ -1820,7 +1841,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1901,7 +1922,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2026,7 +2047,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2104,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5">
         <v>2.14</v>
@@ -2232,7 +2253,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2310,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ6">
         <v>1.57</v>
@@ -2438,7 +2459,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2644,7 +2665,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2722,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>1.17</v>
@@ -2850,7 +2871,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3056,7 +3077,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3262,7 +3283,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3343,7 +3364,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3546,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3674,7 +3695,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3755,7 +3776,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4164,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4292,7 +4313,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4373,7 +4394,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ16">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4579,7 +4600,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4988,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>2.67</v>
@@ -5116,7 +5137,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5194,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ20">
         <v>2.5</v>
@@ -5606,7 +5627,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ22">
         <v>2.14</v>
@@ -5812,7 +5833,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ23">
         <v>2.67</v>
@@ -6146,7 +6167,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6227,7 +6248,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR25">
         <v>1.58</v>
@@ -6352,7 +6373,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6430,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1.57</v>
@@ -6558,7 +6579,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6639,7 +6660,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -6970,7 +6991,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7048,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29">
         <v>0.88</v>
@@ -7382,7 +7403,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7669,7 +7690,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ32">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -7875,7 +7896,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ33">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR33">
         <v>1.26</v>
@@ -8000,7 +8021,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8078,10 +8099,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>1.12</v>
@@ -8206,7 +8227,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8824,7 +8845,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8902,7 +8923,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1.57</v>
@@ -9030,7 +9051,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9111,7 +9132,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR39">
         <v>2.22</v>
@@ -9314,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ40">
         <v>0.5</v>
@@ -9442,7 +9463,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9523,7 +9544,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9729,7 +9750,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ42">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -10060,7 +10081,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10138,10 +10159,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR44">
         <v>2.05</v>
@@ -10266,7 +10287,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10344,10 +10365,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
+        <v>0.5</v>
+      </c>
+      <c r="AQ45">
         <v>0.57</v>
-      </c>
-      <c r="AQ45">
-        <v>0.67</v>
       </c>
       <c r="AR45">
         <v>1.68</v>
@@ -10472,7 +10493,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10550,10 +10571,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ46">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>1.3</v>
@@ -10678,7 +10699,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10759,7 +10780,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR47">
         <v>2.09</v>
@@ -10884,7 +10905,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10962,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
         <v>1.57</v>
@@ -11296,7 +11317,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11502,7 +11523,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11580,7 +11601,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ51">
         <v>1.71</v>
@@ -11708,7 +11729,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11786,7 +11807,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ52">
         <v>0.88</v>
@@ -12198,7 +12219,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>0.88</v>
@@ -12404,7 +12425,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ55">
         <v>1.17</v>
@@ -12532,7 +12553,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12610,10 +12631,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR56">
         <v>1.88</v>
@@ -12944,7 +12965,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13025,7 +13046,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ58">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR58">
         <v>1.06</v>
@@ -13150,7 +13171,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13434,7 +13455,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ60">
         <v>1.43</v>
@@ -13562,7 +13583,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13643,7 +13664,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ61">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR61">
         <v>1.96</v>
@@ -13768,7 +13789,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13846,10 +13867,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ62">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.68</v>
@@ -13974,7 +13995,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14464,7 +14485,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>1.71</v>
@@ -14592,7 +14613,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15004,7 +15025,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15085,7 +15106,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15210,7 +15231,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15288,10 +15309,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15416,7 +15437,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15497,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR70">
         <v>1.9</v>
@@ -15622,7 +15643,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15828,7 +15849,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15906,7 +15927,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ72">
         <v>1.17</v>
@@ -16034,7 +16055,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16112,7 +16133,7 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -16240,7 +16261,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16318,10 +16339,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ74">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR74">
         <v>1.75</v>
@@ -16446,7 +16467,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16524,10 +16545,10 @@
         <v>0.67</v>
       </c>
       <c r="AP75">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR75">
         <v>1.48</v>
@@ -16939,7 +16960,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ77">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR77">
         <v>1.86</v>
@@ -17064,7 +17085,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17145,7 +17166,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ78">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17270,7 +17291,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17348,7 +17369,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>2.5</v>
@@ -17682,7 +17703,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17966,7 +17987,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ82">
         <v>2.14</v>
@@ -18094,7 +18115,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18300,7 +18321,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18378,7 +18399,7 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ84">
         <v>1.5</v>
@@ -18918,7 +18939,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -18999,7 +19020,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR87">
         <v>1.95</v>
@@ -19124,7 +19145,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19202,7 +19223,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ88">
         <v>0.43</v>
@@ -19411,7 +19432,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR89">
         <v>1.66</v>
@@ -19536,7 +19557,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19617,7 +19638,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ90">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR90">
         <v>1.95</v>
@@ -19823,7 +19844,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR91">
         <v>1.69</v>
@@ -19948,7 +19969,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20029,7 +20050,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR92">
         <v>1.75</v>
@@ -20232,7 +20253,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ93">
         <v>1.17</v>
@@ -20360,7 +20381,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20566,7 +20587,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20644,7 +20665,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ95">
         <v>1.43</v>
@@ -20772,7 +20793,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20850,7 +20871,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ96">
         <v>1.71</v>
@@ -20978,7 +20999,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21056,7 +21077,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
         <v>1.57</v>
@@ -21265,7 +21286,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ98">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR98">
         <v>1.49</v>
@@ -21390,7 +21411,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21677,7 +21698,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ100">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -21802,7 +21823,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21880,7 +21901,7 @@
         <v>0.6</v>
       </c>
       <c r="AP101">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ101">
         <v>0.43</v>
@@ -22008,7 +22029,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22089,7 +22110,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ102">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
         <v>1.75</v>
@@ -22292,7 +22313,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103">
         <v>0.88</v>
@@ -22420,7 +22441,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22832,7 +22853,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23116,10 +23137,10 @@
         <v>2</v>
       </c>
       <c r="AP107">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR107">
         <v>1.77</v>
@@ -23322,7 +23343,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ108">
         <v>0.5</v>
@@ -23450,7 +23471,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23531,7 +23552,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ109">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR109">
         <v>1.34</v>
@@ -23656,7 +23677,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23737,7 +23758,7 @@
         <v>2</v>
       </c>
       <c r="AQ110">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR110">
         <v>2.02</v>
@@ -23862,7 +23883,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -23940,10 +23961,10 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ111">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR111">
         <v>1.8</v>
@@ -24068,7 +24089,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24146,10 +24167,10 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR112">
         <v>1.74</v>
@@ -24355,7 +24376,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR113">
         <v>2.08</v>
@@ -24480,7 +24501,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24558,10 +24579,10 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ114">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR114">
         <v>1.84</v>
@@ -24686,7 +24707,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24767,7 +24788,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR115">
         <v>1.76</v>
@@ -24892,7 +24913,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -24970,10 +24991,10 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
+        <v>1.63</v>
+      </c>
+      <c r="AQ116">
         <v>1.43</v>
-      </c>
-      <c r="AQ116">
-        <v>1.17</v>
       </c>
       <c r="AR116">
         <v>1.22</v>
@@ -25098,7 +25119,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25179,7 +25200,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ117">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
         <v>1.62</v>
@@ -25304,7 +25325,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25382,10 +25403,10 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ118">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR118">
         <v>1.66</v>
@@ -25510,7 +25531,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25588,7 +25609,7 @@
         <v>1.8</v>
       </c>
       <c r="AP119">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ119">
         <v>2.14</v>
@@ -25716,7 +25737,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25794,7 +25815,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ120">
         <v>1.71</v>
@@ -25922,7 +25943,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26000,7 +26021,7 @@
         <v>2.6</v>
       </c>
       <c r="AP121">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ121">
         <v>2.67</v>
@@ -26128,7 +26149,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26334,7 +26355,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26540,7 +26561,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26746,7 +26767,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27158,7 +27179,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27364,7 +27385,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27776,7 +27797,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27982,7 +28003,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28139,6 +28160,1654 @@
       </c>
       <c r="BP131">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7465538</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>73</v>
+      </c>
+      <c r="H132" t="s">
+        <v>77</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132" t="s">
+        <v>93</v>
+      </c>
+      <c r="P132" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q132">
+        <v>3.4</v>
+      </c>
+      <c r="R132">
+        <v>2.6</v>
+      </c>
+      <c r="S132">
+        <v>2.5</v>
+      </c>
+      <c r="T132">
+        <v>1.22</v>
+      </c>
+      <c r="U132">
+        <v>4</v>
+      </c>
+      <c r="V132">
+        <v>2</v>
+      </c>
+      <c r="W132">
+        <v>1.73</v>
+      </c>
+      <c r="X132">
+        <v>4.33</v>
+      </c>
+      <c r="Y132">
+        <v>1.2</v>
+      </c>
+      <c r="Z132">
+        <v>3.1</v>
+      </c>
+      <c r="AA132">
+        <v>3.75</v>
+      </c>
+      <c r="AB132">
+        <v>2.05</v>
+      </c>
+      <c r="AC132">
+        <v>1.01</v>
+      </c>
+      <c r="AD132">
+        <v>17</v>
+      </c>
+      <c r="AE132">
+        <v>1.12</v>
+      </c>
+      <c r="AF132">
+        <v>6.5</v>
+      </c>
+      <c r="AG132">
+        <v>1.4</v>
+      </c>
+      <c r="AH132">
+        <v>2.88</v>
+      </c>
+      <c r="AI132">
+        <v>1.36</v>
+      </c>
+      <c r="AJ132">
+        <v>3</v>
+      </c>
+      <c r="AK132">
+        <v>1.8</v>
+      </c>
+      <c r="AL132">
+        <v>1.2</v>
+      </c>
+      <c r="AM132">
+        <v>1.36</v>
+      </c>
+      <c r="AN132">
+        <v>1.33</v>
+      </c>
+      <c r="AO132">
+        <v>1.5</v>
+      </c>
+      <c r="AP132">
+        <v>1.29</v>
+      </c>
+      <c r="AQ132">
+        <v>1.43</v>
+      </c>
+      <c r="AR132">
+        <v>1.8</v>
+      </c>
+      <c r="AS132">
+        <v>1.82</v>
+      </c>
+      <c r="AT132">
+        <v>3.62</v>
+      </c>
+      <c r="AU132">
+        <v>2</v>
+      </c>
+      <c r="AV132">
+        <v>12</v>
+      </c>
+      <c r="AW132">
+        <v>5</v>
+      </c>
+      <c r="AX132">
+        <v>6</v>
+      </c>
+      <c r="AY132">
+        <v>10</v>
+      </c>
+      <c r="AZ132">
+        <v>24</v>
+      </c>
+      <c r="BA132">
+        <v>2</v>
+      </c>
+      <c r="BB132">
+        <v>5</v>
+      </c>
+      <c r="BC132">
+        <v>7</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>0</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>0</v>
+      </c>
+      <c r="BJ132">
+        <v>0</v>
+      </c>
+      <c r="BK132">
+        <v>0</v>
+      </c>
+      <c r="BL132">
+        <v>0</v>
+      </c>
+      <c r="BM132">
+        <v>0</v>
+      </c>
+      <c r="BN132">
+        <v>0</v>
+      </c>
+      <c r="BO132">
+        <v>0</v>
+      </c>
+      <c r="BP132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7465541</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+      <c r="H133" t="s">
+        <v>78</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>93</v>
+      </c>
+      <c r="P133" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q133">
+        <v>2.5</v>
+      </c>
+      <c r="R133">
+        <v>2.25</v>
+      </c>
+      <c r="S133">
+        <v>3.6</v>
+      </c>
+      <c r="T133">
+        <v>1.28</v>
+      </c>
+      <c r="U133">
+        <v>3.35</v>
+      </c>
+      <c r="V133">
+        <v>2.25</v>
+      </c>
+      <c r="W133">
+        <v>1.57</v>
+      </c>
+      <c r="X133">
+        <v>5.2</v>
+      </c>
+      <c r="Y133">
+        <v>1.14</v>
+      </c>
+      <c r="Z133">
+        <v>2</v>
+      </c>
+      <c r="AA133">
+        <v>3.7</v>
+      </c>
+      <c r="AB133">
+        <v>3.3</v>
+      </c>
+      <c r="AC133">
+        <v>1.01</v>
+      </c>
+      <c r="AD133">
+        <v>13</v>
+      </c>
+      <c r="AE133">
+        <v>1.18</v>
+      </c>
+      <c r="AF133">
+        <v>4.75</v>
+      </c>
+      <c r="AG133">
+        <v>1.55</v>
+      </c>
+      <c r="AH133">
+        <v>2.4</v>
+      </c>
+      <c r="AI133">
+        <v>1.45</v>
+      </c>
+      <c r="AJ133">
+        <v>2.5</v>
+      </c>
+      <c r="AK133">
+        <v>1.3</v>
+      </c>
+      <c r="AL133">
+        <v>1.22</v>
+      </c>
+      <c r="AM133">
+        <v>1.75</v>
+      </c>
+      <c r="AN133">
+        <v>0.57</v>
+      </c>
+      <c r="AO133">
+        <v>1.17</v>
+      </c>
+      <c r="AP133">
+        <v>0.5</v>
+      </c>
+      <c r="AQ133">
+        <v>1.43</v>
+      </c>
+      <c r="AR133">
+        <v>1.73</v>
+      </c>
+      <c r="AS133">
+        <v>1.32</v>
+      </c>
+      <c r="AT133">
+        <v>3.05</v>
+      </c>
+      <c r="AU133">
+        <v>3</v>
+      </c>
+      <c r="AV133">
+        <v>4</v>
+      </c>
+      <c r="AW133">
+        <v>5</v>
+      </c>
+      <c r="AX133">
+        <v>3</v>
+      </c>
+      <c r="AY133">
+        <v>15</v>
+      </c>
+      <c r="AZ133">
+        <v>15</v>
+      </c>
+      <c r="BA133">
+        <v>4</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
+        <v>7</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>0</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>0</v>
+      </c>
+      <c r="BJ133">
+        <v>0</v>
+      </c>
+      <c r="BK133">
+        <v>0</v>
+      </c>
+      <c r="BL133">
+        <v>0</v>
+      </c>
+      <c r="BM133">
+        <v>0</v>
+      </c>
+      <c r="BN133">
+        <v>0</v>
+      </c>
+      <c r="BO133">
+        <v>0</v>
+      </c>
+      <c r="BP133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7465540</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>74</v>
+      </c>
+      <c r="H134" t="s">
+        <v>85</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>179</v>
+      </c>
+      <c r="P134" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q134">
+        <v>3.45</v>
+      </c>
+      <c r="R134">
+        <v>2.2</v>
+      </c>
+      <c r="S134">
+        <v>2.65</v>
+      </c>
+      <c r="T134">
+        <v>1.33</v>
+      </c>
+      <c r="U134">
+        <v>3</v>
+      </c>
+      <c r="V134">
+        <v>2.55</v>
+      </c>
+      <c r="W134">
+        <v>1.45</v>
+      </c>
+      <c r="X134">
+        <v>5.65</v>
+      </c>
+      <c r="Y134">
+        <v>1.12</v>
+      </c>
+      <c r="Z134">
+        <v>3.1</v>
+      </c>
+      <c r="AA134">
+        <v>3.6</v>
+      </c>
+      <c r="AB134">
+        <v>2.15</v>
+      </c>
+      <c r="AC134">
+        <v>1.04</v>
+      </c>
+      <c r="AD134">
+        <v>10</v>
+      </c>
+      <c r="AE134">
+        <v>1.22</v>
+      </c>
+      <c r="AF134">
+        <v>4</v>
+      </c>
+      <c r="AG134">
+        <v>1.73</v>
+      </c>
+      <c r="AH134">
+        <v>2.1</v>
+      </c>
+      <c r="AI134">
+        <v>1.57</v>
+      </c>
+      <c r="AJ134">
+        <v>2.2</v>
+      </c>
+      <c r="AK134">
+        <v>1.67</v>
+      </c>
+      <c r="AL134">
+        <v>1.22</v>
+      </c>
+      <c r="AM134">
+        <v>1.36</v>
+      </c>
+      <c r="AN134">
+        <v>1.43</v>
+      </c>
+      <c r="AO134">
+        <v>1.67</v>
+      </c>
+      <c r="AP134">
+        <v>1.63</v>
+      </c>
+      <c r="AQ134">
+        <v>1.43</v>
+      </c>
+      <c r="AR134">
+        <v>1.22</v>
+      </c>
+      <c r="AS134">
+        <v>1.23</v>
+      </c>
+      <c r="AT134">
+        <v>2.45</v>
+      </c>
+      <c r="AU134">
+        <v>2</v>
+      </c>
+      <c r="AV134">
+        <v>6</v>
+      </c>
+      <c r="AW134">
+        <v>3</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
+        <v>8</v>
+      </c>
+      <c r="AZ134">
+        <v>13</v>
+      </c>
+      <c r="BA134">
+        <v>2</v>
+      </c>
+      <c r="BB134">
+        <v>3</v>
+      </c>
+      <c r="BC134">
+        <v>5</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>0</v>
+      </c>
+      <c r="BG134">
+        <v>0</v>
+      </c>
+      <c r="BH134">
+        <v>0</v>
+      </c>
+      <c r="BI134">
+        <v>0</v>
+      </c>
+      <c r="BJ134">
+        <v>0</v>
+      </c>
+      <c r="BK134">
+        <v>0</v>
+      </c>
+      <c r="BL134">
+        <v>0</v>
+      </c>
+      <c r="BM134">
+        <v>0</v>
+      </c>
+      <c r="BN134">
+        <v>0</v>
+      </c>
+      <c r="BO134">
+        <v>0</v>
+      </c>
+      <c r="BP134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7465539</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>87</v>
+      </c>
+      <c r="H135" t="s">
+        <v>79</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>108</v>
+      </c>
+      <c r="P135" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q135">
+        <v>2.1</v>
+      </c>
+      <c r="R135">
+        <v>2.6</v>
+      </c>
+      <c r="S135">
+        <v>4.5</v>
+      </c>
+      <c r="T135">
+        <v>1.25</v>
+      </c>
+      <c r="U135">
+        <v>3.75</v>
+      </c>
+      <c r="V135">
+        <v>2.1</v>
+      </c>
+      <c r="W135">
+        <v>1.67</v>
+      </c>
+      <c r="X135">
+        <v>4.5</v>
+      </c>
+      <c r="Y135">
+        <v>1.18</v>
+      </c>
+      <c r="Z135">
+        <v>1.57</v>
+      </c>
+      <c r="AA135">
+        <v>4</v>
+      </c>
+      <c r="AB135">
+        <v>5</v>
+      </c>
+      <c r="AC135">
+        <v>1.01</v>
+      </c>
+      <c r="AD135">
+        <v>17</v>
+      </c>
+      <c r="AE135">
+        <v>1.14</v>
+      </c>
+      <c r="AF135">
+        <v>5.5</v>
+      </c>
+      <c r="AG135">
+        <v>1.44</v>
+      </c>
+      <c r="AH135">
+        <v>2.7</v>
+      </c>
+      <c r="AI135">
+        <v>1.5</v>
+      </c>
+      <c r="AJ135">
+        <v>2.5</v>
+      </c>
+      <c r="AK135">
+        <v>1.18</v>
+      </c>
+      <c r="AL135">
+        <v>1.17</v>
+      </c>
+      <c r="AM135">
+        <v>2.35</v>
+      </c>
+      <c r="AN135">
+        <v>0.67</v>
+      </c>
+      <c r="AO135">
+        <v>1.71</v>
+      </c>
+      <c r="AP135">
+        <v>1</v>
+      </c>
+      <c r="AQ135">
+        <v>1.5</v>
+      </c>
+      <c r="AR135">
+        <v>1.75</v>
+      </c>
+      <c r="AS135">
+        <v>1.49</v>
+      </c>
+      <c r="AT135">
+        <v>3.24</v>
+      </c>
+      <c r="AU135">
+        <v>12</v>
+      </c>
+      <c r="AV135">
+        <v>0</v>
+      </c>
+      <c r="AW135">
+        <v>5</v>
+      </c>
+      <c r="AX135">
+        <v>4</v>
+      </c>
+      <c r="AY135">
+        <v>30</v>
+      </c>
+      <c r="AZ135">
+        <v>9</v>
+      </c>
+      <c r="BA135">
+        <v>9</v>
+      </c>
+      <c r="BB135">
+        <v>3</v>
+      </c>
+      <c r="BC135">
+        <v>12</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>0</v>
+      </c>
+      <c r="BG135">
+        <v>0</v>
+      </c>
+      <c r="BH135">
+        <v>0</v>
+      </c>
+      <c r="BI135">
+        <v>0</v>
+      </c>
+      <c r="BJ135">
+        <v>0</v>
+      </c>
+      <c r="BK135">
+        <v>0</v>
+      </c>
+      <c r="BL135">
+        <v>0</v>
+      </c>
+      <c r="BM135">
+        <v>0</v>
+      </c>
+      <c r="BN135">
+        <v>0</v>
+      </c>
+      <c r="BO135">
+        <v>0</v>
+      </c>
+      <c r="BP135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7465535</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>71</v>
+      </c>
+      <c r="H136" t="s">
+        <v>89</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>6</v>
+      </c>
+      <c r="O136" t="s">
+        <v>180</v>
+      </c>
+      <c r="P136" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q136">
+        <v>2.25</v>
+      </c>
+      <c r="R136">
+        <v>2.4</v>
+      </c>
+      <c r="S136">
+        <v>4.33</v>
+      </c>
+      <c r="T136">
+        <v>1.29</v>
+      </c>
+      <c r="U136">
+        <v>3.5</v>
+      </c>
+      <c r="V136">
+        <v>2.38</v>
+      </c>
+      <c r="W136">
+        <v>1.53</v>
+      </c>
+      <c r="X136">
+        <v>5.5</v>
+      </c>
+      <c r="Y136">
+        <v>1.14</v>
+      </c>
+      <c r="Z136">
+        <v>1.7</v>
+      </c>
+      <c r="AA136">
+        <v>3.9</v>
+      </c>
+      <c r="AB136">
+        <v>4.1</v>
+      </c>
+      <c r="AC136">
+        <v>1.03</v>
+      </c>
+      <c r="AD136">
+        <v>11</v>
+      </c>
+      <c r="AE136">
+        <v>1.16</v>
+      </c>
+      <c r="AF136">
+        <v>5</v>
+      </c>
+      <c r="AG136">
+        <v>1.6</v>
+      </c>
+      <c r="AH136">
+        <v>2.3</v>
+      </c>
+      <c r="AI136">
+        <v>1.62</v>
+      </c>
+      <c r="AJ136">
+        <v>2.2</v>
+      </c>
+      <c r="AK136">
+        <v>1.16</v>
+      </c>
+      <c r="AL136">
+        <v>1.17</v>
+      </c>
+      <c r="AM136">
+        <v>2.4</v>
+      </c>
+      <c r="AN136">
+        <v>0.86</v>
+      </c>
+      <c r="AO136">
+        <v>1.5</v>
+      </c>
+      <c r="AP136">
+        <v>1.13</v>
+      </c>
+      <c r="AQ136">
+        <v>1.29</v>
+      </c>
+      <c r="AR136">
+        <v>1.7</v>
+      </c>
+      <c r="AS136">
+        <v>1.42</v>
+      </c>
+      <c r="AT136">
+        <v>3.12</v>
+      </c>
+      <c r="AU136">
+        <v>11</v>
+      </c>
+      <c r="AV136">
+        <v>9</v>
+      </c>
+      <c r="AW136">
+        <v>6</v>
+      </c>
+      <c r="AX136">
+        <v>3</v>
+      </c>
+      <c r="AY136">
+        <v>18</v>
+      </c>
+      <c r="AZ136">
+        <v>13</v>
+      </c>
+      <c r="BA136">
+        <v>6</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
+        <v>9</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>0</v>
+      </c>
+      <c r="BL136">
+        <v>0</v>
+      </c>
+      <c r="BM136">
+        <v>0</v>
+      </c>
+      <c r="BN136">
+        <v>0</v>
+      </c>
+      <c r="BO136">
+        <v>0</v>
+      </c>
+      <c r="BP136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7465534</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>83</v>
+      </c>
+      <c r="H137" t="s">
+        <v>70</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>181</v>
+      </c>
+      <c r="P137" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q137">
+        <v>1.85</v>
+      </c>
+      <c r="R137">
+        <v>2.5</v>
+      </c>
+      <c r="S137">
+        <v>5.5</v>
+      </c>
+      <c r="T137">
+        <v>1.25</v>
+      </c>
+      <c r="U137">
+        <v>3.65</v>
+      </c>
+      <c r="V137">
+        <v>2.1</v>
+      </c>
+      <c r="W137">
+        <v>1.67</v>
+      </c>
+      <c r="X137">
+        <v>4.45</v>
+      </c>
+      <c r="Y137">
+        <v>1.18</v>
+      </c>
+      <c r="Z137">
+        <v>1.4</v>
+      </c>
+      <c r="AA137">
+        <v>4.75</v>
+      </c>
+      <c r="AB137">
+        <v>7</v>
+      </c>
+      <c r="AC137">
+        <v>1.01</v>
+      </c>
+      <c r="AD137">
+        <v>17</v>
+      </c>
+      <c r="AE137">
+        <v>1.15</v>
+      </c>
+      <c r="AF137">
+        <v>5.25</v>
+      </c>
+      <c r="AG137">
+        <v>1.45</v>
+      </c>
+      <c r="AH137">
+        <v>2.7</v>
+      </c>
+      <c r="AI137">
+        <v>1.57</v>
+      </c>
+      <c r="AJ137">
+        <v>2.2</v>
+      </c>
+      <c r="AK137">
+        <v>1.1</v>
+      </c>
+      <c r="AL137">
+        <v>1.14</v>
+      </c>
+      <c r="AM137">
+        <v>2.8</v>
+      </c>
+      <c r="AN137">
+        <v>2.5</v>
+      </c>
+      <c r="AO137">
+        <v>1.43</v>
+      </c>
+      <c r="AP137">
+        <v>2.57</v>
+      </c>
+      <c r="AQ137">
+        <v>1.25</v>
+      </c>
+      <c r="AR137">
+        <v>1.83</v>
+      </c>
+      <c r="AS137">
+        <v>1.15</v>
+      </c>
+      <c r="AT137">
+        <v>2.98</v>
+      </c>
+      <c r="AU137">
+        <v>4</v>
+      </c>
+      <c r="AV137">
+        <v>5</v>
+      </c>
+      <c r="AW137">
+        <v>8</v>
+      </c>
+      <c r="AX137">
+        <v>1</v>
+      </c>
+      <c r="AY137">
+        <v>15</v>
+      </c>
+      <c r="AZ137">
+        <v>9</v>
+      </c>
+      <c r="BA137">
+        <v>4</v>
+      </c>
+      <c r="BB137">
+        <v>1</v>
+      </c>
+      <c r="BC137">
+        <v>5</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>0</v>
+      </c>
+      <c r="BG137">
+        <v>0</v>
+      </c>
+      <c r="BH137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>0</v>
+      </c>
+      <c r="BJ137">
+        <v>0</v>
+      </c>
+      <c r="BK137">
+        <v>0</v>
+      </c>
+      <c r="BL137">
+        <v>0</v>
+      </c>
+      <c r="BM137">
+        <v>0</v>
+      </c>
+      <c r="BN137">
+        <v>0</v>
+      </c>
+      <c r="BO137">
+        <v>0</v>
+      </c>
+      <c r="BP137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7465533</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138" t="s">
+        <v>75</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>182</v>
+      </c>
+      <c r="P138" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q138">
+        <v>1.9</v>
+      </c>
+      <c r="R138">
+        <v>2.55</v>
+      </c>
+      <c r="S138">
+        <v>5</v>
+      </c>
+      <c r="T138">
+        <v>1.22</v>
+      </c>
+      <c r="U138">
+        <v>3.75</v>
+      </c>
+      <c r="V138">
+        <v>2.1</v>
+      </c>
+      <c r="W138">
+        <v>1.67</v>
+      </c>
+      <c r="X138">
+        <v>4.6</v>
+      </c>
+      <c r="Y138">
+        <v>1.17</v>
+      </c>
+      <c r="Z138">
+        <v>1.45</v>
+      </c>
+      <c r="AA138">
+        <v>4.75</v>
+      </c>
+      <c r="AB138">
+        <v>6</v>
+      </c>
+      <c r="AC138">
+        <v>1.01</v>
+      </c>
+      <c r="AD138">
+        <v>17</v>
+      </c>
+      <c r="AE138">
+        <v>1.13</v>
+      </c>
+      <c r="AF138">
+        <v>5.75</v>
+      </c>
+      <c r="AG138">
+        <v>1.44</v>
+      </c>
+      <c r="AH138">
+        <v>2.7</v>
+      </c>
+      <c r="AI138">
+        <v>1.53</v>
+      </c>
+      <c r="AJ138">
+        <v>2.3</v>
+      </c>
+      <c r="AK138">
+        <v>1.12</v>
+      </c>
+      <c r="AL138">
+        <v>1.14</v>
+      </c>
+      <c r="AM138">
+        <v>2.65</v>
+      </c>
+      <c r="AN138">
+        <v>1.29</v>
+      </c>
+      <c r="AO138">
+        <v>1.33</v>
+      </c>
+      <c r="AP138">
+        <v>1.5</v>
+      </c>
+      <c r="AQ138">
+        <v>1.14</v>
+      </c>
+      <c r="AR138">
+        <v>1.74</v>
+      </c>
+      <c r="AS138">
+        <v>1.45</v>
+      </c>
+      <c r="AT138">
+        <v>3.19</v>
+      </c>
+      <c r="AU138">
+        <v>3</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>5</v>
+      </c>
+      <c r="AX138">
+        <v>5</v>
+      </c>
+      <c r="AY138">
+        <v>9</v>
+      </c>
+      <c r="AZ138">
+        <v>12</v>
+      </c>
+      <c r="BA138">
+        <v>1</v>
+      </c>
+      <c r="BB138">
+        <v>5</v>
+      </c>
+      <c r="BC138">
+        <v>6</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>0</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>0</v>
+      </c>
+      <c r="BJ138">
+        <v>0</v>
+      </c>
+      <c r="BK138">
+        <v>0</v>
+      </c>
+      <c r="BL138">
+        <v>0</v>
+      </c>
+      <c r="BM138">
+        <v>0</v>
+      </c>
+      <c r="BN138">
+        <v>0</v>
+      </c>
+      <c r="BO138">
+        <v>0</v>
+      </c>
+      <c r="BP138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7465537</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>88</v>
+      </c>
+      <c r="H139" t="s">
+        <v>84</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>183</v>
+      </c>
+      <c r="P139" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q139">
+        <v>1.83</v>
+      </c>
+      <c r="R139">
+        <v>2.75</v>
+      </c>
+      <c r="S139">
+        <v>6</v>
+      </c>
+      <c r="T139">
+        <v>1.22</v>
+      </c>
+      <c r="U139">
+        <v>4</v>
+      </c>
+      <c r="V139">
+        <v>2.1</v>
+      </c>
+      <c r="W139">
+        <v>1.67</v>
+      </c>
+      <c r="X139">
+        <v>4.5</v>
+      </c>
+      <c r="Y139">
+        <v>1.18</v>
+      </c>
+      <c r="Z139">
+        <v>1.4</v>
+      </c>
+      <c r="AA139">
+        <v>4.6</v>
+      </c>
+      <c r="AB139">
+        <v>6.5</v>
+      </c>
+      <c r="AC139">
+        <v>1.01</v>
+      </c>
+      <c r="AD139">
+        <v>17</v>
+      </c>
+      <c r="AE139">
+        <v>1.12</v>
+      </c>
+      <c r="AF139">
+        <v>6</v>
+      </c>
+      <c r="AG139">
+        <v>1.44</v>
+      </c>
+      <c r="AH139">
+        <v>2.7</v>
+      </c>
+      <c r="AI139">
+        <v>1.62</v>
+      </c>
+      <c r="AJ139">
+        <v>2.2</v>
+      </c>
+      <c r="AK139">
+        <v>1.1</v>
+      </c>
+      <c r="AL139">
+        <v>1.11</v>
+      </c>
+      <c r="AM139">
+        <v>3</v>
+      </c>
+      <c r="AN139">
+        <v>2</v>
+      </c>
+      <c r="AO139">
+        <v>0.67</v>
+      </c>
+      <c r="AP139">
+        <v>2.14</v>
+      </c>
+      <c r="AQ139">
+        <v>0.57</v>
+      </c>
+      <c r="AR139">
+        <v>1.86</v>
+      </c>
+      <c r="AS139">
+        <v>1.33</v>
+      </c>
+      <c r="AT139">
+        <v>3.19</v>
+      </c>
+      <c r="AU139">
+        <v>9</v>
+      </c>
+      <c r="AV139">
+        <v>3</v>
+      </c>
+      <c r="AW139">
+        <v>17</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>34</v>
+      </c>
+      <c r="AZ139">
+        <v>4</v>
+      </c>
+      <c r="BA139">
+        <v>14</v>
+      </c>
+      <c r="BB139">
+        <v>1</v>
+      </c>
+      <c r="BC139">
+        <v>15</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>0</v>
+      </c>
+      <c r="BJ139">
+        <v>0</v>
+      </c>
+      <c r="BK139">
+        <v>0</v>
+      </c>
+      <c r="BL139">
+        <v>0</v>
+      </c>
+      <c r="BM139">
+        <v>0</v>
+      </c>
+      <c r="BN139">
+        <v>0</v>
+      </c>
+      <c r="BO139">
+        <v>0</v>
+      </c>
+      <c r="BP139">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,19 +553,22 @@
     <t>['59', '90+2']</t>
   </si>
   <si>
+    <t>['35', '89']</t>
+  </si>
+  <si>
+    <t>['39', '45+1']</t>
+  </si>
+  <si>
+    <t>['72', '85']</t>
+  </si>
+  <si>
     <t>['28']</t>
   </si>
   <si>
     <t>['31', '48', '54', '90+4']</t>
   </si>
   <si>
-    <t>['39', '45+1']</t>
-  </si>
-  <si>
-    <t>['35', '89']</t>
-  </si>
-  <si>
-    <t>['72', '85']</t>
+    <t>['17']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -1170,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1635,7 +1638,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1841,7 +1844,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2047,7 +2050,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2253,7 +2256,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2459,7 +2462,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2540,7 +2543,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ7">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2665,7 +2668,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2871,7 +2874,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3077,7 +3080,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3283,7 +3286,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3695,7 +3698,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3979,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -4313,7 +4316,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5137,7 +5140,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -6167,7 +6170,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6373,7 +6376,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6579,7 +6582,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6991,7 +6994,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7403,7 +7406,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7484,7 +7487,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ31">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -8021,7 +8024,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8227,7 +8230,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8845,7 +8848,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9051,7 +9054,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9463,7 +9466,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9541,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ41">
         <v>1.43</v>
@@ -10081,7 +10084,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10287,7 +10290,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10493,7 +10496,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10699,7 +10702,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10905,7 +10908,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11317,7 +11320,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11523,7 +11526,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11604,7 +11607,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ51">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -11729,7 +11732,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12553,7 +12556,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12965,7 +12968,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13171,7 +13174,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13583,7 +13586,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13789,7 +13792,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13995,7 +13998,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14488,7 +14491,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14613,7 +14616,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14897,7 +14900,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ67">
         <v>0.43</v>
@@ -15025,7 +15028,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15231,7 +15234,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15437,7 +15440,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15643,7 +15646,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15849,7 +15852,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16055,7 +16058,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16261,7 +16264,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16467,7 +16470,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -17085,7 +17088,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17291,7 +17294,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17703,7 +17706,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18115,7 +18118,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18321,7 +18324,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18605,7 +18608,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ85">
         <v>1.57</v>
@@ -18814,7 +18817,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.36</v>
@@ -18939,7 +18942,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19145,7 +19148,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19557,7 +19560,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19969,7 +19972,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20381,7 +20384,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20587,7 +20590,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20793,7 +20796,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20874,7 +20877,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ96">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.22</v>
@@ -20999,7 +21002,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21411,7 +21414,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21823,7 +21826,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22029,7 +22032,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22441,7 +22444,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22853,7 +22856,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23471,7 +23474,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23677,7 +23680,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23883,7 +23886,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24089,7 +24092,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24501,7 +24504,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24707,7 +24710,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24785,7 +24788,7 @@
         <v>1.8</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ115">
         <v>1.29</v>
@@ -24913,7 +24916,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25119,7 +25122,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25325,7 +25328,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25531,7 +25534,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25737,7 +25740,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25818,7 +25821,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ120">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR120">
         <v>1.79</v>
@@ -25943,7 +25946,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26149,7 +26152,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26355,7 +26358,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26561,7 +26564,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26767,7 +26770,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27179,7 +27182,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27385,7 +27388,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27797,7 +27800,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28003,7 +28006,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28176,7 +28179,7 @@
         <v>69</v>
       </c>
       <c r="E132" s="2">
-        <v>45604.66666666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F132">
         <v>14</v>
@@ -28373,7 +28376,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7465541</v>
+        <v>7465533</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28382,157 +28385,157 @@
         <v>69</v>
       </c>
       <c r="E133" s="2">
-        <v>45604.66666666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F133">
         <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H133" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O133" t="s">
+        <v>179</v>
+      </c>
+      <c r="P133" t="s">
         <v>93</v>
       </c>
-      <c r="P133" t="s">
-        <v>263</v>
-      </c>
       <c r="Q133">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="R133">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="S133">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="T133">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="U133">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="V133">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W133">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X133">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="Y133">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z133">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="AA133">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="AB133">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="AC133">
         <v>1.01</v>
       </c>
       <c r="AD133">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE133">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AF133">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="AG133">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AH133">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AI133">
+        <v>1.53</v>
+      </c>
+      <c r="AJ133">
+        <v>2.3</v>
+      </c>
+      <c r="AK133">
+        <v>1.12</v>
+      </c>
+      <c r="AL133">
+        <v>1.14</v>
+      </c>
+      <c r="AM133">
+        <v>2.65</v>
+      </c>
+      <c r="AN133">
+        <v>1.29</v>
+      </c>
+      <c r="AO133">
+        <v>1.33</v>
+      </c>
+      <c r="AP133">
+        <v>1.5</v>
+      </c>
+      <c r="AQ133">
+        <v>1.14</v>
+      </c>
+      <c r="AR133">
+        <v>1.74</v>
+      </c>
+      <c r="AS133">
         <v>1.45</v>
       </c>
-      <c r="AJ133">
-        <v>2.5</v>
-      </c>
-      <c r="AK133">
-        <v>1.3</v>
-      </c>
-      <c r="AL133">
-        <v>1.22</v>
-      </c>
-      <c r="AM133">
-        <v>1.75</v>
-      </c>
-      <c r="AN133">
-        <v>0.57</v>
-      </c>
-      <c r="AO133">
-        <v>1.17</v>
-      </c>
-      <c r="AP133">
-        <v>0.5</v>
-      </c>
-      <c r="AQ133">
-        <v>1.43</v>
-      </c>
-      <c r="AR133">
-        <v>1.73</v>
-      </c>
-      <c r="AS133">
-        <v>1.32</v>
-      </c>
       <c r="AT133">
-        <v>3.05</v>
+        <v>3.19</v>
       </c>
       <c r="AU133">
         <v>3</v>
       </c>
       <c r="AV133">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW133">
         <v>5</v>
       </c>
       <c r="AX133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY133">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AZ133">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD133">
         <v>0</v>
@@ -28579,7 +28582,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7465540</v>
+        <v>7465534</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28588,94 +28591,94 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45604.66666666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H134" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M134">
         <v>0</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O134" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P134" t="s">
         <v>93</v>
       </c>
       <c r="Q134">
-        <v>3.45</v>
+        <v>1.85</v>
       </c>
       <c r="R134">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S134">
-        <v>2.65</v>
+        <v>5.5</v>
       </c>
       <c r="T134">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U134">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="V134">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="W134">
+        <v>1.67</v>
+      </c>
+      <c r="X134">
+        <v>4.45</v>
+      </c>
+      <c r="Y134">
+        <v>1.18</v>
+      </c>
+      <c r="Z134">
+        <v>1.4</v>
+      </c>
+      <c r="AA134">
+        <v>4.75</v>
+      </c>
+      <c r="AB134">
+        <v>7</v>
+      </c>
+      <c r="AC134">
+        <v>1.01</v>
+      </c>
+      <c r="AD134">
+        <v>17</v>
+      </c>
+      <c r="AE134">
+        <v>1.15</v>
+      </c>
+      <c r="AF134">
+        <v>5.25</v>
+      </c>
+      <c r="AG134">
         <v>1.45</v>
       </c>
-      <c r="X134">
-        <v>5.65</v>
-      </c>
-      <c r="Y134">
-        <v>1.12</v>
-      </c>
-      <c r="Z134">
-        <v>3.1</v>
-      </c>
-      <c r="AA134">
-        <v>3.6</v>
-      </c>
-      <c r="AB134">
-        <v>2.15</v>
-      </c>
-      <c r="AC134">
-        <v>1.04</v>
-      </c>
-      <c r="AD134">
-        <v>10</v>
-      </c>
-      <c r="AE134">
-        <v>1.22</v>
-      </c>
-      <c r="AF134">
-        <v>4</v>
-      </c>
-      <c r="AG134">
-        <v>1.73</v>
-      </c>
       <c r="AH134">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AI134">
         <v>1.57</v>
@@ -28684,58 +28687,58 @@
         <v>2.2</v>
       </c>
       <c r="AK134">
-        <v>1.67</v>
+        <v>1.1</v>
       </c>
       <c r="AL134">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AM134">
-        <v>1.36</v>
+        <v>2.8</v>
       </c>
       <c r="AN134">
+        <v>2.5</v>
+      </c>
+      <c r="AO134">
         <v>1.43</v>
       </c>
-      <c r="AO134">
-        <v>1.67</v>
-      </c>
       <c r="AP134">
-        <v>1.63</v>
+        <v>2.57</v>
       </c>
       <c r="AQ134">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR134">
-        <v>1.22</v>
+        <v>1.83</v>
       </c>
       <c r="AS134">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AT134">
-        <v>2.45</v>
+        <v>2.98</v>
       </c>
       <c r="AU134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW134">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY134">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ134">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC134">
         <v>5</v>
@@ -28785,7 +28788,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7465539</v>
+        <v>7465537</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28794,55 +28797,55 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45604.66666666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F135">
         <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H135" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M135">
         <v>0</v>
       </c>
       <c r="N135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O135" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="P135" t="s">
         <v>93</v>
       </c>
       <c r="Q135">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="R135">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="S135">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="T135">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U135">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V135">
         <v>2.1</v>
@@ -28857,13 +28860,13 @@
         <v>1.18</v>
       </c>
       <c r="Z135">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AA135">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AB135">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AC135">
         <v>1.01</v>
@@ -28872,10 +28875,10 @@
         <v>17</v>
       </c>
       <c r="AE135">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AF135">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG135">
         <v>1.44</v>
@@ -28884,67 +28887,67 @@
         <v>2.7</v>
       </c>
       <c r="AI135">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AJ135">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AK135">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AL135">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AM135">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="AN135">
+        <v>2</v>
+      </c>
+      <c r="AO135">
         <v>0.67</v>
       </c>
-      <c r="AO135">
-        <v>1.71</v>
-      </c>
       <c r="AP135">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ135">
-        <v>1.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR135">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="AS135">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AT135">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="AU135">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW135">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>34</v>
+      </c>
+      <c r="AZ135">
         <v>4</v>
       </c>
-      <c r="AY135">
-        <v>30</v>
-      </c>
-      <c r="AZ135">
-        <v>9</v>
-      </c>
       <c r="BA135">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BB135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC135">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD135">
         <v>0</v>
@@ -28991,7 +28994,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7465535</v>
+        <v>7465541</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -29003,154 +29006,154 @@
         <v>45604.66666666666</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H136" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N136">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="P136" t="s">
         <v>264</v>
       </c>
       <c r="Q136">
+        <v>2.5</v>
+      </c>
+      <c r="R136">
         <v>2.25</v>
       </c>
-      <c r="R136">
-        <v>2.4</v>
-      </c>
       <c r="S136">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="T136">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U136">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="V136">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W136">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X136">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="Y136">
         <v>1.14</v>
       </c>
       <c r="Z136">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AA136">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AB136">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="AC136">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD136">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE136">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AF136">
+        <v>4.75</v>
+      </c>
+      <c r="AG136">
+        <v>1.55</v>
+      </c>
+      <c r="AH136">
+        <v>2.4</v>
+      </c>
+      <c r="AI136">
+        <v>1.45</v>
+      </c>
+      <c r="AJ136">
+        <v>2.5</v>
+      </c>
+      <c r="AK136">
+        <v>1.3</v>
+      </c>
+      <c r="AL136">
+        <v>1.22</v>
+      </c>
+      <c r="AM136">
+        <v>1.75</v>
+      </c>
+      <c r="AN136">
+        <v>0.57</v>
+      </c>
+      <c r="AO136">
+        <v>1.17</v>
+      </c>
+      <c r="AP136">
+        <v>0.5</v>
+      </c>
+      <c r="AQ136">
+        <v>1.43</v>
+      </c>
+      <c r="AR136">
+        <v>1.73</v>
+      </c>
+      <c r="AS136">
+        <v>1.32</v>
+      </c>
+      <c r="AT136">
+        <v>3.05</v>
+      </c>
+      <c r="AU136">
+        <v>3</v>
+      </c>
+      <c r="AV136">
+        <v>4</v>
+      </c>
+      <c r="AW136">
         <v>5</v>
-      </c>
-      <c r="AG136">
-        <v>1.6</v>
-      </c>
-      <c r="AH136">
-        <v>2.3</v>
-      </c>
-      <c r="AI136">
-        <v>1.62</v>
-      </c>
-      <c r="AJ136">
-        <v>2.2</v>
-      </c>
-      <c r="AK136">
-        <v>1.16</v>
-      </c>
-      <c r="AL136">
-        <v>1.17</v>
-      </c>
-      <c r="AM136">
-        <v>2.4</v>
-      </c>
-      <c r="AN136">
-        <v>0.86</v>
-      </c>
-      <c r="AO136">
-        <v>1.5</v>
-      </c>
-      <c r="AP136">
-        <v>1.13</v>
-      </c>
-      <c r="AQ136">
-        <v>1.29</v>
-      </c>
-      <c r="AR136">
-        <v>1.7</v>
-      </c>
-      <c r="AS136">
-        <v>1.42</v>
-      </c>
-      <c r="AT136">
-        <v>3.12</v>
-      </c>
-      <c r="AU136">
-        <v>11</v>
-      </c>
-      <c r="AV136">
-        <v>9</v>
-      </c>
-      <c r="AW136">
-        <v>6</v>
       </c>
       <c r="AX136">
         <v>3</v>
       </c>
       <c r="AY136">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ136">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA136">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB136">
         <v>3</v>
       </c>
       <c r="BC136">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD136">
         <v>0</v>
@@ -29197,7 +29200,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7465534</v>
+        <v>7465540</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -29209,91 +29212,91 @@
         <v>45604.66666666666</v>
       </c>
       <c r="F137">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H137" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M137">
         <v>0</v>
       </c>
       <c r="N137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P137" t="s">
         <v>93</v>
       </c>
       <c r="Q137">
-        <v>1.85</v>
+        <v>3.45</v>
       </c>
       <c r="R137">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="S137">
-        <v>5.5</v>
+        <v>2.65</v>
       </c>
       <c r="T137">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U137">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="V137">
+        <v>2.55</v>
+      </c>
+      <c r="W137">
+        <v>1.45</v>
+      </c>
+      <c r="X137">
+        <v>5.65</v>
+      </c>
+      <c r="Y137">
+        <v>1.12</v>
+      </c>
+      <c r="Z137">
+        <v>3.1</v>
+      </c>
+      <c r="AA137">
+        <v>3.6</v>
+      </c>
+      <c r="AB137">
+        <v>2.15</v>
+      </c>
+      <c r="AC137">
+        <v>1.04</v>
+      </c>
+      <c r="AD137">
+        <v>10</v>
+      </c>
+      <c r="AE137">
+        <v>1.22</v>
+      </c>
+      <c r="AF137">
+        <v>4</v>
+      </c>
+      <c r="AG137">
+        <v>1.73</v>
+      </c>
+      <c r="AH137">
         <v>2.1</v>
-      </c>
-      <c r="W137">
-        <v>1.67</v>
-      </c>
-      <c r="X137">
-        <v>4.45</v>
-      </c>
-      <c r="Y137">
-        <v>1.18</v>
-      </c>
-      <c r="Z137">
-        <v>1.4</v>
-      </c>
-      <c r="AA137">
-        <v>4.75</v>
-      </c>
-      <c r="AB137">
-        <v>7</v>
-      </c>
-      <c r="AC137">
-        <v>1.01</v>
-      </c>
-      <c r="AD137">
-        <v>17</v>
-      </c>
-      <c r="AE137">
-        <v>1.15</v>
-      </c>
-      <c r="AF137">
-        <v>5.25</v>
-      </c>
-      <c r="AG137">
-        <v>1.45</v>
-      </c>
-      <c r="AH137">
-        <v>2.7</v>
       </c>
       <c r="AI137">
         <v>1.57</v>
@@ -29302,58 +29305,58 @@
         <v>2.2</v>
       </c>
       <c r="AK137">
-        <v>1.1</v>
+        <v>1.67</v>
       </c>
       <c r="AL137">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AM137">
-        <v>2.8</v>
+        <v>1.36</v>
       </c>
       <c r="AN137">
-        <v>2.5</v>
+        <v>1.43</v>
       </c>
       <c r="AO137">
+        <v>1.67</v>
+      </c>
+      <c r="AP137">
+        <v>1.63</v>
+      </c>
+      <c r="AQ137">
         <v>1.43</v>
       </c>
-      <c r="AP137">
-        <v>2.57</v>
-      </c>
-      <c r="AQ137">
-        <v>1.25</v>
-      </c>
       <c r="AR137">
-        <v>1.83</v>
+        <v>1.22</v>
       </c>
       <c r="AS137">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AT137">
-        <v>2.98</v>
+        <v>2.45</v>
       </c>
       <c r="AU137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV137">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW137">
+        <v>3</v>
+      </c>
+      <c r="AX137">
+        <v>3</v>
+      </c>
+      <c r="AY137">
         <v>8</v>
       </c>
-      <c r="AX137">
-        <v>1</v>
-      </c>
-      <c r="AY137">
-        <v>15</v>
-      </c>
       <c r="AZ137">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC137">
         <v>5</v>
@@ -29403,7 +29406,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7465533</v>
+        <v>7465535</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29415,154 +29418,154 @@
         <v>45604.66666666666</v>
       </c>
       <c r="F138">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H138" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
         <v>2</v>
       </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
       <c r="N138">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O138" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="Q138">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="R138">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="S138">
+        <v>4.33</v>
+      </c>
+      <c r="T138">
+        <v>1.29</v>
+      </c>
+      <c r="U138">
+        <v>3.5</v>
+      </c>
+      <c r="V138">
+        <v>2.38</v>
+      </c>
+      <c r="W138">
+        <v>1.53</v>
+      </c>
+      <c r="X138">
+        <v>5.5</v>
+      </c>
+      <c r="Y138">
+        <v>1.14</v>
+      </c>
+      <c r="Z138">
+        <v>1.7</v>
+      </c>
+      <c r="AA138">
+        <v>3.9</v>
+      </c>
+      <c r="AB138">
+        <v>4.1</v>
+      </c>
+      <c r="AC138">
+        <v>1.03</v>
+      </c>
+      <c r="AD138">
+        <v>11</v>
+      </c>
+      <c r="AE138">
+        <v>1.16</v>
+      </c>
+      <c r="AF138">
         <v>5</v>
       </c>
-      <c r="T138">
-        <v>1.22</v>
-      </c>
-      <c r="U138">
-        <v>3.75</v>
-      </c>
-      <c r="V138">
-        <v>2.1</v>
-      </c>
-      <c r="W138">
-        <v>1.67</v>
-      </c>
-      <c r="X138">
-        <v>4.6</v>
-      </c>
-      <c r="Y138">
+      <c r="AG138">
+        <v>1.6</v>
+      </c>
+      <c r="AH138">
+        <v>2.3</v>
+      </c>
+      <c r="AI138">
+        <v>1.62</v>
+      </c>
+      <c r="AJ138">
+        <v>2.2</v>
+      </c>
+      <c r="AK138">
+        <v>1.16</v>
+      </c>
+      <c r="AL138">
         <v>1.17</v>
       </c>
-      <c r="Z138">
-        <v>1.45</v>
-      </c>
-      <c r="AA138">
-        <v>4.75</v>
-      </c>
-      <c r="AB138">
+      <c r="AM138">
+        <v>2.4</v>
+      </c>
+      <c r="AN138">
+        <v>0.86</v>
+      </c>
+      <c r="AO138">
+        <v>1.5</v>
+      </c>
+      <c r="AP138">
+        <v>1.13</v>
+      </c>
+      <c r="AQ138">
+        <v>1.29</v>
+      </c>
+      <c r="AR138">
+        <v>1.7</v>
+      </c>
+      <c r="AS138">
+        <v>1.42</v>
+      </c>
+      <c r="AT138">
+        <v>3.12</v>
+      </c>
+      <c r="AU138">
+        <v>11</v>
+      </c>
+      <c r="AV138">
+        <v>9</v>
+      </c>
+      <c r="AW138">
         <v>6</v>
       </c>
-      <c r="AC138">
-        <v>1.01</v>
-      </c>
-      <c r="AD138">
-        <v>17</v>
-      </c>
-      <c r="AE138">
-        <v>1.13</v>
-      </c>
-      <c r="AF138">
-        <v>5.75</v>
-      </c>
-      <c r="AG138">
-        <v>1.44</v>
-      </c>
-      <c r="AH138">
-        <v>2.7</v>
-      </c>
-      <c r="AI138">
-        <v>1.53</v>
-      </c>
-      <c r="AJ138">
-        <v>2.3</v>
-      </c>
-      <c r="AK138">
-        <v>1.12</v>
-      </c>
-      <c r="AL138">
-        <v>1.14</v>
-      </c>
-      <c r="AM138">
-        <v>2.65</v>
-      </c>
-      <c r="AN138">
-        <v>1.29</v>
-      </c>
-      <c r="AO138">
-        <v>1.33</v>
-      </c>
-      <c r="AP138">
-        <v>1.5</v>
-      </c>
-      <c r="AQ138">
-        <v>1.14</v>
-      </c>
-      <c r="AR138">
-        <v>1.74</v>
-      </c>
-      <c r="AS138">
-        <v>1.45</v>
-      </c>
-      <c r="AT138">
-        <v>3.19</v>
-      </c>
-      <c r="AU138">
+      <c r="AX138">
         <v>3</v>
       </c>
-      <c r="AV138">
+      <c r="AY138">
+        <v>18</v>
+      </c>
+      <c r="AZ138">
+        <v>13</v>
+      </c>
+      <c r="BA138">
         <v>6</v>
       </c>
-      <c r="AW138">
-        <v>5</v>
-      </c>
-      <c r="AX138">
-        <v>5</v>
-      </c>
-      <c r="AY138">
+      <c r="BB138">
+        <v>3</v>
+      </c>
+      <c r="BC138">
         <v>9</v>
-      </c>
-      <c r="AZ138">
-        <v>12</v>
-      </c>
-      <c r="BA138">
-        <v>1</v>
-      </c>
-      <c r="BB138">
-        <v>5</v>
-      </c>
-      <c r="BC138">
-        <v>6</v>
       </c>
       <c r="BD138">
         <v>0</v>
@@ -29609,7 +29612,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7465537</v>
+        <v>7465539</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29624,49 +29627,49 @@
         <v>14</v>
       </c>
       <c r="G139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H139" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M139">
         <v>0</v>
       </c>
       <c r="N139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O139" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="P139" t="s">
         <v>93</v>
       </c>
       <c r="Q139">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="R139">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="S139">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="T139">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U139">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V139">
         <v>2.1</v>
@@ -29681,13 +29684,13 @@
         <v>1.18</v>
       </c>
       <c r="Z139">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AA139">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="AB139">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AC139">
         <v>1.01</v>
@@ -29696,10 +29699,10 @@
         <v>17</v>
       </c>
       <c r="AE139">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AF139">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG139">
         <v>1.44</v>
@@ -29708,105 +29711,311 @@
         <v>2.7</v>
       </c>
       <c r="AI139">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AJ139">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AK139">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AL139">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AM139">
+        <v>2.35</v>
+      </c>
+      <c r="AN139">
+        <v>0.67</v>
+      </c>
+      <c r="AO139">
+        <v>1.71</v>
+      </c>
+      <c r="AP139">
+        <v>1</v>
+      </c>
+      <c r="AQ139">
+        <v>1.5</v>
+      </c>
+      <c r="AR139">
+        <v>1.75</v>
+      </c>
+      <c r="AS139">
+        <v>1.49</v>
+      </c>
+      <c r="AT139">
+        <v>3.24</v>
+      </c>
+      <c r="AU139">
+        <v>12</v>
+      </c>
+      <c r="AV139">
+        <v>0</v>
+      </c>
+      <c r="AW139">
+        <v>5</v>
+      </c>
+      <c r="AX139">
+        <v>4</v>
+      </c>
+      <c r="AY139">
+        <v>30</v>
+      </c>
+      <c r="AZ139">
+        <v>9</v>
+      </c>
+      <c r="BA139">
+        <v>9</v>
+      </c>
+      <c r="BB139">
         <v>3</v>
       </c>
-      <c r="AN139">
+      <c r="BC139">
+        <v>12</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>0</v>
+      </c>
+      <c r="BJ139">
+        <v>0</v>
+      </c>
+      <c r="BK139">
+        <v>0</v>
+      </c>
+      <c r="BL139">
+        <v>0</v>
+      </c>
+      <c r="BM139">
+        <v>0</v>
+      </c>
+      <c r="BN139">
+        <v>0</v>
+      </c>
+      <c r="BO139">
+        <v>0</v>
+      </c>
+      <c r="BP139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7465542</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45605.52083333334</v>
+      </c>
+      <c r="F140">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>82</v>
+      </c>
+      <c r="H140" t="s">
+        <v>81</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>184</v>
+      </c>
+      <c r="P140" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q140">
+        <v>2.5</v>
+      </c>
+      <c r="R140">
+        <v>2.15</v>
+      </c>
+      <c r="S140">
+        <v>3.85</v>
+      </c>
+      <c r="T140">
+        <v>1.33</v>
+      </c>
+      <c r="U140">
+        <v>3</v>
+      </c>
+      <c r="V140">
+        <v>2.45</v>
+      </c>
+      <c r="W140">
+        <v>1.48</v>
+      </c>
+      <c r="X140">
+        <v>5.55</v>
+      </c>
+      <c r="Y140">
+        <v>1.12</v>
+      </c>
+      <c r="Z140">
         <v>2</v>
       </c>
-      <c r="AO139">
-        <v>0.67</v>
-      </c>
-      <c r="AP139">
-        <v>2.14</v>
-      </c>
-      <c r="AQ139">
-        <v>0.57</v>
-      </c>
-      <c r="AR139">
-        <v>1.86</v>
-      </c>
-      <c r="AS139">
-        <v>1.33</v>
-      </c>
-      <c r="AT139">
-        <v>3.19</v>
-      </c>
-      <c r="AU139">
+      <c r="AA140">
+        <v>3.6</v>
+      </c>
+      <c r="AB140">
+        <v>3.5</v>
+      </c>
+      <c r="AC140">
+        <v>1.04</v>
+      </c>
+      <c r="AD140">
+        <v>10</v>
+      </c>
+      <c r="AE140">
+        <v>1.22</v>
+      </c>
+      <c r="AF140">
+        <v>4.2</v>
+      </c>
+      <c r="AG140">
+        <v>1.67</v>
+      </c>
+      <c r="AH140">
+        <v>2.15</v>
+      </c>
+      <c r="AI140">
+        <v>1.55</v>
+      </c>
+      <c r="AJ140">
+        <v>2.25</v>
+      </c>
+      <c r="AK140">
+        <v>1.28</v>
+      </c>
+      <c r="AL140">
+        <v>1.22</v>
+      </c>
+      <c r="AM140">
+        <v>1.77</v>
+      </c>
+      <c r="AN140">
+        <v>2</v>
+      </c>
+      <c r="AO140">
+        <v>1.71</v>
+      </c>
+      <c r="AP140">
+        <v>2.17</v>
+      </c>
+      <c r="AQ140">
+        <v>1.5</v>
+      </c>
+      <c r="AR140">
+        <v>1.77</v>
+      </c>
+      <c r="AS140">
+        <v>1.48</v>
+      </c>
+      <c r="AT140">
+        <v>3.25</v>
+      </c>
+      <c r="AU140">
+        <v>7</v>
+      </c>
+      <c r="AV140">
         <v>9</v>
       </c>
-      <c r="AV139">
-        <v>3</v>
-      </c>
-      <c r="AW139">
+      <c r="AW140">
+        <v>6</v>
+      </c>
+      <c r="AX140">
+        <v>7</v>
+      </c>
+      <c r="AY140">
         <v>17</v>
       </c>
-      <c r="AX139">
-        <v>0</v>
-      </c>
-      <c r="AY139">
-        <v>34</v>
-      </c>
-      <c r="AZ139">
-        <v>4</v>
-      </c>
-      <c r="BA139">
-        <v>14</v>
-      </c>
-      <c r="BB139">
-        <v>1</v>
-      </c>
-      <c r="BC139">
+      <c r="AZ140">
+        <v>19</v>
+      </c>
+      <c r="BA140">
+        <v>10</v>
+      </c>
+      <c r="BB140">
+        <v>5</v>
+      </c>
+      <c r="BC140">
         <v>15</v>
       </c>
-      <c r="BD139">
-        <v>0</v>
-      </c>
-      <c r="BE139">
-        <v>0</v>
-      </c>
-      <c r="BF139">
-        <v>0</v>
-      </c>
-      <c r="BG139">
-        <v>0</v>
-      </c>
-      <c r="BH139">
-        <v>0</v>
-      </c>
-      <c r="BI139">
-        <v>0</v>
-      </c>
-      <c r="BJ139">
-        <v>0</v>
-      </c>
-      <c r="BK139">
-        <v>0</v>
-      </c>
-      <c r="BL139">
-        <v>0</v>
-      </c>
-      <c r="BM139">
-        <v>0</v>
-      </c>
-      <c r="BN139">
-        <v>0</v>
-      </c>
-      <c r="BO139">
-        <v>0</v>
-      </c>
-      <c r="BP139">
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>0</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>0</v>
+      </c>
+      <c r="BJ140">
+        <v>0</v>
+      </c>
+      <c r="BK140">
+        <v>0</v>
+      </c>
+      <c r="BL140">
+        <v>0</v>
+      </c>
+      <c r="BM140">
+        <v>0</v>
+      </c>
+      <c r="BN140">
+        <v>0</v>
+      </c>
+      <c r="BO140">
+        <v>0</v>
+      </c>
+      <c r="BP140">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,22 +553,25 @@
     <t>['59', '90+2']</t>
   </si>
   <si>
-    <t>['35', '89']</t>
-  </si>
-  <si>
-    <t>['39', '45+1']</t>
-  </si>
-  <si>
-    <t>['72', '85']</t>
-  </si>
-  <si>
     <t>['28']</t>
   </si>
   <si>
     <t>['31', '48', '54', '90+4']</t>
   </si>
   <si>
+    <t>['39', '45+1']</t>
+  </si>
+  <si>
+    <t>['35', '89']</t>
+  </si>
+  <si>
+    <t>['72', '85']</t>
+  </si>
+  <si>
     <t>['17']</t>
+  </si>
+  <si>
+    <t>['17', '46', '65', '73']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -1173,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1638,7 +1641,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1844,7 +1847,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2050,7 +2053,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2256,7 +2259,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2462,7 +2465,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2668,7 +2671,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2874,7 +2877,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3080,7 +3083,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3286,7 +3289,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3698,7 +3701,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4316,7 +4319,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4806,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ18">
         <v>1.5</v>
@@ -5015,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5140,7 +5143,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5839,7 +5842,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ23">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR23">
         <v>2.16</v>
@@ -6170,7 +6173,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6376,7 +6379,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6582,7 +6585,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6994,7 +6997,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7406,7 +7409,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -8024,7 +8027,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8230,7 +8233,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8720,7 +8723,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ37">
         <v>2.14</v>
@@ -8848,7 +8851,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9054,7 +9057,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9466,7 +9469,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -10084,7 +10087,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10290,7 +10293,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10496,7 +10499,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10702,7 +10705,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10908,7 +10911,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11320,7 +11323,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11401,7 +11404,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ50">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR50">
         <v>1.58</v>
@@ -11526,7 +11529,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11732,7 +11735,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12556,7 +12559,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12968,7 +12971,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13174,7 +13177,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13586,7 +13589,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13792,7 +13795,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13998,7 +14001,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14616,7 +14619,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14694,7 +14697,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ66">
         <v>1.57</v>
@@ -15028,7 +15031,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15234,7 +15237,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15440,7 +15443,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15646,7 +15649,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15852,7 +15855,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16058,7 +16061,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16264,7 +16267,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16470,7 +16473,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -17088,7 +17091,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17294,7 +17297,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17706,7 +17709,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17787,7 +17790,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ81">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR81">
         <v>1.73</v>
@@ -18118,7 +18121,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18324,7 +18327,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18942,7 +18945,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19148,7 +19151,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19432,7 +19435,7 @@
         <v>2.25</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ89">
         <v>1.5</v>
@@ -19560,7 +19563,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19972,7 +19975,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20384,7 +20387,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20465,7 +20468,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR94">
         <v>1.92</v>
@@ -20590,7 +20593,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20796,7 +20799,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21002,7 +21005,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21414,7 +21417,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21826,7 +21829,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22032,7 +22035,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22444,7 +22447,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22856,7 +22859,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23474,7 +23477,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23680,7 +23683,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23758,7 +23761,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ110">
         <v>1.14</v>
@@ -23886,7 +23889,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24092,7 +24095,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24376,7 +24379,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ113">
         <v>0.57</v>
@@ -24504,7 +24507,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24710,7 +24713,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24916,7 +24919,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25122,7 +25125,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25328,7 +25331,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25534,7 +25537,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25740,7 +25743,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25946,7 +25949,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26027,7 +26030,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ121">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR121">
         <v>1.74</v>
@@ -26152,7 +26155,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26358,7 +26361,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26564,7 +26567,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26770,7 +26773,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27182,7 +27185,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27388,7 +27391,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27800,7 +27803,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28006,7 +28009,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28179,10 +28182,10 @@
         <v>69</v>
       </c>
       <c r="E132" s="2">
-        <v>45603.875</v>
+        <v>45604.66666666666</v>
       </c>
       <c r="F132">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
         <v>73</v>
@@ -28376,7 +28379,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7465533</v>
+        <v>7465541</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28385,157 +28388,157 @@
         <v>69</v>
       </c>
       <c r="E133" s="2">
-        <v>45603.875</v>
+        <v>45604.66666666666</v>
       </c>
       <c r="F133">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H133" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>93</v>
+      </c>
+      <c r="P133" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q133">
+        <v>2.5</v>
+      </c>
+      <c r="R133">
+        <v>2.25</v>
+      </c>
+      <c r="S133">
+        <v>3.6</v>
+      </c>
+      <c r="T133">
+        <v>1.28</v>
+      </c>
+      <c r="U133">
+        <v>3.35</v>
+      </c>
+      <c r="V133">
+        <v>2.25</v>
+      </c>
+      <c r="W133">
+        <v>1.57</v>
+      </c>
+      <c r="X133">
+        <v>5.2</v>
+      </c>
+      <c r="Y133">
+        <v>1.14</v>
+      </c>
+      <c r="Z133">
         <v>2</v>
       </c>
-      <c r="M133">
-        <v>0</v>
-      </c>
-      <c r="N133">
-        <v>2</v>
-      </c>
-      <c r="O133" t="s">
-        <v>179</v>
-      </c>
-      <c r="P133" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q133">
-        <v>1.9</v>
-      </c>
-      <c r="R133">
-        <v>2.55</v>
-      </c>
-      <c r="S133">
-        <v>5</v>
-      </c>
-      <c r="T133">
-        <v>1.22</v>
-      </c>
-      <c r="U133">
-        <v>3.75</v>
-      </c>
-      <c r="V133">
-        <v>2.1</v>
-      </c>
-      <c r="W133">
-        <v>1.67</v>
-      </c>
-      <c r="X133">
-        <v>4.6</v>
-      </c>
-      <c r="Y133">
-        <v>1.17</v>
-      </c>
-      <c r="Z133">
-        <v>1.45</v>
-      </c>
       <c r="AA133">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="AB133">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="AC133">
         <v>1.01</v>
       </c>
       <c r="AD133">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE133">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AF133">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="AG133">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AH133">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AI133">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AJ133">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AK133">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AL133">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AM133">
-        <v>2.65</v>
+        <v>1.75</v>
       </c>
       <c r="AN133">
-        <v>1.29</v>
+        <v>0.57</v>
       </c>
       <c r="AO133">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AQ133">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="AR133">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AS133">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AT133">
-        <v>3.19</v>
+        <v>3.05</v>
       </c>
       <c r="AU133">
         <v>3</v>
       </c>
       <c r="AV133">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW133">
         <v>5</v>
       </c>
       <c r="AX133">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY133">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ133">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB133">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC133">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD133">
         <v>0</v>
@@ -28582,7 +28585,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7465534</v>
+        <v>7465540</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28591,94 +28594,94 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45603.875</v>
+        <v>45604.66666666666</v>
       </c>
       <c r="F134">
         <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H134" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M134">
         <v>0</v>
       </c>
       <c r="N134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P134" t="s">
         <v>93</v>
       </c>
       <c r="Q134">
-        <v>1.85</v>
+        <v>3.45</v>
       </c>
       <c r="R134">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="S134">
-        <v>5.5</v>
+        <v>2.65</v>
       </c>
       <c r="T134">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U134">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="V134">
+        <v>2.55</v>
+      </c>
+      <c r="W134">
+        <v>1.45</v>
+      </c>
+      <c r="X134">
+        <v>5.65</v>
+      </c>
+      <c r="Y134">
+        <v>1.12</v>
+      </c>
+      <c r="Z134">
+        <v>3.1</v>
+      </c>
+      <c r="AA134">
+        <v>3.6</v>
+      </c>
+      <c r="AB134">
+        <v>2.15</v>
+      </c>
+      <c r="AC134">
+        <v>1.04</v>
+      </c>
+      <c r="AD134">
+        <v>10</v>
+      </c>
+      <c r="AE134">
+        <v>1.22</v>
+      </c>
+      <c r="AF134">
+        <v>4</v>
+      </c>
+      <c r="AG134">
+        <v>1.73</v>
+      </c>
+      <c r="AH134">
         <v>2.1</v>
-      </c>
-      <c r="W134">
-        <v>1.67</v>
-      </c>
-      <c r="X134">
-        <v>4.45</v>
-      </c>
-      <c r="Y134">
-        <v>1.18</v>
-      </c>
-      <c r="Z134">
-        <v>1.4</v>
-      </c>
-      <c r="AA134">
-        <v>4.75</v>
-      </c>
-      <c r="AB134">
-        <v>7</v>
-      </c>
-      <c r="AC134">
-        <v>1.01</v>
-      </c>
-      <c r="AD134">
-        <v>17</v>
-      </c>
-      <c r="AE134">
-        <v>1.15</v>
-      </c>
-      <c r="AF134">
-        <v>5.25</v>
-      </c>
-      <c r="AG134">
-        <v>1.45</v>
-      </c>
-      <c r="AH134">
-        <v>2.7</v>
       </c>
       <c r="AI134">
         <v>1.57</v>
@@ -28687,58 +28690,58 @@
         <v>2.2</v>
       </c>
       <c r="AK134">
-        <v>1.1</v>
+        <v>1.67</v>
       </c>
       <c r="AL134">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AM134">
-        <v>2.8</v>
+        <v>1.36</v>
       </c>
       <c r="AN134">
-        <v>2.5</v>
+        <v>1.43</v>
       </c>
       <c r="AO134">
+        <v>1.67</v>
+      </c>
+      <c r="AP134">
+        <v>1.63</v>
+      </c>
+      <c r="AQ134">
         <v>1.43</v>
       </c>
-      <c r="AP134">
-        <v>2.57</v>
-      </c>
-      <c r="AQ134">
-        <v>1.25</v>
-      </c>
       <c r="AR134">
-        <v>1.83</v>
+        <v>1.22</v>
       </c>
       <c r="AS134">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AT134">
-        <v>2.98</v>
+        <v>2.45</v>
       </c>
       <c r="AU134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV134">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW134">
+        <v>3</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
         <v>8</v>
       </c>
-      <c r="AX134">
-        <v>1</v>
-      </c>
-      <c r="AY134">
-        <v>15</v>
-      </c>
       <c r="AZ134">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC134">
         <v>5</v>
@@ -28788,7 +28791,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7465537</v>
+        <v>7465539</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28797,55 +28800,55 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45603.875</v>
+        <v>45604.66666666666</v>
       </c>
       <c r="F135">
         <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H135" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M135">
         <v>0</v>
       </c>
       <c r="N135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="P135" t="s">
         <v>93</v>
       </c>
       <c r="Q135">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="R135">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="S135">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="T135">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U135">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V135">
         <v>2.1</v>
@@ -28860,13 +28863,13 @@
         <v>1.18</v>
       </c>
       <c r="Z135">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AA135">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="AB135">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AC135">
         <v>1.01</v>
@@ -28875,10 +28878,10 @@
         <v>17</v>
       </c>
       <c r="AE135">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AF135">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG135">
         <v>1.44</v>
@@ -28887,67 +28890,67 @@
         <v>2.7</v>
       </c>
       <c r="AI135">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AJ135">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AK135">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AL135">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AM135">
+        <v>2.35</v>
+      </c>
+      <c r="AN135">
+        <v>0.67</v>
+      </c>
+      <c r="AO135">
+        <v>1.71</v>
+      </c>
+      <c r="AP135">
+        <v>1</v>
+      </c>
+      <c r="AQ135">
+        <v>1.5</v>
+      </c>
+      <c r="AR135">
+        <v>1.75</v>
+      </c>
+      <c r="AS135">
+        <v>1.49</v>
+      </c>
+      <c r="AT135">
+        <v>3.24</v>
+      </c>
+      <c r="AU135">
+        <v>12</v>
+      </c>
+      <c r="AV135">
+        <v>0</v>
+      </c>
+      <c r="AW135">
+        <v>5</v>
+      </c>
+      <c r="AX135">
+        <v>4</v>
+      </c>
+      <c r="AY135">
+        <v>30</v>
+      </c>
+      <c r="AZ135">
+        <v>9</v>
+      </c>
+      <c r="BA135">
+        <v>9</v>
+      </c>
+      <c r="BB135">
         <v>3</v>
       </c>
-      <c r="AN135">
-        <v>2</v>
-      </c>
-      <c r="AO135">
-        <v>0.67</v>
-      </c>
-      <c r="AP135">
-        <v>2.14</v>
-      </c>
-      <c r="AQ135">
-        <v>0.57</v>
-      </c>
-      <c r="AR135">
-        <v>1.86</v>
-      </c>
-      <c r="AS135">
-        <v>1.33</v>
-      </c>
-      <c r="AT135">
-        <v>3.19</v>
-      </c>
-      <c r="AU135">
-        <v>9</v>
-      </c>
-      <c r="AV135">
-        <v>3</v>
-      </c>
-      <c r="AW135">
-        <v>17</v>
-      </c>
-      <c r="AX135">
-        <v>0</v>
-      </c>
-      <c r="AY135">
-        <v>34</v>
-      </c>
-      <c r="AZ135">
-        <v>4</v>
-      </c>
-      <c r="BA135">
-        <v>14</v>
-      </c>
-      <c r="BB135">
-        <v>1</v>
-      </c>
       <c r="BC135">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD135">
         <v>0</v>
@@ -28994,7 +28997,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7465541</v>
+        <v>7465535</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -29009,151 +29012,151 @@
         <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H136" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O136" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R136">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S136">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="T136">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U136">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="V136">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W136">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X136">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Y136">
         <v>1.14</v>
       </c>
       <c r="Z136">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AA136">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AB136">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="AC136">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD136">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE136">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AF136">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AG136">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AH136">
+        <v>2.3</v>
+      </c>
+      <c r="AI136">
+        <v>1.62</v>
+      </c>
+      <c r="AJ136">
+        <v>2.2</v>
+      </c>
+      <c r="AK136">
+        <v>1.16</v>
+      </c>
+      <c r="AL136">
+        <v>1.17</v>
+      </c>
+      <c r="AM136">
         <v>2.4</v>
       </c>
-      <c r="AI136">
-        <v>1.45</v>
-      </c>
-      <c r="AJ136">
-        <v>2.5</v>
-      </c>
-      <c r="AK136">
-        <v>1.3</v>
-      </c>
-      <c r="AL136">
-        <v>1.22</v>
-      </c>
-      <c r="AM136">
-        <v>1.75</v>
-      </c>
       <c r="AN136">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="AO136">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AQ136">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AR136">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AS136">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AT136">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="AU136">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AV136">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW136">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX136">
         <v>3</v>
       </c>
       <c r="AY136">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ136">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA136">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB136">
         <v>3</v>
       </c>
       <c r="BC136">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD136">
         <v>0</v>
@@ -29200,7 +29203,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7465540</v>
+        <v>7465534</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -29212,91 +29215,91 @@
         <v>45604.66666666666</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G137" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H137" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M137">
         <v>0</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P137" t="s">
         <v>93</v>
       </c>
       <c r="Q137">
-        <v>3.45</v>
+        <v>1.85</v>
       </c>
       <c r="R137">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S137">
-        <v>2.65</v>
+        <v>5.5</v>
       </c>
       <c r="T137">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U137">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="V137">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="W137">
+        <v>1.67</v>
+      </c>
+      <c r="X137">
+        <v>4.45</v>
+      </c>
+      <c r="Y137">
+        <v>1.18</v>
+      </c>
+      <c r="Z137">
+        <v>1.4</v>
+      </c>
+      <c r="AA137">
+        <v>4.75</v>
+      </c>
+      <c r="AB137">
+        <v>7</v>
+      </c>
+      <c r="AC137">
+        <v>1.01</v>
+      </c>
+      <c r="AD137">
+        <v>17</v>
+      </c>
+      <c r="AE137">
+        <v>1.15</v>
+      </c>
+      <c r="AF137">
+        <v>5.25</v>
+      </c>
+      <c r="AG137">
         <v>1.45</v>
       </c>
-      <c r="X137">
-        <v>5.65</v>
-      </c>
-      <c r="Y137">
-        <v>1.12</v>
-      </c>
-      <c r="Z137">
-        <v>3.1</v>
-      </c>
-      <c r="AA137">
-        <v>3.6</v>
-      </c>
-      <c r="AB137">
-        <v>2.15</v>
-      </c>
-      <c r="AC137">
-        <v>1.04</v>
-      </c>
-      <c r="AD137">
-        <v>10</v>
-      </c>
-      <c r="AE137">
-        <v>1.22</v>
-      </c>
-      <c r="AF137">
-        <v>4</v>
-      </c>
-      <c r="AG137">
-        <v>1.73</v>
-      </c>
       <c r="AH137">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AI137">
         <v>1.57</v>
@@ -29305,58 +29308,58 @@
         <v>2.2</v>
       </c>
       <c r="AK137">
-        <v>1.67</v>
+        <v>1.1</v>
       </c>
       <c r="AL137">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AM137">
-        <v>1.36</v>
+        <v>2.8</v>
       </c>
       <c r="AN137">
+        <v>2.5</v>
+      </c>
+      <c r="AO137">
         <v>1.43</v>
       </c>
-      <c r="AO137">
-        <v>1.67</v>
-      </c>
       <c r="AP137">
-        <v>1.63</v>
+        <v>2.57</v>
       </c>
       <c r="AQ137">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR137">
-        <v>1.22</v>
+        <v>1.83</v>
       </c>
       <c r="AS137">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AT137">
-        <v>2.45</v>
+        <v>2.98</v>
       </c>
       <c r="AU137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV137">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW137">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY137">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ137">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC137">
         <v>5</v>
@@ -29406,7 +29409,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7465535</v>
+        <v>7465533</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29418,154 +29421,154 @@
         <v>45604.66666666666</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H138" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
         <v>2</v>
       </c>
-      <c r="K138">
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>182</v>
+      </c>
+      <c r="P138" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q138">
+        <v>1.9</v>
+      </c>
+      <c r="R138">
+        <v>2.55</v>
+      </c>
+      <c r="S138">
+        <v>5</v>
+      </c>
+      <c r="T138">
+        <v>1.22</v>
+      </c>
+      <c r="U138">
+        <v>3.75</v>
+      </c>
+      <c r="V138">
+        <v>2.1</v>
+      </c>
+      <c r="W138">
+        <v>1.67</v>
+      </c>
+      <c r="X138">
+        <v>4.6</v>
+      </c>
+      <c r="Y138">
+        <v>1.17</v>
+      </c>
+      <c r="Z138">
+        <v>1.45</v>
+      </c>
+      <c r="AA138">
+        <v>4.75</v>
+      </c>
+      <c r="AB138">
+        <v>6</v>
+      </c>
+      <c r="AC138">
+        <v>1.01</v>
+      </c>
+      <c r="AD138">
+        <v>17</v>
+      </c>
+      <c r="AE138">
+        <v>1.13</v>
+      </c>
+      <c r="AF138">
+        <v>5.75</v>
+      </c>
+      <c r="AG138">
+        <v>1.44</v>
+      </c>
+      <c r="AH138">
+        <v>2.7</v>
+      </c>
+      <c r="AI138">
+        <v>1.53</v>
+      </c>
+      <c r="AJ138">
+        <v>2.3</v>
+      </c>
+      <c r="AK138">
+        <v>1.12</v>
+      </c>
+      <c r="AL138">
+        <v>1.14</v>
+      </c>
+      <c r="AM138">
+        <v>2.65</v>
+      </c>
+      <c r="AN138">
+        <v>1.29</v>
+      </c>
+      <c r="AO138">
+        <v>1.33</v>
+      </c>
+      <c r="AP138">
+        <v>1.5</v>
+      </c>
+      <c r="AQ138">
+        <v>1.14</v>
+      </c>
+      <c r="AR138">
+        <v>1.74</v>
+      </c>
+      <c r="AS138">
+        <v>1.45</v>
+      </c>
+      <c r="AT138">
+        <v>3.19</v>
+      </c>
+      <c r="AU138">
         <v>3</v>
       </c>
-      <c r="L138">
-        <v>4</v>
-      </c>
-      <c r="M138">
-        <v>2</v>
-      </c>
-      <c r="N138">
+      <c r="AV138">
         <v>6</v>
       </c>
-      <c r="O138" t="s">
-        <v>183</v>
-      </c>
-      <c r="P138" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q138">
-        <v>2.25</v>
-      </c>
-      <c r="R138">
-        <v>2.4</v>
-      </c>
-      <c r="S138">
-        <v>4.33</v>
-      </c>
-      <c r="T138">
-        <v>1.29</v>
-      </c>
-      <c r="U138">
-        <v>3.5</v>
-      </c>
-      <c r="V138">
-        <v>2.38</v>
-      </c>
-      <c r="W138">
-        <v>1.53</v>
-      </c>
-      <c r="X138">
-        <v>5.5</v>
-      </c>
-      <c r="Y138">
-        <v>1.14</v>
-      </c>
-      <c r="Z138">
-        <v>1.7</v>
-      </c>
-      <c r="AA138">
-        <v>3.9</v>
-      </c>
-      <c r="AB138">
-        <v>4.1</v>
-      </c>
-      <c r="AC138">
-        <v>1.03</v>
-      </c>
-      <c r="AD138">
-        <v>11</v>
-      </c>
-      <c r="AE138">
-        <v>1.16</v>
-      </c>
-      <c r="AF138">
+      <c r="AW138">
         <v>5</v>
       </c>
-      <c r="AG138">
-        <v>1.6</v>
-      </c>
-      <c r="AH138">
-        <v>2.3</v>
-      </c>
-      <c r="AI138">
-        <v>1.62</v>
-      </c>
-      <c r="AJ138">
-        <v>2.2</v>
-      </c>
-      <c r="AK138">
-        <v>1.16</v>
-      </c>
-      <c r="AL138">
-        <v>1.17</v>
-      </c>
-      <c r="AM138">
-        <v>2.4</v>
-      </c>
-      <c r="AN138">
-        <v>0.86</v>
-      </c>
-      <c r="AO138">
-        <v>1.5</v>
-      </c>
-      <c r="AP138">
-        <v>1.13</v>
-      </c>
-      <c r="AQ138">
-        <v>1.29</v>
-      </c>
-      <c r="AR138">
-        <v>1.7</v>
-      </c>
-      <c r="AS138">
-        <v>1.42</v>
-      </c>
-      <c r="AT138">
-        <v>3.12</v>
-      </c>
-      <c r="AU138">
-        <v>11</v>
-      </c>
-      <c r="AV138">
+      <c r="AX138">
+        <v>5</v>
+      </c>
+      <c r="AY138">
         <v>9</v>
       </c>
-      <c r="AW138">
+      <c r="AZ138">
+        <v>12</v>
+      </c>
+      <c r="BA138">
+        <v>1</v>
+      </c>
+      <c r="BB138">
+        <v>5</v>
+      </c>
+      <c r="BC138">
         <v>6</v>
-      </c>
-      <c r="AX138">
-        <v>3</v>
-      </c>
-      <c r="AY138">
-        <v>18</v>
-      </c>
-      <c r="AZ138">
-        <v>13</v>
-      </c>
-      <c r="BA138">
-        <v>6</v>
-      </c>
-      <c r="BB138">
-        <v>3</v>
-      </c>
-      <c r="BC138">
-        <v>9</v>
       </c>
       <c r="BD138">
         <v>0</v>
@@ -29612,7 +29615,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7465539</v>
+        <v>7465537</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29627,49 +29630,49 @@
         <v>14</v>
       </c>
       <c r="G139" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H139" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M139">
         <v>0</v>
       </c>
       <c r="N139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O139" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="P139" t="s">
         <v>93</v>
       </c>
       <c r="Q139">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="R139">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="S139">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="T139">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U139">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V139">
         <v>2.1</v>
@@ -29684,13 +29687,13 @@
         <v>1.18</v>
       </c>
       <c r="Z139">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AA139">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AB139">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AC139">
         <v>1.01</v>
@@ -29699,10 +29702,10 @@
         <v>17</v>
       </c>
       <c r="AE139">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AF139">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG139">
         <v>1.44</v>
@@ -29711,67 +29714,67 @@
         <v>2.7</v>
       </c>
       <c r="AI139">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AJ139">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AK139">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AL139">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AM139">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="AN139">
+        <v>2</v>
+      </c>
+      <c r="AO139">
         <v>0.67</v>
       </c>
-      <c r="AO139">
-        <v>1.71</v>
-      </c>
       <c r="AP139">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR139">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="AS139">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AT139">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="AU139">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW139">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>34</v>
+      </c>
+      <c r="AZ139">
         <v>4</v>
       </c>
-      <c r="AY139">
-        <v>30</v>
-      </c>
-      <c r="AZ139">
-        <v>9</v>
-      </c>
       <c r="BA139">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BB139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC139">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD139">
         <v>0</v>
@@ -30017,6 +30020,212 @@
       </c>
       <c r="BP140">
         <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7465543</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F141">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>86</v>
+      </c>
+      <c r="H141" t="s">
+        <v>72</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>4</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>4</v>
+      </c>
+      <c r="O141" t="s">
+        <v>185</v>
+      </c>
+      <c r="P141" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q141">
+        <v>2.4</v>
+      </c>
+      <c r="R141">
+        <v>2.3</v>
+      </c>
+      <c r="S141">
+        <v>3.7</v>
+      </c>
+      <c r="T141">
+        <v>1.25</v>
+      </c>
+      <c r="U141">
+        <v>3.45</v>
+      </c>
+      <c r="V141">
+        <v>2.15</v>
+      </c>
+      <c r="W141">
+        <v>1.62</v>
+      </c>
+      <c r="X141">
+        <v>4.75</v>
+      </c>
+      <c r="Y141">
+        <v>1.16</v>
+      </c>
+      <c r="Z141">
+        <v>2</v>
+      </c>
+      <c r="AA141">
+        <v>3.7</v>
+      </c>
+      <c r="AB141">
+        <v>3.35</v>
+      </c>
+      <c r="AC141">
+        <v>1.01</v>
+      </c>
+      <c r="AD141">
+        <v>13</v>
+      </c>
+      <c r="AE141">
+        <v>1.17</v>
+      </c>
+      <c r="AF141">
+        <v>5</v>
+      </c>
+      <c r="AG141">
+        <v>1.5</v>
+      </c>
+      <c r="AH141">
+        <v>2.55</v>
+      </c>
+      <c r="AI141">
+        <v>1.42</v>
+      </c>
+      <c r="AJ141">
+        <v>2.62</v>
+      </c>
+      <c r="AK141">
+        <v>1.3</v>
+      </c>
+      <c r="AL141">
+        <v>1.22</v>
+      </c>
+      <c r="AM141">
+        <v>1.77</v>
+      </c>
+      <c r="AN141">
+        <v>2</v>
+      </c>
+      <c r="AO141">
+        <v>2.67</v>
+      </c>
+      <c r="AP141">
+        <v>2.14</v>
+      </c>
+      <c r="AQ141">
+        <v>2.29</v>
+      </c>
+      <c r="AR141">
+        <v>2.06</v>
+      </c>
+      <c r="AS141">
+        <v>1.48</v>
+      </c>
+      <c r="AT141">
+        <v>3.54</v>
+      </c>
+      <c r="AU141">
+        <v>8</v>
+      </c>
+      <c r="AV141">
+        <v>3</v>
+      </c>
+      <c r="AW141">
+        <v>4</v>
+      </c>
+      <c r="AX141">
+        <v>2</v>
+      </c>
+      <c r="AY141">
+        <v>14</v>
+      </c>
+      <c r="AZ141">
+        <v>10</v>
+      </c>
+      <c r="BA141">
+        <v>5</v>
+      </c>
+      <c r="BB141">
+        <v>9</v>
+      </c>
+      <c r="BC141">
+        <v>14</v>
+      </c>
+      <c r="BD141">
+        <v>1.52</v>
+      </c>
+      <c r="BE141">
+        <v>6.5</v>
+      </c>
+      <c r="BF141">
+        <v>3.15</v>
+      </c>
+      <c r="BG141">
+        <v>1.18</v>
+      </c>
+      <c r="BH141">
+        <v>4.6</v>
+      </c>
+      <c r="BI141">
+        <v>1.25</v>
+      </c>
+      <c r="BJ141">
+        <v>3.5</v>
+      </c>
+      <c r="BK141">
+        <v>1.48</v>
+      </c>
+      <c r="BL141">
+        <v>2.42</v>
+      </c>
+      <c r="BM141">
+        <v>1.82</v>
+      </c>
+      <c r="BN141">
+        <v>1.82</v>
+      </c>
+      <c r="BO141">
+        <v>2.42</v>
+      </c>
+      <c r="BP141">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -30036,7 +30036,7 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45605.875</v>
+        <v>45606.53125</v>
       </c>
       <c r="F141">
         <v>14</v>
